--- a/spreadsheets/clips.xlsx
+++ b/spreadsheets/clips.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="2040" yWindow="440" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="897">
   <si>
     <t>id</t>
   </si>
@@ -481,6 +481,2238 @@
   </si>
   <si>
     <t>00;01;36;09</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>00;01;36;40</t>
+  </si>
+  <si>
+    <t>00;01;37;11</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>00;01;37;07</t>
+  </si>
+  <si>
+    <t>00;01;37;20</t>
+  </si>
+  <si>
+    <t>those</t>
+  </si>
+  <si>
+    <t>00;01;37;21</t>
+  </si>
+  <si>
+    <t>00;01;37;40</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>00;01;37;53</t>
+  </si>
+  <si>
+    <t>00;01;38;06</t>
+  </si>
+  <si>
+    <t>00;01;38;05</t>
+  </si>
+  <si>
+    <t>00;01;38;21</t>
+  </si>
+  <si>
+    <t>checked</t>
+  </si>
+  <si>
+    <t>00;01;38;26</t>
+  </si>
+  <si>
+    <t>00;01;38;48</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>00;01;38;57</t>
+  </si>
+  <si>
+    <t>00;01;39;17</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>00;01;39;18</t>
+  </si>
+  <si>
+    <t>00;01;39;31</t>
+  </si>
+  <si>
+    <t>their</t>
+  </si>
+  <si>
+    <t>00;01;39;33</t>
+  </si>
+  <si>
+    <t>00;01;39;46</t>
+  </si>
+  <si>
+    <t>there</t>
+  </si>
+  <si>
+    <t>november</t>
+  </si>
+  <si>
+    <t>00;01;39;48</t>
+  </si>
+  <si>
+    <t>00;01;40;19</t>
+  </si>
+  <si>
+    <t>ballot</t>
+  </si>
+  <si>
+    <t>00;01;40;20</t>
+  </si>
+  <si>
+    <t>00;01;40;57</t>
+  </si>
+  <si>
+    <t>lord</t>
+  </si>
+  <si>
+    <t>00;01;49;40</t>
+  </si>
+  <si>
+    <t>00;01;50;03</t>
+  </si>
+  <si>
+    <t>didn't</t>
+  </si>
+  <si>
+    <t>00;01;50;02</t>
+  </si>
+  <si>
+    <t>00;01;50;23</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>00;01;50;24</t>
+  </si>
+  <si>
+    <t>00;01;50;39</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>00;01;50;41</t>
+  </si>
+  <si>
+    <t>00;01;50;58</t>
+  </si>
+  <si>
+    <t>00;01;51;19</t>
+  </si>
+  <si>
+    <t>00;01;52;09</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>00;01;52;11</t>
+  </si>
+  <si>
+    <t>00;01;52;36</t>
+  </si>
+  <si>
+    <t>democrats</t>
+  </si>
+  <si>
+    <t>00;01;53;11</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>00;01;55;41</t>
+  </si>
+  <si>
+    <t>00;01;56;11</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>00;01;59;02</t>
+  </si>
+  <si>
+    <t>00;01;59;14</t>
+  </si>
+  <si>
+    <t>answers</t>
+  </si>
+  <si>
+    <t>00;01;59;57</t>
+  </si>
+  <si>
+    <t>00;02;00;32</t>
+  </si>
+  <si>
+    <t>00;02;01;39</t>
+  </si>
+  <si>
+    <t>00;02;02;14</t>
+  </si>
+  <si>
+    <t>together</t>
+  </si>
+  <si>
+    <t>00;02;02;08</t>
+  </si>
+  <si>
+    <t>00;02;02;50</t>
+  </si>
+  <si>
+    <t>00;02;03;56</t>
+  </si>
+  <si>
+    <t>00;02;04;23</t>
+  </si>
+  <si>
+    <t>partners</t>
+  </si>
+  <si>
+    <t>00;02;05;13</t>
+  </si>
+  <si>
+    <t>00;02;05;45</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>00;02;05;50</t>
+  </si>
+  <si>
+    <t>00;02;06;14</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>00;02;14;37</t>
+  </si>
+  <si>
+    <t>00;02;14;50</t>
+  </si>
+  <si>
+    <t>very</t>
+  </si>
+  <si>
+    <t>00;02;14;52</t>
+  </si>
+  <si>
+    <t>00;02;15;05</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>00;02;15;06</t>
+  </si>
+  <si>
+    <t>00;02;15;20</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>00;02;15;44</t>
+  </si>
+  <si>
+    <t>00;02;16;11</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>00;02;16;46</t>
+  </si>
+  <si>
+    <t>00;02;17;02</t>
+  </si>
+  <si>
+    <t>village</t>
+  </si>
+  <si>
+    <t>00;02;17;24</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>00;02;17;42</t>
+  </si>
+  <si>
+    <t>00;02;17;57</t>
+  </si>
+  <si>
+    <t>hispanic</t>
+  </si>
+  <si>
+    <t>00;02;17;58</t>
+  </si>
+  <si>
+    <t>00;02;18;29</t>
+  </si>
+  <si>
+    <t>communities</t>
+  </si>
+  <si>
+    <t>00;02;18;30</t>
+  </si>
+  <si>
+    <t>00;02;18;57</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>00;02;19;15</t>
+  </si>
+  <si>
+    <t>over</t>
+  </si>
+  <si>
+    <t>00;02;19;17</t>
+  </si>
+  <si>
+    <t>00;02;19;32</t>
+  </si>
+  <si>
+    <t>00;02;19;33</t>
+  </si>
+  <si>
+    <t>00;02;20;07</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>00;02;20;25</t>
+  </si>
+  <si>
+    <t>00;02;20;43</t>
+  </si>
+  <si>
+    <t>here</t>
+  </si>
+  <si>
+    <t>00;02;20;50</t>
+  </si>
+  <si>
+    <t>00;02;21;05</t>
+  </si>
+  <si>
+    <t>remind</t>
+  </si>
+  <si>
+    <t>00;02;22;08</t>
+  </si>
+  <si>
+    <t>00;02;22;30</t>
+  </si>
+  <si>
+    <t>everybody</t>
+  </si>
+  <si>
+    <t>00;02;22;31</t>
+  </si>
+  <si>
+    <t>00;02;23;02</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>00;02;23;38</t>
+  </si>
+  <si>
+    <t>00;02;23;48</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>00;02;23;49</t>
+  </si>
+  <si>
+    <t>00;02;24;03</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>00;02;24;04</t>
+  </si>
+  <si>
+    <t>00;02;24;26</t>
+  </si>
+  <si>
+    <t>we're</t>
+  </si>
+  <si>
+    <t>00;03;06;58</t>
+  </si>
+  <si>
+    <t>00;03;07;25</t>
+  </si>
+  <si>
+    <t>scheduling</t>
+  </si>
+  <si>
+    <t>00;03;07;26</t>
+  </si>
+  <si>
+    <t>00;03;07;53</t>
+  </si>
+  <si>
+    <t>meeting</t>
+  </si>
+  <si>
+    <t>00;03;07;58</t>
+  </si>
+  <si>
+    <t>00;03;08;30</t>
+  </si>
+  <si>
+    <t>eating</t>
+  </si>
+  <si>
+    <t>00;03;08;06</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>00;03;09;04</t>
+  </si>
+  <si>
+    <t>00;03;09;13</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>00;03;09;14</t>
+  </si>
+  <si>
+    <t>00;03;09;19</t>
+  </si>
+  <si>
+    <t>00;03;09;21</t>
+  </si>
+  <si>
+    <t>00;03;09;42</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>00;03;09;43</t>
+  </si>
+  <si>
+    <t>00;03;09;56</t>
+  </si>
+  <si>
+    <t>00;03;10;12</t>
+  </si>
+  <si>
+    <t>00;03;10;20</t>
+  </si>
+  <si>
+    <t>00;03;10;27</t>
+  </si>
+  <si>
+    <t>00;03;10;41</t>
+  </si>
+  <si>
+    <t>near</t>
+  </si>
+  <si>
+    <t>00;03;10;42</t>
+  </si>
+  <si>
+    <t>00;03;10;50</t>
+  </si>
+  <si>
+    <t>future</t>
+  </si>
+  <si>
+    <t>00;03;10;51</t>
+  </si>
+  <si>
+    <t>00;03;11;13</t>
+  </si>
+  <si>
+    <t>believe</t>
+  </si>
+  <si>
+    <t>00;03;11;57</t>
+  </si>
+  <si>
+    <t>00;03;12;11</t>
+  </si>
+  <si>
+    <t>been</t>
+  </si>
+  <si>
+    <t>00;03;12;19</t>
+  </si>
+  <si>
+    <t>00;03;12;25</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>00;03;12;27</t>
+  </si>
+  <si>
+    <t>00;03;12;43</t>
+  </si>
+  <si>
+    <t>coming</t>
+  </si>
+  <si>
+    <t>00;03;12;50</t>
+  </si>
+  <si>
+    <t>00;03;13;03</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>00;03;13;04</t>
+  </si>
+  <si>
+    <t>00;03;13;26</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>00;03;13;13</t>
+  </si>
+  <si>
+    <t>00;03;14;01</t>
+  </si>
+  <si>
+    <t>00;03;14;20</t>
+  </si>
+  <si>
+    <t>will</t>
+  </si>
+  <si>
+    <t>00;03;15;19</t>
+  </si>
+  <si>
+    <t>00;03;15;30</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>00;03;15;31</t>
+  </si>
+  <si>
+    <t>00;03;15;36</t>
+  </si>
+  <si>
+    <t>swarn</t>
+  </si>
+  <si>
+    <t>00;03;15;38</t>
+  </si>
+  <si>
+    <t>00;03;15;57</t>
+  </si>
+  <si>
+    <t>00;03;15;58</t>
+  </si>
+  <si>
+    <t>00;03;16;05</t>
+  </si>
+  <si>
+    <t>office</t>
+  </si>
+  <si>
+    <t>00;03;16;12</t>
+  </si>
+  <si>
+    <t>00;03;16;40</t>
+  </si>
+  <si>
+    <t>00;03;16;41</t>
+  </si>
+  <si>
+    <t>00;03;16;55</t>
+  </si>
+  <si>
+    <t>january</t>
+  </si>
+  <si>
+    <t>00;03;16;56</t>
+  </si>
+  <si>
+    <t>00;03;17;35</t>
+  </si>
+  <si>
+    <t>twelfth</t>
+  </si>
+  <si>
+    <t>00;03;17;36</t>
+  </si>
+  <si>
+    <t>00;03;18;18</t>
+  </si>
+  <si>
+    <t>00;03;18;44</t>
+  </si>
+  <si>
+    <t>00;03;18;57</t>
+  </si>
+  <si>
+    <t>eagles</t>
+  </si>
+  <si>
+    <t>00;03;19;00</t>
+  </si>
+  <si>
+    <t>00;03;19;17</t>
+  </si>
+  <si>
+    <t>eagle</t>
+  </si>
+  <si>
+    <t>00;03;19;14</t>
+  </si>
+  <si>
+    <t>scouts</t>
+  </si>
+  <si>
+    <t>00;03;19;15</t>
+  </si>
+  <si>
+    <t>00;03;19;44</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>00;03;19;42</t>
+  </si>
+  <si>
+    <t>00;03;20;04</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>00;03;20;05</t>
+  </si>
+  <si>
+    <t>00;03;20;39</t>
+  </si>
+  <si>
+    <t>concieved</t>
+  </si>
+  <si>
+    <t>00;03;20;38</t>
+  </si>
+  <si>
+    <t>00;03;21;05</t>
+  </si>
+  <si>
+    <t>by</t>
+  </si>
+  <si>
+    <t>00;03;21;06</t>
+  </si>
+  <si>
+    <t>00;03;21;18</t>
+  </si>
+  <si>
+    <t>00;03;21;15</t>
+  </si>
+  <si>
+    <t>00;03;21;21</t>
+  </si>
+  <si>
+    <t>sixteen</t>
+  </si>
+  <si>
+    <t>00;03;21;22</t>
+  </si>
+  <si>
+    <t>00;03;21;56</t>
+  </si>
+  <si>
+    <t>boy</t>
+  </si>
+  <si>
+    <t>00;03;22;22</t>
+  </si>
+  <si>
+    <t>00;03;22;46</t>
+  </si>
+  <si>
+    <t>00;03;22;47</t>
+  </si>
+  <si>
+    <t>00;03;22;57</t>
+  </si>
+  <si>
+    <t>oh</t>
+  </si>
+  <si>
+    <t>00;03;22;58</t>
+  </si>
+  <si>
+    <t>00;03;23;03</t>
+  </si>
+  <si>
+    <t>lawn</t>
+  </si>
+  <si>
+    <t>00;03;23;09</t>
+  </si>
+  <si>
+    <t>00;03;23;35</t>
+  </si>
+  <si>
+    <t>became</t>
+  </si>
+  <si>
+    <t>00;03;23;36</t>
+  </si>
+  <si>
+    <t>00;03;23;55</t>
+  </si>
+  <si>
+    <t>reality</t>
+  </si>
+  <si>
+    <t>00;03;24;01</t>
+  </si>
+  <si>
+    <t>00;03;24;32</t>
+  </si>
+  <si>
+    <t>00;03;24;33</t>
+  </si>
+  <si>
+    <t>00;03;24;55</t>
+  </si>
+  <si>
+    <t>00;03;25;23</t>
+  </si>
+  <si>
+    <t>00;03;25;51</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>00;03;25;58</t>
+  </si>
+  <si>
+    <t>00;03;26;08</t>
+  </si>
+  <si>
+    <t>flag</t>
+  </si>
+  <si>
+    <t>00;03;26;32</t>
+  </si>
+  <si>
+    <t>00;03;41;45</t>
+  </si>
+  <si>
+    <t>00;03;42;04</t>
+  </si>
+  <si>
+    <t>00;03;42;05</t>
+  </si>
+  <si>
+    <t>00;03;42;23</t>
+  </si>
+  <si>
+    <t>00;03;42;24</t>
+  </si>
+  <si>
+    <t>00;03;42;48</t>
+  </si>
+  <si>
+    <t>hear</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>00;03;44;53</t>
+  </si>
+  <si>
+    <t>00;03;45;17</t>
+  </si>
+  <si>
+    <t>justin</t>
+  </si>
+  <si>
+    <t>00;03;45;56</t>
+  </si>
+  <si>
+    <t>00;03;46;30</t>
+  </si>
+  <si>
+    <t>did</t>
+  </si>
+  <si>
+    <t>00;03;46;31</t>
+  </si>
+  <si>
+    <t>00;03;47;03</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>00;03;47;49</t>
+  </si>
+  <si>
+    <t>00;03;48;12</t>
+  </si>
+  <si>
+    <t>remarkable</t>
+  </si>
+  <si>
+    <t>00;03;48;13</t>
+  </si>
+  <si>
+    <t>00;03;49;01</t>
+  </si>
+  <si>
+    <t>00;03;49;53</t>
+  </si>
+  <si>
+    <t>00;03;50;10</t>
+  </si>
+  <si>
+    <t>increadible</t>
+  </si>
+  <si>
+    <t>00;03;50;41</t>
+  </si>
+  <si>
+    <t>00;03;51;37</t>
+  </si>
+  <si>
+    <t>scout</t>
+  </si>
+  <si>
+    <t>00;03;52;49</t>
+  </si>
+  <si>
+    <t>00;03;53;08</t>
+  </si>
+  <si>
+    <t>00;04;02;09</t>
+  </si>
+  <si>
+    <t>00;04;02;27</t>
+  </si>
+  <si>
+    <t>must</t>
+  </si>
+  <si>
+    <t>00;04;02;28</t>
+  </si>
+  <si>
+    <t>00;04;02;39</t>
+  </si>
+  <si>
+    <t>twenty</t>
+  </si>
+  <si>
+    <t>00;04;02;52</t>
+  </si>
+  <si>
+    <t>00;04;03;14</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>00;04;03;15</t>
+  </si>
+  <si>
+    <t>00;04;03;28</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>00;04;03;34</t>
+  </si>
+  <si>
+    <t>00;04;03;44</t>
+  </si>
+  <si>
+    <t>cigarettes</t>
+  </si>
+  <si>
+    <t>00;04;03;45</t>
+  </si>
+  <si>
+    <t>00;04;04;14</t>
+  </si>
+  <si>
+    <t>evanston</t>
+  </si>
+  <si>
+    <t>00;04;04;24</t>
+  </si>
+  <si>
+    <t>00;04;05;13</t>
+  </si>
+  <si>
+    <t>00;04;05;14</t>
+  </si>
+  <si>
+    <t>00;04;05;22</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>00;04;05;23</t>
+  </si>
+  <si>
+    <t>00;04;05;41</t>
+  </si>
+  <si>
+    <t>ordinance</t>
+  </si>
+  <si>
+    <t>00;04;05;42</t>
+  </si>
+  <si>
+    <t>00;04;06;13</t>
+  </si>
+  <si>
+    <t>went</t>
+  </si>
+  <si>
+    <t>00;04;06;14</t>
+  </si>
+  <si>
+    <t>00;04;06;23</t>
+  </si>
+  <si>
+    <t>into</t>
+  </si>
+  <si>
+    <t>00;04;06;24</t>
+  </si>
+  <si>
+    <t>00;04;06;38</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>00;04;06;40</t>
+  </si>
+  <si>
+    <t>00;04;06;58</t>
+  </si>
+  <si>
+    <t>affect</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>00;04;06;59</t>
+  </si>
+  <si>
+    <t>00;04;07;14</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>00;04;07;15</t>
+  </si>
+  <si>
+    <t>00;04;07;31</t>
+  </si>
+  <si>
+    <t>weekend</t>
+  </si>
+  <si>
+    <t>00;04;07;49</t>
+  </si>
+  <si>
+    <t>officials</t>
+  </si>
+  <si>
+    <t>00;04;08;11</t>
+  </si>
+  <si>
+    <t>00;04;08;35</t>
+  </si>
+  <si>
+    <t>official</t>
+  </si>
+  <si>
+    <t>00;04;08;32</t>
+  </si>
+  <si>
+    <t>00;04;08;33</t>
+  </si>
+  <si>
+    <t>00;04;08;47</t>
+  </si>
+  <si>
+    <t>00;04;08;48</t>
+  </si>
+  <si>
+    <t>00;04;08;56</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>00;04;08;57</t>
+  </si>
+  <si>
+    <t>00;04;09;10</t>
+  </si>
+  <si>
+    <t>00;04;09;12</t>
+  </si>
+  <si>
+    <t>00;04;09;22</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>00;04;09;23</t>
+  </si>
+  <si>
+    <t>00;04;09;34</t>
+  </si>
+  <si>
+    <t>effort</t>
+  </si>
+  <si>
+    <t>00;04;09;45</t>
+  </si>
+  <si>
+    <t>00;04;10;06</t>
+  </si>
+  <si>
+    <t>curb</t>
+  </si>
+  <si>
+    <t>00;04;10;07</t>
+  </si>
+  <si>
+    <t>00;04;10;32</t>
+  </si>
+  <si>
+    <t>teen</t>
+  </si>
+  <si>
+    <t>00;04;10;33</t>
+  </si>
+  <si>
+    <t>00;04;10;49</t>
+  </si>
+  <si>
+    <t>smoking</t>
+  </si>
+  <si>
+    <t>00;04;10;51</t>
+  </si>
+  <si>
+    <t>00;04;11;30</t>
+  </si>
+  <si>
+    <t>fourty</t>
+  </si>
+  <si>
+    <t>00;04;11;50</t>
+  </si>
+  <si>
+    <t>00;04;12;09</t>
+  </si>
+  <si>
+    <t>cities</t>
+  </si>
+  <si>
+    <t>00;04;12;10</t>
+  </si>
+  <si>
+    <t>00;04;12;35</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>00;04;12;45</t>
+  </si>
+  <si>
+    <t>00;04;13;14</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>00;04;13;17</t>
+  </si>
+  <si>
+    <t>00;04;13;36</t>
+  </si>
+  <si>
+    <t>limit</t>
+  </si>
+  <si>
+    <t>00;04;13;37</t>
+  </si>
+  <si>
+    <t>00;04;13;51</t>
+  </si>
+  <si>
+    <t>00;04;13;52</t>
+  </si>
+  <si>
+    <t>00;04;14;05</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>00;04;14;06</t>
+  </si>
+  <si>
+    <t>00;04;14;26</t>
+  </si>
+  <si>
+    <t>00;04;14;57</t>
+  </si>
+  <si>
+    <t>nation</t>
+  </si>
+  <si>
+    <t>00;04;14;58</t>
+  </si>
+  <si>
+    <t>nationwide</t>
+  </si>
+  <si>
+    <t>00;04;15;56</t>
+  </si>
+  <si>
+    <t>00;04;15;23</t>
+  </si>
+  <si>
+    <t>wide</t>
+  </si>
+  <si>
+    <t>00;04;15;24</t>
+  </si>
+  <si>
+    <t>00;04;15;57</t>
+  </si>
+  <si>
+    <t>00;04;16;50</t>
+  </si>
+  <si>
+    <t>00;04;16;59</t>
+  </si>
+  <si>
+    <t>00;04;17;00</t>
+  </si>
+  <si>
+    <t>00;04;17;06</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>00;04;17;07</t>
+  </si>
+  <si>
+    <t>00;04;17;20</t>
+  </si>
+  <si>
+    <t>chicago</t>
+  </si>
+  <si>
+    <t>00;04;17;21</t>
+  </si>
+  <si>
+    <t>00;04;17;48</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>00;04;17;50</t>
+  </si>
+  <si>
+    <t>00;04;18;10</t>
+  </si>
+  <si>
+    <t>suburb</t>
+  </si>
+  <si>
+    <t>00;04;18;11</t>
+  </si>
+  <si>
+    <t>00;04;18;37</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>00;04;18;38</t>
+  </si>
+  <si>
+    <t>00;04;18;47</t>
+  </si>
+  <si>
+    <t>00;04;18;48</t>
+  </si>
+  <si>
+    <t>00;04;19;03</t>
+  </si>
+  <si>
+    <t>00;04;19;04</t>
+  </si>
+  <si>
+    <t>00;04;19;12</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>00;04;19;13</t>
+  </si>
+  <si>
+    <t>00;04;19;49</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>00;04;43;07</t>
+  </si>
+  <si>
+    <t>00;04;43;25</t>
+  </si>
+  <si>
+    <t>sunken</t>
+  </si>
+  <si>
+    <t>00;04;43;26</t>
+  </si>
+  <si>
+    <t>00;04;43;54</t>
+  </si>
+  <si>
+    <t>barge</t>
+  </si>
+  <si>
+    <t>00;04;43;55</t>
+  </si>
+  <si>
+    <t>00;04;44;21</t>
+  </si>
+  <si>
+    <t>00;04;44;22</t>
+  </si>
+  <si>
+    <t>00;04;44;29</t>
+  </si>
+  <si>
+    <t>00;04;44;30</t>
+  </si>
+  <si>
+    <t>00;04;44;59</t>
+  </si>
+  <si>
+    <t>river</t>
+  </si>
+  <si>
+    <t>00;04;45;00</t>
+  </si>
+  <si>
+    <t>00;04;45;20</t>
+  </si>
+  <si>
+    <t>has</t>
+  </si>
+  <si>
+    <t>00;04;45;18</t>
+  </si>
+  <si>
+    <t>00;04;45;32</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>00;04;45;44</t>
+  </si>
+  <si>
+    <t>00;04;46;28</t>
+  </si>
+  <si>
+    <t>00;04;46;29</t>
+  </si>
+  <si>
+    <t>00;04;46;35</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>00;05;05;43</t>
+  </si>
+  <si>
+    <t>00;05;06;03</t>
+  </si>
+  <si>
+    <t>00;05;06;04</t>
+  </si>
+  <si>
+    <t>00;05;06;18</t>
+  </si>
+  <si>
+    <t>batman</t>
+  </si>
+  <si>
+    <t>00;05;06;19</t>
+  </si>
+  <si>
+    <t>00;05;06;56</t>
+  </si>
+  <si>
+    <t>bat</t>
+  </si>
+  <si>
+    <t>00;05;06;35</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>00;05;06;36</t>
+  </si>
+  <si>
+    <t>00;05;06;57</t>
+  </si>
+  <si>
+    <t>00;05;07;07</t>
+  </si>
+  <si>
+    <t>00;05;06;58</t>
+  </si>
+  <si>
+    <t>00;05;07;08</t>
+  </si>
+  <si>
+    <t>twist</t>
+  </si>
+  <si>
+    <t>00;05;07;33</t>
+  </si>
+  <si>
+    <t>00;05;07;55</t>
+  </si>
+  <si>
+    <t>00;05;07;56</t>
+  </si>
+  <si>
+    <t>00;05;08;07</t>
+  </si>
+  <si>
+    <t>filming</t>
+  </si>
+  <si>
+    <t>00;05;08;08</t>
+  </si>
+  <si>
+    <t>00;05;08;36</t>
+  </si>
+  <si>
+    <t>00;05;08;39</t>
+  </si>
+  <si>
+    <t>00;05;08;47</t>
+  </si>
+  <si>
+    <t>00;05;08;53</t>
+  </si>
+  <si>
+    <t>00;05;09;03</t>
+  </si>
+  <si>
+    <t>versus</t>
+  </si>
+  <si>
+    <t>00;05;09;32</t>
+  </si>
+  <si>
+    <t>00;05;09;57</t>
+  </si>
+  <si>
+    <t>vs</t>
+  </si>
+  <si>
+    <t>superman</t>
+  </si>
+  <si>
+    <t>00;05;09;53</t>
+  </si>
+  <si>
+    <t>00:05:10:01</t>
+  </si>
+  <si>
+    <t>00:05:09:48</t>
+  </si>
+  <si>
+    <t>movie</t>
+  </si>
+  <si>
+    <t>00:05:10:02</t>
+  </si>
+  <si>
+    <t>00:05:10:22</t>
+  </si>
+  <si>
+    <t>being</t>
+  </si>
+  <si>
+    <t>00:05:10:34</t>
+  </si>
+  <si>
+    <t>shot</t>
+  </si>
+  <si>
+    <t>00:05:10:36</t>
+  </si>
+  <si>
+    <t>00:05:10:55</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>00:05:10:56</t>
+  </si>
+  <si>
+    <t>00:05:11:07</t>
+  </si>
+  <si>
+    <t>00:05:11:22</t>
+  </si>
+  <si>
+    <t>00:05:11:30</t>
+  </si>
+  <si>
+    <t>00:05:12:01</t>
+  </si>
+  <si>
+    <t>00;01;39;27</t>
+  </si>
+  <si>
+    <t>00;01;40;04</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>00;01;40;06</t>
+  </si>
+  <si>
+    <t>00;01;40;13</t>
+  </si>
+  <si>
+    <t>chocolate</t>
+  </si>
+  <si>
+    <t>00;01;40;18</t>
+  </si>
+  <si>
+    <t>00;01;40;27</t>
+  </si>
+  <si>
+    <t>00;01;41;09</t>
+  </si>
+  <si>
+    <t>00;01;42;11</t>
+  </si>
+  <si>
+    <t>00;01;42;15</t>
+  </si>
+  <si>
+    <t>early</t>
+  </si>
+  <si>
+    <t>00;01;42;17</t>
+  </si>
+  <si>
+    <t>00;01;42;28</t>
+  </si>
+  <si>
+    <t>wakeup</t>
+  </si>
+  <si>
+    <t>00;01;42;29</t>
+  </si>
+  <si>
+    <t>00;01;43;10</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>00;01;43;19</t>
+  </si>
+  <si>
+    <t>but</t>
+  </si>
+  <si>
+    <t>00;01;43;20</t>
+  </si>
+  <si>
+    <t>00;01;43;29</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>00;01;45;21</t>
+  </si>
+  <si>
+    <t>00;01;45;27</t>
+  </si>
+  <si>
+    <t>idea</t>
+  </si>
+  <si>
+    <t>00;01;45;28</t>
+  </si>
+  <si>
+    <t>00;01;46;06</t>
+  </si>
+  <si>
+    <t>00;01;46;13</t>
+  </si>
+  <si>
+    <t>medals</t>
+  </si>
+  <si>
+    <t>00;01;46;23</t>
+  </si>
+  <si>
+    <t>underestimate</t>
+  </si>
+  <si>
+    <t>00;01;49;15</t>
+  </si>
+  <si>
+    <t>00;01;50;01</t>
+  </si>
+  <si>
+    <t>alrighty</t>
+  </si>
+  <si>
+    <t>00;01;50;15</t>
+  </si>
+  <si>
+    <t>00;01;51;02</t>
+  </si>
+  <si>
+    <t>00;01;51;15</t>
+  </si>
+  <si>
+    <t>00;01;51;24</t>
+  </si>
+  <si>
+    <t>lots</t>
+  </si>
+  <si>
+    <t>00;01;51;25</t>
+  </si>
+  <si>
+    <t>00;01;52;02</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>00;01;52;10</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>00;01;53;07</t>
+  </si>
+  <si>
+    <t>00;01;53;16</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>00;01;53;28</t>
+  </si>
+  <si>
+    <t>00;01;54;05</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>00;01;53;29</t>
+  </si>
+  <si>
+    <t>00;01;54;06</t>
+  </si>
+  <si>
+    <t>00;01;54;11</t>
+  </si>
+  <si>
+    <t>00;01;54;25</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>00;01;54;26</t>
+  </si>
+  <si>
+    <t>00;01;55;06</t>
+  </si>
+  <si>
+    <t>00;01;55;09</t>
+  </si>
+  <si>
+    <t>00;01;55;17</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>00;01;55;16</t>
+  </si>
+  <si>
+    <t>00;01;55;20</t>
+  </si>
+  <si>
+    <t>00;01;55;21</t>
+  </si>
+  <si>
+    <t>00;01;55;27</t>
+  </si>
+  <si>
+    <t>weak</t>
+  </si>
+  <si>
+    <t>ahead</t>
+  </si>
+  <si>
+    <t>00;01;56;04</t>
+  </si>
+  <si>
+    <t>because</t>
+  </si>
+  <si>
+    <t>00;01;56;14</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>00;01;56;13</t>
+  </si>
+  <si>
+    <t>00;01;56;19</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>00;01;56;25</t>
+  </si>
+  <si>
+    <t>00;01;57;00</t>
+  </si>
+  <si>
+    <t>00;01;57;01</t>
+  </si>
+  <si>
+    <t>00;01;57;06</t>
+  </si>
+  <si>
+    <t>gunna</t>
+  </si>
+  <si>
+    <t>00;01;57;11</t>
+  </si>
+  <si>
+    <t>00;01;57;14</t>
+  </si>
+  <si>
+    <t>00;01;57;24</t>
+  </si>
+  <si>
+    <t>cold</t>
+  </si>
+  <si>
+    <t>00;01;57;29</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>00;01;58;05</t>
+  </si>
+  <si>
+    <t>00;01;58;10</t>
+  </si>
+  <si>
+    <t>pull</t>
+  </si>
+  <si>
+    <t>00;01;58;11</t>
+  </si>
+  <si>
+    <t>00;01;58;18</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>00;01;58;23</t>
+  </si>
+  <si>
+    <t>00;01;58;29</t>
+  </si>
+  <si>
+    <t>winter</t>
+  </si>
+  <si>
+    <t>00;01;59;09</t>
+  </si>
+  <si>
+    <t>jacket</t>
+  </si>
+  <si>
+    <t>00;01;59;21</t>
+  </si>
+  <si>
+    <t>00;01;59;22</t>
+  </si>
+  <si>
+    <t>00;01;59;28</t>
+  </si>
+  <si>
+    <t>00;02;00;05</t>
+  </si>
+  <si>
+    <t>00;02;00;11</t>
+  </si>
+  <si>
+    <t>fall</t>
+  </si>
+  <si>
+    <t>00;02;00;17</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>00;02;01;04</t>
+  </si>
+  <si>
+    <t>00;02;01;12</t>
+  </si>
+  <si>
+    <t>00;02;01;13</t>
+  </si>
+  <si>
+    <t>00;02;01;27</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>00;02;02;17</t>
+  </si>
+  <si>
+    <t>00;02;02;28</t>
+  </si>
+  <si>
+    <t>00;02;03;03</t>
+  </si>
+  <si>
+    <t>electric</t>
+  </si>
+  <si>
+    <t>00;02;03;04</t>
+  </si>
+  <si>
+    <t>00;02;03;17</t>
+  </si>
+  <si>
+    <t>blanket</t>
+  </si>
+  <si>
+    <t>00;02;04;01</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>00;02;04;19</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>00;02;04;27</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>00;02;05;01</t>
+  </si>
+  <si>
+    <t>00;02;05;09</t>
+  </si>
+  <si>
+    <t>00;02;05;15</t>
+  </si>
+  <si>
+    <t>00;02;06;01</t>
+  </si>
+  <si>
+    <t>temperatures</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>00;02;05;27</t>
+  </si>
+  <si>
+    <t>00;02;05;28</t>
+  </si>
+  <si>
+    <t>00;02;06;11</t>
+  </si>
+  <si>
+    <t>plummet</t>
+  </si>
+  <si>
+    <t>00;02;06;15</t>
+  </si>
+  <si>
+    <t>00;02;06;24</t>
+  </si>
+  <si>
+    <t>00;02;07;11</t>
+  </si>
+  <si>
+    <t>00;02;07;26</t>
+  </si>
+  <si>
+    <t>00;02;08;02</t>
+  </si>
+  <si>
+    <t>fourties</t>
+  </si>
+  <si>
+    <t>00;02;08;07</t>
+  </si>
+  <si>
+    <t>00;02;08;18</t>
+  </si>
+  <si>
+    <t>morning</t>
+  </si>
+  <si>
+    <t>00;02;08;22</t>
+  </si>
+  <si>
+    <t>00;02;09;07</t>
+  </si>
+  <si>
+    <t>mourning</t>
+  </si>
+  <si>
+    <t>00;02;08;23</t>
+  </si>
+  <si>
+    <t>00;02;09;08</t>
+  </si>
+  <si>
+    <t>00;02;09;23</t>
+  </si>
+  <si>
+    <t>00;02;10;00</t>
+  </si>
+  <si>
+    <t>00;02;10;09</t>
+  </si>
+  <si>
+    <t>twenties</t>
+  </si>
+  <si>
+    <t>00;02;10;14</t>
+  </si>
+  <si>
+    <t>00;02;10;25</t>
+  </si>
+  <si>
+    <t>overnight</t>
+  </si>
+  <si>
+    <t>00;02;11;11</t>
+  </si>
+  <si>
+    <t>night</t>
+  </si>
+  <si>
+    <t>00;02;11;01</t>
+  </si>
+  <si>
+    <t>00;02;11;10</t>
+  </si>
+  <si>
+    <t>barely</t>
+  </si>
+  <si>
+    <t>00;02;11;22</t>
+  </si>
+  <si>
+    <t>rebound</t>
+  </si>
+  <si>
+    <t>00;02;11;28</t>
+  </si>
+  <si>
+    <t>00;02;12;13</t>
+  </si>
+  <si>
+    <t>00;02;12;15</t>
+  </si>
+  <si>
+    <t>00;02;12;26</t>
+  </si>
+  <si>
+    <t>wednesday</t>
+  </si>
+  <si>
+    <t>00;02;12;27</t>
+  </si>
+  <si>
+    <t>00;02;13;08</t>
+  </si>
+  <si>
+    <t>lets</t>
+  </si>
+  <si>
+    <t>00;02;13;09</t>
+  </si>
+  <si>
+    <t>00;02;13;15</t>
+  </si>
+  <si>
+    <t>rain</t>
+  </si>
+  <si>
+    <t>00;02;22;00</t>
+  </si>
+  <si>
+    <t>00;02;22;09</t>
+  </si>
+  <si>
+    <t>showers</t>
+  </si>
+  <si>
+    <t>00;02;22;21</t>
+  </si>
+  <si>
+    <t>00;02;22;27</t>
+  </si>
+  <si>
+    <t>00;02;23;03</t>
+  </si>
+  <si>
+    <t>00;02;23;11</t>
+  </si>
+  <si>
+    <t>north</t>
+  </si>
+  <si>
+    <t>00;02;24;19</t>
+  </si>
+  <si>
+    <t>00;02;24;27</t>
+  </si>
+  <si>
+    <t>toward</t>
+  </si>
+  <si>
+    <t>00;02;26;01</t>
+  </si>
+  <si>
+    <t>00;02;26;10</t>
+  </si>
+  <si>
+    <t>00;02;26;17</t>
+  </si>
+  <si>
+    <t>00;02;27;23</t>
+  </si>
+  <si>
+    <t>00;02;28;02</t>
+  </si>
+  <si>
+    <t>00;02;29;09</t>
+  </si>
+  <si>
+    <t>00;02;29;18</t>
+  </si>
+  <si>
+    <t>skirt</t>
+  </si>
+  <si>
+    <t>00;02;29;29</t>
+  </si>
+  <si>
+    <t>00;02;30;07</t>
+  </si>
+  <si>
+    <t>through</t>
+  </si>
+  <si>
+    <t>00;02;30;08</t>
+  </si>
+  <si>
+    <t>00;02;30;15</t>
+  </si>
+  <si>
+    <t>00;02;30;18</t>
+  </si>
+  <si>
+    <t>00;02;30;26</t>
+  </si>
+  <si>
+    <t>tonight</t>
+  </si>
+  <si>
+    <t>00;02;30;27</t>
+  </si>
+  <si>
+    <t>00;02;31;14</t>
+  </si>
+  <si>
+    <t>00;02;31;29</t>
+  </si>
+  <si>
+    <t>00;02;32;06</t>
+  </si>
+  <si>
+    <t>00;02;32;20</t>
+  </si>
+  <si>
+    <t>widely</t>
+  </si>
+  <si>
+    <t>00;02;33;01</t>
+  </si>
+  <si>
+    <t>scattered</t>
+  </si>
+  <si>
+    <t>00;02;33;17</t>
+  </si>
+  <si>
+    <t>scatter</t>
+  </si>
+  <si>
+    <t>00;02;33;14</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>00;02;33;18</t>
+  </si>
+  <si>
+    <t>00;02;33;25</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>00;02;34;28</t>
+  </si>
+  <si>
+    <t>00;02;35;06</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>00;02;36;06</t>
+  </si>
+  <si>
+    <t>00;02;36;15</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>00;02;36;26</t>
+  </si>
+  <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>00;02;37;02</t>
+  </si>
+  <si>
+    <t>fox</t>
+  </si>
+  <si>
+    <t>00;02;37;03</t>
+  </si>
+  <si>
+    <t>00;02;37;09</t>
+  </si>
+  <si>
+    <t>00;02;37;10</t>
+  </si>
+  <si>
+    <t>00;02;37;21</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>00;02;38;10</t>
+  </si>
+  <si>
+    <t>00;02;38;16</t>
+  </si>
+  <si>
+    <t>weather</t>
+  </si>
+  <si>
+    <t>00;02;38;21</t>
+  </si>
+  <si>
+    <t>00;02;39;01</t>
+  </si>
+  <si>
+    <t>whether</t>
+  </si>
+  <si>
+    <t>00;02;38;22</t>
+  </si>
+  <si>
+    <t>00;02;39;02</t>
+  </si>
+  <si>
+    <t>find</t>
+  </si>
+  <si>
+    <t>00;02;39;09</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>00;02;39;15</t>
+  </si>
+  <si>
+    <t>00;02;39;25</t>
+  </si>
+  <si>
+    <t>interactive</t>
+  </si>
+  <si>
+    <t>00;02;39;28</t>
+  </si>
+  <si>
+    <t>00;02;40;16</t>
+  </si>
+  <si>
+    <t>radar</t>
+  </si>
+  <si>
+    <t>00;02;40;28</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>00;02;41;02</t>
+  </si>
+  <si>
+    <t>00;02;41;11</t>
+  </si>
+  <si>
+    <t>00;02;41;22</t>
+  </si>
+  <si>
+    <t>00;02;41;28</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>00;02;42;12</t>
+  </si>
+  <si>
+    <t>alright</t>
+  </si>
+  <si>
+    <t>00;02;42;21</t>
+  </si>
+  <si>
+    <t>00;02;43;05</t>
   </si>
 </sst>
 </file>
@@ -532,7 +2764,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -594,11 +2826,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="83">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -629,6 +2884,17 @@
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -659,6 +2925,17 @@
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -988,10 +3265,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A323" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F350" sqref="F350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2363,6 +4640,18 @@
       <c r="B53">
         <v>1</v>
       </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>153</v>
+      </c>
+      <c r="E53" t="s">
+        <v>154</v>
+      </c>
+      <c r="F53" t="s">
+        <v>155</v>
+      </c>
       <c r="G53">
         <v>0</v>
       </c>
@@ -2377,6 +4666,18 @@
       <c r="B54">
         <v>1</v>
       </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>156</v>
+      </c>
+      <c r="E54" t="s">
+        <v>157</v>
+      </c>
+      <c r="F54" t="s">
+        <v>158</v>
+      </c>
       <c r="G54">
         <v>0</v>
       </c>
@@ -2391,6 +4692,18 @@
       <c r="B55">
         <v>1</v>
       </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>159</v>
+      </c>
+      <c r="E55" t="s">
+        <v>160</v>
+      </c>
+      <c r="F55" t="s">
+        <v>161</v>
+      </c>
       <c r="G55">
         <v>0</v>
       </c>
@@ -2405,6 +4718,18 @@
       <c r="B56">
         <v>1</v>
       </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>162</v>
+      </c>
+      <c r="E56" t="s">
+        <v>163</v>
+      </c>
+      <c r="F56" t="s">
+        <v>164</v>
+      </c>
       <c r="G56">
         <v>0</v>
       </c>
@@ -2419,6 +4744,18 @@
       <c r="B57">
         <v>1</v>
       </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>117</v>
+      </c>
+      <c r="E57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F57" t="s">
+        <v>166</v>
+      </c>
       <c r="G57">
         <v>0</v>
       </c>
@@ -2433,6 +4770,18 @@
       <c r="B58">
         <v>1</v>
       </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>167</v>
+      </c>
+      <c r="E58" t="s">
+        <v>168</v>
+      </c>
+      <c r="F58" t="s">
+        <v>169</v>
+      </c>
       <c r="G58">
         <v>0</v>
       </c>
@@ -2447,6 +4796,18 @@
       <c r="B59">
         <v>1</v>
       </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>170</v>
+      </c>
+      <c r="E59" t="s">
+        <v>171</v>
+      </c>
+      <c r="F59" t="s">
+        <v>172</v>
+      </c>
       <c r="G59">
         <v>0</v>
       </c>
@@ -2461,6 +4822,18 @@
       <c r="B60">
         <v>1</v>
       </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>173</v>
+      </c>
+      <c r="E60" t="s">
+        <v>174</v>
+      </c>
+      <c r="F60" t="s">
+        <v>175</v>
+      </c>
       <c r="G60">
         <v>0</v>
       </c>
@@ -2475,6 +4848,18 @@
       <c r="B61">
         <v>1</v>
       </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>176</v>
+      </c>
+      <c r="E61" t="s">
+        <v>177</v>
+      </c>
+      <c r="F61" t="s">
+        <v>178</v>
+      </c>
       <c r="G61">
         <v>0</v>
       </c>
@@ -2489,6 +4874,18 @@
       <c r="B62">
         <v>1</v>
       </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>179</v>
+      </c>
+      <c r="E62" t="s">
+        <v>177</v>
+      </c>
+      <c r="F62" t="s">
+        <v>178</v>
+      </c>
       <c r="G62">
         <v>0</v>
       </c>
@@ -2503,6 +4900,18 @@
       <c r="B63">
         <v>1</v>
       </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>180</v>
+      </c>
+      <c r="E63" t="s">
+        <v>181</v>
+      </c>
+      <c r="F63" t="s">
+        <v>182</v>
+      </c>
       <c r="G63">
         <v>0</v>
       </c>
@@ -2517,6 +4926,18 @@
       <c r="B64">
         <v>1</v>
       </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>183</v>
+      </c>
+      <c r="E64" t="s">
+        <v>184</v>
+      </c>
+      <c r="F64" t="s">
+        <v>185</v>
+      </c>
       <c r="G64">
         <v>0</v>
       </c>
@@ -2531,6 +4952,18 @@
       <c r="B65">
         <v>1</v>
       </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>186</v>
+      </c>
+      <c r="E65" t="s">
+        <v>187</v>
+      </c>
+      <c r="F65" t="s">
+        <v>188</v>
+      </c>
       <c r="G65">
         <v>0</v>
       </c>
@@ -2545,6 +4978,18 @@
       <c r="B66">
         <v>1</v>
       </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>189</v>
+      </c>
+      <c r="E66" t="s">
+        <v>190</v>
+      </c>
+      <c r="F66" t="s">
+        <v>191</v>
+      </c>
       <c r="G66">
         <v>0</v>
       </c>
@@ -2559,6 +5004,18 @@
       <c r="B67">
         <v>1</v>
       </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>192</v>
+      </c>
+      <c r="E67" t="s">
+        <v>193</v>
+      </c>
+      <c r="F67" t="s">
+        <v>194</v>
+      </c>
       <c r="G67">
         <v>0</v>
       </c>
@@ -2573,6 +5030,18 @@
       <c r="B68">
         <v>1</v>
       </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>195</v>
+      </c>
+      <c r="E68" t="s">
+        <v>196</v>
+      </c>
+      <c r="F68" t="s">
+        <v>197</v>
+      </c>
       <c r="G68">
         <v>0</v>
       </c>
@@ -2587,6 +5056,18 @@
       <c r="B69">
         <v>1</v>
       </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" t="s">
+        <v>198</v>
+      </c>
+      <c r="F69" t="s">
+        <v>199</v>
+      </c>
       <c r="G69">
         <v>0</v>
       </c>
@@ -2601,6 +5082,18 @@
       <c r="B70">
         <v>1</v>
       </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>200</v>
+      </c>
+      <c r="E70" t="s">
+        <v>201</v>
+      </c>
+      <c r="F70" t="s">
+        <v>202</v>
+      </c>
       <c r="G70">
         <v>0</v>
       </c>
@@ -2615,6 +5108,18 @@
       <c r="B71">
         <v>1</v>
       </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>203</v>
+      </c>
+      <c r="E71" t="s">
+        <v>202</v>
+      </c>
+      <c r="F71" t="s">
+        <v>204</v>
+      </c>
       <c r="G71">
         <v>0</v>
       </c>
@@ -2629,6 +5134,18 @@
       <c r="B72">
         <v>1</v>
       </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>205</v>
+      </c>
+      <c r="E72" t="s">
+        <v>206</v>
+      </c>
+      <c r="F72" t="s">
+        <v>207</v>
+      </c>
       <c r="G72">
         <v>0</v>
       </c>
@@ -2643,6 +5160,18 @@
       <c r="B73">
         <v>1</v>
       </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>208</v>
+      </c>
+      <c r="E73" t="s">
+        <v>209</v>
+      </c>
+      <c r="F73" t="s">
+        <v>210</v>
+      </c>
       <c r="G73">
         <v>0</v>
       </c>
@@ -2657,6 +5186,18 @@
       <c r="B74">
         <v>1</v>
       </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>211</v>
+      </c>
+      <c r="E74" t="s">
+        <v>212</v>
+      </c>
+      <c r="F74" t="s">
+        <v>213</v>
+      </c>
       <c r="G74">
         <v>0</v>
       </c>
@@ -2671,6 +5212,18 @@
       <c r="B75">
         <v>1</v>
       </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>53</v>
+      </c>
+      <c r="E75" t="s">
+        <v>214</v>
+      </c>
+      <c r="F75" t="s">
+        <v>215</v>
+      </c>
       <c r="G75">
         <v>0</v>
       </c>
@@ -2685,6 +5238,18 @@
       <c r="B76">
         <v>1</v>
       </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>216</v>
+      </c>
+      <c r="E76" t="s">
+        <v>217</v>
+      </c>
+      <c r="F76" t="s">
+        <v>218</v>
+      </c>
       <c r="G76">
         <v>0</v>
       </c>
@@ -2699,6 +5264,18 @@
       <c r="B77">
         <v>1</v>
       </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>22</v>
+      </c>
+      <c r="E77" t="s">
+        <v>219</v>
+      </c>
+      <c r="F77" t="s">
+        <v>220</v>
+      </c>
       <c r="G77">
         <v>0</v>
       </c>
@@ -2713,6 +5290,18 @@
       <c r="B78">
         <v>1</v>
       </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>221</v>
+      </c>
+      <c r="E78" t="s">
+        <v>222</v>
+      </c>
+      <c r="F78" t="s">
+        <v>223</v>
+      </c>
       <c r="G78">
         <v>0</v>
       </c>
@@ -2727,6 +5316,18 @@
       <c r="B79">
         <v>1</v>
       </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>224</v>
+      </c>
+      <c r="E79" t="s">
+        <v>225</v>
+      </c>
+      <c r="F79" t="s">
+        <v>226</v>
+      </c>
       <c r="G79">
         <v>0</v>
       </c>
@@ -2741,6 +5342,18 @@
       <c r="B80">
         <v>1</v>
       </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>227</v>
+      </c>
+      <c r="E80" t="s">
+        <v>228</v>
+      </c>
+      <c r="F80" t="s">
+        <v>229</v>
+      </c>
       <c r="G80">
         <v>0</v>
       </c>
@@ -2755,6 +5368,18 @@
       <c r="B81">
         <v>1</v>
       </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>230</v>
+      </c>
+      <c r="E81" t="s">
+        <v>231</v>
+      </c>
+      <c r="F81" t="s">
+        <v>232</v>
+      </c>
       <c r="G81">
         <v>0</v>
       </c>
@@ -2769,6 +5394,18 @@
       <c r="B82">
         <v>1</v>
       </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>233</v>
+      </c>
+      <c r="E82" t="s">
+        <v>234</v>
+      </c>
+      <c r="F82" t="s">
+        <v>235</v>
+      </c>
       <c r="G82">
         <v>0</v>
       </c>
@@ -2783,6 +5420,18 @@
       <c r="B83">
         <v>1</v>
       </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>236</v>
+      </c>
+      <c r="E83" t="s">
+        <v>237</v>
+      </c>
+      <c r="F83" t="s">
+        <v>238</v>
+      </c>
       <c r="G83">
         <v>0</v>
       </c>
@@ -2797,6 +5446,18 @@
       <c r="B84">
         <v>1</v>
       </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>239</v>
+      </c>
+      <c r="E84" t="s">
+        <v>240</v>
+      </c>
+      <c r="F84" t="s">
+        <v>241</v>
+      </c>
       <c r="G84">
         <v>0</v>
       </c>
@@ -2811,6 +5472,18 @@
       <c r="B85">
         <v>1</v>
       </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>242</v>
+      </c>
+      <c r="E85" t="s">
+        <v>241</v>
+      </c>
+      <c r="F85" t="s">
+        <v>243</v>
+      </c>
       <c r="G85">
         <v>0</v>
       </c>
@@ -2825,6 +5498,18 @@
       <c r="B86">
         <v>1</v>
       </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>244</v>
+      </c>
+      <c r="E86" t="s">
+        <v>245</v>
+      </c>
+      <c r="F86" t="s">
+        <v>246</v>
+      </c>
       <c r="G86">
         <v>0</v>
       </c>
@@ -2839,6 +5524,18 @@
       <c r="B87">
         <v>1</v>
       </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>247</v>
+      </c>
+      <c r="E87" t="s">
+        <v>248</v>
+      </c>
+      <c r="F87" t="s">
+        <v>249</v>
+      </c>
       <c r="G87">
         <v>0</v>
       </c>
@@ -2853,6 +5550,18 @@
       <c r="B88">
         <v>1</v>
       </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>250</v>
+      </c>
+      <c r="E88" t="s">
+        <v>251</v>
+      </c>
+      <c r="F88" t="s">
+        <v>252</v>
+      </c>
       <c r="G88">
         <v>0</v>
       </c>
@@ -2867,6 +5576,18 @@
       <c r="B89">
         <v>1</v>
       </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>253</v>
+      </c>
+      <c r="E89" t="s">
+        <v>252</v>
+      </c>
+      <c r="F89" t="s">
+        <v>254</v>
+      </c>
       <c r="G89">
         <v>0</v>
       </c>
@@ -2881,6 +5602,18 @@
       <c r="B90">
         <v>1</v>
       </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>255</v>
+      </c>
+      <c r="E90" t="s">
+        <v>256</v>
+      </c>
+      <c r="F90" t="s">
+        <v>257</v>
+      </c>
       <c r="G90">
         <v>0</v>
       </c>
@@ -2895,6 +5628,18 @@
       <c r="B91">
         <v>1</v>
       </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>129</v>
+      </c>
+      <c r="E91" t="s">
+        <v>258</v>
+      </c>
+      <c r="F91" t="s">
+        <v>259</v>
+      </c>
       <c r="G91">
         <v>0</v>
       </c>
@@ -2909,6 +5654,18 @@
       <c r="B92">
         <v>1</v>
       </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>260</v>
+      </c>
+      <c r="E92" t="s">
+        <v>261</v>
+      </c>
+      <c r="F92" t="s">
+        <v>262</v>
+      </c>
       <c r="G92">
         <v>0</v>
       </c>
@@ -2923,6 +5680,18 @@
       <c r="B93">
         <v>1</v>
       </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>263</v>
+      </c>
+      <c r="E93" t="s">
+        <v>264</v>
+      </c>
+      <c r="F93" t="s">
+        <v>265</v>
+      </c>
       <c r="G93">
         <v>0</v>
       </c>
@@ -2937,6 +5706,18 @@
       <c r="B94">
         <v>1</v>
       </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
+        <v>266</v>
+      </c>
+      <c r="E94" t="s">
+        <v>267</v>
+      </c>
+      <c r="F94" t="s">
+        <v>268</v>
+      </c>
       <c r="G94">
         <v>0</v>
       </c>
@@ -2951,6 +5732,18 @@
       <c r="B95">
         <v>1</v>
       </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95" t="s">
+        <v>269</v>
+      </c>
+      <c r="E95" t="s">
+        <v>270</v>
+      </c>
+      <c r="F95" t="s">
+        <v>271</v>
+      </c>
       <c r="G95">
         <v>0</v>
       </c>
@@ -2965,6 +5758,18 @@
       <c r="B96">
         <v>1</v>
       </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>272</v>
+      </c>
+      <c r="E96" t="s">
+        <v>273</v>
+      </c>
+      <c r="F96" t="s">
+        <v>274</v>
+      </c>
       <c r="G96">
         <v>0</v>
       </c>
@@ -2979,6 +5784,18 @@
       <c r="B97">
         <v>1</v>
       </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>275</v>
+      </c>
+      <c r="E97" t="s">
+        <v>276</v>
+      </c>
+      <c r="F97" t="s">
+        <v>277</v>
+      </c>
       <c r="G97">
         <v>0</v>
       </c>
@@ -2993,6 +5810,18 @@
       <c r="B98">
         <v>1</v>
       </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>278</v>
+      </c>
+      <c r="E98" t="s">
+        <v>279</v>
+      </c>
+      <c r="F98" t="s">
+        <v>280</v>
+      </c>
       <c r="G98">
         <v>0</v>
       </c>
@@ -3007,6 +5836,18 @@
       <c r="B99">
         <v>1</v>
       </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s">
+        <v>281</v>
+      </c>
+      <c r="E99" t="s">
+        <v>282</v>
+      </c>
+      <c r="F99" t="s">
+        <v>283</v>
+      </c>
       <c r="G99">
         <v>0</v>
       </c>
@@ -3021,6 +5862,18 @@
       <c r="B100">
         <v>1</v>
       </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>284</v>
+      </c>
+      <c r="E100" t="s">
+        <v>285</v>
+      </c>
+      <c r="F100" t="s">
+        <v>286</v>
+      </c>
       <c r="G100">
         <v>0</v>
       </c>
@@ -3035,10 +5888,6496 @@
       <c r="B101">
         <v>1</v>
       </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101" t="s">
+        <v>287</v>
+      </c>
+      <c r="E101" t="s">
+        <v>288</v>
+      </c>
+      <c r="F101" t="s">
+        <v>289</v>
+      </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102" t="s">
+        <v>290</v>
+      </c>
+      <c r="E102" t="s">
+        <v>291</v>
+      </c>
+      <c r="F102" t="s">
+        <v>289</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103" t="s">
+        <v>292</v>
+      </c>
+      <c r="E103" t="s">
+        <v>293</v>
+      </c>
+      <c r="F103" t="s">
+        <v>294</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104" t="s">
+        <v>295</v>
+      </c>
+      <c r="E104" t="s">
+        <v>296</v>
+      </c>
+      <c r="F104" t="s">
+        <v>297</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105" t="s">
+        <v>195</v>
+      </c>
+      <c r="E105" t="s">
+        <v>298</v>
+      </c>
+      <c r="F105" t="s">
+        <v>299</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106" t="s">
+        <v>300</v>
+      </c>
+      <c r="E106" t="s">
+        <v>301</v>
+      </c>
+      <c r="F106" t="s">
+        <v>302</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107" t="s">
+        <v>300</v>
+      </c>
+      <c r="E107" t="s">
+        <v>303</v>
+      </c>
+      <c r="F107" t="s">
+        <v>304</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108" t="s">
+        <v>230</v>
+      </c>
+      <c r="E108" t="s">
+        <v>305</v>
+      </c>
+      <c r="F108" t="s">
+        <v>306</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109" t="s">
+        <v>307</v>
+      </c>
+      <c r="E109" t="s">
+        <v>308</v>
+      </c>
+      <c r="F109" t="s">
+        <v>309</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110" t="s">
+        <v>310</v>
+      </c>
+      <c r="E110" t="s">
+        <v>311</v>
+      </c>
+      <c r="F110" t="s">
+        <v>312</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111" t="s">
+        <v>313</v>
+      </c>
+      <c r="E111" t="s">
+        <v>314</v>
+      </c>
+      <c r="F111" t="s">
+        <v>315</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112" t="s">
+        <v>316</v>
+      </c>
+      <c r="E112" t="s">
+        <v>317</v>
+      </c>
+      <c r="F112" t="s">
+        <v>318</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113" t="s">
+        <v>319</v>
+      </c>
+      <c r="E113" t="s">
+        <v>320</v>
+      </c>
+      <c r="F113" t="s">
+        <v>321</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114" t="s">
+        <v>322</v>
+      </c>
+      <c r="E114" t="s">
+        <v>323</v>
+      </c>
+      <c r="F114" t="s">
+        <v>324</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115" t="s">
+        <v>325</v>
+      </c>
+      <c r="E115" t="s">
+        <v>326</v>
+      </c>
+      <c r="F115" t="s">
+        <v>327</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116" t="s">
+        <v>328</v>
+      </c>
+      <c r="E116" t="s">
+        <v>326</v>
+      </c>
+      <c r="F116" t="s">
+        <v>329</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" t="s">
+        <v>132</v>
+      </c>
+      <c r="E117" t="s">
+        <v>330</v>
+      </c>
+      <c r="F117" t="s">
+        <v>331</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118" t="s">
+        <v>332</v>
+      </c>
+      <c r="E118" t="s">
+        <v>333</v>
+      </c>
+      <c r="F118" t="s">
+        <v>334</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119" t="s">
+        <v>335</v>
+      </c>
+      <c r="E119" t="s">
+        <v>336</v>
+      </c>
+      <c r="F119" t="s">
+        <v>337</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120" t="s">
+        <v>338</v>
+      </c>
+      <c r="E120" t="s">
+        <v>339</v>
+      </c>
+      <c r="F120" t="s">
+        <v>340</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121" t="s">
+        <v>300</v>
+      </c>
+      <c r="E121" t="s">
+        <v>341</v>
+      </c>
+      <c r="F121" t="s">
+        <v>342</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122" t="s">
+        <v>343</v>
+      </c>
+      <c r="E122" t="s">
+        <v>344</v>
+      </c>
+      <c r="F122" t="s">
+        <v>345</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123" t="s">
+        <v>173</v>
+      </c>
+      <c r="E123" t="s">
+        <v>346</v>
+      </c>
+      <c r="F123" t="s">
+        <v>347</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124" t="s">
+        <v>348</v>
+      </c>
+      <c r="E124" t="s">
+        <v>349</v>
+      </c>
+      <c r="F124" t="s">
+        <v>350</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125" t="s">
+        <v>351</v>
+      </c>
+      <c r="E125" t="s">
+        <v>352</v>
+      </c>
+      <c r="F125" t="s">
+        <v>353</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126" t="s">
+        <v>300</v>
+      </c>
+      <c r="E126" t="s">
+        <v>354</v>
+      </c>
+      <c r="F126" t="s">
+        <v>355</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127" t="s">
+        <v>356</v>
+      </c>
+      <c r="E127" t="s">
+        <v>357</v>
+      </c>
+      <c r="F127" t="s">
+        <v>358</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128" t="s">
+        <v>359</v>
+      </c>
+      <c r="E128" t="s">
+        <v>357</v>
+      </c>
+      <c r="F128" t="s">
+        <v>360</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129" t="s">
+        <v>361</v>
+      </c>
+      <c r="E129" t="s">
+        <v>362</v>
+      </c>
+      <c r="F129" t="s">
+        <v>363</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130" t="s">
+        <v>364</v>
+      </c>
+      <c r="E130" t="s">
+        <v>365</v>
+      </c>
+      <c r="F130" t="s">
+        <v>366</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131" t="s">
+        <v>367</v>
+      </c>
+      <c r="E131" t="s">
+        <v>368</v>
+      </c>
+      <c r="F131" t="s">
+        <v>369</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132" t="s">
+        <v>370</v>
+      </c>
+      <c r="E132" t="s">
+        <v>371</v>
+      </c>
+      <c r="F132" t="s">
+        <v>372</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133" t="s">
+        <v>373</v>
+      </c>
+      <c r="E133" t="s">
+        <v>374</v>
+      </c>
+      <c r="F133" t="s">
+        <v>375</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134" t="s">
+        <v>244</v>
+      </c>
+      <c r="E134" t="s">
+        <v>376</v>
+      </c>
+      <c r="F134" t="s">
+        <v>377</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135" t="s">
+        <v>378</v>
+      </c>
+      <c r="E135" t="s">
+        <v>379</v>
+      </c>
+      <c r="F135" t="s">
+        <v>380</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136" t="s">
+        <v>381</v>
+      </c>
+      <c r="E136" t="s">
+        <v>382</v>
+      </c>
+      <c r="F136" t="s">
+        <v>383</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137" t="s">
+        <v>156</v>
+      </c>
+      <c r="E137" t="s">
+        <v>384</v>
+      </c>
+      <c r="F137" t="s">
+        <v>385</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138" t="s">
+        <v>386</v>
+      </c>
+      <c r="E138" t="s">
+        <v>387</v>
+      </c>
+      <c r="F138" t="s">
+        <v>388</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139" t="s">
+        <v>389</v>
+      </c>
+      <c r="E139" t="s">
+        <v>390</v>
+      </c>
+      <c r="F139" t="s">
+        <v>391</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140" t="s">
+        <v>392</v>
+      </c>
+      <c r="E140" t="s">
+        <v>393</v>
+      </c>
+      <c r="F140" t="s">
+        <v>394</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141" t="s">
+        <v>395</v>
+      </c>
+      <c r="E141" t="s">
+        <v>396</v>
+      </c>
+      <c r="F141" t="s">
+        <v>397</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142" t="s">
+        <v>144</v>
+      </c>
+      <c r="E142" t="s">
+        <v>398</v>
+      </c>
+      <c r="F142" t="s">
+        <v>399</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143" t="s">
+        <v>367</v>
+      </c>
+      <c r="E143" t="s">
+        <v>400</v>
+      </c>
+      <c r="F143" t="s">
+        <v>401</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144" t="s">
+        <v>402</v>
+      </c>
+      <c r="E144" t="s">
+        <v>403</v>
+      </c>
+      <c r="F144" t="s">
+        <v>404</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145" t="s">
+        <v>405</v>
+      </c>
+      <c r="E145" t="s">
+        <v>404</v>
+      </c>
+      <c r="F145" t="s">
+        <v>406</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146" t="s">
+        <v>328</v>
+      </c>
+      <c r="E146" t="s">
+        <v>407</v>
+      </c>
+      <c r="F146" t="s">
+        <v>408</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147" t="s">
+        <v>281</v>
+      </c>
+      <c r="E147" t="s">
+        <v>409</v>
+      </c>
+      <c r="F147" t="s">
+        <v>410</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148" t="s">
+        <v>263</v>
+      </c>
+      <c r="E148" t="s">
+        <v>411</v>
+      </c>
+      <c r="F148" t="s">
+        <v>412</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149" t="s">
+        <v>413</v>
+      </c>
+      <c r="E149" t="s">
+        <v>411</v>
+      </c>
+      <c r="F149" t="s">
+        <v>412</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150" t="s">
+        <v>414</v>
+      </c>
+      <c r="E150" t="s">
+        <v>415</v>
+      </c>
+      <c r="F150" t="s">
+        <v>416</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151" t="s">
+        <v>417</v>
+      </c>
+      <c r="E151" t="s">
+        <v>418</v>
+      </c>
+      <c r="F151" t="s">
+        <v>419</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152" t="s">
+        <v>420</v>
+      </c>
+      <c r="E152" t="s">
+        <v>421</v>
+      </c>
+      <c r="F152" t="s">
+        <v>422</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153" t="s">
+        <v>423</v>
+      </c>
+      <c r="E153" t="s">
+        <v>424</v>
+      </c>
+      <c r="F153" t="s">
+        <v>425</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154" t="s">
+        <v>426</v>
+      </c>
+      <c r="E154" t="s">
+        <v>427</v>
+      </c>
+      <c r="F154" t="s">
+        <v>428</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155" t="s">
+        <v>114</v>
+      </c>
+      <c r="E155" t="s">
+        <v>429</v>
+      </c>
+      <c r="F155" t="s">
+        <v>430</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156" t="s">
+        <v>431</v>
+      </c>
+      <c r="E156" t="s">
+        <v>432</v>
+      </c>
+      <c r="F156" t="s">
+        <v>433</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157" t="s">
+        <v>434</v>
+      </c>
+      <c r="E157" t="s">
+        <v>435</v>
+      </c>
+      <c r="F157" t="s">
+        <v>436</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158" t="s">
+        <v>224</v>
+      </c>
+      <c r="E158" t="s">
+        <v>437</v>
+      </c>
+      <c r="F158" t="s">
+        <v>438</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159" t="s">
+        <v>439</v>
+      </c>
+      <c r="E159" t="s">
+        <v>440</v>
+      </c>
+      <c r="F159" t="s">
+        <v>441</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160" t="s">
+        <v>442</v>
+      </c>
+      <c r="E160" t="s">
+        <v>443</v>
+      </c>
+      <c r="F160" t="s">
+        <v>444</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161" t="s">
+        <v>445</v>
+      </c>
+      <c r="E161" t="s">
+        <v>446</v>
+      </c>
+      <c r="F161" t="s">
+        <v>447</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162" t="s">
+        <v>448</v>
+      </c>
+      <c r="E162" t="s">
+        <v>449</v>
+      </c>
+      <c r="F162" t="s">
+        <v>450</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163" t="s">
+        <v>373</v>
+      </c>
+      <c r="E163" t="s">
+        <v>449</v>
+      </c>
+      <c r="F163" t="s">
+        <v>450</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164" t="s">
+        <v>451</v>
+      </c>
+      <c r="E164" t="s">
+        <v>452</v>
+      </c>
+      <c r="F164" t="s">
+        <v>453</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165" t="s">
+        <v>454</v>
+      </c>
+      <c r="E165" t="s">
+        <v>455</v>
+      </c>
+      <c r="F165" t="s">
+        <v>456</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166" t="s">
+        <v>402</v>
+      </c>
+      <c r="E166" t="s">
+        <v>457</v>
+      </c>
+      <c r="F166" t="s">
+        <v>458</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167" t="s">
+        <v>459</v>
+      </c>
+      <c r="E167" t="s">
+        <v>460</v>
+      </c>
+      <c r="F167" t="s">
+        <v>461</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168" t="s">
+        <v>462</v>
+      </c>
+      <c r="E168" t="s">
+        <v>463</v>
+      </c>
+      <c r="F168" t="s">
+        <v>464</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+      <c r="D169" t="s">
+        <v>465</v>
+      </c>
+      <c r="E169" t="s">
+        <v>466</v>
+      </c>
+      <c r="F169" t="s">
+        <v>467</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170" t="s">
+        <v>468</v>
+      </c>
+      <c r="E170" t="s">
+        <v>469</v>
+      </c>
+      <c r="F170" t="s">
+        <v>470</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171" t="s">
+        <v>471</v>
+      </c>
+      <c r="E171" t="s">
+        <v>472</v>
+      </c>
+      <c r="F171" t="s">
+        <v>473</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172" t="s">
+        <v>474</v>
+      </c>
+      <c r="E172" t="s">
+        <v>472</v>
+      </c>
+      <c r="F172" t="s">
+        <v>473</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173" t="s">
+        <v>475</v>
+      </c>
+      <c r="E173" t="s">
+        <v>476</v>
+      </c>
+      <c r="F173" t="s">
+        <v>477</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="D174" t="s">
+        <v>478</v>
+      </c>
+      <c r="E174" t="s">
+        <v>479</v>
+      </c>
+      <c r="F174" t="s">
+        <v>480</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+      <c r="D175" t="s">
+        <v>481</v>
+      </c>
+      <c r="E175" t="s">
+        <v>479</v>
+      </c>
+      <c r="F175" t="s">
+        <v>482</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176" t="s">
+        <v>483</v>
+      </c>
+      <c r="E176" t="s">
+        <v>484</v>
+      </c>
+      <c r="F176" t="s">
+        <v>485</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177" t="s">
+        <v>486</v>
+      </c>
+      <c r="E177" t="s">
+        <v>484</v>
+      </c>
+      <c r="F177" t="s">
+        <v>487</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+      <c r="D178" t="s">
+        <v>22</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F178" t="s">
+        <v>489</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179" t="s">
+        <v>38</v>
+      </c>
+      <c r="E179" t="s">
+        <v>490</v>
+      </c>
+      <c r="F179" t="s">
+        <v>491</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="D180" t="s">
+        <v>492</v>
+      </c>
+      <c r="E180" t="s">
+        <v>493</v>
+      </c>
+      <c r="F180" t="s">
+        <v>494</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181" t="s">
+        <v>114</v>
+      </c>
+      <c r="E181" t="s">
+        <v>495</v>
+      </c>
+      <c r="F181" t="s">
+        <v>496</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="D182" t="s">
+        <v>497</v>
+      </c>
+      <c r="E182" t="s">
+        <v>498</v>
+      </c>
+      <c r="F182" t="s">
+        <v>499</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+      <c r="D183" t="s">
+        <v>500</v>
+      </c>
+      <c r="E183" t="s">
+        <v>501</v>
+      </c>
+      <c r="F183" t="s">
+        <v>502</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184" t="s">
+        <v>503</v>
+      </c>
+      <c r="E184" t="s">
+        <v>504</v>
+      </c>
+      <c r="F184" t="s">
+        <v>505</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185" t="s">
+        <v>506</v>
+      </c>
+      <c r="E185" t="s">
+        <v>507</v>
+      </c>
+      <c r="F185" t="s">
+        <v>508</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="D186" t="s">
+        <v>509</v>
+      </c>
+      <c r="E186" t="s">
+        <v>510</v>
+      </c>
+      <c r="F186" t="s">
+        <v>511</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187" t="s">
+        <v>512</v>
+      </c>
+      <c r="E187" t="s">
+        <v>513</v>
+      </c>
+      <c r="F187" t="s">
+        <v>514</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188" t="s">
+        <v>515</v>
+      </c>
+      <c r="E188" t="s">
+        <v>516</v>
+      </c>
+      <c r="F188" t="s">
+        <v>517</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="D189" t="s">
+        <v>518</v>
+      </c>
+      <c r="E189" t="s">
+        <v>519</v>
+      </c>
+      <c r="F189" t="s">
+        <v>520</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190" t="s">
+        <v>521</v>
+      </c>
+      <c r="E190" t="s">
+        <v>522</v>
+      </c>
+      <c r="F190" t="s">
+        <v>523</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191" t="s">
+        <v>524</v>
+      </c>
+      <c r="E191" t="s">
+        <v>525</v>
+      </c>
+      <c r="F191" t="s">
+        <v>526</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+      <c r="D192" t="s">
+        <v>272</v>
+      </c>
+      <c r="E192" t="s">
+        <v>527</v>
+      </c>
+      <c r="F192" t="s">
+        <v>528</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+      <c r="D193" t="s">
+        <v>529</v>
+      </c>
+      <c r="E193" t="s">
+        <v>530</v>
+      </c>
+      <c r="F193" t="s">
+        <v>531</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194" t="s">
+        <v>451</v>
+      </c>
+      <c r="E194" t="s">
+        <v>531</v>
+      </c>
+      <c r="F194" t="s">
+        <v>532</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195" t="s">
+        <v>535</v>
+      </c>
+      <c r="E195" t="s">
+        <v>534</v>
+      </c>
+      <c r="F195" t="s">
+        <v>536</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196" t="s">
+        <v>533</v>
+      </c>
+      <c r="E196" t="s">
+        <v>534</v>
+      </c>
+      <c r="F196" t="s">
+        <v>537</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197" t="s">
+        <v>538</v>
+      </c>
+      <c r="E197" t="s">
+        <v>539</v>
+      </c>
+      <c r="F197" t="s">
+        <v>540</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+      <c r="D198" t="s">
+        <v>114</v>
+      </c>
+      <c r="E198" t="s">
+        <v>541</v>
+      </c>
+      <c r="F198" t="s">
+        <v>542</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+      <c r="D199" t="s">
+        <v>38</v>
+      </c>
+      <c r="E199" t="s">
+        <v>543</v>
+      </c>
+      <c r="F199" t="s">
+        <v>544</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200" t="s">
+        <v>545</v>
+      </c>
+      <c r="E200" t="s">
+        <v>546</v>
+      </c>
+      <c r="F200" t="s">
+        <v>547</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201" t="s">
+        <v>548</v>
+      </c>
+      <c r="E201" t="s">
+        <v>549</v>
+      </c>
+      <c r="F201" t="s">
+        <v>550</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202" t="s">
+        <v>551</v>
+      </c>
+      <c r="E202" t="s">
+        <v>552</v>
+      </c>
+      <c r="F202" t="s">
+        <v>553</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="H202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203" t="s">
+        <v>554</v>
+      </c>
+      <c r="E203" t="s">
+        <v>555</v>
+      </c>
+      <c r="F203" t="s">
+        <v>556</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+      <c r="H203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204" t="s">
+        <v>557</v>
+      </c>
+      <c r="E204" t="s">
+        <v>558</v>
+      </c>
+      <c r="F204" t="s">
+        <v>559</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="H204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205" t="s">
+        <v>192</v>
+      </c>
+      <c r="E205" t="s">
+        <v>560</v>
+      </c>
+      <c r="F205" t="s">
+        <v>561</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+      <c r="H205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206" t="s">
+        <v>38</v>
+      </c>
+      <c r="E206" t="s">
+        <v>562</v>
+      </c>
+      <c r="F206" t="s">
+        <v>563</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+      <c r="H206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207" t="s">
+        <v>564</v>
+      </c>
+      <c r="E207" t="s">
+        <v>565</v>
+      </c>
+      <c r="F207" t="s">
+        <v>566</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+      <c r="H207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208" t="s">
+        <v>567</v>
+      </c>
+      <c r="E208" t="s">
+        <v>568</v>
+      </c>
+      <c r="F208" t="s">
+        <v>569</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+      <c r="H208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209" t="s">
+        <v>570</v>
+      </c>
+      <c r="E209" t="s">
+        <v>571</v>
+      </c>
+      <c r="F209" t="s">
+        <v>572</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+      <c r="H209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210" t="s">
+        <v>573</v>
+      </c>
+      <c r="E210" t="s">
+        <v>574</v>
+      </c>
+      <c r="F210" t="s">
+        <v>575</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+      <c r="H210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211" t="s">
+        <v>300</v>
+      </c>
+      <c r="E211" t="s">
+        <v>576</v>
+      </c>
+      <c r="F211" t="s">
+        <v>577</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+      <c r="H211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212" t="s">
+        <v>548</v>
+      </c>
+      <c r="E212" t="s">
+        <v>578</v>
+      </c>
+      <c r="F212" t="s">
+        <v>579</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+      <c r="H212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213" t="s">
+        <v>580</v>
+      </c>
+      <c r="E213" t="s">
+        <v>581</v>
+      </c>
+      <c r="F213" t="s">
+        <v>582</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+      <c r="H213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+      <c r="D214" t="s">
+        <v>583</v>
+      </c>
+      <c r="E214" t="s">
+        <v>584</v>
+      </c>
+      <c r="F214" t="s">
+        <v>585</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+      <c r="H214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+      <c r="D215" t="s">
+        <v>586</v>
+      </c>
+      <c r="E215" t="s">
+        <v>587</v>
+      </c>
+      <c r="F215" t="s">
+        <v>588</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+      <c r="H215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="D216" t="s">
+        <v>38</v>
+      </c>
+      <c r="E216" t="s">
+        <v>589</v>
+      </c>
+      <c r="F216" t="s">
+        <v>590</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+      <c r="H216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217" t="s">
+        <v>591</v>
+      </c>
+      <c r="E217" t="s">
+        <v>592</v>
+      </c>
+      <c r="F217" t="s">
+        <v>593</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+      <c r="H217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218" t="s">
+        <v>557</v>
+      </c>
+      <c r="E218" t="s">
+        <v>594</v>
+      </c>
+      <c r="F218" t="s">
+        <v>595</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+      <c r="H218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219" t="s">
+        <v>596</v>
+      </c>
+      <c r="E219" t="s">
+        <v>597</v>
+      </c>
+      <c r="F219" t="s">
+        <v>598</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+      <c r="H219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220" t="s">
+        <v>599</v>
+      </c>
+      <c r="E220" t="s">
+        <v>597</v>
+      </c>
+      <c r="F220" t="s">
+        <v>600</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+      <c r="H220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="D221" t="s">
+        <v>601</v>
+      </c>
+      <c r="E221" t="s">
+        <v>602</v>
+      </c>
+      <c r="F221" t="s">
+        <v>603</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+      <c r="H221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+      <c r="D222" t="s">
+        <v>176</v>
+      </c>
+      <c r="E222" t="s">
+        <v>603</v>
+      </c>
+      <c r="F222" t="s">
+        <v>604</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="C223">
+        <v>1</v>
+      </c>
+      <c r="D223" t="s">
+        <v>179</v>
+      </c>
+      <c r="E223" t="s">
+        <v>605</v>
+      </c>
+      <c r="F223" t="s">
+        <v>606</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224" t="s">
+        <v>607</v>
+      </c>
+      <c r="E224" t="s">
+        <v>608</v>
+      </c>
+      <c r="F224" t="s">
+        <v>609</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225" t="s">
+        <v>300</v>
+      </c>
+      <c r="E225" t="s">
+        <v>610</v>
+      </c>
+      <c r="F225" t="s">
+        <v>611</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226" t="s">
+        <v>612</v>
+      </c>
+      <c r="E226" t="s">
+        <v>613</v>
+      </c>
+      <c r="F226" t="s">
+        <v>614</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227" t="s">
+        <v>272</v>
+      </c>
+      <c r="E227" t="s">
+        <v>615</v>
+      </c>
+      <c r="F227" t="s">
+        <v>616</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228" t="s">
+        <v>402</v>
+      </c>
+      <c r="E228" t="s">
+        <v>617</v>
+      </c>
+      <c r="F228" t="s">
+        <v>618</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+      <c r="D229" t="s">
+        <v>619</v>
+      </c>
+      <c r="E229" t="s">
+        <v>620</v>
+      </c>
+      <c r="F229" t="s">
+        <v>621</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230" t="s">
+        <v>622</v>
+      </c>
+      <c r="E230" t="s">
+        <v>620</v>
+      </c>
+      <c r="F230" t="s">
+        <v>621</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="D231" t="s">
+        <v>623</v>
+      </c>
+      <c r="E231" t="s">
+        <v>624</v>
+      </c>
+      <c r="F231" t="s">
+        <v>625</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+      <c r="D232" t="s">
+        <v>601</v>
+      </c>
+      <c r="E232" t="s">
+        <v>626</v>
+      </c>
+      <c r="F232" t="s">
+        <v>625</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233" t="s">
+        <v>627</v>
+      </c>
+      <c r="E233" t="s">
+        <v>628</v>
+      </c>
+      <c r="F233" t="s">
+        <v>629</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+      <c r="D234" t="s">
+        <v>630</v>
+      </c>
+      <c r="E234" t="s">
+        <v>629</v>
+      </c>
+      <c r="F234" t="s">
+        <v>631</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+      <c r="H234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+      <c r="D235" t="s">
+        <v>632</v>
+      </c>
+      <c r="E235" t="s">
+        <v>633</v>
+      </c>
+      <c r="F235" t="s">
+        <v>634</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+      <c r="H235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+      <c r="D236" t="s">
+        <v>635</v>
+      </c>
+      <c r="E236" t="s">
+        <v>636</v>
+      </c>
+      <c r="F236" t="s">
+        <v>637</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+      <c r="H236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237" t="s">
+        <v>263</v>
+      </c>
+      <c r="E237" t="s">
+        <v>637</v>
+      </c>
+      <c r="F237" t="s">
+        <v>638</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+      <c r="H237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+      <c r="D238" t="s">
+        <v>413</v>
+      </c>
+      <c r="E238" t="s">
+        <v>637</v>
+      </c>
+      <c r="F238" t="s">
+        <v>638</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+      <c r="H238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+      <c r="D239" t="s">
+        <v>548</v>
+      </c>
+      <c r="E239" t="s">
+        <v>639</v>
+      </c>
+      <c r="F239" t="s">
+        <v>640</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+      <c r="H239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+      <c r="C240">
+        <v>2</v>
+      </c>
+      <c r="D240" t="s">
+        <v>244</v>
+      </c>
+      <c r="E240" t="s">
+        <v>641</v>
+      </c>
+      <c r="F240" t="s">
+        <v>642</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+      <c r="H240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>1</v>
+      </c>
+      <c r="C241">
+        <v>2</v>
+      </c>
+      <c r="D241" t="s">
+        <v>643</v>
+      </c>
+      <c r="E241" t="s">
+        <v>644</v>
+      </c>
+      <c r="F241" t="s">
+        <v>645</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+      <c r="H241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+      <c r="C242">
+        <v>2</v>
+      </c>
+      <c r="D242" t="s">
+        <v>646</v>
+      </c>
+      <c r="E242" t="s">
+        <v>647</v>
+      </c>
+      <c r="F242" t="s">
+        <v>648</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+      <c r="H242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+      <c r="C243">
+        <v>2</v>
+      </c>
+      <c r="D243" t="s">
+        <v>635</v>
+      </c>
+      <c r="E243" t="s">
+        <v>648</v>
+      </c>
+      <c r="F243" t="s">
+        <v>649</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+      <c r="H243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+      <c r="C244">
+        <v>2</v>
+      </c>
+      <c r="D244" t="s">
+        <v>114</v>
+      </c>
+      <c r="E244" t="s">
+        <v>650</v>
+      </c>
+      <c r="F244" t="s">
+        <v>651</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+      <c r="H244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+      <c r="C245">
+        <v>2</v>
+      </c>
+      <c r="D245" t="s">
+        <v>652</v>
+      </c>
+      <c r="E245" t="s">
+        <v>653</v>
+      </c>
+      <c r="F245" t="s">
+        <v>654</v>
+      </c>
+      <c r="G245">
+        <v>0</v>
+      </c>
+      <c r="H245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+      <c r="C246">
+        <v>2</v>
+      </c>
+      <c r="D246" t="s">
+        <v>655</v>
+      </c>
+      <c r="E246" t="s">
+        <v>656</v>
+      </c>
+      <c r="F246" t="s">
+        <v>657</v>
+      </c>
+      <c r="G246">
+        <v>0</v>
+      </c>
+      <c r="H246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
+      </c>
+      <c r="C247">
+        <v>2</v>
+      </c>
+      <c r="D247" t="s">
+        <v>658</v>
+      </c>
+      <c r="E247" t="s">
+        <v>657</v>
+      </c>
+      <c r="F247" t="s">
+        <v>659</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+      <c r="H247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>1</v>
+      </c>
+      <c r="C248">
+        <v>2</v>
+      </c>
+      <c r="D248" t="s">
+        <v>660</v>
+      </c>
+      <c r="E248" t="s">
+        <v>661</v>
+      </c>
+      <c r="F248" t="s">
+        <v>662</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+      <c r="H248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+      <c r="C249">
+        <v>2</v>
+      </c>
+      <c r="D249" t="s">
+        <v>663</v>
+      </c>
+      <c r="E249" t="s">
+        <v>664</v>
+      </c>
+      <c r="F249" t="s">
+        <v>665</v>
+      </c>
+      <c r="G249">
+        <v>0</v>
+      </c>
+      <c r="H249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
+      <c r="C250">
+        <v>2</v>
+      </c>
+      <c r="D250" t="s">
+        <v>666</v>
+      </c>
+      <c r="E250" t="s">
+        <v>667</v>
+      </c>
+      <c r="F250" t="s">
+        <v>668</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+      <c r="H250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+      <c r="C251">
+        <v>2</v>
+      </c>
+      <c r="D251" t="s">
+        <v>44</v>
+      </c>
+      <c r="E251" t="s">
+        <v>668</v>
+      </c>
+      <c r="F251" t="s">
+        <v>669</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+      <c r="H251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="C252">
+        <v>2</v>
+      </c>
+      <c r="D252" t="s">
+        <v>670</v>
+      </c>
+      <c r="E252" t="s">
+        <v>669</v>
+      </c>
+      <c r="F252" t="s">
+        <v>671</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+      <c r="H252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>1</v>
+      </c>
+      <c r="C253">
+        <v>2</v>
+      </c>
+      <c r="D253" t="s">
+        <v>672</v>
+      </c>
+      <c r="E253" t="s">
+        <v>673</v>
+      </c>
+      <c r="F253" t="s">
+        <v>674</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+      <c r="H253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="C254">
+        <v>2</v>
+      </c>
+      <c r="D254" t="s">
+        <v>675</v>
+      </c>
+      <c r="E254" t="s">
+        <v>676</v>
+      </c>
+      <c r="F254" t="s">
+        <v>677</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+      <c r="H254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+      <c r="C255">
+        <v>2</v>
+      </c>
+      <c r="D255" t="s">
+        <v>414</v>
+      </c>
+      <c r="E255" t="s">
+        <v>678</v>
+      </c>
+      <c r="F255" t="s">
+        <v>679</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+      <c r="H255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+      <c r="C256">
+        <v>2</v>
+      </c>
+      <c r="D256" t="s">
+        <v>680</v>
+      </c>
+      <c r="E256" t="s">
+        <v>681</v>
+      </c>
+      <c r="F256" t="s">
+        <v>682</v>
+      </c>
+      <c r="G256">
+        <v>0</v>
+      </c>
+      <c r="H256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="C257">
+        <v>2</v>
+      </c>
+      <c r="D257" t="s">
+        <v>683</v>
+      </c>
+      <c r="E257" t="s">
+        <v>682</v>
+      </c>
+      <c r="F257" t="s">
+        <v>684</v>
+      </c>
+      <c r="G257">
+        <v>0</v>
+      </c>
+      <c r="H257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+      <c r="C258">
+        <v>2</v>
+      </c>
+      <c r="D258" t="s">
+        <v>685</v>
+      </c>
+      <c r="E258" t="s">
+        <v>686</v>
+      </c>
+      <c r="F258" t="s">
+        <v>687</v>
+      </c>
+      <c r="G258">
+        <v>0</v>
+      </c>
+      <c r="H258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+      <c r="C259">
+        <v>2</v>
+      </c>
+      <c r="D259" t="s">
+        <v>688</v>
+      </c>
+      <c r="E259" t="s">
+        <v>689</v>
+      </c>
+      <c r="F259" t="s">
+        <v>690</v>
+      </c>
+      <c r="G259">
+        <v>0</v>
+      </c>
+      <c r="H259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+      <c r="C260">
+        <v>2</v>
+      </c>
+      <c r="D260" t="s">
+        <v>691</v>
+      </c>
+      <c r="E260" t="s">
+        <v>692</v>
+      </c>
+      <c r="F260" t="s">
+        <v>693</v>
+      </c>
+      <c r="G260">
+        <v>0</v>
+      </c>
+      <c r="H260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+      <c r="C261">
+        <v>2</v>
+      </c>
+      <c r="D261" t="s">
+        <v>646</v>
+      </c>
+      <c r="E261" t="s">
+        <v>694</v>
+      </c>
+      <c r="F261" t="s">
+        <v>695</v>
+      </c>
+      <c r="G261">
+        <v>0</v>
+      </c>
+      <c r="H261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+      <c r="C262">
+        <v>2</v>
+      </c>
+      <c r="D262" t="s">
+        <v>696</v>
+      </c>
+      <c r="E262" t="s">
+        <v>697</v>
+      </c>
+      <c r="F262" t="s">
+        <v>698</v>
+      </c>
+      <c r="G262">
+        <v>0</v>
+      </c>
+      <c r="H262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+      <c r="C263">
+        <v>2</v>
+      </c>
+      <c r="D263" t="s">
+        <v>272</v>
+      </c>
+      <c r="E263" t="s">
+        <v>699</v>
+      </c>
+      <c r="F263" t="s">
+        <v>700</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+      <c r="H263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+      <c r="C264">
+        <v>2</v>
+      </c>
+      <c r="D264" t="s">
+        <v>701</v>
+      </c>
+      <c r="E264" t="s">
+        <v>699</v>
+      </c>
+      <c r="F264" t="s">
+        <v>700</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+      <c r="H264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+      <c r="C265">
+        <v>2</v>
+      </c>
+      <c r="D265" t="s">
+        <v>38</v>
+      </c>
+      <c r="E265" t="s">
+        <v>702</v>
+      </c>
+      <c r="F265" t="s">
+        <v>703</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+      <c r="H265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+      <c r="C266">
+        <v>2</v>
+      </c>
+      <c r="D266" t="s">
+        <v>478</v>
+      </c>
+      <c r="E266" t="s">
+        <v>704</v>
+      </c>
+      <c r="F266" t="s">
+        <v>705</v>
+      </c>
+      <c r="G266">
+        <v>0</v>
+      </c>
+      <c r="H266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+      <c r="C267">
+        <v>2</v>
+      </c>
+      <c r="D267" t="s">
+        <v>706</v>
+      </c>
+      <c r="E267" t="s">
+        <v>704</v>
+      </c>
+      <c r="F267" t="s">
+        <v>705</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
+      <c r="H267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+      <c r="C268">
+        <v>2</v>
+      </c>
+      <c r="D268" t="s">
+        <v>707</v>
+      </c>
+      <c r="E268" t="s">
+        <v>705</v>
+      </c>
+      <c r="F268" t="s">
+        <v>708</v>
+      </c>
+      <c r="G268">
+        <v>0</v>
+      </c>
+      <c r="H268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>1</v>
+      </c>
+      <c r="C269">
+        <v>2</v>
+      </c>
+      <c r="D269" t="s">
+        <v>709</v>
+      </c>
+      <c r="E269" t="s">
+        <v>708</v>
+      </c>
+      <c r="F269" t="s">
+        <v>710</v>
+      </c>
+      <c r="G269">
+        <v>0</v>
+      </c>
+      <c r="H269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+      <c r="C270">
+        <v>2</v>
+      </c>
+      <c r="D270" t="s">
+        <v>711</v>
+      </c>
+      <c r="E270" t="s">
+        <v>712</v>
+      </c>
+      <c r="F270" t="s">
+        <v>713</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+      <c r="H270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>1</v>
+      </c>
+      <c r="C271">
+        <v>2</v>
+      </c>
+      <c r="D271" t="s">
+        <v>714</v>
+      </c>
+      <c r="E271" t="s">
+        <v>710</v>
+      </c>
+      <c r="F271" t="s">
+        <v>713</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
+      </c>
+      <c r="H271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+      <c r="C272">
+        <v>2</v>
+      </c>
+      <c r="D272" t="s">
+        <v>414</v>
+      </c>
+      <c r="E272" t="s">
+        <v>713</v>
+      </c>
+      <c r="F272" t="s">
+        <v>715</v>
+      </c>
+      <c r="G272">
+        <v>0</v>
+      </c>
+      <c r="H272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>1</v>
+      </c>
+      <c r="C273">
+        <v>2</v>
+      </c>
+      <c r="D273" t="s">
+        <v>114</v>
+      </c>
+      <c r="E273" t="s">
+        <v>715</v>
+      </c>
+      <c r="F273" t="s">
+        <v>716</v>
+      </c>
+      <c r="G273">
+        <v>0</v>
+      </c>
+      <c r="H273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>1</v>
+      </c>
+      <c r="C274">
+        <v>2</v>
+      </c>
+      <c r="D274" t="s">
+        <v>719</v>
+      </c>
+      <c r="E274" t="s">
+        <v>717</v>
+      </c>
+      <c r="F274" t="s">
+        <v>718</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+      <c r="H274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>1</v>
+      </c>
+      <c r="C275">
+        <v>2</v>
+      </c>
+      <c r="D275" t="s">
+        <v>335</v>
+      </c>
+      <c r="E275" t="s">
+        <v>718</v>
+      </c>
+      <c r="F275" t="s">
+        <v>720</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+      <c r="H275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+      <c r="C276">
+        <v>2</v>
+      </c>
+      <c r="D276" t="s">
+        <v>723</v>
+      </c>
+      <c r="E276" t="s">
+        <v>721</v>
+      </c>
+      <c r="F276" t="s">
+        <v>722</v>
+      </c>
+      <c r="G276">
+        <v>0</v>
+      </c>
+      <c r="H276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>1</v>
+      </c>
+      <c r="C277">
+        <v>2</v>
+      </c>
+      <c r="D277" t="s">
+        <v>445</v>
+      </c>
+      <c r="E277" t="s">
+        <v>722</v>
+      </c>
+      <c r="F277" t="s">
+        <v>724</v>
+      </c>
+      <c r="G277">
+        <v>0</v>
+      </c>
+      <c r="H277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>1</v>
+      </c>
+      <c r="C278">
+        <v>2</v>
+      </c>
+      <c r="D278" t="s">
+        <v>725</v>
+      </c>
+      <c r="E278" t="s">
+        <v>726</v>
+      </c>
+      <c r="F278" t="s">
+        <v>727</v>
+      </c>
+      <c r="G278">
+        <v>0</v>
+      </c>
+      <c r="H278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>1</v>
+      </c>
+      <c r="C279">
+        <v>2</v>
+      </c>
+      <c r="D279" t="s">
+        <v>728</v>
+      </c>
+      <c r="E279" t="s">
+        <v>729</v>
+      </c>
+      <c r="F279" t="s">
+        <v>730</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="H279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
+      <c r="C280">
+        <v>2</v>
+      </c>
+      <c r="D280" t="s">
+        <v>731</v>
+      </c>
+      <c r="E280" t="s">
+        <v>732</v>
+      </c>
+      <c r="F280" t="s">
+        <v>733</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="H280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>1</v>
+      </c>
+      <c r="C281">
+        <v>2</v>
+      </c>
+      <c r="D281" t="s">
+        <v>734</v>
+      </c>
+      <c r="E281" t="s">
+        <v>733</v>
+      </c>
+      <c r="F281" t="s">
+        <v>735</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
+      <c r="H281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
+      <c r="C282">
+        <v>2</v>
+      </c>
+      <c r="D282" t="s">
+        <v>736</v>
+      </c>
+      <c r="E282" t="s">
+        <v>735</v>
+      </c>
+      <c r="F282" t="s">
+        <v>737</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="H282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>1</v>
+      </c>
+      <c r="C283">
+        <v>2</v>
+      </c>
+      <c r="D283" t="s">
+        <v>117</v>
+      </c>
+      <c r="E283" t="s">
+        <v>738</v>
+      </c>
+      <c r="F283" t="s">
+        <v>739</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="H283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>1</v>
+      </c>
+      <c r="C284">
+        <v>2</v>
+      </c>
+      <c r="D284" t="s">
+        <v>44</v>
+      </c>
+      <c r="E284" t="s">
+        <v>740</v>
+      </c>
+      <c r="F284" t="s">
+        <v>741</v>
+      </c>
+      <c r="G284">
+        <v>0</v>
+      </c>
+      <c r="H284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>1</v>
+      </c>
+      <c r="C285">
+        <v>2</v>
+      </c>
+      <c r="D285" t="s">
+        <v>742</v>
+      </c>
+      <c r="E285" t="s">
+        <v>741</v>
+      </c>
+      <c r="F285" t="s">
+        <v>743</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+      <c r="H285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>1</v>
+      </c>
+      <c r="C286">
+        <v>2</v>
+      </c>
+      <c r="D286" t="s">
+        <v>744</v>
+      </c>
+      <c r="E286" t="s">
+        <v>745</v>
+      </c>
+      <c r="F286" t="s">
+        <v>746</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+      <c r="H286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>1</v>
+      </c>
+      <c r="C287">
+        <v>2</v>
+      </c>
+      <c r="D287" t="s">
+        <v>94</v>
+      </c>
+      <c r="E287" t="s">
+        <v>747</v>
+      </c>
+      <c r="F287" t="s">
+        <v>748</v>
+      </c>
+      <c r="G287">
+        <v>0</v>
+      </c>
+      <c r="H287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>1</v>
+      </c>
+      <c r="C288">
+        <v>2</v>
+      </c>
+      <c r="D288" t="s">
+        <v>736</v>
+      </c>
+      <c r="E288" t="s">
+        <v>748</v>
+      </c>
+      <c r="F288" t="s">
+        <v>215</v>
+      </c>
+      <c r="G288">
+        <v>0</v>
+      </c>
+      <c r="H288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>1</v>
+      </c>
+      <c r="C289">
+        <v>2</v>
+      </c>
+      <c r="D289" t="s">
+        <v>749</v>
+      </c>
+      <c r="E289" t="s">
+        <v>750</v>
+      </c>
+      <c r="F289" t="s">
+        <v>751</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+      <c r="H289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>1</v>
+      </c>
+      <c r="C290">
+        <v>2</v>
+      </c>
+      <c r="D290" t="s">
+        <v>38</v>
+      </c>
+      <c r="E290" t="s">
+        <v>751</v>
+      </c>
+      <c r="F290" t="s">
+        <v>752</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="H290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>1</v>
+      </c>
+      <c r="C291">
+        <v>2</v>
+      </c>
+      <c r="D291" t="s">
+        <v>753</v>
+      </c>
+      <c r="E291" t="s">
+        <v>754</v>
+      </c>
+      <c r="F291" t="s">
+        <v>755</v>
+      </c>
+      <c r="G291">
+        <v>0</v>
+      </c>
+      <c r="H291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>1</v>
+      </c>
+      <c r="C292">
+        <v>2</v>
+      </c>
+      <c r="D292" t="s">
+        <v>756</v>
+      </c>
+      <c r="E292" t="s">
+        <v>755</v>
+      </c>
+      <c r="F292" t="s">
+        <v>757</v>
+      </c>
+      <c r="G292">
+        <v>0</v>
+      </c>
+      <c r="H292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>1</v>
+      </c>
+      <c r="C293">
+        <v>2</v>
+      </c>
+      <c r="D293" t="s">
+        <v>758</v>
+      </c>
+      <c r="E293" t="s">
+        <v>757</v>
+      </c>
+      <c r="F293" t="s">
+        <v>759</v>
+      </c>
+      <c r="G293">
+        <v>0</v>
+      </c>
+      <c r="H293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>1</v>
+      </c>
+      <c r="C294">
+        <v>2</v>
+      </c>
+      <c r="D294" t="s">
+        <v>760</v>
+      </c>
+      <c r="E294" t="s">
+        <v>759</v>
+      </c>
+      <c r="F294" t="s">
+        <v>761</v>
+      </c>
+      <c r="G294">
+        <v>0</v>
+      </c>
+      <c r="H294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>1</v>
+      </c>
+      <c r="C295">
+        <v>2</v>
+      </c>
+      <c r="D295" t="s">
+        <v>762</v>
+      </c>
+      <c r="E295" t="s">
+        <v>763</v>
+      </c>
+      <c r="F295" t="s">
+        <v>764</v>
+      </c>
+      <c r="G295">
+        <v>0</v>
+      </c>
+      <c r="H295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+      <c r="C296">
+        <v>2</v>
+      </c>
+      <c r="D296" t="s">
+        <v>767</v>
+      </c>
+      <c r="E296" t="s">
+        <v>765</v>
+      </c>
+      <c r="F296" t="s">
+        <v>766</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
+      <c r="H296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>1</v>
+      </c>
+      <c r="C297">
+        <v>2</v>
+      </c>
+      <c r="D297" t="s">
+        <v>768</v>
+      </c>
+      <c r="E297" t="s">
+        <v>765</v>
+      </c>
+      <c r="F297" t="s">
+        <v>769</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+      <c r="H297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>1</v>
+      </c>
+      <c r="C298">
+        <v>2</v>
+      </c>
+      <c r="D298" t="s">
+        <v>772</v>
+      </c>
+      <c r="E298" t="s">
+        <v>770</v>
+      </c>
+      <c r="F298" t="s">
+        <v>771</v>
+      </c>
+      <c r="G298">
+        <v>0</v>
+      </c>
+      <c r="H298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>1</v>
+      </c>
+      <c r="C299">
+        <v>2</v>
+      </c>
+      <c r="D299" t="s">
+        <v>173</v>
+      </c>
+      <c r="E299" t="s">
+        <v>773</v>
+      </c>
+      <c r="F299" t="s">
+        <v>774</v>
+      </c>
+      <c r="G299">
+        <v>0</v>
+      </c>
+      <c r="H299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>1</v>
+      </c>
+      <c r="C300">
+        <v>2</v>
+      </c>
+      <c r="D300" t="s">
+        <v>59</v>
+      </c>
+      <c r="E300" t="s">
+        <v>774</v>
+      </c>
+      <c r="F300" t="s">
+        <v>775</v>
+      </c>
+      <c r="G300">
+        <v>0</v>
+      </c>
+      <c r="H300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>1</v>
+      </c>
+      <c r="C301">
+        <v>2</v>
+      </c>
+      <c r="D301" t="s">
+        <v>156</v>
+      </c>
+      <c r="E301" t="s">
+        <v>776</v>
+      </c>
+      <c r="F301" t="s">
+        <v>777</v>
+      </c>
+      <c r="G301">
+        <v>0</v>
+      </c>
+      <c r="H301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>1</v>
+      </c>
+      <c r="C302">
+        <v>2</v>
+      </c>
+      <c r="D302" t="s">
+        <v>778</v>
+      </c>
+      <c r="E302" t="s">
+        <v>779</v>
+      </c>
+      <c r="F302" t="s">
+        <v>780</v>
+      </c>
+      <c r="G302">
+        <v>0</v>
+      </c>
+      <c r="H302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>1</v>
+      </c>
+      <c r="C303">
+        <v>2</v>
+      </c>
+      <c r="D303" t="s">
+        <v>781</v>
+      </c>
+      <c r="E303" t="s">
+        <v>782</v>
+      </c>
+      <c r="F303" t="s">
+        <v>783</v>
+      </c>
+      <c r="G303">
+        <v>0</v>
+      </c>
+      <c r="H303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>1</v>
+      </c>
+      <c r="C304">
+        <v>2</v>
+      </c>
+      <c r="D304" t="s">
+        <v>784</v>
+      </c>
+      <c r="E304" t="s">
+        <v>785</v>
+      </c>
+      <c r="F304" t="s">
+        <v>786</v>
+      </c>
+      <c r="G304">
+        <v>0</v>
+      </c>
+      <c r="H304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
+      <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>1</v>
+      </c>
+      <c r="C305">
+        <v>2</v>
+      </c>
+      <c r="D305" t="s">
+        <v>635</v>
+      </c>
+      <c r="E305" t="s">
+        <v>783</v>
+      </c>
+      <c r="F305" t="s">
+        <v>787</v>
+      </c>
+      <c r="G305">
+        <v>0</v>
+      </c>
+      <c r="H305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
+      <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>1</v>
+      </c>
+      <c r="C306">
+        <v>2</v>
+      </c>
+      <c r="D306" t="s">
+        <v>94</v>
+      </c>
+      <c r="E306" t="s">
+        <v>788</v>
+      </c>
+      <c r="F306" t="s">
+        <v>789</v>
+      </c>
+      <c r="G306">
+        <v>0</v>
+      </c>
+      <c r="H306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
+      <c r="A307">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>1</v>
+      </c>
+      <c r="C307">
+        <v>2</v>
+      </c>
+      <c r="D307" t="s">
+        <v>790</v>
+      </c>
+      <c r="E307" t="s">
+        <v>791</v>
+      </c>
+      <c r="F307" t="s">
+        <v>792</v>
+      </c>
+      <c r="G307">
+        <v>0</v>
+      </c>
+      <c r="H307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
+      <c r="A308">
+        <v>307</v>
+      </c>
+      <c r="B308">
+        <v>1</v>
+      </c>
+      <c r="C308">
+        <v>2</v>
+      </c>
+      <c r="D308" t="s">
+        <v>793</v>
+      </c>
+      <c r="E308" t="s">
+        <v>792</v>
+      </c>
+      <c r="F308" t="s">
+        <v>794</v>
+      </c>
+      <c r="G308">
+        <v>0</v>
+      </c>
+      <c r="H308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
+      <c r="A309">
+        <v>308</v>
+      </c>
+      <c r="B309">
+        <v>1</v>
+      </c>
+      <c r="C309">
+        <v>2</v>
+      </c>
+      <c r="D309" t="s">
+        <v>795</v>
+      </c>
+      <c r="E309" t="s">
+        <v>796</v>
+      </c>
+      <c r="F309" t="s">
+        <v>797</v>
+      </c>
+      <c r="G309">
+        <v>0</v>
+      </c>
+      <c r="H309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
+      <c r="A310">
+        <v>309</v>
+      </c>
+      <c r="B310">
+        <v>1</v>
+      </c>
+      <c r="C310">
+        <v>2</v>
+      </c>
+      <c r="D310" t="s">
+        <v>798</v>
+      </c>
+      <c r="E310" t="s">
+        <v>797</v>
+      </c>
+      <c r="F310" t="s">
+        <v>799</v>
+      </c>
+      <c r="G310">
+        <v>0</v>
+      </c>
+      <c r="H310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
+      <c r="A311">
+        <v>310</v>
+      </c>
+      <c r="B311">
+        <v>1</v>
+      </c>
+      <c r="C311">
+        <v>2</v>
+      </c>
+      <c r="D311" t="s">
+        <v>800</v>
+      </c>
+      <c r="E311" t="s">
+        <v>801</v>
+      </c>
+      <c r="F311" t="s">
+        <v>802</v>
+      </c>
+      <c r="G311">
+        <v>0</v>
+      </c>
+      <c r="H311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
+      <c r="A312">
+        <v>311</v>
+      </c>
+      <c r="B312">
+        <v>1</v>
+      </c>
+      <c r="C312">
+        <v>2</v>
+      </c>
+      <c r="D312" t="s">
+        <v>272</v>
+      </c>
+      <c r="E312" t="s">
+        <v>803</v>
+      </c>
+      <c r="F312" t="s">
+        <v>804</v>
+      </c>
+      <c r="G312">
+        <v>0</v>
+      </c>
+      <c r="H312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8">
+      <c r="A313">
+        <v>312</v>
+      </c>
+      <c r="B313">
+        <v>1</v>
+      </c>
+      <c r="C313">
+        <v>2</v>
+      </c>
+      <c r="D313" t="s">
+        <v>805</v>
+      </c>
+      <c r="E313" t="s">
+        <v>806</v>
+      </c>
+      <c r="F313" t="s">
+        <v>807</v>
+      </c>
+      <c r="G313">
+        <v>0</v>
+      </c>
+      <c r="H313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
+      <c r="A314">
+        <v>313</v>
+      </c>
+      <c r="B314">
+        <v>1</v>
+      </c>
+      <c r="C314">
+        <v>2</v>
+      </c>
+      <c r="D314" t="s">
+        <v>808</v>
+      </c>
+      <c r="E314" t="s">
+        <v>809</v>
+      </c>
+      <c r="F314" t="s">
+        <v>810</v>
+      </c>
+      <c r="G314">
+        <v>0</v>
+      </c>
+      <c r="H314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
+      <c r="A315">
+        <v>314</v>
+      </c>
+      <c r="B315">
+        <v>1</v>
+      </c>
+      <c r="C315">
+        <v>2</v>
+      </c>
+      <c r="D315" t="s">
+        <v>811</v>
+      </c>
+      <c r="E315" t="s">
+        <v>812</v>
+      </c>
+      <c r="F315" t="s">
+        <v>813</v>
+      </c>
+      <c r="G315">
+        <v>0</v>
+      </c>
+      <c r="H315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8">
+      <c r="A316">
+        <v>315</v>
+      </c>
+      <c r="B316">
+        <v>1</v>
+      </c>
+      <c r="C316">
+        <v>2</v>
+      </c>
+      <c r="D316" t="s">
+        <v>814</v>
+      </c>
+      <c r="E316" t="s">
+        <v>813</v>
+      </c>
+      <c r="F316" t="s">
+        <v>815</v>
+      </c>
+      <c r="G316">
+        <v>0</v>
+      </c>
+      <c r="H316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
+      <c r="A317">
+        <v>316</v>
+      </c>
+      <c r="B317">
+        <v>1</v>
+      </c>
+      <c r="C317">
+        <v>2</v>
+      </c>
+      <c r="D317" t="s">
+        <v>635</v>
+      </c>
+      <c r="E317" t="s">
+        <v>815</v>
+      </c>
+      <c r="F317" t="s">
+        <v>816</v>
+      </c>
+      <c r="G317">
+        <v>0</v>
+      </c>
+      <c r="H317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
+      <c r="A318">
+        <v>317</v>
+      </c>
+      <c r="B318">
+        <v>1</v>
+      </c>
+      <c r="C318">
+        <v>2</v>
+      </c>
+      <c r="D318" t="s">
+        <v>230</v>
+      </c>
+      <c r="E318" t="s">
+        <v>817</v>
+      </c>
+      <c r="F318" t="s">
+        <v>818</v>
+      </c>
+      <c r="G318">
+        <v>0</v>
+      </c>
+      <c r="H318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8">
+      <c r="A319">
+        <v>318</v>
+      </c>
+      <c r="B319">
+        <v>1</v>
+      </c>
+      <c r="C319">
+        <v>2</v>
+      </c>
+      <c r="D319" t="s">
+        <v>819</v>
+      </c>
+      <c r="E319" t="s">
+        <v>820</v>
+      </c>
+      <c r="F319" t="s">
+        <v>821</v>
+      </c>
+      <c r="G319">
+        <v>0</v>
+      </c>
+      <c r="H319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8">
+      <c r="A320">
+        <v>319</v>
+      </c>
+      <c r="B320">
+        <v>1</v>
+      </c>
+      <c r="C320">
+        <v>2</v>
+      </c>
+      <c r="D320" t="s">
+        <v>822</v>
+      </c>
+      <c r="E320" t="s">
+        <v>823</v>
+      </c>
+      <c r="F320" t="s">
+        <v>824</v>
+      </c>
+      <c r="G320">
+        <v>0</v>
+      </c>
+      <c r="H320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
+      <c r="A321">
+        <v>320</v>
+      </c>
+      <c r="B321">
+        <v>1</v>
+      </c>
+      <c r="C321">
+        <v>2</v>
+      </c>
+      <c r="D321" t="s">
+        <v>567</v>
+      </c>
+      <c r="E321" t="s">
+        <v>824</v>
+      </c>
+      <c r="F321" t="s">
+        <v>825</v>
+      </c>
+      <c r="G321">
+        <v>0</v>
+      </c>
+      <c r="H321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8">
+      <c r="A322">
+        <v>321</v>
+      </c>
+      <c r="B322">
+        <v>1</v>
+      </c>
+      <c r="C322">
+        <v>2</v>
+      </c>
+      <c r="D322" t="s">
+        <v>567</v>
+      </c>
+      <c r="E322" t="s">
+        <v>826</v>
+      </c>
+      <c r="F322" t="s">
+        <v>827</v>
+      </c>
+      <c r="G322">
+        <v>0</v>
+      </c>
+      <c r="H322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
+      <c r="A323">
+        <v>322</v>
+      </c>
+      <c r="B323">
+        <v>1</v>
+      </c>
+      <c r="C323">
+        <v>2</v>
+      </c>
+      <c r="D323" t="s">
+        <v>762</v>
+      </c>
+      <c r="E323" t="s">
+        <v>828</v>
+      </c>
+      <c r="F323" t="s">
+        <v>829</v>
+      </c>
+      <c r="G323">
+        <v>0</v>
+      </c>
+      <c r="H323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8">
+      <c r="A324">
+        <v>323</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+      <c r="C324">
+        <v>2</v>
+      </c>
+      <c r="D324" t="s">
+        <v>830</v>
+      </c>
+      <c r="E324" t="s">
+        <v>831</v>
+      </c>
+      <c r="F324" t="s">
+        <v>832</v>
+      </c>
+      <c r="G324">
+        <v>0</v>
+      </c>
+      <c r="H324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8">
+      <c r="A325">
+        <v>324</v>
+      </c>
+      <c r="B325">
+        <v>1</v>
+      </c>
+      <c r="C325">
+        <v>2</v>
+      </c>
+      <c r="D325" t="s">
+        <v>833</v>
+      </c>
+      <c r="E325" t="s">
+        <v>834</v>
+      </c>
+      <c r="F325" t="s">
+        <v>835</v>
+      </c>
+      <c r="G325">
+        <v>0</v>
+      </c>
+      <c r="H325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
+      <c r="A326">
+        <v>325</v>
+      </c>
+      <c r="B326">
+        <v>1</v>
+      </c>
+      <c r="C326">
+        <v>2</v>
+      </c>
+      <c r="D326" t="s">
+        <v>551</v>
+      </c>
+      <c r="E326" t="s">
+        <v>836</v>
+      </c>
+      <c r="F326" t="s">
+        <v>837</v>
+      </c>
+      <c r="G326">
+        <v>0</v>
+      </c>
+      <c r="H326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
+      <c r="A327">
+        <v>326</v>
+      </c>
+      <c r="B327">
+        <v>1</v>
+      </c>
+      <c r="C327">
+        <v>2</v>
+      </c>
+      <c r="D327" t="s">
+        <v>838</v>
+      </c>
+      <c r="E327" t="s">
+        <v>839</v>
+      </c>
+      <c r="F327" t="s">
+        <v>840</v>
+      </c>
+      <c r="G327">
+        <v>0</v>
+      </c>
+      <c r="H327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8">
+      <c r="A328">
+        <v>327</v>
+      </c>
+      <c r="B328">
+        <v>1</v>
+      </c>
+      <c r="C328">
+        <v>2</v>
+      </c>
+      <c r="D328" t="s">
+        <v>335</v>
+      </c>
+      <c r="E328" t="s">
+        <v>841</v>
+      </c>
+      <c r="F328" t="s">
+        <v>842</v>
+      </c>
+      <c r="G328">
+        <v>0</v>
+      </c>
+      <c r="H328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8">
+      <c r="A329">
+        <v>328</v>
+      </c>
+      <c r="B329">
+        <v>1</v>
+      </c>
+      <c r="C329">
+        <v>2</v>
+      </c>
+      <c r="D329" t="s">
+        <v>230</v>
+      </c>
+      <c r="E329" t="s">
+        <v>842</v>
+      </c>
+      <c r="F329" t="s">
+        <v>843</v>
+      </c>
+      <c r="G329">
+        <v>0</v>
+      </c>
+      <c r="H329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
+      <c r="A330">
+        <v>329</v>
+      </c>
+      <c r="B330">
+        <v>1</v>
+      </c>
+      <c r="C330">
+        <v>2</v>
+      </c>
+      <c r="D330" t="s">
+        <v>844</v>
+      </c>
+      <c r="E330" t="s">
+        <v>843</v>
+      </c>
+      <c r="F330" t="s">
+        <v>845</v>
+      </c>
+      <c r="G330">
+        <v>0</v>
+      </c>
+      <c r="H330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
+      <c r="A331">
+        <v>330</v>
+      </c>
+      <c r="B331">
+        <v>1</v>
+      </c>
+      <c r="C331">
+        <v>2</v>
+      </c>
+      <c r="D331" t="s">
+        <v>846</v>
+      </c>
+      <c r="E331" t="s">
+        <v>845</v>
+      </c>
+      <c r="F331" t="s">
+        <v>847</v>
+      </c>
+      <c r="G331">
+        <v>0</v>
+      </c>
+      <c r="H331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
+      <c r="A332">
+        <v>331</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+      <c r="C332">
+        <v>2</v>
+      </c>
+      <c r="D332" t="s">
+        <v>848</v>
+      </c>
+      <c r="E332" t="s">
+        <v>845</v>
+      </c>
+      <c r="F332" t="s">
+        <v>849</v>
+      </c>
+      <c r="G332">
+        <v>0</v>
+      </c>
+      <c r="H332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8">
+      <c r="A333">
+        <v>332</v>
+      </c>
+      <c r="B333">
+        <v>1</v>
+      </c>
+      <c r="C333">
+        <v>2</v>
+      </c>
+      <c r="D333" t="s">
+        <v>850</v>
+      </c>
+      <c r="E333" t="s">
+        <v>851</v>
+      </c>
+      <c r="F333" t="s">
+        <v>852</v>
+      </c>
+      <c r="G333">
+        <v>0</v>
+      </c>
+      <c r="H333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8">
+      <c r="A334">
+        <v>333</v>
+      </c>
+      <c r="B334">
+        <v>1</v>
+      </c>
+      <c r="C334">
+        <v>2</v>
+      </c>
+      <c r="D334" t="s">
+        <v>853</v>
+      </c>
+      <c r="E334" t="s">
+        <v>854</v>
+      </c>
+      <c r="F334" t="s">
+        <v>855</v>
+      </c>
+      <c r="G334">
+        <v>0</v>
+      </c>
+      <c r="H334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8">
+      <c r="A335">
+        <v>334</v>
+      </c>
+      <c r="B335">
+        <v>1</v>
+      </c>
+      <c r="C335">
+        <v>2</v>
+      </c>
+      <c r="D335" t="s">
+        <v>856</v>
+      </c>
+      <c r="E335" t="s">
+        <v>857</v>
+      </c>
+      <c r="F335" t="s">
+        <v>858</v>
+      </c>
+      <c r="G335">
+        <v>0</v>
+      </c>
+      <c r="H335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8">
+      <c r="A336">
+        <v>335</v>
+      </c>
+      <c r="B336">
+        <v>1</v>
+      </c>
+      <c r="C336">
+        <v>2</v>
+      </c>
+      <c r="D336" t="s">
+        <v>859</v>
+      </c>
+      <c r="E336" t="s">
+        <v>858</v>
+      </c>
+      <c r="F336" t="s">
+        <v>860</v>
+      </c>
+      <c r="G336">
+        <v>0</v>
+      </c>
+      <c r="H336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8">
+      <c r="A337">
+        <v>336</v>
+      </c>
+      <c r="B337">
+        <v>1</v>
+      </c>
+      <c r="C337">
+        <v>2</v>
+      </c>
+      <c r="D337" t="s">
+        <v>861</v>
+      </c>
+      <c r="E337" t="s">
+        <v>860</v>
+      </c>
+      <c r="F337" t="s">
+        <v>862</v>
+      </c>
+      <c r="G337">
+        <v>0</v>
+      </c>
+      <c r="H337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8">
+      <c r="A338">
+        <v>337</v>
+      </c>
+      <c r="B338">
+        <v>1</v>
+      </c>
+      <c r="C338">
+        <v>2</v>
+      </c>
+      <c r="D338" t="s">
+        <v>863</v>
+      </c>
+      <c r="E338" t="s">
+        <v>864</v>
+      </c>
+      <c r="F338" t="s">
+        <v>865</v>
+      </c>
+      <c r="G338">
+        <v>0</v>
+      </c>
+      <c r="H338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8">
+      <c r="A339">
+        <v>338</v>
+      </c>
+      <c r="B339">
+        <v>1</v>
+      </c>
+      <c r="C339">
+        <v>2</v>
+      </c>
+      <c r="D339" t="s">
+        <v>548</v>
+      </c>
+      <c r="E339" t="s">
+        <v>866</v>
+      </c>
+      <c r="F339" t="s">
+        <v>867</v>
+      </c>
+      <c r="G339">
+        <v>0</v>
+      </c>
+      <c r="H339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8">
+      <c r="A340">
+        <v>339</v>
+      </c>
+      <c r="B340">
+        <v>1</v>
+      </c>
+      <c r="C340">
+        <v>2</v>
+      </c>
+      <c r="D340" t="s">
+        <v>868</v>
+      </c>
+      <c r="E340" t="s">
+        <v>869</v>
+      </c>
+      <c r="F340" t="s">
+        <v>870</v>
+      </c>
+      <c r="G340">
+        <v>0</v>
+      </c>
+      <c r="H340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8">
+      <c r="A341">
+        <v>340</v>
+      </c>
+      <c r="B341">
+        <v>1</v>
+      </c>
+      <c r="C341">
+        <v>2</v>
+      </c>
+      <c r="D341" t="s">
+        <v>871</v>
+      </c>
+      <c r="E341" t="s">
+        <v>872</v>
+      </c>
+      <c r="F341" t="s">
+        <v>873</v>
+      </c>
+      <c r="G341">
+        <v>0</v>
+      </c>
+      <c r="H341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8">
+      <c r="A342">
+        <v>341</v>
+      </c>
+      <c r="B342">
+        <v>1</v>
+      </c>
+      <c r="C342">
+        <v>2</v>
+      </c>
+      <c r="D342" t="s">
+        <v>874</v>
+      </c>
+      <c r="E342" t="s">
+        <v>875</v>
+      </c>
+      <c r="F342" t="s">
+        <v>876</v>
+      </c>
+      <c r="G342">
+        <v>0</v>
+      </c>
+      <c r="H342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8">
+      <c r="A343">
+        <v>342</v>
+      </c>
+      <c r="B343">
+        <v>1</v>
+      </c>
+      <c r="C343">
+        <v>2</v>
+      </c>
+      <c r="D343" t="s">
+        <v>877</v>
+      </c>
+      <c r="E343" t="s">
+        <v>876</v>
+      </c>
+      <c r="F343" t="s">
+        <v>878</v>
+      </c>
+      <c r="G343">
+        <v>0</v>
+      </c>
+      <c r="H343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8">
+      <c r="A344">
+        <v>343</v>
+      </c>
+      <c r="B344">
+        <v>1</v>
+      </c>
+      <c r="C344">
+        <v>2</v>
+      </c>
+      <c r="D344" t="s">
+        <v>879</v>
+      </c>
+      <c r="E344" t="s">
+        <v>880</v>
+      </c>
+      <c r="F344" t="s">
+        <v>881</v>
+      </c>
+      <c r="G344">
+        <v>0</v>
+      </c>
+      <c r="H344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8">
+      <c r="A345">
+        <v>344</v>
+      </c>
+      <c r="B345">
+        <v>1</v>
+      </c>
+      <c r="C345">
+        <v>2</v>
+      </c>
+      <c r="D345" t="s">
+        <v>882</v>
+      </c>
+      <c r="E345" t="s">
+        <v>883</v>
+      </c>
+      <c r="F345" t="s">
+        <v>884</v>
+      </c>
+      <c r="G345">
+        <v>0</v>
+      </c>
+      <c r="H345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8">
+      <c r="A346">
+        <v>345</v>
+      </c>
+      <c r="B346">
+        <v>1</v>
+      </c>
+      <c r="C346">
+        <v>2</v>
+      </c>
+      <c r="D346" t="s">
+        <v>885</v>
+      </c>
+      <c r="E346" t="s">
+        <v>884</v>
+      </c>
+      <c r="F346" t="s">
+        <v>886</v>
+      </c>
+      <c r="G346">
+        <v>0</v>
+      </c>
+      <c r="H346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8">
+      <c r="A347">
+        <v>346</v>
+      </c>
+      <c r="B347">
+        <v>1</v>
+      </c>
+      <c r="C347">
+        <v>2</v>
+      </c>
+      <c r="D347" t="s">
+        <v>887</v>
+      </c>
+      <c r="E347" t="s">
+        <v>888</v>
+      </c>
+      <c r="F347" t="s">
+        <v>889</v>
+      </c>
+      <c r="G347">
+        <v>0</v>
+      </c>
+      <c r="H347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8">
+      <c r="A348">
+        <v>347</v>
+      </c>
+      <c r="B348">
+        <v>1</v>
+      </c>
+      <c r="C348">
+        <v>2</v>
+      </c>
+      <c r="D348" t="s">
+        <v>224</v>
+      </c>
+      <c r="E348" t="s">
+        <v>890</v>
+      </c>
+      <c r="F348" t="s">
+        <v>891</v>
+      </c>
+      <c r="G348">
+        <v>0</v>
+      </c>
+      <c r="H348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8">
+      <c r="A349">
+        <v>348</v>
+      </c>
+      <c r="B349">
+        <v>1</v>
+      </c>
+      <c r="C349">
+        <v>2</v>
+      </c>
+      <c r="D349" t="s">
+        <v>892</v>
+      </c>
+      <c r="E349" t="s">
+        <v>891</v>
+      </c>
+      <c r="F349" t="s">
+        <v>893</v>
+      </c>
+      <c r="G349">
+        <v>0</v>
+      </c>
+      <c r="H349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8">
+      <c r="A350">
+        <v>349</v>
+      </c>
+      <c r="B350">
+        <v>1</v>
+      </c>
+      <c r="C350">
+        <v>2</v>
+      </c>
+      <c r="D350" t="s">
+        <v>894</v>
+      </c>
+      <c r="E350" t="s">
+        <v>895</v>
+      </c>
+      <c r="F350" t="s">
+        <v>896</v>
+      </c>
+      <c r="G350">
+        <v>0</v>
+      </c>
+      <c r="H350">
         <v>1</v>
       </c>
     </row>

--- a/spreadsheets/clips.xlsx
+++ b/spreadsheets/clips.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="1471">
   <si>
     <t>id</t>
   </si>
@@ -2713,6 +2713,1728 @@
   </si>
   <si>
     <t>00;02;43;05</t>
+  </si>
+  <si>
+    <t>00;02;43;08</t>
+  </si>
+  <si>
+    <t>00;02;43;18</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>00;02;43;22</t>
+  </si>
+  <si>
+    <t>00;02;43;29</t>
+  </si>
+  <si>
+    <t>sea</t>
+  </si>
+  <si>
+    <t>00;02;43;23</t>
+  </si>
+  <si>
+    <t>fifty</t>
+  </si>
+  <si>
+    <t>00;02;44;09</t>
+  </si>
+  <si>
+    <t>00;02;44;17</t>
+  </si>
+  <si>
+    <t>00;02;44;25</t>
+  </si>
+  <si>
+    <t>sixty</t>
+  </si>
+  <si>
+    <t>00;02;45;10</t>
+  </si>
+  <si>
+    <t>00;02;45;15</t>
+  </si>
+  <si>
+    <t>some</t>
+  </si>
+  <si>
+    <t>00;02;45;14</t>
+  </si>
+  <si>
+    <t>00;02;45;23</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>00;02;46;02</t>
+  </si>
+  <si>
+    <t>places</t>
+  </si>
+  <si>
+    <t>00;02;46;06</t>
+  </si>
+  <si>
+    <t>tomorrow</t>
+  </si>
+  <si>
+    <t>00;02;46;05</t>
+  </si>
+  <si>
+    <t>00;02;46;16</t>
+  </si>
+  <si>
+    <t>going</t>
+  </si>
+  <si>
+    <t>00;02;46;20</t>
+  </si>
+  <si>
+    <t>00;02;46;28</t>
+  </si>
+  <si>
+    <t>00;02;47;04</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>00;02;46;29</t>
+  </si>
+  <si>
+    <t>00;02;47;05</t>
+  </si>
+  <si>
+    <t>00;02;47;13</t>
+  </si>
+  <si>
+    <t>spectacular</t>
+  </si>
+  <si>
+    <t>00;02;48;12</t>
+  </si>
+  <si>
+    <t>spectacularly</t>
+  </si>
+  <si>
+    <t>00;02;48;15</t>
+  </si>
+  <si>
+    <t>warm</t>
+  </si>
+  <si>
+    <t>00;02;48;16</t>
+  </si>
+  <si>
+    <t>00;02;48;25</t>
+  </si>
+  <si>
+    <t>00;02;49;00</t>
+  </si>
+  <si>
+    <t>00;02;49;07</t>
+  </si>
+  <si>
+    <t>00;02;49;08</t>
+  </si>
+  <si>
+    <t>00;02;49;13</t>
+  </si>
+  <si>
+    <t>cloudy</t>
+  </si>
+  <si>
+    <t>00;02;49;26</t>
+  </si>
+  <si>
+    <t>isn't</t>
+  </si>
+  <si>
+    <t>00;02;50;04</t>
+  </si>
+  <si>
+    <t>00;02;50;13</t>
+  </si>
+  <si>
+    <t>00;02;50;12</t>
+  </si>
+  <si>
+    <t>00;02;50;19</t>
+  </si>
+  <si>
+    <t>00;02;50;20</t>
+  </si>
+  <si>
+    <t>00;02;50;25</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>00;02;50;28</t>
+  </si>
+  <si>
+    <t>00;02;51;08</t>
+  </si>
+  <si>
+    <t>sunny</t>
+  </si>
+  <si>
+    <t>00;02;51;18</t>
+  </si>
+  <si>
+    <t>00;02;51;19</t>
+  </si>
+  <si>
+    <t>00;02;51;29</t>
+  </si>
+  <si>
+    <t>heavy</t>
+  </si>
+  <si>
+    <t>00;02;52;06</t>
+  </si>
+  <si>
+    <t>00;02;52;15</t>
+  </si>
+  <si>
+    <t>snow</t>
+  </si>
+  <si>
+    <t>00;02;52;28</t>
+  </si>
+  <si>
+    <t>goodnews</t>
+  </si>
+  <si>
+    <t>00;02;53;02</t>
+  </si>
+  <si>
+    <t>00;02;53;15</t>
+  </si>
+  <si>
+    <t>00;02;53;23</t>
+  </si>
+  <si>
+    <t>00;02;53;26</t>
+  </si>
+  <si>
+    <t>00;02;54;05</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>00;02;54;13</t>
+  </si>
+  <si>
+    <t>00;02;54;24</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>00;02;54;25</t>
+  </si>
+  <si>
+    <t>00;02;55;05</t>
+  </si>
+  <si>
+    <t>00;02;55;07</t>
+  </si>
+  <si>
+    <t>00;02;55;18</t>
+  </si>
+  <si>
+    <t>00;02;55;19</t>
+  </si>
+  <si>
+    <t>00;02;55;24</t>
+  </si>
+  <si>
+    <t>00;02;56;15</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>00;02;56;21</t>
+  </si>
+  <si>
+    <t>00;02;56;28</t>
+  </si>
+  <si>
+    <t>badnews</t>
+  </si>
+  <si>
+    <t>00;02;57;07</t>
+  </si>
+  <si>
+    <t>00;02;57;09</t>
+  </si>
+  <si>
+    <t>00;02;57;19</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>00;02;57;21</t>
+  </si>
+  <si>
+    <t>00;02;57;29</t>
+  </si>
+  <si>
+    <t>greenbay</t>
+  </si>
+  <si>
+    <t>00;02;58;06</t>
+  </si>
+  <si>
+    <t>00;02;58;22</t>
+  </si>
+  <si>
+    <t>00;02;58;19</t>
+  </si>
+  <si>
+    <t>00;02;58;27</t>
+  </si>
+  <si>
+    <t>points</t>
+  </si>
+  <si>
+    <t>00;02;59;09</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>00;02;59;04</t>
+  </si>
+  <si>
+    <t>gonna</t>
+  </si>
+  <si>
+    <t>00;03;00;15</t>
+  </si>
+  <si>
+    <t>00;03;00;21</t>
+  </si>
+  <si>
+    <t>00;03;00;18</t>
+  </si>
+  <si>
+    <t>00;03;00;25</t>
+  </si>
+  <si>
+    <t>00;03;01;02</t>
+  </si>
+  <si>
+    <t>00;03;01;11</t>
+  </si>
+  <si>
+    <t>00;03;01;15</t>
+  </si>
+  <si>
+    <t>00;03;01;21</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>00;03;02;11</t>
+  </si>
+  <si>
+    <t>00;03;02;17</t>
+  </si>
+  <si>
+    <t>00;03;02;25</t>
+  </si>
+  <si>
+    <t>marquette</t>
+  </si>
+  <si>
+    <t>00;03;03;19</t>
+  </si>
+  <si>
+    <t>00;03;04;06</t>
+  </si>
+  <si>
+    <t>polar</t>
+  </si>
+  <si>
+    <t>00;03;04;08</t>
+  </si>
+  <si>
+    <t>00;03;04;23</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>00;03;04;22</t>
+  </si>
+  <si>
+    <t>00;03;05;03</t>
+  </si>
+  <si>
+    <t>arrive</t>
+  </si>
+  <si>
+    <t>00;03;05;13</t>
+  </si>
+  <si>
+    <t>00;03;05;25</t>
+  </si>
+  <si>
+    <t>00;03;05;28</t>
+  </si>
+  <si>
+    <t>00;03;06;08</t>
+  </si>
+  <si>
+    <t>00;03;06;09</t>
+  </si>
+  <si>
+    <t>00;03;06;20</t>
+  </si>
+  <si>
+    <t>afternoon</t>
+  </si>
+  <si>
+    <t>00;03;07;03</t>
+  </si>
+  <si>
+    <t>00;03;07;12</t>
+  </si>
+  <si>
+    <t>00;03;07;17</t>
+  </si>
+  <si>
+    <t>degrees</t>
+  </si>
+  <si>
+    <t>00;03;08;07</t>
+  </si>
+  <si>
+    <t>00;03;08;17</t>
+  </si>
+  <si>
+    <t>degree</t>
+  </si>
+  <si>
+    <t>00;03;08;15</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>00;03;08;24</t>
+  </si>
+  <si>
+    <t>00;03;09;15</t>
+  </si>
+  <si>
+    <t>00;03;10;01</t>
+  </si>
+  <si>
+    <t>o'hare</t>
+  </si>
+  <si>
+    <t>hair</t>
+  </si>
+  <si>
+    <t>00;03;09;18</t>
+  </si>
+  <si>
+    <t>hare</t>
+  </si>
+  <si>
+    <t>00;03;10;09</t>
+  </si>
+  <si>
+    <t>winds</t>
+  </si>
+  <si>
+    <t>00;03;10;13</t>
+  </si>
+  <si>
+    <t>00;03;10;24</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>calm</t>
+  </si>
+  <si>
+    <t>00;03;11;02</t>
+  </si>
+  <si>
+    <t>00;03;11;10</t>
+  </si>
+  <si>
+    <t>pick</t>
+  </si>
+  <si>
+    <t>00;03;11;19</t>
+  </si>
+  <si>
+    <t>00;03;11;25</t>
+  </si>
+  <si>
+    <t>south</t>
+  </si>
+  <si>
+    <t>00;03;12;14</t>
+  </si>
+  <si>
+    <t>00;03;12;24</t>
+  </si>
+  <si>
+    <t>00;03;14;02</t>
+  </si>
+  <si>
+    <t>00;03;14;10</t>
+  </si>
+  <si>
+    <t>00;03;14;23</t>
+  </si>
+  <si>
+    <t>00;03;14;27</t>
+  </si>
+  <si>
+    <t>00;03;14;26</t>
+  </si>
+  <si>
+    <t>00;03;15;06</t>
+  </si>
+  <si>
+    <t>00;03;15;12</t>
+  </si>
+  <si>
+    <t>00;03;15;17</t>
+  </si>
+  <si>
+    <t>looking</t>
+  </si>
+  <si>
+    <t>00;03;15;20</t>
+  </si>
+  <si>
+    <t>00;03;15;29</t>
+  </si>
+  <si>
+    <t>00;03;16;11</t>
+  </si>
+  <si>
+    <t>six</t>
+  </si>
+  <si>
+    <t>00;03;18;00</t>
+  </si>
+  <si>
+    <t>00;03;18;08</t>
+  </si>
+  <si>
+    <t>park</t>
+  </si>
+  <si>
+    <t>00;03;18;22</t>
+  </si>
+  <si>
+    <t>00;03;19;01</t>
+  </si>
+  <si>
+    <t>mount</t>
+  </si>
+  <si>
+    <t>00;03;20;15</t>
+  </si>
+  <si>
+    <t>00;03;20;25</t>
+  </si>
+  <si>
+    <t>prospect</t>
+  </si>
+  <si>
+    <t>00;03;20;26</t>
+  </si>
+  <si>
+    <t>00;03;21;13</t>
+  </si>
+  <si>
+    <t>00;03;21;26</t>
+  </si>
+  <si>
+    <t>00;03;22;06</t>
+  </si>
+  <si>
+    <t>00;03;22;16</t>
+  </si>
+  <si>
+    <t>gary</t>
+  </si>
+  <si>
+    <t>00;03;22;17</t>
+  </si>
+  <si>
+    <t>00;03;23;01</t>
+  </si>
+  <si>
+    <t>00;03;23;05</t>
+  </si>
+  <si>
+    <t>00;03;23;10</t>
+  </si>
+  <si>
+    <t>further</t>
+  </si>
+  <si>
+    <t>00;03;23;22</t>
+  </si>
+  <si>
+    <t>seven</t>
+  </si>
+  <si>
+    <t>00;03;27;02</t>
+  </si>
+  <si>
+    <t>00;03;27;13</t>
+  </si>
+  <si>
+    <t>00;03;27;12</t>
+  </si>
+  <si>
+    <t>00;03;27;20</t>
+  </si>
+  <si>
+    <t>00;03;28;17</t>
+  </si>
+  <si>
+    <t>00;03;28;27</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>00;03;29;08</t>
+  </si>
+  <si>
+    <t>00;03;29;18</t>
+  </si>
+  <si>
+    <t>00;03;30;10</t>
+  </si>
+  <si>
+    <t>00;03;30;22</t>
+  </si>
+  <si>
+    <t>00;03;31;03</t>
+  </si>
+  <si>
+    <t>00;03;31;10</t>
+  </si>
+  <si>
+    <t>00;03;31;21</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>00;03;31;18</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>00;03;31;23</t>
+  </si>
+  <si>
+    <t>00;03;32;04</t>
+  </si>
+  <si>
+    <t>shades</t>
+  </si>
+  <si>
+    <t>00;03;32;03</t>
+  </si>
+  <si>
+    <t>00;03;32;14</t>
+  </si>
+  <si>
+    <t>shade</t>
+  </si>
+  <si>
+    <t>00;03;32;13</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>00;03;32;16</t>
+  </si>
+  <si>
+    <t>00;03;32;28</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>00;03;33;01</t>
+  </si>
+  <si>
+    <t>00;03;33;11</t>
+  </si>
+  <si>
+    <t>00;03;33;26</t>
+  </si>
+  <si>
+    <t>00;03;34;03</t>
+  </si>
+  <si>
+    <t>international</t>
+  </si>
+  <si>
+    <t>00;03;34;07</t>
+  </si>
+  <si>
+    <t>00;03;34;23</t>
+  </si>
+  <si>
+    <t>falls</t>
+  </si>
+  <si>
+    <t>00;03;35;02</t>
+  </si>
+  <si>
+    <t>00;03;36;01</t>
+  </si>
+  <si>
+    <t>00;03;36;16</t>
+  </si>
+  <si>
+    <t>bismarck</t>
+  </si>
+  <si>
+    <t>00;03;36;27</t>
+  </si>
+  <si>
+    <t>cascade</t>
+  </si>
+  <si>
+    <t>00;03;37;11</t>
+  </si>
+  <si>
+    <t>00;03;38;01</t>
+  </si>
+  <si>
+    <t>00;03;38;08</t>
+  </si>
+  <si>
+    <t>00;03;38;22</t>
+  </si>
+  <si>
+    <t>00;03;39;08</t>
+  </si>
+  <si>
+    <t>00;03;39;21</t>
+  </si>
+  <si>
+    <t>00;03;39;26</t>
+  </si>
+  <si>
+    <t>00;03;40;07</t>
+  </si>
+  <si>
+    <t>00;03;40;21</t>
+  </si>
+  <si>
+    <t>00;03;40;29</t>
+  </si>
+  <si>
+    <t>thirty</t>
+  </si>
+  <si>
+    <t>00;03;40;27</t>
+  </si>
+  <si>
+    <t>00;03;41;06</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>00;03;42;14</t>
+  </si>
+  <si>
+    <t>00;03;42;38</t>
+  </si>
+  <si>
+    <t>00;03;43;04</t>
+  </si>
+  <si>
+    <t>00;03;43;24</t>
+  </si>
+  <si>
+    <t>00;03;43;20</t>
+  </si>
+  <si>
+    <t>00;03;43;37</t>
+  </si>
+  <si>
+    <t>00;03;43;38</t>
+  </si>
+  <si>
+    <t>00;03;43;34</t>
+  </si>
+  <si>
+    <t>00;03;43;51</t>
+  </si>
+  <si>
+    <t>00;03;43;49</t>
+  </si>
+  <si>
+    <t>00;03;44;07</t>
+  </si>
+  <si>
+    <t>pushes</t>
+  </si>
+  <si>
+    <t>00;03;44;34</t>
+  </si>
+  <si>
+    <t>push</t>
+  </si>
+  <si>
+    <t>00;03;44;06</t>
+  </si>
+  <si>
+    <t>00;03;44;23</t>
+  </si>
+  <si>
+    <t>00;03;45;00</t>
+  </si>
+  <si>
+    <t>00;03;45;22</t>
+  </si>
+  <si>
+    <t>00;03;45;20</t>
+  </si>
+  <si>
+    <t>00;03;45;41</t>
+  </si>
+  <si>
+    <t>just</t>
+  </si>
+  <si>
+    <t>00;03;45;34</t>
+  </si>
+  <si>
+    <t>00;03;45;52</t>
+  </si>
+  <si>
+    <t>00;03;45;53</t>
+  </si>
+  <si>
+    <t>00;03;46;14</t>
+  </si>
+  <si>
+    <t>00;03;46;15</t>
+  </si>
+  <si>
+    <t>00;03;46;35</t>
+  </si>
+  <si>
+    <t>00;03;46;36</t>
+  </si>
+  <si>
+    <t>00;03;47;01</t>
+  </si>
+  <si>
+    <t>so</t>
+  </si>
+  <si>
+    <t>00;03;46;58</t>
+  </si>
+  <si>
+    <t>00;03;47;13</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>00;03;48;37</t>
+  </si>
+  <si>
+    <t>00;03;49;09</t>
+  </si>
+  <si>
+    <t>mid</t>
+  </si>
+  <si>
+    <t>00;03;49;16</t>
+  </si>
+  <si>
+    <t>00;03;49;36</t>
+  </si>
+  <si>
+    <t>upper</t>
+  </si>
+  <si>
+    <t>00;03;49;38</t>
+  </si>
+  <si>
+    <t>00;03;50;00</t>
+  </si>
+  <si>
+    <t>00;03;50;33</t>
+  </si>
+  <si>
+    <t>00;03;51;07</t>
+  </si>
+  <si>
+    <t>00;03;51;08</t>
+  </si>
+  <si>
+    <t>00;03;51;22</t>
+  </si>
+  <si>
+    <t>00;03;51;31</t>
+  </si>
+  <si>
+    <t>00;03;51;45</t>
+  </si>
+  <si>
+    <t>sixties</t>
+  </si>
+  <si>
+    <t>00;03;51;44</t>
+  </si>
+  <si>
+    <t>00;03;52;08</t>
+  </si>
+  <si>
+    <t>inland</t>
+  </si>
+  <si>
+    <t>00;03;52;29</t>
+  </si>
+  <si>
+    <t>00;03;53;11</t>
+  </si>
+  <si>
+    <t>00;03;53;26</t>
+  </si>
+  <si>
+    <t>eighty</t>
+  </si>
+  <si>
+    <t>00;03;53;27</t>
+  </si>
+  <si>
+    <t>00;03;53;45</t>
+  </si>
+  <si>
+    <t>00;03;53;46</t>
+  </si>
+  <si>
+    <t>00;03;54;11</t>
+  </si>
+  <si>
+    <t>then</t>
+  </si>
+  <si>
+    <t>00;03;54;10</t>
+  </si>
+  <si>
+    <t>00;03;54;29</t>
+  </si>
+  <si>
+    <t>than</t>
+  </si>
+  <si>
+    <t>00;03;54;57</t>
+  </si>
+  <si>
+    <t>00;03;55;11</t>
+  </si>
+  <si>
+    <t>00;03;55;12</t>
+  </si>
+  <si>
+    <t>00;03;55;29</t>
+  </si>
+  <si>
+    <t>00;03;55;30</t>
+  </si>
+  <si>
+    <t>00;03;56;02</t>
+  </si>
+  <si>
+    <t>00;03;56;03</t>
+  </si>
+  <si>
+    <t>00;03;56;30</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>00;03;57;12</t>
+  </si>
+  <si>
+    <t>00;03;57;37</t>
+  </si>
+  <si>
+    <t>00;03;57;44</t>
+  </si>
+  <si>
+    <t>00;03;58;21</t>
+  </si>
+  <si>
+    <t>perhaps</t>
+  </si>
+  <si>
+    <t>00;03;58;22</t>
+  </si>
+  <si>
+    <t>00;03;59;01</t>
+  </si>
+  <si>
+    <t>lakeshore</t>
+  </si>
+  <si>
+    <t>00;04;01;04</t>
+  </si>
+  <si>
+    <t>00;04;01;38</t>
+  </si>
+  <si>
+    <t>lake</t>
+  </si>
+  <si>
+    <t>00;04;01;20</t>
+  </si>
+  <si>
+    <t>00;04;01;35</t>
+  </si>
+  <si>
+    <t>00;04;01;54</t>
+  </si>
+  <si>
+    <t>just gonna</t>
+  </si>
+  <si>
+    <t>00;04;02;08</t>
+  </si>
+  <si>
+    <t>00;04;02;29</t>
+  </si>
+  <si>
+    <t>tumble</t>
+  </si>
+  <si>
+    <t>00;04;02;30</t>
+  </si>
+  <si>
+    <t>00;04;02;57</t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>00;04;02;58</t>
+  </si>
+  <si>
+    <t>00;04;03;23</t>
+  </si>
+  <si>
+    <t>00;04;03;24</t>
+  </si>
+  <si>
+    <t>00;04;03;49</t>
+  </si>
+  <si>
+    <t>00;04;03;50</t>
+  </si>
+  <si>
+    <t>00;04;04;07</t>
+  </si>
+  <si>
+    <t>00;04;04;38</t>
+  </si>
+  <si>
+    <t>00;04;05;19</t>
+  </si>
+  <si>
+    <t>going to rebound</t>
+  </si>
+  <si>
+    <t>00;04;04;17</t>
+  </si>
+  <si>
+    <t>that much</t>
+  </si>
+  <si>
+    <t>00;04;05;16</t>
+  </si>
+  <si>
+    <t>00;04;05;59</t>
+  </si>
+  <si>
+    <t>00;04;05;35</t>
+  </si>
+  <si>
+    <t>00;04;05;57</t>
+  </si>
+  <si>
+    <t>by the</t>
+  </si>
+  <si>
+    <t>00;04;06;01</t>
+  </si>
+  <si>
+    <t>00;04;06;27</t>
+  </si>
+  <si>
+    <t>we get</t>
+  </si>
+  <si>
+    <t>00;04;06;41</t>
+  </si>
+  <si>
+    <t>00;04;06;56</t>
+  </si>
+  <si>
+    <t>00;04;07;07</t>
+  </si>
+  <si>
+    <t>00;04;07;08</t>
+  </si>
+  <si>
+    <t>00;04;07;50</t>
+  </si>
+  <si>
+    <t>00;04;08;14</t>
+  </si>
+  <si>
+    <t>there you</t>
+  </si>
+  <si>
+    <t>00;04;08;44</t>
+  </si>
+  <si>
+    <t>there you are</t>
+  </si>
+  <si>
+    <t>you looking at</t>
+  </si>
+  <si>
+    <t>00;04;08;55</t>
+  </si>
+  <si>
+    <t>00;04;09;24</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>00;04;10;22</t>
+  </si>
+  <si>
+    <t>00;04;10;39</t>
+  </si>
+  <si>
+    <t>00;04;10;40</t>
+  </si>
+  <si>
+    <t>00;04;10;59</t>
+  </si>
+  <si>
+    <t>around</t>
+  </si>
+  <si>
+    <t>00;04;11;18</t>
+  </si>
+  <si>
+    <t>00;04;11;47</t>
+  </si>
+  <si>
+    <t>around the</t>
+  </si>
+  <si>
+    <t>00;04;11;52</t>
+  </si>
+  <si>
+    <t>00;04;11;53</t>
+  </si>
+  <si>
+    <t>00;04;12;25</t>
+  </si>
+  <si>
+    <t>00;04;12;26</t>
+  </si>
+  <si>
+    <t>00;04;12;54</t>
+  </si>
+  <si>
+    <t>00;04;12;53</t>
+  </si>
+  <si>
+    <t>00;04;13;15</t>
+  </si>
+  <si>
+    <t>goes</t>
+  </si>
+  <si>
+    <t>00;04;13;45</t>
+  </si>
+  <si>
+    <t>goes your</t>
+  </si>
+  <si>
+    <t>00;04;13;55</t>
+  </si>
+  <si>
+    <t>thursday</t>
+  </si>
+  <si>
+    <t>00;04;13;56</t>
+  </si>
+  <si>
+    <t>00;04;14;39</t>
+  </si>
+  <si>
+    <t>friday</t>
+  </si>
+  <si>
+    <t>00;04;14;52</t>
+  </si>
+  <si>
+    <t>00;04;15;26</t>
+  </si>
+  <si>
+    <t>saturday</t>
+  </si>
+  <si>
+    <t>00;04;15;35</t>
+  </si>
+  <si>
+    <t>00;04;16;05</t>
+  </si>
+  <si>
+    <t>00;04;15;59</t>
+  </si>
+  <si>
+    <t>00;04;16;16</t>
+  </si>
+  <si>
+    <t>sunday</t>
+  </si>
+  <si>
+    <t>00;04;16;19</t>
+  </si>
+  <si>
+    <t>00;04;16;44</t>
+  </si>
+  <si>
+    <t>aswell</t>
+  </si>
+  <si>
+    <t>00;04;16;43</t>
+  </si>
+  <si>
+    <t>00;04;17;13</t>
+  </si>
+  <si>
+    <t>as well</t>
+  </si>
+  <si>
+    <t>00;04;17;14</t>
+  </si>
+  <si>
+    <t>00;04;17;31</t>
+  </si>
+  <si>
+    <t>00;04;17;53</t>
+  </si>
+  <si>
+    <t>00;04;18;13</t>
+  </si>
+  <si>
+    <t>00;04;18;14</t>
+  </si>
+  <si>
+    <t>00;04;18;35</t>
+  </si>
+  <si>
+    <t>shower</t>
+  </si>
+  <si>
+    <t>00;04;18;31</t>
+  </si>
+  <si>
+    <t>00;04;18;36</t>
+  </si>
+  <si>
+    <t>00;04;18;54</t>
+  </si>
+  <si>
+    <t>making their</t>
+  </si>
+  <si>
+    <t>00;04;19;00</t>
+  </si>
+  <si>
+    <t>into the area</t>
+  </si>
+  <si>
+    <t>00;04;19;05</t>
+  </si>
+  <si>
+    <t>00;04;19;39</t>
+  </si>
+  <si>
+    <t>the area</t>
+  </si>
+  <si>
+    <t>the snow</t>
+  </si>
+  <si>
+    <t>00;04;19;40</t>
+  </si>
+  <si>
+    <t>00;04;20;19</t>
+  </si>
+  <si>
+    <t>staying</t>
+  </si>
+  <si>
+    <t>00;04;20;20</t>
+  </si>
+  <si>
+    <t>00;04;20;41</t>
+  </si>
+  <si>
+    <t>but you will</t>
+  </si>
+  <si>
+    <t>00;04;21;02</t>
+  </si>
+  <si>
+    <t>00;04;21;24</t>
+  </si>
+  <si>
+    <t>notice</t>
+  </si>
+  <si>
+    <t>00;04;21;20</t>
+  </si>
+  <si>
+    <t>00;04;21;42</t>
+  </si>
+  <si>
+    <t>notices</t>
+  </si>
+  <si>
+    <t>00;04;21;50</t>
+  </si>
+  <si>
+    <t>00;04;21;52</t>
+  </si>
+  <si>
+    <t>00;04;22;18</t>
+  </si>
+  <si>
+    <t>vary</t>
+  </si>
+  <si>
+    <t>00;04;21;53</t>
+  </si>
+  <si>
+    <t>00;04;22;19</t>
+  </si>
+  <si>
+    <t>elongated</t>
+  </si>
+  <si>
+    <t>00;04;23;07</t>
+  </si>
+  <si>
+    <t>band</t>
+  </si>
+  <si>
+    <t>00;04;23;06</t>
+  </si>
+  <si>
+    <t>00;04;23;33</t>
+  </si>
+  <si>
+    <t>00;04;23;34</t>
+  </si>
+  <si>
+    <t>00;04;23;47</t>
+  </si>
+  <si>
+    <t>00;04;23;42</t>
+  </si>
+  <si>
+    <t>00;04;24;08</t>
+  </si>
+  <si>
+    <t>and we are</t>
+  </si>
+  <si>
+    <t>00;04;24;12</t>
+  </si>
+  <si>
+    <t>00;04;24;43</t>
+  </si>
+  <si>
+    <t>00;04;24;54</t>
+  </si>
+  <si>
+    <t>and were gonna</t>
+  </si>
+  <si>
+    <t>were gonna have</t>
+  </si>
+  <si>
+    <t>00;04;24;33</t>
+  </si>
+  <si>
+    <t>00;04;25;06</t>
+  </si>
+  <si>
+    <t>several</t>
+  </si>
+  <si>
+    <t>00;04;25;00</t>
+  </si>
+  <si>
+    <t>00;04;25;27</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>00;04;25;48</t>
+  </si>
+  <si>
+    <t>00;04;26;15</t>
+  </si>
+  <si>
+    <t>kind of</t>
+  </si>
+  <si>
+    <t>00;04;26;07</t>
+  </si>
+  <si>
+    <t>00;04;26;29</t>
+  </si>
+  <si>
+    <t>tagging along</t>
+  </si>
+  <si>
+    <t>00;04;27;25</t>
+  </si>
+  <si>
+    <t>tagging</t>
+  </si>
+  <si>
+    <t>00;04;26;55</t>
+  </si>
+  <si>
+    <t>along</t>
+  </si>
+  <si>
+    <t>00;04;26;53</t>
+  </si>
+  <si>
+    <t>00;04;27;22</t>
+  </si>
+  <si>
+    <t>00;04;27;23</t>
+  </si>
+  <si>
+    <t>00;04;27;46</t>
+  </si>
+  <si>
+    <t>moving</t>
+  </si>
+  <si>
+    <t>00;04;28;12</t>
+  </si>
+  <si>
+    <t>00;04;28;22</t>
+  </si>
+  <si>
+    <t>00;04;28;48</t>
+  </si>
+  <si>
+    <t>of us</t>
+  </si>
+  <si>
+    <t>00;04;29;41</t>
+  </si>
+  <si>
+    <t>00;04;30;15</t>
+  </si>
+  <si>
+    <t>were gonna</t>
+  </si>
+  <si>
+    <t>00;04;30;16</t>
+  </si>
+  <si>
+    <t>00;04;30;36</t>
+  </si>
+  <si>
+    <t>actually</t>
+  </si>
+  <si>
+    <t>00;04;30;35</t>
+  </si>
+  <si>
+    <t>00;04;30;58</t>
+  </si>
+  <si>
+    <t>00;04;30;51</t>
+  </si>
+  <si>
+    <t>00;04;31;15</t>
+  </si>
+  <si>
+    <t>in the</t>
+  </si>
+  <si>
+    <t>00;04;31;12</t>
+  </si>
+  <si>
+    <t>00;04;31;32</t>
+  </si>
+  <si>
+    <t>sector</t>
+  </si>
+  <si>
+    <t>00;04;31;45</t>
+  </si>
+  <si>
+    <t>00;04;32;15</t>
+  </si>
+  <si>
+    <t>for the</t>
+  </si>
+  <si>
+    <t>00;04;32;12</t>
+  </si>
+  <si>
+    <t>00;04;32;40</t>
+  </si>
+  <si>
+    <t>00;04;33;00</t>
+  </si>
+  <si>
+    <t>first one</t>
+  </si>
+  <si>
+    <t>00;04;33;21</t>
+  </si>
+  <si>
+    <t>by the time</t>
+  </si>
+  <si>
+    <t>00;04;33;18</t>
+  </si>
+  <si>
+    <t>00;04;34;09</t>
+  </si>
+  <si>
+    <t>00;04;33;53</t>
+  </si>
+  <si>
+    <t>truly</t>
+  </si>
+  <si>
+    <t>00;04;34;26</t>
+  </si>
+  <si>
+    <t>00;04;34;50</t>
+  </si>
+  <si>
+    <t>00;04;34;46</t>
+  </si>
+  <si>
+    <t>00;04;35;04</t>
+  </si>
+  <si>
+    <t>most of this</t>
+  </si>
+  <si>
+    <t>00;04;35;19</t>
+  </si>
+  <si>
+    <t>00;04;36;12</t>
+  </si>
+  <si>
+    <t>00;04;35;52</t>
+  </si>
+  <si>
+    <t>00;04;36;16</t>
+  </si>
+  <si>
+    <t>this will</t>
+  </si>
+  <si>
+    <t>00;04;36;25</t>
+  </si>
+  <si>
+    <t>this will be</t>
+  </si>
+  <si>
+    <t>00;04;36;34</t>
+  </si>
+  <si>
+    <t>be gone</t>
+  </si>
+  <si>
+    <t>00;04;36;24</t>
+  </si>
+  <si>
+    <t>00;04;36;55</t>
+  </si>
+  <si>
+    <t>begone</t>
+  </si>
+  <si>
+    <t>gone</t>
+  </si>
+  <si>
+    <t>00;04;36;32</t>
+  </si>
+  <si>
+    <t>anybody</t>
+  </si>
+  <si>
+    <t>00;04;36;58</t>
+  </si>
+  <si>
+    <t>00;04;37;42</t>
+  </si>
+  <si>
+    <t>that you</t>
+  </si>
+  <si>
+    <t>00;04;37;39</t>
+  </si>
+  <si>
+    <t>00;04;37;58</t>
+  </si>
+  <si>
+    <t>you know</t>
+  </si>
+  <si>
+    <t>00;04;37;49</t>
+  </si>
+  <si>
+    <t>00;04;38;09</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>00;04;37;54</t>
+  </si>
+  <si>
+    <t>00;04;38;10</t>
+  </si>
+  <si>
+    <t>skedaddle</t>
+  </si>
+  <si>
+    <t>00;04;39;35</t>
+  </si>
+  <si>
+    <t>00;04;40;10</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>00;04;40;04</t>
+  </si>
+  <si>
+    <t>00;04;40;23</t>
+  </si>
+  <si>
+    <t>00;04;40;20</t>
+  </si>
+  <si>
+    <t>00;04;40;40</t>
+  </si>
+  <si>
+    <t>look whats happening</t>
+  </si>
+  <si>
+    <t>00;04;40;37</t>
+  </si>
+  <si>
+    <t>00;04;41;29</t>
+  </si>
+  <si>
+    <t>look whats</t>
+  </si>
+  <si>
+    <t>00;04;40;34</t>
+  </si>
+  <si>
+    <t>00;04;41;01</t>
+  </si>
+  <si>
+    <t>whats</t>
+  </si>
+  <si>
+    <t>00;04;40;46</t>
+  </si>
+  <si>
+    <t>00;04;41;04</t>
+  </si>
+  <si>
+    <t>what is</t>
+  </si>
+  <si>
+    <t>00;04;40;47</t>
+  </si>
+  <si>
+    <t>00;04;41;05</t>
+  </si>
+  <si>
+    <t>whats happening</t>
+  </si>
+  <si>
+    <t>00;04;42;22</t>
+  </si>
+  <si>
+    <t>00;04;42;42</t>
+  </si>
+  <si>
+    <t>gonna start</t>
+  </si>
+  <si>
+    <t>00;04;43;42</t>
+  </si>
+  <si>
+    <t>00;04;44;16</t>
+  </si>
+  <si>
+    <t>00;04;44;42</t>
+  </si>
+  <si>
+    <t>00;04;45;04</t>
   </si>
 </sst>
 </file>
@@ -2764,8 +4486,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="83">
+  <cellStyleXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2853,7 +4583,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="83">
+  <cellStyles count="91">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2895,6 +4625,10 @@
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2936,6 +4670,10 @@
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3265,16 +5003,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H350"/>
+  <dimension ref="A1:H600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A323" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F350" sqref="F350"/>
+    <sheetView tabSelected="1" topLeftCell="A414" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D429" sqref="D429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" customWidth="1"/>
     <col min="6" max="6" width="26.1640625" customWidth="1"/>
     <col min="7" max="7" width="18.83203125" customWidth="1"/>
@@ -12378,6 +14116,6506 @@
         <v>0</v>
       </c>
       <c r="H350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8">
+      <c r="A351">
+        <v>350</v>
+      </c>
+      <c r="B351">
+        <v>1</v>
+      </c>
+      <c r="C351">
+        <v>2</v>
+      </c>
+      <c r="D351" t="s">
+        <v>281</v>
+      </c>
+      <c r="E351" t="s">
+        <v>897</v>
+      </c>
+      <c r="F351" t="s">
+        <v>898</v>
+      </c>
+      <c r="G351">
+        <v>0</v>
+      </c>
+      <c r="H351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8">
+      <c r="A352">
+        <v>351</v>
+      </c>
+      <c r="B352">
+        <v>1</v>
+      </c>
+      <c r="C352">
+        <v>2</v>
+      </c>
+      <c r="D352" t="s">
+        <v>899</v>
+      </c>
+      <c r="E352" t="s">
+        <v>900</v>
+      </c>
+      <c r="F352" t="s">
+        <v>901</v>
+      </c>
+      <c r="G352">
+        <v>0</v>
+      </c>
+      <c r="H352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8">
+      <c r="A353">
+        <v>352</v>
+      </c>
+      <c r="B353">
+        <v>1</v>
+      </c>
+      <c r="C353">
+        <v>2</v>
+      </c>
+      <c r="D353" t="s">
+        <v>902</v>
+      </c>
+      <c r="E353" t="s">
+        <v>903</v>
+      </c>
+      <c r="F353" t="s">
+        <v>901</v>
+      </c>
+      <c r="G353">
+        <v>0</v>
+      </c>
+      <c r="H353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8">
+      <c r="A354">
+        <v>353</v>
+      </c>
+      <c r="B354">
+        <v>1</v>
+      </c>
+      <c r="C354">
+        <v>2</v>
+      </c>
+      <c r="D354" t="s">
+        <v>904</v>
+      </c>
+      <c r="E354" t="s">
+        <v>901</v>
+      </c>
+      <c r="F354" t="s">
+        <v>905</v>
+      </c>
+      <c r="G354">
+        <v>0</v>
+      </c>
+      <c r="H354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8">
+      <c r="A355">
+        <v>354</v>
+      </c>
+      <c r="B355">
+        <v>1</v>
+      </c>
+      <c r="C355">
+        <v>2</v>
+      </c>
+      <c r="D355" t="s">
+        <v>307</v>
+      </c>
+      <c r="E355" t="s">
+        <v>906</v>
+      </c>
+      <c r="F355" t="s">
+        <v>907</v>
+      </c>
+      <c r="G355">
+        <v>0</v>
+      </c>
+      <c r="H355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8">
+      <c r="A356">
+        <v>355</v>
+      </c>
+      <c r="B356">
+        <v>1</v>
+      </c>
+      <c r="C356">
+        <v>2</v>
+      </c>
+      <c r="D356" t="s">
+        <v>908</v>
+      </c>
+      <c r="E356" t="s">
+        <v>907</v>
+      </c>
+      <c r="F356" t="s">
+        <v>909</v>
+      </c>
+      <c r="G356">
+        <v>0</v>
+      </c>
+      <c r="H356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8">
+      <c r="A357">
+        <v>356</v>
+      </c>
+      <c r="B357">
+        <v>1</v>
+      </c>
+      <c r="C357">
+        <v>2</v>
+      </c>
+      <c r="D357" t="s">
+        <v>300</v>
+      </c>
+      <c r="E357" t="s">
+        <v>909</v>
+      </c>
+      <c r="F357" t="s">
+        <v>910</v>
+      </c>
+      <c r="G357">
+        <v>0</v>
+      </c>
+      <c r="H357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8">
+      <c r="A358">
+        <v>357</v>
+      </c>
+      <c r="B358">
+        <v>1</v>
+      </c>
+      <c r="C358">
+        <v>2</v>
+      </c>
+      <c r="D358" t="s">
+        <v>911</v>
+      </c>
+      <c r="E358" t="s">
+        <v>912</v>
+      </c>
+      <c r="F358" t="s">
+        <v>913</v>
+      </c>
+      <c r="G358">
+        <v>0</v>
+      </c>
+      <c r="H358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8">
+      <c r="A359">
+        <v>358</v>
+      </c>
+      <c r="B359">
+        <v>1</v>
+      </c>
+      <c r="C359">
+        <v>2</v>
+      </c>
+      <c r="D359" t="s">
+        <v>914</v>
+      </c>
+      <c r="E359" t="s">
+        <v>913</v>
+      </c>
+      <c r="F359" t="s">
+        <v>915</v>
+      </c>
+      <c r="G359">
+        <v>0</v>
+      </c>
+      <c r="H359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8">
+      <c r="A360">
+        <v>359</v>
+      </c>
+      <c r="B360">
+        <v>1</v>
+      </c>
+      <c r="C360">
+        <v>2</v>
+      </c>
+      <c r="D360" t="s">
+        <v>916</v>
+      </c>
+      <c r="E360" t="s">
+        <v>913</v>
+      </c>
+      <c r="F360" t="s">
+        <v>917</v>
+      </c>
+      <c r="G360">
+        <v>0</v>
+      </c>
+      <c r="H360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8">
+      <c r="A361">
+        <v>360</v>
+      </c>
+      <c r="B361">
+        <v>1</v>
+      </c>
+      <c r="C361">
+        <v>2</v>
+      </c>
+      <c r="D361" t="s">
+        <v>918</v>
+      </c>
+      <c r="E361" t="s">
+        <v>919</v>
+      </c>
+      <c r="F361" t="s">
+        <v>920</v>
+      </c>
+      <c r="G361">
+        <v>0</v>
+      </c>
+      <c r="H361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8">
+      <c r="A362">
+        <v>361</v>
+      </c>
+      <c r="B362">
+        <v>1</v>
+      </c>
+      <c r="C362">
+        <v>2</v>
+      </c>
+      <c r="D362" t="s">
+        <v>921</v>
+      </c>
+      <c r="E362" t="s">
+        <v>922</v>
+      </c>
+      <c r="F362" t="s">
+        <v>923</v>
+      </c>
+      <c r="G362">
+        <v>0</v>
+      </c>
+      <c r="H362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8">
+      <c r="A363">
+        <v>362</v>
+      </c>
+      <c r="B363">
+        <v>1</v>
+      </c>
+      <c r="C363">
+        <v>2</v>
+      </c>
+      <c r="D363" t="s">
+        <v>557</v>
+      </c>
+      <c r="E363" t="s">
+        <v>923</v>
+      </c>
+      <c r="F363" t="s">
+        <v>924</v>
+      </c>
+      <c r="G363">
+        <v>0</v>
+      </c>
+      <c r="H363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8">
+      <c r="A364">
+        <v>363</v>
+      </c>
+      <c r="B364">
+        <v>1</v>
+      </c>
+      <c r="C364">
+        <v>2</v>
+      </c>
+      <c r="D364" t="s">
+        <v>925</v>
+      </c>
+      <c r="E364" t="s">
+        <v>926</v>
+      </c>
+      <c r="F364" t="s">
+        <v>927</v>
+      </c>
+      <c r="G364">
+        <v>0</v>
+      </c>
+      <c r="H364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8">
+      <c r="A365">
+        <v>364</v>
+      </c>
+      <c r="B365">
+        <v>1</v>
+      </c>
+      <c r="C365">
+        <v>2</v>
+      </c>
+      <c r="D365" t="s">
+        <v>335</v>
+      </c>
+      <c r="E365" t="s">
+        <v>924</v>
+      </c>
+      <c r="F365" t="s">
+        <v>928</v>
+      </c>
+      <c r="G365">
+        <v>0</v>
+      </c>
+      <c r="H365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8">
+      <c r="A366">
+        <v>365</v>
+      </c>
+      <c r="B366">
+        <v>1</v>
+      </c>
+      <c r="C366">
+        <v>2</v>
+      </c>
+      <c r="D366" t="s">
+        <v>929</v>
+      </c>
+      <c r="E366" t="s">
+        <v>928</v>
+      </c>
+      <c r="F366" t="s">
+        <v>930</v>
+      </c>
+      <c r="G366">
+        <v>0</v>
+      </c>
+      <c r="H366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8">
+      <c r="A367">
+        <v>366</v>
+      </c>
+      <c r="B367">
+        <v>1</v>
+      </c>
+      <c r="C367">
+        <v>2</v>
+      </c>
+      <c r="D367" t="s">
+        <v>931</v>
+      </c>
+      <c r="E367" t="s">
+        <v>928</v>
+      </c>
+      <c r="F367" t="s">
+        <v>932</v>
+      </c>
+      <c r="G367">
+        <v>0</v>
+      </c>
+      <c r="H367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8">
+      <c r="A368">
+        <v>367</v>
+      </c>
+      <c r="B368">
+        <v>1</v>
+      </c>
+      <c r="C368">
+        <v>2</v>
+      </c>
+      <c r="D368" t="s">
+        <v>933</v>
+      </c>
+      <c r="E368" t="s">
+        <v>934</v>
+      </c>
+      <c r="F368" t="s">
+        <v>935</v>
+      </c>
+      <c r="G368">
+        <v>0</v>
+      </c>
+      <c r="H368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8">
+      <c r="A369">
+        <v>368</v>
+      </c>
+      <c r="B369">
+        <v>1</v>
+      </c>
+      <c r="C369">
+        <v>2</v>
+      </c>
+      <c r="D369" t="s">
+        <v>332</v>
+      </c>
+      <c r="E369" t="s">
+        <v>936</v>
+      </c>
+      <c r="F369" t="s">
+        <v>937</v>
+      </c>
+      <c r="G369">
+        <v>0</v>
+      </c>
+      <c r="H369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8">
+      <c r="A370">
+        <v>369</v>
+      </c>
+      <c r="B370">
+        <v>1</v>
+      </c>
+      <c r="C370">
+        <v>2</v>
+      </c>
+      <c r="D370" t="s">
+        <v>335</v>
+      </c>
+      <c r="E370" t="s">
+        <v>938</v>
+      </c>
+      <c r="F370" t="s">
+        <v>939</v>
+      </c>
+      <c r="G370">
+        <v>0</v>
+      </c>
+      <c r="H370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8">
+      <c r="A371">
+        <v>370</v>
+      </c>
+      <c r="B371">
+        <v>1</v>
+      </c>
+      <c r="C371">
+        <v>2</v>
+      </c>
+      <c r="D371" t="s">
+        <v>940</v>
+      </c>
+      <c r="E371" t="s">
+        <v>939</v>
+      </c>
+      <c r="F371" t="s">
+        <v>941</v>
+      </c>
+      <c r="G371">
+        <v>0</v>
+      </c>
+      <c r="H371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8">
+      <c r="A372">
+        <v>371</v>
+      </c>
+      <c r="B372">
+        <v>1</v>
+      </c>
+      <c r="C372">
+        <v>2</v>
+      </c>
+      <c r="D372" t="s">
+        <v>942</v>
+      </c>
+      <c r="E372" t="s">
+        <v>943</v>
+      </c>
+      <c r="F372" t="s">
+        <v>944</v>
+      </c>
+      <c r="G372">
+        <v>0</v>
+      </c>
+      <c r="H372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8">
+      <c r="A373">
+        <v>372</v>
+      </c>
+      <c r="B373">
+        <v>1</v>
+      </c>
+      <c r="C373">
+        <v>2</v>
+      </c>
+      <c r="D373" t="s">
+        <v>921</v>
+      </c>
+      <c r="E373" t="s">
+        <v>945</v>
+      </c>
+      <c r="F373" t="s">
+        <v>946</v>
+      </c>
+      <c r="G373">
+        <v>0</v>
+      </c>
+      <c r="H373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8">
+      <c r="A374">
+        <v>373</v>
+      </c>
+      <c r="B374">
+        <v>1</v>
+      </c>
+      <c r="C374">
+        <v>2</v>
+      </c>
+      <c r="D374" t="s">
+        <v>335</v>
+      </c>
+      <c r="E374" t="s">
+        <v>947</v>
+      </c>
+      <c r="F374" t="s">
+        <v>948</v>
+      </c>
+      <c r="G374">
+        <v>0</v>
+      </c>
+      <c r="H374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8">
+      <c r="A375">
+        <v>374</v>
+      </c>
+      <c r="B375">
+        <v>1</v>
+      </c>
+      <c r="C375">
+        <v>2</v>
+      </c>
+      <c r="D375" t="s">
+        <v>949</v>
+      </c>
+      <c r="E375" t="s">
+        <v>950</v>
+      </c>
+      <c r="F375" t="s">
+        <v>951</v>
+      </c>
+      <c r="G375">
+        <v>0</v>
+      </c>
+      <c r="H375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8">
+      <c r="A376">
+        <v>375</v>
+      </c>
+      <c r="B376">
+        <v>1</v>
+      </c>
+      <c r="C376">
+        <v>2</v>
+      </c>
+      <c r="D376" t="s">
+        <v>952</v>
+      </c>
+      <c r="E376" t="s">
+        <v>951</v>
+      </c>
+      <c r="F376" t="s">
+        <v>953</v>
+      </c>
+      <c r="G376">
+        <v>0</v>
+      </c>
+      <c r="H376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8">
+      <c r="A377">
+        <v>376</v>
+      </c>
+      <c r="B377">
+        <v>1</v>
+      </c>
+      <c r="C377">
+        <v>2</v>
+      </c>
+      <c r="D377" t="s">
+        <v>328</v>
+      </c>
+      <c r="E377" t="s">
+        <v>954</v>
+      </c>
+      <c r="F377" t="s">
+        <v>955</v>
+      </c>
+      <c r="G377">
+        <v>0</v>
+      </c>
+      <c r="H377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8">
+      <c r="A378">
+        <v>377</v>
+      </c>
+      <c r="B378">
+        <v>1</v>
+      </c>
+      <c r="C378">
+        <v>2</v>
+      </c>
+      <c r="D378" t="s">
+        <v>956</v>
+      </c>
+      <c r="E378" t="s">
+        <v>957</v>
+      </c>
+      <c r="F378" t="s">
+        <v>958</v>
+      </c>
+      <c r="G378">
+        <v>0</v>
+      </c>
+      <c r="H378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8">
+      <c r="A379">
+        <v>378</v>
+      </c>
+      <c r="B379">
+        <v>1</v>
+      </c>
+      <c r="C379">
+        <v>2</v>
+      </c>
+      <c r="D379" t="s">
+        <v>959</v>
+      </c>
+      <c r="E379" t="s">
+        <v>958</v>
+      </c>
+      <c r="F379" t="s">
+        <v>960</v>
+      </c>
+      <c r="G379">
+        <v>0</v>
+      </c>
+      <c r="H379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8">
+      <c r="A380">
+        <v>379</v>
+      </c>
+      <c r="B380">
+        <v>1</v>
+      </c>
+      <c r="C380">
+        <v>2</v>
+      </c>
+      <c r="D380" t="s">
+        <v>961</v>
+      </c>
+      <c r="E380" t="s">
+        <v>962</v>
+      </c>
+      <c r="F380" t="s">
+        <v>963</v>
+      </c>
+      <c r="G380">
+        <v>0</v>
+      </c>
+      <c r="H380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8">
+      <c r="A381">
+        <v>380</v>
+      </c>
+      <c r="B381">
+        <v>1</v>
+      </c>
+      <c r="C381">
+        <v>2</v>
+      </c>
+      <c r="D381" t="s">
+        <v>114</v>
+      </c>
+      <c r="E381" t="s">
+        <v>963</v>
+      </c>
+      <c r="F381" t="s">
+        <v>964</v>
+      </c>
+      <c r="G381">
+        <v>0</v>
+      </c>
+      <c r="H381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8">
+      <c r="A382">
+        <v>381</v>
+      </c>
+      <c r="B382">
+        <v>1</v>
+      </c>
+      <c r="C382">
+        <v>2</v>
+      </c>
+      <c r="D382" t="s">
+        <v>195</v>
+      </c>
+      <c r="E382" t="s">
+        <v>965</v>
+      </c>
+      <c r="F382" t="s">
+        <v>966</v>
+      </c>
+      <c r="G382">
+        <v>0</v>
+      </c>
+      <c r="H382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8">
+      <c r="A383">
+        <v>382</v>
+      </c>
+      <c r="B383">
+        <v>1</v>
+      </c>
+      <c r="C383">
+        <v>2</v>
+      </c>
+      <c r="D383" t="s">
+        <v>967</v>
+      </c>
+      <c r="E383" t="s">
+        <v>968</v>
+      </c>
+      <c r="F383" t="s">
+        <v>969</v>
+      </c>
+      <c r="G383">
+        <v>0</v>
+      </c>
+      <c r="H383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8">
+      <c r="A384">
+        <v>383</v>
+      </c>
+      <c r="B384">
+        <v>1</v>
+      </c>
+      <c r="C384">
+        <v>2</v>
+      </c>
+      <c r="D384" t="s">
+        <v>970</v>
+      </c>
+      <c r="E384" t="s">
+        <v>971</v>
+      </c>
+      <c r="F384" t="s">
+        <v>972</v>
+      </c>
+      <c r="G384">
+        <v>0</v>
+      </c>
+      <c r="H384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8">
+      <c r="A385">
+        <v>384</v>
+      </c>
+      <c r="B385">
+        <v>1</v>
+      </c>
+      <c r="C385">
+        <v>2</v>
+      </c>
+      <c r="D385" t="s">
+        <v>819</v>
+      </c>
+      <c r="E385" t="s">
+        <v>973</v>
+      </c>
+      <c r="F385" t="s">
+        <v>974</v>
+      </c>
+      <c r="G385">
+        <v>0</v>
+      </c>
+      <c r="H385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8">
+      <c r="A386">
+        <v>385</v>
+      </c>
+      <c r="B386">
+        <v>1</v>
+      </c>
+      <c r="C386">
+        <v>2</v>
+      </c>
+      <c r="D386" t="s">
+        <v>295</v>
+      </c>
+      <c r="E386" t="s">
+        <v>975</v>
+      </c>
+      <c r="F386" t="s">
+        <v>976</v>
+      </c>
+      <c r="G386">
+        <v>0</v>
+      </c>
+      <c r="H386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8">
+      <c r="A387">
+        <v>386</v>
+      </c>
+      <c r="B387">
+        <v>1</v>
+      </c>
+      <c r="C387">
+        <v>2</v>
+      </c>
+      <c r="D387" t="s">
+        <v>548</v>
+      </c>
+      <c r="E387" t="s">
+        <v>976</v>
+      </c>
+      <c r="F387" t="s">
+        <v>977</v>
+      </c>
+      <c r="G387">
+        <v>0</v>
+      </c>
+      <c r="H387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8">
+      <c r="A388">
+        <v>387</v>
+      </c>
+      <c r="B388">
+        <v>1</v>
+      </c>
+      <c r="C388">
+        <v>2</v>
+      </c>
+      <c r="D388" t="s">
+        <v>978</v>
+      </c>
+      <c r="E388" t="s">
+        <v>979</v>
+      </c>
+      <c r="F388" t="s">
+        <v>980</v>
+      </c>
+      <c r="G388">
+        <v>0</v>
+      </c>
+      <c r="H388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8">
+      <c r="A389">
+        <v>388</v>
+      </c>
+      <c r="B389">
+        <v>1</v>
+      </c>
+      <c r="C389">
+        <v>2</v>
+      </c>
+      <c r="D389" t="s">
+        <v>981</v>
+      </c>
+      <c r="E389" t="s">
+        <v>979</v>
+      </c>
+      <c r="F389" t="s">
+        <v>982</v>
+      </c>
+      <c r="G389">
+        <v>0</v>
+      </c>
+      <c r="H389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8">
+      <c r="A390">
+        <v>389</v>
+      </c>
+      <c r="B390">
+        <v>1</v>
+      </c>
+      <c r="C390">
+        <v>2</v>
+      </c>
+      <c r="D390" t="s">
+        <v>272</v>
+      </c>
+      <c r="E390" t="s">
+        <v>983</v>
+      </c>
+      <c r="F390" t="s">
+        <v>984</v>
+      </c>
+      <c r="G390">
+        <v>0</v>
+      </c>
+      <c r="H390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8">
+      <c r="A391">
+        <v>390</v>
+      </c>
+      <c r="B391">
+        <v>1</v>
+      </c>
+      <c r="C391">
+        <v>2</v>
+      </c>
+      <c r="D391" t="s">
+        <v>985</v>
+      </c>
+      <c r="E391" t="s">
+        <v>986</v>
+      </c>
+      <c r="F391" t="s">
+        <v>987</v>
+      </c>
+      <c r="G391">
+        <v>0</v>
+      </c>
+      <c r="H391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8">
+      <c r="A392">
+        <v>391</v>
+      </c>
+      <c r="B392">
+        <v>1</v>
+      </c>
+      <c r="C392">
+        <v>2</v>
+      </c>
+      <c r="D392" t="s">
+        <v>988</v>
+      </c>
+      <c r="E392" t="s">
+        <v>989</v>
+      </c>
+      <c r="F392" t="s">
+        <v>990</v>
+      </c>
+      <c r="G392">
+        <v>0</v>
+      </c>
+      <c r="H392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8">
+      <c r="A393">
+        <v>392</v>
+      </c>
+      <c r="B393">
+        <v>1</v>
+      </c>
+      <c r="C393">
+        <v>2</v>
+      </c>
+      <c r="D393" t="s">
+        <v>760</v>
+      </c>
+      <c r="E393" t="s">
+        <v>991</v>
+      </c>
+      <c r="F393" t="s">
+        <v>992</v>
+      </c>
+      <c r="G393">
+        <v>0</v>
+      </c>
+      <c r="H393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8">
+      <c r="A394">
+        <v>393</v>
+      </c>
+      <c r="B394">
+        <v>1</v>
+      </c>
+      <c r="C394">
+        <v>2</v>
+      </c>
+      <c r="D394" t="s">
+        <v>993</v>
+      </c>
+      <c r="E394" t="s">
+        <v>992</v>
+      </c>
+      <c r="F394" t="s">
+        <v>994</v>
+      </c>
+      <c r="G394">
+        <v>0</v>
+      </c>
+      <c r="H394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8">
+      <c r="A395">
+        <v>394</v>
+      </c>
+      <c r="B395">
+        <v>1</v>
+      </c>
+      <c r="C395">
+        <v>2</v>
+      </c>
+      <c r="D395" t="s">
+        <v>995</v>
+      </c>
+      <c r="E395" t="s">
+        <v>992</v>
+      </c>
+      <c r="F395" t="s">
+        <v>996</v>
+      </c>
+      <c r="G395">
+        <v>0</v>
+      </c>
+      <c r="H395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8">
+      <c r="A396">
+        <v>395</v>
+      </c>
+      <c r="B396">
+        <v>1</v>
+      </c>
+      <c r="C396">
+        <v>2</v>
+      </c>
+      <c r="D396" t="s">
+        <v>997</v>
+      </c>
+      <c r="E396" t="s">
+        <v>998</v>
+      </c>
+      <c r="F396" t="s">
+        <v>999</v>
+      </c>
+      <c r="G396">
+        <v>0</v>
+      </c>
+      <c r="H396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8">
+      <c r="A397">
+        <v>396</v>
+      </c>
+      <c r="B397">
+        <v>1</v>
+      </c>
+      <c r="C397">
+        <v>2</v>
+      </c>
+      <c r="D397" t="s">
+        <v>749</v>
+      </c>
+      <c r="E397" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F397" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G397">
+        <v>0</v>
+      </c>
+      <c r="H397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8">
+      <c r="A398">
+        <v>397</v>
+      </c>
+      <c r="B398">
+        <v>1</v>
+      </c>
+      <c r="C398">
+        <v>2</v>
+      </c>
+      <c r="D398" t="s">
+        <v>117</v>
+      </c>
+      <c r="E398" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F398" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G398">
+        <v>0</v>
+      </c>
+      <c r="H398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8">
+      <c r="A399">
+        <v>398</v>
+      </c>
+      <c r="B399">
+        <v>1</v>
+      </c>
+      <c r="C399">
+        <v>2</v>
+      </c>
+      <c r="D399" t="s">
+        <v>233</v>
+      </c>
+      <c r="E399" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F399" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G399">
+        <v>0</v>
+      </c>
+      <c r="H399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8">
+      <c r="A400">
+        <v>399</v>
+      </c>
+      <c r="B400">
+        <v>1</v>
+      </c>
+      <c r="C400">
+        <v>2</v>
+      </c>
+      <c r="D400" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E400" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F400" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G400">
+        <v>0</v>
+      </c>
+      <c r="H400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8">
+      <c r="A401">
+        <v>400</v>
+      </c>
+      <c r="B401">
+        <v>1</v>
+      </c>
+      <c r="C401">
+        <v>2</v>
+      </c>
+      <c r="D401" t="s">
+        <v>916</v>
+      </c>
+      <c r="E401" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F401" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G401">
+        <v>0</v>
+      </c>
+      <c r="H401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8">
+      <c r="A402">
+        <v>401</v>
+      </c>
+      <c r="B402">
+        <v>1</v>
+      </c>
+      <c r="C402">
+        <v>2</v>
+      </c>
+      <c r="D402" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E402" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F402" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G402">
+        <v>0</v>
+      </c>
+      <c r="H402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8">
+      <c r="A403">
+        <v>402</v>
+      </c>
+      <c r="B403">
+        <v>1</v>
+      </c>
+      <c r="C403">
+        <v>2</v>
+      </c>
+      <c r="D403" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E403" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F403" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G403">
+        <v>0</v>
+      </c>
+      <c r="H403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8">
+      <c r="A404">
+        <v>403</v>
+      </c>
+      <c r="B404">
+        <v>1</v>
+      </c>
+      <c r="C404">
+        <v>2</v>
+      </c>
+      <c r="D404" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E404" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F404" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G404">
+        <v>0</v>
+      </c>
+      <c r="H404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8">
+      <c r="A405">
+        <v>404</v>
+      </c>
+      <c r="B405">
+        <v>1</v>
+      </c>
+      <c r="C405">
+        <v>2</v>
+      </c>
+      <c r="D405" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E405" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F405" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G405">
+        <v>0</v>
+      </c>
+      <c r="H405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8">
+      <c r="A406">
+        <v>405</v>
+      </c>
+      <c r="B406">
+        <v>1</v>
+      </c>
+      <c r="C406">
+        <v>2</v>
+      </c>
+      <c r="D406" t="s">
+        <v>195</v>
+      </c>
+      <c r="E406" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F406" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G406">
+        <v>0</v>
+      </c>
+      <c r="H406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8">
+      <c r="A407">
+        <v>406</v>
+      </c>
+      <c r="B407">
+        <v>1</v>
+      </c>
+      <c r="C407">
+        <v>2</v>
+      </c>
+      <c r="D407" t="s">
+        <v>59</v>
+      </c>
+      <c r="E407" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F407" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G407">
+        <v>0</v>
+      </c>
+      <c r="H407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8">
+      <c r="A408">
+        <v>407</v>
+      </c>
+      <c r="B408">
+        <v>1</v>
+      </c>
+      <c r="C408">
+        <v>2</v>
+      </c>
+      <c r="D408" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E408" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F408" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G408">
+        <v>0</v>
+      </c>
+      <c r="H408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8">
+      <c r="A409">
+        <v>408</v>
+      </c>
+      <c r="B409">
+        <v>1</v>
+      </c>
+      <c r="C409">
+        <v>2</v>
+      </c>
+      <c r="D409" t="s">
+        <v>468</v>
+      </c>
+      <c r="E409" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F409" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G409">
+        <v>0</v>
+      </c>
+      <c r="H409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8">
+      <c r="A410">
+        <v>409</v>
+      </c>
+      <c r="B410">
+        <v>1</v>
+      </c>
+      <c r="C410">
+        <v>2</v>
+      </c>
+      <c r="D410" t="s">
+        <v>795</v>
+      </c>
+      <c r="E410" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F410" t="s">
+        <v>285</v>
+      </c>
+      <c r="G410">
+        <v>0</v>
+      </c>
+      <c r="H410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8">
+      <c r="A411">
+        <v>410</v>
+      </c>
+      <c r="B411">
+        <v>1</v>
+      </c>
+      <c r="C411">
+        <v>2</v>
+      </c>
+      <c r="D411" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E411" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F411" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G411">
+        <v>0</v>
+      </c>
+      <c r="H411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8">
+      <c r="A412">
+        <v>411</v>
+      </c>
+      <c r="B412">
+        <v>1</v>
+      </c>
+      <c r="C412">
+        <v>2</v>
+      </c>
+      <c r="D412" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E412" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F412" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G412">
+        <v>0</v>
+      </c>
+      <c r="H412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8">
+      <c r="A413">
+        <v>412</v>
+      </c>
+      <c r="B413">
+        <v>1</v>
+      </c>
+      <c r="C413">
+        <v>2</v>
+      </c>
+      <c r="D413" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E413" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F413" t="s">
+        <v>293</v>
+      </c>
+      <c r="G413">
+        <v>0</v>
+      </c>
+      <c r="H413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8">
+      <c r="A414">
+        <v>413</v>
+      </c>
+      <c r="B414">
+        <v>1</v>
+      </c>
+      <c r="C414">
+        <v>2</v>
+      </c>
+      <c r="D414" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E414" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F414" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G414">
+        <v>0</v>
+      </c>
+      <c r="H414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8">
+      <c r="A415">
+        <v>414</v>
+      </c>
+      <c r="B415">
+        <v>1</v>
+      </c>
+      <c r="C415">
+        <v>2</v>
+      </c>
+      <c r="D415" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E415" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F415" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G415">
+        <v>0</v>
+      </c>
+      <c r="H415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8">
+      <c r="A416">
+        <v>415</v>
+      </c>
+      <c r="B416">
+        <v>1</v>
+      </c>
+      <c r="C416">
+        <v>2</v>
+      </c>
+      <c r="D416" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E416" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F416" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G416">
+        <v>0</v>
+      </c>
+      <c r="H416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8">
+      <c r="A417">
+        <v>416</v>
+      </c>
+      <c r="B417">
+        <v>1</v>
+      </c>
+      <c r="C417">
+        <v>2</v>
+      </c>
+      <c r="D417" t="s">
+        <v>760</v>
+      </c>
+      <c r="E417" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F417" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G417">
+        <v>0</v>
+      </c>
+      <c r="H417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8">
+      <c r="A418">
+        <v>417</v>
+      </c>
+      <c r="B418">
+        <v>1</v>
+      </c>
+      <c r="C418">
+        <v>2</v>
+      </c>
+      <c r="D418" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E418" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F418" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G418">
+        <v>0</v>
+      </c>
+      <c r="H418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8">
+      <c r="A419">
+        <v>418</v>
+      </c>
+      <c r="B419">
+        <v>1</v>
+      </c>
+      <c r="C419">
+        <v>2</v>
+      </c>
+      <c r="D419" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E419" t="s">
+        <v>303</v>
+      </c>
+      <c r="F419" t="s">
+        <v>304</v>
+      </c>
+      <c r="G419">
+        <v>0</v>
+      </c>
+      <c r="H419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8">
+      <c r="A420">
+        <v>419</v>
+      </c>
+      <c r="B420">
+        <v>1</v>
+      </c>
+      <c r="C420">
+        <v>2</v>
+      </c>
+      <c r="D420" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E420" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F420" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G420">
+        <v>0</v>
+      </c>
+      <c r="H420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8">
+      <c r="A421">
+        <v>420</v>
+      </c>
+      <c r="B421">
+        <v>1</v>
+      </c>
+      <c r="C421">
+        <v>2</v>
+      </c>
+      <c r="D421" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E421" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F421" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G421">
+        <v>0</v>
+      </c>
+      <c r="H421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8">
+      <c r="A422">
+        <v>421</v>
+      </c>
+      <c r="B422">
+        <v>1</v>
+      </c>
+      <c r="C422">
+        <v>2</v>
+      </c>
+      <c r="D422" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E422" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F422" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G422">
+        <v>0</v>
+      </c>
+      <c r="H422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8">
+      <c r="A423">
+        <v>422</v>
+      </c>
+      <c r="B423">
+        <v>1</v>
+      </c>
+      <c r="C423">
+        <v>2</v>
+      </c>
+      <c r="D423" t="s">
+        <v>583</v>
+      </c>
+      <c r="E423" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F423" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G423">
+        <v>0</v>
+      </c>
+      <c r="H423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8">
+      <c r="A424">
+        <v>423</v>
+      </c>
+      <c r="B424">
+        <v>1</v>
+      </c>
+      <c r="C424">
+        <v>2</v>
+      </c>
+      <c r="D424" t="s">
+        <v>696</v>
+      </c>
+      <c r="E424" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F424" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G424">
+        <v>0</v>
+      </c>
+      <c r="H424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8">
+      <c r="A425">
+        <v>424</v>
+      </c>
+      <c r="B425">
+        <v>1</v>
+      </c>
+      <c r="C425">
+        <v>2</v>
+      </c>
+      <c r="D425" t="s">
+        <v>144</v>
+      </c>
+      <c r="E425" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F425" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G425">
+        <v>0</v>
+      </c>
+      <c r="H425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8">
+      <c r="A426">
+        <v>425</v>
+      </c>
+      <c r="B426">
+        <v>1</v>
+      </c>
+      <c r="C426">
+        <v>2</v>
+      </c>
+      <c r="D426" t="s">
+        <v>208</v>
+      </c>
+      <c r="E426" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F426" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G426">
+        <v>0</v>
+      </c>
+      <c r="H426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8">
+      <c r="A427">
+        <v>426</v>
+      </c>
+      <c r="B427">
+        <v>1</v>
+      </c>
+      <c r="C427">
+        <v>2</v>
+      </c>
+      <c r="D427" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E427" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F427" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G427">
+        <v>0</v>
+      </c>
+      <c r="H427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8">
+      <c r="A428">
+        <v>427</v>
+      </c>
+      <c r="B428">
+        <v>1</v>
+      </c>
+      <c r="C428">
+        <v>2</v>
+      </c>
+      <c r="D428" t="s">
+        <v>904</v>
+      </c>
+      <c r="E428" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F428" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G428">
+        <v>0</v>
+      </c>
+      <c r="H428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8">
+      <c r="A429">
+        <v>428</v>
+      </c>
+      <c r="B429">
+        <v>1</v>
+      </c>
+      <c r="C429">
+        <v>2</v>
+      </c>
+      <c r="D429" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E429" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F429" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G429">
+        <v>0</v>
+      </c>
+      <c r="H429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8">
+      <c r="A430">
+        <v>429</v>
+      </c>
+      <c r="B430">
+        <v>1</v>
+      </c>
+      <c r="C430">
+        <v>2</v>
+      </c>
+      <c r="D430" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E430" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F430" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G430">
+        <v>0</v>
+      </c>
+      <c r="H430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8">
+      <c r="A431">
+        <v>430</v>
+      </c>
+      <c r="B431">
+        <v>1</v>
+      </c>
+      <c r="C431">
+        <v>2</v>
+      </c>
+      <c r="D431" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E431" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F431" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G431">
+        <v>0</v>
+      </c>
+      <c r="H431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8">
+      <c r="A432">
+        <v>431</v>
+      </c>
+      <c r="B432">
+        <v>1</v>
+      </c>
+      <c r="C432">
+        <v>2</v>
+      </c>
+      <c r="D432" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E432" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F432" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G432">
+        <v>0</v>
+      </c>
+      <c r="H432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8">
+      <c r="A433">
+        <v>432</v>
+      </c>
+      <c r="B433">
+        <v>1</v>
+      </c>
+      <c r="C433">
+        <v>2</v>
+      </c>
+      <c r="D433" t="s">
+        <v>904</v>
+      </c>
+      <c r="E433" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F433" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G433">
+        <v>0</v>
+      </c>
+      <c r="H433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8">
+      <c r="A434">
+        <v>433</v>
+      </c>
+      <c r="B434">
+        <v>1</v>
+      </c>
+      <c r="C434">
+        <v>2</v>
+      </c>
+      <c r="D434" t="s">
+        <v>300</v>
+      </c>
+      <c r="E434" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F434" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G434">
+        <v>0</v>
+      </c>
+      <c r="H434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8">
+      <c r="A435">
+        <v>434</v>
+      </c>
+      <c r="B435">
+        <v>1</v>
+      </c>
+      <c r="C435">
+        <v>2</v>
+      </c>
+      <c r="D435" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E435" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F435" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G435">
+        <v>0</v>
+      </c>
+      <c r="H435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8">
+      <c r="A436">
+        <v>435</v>
+      </c>
+      <c r="B436">
+        <v>1</v>
+      </c>
+      <c r="C436">
+        <v>2</v>
+      </c>
+      <c r="D436" t="s">
+        <v>850</v>
+      </c>
+      <c r="E436" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F436" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G436">
+        <v>0</v>
+      </c>
+      <c r="H436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8">
+      <c r="A437">
+        <v>436</v>
+      </c>
+      <c r="B437">
+        <v>1</v>
+      </c>
+      <c r="C437">
+        <v>2</v>
+      </c>
+      <c r="D437" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E437" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F437" t="s">
+        <v>396</v>
+      </c>
+      <c r="G437">
+        <v>0</v>
+      </c>
+      <c r="H437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8">
+      <c r="A438">
+        <v>437</v>
+      </c>
+      <c r="B438">
+        <v>1</v>
+      </c>
+      <c r="C438">
+        <v>2</v>
+      </c>
+      <c r="D438" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E438" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F438" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G438">
+        <v>0</v>
+      </c>
+      <c r="H438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8">
+      <c r="A439">
+        <v>438</v>
+      </c>
+      <c r="B439">
+        <v>1</v>
+      </c>
+      <c r="C439">
+        <v>2</v>
+      </c>
+      <c r="D439" t="s">
+        <v>300</v>
+      </c>
+      <c r="E439" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F439" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G439">
+        <v>0</v>
+      </c>
+      <c r="H439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8">
+      <c r="A440">
+        <v>439</v>
+      </c>
+      <c r="B440">
+        <v>1</v>
+      </c>
+      <c r="C440">
+        <v>2</v>
+      </c>
+      <c r="D440" t="s">
+        <v>760</v>
+      </c>
+      <c r="E440" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F440" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G440">
+        <v>0</v>
+      </c>
+      <c r="H440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8">
+      <c r="A441">
+        <v>440</v>
+      </c>
+      <c r="B441">
+        <v>1</v>
+      </c>
+      <c r="C441">
+        <v>2</v>
+      </c>
+      <c r="D441" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E441" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F441" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G441">
+        <v>0</v>
+      </c>
+      <c r="H441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8">
+      <c r="A442">
+        <v>441</v>
+      </c>
+      <c r="B442">
+        <v>1</v>
+      </c>
+      <c r="C442">
+        <v>2</v>
+      </c>
+      <c r="D442" t="s">
+        <v>263</v>
+      </c>
+      <c r="E442" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F442" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G442">
+        <v>0</v>
+      </c>
+      <c r="H442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8">
+      <c r="A443">
+        <v>442</v>
+      </c>
+      <c r="B443">
+        <v>1</v>
+      </c>
+      <c r="C443">
+        <v>2</v>
+      </c>
+      <c r="D443" t="s">
+        <v>114</v>
+      </c>
+      <c r="E443" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F443" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G443">
+        <v>0</v>
+      </c>
+      <c r="H443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8">
+      <c r="A444">
+        <v>443</v>
+      </c>
+      <c r="B444">
+        <v>1</v>
+      </c>
+      <c r="C444">
+        <v>2</v>
+      </c>
+      <c r="D444" t="s">
+        <v>67</v>
+      </c>
+      <c r="E444" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F444" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G444">
+        <v>0</v>
+      </c>
+      <c r="H444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8">
+      <c r="A445">
+        <v>444</v>
+      </c>
+      <c r="B445">
+        <v>1</v>
+      </c>
+      <c r="C445">
+        <v>2</v>
+      </c>
+      <c r="D445" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E445" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F445" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G445">
+        <v>0</v>
+      </c>
+      <c r="H445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8">
+      <c r="A446">
+        <v>445</v>
+      </c>
+      <c r="B446">
+        <v>1</v>
+      </c>
+      <c r="C446">
+        <v>2</v>
+      </c>
+      <c r="D446" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E446" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F446" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G446">
+        <v>0</v>
+      </c>
+      <c r="H446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8">
+      <c r="A447">
+        <v>446</v>
+      </c>
+      <c r="B447">
+        <v>1</v>
+      </c>
+      <c r="C447">
+        <v>2</v>
+      </c>
+      <c r="D447" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E447" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F447" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G447">
+        <v>0</v>
+      </c>
+      <c r="H447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8">
+      <c r="A448">
+        <v>447</v>
+      </c>
+      <c r="B448">
+        <v>1</v>
+      </c>
+      <c r="C448">
+        <v>2</v>
+      </c>
+      <c r="D448" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E448" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F448" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G448">
+        <v>0</v>
+      </c>
+      <c r="H448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8">
+      <c r="A449">
+        <v>448</v>
+      </c>
+      <c r="B449">
+        <v>1</v>
+      </c>
+      <c r="C449">
+        <v>2</v>
+      </c>
+      <c r="D449" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E449" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F449" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G449">
+        <v>0</v>
+      </c>
+      <c r="H449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8">
+      <c r="A450">
+        <v>449</v>
+      </c>
+      <c r="B450">
+        <v>1</v>
+      </c>
+      <c r="C450">
+        <v>2</v>
+      </c>
+      <c r="D450" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E450" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F450" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G450">
+        <v>0</v>
+      </c>
+      <c r="H450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8">
+      <c r="A451">
+        <v>450</v>
+      </c>
+      <c r="B451">
+        <v>1</v>
+      </c>
+      <c r="C451">
+        <v>2</v>
+      </c>
+      <c r="D451" t="s">
+        <v>445</v>
+      </c>
+      <c r="E451" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F451" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G451">
+        <v>0</v>
+      </c>
+      <c r="H451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8">
+      <c r="A452">
+        <v>451</v>
+      </c>
+      <c r="B452">
+        <v>1</v>
+      </c>
+      <c r="C452">
+        <v>2</v>
+      </c>
+      <c r="D452" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E452" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F452" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G452">
+        <v>0</v>
+      </c>
+      <c r="H452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8">
+      <c r="A453">
+        <v>452</v>
+      </c>
+      <c r="B453">
+        <v>1</v>
+      </c>
+      <c r="C453">
+        <v>2</v>
+      </c>
+      <c r="D453" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E453" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F453" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G453">
+        <v>0</v>
+      </c>
+      <c r="H453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8">
+      <c r="A454">
+        <v>453</v>
+      </c>
+      <c r="B454">
+        <v>1</v>
+      </c>
+      <c r="C454">
+        <v>2</v>
+      </c>
+      <c r="D454" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E454" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F454" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G454">
+        <v>0</v>
+      </c>
+      <c r="H454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8">
+      <c r="A455">
+        <v>454</v>
+      </c>
+      <c r="B455">
+        <v>1</v>
+      </c>
+      <c r="C455">
+        <v>2</v>
+      </c>
+      <c r="D455" t="s">
+        <v>475</v>
+      </c>
+      <c r="E455" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F455" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G455">
+        <v>0</v>
+      </c>
+      <c r="H455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8">
+      <c r="A456">
+        <v>455</v>
+      </c>
+      <c r="B456">
+        <v>1</v>
+      </c>
+      <c r="C456">
+        <v>2</v>
+      </c>
+      <c r="D456" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E456" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F456" t="s">
+        <v>1135</v>
+      </c>
+      <c r="G456">
+        <v>0</v>
+      </c>
+      <c r="H456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8">
+      <c r="A457">
+        <v>456</v>
+      </c>
+      <c r="B457">
+        <v>1</v>
+      </c>
+      <c r="C457">
+        <v>2</v>
+      </c>
+      <c r="D457" t="s">
+        <v>94</v>
+      </c>
+      <c r="E457" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F457" t="s">
+        <v>1137</v>
+      </c>
+      <c r="G457">
+        <v>0</v>
+      </c>
+      <c r="H457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8">
+      <c r="A458">
+        <v>457</v>
+      </c>
+      <c r="B458">
+        <v>1</v>
+      </c>
+      <c r="C458">
+        <v>2</v>
+      </c>
+      <c r="D458" t="s">
+        <v>551</v>
+      </c>
+      <c r="E458" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F458" t="s">
+        <v>1139</v>
+      </c>
+      <c r="G458">
+        <v>0</v>
+      </c>
+      <c r="H458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8">
+      <c r="A459">
+        <v>458</v>
+      </c>
+      <c r="B459">
+        <v>1</v>
+      </c>
+      <c r="C459">
+        <v>2</v>
+      </c>
+      <c r="D459" t="s">
+        <v>255</v>
+      </c>
+      <c r="E459" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F459" t="s">
+        <v>1141</v>
+      </c>
+      <c r="G459">
+        <v>0</v>
+      </c>
+      <c r="H459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8">
+      <c r="A460">
+        <v>459</v>
+      </c>
+      <c r="B460">
+        <v>1</v>
+      </c>
+      <c r="C460">
+        <v>2</v>
+      </c>
+      <c r="D460" t="s">
+        <v>22</v>
+      </c>
+      <c r="E460" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F460" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G460">
+        <v>0</v>
+      </c>
+      <c r="H460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8">
+      <c r="A461">
+        <v>460</v>
+      </c>
+      <c r="B461">
+        <v>1</v>
+      </c>
+      <c r="C461">
+        <v>2</v>
+      </c>
+      <c r="D461" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E461" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F461" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G461">
+        <v>0</v>
+      </c>
+      <c r="H461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8">
+      <c r="A462">
+        <v>461</v>
+      </c>
+      <c r="B462">
+        <v>1</v>
+      </c>
+      <c r="C462">
+        <v>2</v>
+      </c>
+      <c r="D462" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E462" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F462" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G462">
+        <v>0</v>
+      </c>
+      <c r="H462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8">
+      <c r="A463">
+        <v>462</v>
+      </c>
+      <c r="B463">
+        <v>1</v>
+      </c>
+      <c r="C463">
+        <v>2</v>
+      </c>
+      <c r="D463" t="s">
+        <v>414</v>
+      </c>
+      <c r="E463" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F463" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G463">
+        <v>0</v>
+      </c>
+      <c r="H463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8">
+      <c r="A464">
+        <v>463</v>
+      </c>
+      <c r="B464">
+        <v>1</v>
+      </c>
+      <c r="C464">
+        <v>2</v>
+      </c>
+      <c r="D464" t="s">
+        <v>179</v>
+      </c>
+      <c r="E464" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F464" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G464">
+        <v>0</v>
+      </c>
+      <c r="H464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8">
+      <c r="A465">
+        <v>464</v>
+      </c>
+      <c r="B465">
+        <v>1</v>
+      </c>
+      <c r="C465">
+        <v>2</v>
+      </c>
+      <c r="D465" t="s">
+        <v>176</v>
+      </c>
+      <c r="E465" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F465" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G465">
+        <v>0</v>
+      </c>
+      <c r="H465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8">
+      <c r="A466">
+        <v>465</v>
+      </c>
+      <c r="B466">
+        <v>1</v>
+      </c>
+      <c r="C466">
+        <v>2</v>
+      </c>
+      <c r="D466" t="s">
+        <v>688</v>
+      </c>
+      <c r="E466" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F466" t="s">
+        <v>1156</v>
+      </c>
+      <c r="G466">
+        <v>0</v>
+      </c>
+      <c r="H466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8">
+      <c r="A467">
+        <v>466</v>
+      </c>
+      <c r="B467">
+        <v>1</v>
+      </c>
+      <c r="C467">
+        <v>2</v>
+      </c>
+      <c r="D467" t="s">
+        <v>925</v>
+      </c>
+      <c r="E467" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F467" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G467">
+        <v>0</v>
+      </c>
+      <c r="H467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8">
+      <c r="A468">
+        <v>467</v>
+      </c>
+      <c r="B468">
+        <v>1</v>
+      </c>
+      <c r="C468">
+        <v>2</v>
+      </c>
+      <c r="D468" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E468" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F468" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G468">
+        <v>0</v>
+      </c>
+      <c r="H468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8">
+      <c r="A469">
+        <v>468</v>
+      </c>
+      <c r="B469">
+        <v>1</v>
+      </c>
+      <c r="C469">
+        <v>2</v>
+      </c>
+      <c r="D469" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E469" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F469" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G469">
+        <v>0</v>
+      </c>
+      <c r="H469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8">
+      <c r="A470">
+        <v>469</v>
+      </c>
+      <c r="B470">
+        <v>1</v>
+      </c>
+      <c r="C470">
+        <v>2</v>
+      </c>
+      <c r="D470" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E470" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F470" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G470">
+        <v>0</v>
+      </c>
+      <c r="H470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8">
+      <c r="A471">
+        <v>470</v>
+      </c>
+      <c r="B471">
+        <v>1</v>
+      </c>
+      <c r="C471">
+        <v>2</v>
+      </c>
+      <c r="D471" t="s">
+        <v>117</v>
+      </c>
+      <c r="E471" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F471" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G471">
+        <v>0</v>
+      </c>
+      <c r="H471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8">
+      <c r="A472">
+        <v>471</v>
+      </c>
+      <c r="B472">
+        <v>1</v>
+      </c>
+      <c r="C472">
+        <v>2</v>
+      </c>
+      <c r="D472" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E472" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F472" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G472">
+        <v>0</v>
+      </c>
+      <c r="H472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8">
+      <c r="A473">
+        <v>472</v>
+      </c>
+      <c r="B473">
+        <v>1</v>
+      </c>
+      <c r="C473">
+        <v>2</v>
+      </c>
+      <c r="D473" t="s">
+        <v>445</v>
+      </c>
+      <c r="E473" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F473" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G473">
+        <v>0</v>
+      </c>
+      <c r="H473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8">
+      <c r="A474">
+        <v>473</v>
+      </c>
+      <c r="B474">
+        <v>1</v>
+      </c>
+      <c r="C474">
+        <v>2</v>
+      </c>
+      <c r="D474" t="s">
+        <v>660</v>
+      </c>
+      <c r="E474" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F474" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G474">
+        <v>0</v>
+      </c>
+      <c r="H474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8">
+      <c r="A475">
+        <v>474</v>
+      </c>
+      <c r="B475">
+        <v>1</v>
+      </c>
+      <c r="C475">
+        <v>2</v>
+      </c>
+      <c r="D475" t="s">
+        <v>925</v>
+      </c>
+      <c r="E475" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F475" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G475">
+        <v>0</v>
+      </c>
+      <c r="H475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8">
+      <c r="A476">
+        <v>475</v>
+      </c>
+      <c r="B476">
+        <v>1</v>
+      </c>
+      <c r="C476">
+        <v>2</v>
+      </c>
+      <c r="D476" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E476" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F476" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G476">
+        <v>0</v>
+      </c>
+      <c r="H476">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8">
+      <c r="A477">
+        <v>476</v>
+      </c>
+      <c r="B477">
+        <v>1</v>
+      </c>
+      <c r="C477">
+        <v>2</v>
+      </c>
+      <c r="D477" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E477" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F477" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G477">
+        <v>0</v>
+      </c>
+      <c r="H477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8">
+      <c r="A478">
+        <v>477</v>
+      </c>
+      <c r="B478">
+        <v>1</v>
+      </c>
+      <c r="C478">
+        <v>2</v>
+      </c>
+      <c r="D478" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E478" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F478" t="s">
+        <v>1185</v>
+      </c>
+      <c r="G478">
+        <v>0</v>
+      </c>
+      <c r="H478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8">
+      <c r="A479">
+        <v>478</v>
+      </c>
+      <c r="B479">
+        <v>1</v>
+      </c>
+      <c r="C479">
+        <v>2</v>
+      </c>
+      <c r="D479" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E479" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F479" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G479">
+        <v>0</v>
+      </c>
+      <c r="H479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8">
+      <c r="A480">
+        <v>479</v>
+      </c>
+      <c r="B480">
+        <v>1</v>
+      </c>
+      <c r="C480">
+        <v>2</v>
+      </c>
+      <c r="D480" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E480" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F480" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G480">
+        <v>0</v>
+      </c>
+      <c r="H480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8">
+      <c r="A481">
+        <v>480</v>
+      </c>
+      <c r="B481">
+        <v>1</v>
+      </c>
+      <c r="C481">
+        <v>2</v>
+      </c>
+      <c r="D481" t="s">
+        <v>244</v>
+      </c>
+      <c r="E481" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F481" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G481">
+        <v>0</v>
+      </c>
+      <c r="H481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8">
+      <c r="A482">
+        <v>481</v>
+      </c>
+      <c r="B482">
+        <v>1</v>
+      </c>
+      <c r="C482">
+        <v>2</v>
+      </c>
+      <c r="D482" t="s">
+        <v>911</v>
+      </c>
+      <c r="E482" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F482" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G482">
+        <v>0</v>
+      </c>
+      <c r="H482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8">
+      <c r="A483">
+        <v>482</v>
+      </c>
+      <c r="B483">
+        <v>1</v>
+      </c>
+      <c r="C483">
+        <v>2</v>
+      </c>
+      <c r="D483" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E483" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F483" t="s">
+        <v>1197</v>
+      </c>
+      <c r="G483">
+        <v>0</v>
+      </c>
+      <c r="H483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8">
+      <c r="A484">
+        <v>483</v>
+      </c>
+      <c r="B484">
+        <v>1</v>
+      </c>
+      <c r="C484">
+        <v>2</v>
+      </c>
+      <c r="D484" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E484" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F484" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G484">
+        <v>0</v>
+      </c>
+      <c r="H484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8">
+      <c r="A485">
+        <v>484</v>
+      </c>
+      <c r="B485">
+        <v>1</v>
+      </c>
+      <c r="C485">
+        <v>2</v>
+      </c>
+      <c r="D485" t="s">
+        <v>244</v>
+      </c>
+      <c r="E485" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F485" t="s">
+        <v>1201</v>
+      </c>
+      <c r="G485">
+        <v>0</v>
+      </c>
+      <c r="H485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8">
+      <c r="A486">
+        <v>485</v>
+      </c>
+      <c r="B486">
+        <v>1</v>
+      </c>
+      <c r="C486">
+        <v>2</v>
+      </c>
+      <c r="D486" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E486" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F486" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G486">
+        <v>0</v>
+      </c>
+      <c r="H486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8">
+      <c r="A487">
+        <v>486</v>
+      </c>
+      <c r="B487">
+        <v>1</v>
+      </c>
+      <c r="C487">
+        <v>2</v>
+      </c>
+      <c r="D487" t="s">
+        <v>760</v>
+      </c>
+      <c r="E487" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F487" t="s">
+        <v>1206</v>
+      </c>
+      <c r="G487">
+        <v>0</v>
+      </c>
+      <c r="H487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8">
+      <c r="A488">
+        <v>487</v>
+      </c>
+      <c r="B488">
+        <v>1</v>
+      </c>
+      <c r="C488">
+        <v>2</v>
+      </c>
+      <c r="D488" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E488" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F488" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G488">
+        <v>0</v>
+      </c>
+      <c r="H488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8">
+      <c r="A489">
+        <v>488</v>
+      </c>
+      <c r="B489">
+        <v>1</v>
+      </c>
+      <c r="C489">
+        <v>2</v>
+      </c>
+      <c r="D489" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E489" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F489" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G489">
+        <v>0</v>
+      </c>
+      <c r="H489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8">
+      <c r="A490">
+        <v>489</v>
+      </c>
+      <c r="B490">
+        <v>1</v>
+      </c>
+      <c r="C490">
+        <v>2</v>
+      </c>
+      <c r="D490" t="s">
+        <v>591</v>
+      </c>
+      <c r="E490" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F490" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G490">
+        <v>0</v>
+      </c>
+      <c r="H490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8">
+      <c r="A491">
+        <v>490</v>
+      </c>
+      <c r="B491">
+        <v>1</v>
+      </c>
+      <c r="C491">
+        <v>2</v>
+      </c>
+      <c r="D491" t="s">
+        <v>173</v>
+      </c>
+      <c r="E491" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F491" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G491">
+        <v>0</v>
+      </c>
+      <c r="H491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8">
+      <c r="A492">
+        <v>491</v>
+      </c>
+      <c r="B492">
+        <v>1</v>
+      </c>
+      <c r="C492">
+        <v>2</v>
+      </c>
+      <c r="D492" t="s">
+        <v>59</v>
+      </c>
+      <c r="E492" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F492" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G492">
+        <v>0</v>
+      </c>
+      <c r="H492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8">
+      <c r="A493">
+        <v>492</v>
+      </c>
+      <c r="B493">
+        <v>1</v>
+      </c>
+      <c r="C493">
+        <v>2</v>
+      </c>
+      <c r="D493" t="s">
+        <v>567</v>
+      </c>
+      <c r="E493" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F493" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G493">
+        <v>0</v>
+      </c>
+      <c r="H493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8">
+      <c r="A494">
+        <v>493</v>
+      </c>
+      <c r="B494">
+        <v>1</v>
+      </c>
+      <c r="C494">
+        <v>2</v>
+      </c>
+      <c r="D494" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E494" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F494" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G494">
+        <v>0</v>
+      </c>
+      <c r="H494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8">
+      <c r="A495">
+        <v>494</v>
+      </c>
+      <c r="B495">
+        <v>1</v>
+      </c>
+      <c r="C495">
+        <v>2</v>
+      </c>
+      <c r="D495" t="s">
+        <v>781</v>
+      </c>
+      <c r="E495" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F495" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G495">
+        <v>0</v>
+      </c>
+      <c r="H495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8">
+      <c r="A496">
+        <v>495</v>
+      </c>
+      <c r="B496">
+        <v>1</v>
+      </c>
+      <c r="C496">
+        <v>2</v>
+      </c>
+      <c r="D496" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E496" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F496" t="s">
+        <v>1226</v>
+      </c>
+      <c r="G496">
+        <v>0</v>
+      </c>
+      <c r="H496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8">
+      <c r="A497">
+        <v>496</v>
+      </c>
+      <c r="B497">
+        <v>1</v>
+      </c>
+      <c r="C497">
+        <v>2</v>
+      </c>
+      <c r="D497" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E497" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F497" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G497">
+        <v>0</v>
+      </c>
+      <c r="H497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8">
+      <c r="A498">
+        <v>497</v>
+      </c>
+      <c r="B498">
+        <v>1</v>
+      </c>
+      <c r="C498">
+        <v>2</v>
+      </c>
+      <c r="D498" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E498" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F498" t="s">
+        <v>1231</v>
+      </c>
+      <c r="G498">
+        <v>0</v>
+      </c>
+      <c r="H498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8">
+      <c r="A499">
+        <v>498</v>
+      </c>
+      <c r="B499">
+        <v>1</v>
+      </c>
+      <c r="C499">
+        <v>2</v>
+      </c>
+      <c r="D499" t="s">
+        <v>760</v>
+      </c>
+      <c r="E499" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F499" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G499">
+        <v>0</v>
+      </c>
+      <c r="H499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8">
+      <c r="A500">
+        <v>499</v>
+      </c>
+      <c r="B500">
+        <v>1</v>
+      </c>
+      <c r="C500">
+        <v>2</v>
+      </c>
+      <c r="D500" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E500" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F500" t="s">
+        <v>1236</v>
+      </c>
+      <c r="G500">
+        <v>0</v>
+      </c>
+      <c r="H500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8">
+      <c r="A501">
+        <v>500</v>
+      </c>
+      <c r="B501">
+        <v>1</v>
+      </c>
+      <c r="C501">
+        <v>2</v>
+      </c>
+      <c r="D501" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E501" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F501" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G501">
+        <v>0</v>
+      </c>
+      <c r="H501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8">
+      <c r="A502">
+        <v>501</v>
+      </c>
+      <c r="B502">
+        <v>1</v>
+      </c>
+      <c r="C502">
+        <v>2</v>
+      </c>
+      <c r="D502" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E502" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F502" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G502">
+        <v>0</v>
+      </c>
+      <c r="H502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8">
+      <c r="A503">
+        <v>502</v>
+      </c>
+      <c r="B503">
+        <v>1</v>
+      </c>
+      <c r="C503">
+        <v>2</v>
+      </c>
+      <c r="D503" t="s">
+        <v>767</v>
+      </c>
+      <c r="E503" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F503" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G503">
+        <v>0</v>
+      </c>
+      <c r="H503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8">
+      <c r="A504">
+        <v>503</v>
+      </c>
+      <c r="B504">
+        <v>1</v>
+      </c>
+      <c r="C504">
+        <v>2</v>
+      </c>
+      <c r="D504" t="s">
+        <v>423</v>
+      </c>
+      <c r="E504" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F504" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G504">
+        <v>0</v>
+      </c>
+      <c r="H504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8">
+      <c r="A505">
+        <v>504</v>
+      </c>
+      <c r="B505">
+        <v>1</v>
+      </c>
+      <c r="C505">
+        <v>2</v>
+      </c>
+      <c r="D505" t="s">
+        <v>800</v>
+      </c>
+      <c r="E505" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F505" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G505">
+        <v>0</v>
+      </c>
+      <c r="H505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8">
+      <c r="A506">
+        <v>505</v>
+      </c>
+      <c r="B506">
+        <v>1</v>
+      </c>
+      <c r="C506">
+        <v>2</v>
+      </c>
+      <c r="D506" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E506" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F506" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G506">
+        <v>0</v>
+      </c>
+      <c r="H506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8">
+      <c r="A507">
+        <v>506</v>
+      </c>
+      <c r="B507">
+        <v>1</v>
+      </c>
+      <c r="C507">
+        <v>2</v>
+      </c>
+      <c r="D507" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E507" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F507" t="s">
+        <v>1253</v>
+      </c>
+      <c r="G507">
+        <v>0</v>
+      </c>
+      <c r="H507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8">
+      <c r="A508">
+        <v>507</v>
+      </c>
+      <c r="B508">
+        <v>1</v>
+      </c>
+      <c r="C508">
+        <v>2</v>
+      </c>
+      <c r="D508" t="s">
+        <v>233</v>
+      </c>
+      <c r="E508" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F508" t="s">
+        <v>1255</v>
+      </c>
+      <c r="G508">
+        <v>0</v>
+      </c>
+      <c r="H508">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8">
+      <c r="A509">
+        <v>508</v>
+      </c>
+      <c r="B509">
+        <v>1</v>
+      </c>
+      <c r="C509">
+        <v>2</v>
+      </c>
+      <c r="D509" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E509" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F509" t="s">
+        <v>1258</v>
+      </c>
+      <c r="G509">
+        <v>0</v>
+      </c>
+      <c r="H509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8">
+      <c r="A510">
+        <v>509</v>
+      </c>
+      <c r="B510">
+        <v>1</v>
+      </c>
+      <c r="C510">
+        <v>2</v>
+      </c>
+      <c r="D510" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E510" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F510" t="s">
+        <v>476</v>
+      </c>
+      <c r="G510">
+        <v>0</v>
+      </c>
+      <c r="H510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8">
+      <c r="A511">
+        <v>510</v>
+      </c>
+      <c r="B511">
+        <v>1</v>
+      </c>
+      <c r="C511">
+        <v>2</v>
+      </c>
+      <c r="D511" t="s">
+        <v>300</v>
+      </c>
+      <c r="E511" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F511" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G511">
+        <v>0</v>
+      </c>
+      <c r="H511">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8">
+      <c r="A512">
+        <v>511</v>
+      </c>
+      <c r="B512">
+        <v>1</v>
+      </c>
+      <c r="C512">
+        <v>2</v>
+      </c>
+      <c r="D512" t="s">
+        <v>805</v>
+      </c>
+      <c r="E512" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F512" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G512">
+        <v>0</v>
+      </c>
+      <c r="H512">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8">
+      <c r="A513">
+        <v>512</v>
+      </c>
+      <c r="B513">
+        <v>1</v>
+      </c>
+      <c r="C513">
+        <v>2</v>
+      </c>
+      <c r="D513" t="s">
+        <v>179</v>
+      </c>
+      <c r="E513" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F513" t="s">
+        <v>487</v>
+      </c>
+      <c r="G513">
+        <v>0</v>
+      </c>
+      <c r="H513">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8">
+      <c r="A514">
+        <v>513</v>
+      </c>
+      <c r="B514">
+        <v>1</v>
+      </c>
+      <c r="C514">
+        <v>2</v>
+      </c>
+      <c r="D514" t="s">
+        <v>176</v>
+      </c>
+      <c r="E514" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F514" t="s">
+        <v>487</v>
+      </c>
+      <c r="G514">
+        <v>0</v>
+      </c>
+      <c r="H514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8">
+      <c r="A515">
+        <v>514</v>
+      </c>
+      <c r="B515">
+        <v>1</v>
+      </c>
+      <c r="C515">
+        <v>2</v>
+      </c>
+      <c r="D515" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E515" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F515" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G515">
+        <v>0</v>
+      </c>
+      <c r="H515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8">
+      <c r="A516">
+        <v>515</v>
+      </c>
+      <c r="B516">
+        <v>1</v>
+      </c>
+      <c r="C516">
+        <v>2</v>
+      </c>
+      <c r="D516" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E516" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F516" t="s">
+        <v>493</v>
+      </c>
+      <c r="G516">
+        <v>0</v>
+      </c>
+      <c r="H516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8">
+      <c r="A517">
+        <v>516</v>
+      </c>
+      <c r="B517">
+        <v>1</v>
+      </c>
+      <c r="C517">
+        <v>2</v>
+      </c>
+      <c r="D517" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E517" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F517" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G517">
+        <v>0</v>
+      </c>
+      <c r="H517">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8">
+      <c r="A518">
+        <v>517</v>
+      </c>
+      <c r="B518">
+        <v>1</v>
+      </c>
+      <c r="C518">
+        <v>2</v>
+      </c>
+      <c r="D518" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E518" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F518" t="s">
+        <v>1274</v>
+      </c>
+      <c r="G518">
+        <v>0</v>
+      </c>
+      <c r="H518">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8">
+      <c r="A519">
+        <v>518</v>
+      </c>
+      <c r="B519">
+        <v>1</v>
+      </c>
+      <c r="C519">
+        <v>2</v>
+      </c>
+      <c r="D519" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E519" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F519" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G519">
+        <v>0</v>
+      </c>
+      <c r="H519">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8">
+      <c r="A520">
+        <v>519</v>
+      </c>
+      <c r="B520">
+        <v>1</v>
+      </c>
+      <c r="C520">
+        <v>2</v>
+      </c>
+      <c r="D520" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E520" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F520" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G520">
+        <v>0</v>
+      </c>
+      <c r="H520">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8">
+      <c r="A521">
+        <v>520</v>
+      </c>
+      <c r="B521">
+        <v>1</v>
+      </c>
+      <c r="C521">
+        <v>2</v>
+      </c>
+      <c r="D521" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E521" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F521" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G521">
+        <v>0</v>
+      </c>
+      <c r="H521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8">
+      <c r="A522">
+        <v>521</v>
+      </c>
+      <c r="B522">
+        <v>1</v>
+      </c>
+      <c r="C522">
+        <v>2</v>
+      </c>
+      <c r="D522" t="s">
+        <v>548</v>
+      </c>
+      <c r="E522" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F522" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G522">
+        <v>0</v>
+      </c>
+      <c r="H522">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8">
+      <c r="A523">
+        <v>522</v>
+      </c>
+      <c r="B523">
+        <v>1</v>
+      </c>
+      <c r="C523">
+        <v>2</v>
+      </c>
+      <c r="D523" t="s">
+        <v>551</v>
+      </c>
+      <c r="E523" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F523" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G523">
+        <v>0</v>
+      </c>
+      <c r="H523">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8">
+      <c r="A524">
+        <v>523</v>
+      </c>
+      <c r="B524">
+        <v>1</v>
+      </c>
+      <c r="C524">
+        <v>2</v>
+      </c>
+      <c r="D524" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E524" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F524" t="s">
+        <v>1287</v>
+      </c>
+      <c r="G524">
+        <v>0</v>
+      </c>
+      <c r="H524">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8">
+      <c r="A525">
+        <v>524</v>
+      </c>
+      <c r="B525">
+        <v>1</v>
+      </c>
+      <c r="C525">
+        <v>2</v>
+      </c>
+      <c r="D525" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E525" t="s">
+        <v>520</v>
+      </c>
+      <c r="F525" t="s">
+        <v>1289</v>
+      </c>
+      <c r="G525">
+        <v>0</v>
+      </c>
+      <c r="H525">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8">
+      <c r="A526">
+        <v>525</v>
+      </c>
+      <c r="B526">
+        <v>1</v>
+      </c>
+      <c r="C526">
+        <v>2</v>
+      </c>
+      <c r="D526" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E526" t="s">
+        <v>520</v>
+      </c>
+      <c r="F526" t="s">
+        <v>1291</v>
+      </c>
+      <c r="G526">
+        <v>0</v>
+      </c>
+      <c r="H526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8">
+      <c r="A527">
+        <v>526</v>
+      </c>
+      <c r="B527">
+        <v>1</v>
+      </c>
+      <c r="C527">
+        <v>2</v>
+      </c>
+      <c r="D527" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E527" t="s">
+        <v>1293</v>
+      </c>
+      <c r="F527" t="s">
+        <v>1294</v>
+      </c>
+      <c r="G527">
+        <v>0</v>
+      </c>
+      <c r="H527">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8">
+      <c r="A528">
+        <v>527</v>
+      </c>
+      <c r="B528">
+        <v>1</v>
+      </c>
+      <c r="C528">
+        <v>2</v>
+      </c>
+      <c r="D528" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E528" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F528" t="s">
+        <v>1297</v>
+      </c>
+      <c r="G528">
+        <v>0</v>
+      </c>
+      <c r="H528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8">
+      <c r="A529">
+        <v>528</v>
+      </c>
+      <c r="B529">
+        <v>1</v>
+      </c>
+      <c r="C529">
+        <v>2</v>
+      </c>
+      <c r="D529" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E529" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F529" t="s">
+        <v>1300</v>
+      </c>
+      <c r="G529">
+        <v>0</v>
+      </c>
+      <c r="H529">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8">
+      <c r="A530">
+        <v>529</v>
+      </c>
+      <c r="B530">
+        <v>1</v>
+      </c>
+      <c r="C530">
+        <v>2</v>
+      </c>
+      <c r="D530" t="s">
+        <v>760</v>
+      </c>
+      <c r="E530" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F530" t="s">
+        <v>1302</v>
+      </c>
+      <c r="G530">
+        <v>0</v>
+      </c>
+      <c r="H530">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8">
+      <c r="A531">
+        <v>530</v>
+      </c>
+      <c r="B531">
+        <v>1</v>
+      </c>
+      <c r="C531">
+        <v>2</v>
+      </c>
+      <c r="D531" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E531" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F531" t="s">
+        <v>1305</v>
+      </c>
+      <c r="G531">
+        <v>0</v>
+      </c>
+      <c r="H531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8">
+      <c r="A532">
+        <v>531</v>
+      </c>
+      <c r="B532">
+        <v>1</v>
+      </c>
+      <c r="C532">
+        <v>2</v>
+      </c>
+      <c r="D532" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E532" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F532" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G532">
+        <v>0</v>
+      </c>
+      <c r="H532">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8">
+      <c r="A533">
+        <v>532</v>
+      </c>
+      <c r="B533">
+        <v>1</v>
+      </c>
+      <c r="C533">
+        <v>2</v>
+      </c>
+      <c r="D533" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E533" t="s">
+        <v>1305</v>
+      </c>
+      <c r="F533" t="s">
+        <v>1310</v>
+      </c>
+      <c r="G533">
+        <v>0</v>
+      </c>
+      <c r="H533">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8">
+      <c r="A534">
+        <v>533</v>
+      </c>
+      <c r="B534">
+        <v>1</v>
+      </c>
+      <c r="C534">
+        <v>2</v>
+      </c>
+      <c r="D534" t="s">
+        <v>263</v>
+      </c>
+      <c r="E534" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F534" t="s">
+        <v>1311</v>
+      </c>
+      <c r="G534">
+        <v>0</v>
+      </c>
+      <c r="H534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8">
+      <c r="A535">
+        <v>534</v>
+      </c>
+      <c r="B535">
+        <v>1</v>
+      </c>
+      <c r="C535">
+        <v>2</v>
+      </c>
+      <c r="D535" t="s">
+        <v>846</v>
+      </c>
+      <c r="E535" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F535" t="s">
+        <v>1313</v>
+      </c>
+      <c r="G535">
+        <v>0</v>
+      </c>
+      <c r="H535">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8">
+      <c r="A536">
+        <v>535</v>
+      </c>
+      <c r="B536">
+        <v>1</v>
+      </c>
+      <c r="C536">
+        <v>2</v>
+      </c>
+      <c r="D536" t="s">
+        <v>814</v>
+      </c>
+      <c r="E536" t="s">
+        <v>1314</v>
+      </c>
+      <c r="F536" t="s">
+        <v>1315</v>
+      </c>
+      <c r="G536">
+        <v>0</v>
+      </c>
+      <c r="H536">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8">
+      <c r="A537">
+        <v>536</v>
+      </c>
+      <c r="B537">
+        <v>1</v>
+      </c>
+      <c r="C537">
+        <v>2</v>
+      </c>
+      <c r="D537" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E537" t="s">
+        <v>1314</v>
+      </c>
+      <c r="F537" t="s">
+        <v>1317</v>
+      </c>
+      <c r="G537">
+        <v>0</v>
+      </c>
+      <c r="H537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8">
+      <c r="A538">
+        <v>537</v>
+      </c>
+      <c r="B538">
+        <v>1</v>
+      </c>
+      <c r="C538">
+        <v>2</v>
+      </c>
+      <c r="D538" t="s">
+        <v>138</v>
+      </c>
+      <c r="E538" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F538" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G538">
+        <v>0</v>
+      </c>
+      <c r="H538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8">
+      <c r="A539">
+        <v>538</v>
+      </c>
+      <c r="B539">
+        <v>1</v>
+      </c>
+      <c r="C539">
+        <v>2</v>
+      </c>
+      <c r="D539" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E539" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F539" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G539">
+        <v>0</v>
+      </c>
+      <c r="H539">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8">
+      <c r="A540">
+        <v>539</v>
+      </c>
+      <c r="B540">
+        <v>1</v>
+      </c>
+      <c r="C540">
+        <v>2</v>
+      </c>
+      <c r="D540" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E540" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F540" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G540">
+        <v>0</v>
+      </c>
+      <c r="H540">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8">
+      <c r="A541">
+        <v>540</v>
+      </c>
+      <c r="B541">
+        <v>1</v>
+      </c>
+      <c r="C541">
+        <v>2</v>
+      </c>
+      <c r="D541" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E541" t="s">
+        <v>563</v>
+      </c>
+      <c r="F541" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G541">
+        <v>0</v>
+      </c>
+      <c r="H541">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8">
+      <c r="A542">
+        <v>541</v>
+      </c>
+      <c r="B542">
+        <v>1</v>
+      </c>
+      <c r="C542">
+        <v>2</v>
+      </c>
+      <c r="D542" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E542" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F542" t="s">
+        <v>1328</v>
+      </c>
+      <c r="G542">
+        <v>0</v>
+      </c>
+      <c r="H542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8">
+      <c r="A543">
+        <v>542</v>
+      </c>
+      <c r="B543">
+        <v>1</v>
+      </c>
+      <c r="C543">
+        <v>2</v>
+      </c>
+      <c r="D543" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E543" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F543" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G543">
+        <v>0</v>
+      </c>
+      <c r="H543">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8">
+      <c r="A544">
+        <v>543</v>
+      </c>
+      <c r="B544">
+        <v>1</v>
+      </c>
+      <c r="C544">
+        <v>2</v>
+      </c>
+      <c r="D544" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E544" t="s">
+        <v>1333</v>
+      </c>
+      <c r="F544" t="s">
+        <v>1334</v>
+      </c>
+      <c r="G544">
+        <v>0</v>
+      </c>
+      <c r="H544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8">
+      <c r="A545">
+        <v>544</v>
+      </c>
+      <c r="B545">
+        <v>1</v>
+      </c>
+      <c r="C545">
+        <v>2</v>
+      </c>
+      <c r="D545" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E545" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F545" t="s">
+        <v>1337</v>
+      </c>
+      <c r="G545">
+        <v>0</v>
+      </c>
+      <c r="H545">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8">
+      <c r="A546">
+        <v>545</v>
+      </c>
+      <c r="B546">
+        <v>1</v>
+      </c>
+      <c r="C546">
+        <v>2</v>
+      </c>
+      <c r="D546" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E546" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F546" t="s">
+        <v>1339</v>
+      </c>
+      <c r="G546">
+        <v>0</v>
+      </c>
+      <c r="H546">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8">
+      <c r="A547">
+        <v>546</v>
+      </c>
+      <c r="B547">
+        <v>1</v>
+      </c>
+      <c r="C547">
+        <v>2</v>
+      </c>
+      <c r="D547" t="s">
+        <v>230</v>
+      </c>
+      <c r="E547" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F547" t="s">
+        <v>1341</v>
+      </c>
+      <c r="G547">
+        <v>0</v>
+      </c>
+      <c r="H547">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8">
+      <c r="A548">
+        <v>547</v>
+      </c>
+      <c r="B548">
+        <v>1</v>
+      </c>
+      <c r="C548">
+        <v>2</v>
+      </c>
+      <c r="D548" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E548" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F548" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G548">
+        <v>0</v>
+      </c>
+      <c r="H548">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8">
+      <c r="A549">
+        <v>548</v>
+      </c>
+      <c r="B549">
+        <v>1</v>
+      </c>
+      <c r="C549">
+        <v>2</v>
+      </c>
+      <c r="D549" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E549" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F549" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G549">
+        <v>0</v>
+      </c>
+      <c r="H549">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8">
+      <c r="A550">
+        <v>549</v>
+      </c>
+      <c r="B550">
+        <v>1</v>
+      </c>
+      <c r="C550">
+        <v>2</v>
+      </c>
+      <c r="D550" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E550" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F550" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G550">
+        <v>0</v>
+      </c>
+      <c r="H550">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8">
+      <c r="A551">
+        <v>550</v>
+      </c>
+      <c r="B551">
+        <v>1</v>
+      </c>
+      <c r="C551">
+        <v>2</v>
+      </c>
+      <c r="D551" t="s">
+        <v>295</v>
+      </c>
+      <c r="E551" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F551" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G551">
+        <v>0</v>
+      </c>
+      <c r="H551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8">
+      <c r="A552">
+        <v>551</v>
+      </c>
+      <c r="B552">
+        <v>1</v>
+      </c>
+      <c r="C552">
+        <v>2</v>
+      </c>
+      <c r="D552" t="s">
+        <v>959</v>
+      </c>
+      <c r="E552" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F552" t="s">
+        <v>1353</v>
+      </c>
+      <c r="G552">
+        <v>0</v>
+      </c>
+      <c r="H552">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8">
+      <c r="A553">
+        <v>552</v>
+      </c>
+      <c r="B553">
+        <v>1</v>
+      </c>
+      <c r="C553">
+        <v>2</v>
+      </c>
+      <c r="D553" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E553" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F553" t="s">
+        <v>1356</v>
+      </c>
+      <c r="G553">
+        <v>0</v>
+      </c>
+      <c r="H553">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8">
+      <c r="A554">
+        <v>553</v>
+      </c>
+      <c r="B554">
+        <v>1</v>
+      </c>
+      <c r="C554">
+        <v>2</v>
+      </c>
+      <c r="D554" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E554" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F554" t="s">
+        <v>1357</v>
+      </c>
+      <c r="G554">
+        <v>0</v>
+      </c>
+      <c r="H554">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8">
+      <c r="A555">
+        <v>554</v>
+      </c>
+      <c r="B555">
+        <v>1</v>
+      </c>
+      <c r="C555">
+        <v>2</v>
+      </c>
+      <c r="D555" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E555" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F555" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G555">
+        <v>0</v>
+      </c>
+      <c r="H555">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8">
+      <c r="A556">
+        <v>555</v>
+      </c>
+      <c r="B556">
+        <v>1</v>
+      </c>
+      <c r="C556">
+        <v>2</v>
+      </c>
+      <c r="D556" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E556" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F556" t="s">
+        <v>1364</v>
+      </c>
+      <c r="G556">
+        <v>0</v>
+      </c>
+      <c r="H556">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8">
+      <c r="A557">
+        <v>556</v>
+      </c>
+      <c r="B557">
+        <v>1</v>
+      </c>
+      <c r="C557">
+        <v>2</v>
+      </c>
+      <c r="D557" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E557" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F557" t="s">
+        <v>1367</v>
+      </c>
+      <c r="G557">
+        <v>0</v>
+      </c>
+      <c r="H557">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8">
+      <c r="A558">
+        <v>557</v>
+      </c>
+      <c r="B558">
+        <v>1</v>
+      </c>
+      <c r="C558">
+        <v>2</v>
+      </c>
+      <c r="D558" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E558" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F558" t="s">
+        <v>1370</v>
+      </c>
+      <c r="G558">
+        <v>0</v>
+      </c>
+      <c r="H558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8">
+      <c r="A559">
+        <v>558</v>
+      </c>
+      <c r="B559">
+        <v>1</v>
+      </c>
+      <c r="C559">
+        <v>2</v>
+      </c>
+      <c r="D559" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E559" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F559" t="s">
+        <v>1372</v>
+      </c>
+      <c r="G559">
+        <v>0</v>
+      </c>
+      <c r="H559">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8">
+      <c r="A560">
+        <v>559</v>
+      </c>
+      <c r="B560">
+        <v>1</v>
+      </c>
+      <c r="C560">
+        <v>2</v>
+      </c>
+      <c r="D560" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E560" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F560" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G560">
+        <v>0</v>
+      </c>
+      <c r="H560">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8">
+      <c r="A561">
+        <v>560</v>
+      </c>
+      <c r="B561">
+        <v>1</v>
+      </c>
+      <c r="C561">
+        <v>2</v>
+      </c>
+      <c r="D561" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E561" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F561" t="s">
+        <v>1377</v>
+      </c>
+      <c r="G561">
+        <v>0</v>
+      </c>
+      <c r="H561">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8">
+      <c r="A562">
+        <v>561</v>
+      </c>
+      <c r="B562">
+        <v>1</v>
+      </c>
+      <c r="C562">
+        <v>2</v>
+      </c>
+      <c r="D562" t="s">
+        <v>760</v>
+      </c>
+      <c r="E562" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F562" t="s">
+        <v>1379</v>
+      </c>
+      <c r="G562">
+        <v>0</v>
+      </c>
+      <c r="H562">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8">
+      <c r="A563">
+        <v>562</v>
+      </c>
+      <c r="B563">
+        <v>1</v>
+      </c>
+      <c r="C563">
+        <v>2</v>
+      </c>
+      <c r="D563" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E563" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F563" t="s">
+        <v>1381</v>
+      </c>
+      <c r="G563">
+        <v>0</v>
+      </c>
+      <c r="H563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8">
+      <c r="A564">
+        <v>563</v>
+      </c>
+      <c r="B564">
+        <v>1</v>
+      </c>
+      <c r="C564">
+        <v>2</v>
+      </c>
+      <c r="D564" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E564" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F564" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G564">
+        <v>0</v>
+      </c>
+      <c r="H564">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8">
+      <c r="A565">
+        <v>564</v>
+      </c>
+      <c r="B565">
+        <v>1</v>
+      </c>
+      <c r="C565">
+        <v>2</v>
+      </c>
+      <c r="D565" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E565" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F565" t="s">
+        <v>1386</v>
+      </c>
+      <c r="G565">
+        <v>0</v>
+      </c>
+      <c r="H565">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8">
+      <c r="A566">
+        <v>565</v>
+      </c>
+      <c r="B566">
+        <v>1</v>
+      </c>
+      <c r="C566">
+        <v>2</v>
+      </c>
+      <c r="D566" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E566" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F566" t="s">
+        <v>1389</v>
+      </c>
+      <c r="G566">
+        <v>0</v>
+      </c>
+      <c r="H566">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8">
+      <c r="A567">
+        <v>566</v>
+      </c>
+      <c r="B567">
+        <v>1</v>
+      </c>
+      <c r="C567">
+        <v>2</v>
+      </c>
+      <c r="D567" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E567" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F567" t="s">
+        <v>1392</v>
+      </c>
+      <c r="G567">
+        <v>0</v>
+      </c>
+      <c r="H567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8">
+      <c r="A568">
+        <v>567</v>
+      </c>
+      <c r="B568">
+        <v>1</v>
+      </c>
+      <c r="C568">
+        <v>2</v>
+      </c>
+      <c r="D568" t="s">
+        <v>967</v>
+      </c>
+      <c r="E568" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F568" t="s">
+        <v>1394</v>
+      </c>
+      <c r="G568">
+        <v>0</v>
+      </c>
+      <c r="H568">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8">
+      <c r="A569">
+        <v>568</v>
+      </c>
+      <c r="B569">
+        <v>1</v>
+      </c>
+      <c r="C569">
+        <v>2</v>
+      </c>
+      <c r="D569" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E569" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F569" t="s">
+        <v>1397</v>
+      </c>
+      <c r="G569">
+        <v>0</v>
+      </c>
+      <c r="H569">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8">
+      <c r="A570">
+        <v>569</v>
+      </c>
+      <c r="B570">
+        <v>1</v>
+      </c>
+      <c r="C570">
+        <v>2</v>
+      </c>
+      <c r="D570" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E570" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F570" t="s">
+        <v>1400</v>
+      </c>
+      <c r="G570">
+        <v>0</v>
+      </c>
+      <c r="H570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8">
+      <c r="A571">
+        <v>570</v>
+      </c>
+      <c r="B571">
+        <v>1</v>
+      </c>
+      <c r="C571">
+        <v>2</v>
+      </c>
+      <c r="D571" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E571" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F571" t="s">
+        <v>1403</v>
+      </c>
+      <c r="G571">
+        <v>0</v>
+      </c>
+      <c r="H571">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8">
+      <c r="A572">
+        <v>571</v>
+      </c>
+      <c r="B572">
+        <v>1</v>
+      </c>
+      <c r="C572">
+        <v>2</v>
+      </c>
+      <c r="D572" t="s">
+        <v>545</v>
+      </c>
+      <c r="E572" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F572" t="s">
+        <v>1404</v>
+      </c>
+      <c r="G572">
+        <v>0</v>
+      </c>
+      <c r="H572">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8">
+      <c r="A573">
+        <v>572</v>
+      </c>
+      <c r="B573">
+        <v>1</v>
+      </c>
+      <c r="C573">
+        <v>2</v>
+      </c>
+      <c r="D573" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E573" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F573" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G573">
+        <v>0</v>
+      </c>
+      <c r="H573">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8">
+      <c r="A574">
+        <v>573</v>
+      </c>
+      <c r="B574">
+        <v>1</v>
+      </c>
+      <c r="C574">
+        <v>2</v>
+      </c>
+      <c r="D574" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E574" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F574" t="s">
+        <v>1409</v>
+      </c>
+      <c r="G574">
+        <v>0</v>
+      </c>
+      <c r="H574">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8">
+      <c r="A575">
+        <v>574</v>
+      </c>
+      <c r="B575">
+        <v>1</v>
+      </c>
+      <c r="C575">
+        <v>2</v>
+      </c>
+      <c r="D575" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E575" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F575" t="s">
+        <v>1410</v>
+      </c>
+      <c r="G575">
+        <v>0</v>
+      </c>
+      <c r="H575">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8">
+      <c r="A576">
+        <v>575</v>
+      </c>
+      <c r="B576">
+        <v>1</v>
+      </c>
+      <c r="C576">
+        <v>2</v>
+      </c>
+      <c r="D576" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E576" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F576" t="s">
+        <v>1413</v>
+      </c>
+      <c r="G576">
+        <v>0</v>
+      </c>
+      <c r="H576">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8">
+      <c r="A577">
+        <v>576</v>
+      </c>
+      <c r="B577">
+        <v>1</v>
+      </c>
+      <c r="C577">
+        <v>2</v>
+      </c>
+      <c r="D577" t="s">
+        <v>723</v>
+      </c>
+      <c r="E577" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F577" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G577">
+        <v>0</v>
+      </c>
+      <c r="H577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8">
+      <c r="A578">
+        <v>577</v>
+      </c>
+      <c r="B578">
+        <v>1</v>
+      </c>
+      <c r="C578">
+        <v>2</v>
+      </c>
+      <c r="D578" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E578" t="s">
+        <v>1417</v>
+      </c>
+      <c r="F578" t="s">
+        <v>1418</v>
+      </c>
+      <c r="G578">
+        <v>0</v>
+      </c>
+      <c r="H578">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8">
+      <c r="A579">
+        <v>578</v>
+      </c>
+      <c r="B579">
+        <v>1</v>
+      </c>
+      <c r="C579">
+        <v>2</v>
+      </c>
+      <c r="D579" t="s">
+        <v>475</v>
+      </c>
+      <c r="E579" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F579" t="s">
+        <v>1420</v>
+      </c>
+      <c r="G579">
+        <v>0</v>
+      </c>
+      <c r="H579">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8">
+      <c r="A580">
+        <v>579</v>
+      </c>
+      <c r="B580">
+        <v>1</v>
+      </c>
+      <c r="C580">
+        <v>2</v>
+      </c>
+      <c r="D580" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E580" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F580" t="s">
+        <v>1422</v>
+      </c>
+      <c r="G580">
+        <v>0</v>
+      </c>
+      <c r="H580">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8">
+      <c r="A581">
+        <v>580</v>
+      </c>
+      <c r="B581">
+        <v>1</v>
+      </c>
+      <c r="C581">
+        <v>2</v>
+      </c>
+      <c r="D581" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E581" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F581" t="s">
+        <v>1424</v>
+      </c>
+      <c r="G581">
+        <v>0</v>
+      </c>
+      <c r="H581">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8">
+      <c r="A582">
+        <v>581</v>
+      </c>
+      <c r="B582">
+        <v>1</v>
+      </c>
+      <c r="C582">
+        <v>2</v>
+      </c>
+      <c r="D582" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E582" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F582" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G582">
+        <v>0</v>
+      </c>
+      <c r="H582">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8">
+      <c r="A583">
+        <v>582</v>
+      </c>
+      <c r="B583">
+        <v>1</v>
+      </c>
+      <c r="C583">
+        <v>2</v>
+      </c>
+      <c r="D583" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E583" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F583" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G583">
+        <v>0</v>
+      </c>
+      <c r="H583">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8">
+      <c r="A584">
+        <v>583</v>
+      </c>
+      <c r="B584">
+        <v>1</v>
+      </c>
+      <c r="C584">
+        <v>2</v>
+      </c>
+      <c r="D584" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E584" t="s">
+        <v>1430</v>
+      </c>
+      <c r="F584" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G584">
+        <v>0</v>
+      </c>
+      <c r="H584">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8">
+      <c r="A585">
+        <v>584</v>
+      </c>
+      <c r="B585">
+        <v>1</v>
+      </c>
+      <c r="C585">
+        <v>2</v>
+      </c>
+      <c r="D585" t="s">
+        <v>1431</v>
+      </c>
+      <c r="E585" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F585" t="s">
+        <v>1433</v>
+      </c>
+      <c r="G585">
+        <v>0</v>
+      </c>
+      <c r="H585">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8">
+      <c r="A586">
+        <v>585</v>
+      </c>
+      <c r="B586">
+        <v>1</v>
+      </c>
+      <c r="C586">
+        <v>2</v>
+      </c>
+      <c r="D586" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E586" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F586" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G586">
+        <v>0</v>
+      </c>
+      <c r="H586">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8">
+      <c r="A587">
+        <v>586</v>
+      </c>
+      <c r="B587">
+        <v>1</v>
+      </c>
+      <c r="C587">
+        <v>2</v>
+      </c>
+      <c r="D587" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E587" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F587" t="s">
+        <v>1439</v>
+      </c>
+      <c r="G587">
+        <v>0</v>
+      </c>
+      <c r="H587">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8">
+      <c r="A588">
+        <v>587</v>
+      </c>
+      <c r="B588">
+        <v>1</v>
+      </c>
+      <c r="C588">
+        <v>2</v>
+      </c>
+      <c r="D588" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E588" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F588" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G588">
+        <v>0</v>
+      </c>
+      <c r="H588">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8">
+      <c r="A589">
+        <v>588</v>
+      </c>
+      <c r="B589">
+        <v>1</v>
+      </c>
+      <c r="C589">
+        <v>2</v>
+      </c>
+      <c r="D589" t="s">
+        <v>1443</v>
+      </c>
+      <c r="E589" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F589" t="s">
+        <v>1445</v>
+      </c>
+      <c r="G589">
+        <v>0</v>
+      </c>
+      <c r="H589">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8">
+      <c r="A590">
+        <v>589</v>
+      </c>
+      <c r="B590">
+        <v>1</v>
+      </c>
+      <c r="C590">
+        <v>2</v>
+      </c>
+      <c r="D590" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E590" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F590" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G590">
+        <v>0</v>
+      </c>
+      <c r="H590">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8">
+      <c r="A591">
+        <v>590</v>
+      </c>
+      <c r="B591">
+        <v>1</v>
+      </c>
+      <c r="C591">
+        <v>2</v>
+      </c>
+      <c r="D591" t="s">
+        <v>709</v>
+      </c>
+      <c r="E591" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F591" t="s">
+        <v>1450</v>
+      </c>
+      <c r="G591">
+        <v>0</v>
+      </c>
+      <c r="H591">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8">
+      <c r="A592">
+        <v>591</v>
+      </c>
+      <c r="B592">
+        <v>1</v>
+      </c>
+      <c r="C592">
+        <v>2</v>
+      </c>
+      <c r="D592" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E592" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F592" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G592">
+        <v>0</v>
+      </c>
+      <c r="H592">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8">
+      <c r="A593">
+        <v>592</v>
+      </c>
+      <c r="B593">
+        <v>1</v>
+      </c>
+      <c r="C593">
+        <v>2</v>
+      </c>
+      <c r="D593" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E593" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F593" t="s">
+        <v>1456</v>
+      </c>
+      <c r="G593">
+        <v>0</v>
+      </c>
+      <c r="H593">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8">
+      <c r="A594">
+        <v>593</v>
+      </c>
+      <c r="B594">
+        <v>1</v>
+      </c>
+      <c r="C594">
+        <v>2</v>
+      </c>
+      <c r="D594" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E594" t="s">
+        <v>1458</v>
+      </c>
+      <c r="F594" t="s">
+        <v>1459</v>
+      </c>
+      <c r="G594">
+        <v>0</v>
+      </c>
+      <c r="H594">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8">
+      <c r="A595">
+        <v>594</v>
+      </c>
+      <c r="B595">
+        <v>1</v>
+      </c>
+      <c r="C595">
+        <v>2</v>
+      </c>
+      <c r="D595" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E595" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F595" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G595">
+        <v>0</v>
+      </c>
+      <c r="H595">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8">
+      <c r="A596">
+        <v>595</v>
+      </c>
+      <c r="B596">
+        <v>1</v>
+      </c>
+      <c r="C596">
+        <v>2</v>
+      </c>
+      <c r="D596" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E596" t="s">
+        <v>1458</v>
+      </c>
+      <c r="F596" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G596">
+        <v>0</v>
+      </c>
+      <c r="H596">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8">
+      <c r="A597">
+        <v>596</v>
+      </c>
+      <c r="B597">
+        <v>1</v>
+      </c>
+      <c r="C597">
+        <v>2</v>
+      </c>
+      <c r="D597" t="s">
+        <v>652</v>
+      </c>
+      <c r="E597" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F597" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G597">
+        <v>0</v>
+      </c>
+      <c r="H597">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8">
+      <c r="A598">
+        <v>597</v>
+      </c>
+      <c r="B598">
+        <v>1</v>
+      </c>
+      <c r="C598">
+        <v>2</v>
+      </c>
+      <c r="D598" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E598" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F598" t="s">
+        <v>1468</v>
+      </c>
+      <c r="G598">
+        <v>0</v>
+      </c>
+      <c r="H598">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8">
+      <c r="A599">
+        <v>598</v>
+      </c>
+      <c r="B599">
+        <v>1</v>
+      </c>
+      <c r="C599">
+        <v>2</v>
+      </c>
+      <c r="D599" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E599" t="s">
+        <v>574</v>
+      </c>
+      <c r="F599" t="s">
+        <v>1468</v>
+      </c>
+      <c r="G599">
+        <v>0</v>
+      </c>
+      <c r="H599">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8">
+      <c r="A600">
+        <v>599</v>
+      </c>
+      <c r="B600">
+        <v>1</v>
+      </c>
+      <c r="C600">
+        <v>2</v>
+      </c>
+      <c r="D600" t="s">
+        <v>551</v>
+      </c>
+      <c r="E600" t="s">
+        <v>1469</v>
+      </c>
+      <c r="F600" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G600">
+        <v>0</v>
+      </c>
+      <c r="H600">
         <v>1</v>
       </c>
     </row>

--- a/spreadsheets/clips.xlsx
+++ b/spreadsheets/clips.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="440" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="1220" yWindow="420" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="1820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3005" uniqueCount="2363">
   <si>
     <t>id</t>
   </si>
@@ -5482,6 +5482,1635 @@
   </si>
   <si>
     <t>00;05;49;54</t>
+  </si>
+  <si>
+    <t>treat that</t>
+  </si>
+  <si>
+    <t>00;00;36;51</t>
+  </si>
+  <si>
+    <t>00;00;37;16</t>
+  </si>
+  <si>
+    <t>00;00;37;01</t>
+  </si>
+  <si>
+    <t>00;00;37;13</t>
+  </si>
+  <si>
+    <t>kidnap</t>
+  </si>
+  <si>
+    <t>00;00;37;14</t>
+  </si>
+  <si>
+    <t>00;00;37;40</t>
+  </si>
+  <si>
+    <t>royalty</t>
+  </si>
+  <si>
+    <t>00;00;38;06</t>
+  </si>
+  <si>
+    <t>00;00;38;44</t>
+  </si>
+  <si>
+    <t>man who</t>
+  </si>
+  <si>
+    <t>00;01;20;44</t>
+  </si>
+  <si>
+    <t>00;01;21;14</t>
+  </si>
+  <si>
+    <t>00;01;20;43</t>
+  </si>
+  <si>
+    <t>00;01;21;01</t>
+  </si>
+  <si>
+    <t>who</t>
+  </si>
+  <si>
+    <t>00;01;21;02</t>
+  </si>
+  <si>
+    <t>who killed</t>
+  </si>
+  <si>
+    <t>00;01;21;34</t>
+  </si>
+  <si>
+    <t>bin laden</t>
+  </si>
+  <si>
+    <t>00;01;21;35</t>
+  </si>
+  <si>
+    <t>00;01;22;12</t>
+  </si>
+  <si>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>00;01;21;16</t>
+  </si>
+  <si>
+    <t>00;01;21;39</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>00;01;21;31</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>00;01;22;21</t>
+  </si>
+  <si>
+    <t>00;01;22;48</t>
+  </si>
+  <si>
+    <t>why he</t>
+  </si>
+  <si>
+    <t>00;01;22;49</t>
+  </si>
+  <si>
+    <t>00;01;23;25</t>
+  </si>
+  <si>
+    <t>why</t>
+  </si>
+  <si>
+    <t>00;01;23;19</t>
+  </si>
+  <si>
+    <t>he has</t>
+  </si>
+  <si>
+    <t>00;01;23;17</t>
+  </si>
+  <si>
+    <t>00;01;23;46</t>
+  </si>
+  <si>
+    <t>extra</t>
+  </si>
+  <si>
+    <t>00;01;23;41</t>
+  </si>
+  <si>
+    <t>00;01;24;09</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>00;01;24;10</t>
+  </si>
+  <si>
+    <t>00;01;24;40</t>
+  </si>
+  <si>
+    <t>surrounding him</t>
+  </si>
+  <si>
+    <t>00;01;24;41</t>
+  </si>
+  <si>
+    <t>00;01;25;25</t>
+  </si>
+  <si>
+    <t>surrounding</t>
+  </si>
+  <si>
+    <t>00;01;25;12</t>
+  </si>
+  <si>
+    <t>surround</t>
+  </si>
+  <si>
+    <t>00;01;25;03</t>
+  </si>
+  <si>
+    <t>him</t>
+  </si>
+  <si>
+    <t>00;01;25;10</t>
+  </si>
+  <si>
+    <t>00;01;25;31</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>00;01;25;45</t>
+  </si>
+  <si>
+    <t>i'm</t>
+  </si>
+  <si>
+    <t>00;01;25;46</t>
+  </si>
+  <si>
+    <t>00;01;25;53</t>
+  </si>
+  <si>
+    <t>a motivational</t>
+  </si>
+  <si>
+    <t>00;01;28;14</t>
+  </si>
+  <si>
+    <t>00;01;29;01</t>
+  </si>
+  <si>
+    <t>motivational</t>
+  </si>
+  <si>
+    <t>00;01;28;25</t>
+  </si>
+  <si>
+    <t>motivational speaker</t>
+  </si>
+  <si>
+    <t>00;01;29;20</t>
+  </si>
+  <si>
+    <t>is coming</t>
+  </si>
+  <si>
+    <t>00;01;29;21</t>
+  </si>
+  <si>
+    <t>00;01;29;46</t>
+  </si>
+  <si>
+    <t>00;01;29;30</t>
+  </si>
+  <si>
+    <t>coming forward</t>
+  </si>
+  <si>
+    <t>00;01;30;05</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>reveal</t>
+  </si>
+  <si>
+    <t>00;01;30;14</t>
+  </si>
+  <si>
+    <t>00;01;30;40</t>
+  </si>
+  <si>
+    <t>00;01;30;45</t>
+  </si>
+  <si>
+    <t>00;01;30;58</t>
+  </si>
+  <si>
+    <t>trigger man</t>
+  </si>
+  <si>
+    <t>00;01;31;17</t>
+  </si>
+  <si>
+    <t>00;01;32;02</t>
+  </si>
+  <si>
+    <t>trigger</t>
+  </si>
+  <si>
+    <t>00;01;31;45</t>
+  </si>
+  <si>
+    <t>00;01;31;44</t>
+  </si>
+  <si>
+    <t>00;01;32;01</t>
+  </si>
+  <si>
+    <t>00;01;32;11</t>
+  </si>
+  <si>
+    <t>the world</t>
+  </si>
+  <si>
+    <t>00;01;32;36</t>
+  </si>
+  <si>
+    <t>00;01;33;02</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>00;01;32;44</t>
+  </si>
+  <si>
+    <t>world's most</t>
+  </si>
+  <si>
+    <t>00;01;33;20</t>
+  </si>
+  <si>
+    <t>world's</t>
+  </si>
+  <si>
+    <t>00;01;33;04</t>
+  </si>
+  <si>
+    <t>worlds</t>
+  </si>
+  <si>
+    <t>00;01;32;45</t>
+  </si>
+  <si>
+    <t>00;01;33;05</t>
+  </si>
+  <si>
+    <t>most wanted</t>
+  </si>
+  <si>
+    <t>00;01;34;03</t>
+  </si>
+  <si>
+    <t>wanted</t>
+  </si>
+  <si>
+    <t>00;01;33;25</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>00;01;33;49</t>
+  </si>
+  <si>
+    <t>wanted terrorist</t>
+  </si>
+  <si>
+    <t>00;01;34;32</t>
+  </si>
+  <si>
+    <t>terrorist</t>
+  </si>
+  <si>
+    <t>00;01;33;58</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>00;01;34;31</t>
+  </si>
+  <si>
+    <t>00;01;34;55</t>
+  </si>
+  <si>
+    <t>terrorist dead</t>
+  </si>
+  <si>
+    <t>standing ovation</t>
+  </si>
+  <si>
+    <t>00;01;35;28</t>
+  </si>
+  <si>
+    <t>00;01;36;20</t>
+  </si>
+  <si>
+    <t>standing</t>
+  </si>
+  <si>
+    <t>00;01;35;27</t>
+  </si>
+  <si>
+    <t>00;01;35;47</t>
+  </si>
+  <si>
+    <t>recent</t>
+  </si>
+  <si>
+    <t>00;01;36;27</t>
+  </si>
+  <si>
+    <t>00;01;36;50</t>
+  </si>
+  <si>
+    <t>at a recent</t>
+  </si>
+  <si>
+    <t>00;01;36;49</t>
+  </si>
+  <si>
+    <t>speech</t>
+  </si>
+  <si>
+    <t>00;01;37;25</t>
+  </si>
+  <si>
+    <t>00;01;37;26</t>
+  </si>
+  <si>
+    <t>00;01;37;36</t>
+  </si>
+  <si>
+    <t>eagle eyed</t>
+  </si>
+  <si>
+    <t>00;01;37;37</t>
+  </si>
+  <si>
+    <t>00;01;38;19</t>
+  </si>
+  <si>
+    <t>observers</t>
+  </si>
+  <si>
+    <t>00;01;39;00</t>
+  </si>
+  <si>
+    <t>noticed that</t>
+  </si>
+  <si>
+    <t>00;01;39;01</t>
+  </si>
+  <si>
+    <t>00;01;39;30</t>
+  </si>
+  <si>
+    <t>noticed</t>
+  </si>
+  <si>
+    <t>00;01;39;19</t>
+  </si>
+  <si>
+    <t>00;01;39;16</t>
+  </si>
+  <si>
+    <t>that he</t>
+  </si>
+  <si>
+    <t>00;01;39;38</t>
+  </si>
+  <si>
+    <t>noticed that he</t>
+  </si>
+  <si>
+    <t>notice that he</t>
+  </si>
+  <si>
+    <t>he was</t>
+  </si>
+  <si>
+    <t>00;01;39;49</t>
+  </si>
+  <si>
+    <t>he was protected</t>
+  </si>
+  <si>
+    <t>was protected</t>
+  </si>
+  <si>
+    <t>00;01;39;37</t>
+  </si>
+  <si>
+    <t>protected</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>00;01;40;14</t>
+  </si>
+  <si>
+    <t>by a</t>
+  </si>
+  <si>
+    <t>00;01;40;43</t>
+  </si>
+  <si>
+    <t>00;01;41;06</t>
+  </si>
+  <si>
+    <t>a large</t>
+  </si>
+  <si>
+    <t>00;01;40;51</t>
+  </si>
+  <si>
+    <t>00;01;41;39</t>
+  </si>
+  <si>
+    <t>large</t>
+  </si>
+  <si>
+    <t>00;01;41;07</t>
+  </si>
+  <si>
+    <t>00;01;41;43</t>
+  </si>
+  <si>
+    <t>00;01;41;42</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>00;01;42;16</t>
+  </si>
+  <si>
+    <t>00;01;42;50</t>
+  </si>
+  <si>
+    <t>the movies</t>
+  </si>
+  <si>
+    <t>00;02;28;00</t>
+  </si>
+  <si>
+    <t>00;02;28;36</t>
+  </si>
+  <si>
+    <t>movies</t>
+  </si>
+  <si>
+    <t>00;02;28;09</t>
+  </si>
+  <si>
+    <t>00;02;28;38</t>
+  </si>
+  <si>
+    <t>if you wanna</t>
+  </si>
+  <si>
+    <t>00;02;28;52</t>
+  </si>
+  <si>
+    <t>00;02;29;26</t>
+  </si>
+  <si>
+    <t>wanna make</t>
+  </si>
+  <si>
+    <t>00;02;29;12</t>
+  </si>
+  <si>
+    <t>00;02;29;37</t>
+  </si>
+  <si>
+    <t>00;02;29;23</t>
+  </si>
+  <si>
+    <t>make a statement</t>
+  </si>
+  <si>
+    <t>00;02;29;58</t>
+  </si>
+  <si>
+    <t>a statement</t>
+  </si>
+  <si>
+    <t>00;02;29;36</t>
+  </si>
+  <si>
+    <t>statement</t>
+  </si>
+  <si>
+    <t>00;02;29;41</t>
+  </si>
+  <si>
+    <t>statement like</t>
+  </si>
+  <si>
+    <t>00;02;30;12</t>
+  </si>
+  <si>
+    <t>00;02;29;59</t>
+  </si>
+  <si>
+    <t>00;02;30;13</t>
+  </si>
+  <si>
+    <t>like that</t>
+  </si>
+  <si>
+    <t>00;02;30;33</t>
+  </si>
+  <si>
+    <t>like that you</t>
+  </si>
+  <si>
+    <t>00;02;30;44</t>
+  </si>
+  <si>
+    <t>00;02;30;43</t>
+  </si>
+  <si>
+    <t>00;02;30;31</t>
+  </si>
+  <si>
+    <t>you better</t>
+  </si>
+  <si>
+    <t>00;02;30;25</t>
+  </si>
+  <si>
+    <t>00;02;30;57</t>
+  </si>
+  <si>
+    <t>00;02;30;42</t>
+  </si>
+  <si>
+    <t>you better be</t>
+  </si>
+  <si>
+    <t>00;02;31;01</t>
+  </si>
+  <si>
+    <t>better be</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>00;02;30;58</t>
+  </si>
+  <si>
+    <t>be ready</t>
+  </si>
+  <si>
+    <t>00;02;30;59</t>
+  </si>
+  <si>
+    <t>00;02;31;21</t>
+  </si>
+  <si>
+    <t>00;02;31;22</t>
+  </si>
+  <si>
+    <t>00;02;31;42</t>
+  </si>
+  <si>
+    <t>too</t>
+  </si>
+  <si>
+    <t>be awake</t>
+  </si>
+  <si>
+    <t>00;02;31;43</t>
+  </si>
+  <si>
+    <t>00;02;32;09</t>
+  </si>
+  <si>
+    <t>to be</t>
+  </si>
+  <si>
+    <t>00;02;31;27</t>
+  </si>
+  <si>
+    <t>00;02;31;50</t>
+  </si>
+  <si>
+    <t>awake</t>
+  </si>
+  <si>
+    <t>00;02;31;51</t>
+  </si>
+  <si>
+    <t>00;02;32;15</t>
+  </si>
+  <si>
+    <t>00;02;32;16</t>
+  </si>
+  <si>
+    <t>00;02;32;56</t>
+  </si>
+  <si>
+    <t>twenty four hours</t>
+  </si>
+  <si>
+    <t>twenty four</t>
+  </si>
+  <si>
+    <t>00;02;32;39</t>
+  </si>
+  <si>
+    <t>00;02;32;29</t>
+  </si>
+  <si>
+    <t>hours a day</t>
+  </si>
+  <si>
+    <t>00;02;32;40</t>
+  </si>
+  <si>
+    <t>00;02;33;22</t>
+  </si>
+  <si>
+    <t>00;02;32;41</t>
+  </si>
+  <si>
+    <t>00;02;32;58</t>
+  </si>
+  <si>
+    <t>00;02;33;04</t>
+  </si>
+  <si>
+    <t>00;02;33;21</t>
+  </si>
+  <si>
+    <t>thing that</t>
+  </si>
+  <si>
+    <t>00;02;49;35</t>
+  </si>
+  <si>
+    <t>00;02;49;57</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>00;02;49;50</t>
+  </si>
+  <si>
+    <t>that bothered me</t>
+  </si>
+  <si>
+    <t>00;02;50;26</t>
+  </si>
+  <si>
+    <t>bothered me</t>
+  </si>
+  <si>
+    <t>bothered</t>
+  </si>
+  <si>
+    <t>00;02;50;22</t>
+  </si>
+  <si>
+    <t>bother</t>
+  </si>
+  <si>
+    <t>00;02;50;18</t>
+  </si>
+  <si>
+    <t>me most</t>
+  </si>
+  <si>
+    <t>00;02;50;48</t>
+  </si>
+  <si>
+    <t>bothered me most</t>
+  </si>
+  <si>
+    <t>most about</t>
+  </si>
+  <si>
+    <t>00;02;50;33</t>
+  </si>
+  <si>
+    <t>00;02;51;06</t>
+  </si>
+  <si>
+    <t>most</t>
+  </si>
+  <si>
+    <t>00;02;50;31</t>
+  </si>
+  <si>
+    <t>00;02;50;53</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>00;02;50;54</t>
+  </si>
+  <si>
+    <t>00;02;51;09</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>00;02;51;10</t>
+  </si>
+  <si>
+    <t>00;02;51;46</t>
+  </si>
+  <si>
+    <t>regarding</t>
+  </si>
+  <si>
+    <t>00;02;51;47</t>
+  </si>
+  <si>
+    <t>00;02;52;16</t>
+  </si>
+  <si>
+    <t>regarding this</t>
+  </si>
+  <si>
+    <t>navy seal</t>
+  </si>
+  <si>
+    <t>00;02;52;29</t>
+  </si>
+  <si>
+    <t>00;02;53;17</t>
+  </si>
+  <si>
+    <t>navy</t>
+  </si>
+  <si>
+    <t>00;02;52;49</t>
+  </si>
+  <si>
+    <t>seal</t>
+  </si>
+  <si>
+    <t>00;02;53;18</t>
+  </si>
+  <si>
+    <t>is that he</t>
+  </si>
+  <si>
+    <t>00;02;53;19</t>
+  </si>
+  <si>
+    <t>00;02;53;55</t>
+  </si>
+  <si>
+    <t>is that</t>
+  </si>
+  <si>
+    <t>00;02;53;47</t>
+  </si>
+  <si>
+    <t>he's talking</t>
+  </si>
+  <si>
+    <t>00;02;53;48</t>
+  </si>
+  <si>
+    <t>talking</t>
+  </si>
+  <si>
+    <t>00;02;53;58</t>
+  </si>
+  <si>
+    <t>00;02;54;27</t>
+  </si>
+  <si>
+    <t>talking about it</t>
+  </si>
+  <si>
+    <t>00;02;54;48</t>
+  </si>
+  <si>
+    <t>00;02;54;49</t>
+  </si>
+  <si>
+    <t>the first place</t>
+  </si>
+  <si>
+    <t>00;02;54;58</t>
+  </si>
+  <si>
+    <t>00;02;55;58</t>
+  </si>
+  <si>
+    <t>first place</t>
+  </si>
+  <si>
+    <t>00;02;55;12</t>
+  </si>
+  <si>
+    <t>00;02;55;32</t>
+  </si>
+  <si>
+    <t>classified</t>
+  </si>
+  <si>
+    <t>00;02;56;37</t>
+  </si>
+  <si>
+    <t>00;02;57;10</t>
+  </si>
+  <si>
+    <t>classified mission</t>
+  </si>
+  <si>
+    <t>00;02;57;39</t>
+  </si>
+  <si>
+    <t>mission</t>
+  </si>
+  <si>
+    <t>we should probably</t>
+  </si>
+  <si>
+    <t>00;02;57;49</t>
+  </si>
+  <si>
+    <t>00;02;58;37</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>00;02;58;11</t>
+  </si>
+  <si>
+    <t>00;02;58;35</t>
+  </si>
+  <si>
+    <t>bring back</t>
+  </si>
+  <si>
+    <t>00;02;58;36</t>
+  </si>
+  <si>
+    <t>00;02;59;17</t>
+  </si>
+  <si>
+    <t>bring</t>
+  </si>
+  <si>
+    <t>00;02;58;50</t>
+  </si>
+  <si>
+    <t>00;02;58;51</t>
+  </si>
+  <si>
+    <t>00;02;59;13</t>
+  </si>
+  <si>
+    <t>don't ask</t>
+  </si>
+  <si>
+    <t>00;02;59;14</t>
+  </si>
+  <si>
+    <t>00;02;59;58</t>
+  </si>
+  <si>
+    <t>don't tell</t>
+  </si>
+  <si>
+    <t>00;02;59;59</t>
+  </si>
+  <si>
+    <t>00;03;00;56</t>
+  </si>
+  <si>
+    <t>don't</t>
+  </si>
+  <si>
+    <t>00;03;00;36</t>
+  </si>
+  <si>
+    <t>tell</t>
+  </si>
+  <si>
+    <t>00;03;00;31</t>
+  </si>
+  <si>
+    <t>ask</t>
+  </si>
+  <si>
+    <t>00;02;59;36</t>
+  </si>
+  <si>
+    <t>00;03;00;07</t>
+  </si>
+  <si>
+    <t>00;03;28;08</t>
+  </si>
+  <si>
+    <t>00;03;28;33</t>
+  </si>
+  <si>
+    <t>kidnapping</t>
+  </si>
+  <si>
+    <t>00;03;28;35</t>
+  </si>
+  <si>
+    <t>00;03;29;03</t>
+  </si>
+  <si>
+    <t>kidnapping video</t>
+  </si>
+  <si>
+    <t>00;03;29;24</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>00;03;29;07</t>
+  </si>
+  <si>
+    <t>00;03;29;27</t>
+  </si>
+  <si>
+    <t>highlighted</t>
+  </si>
+  <si>
+    <t>00;03;29;28</t>
+  </si>
+  <si>
+    <t>00;03;29;58</t>
+  </si>
+  <si>
+    <t>highlight</t>
+  </si>
+  <si>
+    <t>00;03;29;51</t>
+  </si>
+  <si>
+    <t>video highlight</t>
+  </si>
+  <si>
+    <t>a fear</t>
+  </si>
+  <si>
+    <t>00;03;29;57</t>
+  </si>
+  <si>
+    <t>00;03;30;30</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>00;03;30;07</t>
+  </si>
+  <si>
+    <t>00;03;30;32</t>
+  </si>
+  <si>
+    <t>many women</t>
+  </si>
+  <si>
+    <t>00;03;30;33</t>
+  </si>
+  <si>
+    <t>00;03;31;11</t>
+  </si>
+  <si>
+    <t>women</t>
+  </si>
+  <si>
+    <t>00;03;30;52</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>00;03;30;31</t>
+  </si>
+  <si>
+    <t>00;03;30;51</t>
+  </si>
+  <si>
+    <t>many women have</t>
+  </si>
+  <si>
+    <t>00;03;31;41</t>
+  </si>
+  <si>
+    <t>women have</t>
+  </si>
+  <si>
+    <t>00;03;30;55</t>
+  </si>
+  <si>
+    <t>have</t>
+  </si>
+  <si>
+    <t>00;03;31;09</t>
+  </si>
+  <si>
+    <t>now our</t>
+  </si>
+  <si>
+    <t>00;03;31;42</t>
+  </si>
+  <si>
+    <t>00;03;32;21</t>
+  </si>
+  <si>
+    <t>00;03;31;59</t>
+  </si>
+  <si>
+    <t>00;03;32;00</t>
+  </si>
+  <si>
+    <t>our experts</t>
+  </si>
+  <si>
+    <t>00;03;32;49</t>
+  </si>
+  <si>
+    <t>experts explain</t>
+  </si>
+  <si>
+    <t>00;03;32;22</t>
+  </si>
+  <si>
+    <t>00;03;33;22</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>00;03;32;46</t>
+  </si>
+  <si>
+    <t>explain</t>
+  </si>
+  <si>
+    <t>00;03;33;23</t>
+  </si>
+  <si>
+    <t>how to survive</t>
+  </si>
+  <si>
+    <t>00;03;34;08</t>
+  </si>
+  <si>
+    <t>survive</t>
+  </si>
+  <si>
+    <t>00;03;33;33</t>
+  </si>
+  <si>
+    <t>similar ordeal</t>
+  </si>
+  <si>
+    <t>00;03;34;11</t>
+  </si>
+  <si>
+    <t>00;03;35;16</t>
+  </si>
+  <si>
+    <t>similar</t>
+  </si>
+  <si>
+    <t>00;03;34;43</t>
+  </si>
+  <si>
+    <t>ordeal</t>
+  </si>
+  <si>
+    <t>00;03;35;20</t>
+  </si>
+  <si>
+    <t>00;03;35;39</t>
+  </si>
+  <si>
+    <t>00;03;36;04</t>
+  </si>
+  <si>
+    <t>00;03;35;40</t>
+  </si>
+  <si>
+    <t>00;03;36;05</t>
+  </si>
+  <si>
+    <t>their advice</t>
+  </si>
+  <si>
+    <t>00;03;36;29</t>
+  </si>
+  <si>
+    <t>advice</t>
+  </si>
+  <si>
+    <t>00;03;35;55</t>
+  </si>
+  <si>
+    <t>may surprise you</t>
+  </si>
+  <si>
+    <t>00;03;36;30</t>
+  </si>
+  <si>
+    <t>00;03;37;47</t>
+  </si>
+  <si>
+    <t>may surprise</t>
+  </si>
+  <si>
+    <t>00;03;37;30</t>
+  </si>
+  <si>
+    <t>mace</t>
+  </si>
+  <si>
+    <t>00;03;36;58</t>
+  </si>
+  <si>
+    <t>00;03;36;34</t>
+  </si>
+  <si>
+    <t>00;03;36;51</t>
+  </si>
+  <si>
+    <t>surprise</t>
+  </si>
+  <si>
+    <t>00;03;36;55</t>
+  </si>
+  <si>
+    <t>surprise you</t>
+  </si>
+  <si>
+    <t>00;03;37;54</t>
+  </si>
+  <si>
+    <t>00;03;37;32</t>
+  </si>
+  <si>
+    <t>00;03;37;57</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>00;04;05;52</t>
+  </si>
+  <si>
+    <t>first of all</t>
+  </si>
+  <si>
+    <t>00;04;06;15</t>
+  </si>
+  <si>
+    <t>00;04;06;43</t>
+  </si>
+  <si>
+    <t>00;04;07;03</t>
+  </si>
+  <si>
+    <t>the most</t>
+  </si>
+  <si>
+    <t>00;04;07;00</t>
+  </si>
+  <si>
+    <t>00;04;07;22</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>00;04;07;23</t>
+  </si>
+  <si>
+    <t>important thing</t>
+  </si>
+  <si>
+    <t>00;04;08;04</t>
+  </si>
+  <si>
+    <t>that she</t>
+  </si>
+  <si>
+    <t>00;04;08;05</t>
+  </si>
+  <si>
+    <t>00;04;08;24</t>
+  </si>
+  <si>
+    <t>was able to</t>
+  </si>
+  <si>
+    <t>00;04;08;23</t>
+  </si>
+  <si>
+    <t>was able</t>
+  </si>
+  <si>
+    <t>to gather</t>
+  </si>
+  <si>
+    <t>00;04;08;46</t>
+  </si>
+  <si>
+    <t>00;04;09;20</t>
+  </si>
+  <si>
+    <t>gather</t>
+  </si>
+  <si>
+    <t>gather her senses</t>
+  </si>
+  <si>
+    <t>00;04;10;03</t>
+  </si>
+  <si>
+    <t>senses</t>
+  </si>
+  <si>
+    <t>00;04;09;29</t>
+  </si>
+  <si>
+    <t>00;04;10;08</t>
+  </si>
+  <si>
+    <t>say to</t>
+  </si>
+  <si>
+    <t>00;04;10;48</t>
+  </si>
+  <si>
+    <t>00;04;11;13</t>
+  </si>
+  <si>
+    <t>herself</t>
+  </si>
+  <si>
+    <t>00;04;11;48</t>
+  </si>
+  <si>
+    <t>that i'm</t>
+  </si>
+  <si>
+    <t>00;04;12;04</t>
+  </si>
+  <si>
+    <t>00;04;12;40</t>
+  </si>
+  <si>
+    <t>00;04;12;24</t>
+  </si>
+  <si>
+    <t>00;04;12;22</t>
+  </si>
+  <si>
+    <t>going to</t>
+  </si>
+  <si>
+    <t>00;04;12;41</t>
+  </si>
+  <si>
+    <t>00;04;13;23</t>
+  </si>
+  <si>
+    <t>i'm going to</t>
+  </si>
+  <si>
+    <t>00;04;14;03</t>
+  </si>
+  <si>
+    <t>00;04;14;14</t>
+  </si>
+  <si>
+    <t>out of this</t>
+  </si>
+  <si>
+    <t>00;04;14;15</t>
+  </si>
+  <si>
+    <t>00;04;14;41</t>
+  </si>
+  <si>
+    <t>alive</t>
+  </si>
+  <si>
+    <t>00;04;15;32</t>
+  </si>
+  <si>
+    <t>life is</t>
+  </si>
+  <si>
+    <t>00;04;27;06</t>
+  </si>
+  <si>
+    <t>00;04;27;28</t>
+  </si>
+  <si>
+    <t>in danger</t>
+  </si>
+  <si>
+    <t>00;04;27;27</t>
+  </si>
+  <si>
+    <t>00;04;28;11</t>
+  </si>
+  <si>
+    <t>danger</t>
+  </si>
+  <si>
+    <t>00;04;27;32</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>00;04;27;02</t>
+  </si>
+  <si>
+    <t>00;04;27;21</t>
+  </si>
+  <si>
+    <t>and the only</t>
+  </si>
+  <si>
+    <t>00;04;28;19</t>
+  </si>
+  <si>
+    <t>00;04;29;00</t>
+  </si>
+  <si>
+    <t>and the</t>
+  </si>
+  <si>
+    <t>00;04;28;23</t>
+  </si>
+  <si>
+    <t>00;04;28;41</t>
+  </si>
+  <si>
+    <t>the only</t>
+  </si>
+  <si>
+    <t>00;04;28;37</t>
+  </si>
+  <si>
+    <t>00;04;29;45</t>
+  </si>
+  <si>
+    <t>00;04;30;06</t>
+  </si>
+  <si>
+    <t>is to go</t>
+  </si>
+  <si>
+    <t>00;04;30;18</t>
+  </si>
+  <si>
+    <t>00;04;30;52</t>
+  </si>
+  <si>
+    <t>is to</t>
+  </si>
+  <si>
+    <t>00;04;30;40</t>
+  </si>
+  <si>
+    <t>to go</t>
+  </si>
+  <si>
+    <t>00;04;30;32</t>
+  </si>
+  <si>
+    <t>00;04;30;56</t>
+  </si>
+  <si>
+    <t>go along</t>
+  </si>
+  <si>
+    <t>00;04;30;39</t>
+  </si>
+  <si>
+    <t>00;04;30;55</t>
+  </si>
+  <si>
+    <t>go along with</t>
+  </si>
+  <si>
+    <t>00;04;31;21</t>
+  </si>
+  <si>
+    <t>along with</t>
+  </si>
+  <si>
+    <t>00;04;31;24</t>
+  </si>
+  <si>
+    <t>00;04;30;54</t>
+  </si>
+  <si>
+    <t>with the</t>
+  </si>
+  <si>
+    <t>00;04;31;14</t>
+  </si>
+  <si>
+    <t>00;04;31;31</t>
+  </si>
+  <si>
+    <t>program</t>
+  </si>
+  <si>
+    <t>00;04;32;10</t>
+  </si>
+  <si>
+    <t>be a good</t>
+  </si>
+  <si>
+    <t>00;04;32;34</t>
+  </si>
+  <si>
+    <t>00;04;32;41</t>
+  </si>
+  <si>
+    <t>a good</t>
+  </si>
+  <si>
+    <t>00;04;32;42</t>
+  </si>
+  <si>
+    <t>00;04;32;58</t>
+  </si>
+  <si>
+    <t>00;04;32;47</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>good listener</t>
+  </si>
+  <si>
+    <t>00;04;33;27</t>
+  </si>
+  <si>
+    <t>don't antagonize</t>
+  </si>
+  <si>
+    <t>00;04;33;41</t>
+  </si>
+  <si>
+    <t>00;04;34;54</t>
+  </si>
+  <si>
+    <t>antagonize</t>
+  </si>
+  <si>
+    <t>00;04;34;04</t>
+  </si>
+  <si>
+    <t>00;04;35;02</t>
+  </si>
+  <si>
+    <t>00;04;35;34</t>
+  </si>
+  <si>
+    <t>you're</t>
+  </si>
+  <si>
+    <t>kidnapper</t>
+  </si>
+  <si>
+    <t>00;04;35;35</t>
+  </si>
+  <si>
+    <t>00;04;36;15</t>
+  </si>
+  <si>
+    <t>don't do</t>
+  </si>
+  <si>
+    <t>00;04;36;22</t>
+  </si>
+  <si>
+    <t>00;04;37;07</t>
+  </si>
+  <si>
+    <t>00;04;36;53</t>
+  </si>
+  <si>
+    <t>don't do anything</t>
+  </si>
+  <si>
+    <t>00;04;37;34</t>
+  </si>
+  <si>
+    <t>do anything</t>
+  </si>
+  <si>
+    <t>00;04;36;52</t>
+  </si>
+  <si>
+    <t>anything that</t>
+  </si>
+  <si>
+    <t>00;04;37;08</t>
+  </si>
+  <si>
+    <t>anything</t>
+  </si>
+  <si>
+    <t>00;04;37;45</t>
+  </si>
+  <si>
+    <t>00;04;38;00</t>
+  </si>
+  <si>
+    <t>00;04;37;46</t>
+  </si>
+  <si>
+    <t>00;04;38;01</t>
+  </si>
+  <si>
+    <t>argument</t>
+  </si>
+  <si>
+    <t>00;04;38;36</t>
+  </si>
+  <si>
+    <t>a man</t>
+  </si>
+  <si>
+    <t>00;04;44;26</t>
+  </si>
+  <si>
+    <t>00;04;44;47</t>
+  </si>
+  <si>
+    <t>00;04;44;31</t>
+  </si>
+  <si>
+    <t>allows</t>
+  </si>
+  <si>
+    <t>00;04;44;46</t>
+  </si>
+  <si>
+    <t>00;04;45;16</t>
+  </si>
+  <si>
+    <t>allow</t>
+  </si>
+  <si>
+    <t>00;04;45;10</t>
+  </si>
+  <si>
+    <t>allows himself</t>
+  </si>
+  <si>
+    <t>00;04;45;38</t>
   </si>
 </sst>
 </file>
@@ -5533,8 +7162,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="101">
+  <cellStyleXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5640,7 +7293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="101">
+  <cellStyles count="125">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -5691,6 +7344,18 @@
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5741,6 +7406,18 @@
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6070,10 +7747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H751"/>
+  <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A741" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F762" sqref="F762"/>
+    <sheetView tabSelected="1" topLeftCell="A978" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F1000" sqref="F1000"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -25612,6 +27289,6480 @@
         <v>1</v>
       </c>
     </row>
+    <row r="752" spans="1:8">
+      <c r="A752">
+        <v>751</v>
+      </c>
+      <c r="B752">
+        <v>3</v>
+      </c>
+      <c r="C752">
+        <v>3</v>
+      </c>
+      <c r="D752" t="s">
+        <v>1820</v>
+      </c>
+      <c r="E752" t="s">
+        <v>1821</v>
+      </c>
+      <c r="F752" t="s">
+        <v>1822</v>
+      </c>
+      <c r="G752">
+        <v>0</v>
+      </c>
+      <c r="H752">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="753" spans="1:8">
+      <c r="A753">
+        <v>752</v>
+      </c>
+      <c r="B753">
+        <v>3</v>
+      </c>
+      <c r="C753">
+        <v>3</v>
+      </c>
+      <c r="D753" t="s">
+        <v>43</v>
+      </c>
+      <c r="E753" t="s">
+        <v>1823</v>
+      </c>
+      <c r="F753" t="s">
+        <v>1824</v>
+      </c>
+      <c r="G753">
+        <v>0</v>
+      </c>
+      <c r="H753">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754" spans="1:8">
+      <c r="A754">
+        <v>753</v>
+      </c>
+      <c r="B754">
+        <v>3</v>
+      </c>
+      <c r="C754">
+        <v>3</v>
+      </c>
+      <c r="D754" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E754" t="s">
+        <v>1826</v>
+      </c>
+      <c r="F754" t="s">
+        <v>1827</v>
+      </c>
+      <c r="G754">
+        <v>0</v>
+      </c>
+      <c r="H754">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="755" spans="1:8">
+      <c r="A755">
+        <v>754</v>
+      </c>
+      <c r="B755">
+        <v>3</v>
+      </c>
+      <c r="C755">
+        <v>3</v>
+      </c>
+      <c r="D755" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E755" t="s">
+        <v>1829</v>
+      </c>
+      <c r="F755" t="s">
+        <v>1830</v>
+      </c>
+      <c r="G755">
+        <v>0</v>
+      </c>
+      <c r="H755">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756" spans="1:8">
+      <c r="A756">
+        <v>755</v>
+      </c>
+      <c r="B756">
+        <v>3</v>
+      </c>
+      <c r="C756">
+        <v>3</v>
+      </c>
+      <c r="D756" t="s">
+        <v>1831</v>
+      </c>
+      <c r="E756" t="s">
+        <v>1832</v>
+      </c>
+      <c r="F756" t="s">
+        <v>1833</v>
+      </c>
+      <c r="G756">
+        <v>0</v>
+      </c>
+      <c r="H756">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757" spans="1:8">
+      <c r="A757">
+        <v>756</v>
+      </c>
+      <c r="B757">
+        <v>3</v>
+      </c>
+      <c r="C757">
+        <v>3</v>
+      </c>
+      <c r="D757" t="s">
+        <v>600</v>
+      </c>
+      <c r="E757" t="s">
+        <v>1834</v>
+      </c>
+      <c r="F757" t="s">
+        <v>1835</v>
+      </c>
+      <c r="G757">
+        <v>0</v>
+      </c>
+      <c r="H757">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="758" spans="1:8">
+      <c r="A758">
+        <v>757</v>
+      </c>
+      <c r="B758">
+        <v>3</v>
+      </c>
+      <c r="C758">
+        <v>3</v>
+      </c>
+      <c r="D758" t="s">
+        <v>1836</v>
+      </c>
+      <c r="E758" t="s">
+        <v>1837</v>
+      </c>
+      <c r="F758" t="s">
+        <v>1833</v>
+      </c>
+      <c r="G758">
+        <v>0</v>
+      </c>
+      <c r="H758">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759" spans="1:8">
+      <c r="A759">
+        <v>758</v>
+      </c>
+      <c r="B759">
+        <v>3</v>
+      </c>
+      <c r="C759">
+        <v>3</v>
+      </c>
+      <c r="D759" t="s">
+        <v>1838</v>
+      </c>
+      <c r="E759" t="s">
+        <v>1837</v>
+      </c>
+      <c r="F759" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G759">
+        <v>0</v>
+      </c>
+      <c r="H759">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760" spans="1:8">
+      <c r="A760">
+        <v>759</v>
+      </c>
+      <c r="B760">
+        <v>3</v>
+      </c>
+      <c r="C760">
+        <v>3</v>
+      </c>
+      <c r="D760" t="s">
+        <v>1840</v>
+      </c>
+      <c r="E760" t="s">
+        <v>1841</v>
+      </c>
+      <c r="F760" t="s">
+        <v>1842</v>
+      </c>
+      <c r="G760">
+        <v>0</v>
+      </c>
+      <c r="H760">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="761" spans="1:8">
+      <c r="A761">
+        <v>760</v>
+      </c>
+      <c r="B761">
+        <v>3</v>
+      </c>
+      <c r="C761">
+        <v>3</v>
+      </c>
+      <c r="D761" t="s">
+        <v>1843</v>
+      </c>
+      <c r="E761" t="s">
+        <v>1844</v>
+      </c>
+      <c r="F761" t="s">
+        <v>1845</v>
+      </c>
+      <c r="G761">
+        <v>0</v>
+      </c>
+      <c r="H761">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="762" spans="1:8">
+      <c r="A762">
+        <v>761</v>
+      </c>
+      <c r="B762">
+        <v>3</v>
+      </c>
+      <c r="C762">
+        <v>3</v>
+      </c>
+      <c r="D762" t="s">
+        <v>1846</v>
+      </c>
+      <c r="E762" t="s">
+        <v>1844</v>
+      </c>
+      <c r="F762" t="s">
+        <v>1847</v>
+      </c>
+      <c r="G762">
+        <v>0</v>
+      </c>
+      <c r="H762">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="763" spans="1:8">
+      <c r="A763">
+        <v>762</v>
+      </c>
+      <c r="B763">
+        <v>3</v>
+      </c>
+      <c r="C763">
+        <v>3</v>
+      </c>
+      <c r="D763" t="s">
+        <v>1848</v>
+      </c>
+      <c r="E763" t="s">
+        <v>1849</v>
+      </c>
+      <c r="F763" t="s">
+        <v>1850</v>
+      </c>
+      <c r="G763">
+        <v>0</v>
+      </c>
+      <c r="H763">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="764" spans="1:8">
+      <c r="A764">
+        <v>763</v>
+      </c>
+      <c r="B764">
+        <v>3</v>
+      </c>
+      <c r="C764">
+        <v>3</v>
+      </c>
+      <c r="D764" t="s">
+        <v>1851</v>
+      </c>
+      <c r="E764" t="s">
+        <v>1852</v>
+      </c>
+      <c r="F764" t="s">
+        <v>1853</v>
+      </c>
+      <c r="G764">
+        <v>0</v>
+      </c>
+      <c r="H764">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="765" spans="1:8">
+      <c r="A765">
+        <v>764</v>
+      </c>
+      <c r="B765">
+        <v>3</v>
+      </c>
+      <c r="C765">
+        <v>3</v>
+      </c>
+      <c r="D765" t="s">
+        <v>1854</v>
+      </c>
+      <c r="E765" t="s">
+        <v>1852</v>
+      </c>
+      <c r="F765" t="s">
+        <v>1855</v>
+      </c>
+      <c r="G765">
+        <v>0</v>
+      </c>
+      <c r="H765">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="766" spans="1:8">
+      <c r="A766">
+        <v>765</v>
+      </c>
+      <c r="B766">
+        <v>3</v>
+      </c>
+      <c r="C766">
+        <v>3</v>
+      </c>
+      <c r="D766" t="s">
+        <v>1856</v>
+      </c>
+      <c r="E766" t="s">
+        <v>1857</v>
+      </c>
+      <c r="F766" t="s">
+        <v>1858</v>
+      </c>
+      <c r="G766">
+        <v>0</v>
+      </c>
+      <c r="H766">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="767" spans="1:8">
+      <c r="A767">
+        <v>766</v>
+      </c>
+      <c r="B767">
+        <v>3</v>
+      </c>
+      <c r="C767">
+        <v>3</v>
+      </c>
+      <c r="D767" t="s">
+        <v>1859</v>
+      </c>
+      <c r="E767" t="s">
+        <v>1860</v>
+      </c>
+      <c r="F767" t="s">
+        <v>1861</v>
+      </c>
+      <c r="G767">
+        <v>0</v>
+      </c>
+      <c r="H767">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="768" spans="1:8">
+      <c r="A768">
+        <v>767</v>
+      </c>
+      <c r="B768">
+        <v>3</v>
+      </c>
+      <c r="C768">
+        <v>3</v>
+      </c>
+      <c r="D768" t="s">
+        <v>1862</v>
+      </c>
+      <c r="E768" t="s">
+        <v>1863</v>
+      </c>
+      <c r="F768" t="s">
+        <v>1864</v>
+      </c>
+      <c r="G768">
+        <v>0</v>
+      </c>
+      <c r="H768">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="769" spans="1:8">
+      <c r="A769">
+        <v>768</v>
+      </c>
+      <c r="B769">
+        <v>3</v>
+      </c>
+      <c r="C769">
+        <v>3</v>
+      </c>
+      <c r="D769" t="s">
+        <v>1865</v>
+      </c>
+      <c r="E769" t="s">
+        <v>1866</v>
+      </c>
+      <c r="F769" t="s">
+        <v>1867</v>
+      </c>
+      <c r="G769">
+        <v>0</v>
+      </c>
+      <c r="H769">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="770" spans="1:8">
+      <c r="A770">
+        <v>769</v>
+      </c>
+      <c r="B770">
+        <v>3</v>
+      </c>
+      <c r="C770">
+        <v>3</v>
+      </c>
+      <c r="D770" t="s">
+        <v>1868</v>
+      </c>
+      <c r="E770" t="s">
+        <v>1866</v>
+      </c>
+      <c r="F770" t="s">
+        <v>1869</v>
+      </c>
+      <c r="G770">
+        <v>0</v>
+      </c>
+      <c r="H770">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="771" spans="1:8">
+      <c r="A771">
+        <v>770</v>
+      </c>
+      <c r="B771">
+        <v>3</v>
+      </c>
+      <c r="C771">
+        <v>3</v>
+      </c>
+      <c r="D771" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E771" t="s">
+        <v>1866</v>
+      </c>
+      <c r="F771" t="s">
+        <v>1871</v>
+      </c>
+      <c r="G771">
+        <v>0</v>
+      </c>
+      <c r="H771">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="772" spans="1:8">
+      <c r="A772">
+        <v>771</v>
+      </c>
+      <c r="B772">
+        <v>3</v>
+      </c>
+      <c r="C772">
+        <v>3</v>
+      </c>
+      <c r="D772" t="s">
+        <v>1872</v>
+      </c>
+      <c r="E772" t="s">
+        <v>1873</v>
+      </c>
+      <c r="F772" t="s">
+        <v>1874</v>
+      </c>
+      <c r="G772">
+        <v>0</v>
+      </c>
+      <c r="H772">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="773" spans="1:8">
+      <c r="A773">
+        <v>772</v>
+      </c>
+      <c r="B773">
+        <v>3</v>
+      </c>
+      <c r="C773">
+        <v>3</v>
+      </c>
+      <c r="D773" t="s">
+        <v>1875</v>
+      </c>
+      <c r="E773" t="s">
+        <v>1867</v>
+      </c>
+      <c r="F773" t="s">
+        <v>1876</v>
+      </c>
+      <c r="G773">
+        <v>0</v>
+      </c>
+      <c r="H773">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="774" spans="1:8">
+      <c r="A774">
+        <v>773</v>
+      </c>
+      <c r="B774">
+        <v>3</v>
+      </c>
+      <c r="C774">
+        <v>3</v>
+      </c>
+      <c r="D774" t="s">
+        <v>1877</v>
+      </c>
+      <c r="E774" t="s">
+        <v>1878</v>
+      </c>
+      <c r="F774" t="s">
+        <v>1879</v>
+      </c>
+      <c r="G774">
+        <v>0</v>
+      </c>
+      <c r="H774">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="775" spans="1:8">
+      <c r="A775">
+        <v>774</v>
+      </c>
+      <c r="B775">
+        <v>3</v>
+      </c>
+      <c r="C775">
+        <v>3</v>
+      </c>
+      <c r="D775" t="s">
+        <v>1880</v>
+      </c>
+      <c r="E775" t="s">
+        <v>1881</v>
+      </c>
+      <c r="F775" t="s">
+        <v>1882</v>
+      </c>
+      <c r="G775">
+        <v>0</v>
+      </c>
+      <c r="H775">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="776" spans="1:8">
+      <c r="A776">
+        <v>775</v>
+      </c>
+      <c r="B776">
+        <v>3</v>
+      </c>
+      <c r="C776">
+        <v>3</v>
+      </c>
+      <c r="D776" t="s">
+        <v>1883</v>
+      </c>
+      <c r="E776" t="s">
+        <v>1884</v>
+      </c>
+      <c r="F776" t="s">
+        <v>1882</v>
+      </c>
+      <c r="G776">
+        <v>0</v>
+      </c>
+      <c r="H776">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="777" spans="1:8">
+      <c r="A777">
+        <v>776</v>
+      </c>
+      <c r="B777">
+        <v>3</v>
+      </c>
+      <c r="C777">
+        <v>3</v>
+      </c>
+      <c r="D777" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E777" t="s">
+        <v>1884</v>
+      </c>
+      <c r="F777" t="s">
+        <v>1886</v>
+      </c>
+      <c r="G777">
+        <v>0</v>
+      </c>
+      <c r="H777">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="778" spans="1:8">
+      <c r="A778">
+        <v>777</v>
+      </c>
+      <c r="B778">
+        <v>3</v>
+      </c>
+      <c r="C778">
+        <v>3</v>
+      </c>
+      <c r="D778" t="s">
+        <v>1887</v>
+      </c>
+      <c r="E778" t="s">
+        <v>1888</v>
+      </c>
+      <c r="F778" t="s">
+        <v>1889</v>
+      </c>
+      <c r="G778">
+        <v>0</v>
+      </c>
+      <c r="H778">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="779" spans="1:8">
+      <c r="A779">
+        <v>778</v>
+      </c>
+      <c r="B779">
+        <v>3</v>
+      </c>
+      <c r="C779">
+        <v>3</v>
+      </c>
+      <c r="D779" t="s">
+        <v>321</v>
+      </c>
+      <c r="E779" t="s">
+        <v>1890</v>
+      </c>
+      <c r="F779" t="s">
+        <v>1889</v>
+      </c>
+      <c r="G779">
+        <v>0</v>
+      </c>
+      <c r="H779">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="780" spans="1:8">
+      <c r="A780">
+        <v>779</v>
+      </c>
+      <c r="B780">
+        <v>3</v>
+      </c>
+      <c r="C780">
+        <v>3</v>
+      </c>
+      <c r="D780" t="s">
+        <v>1891</v>
+      </c>
+      <c r="E780" t="s">
+        <v>1890</v>
+      </c>
+      <c r="F780" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G780">
+        <v>0</v>
+      </c>
+      <c r="H780">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="781" spans="1:8">
+      <c r="A781">
+        <v>780</v>
+      </c>
+      <c r="B781">
+        <v>3</v>
+      </c>
+      <c r="C781">
+        <v>3</v>
+      </c>
+      <c r="D781" t="s">
+        <v>1893</v>
+      </c>
+      <c r="E781" t="s">
+        <v>1889</v>
+      </c>
+      <c r="F781" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G781">
+        <v>0</v>
+      </c>
+      <c r="H781">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="782" spans="1:8">
+      <c r="A782">
+        <v>781</v>
+      </c>
+      <c r="B782">
+        <v>3</v>
+      </c>
+      <c r="C782">
+        <v>3</v>
+      </c>
+      <c r="D782" t="s">
+        <v>1894</v>
+      </c>
+      <c r="E782" t="s">
+        <v>1895</v>
+      </c>
+      <c r="F782" t="s">
+        <v>1896</v>
+      </c>
+      <c r="G782">
+        <v>0</v>
+      </c>
+      <c r="H782">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="783" spans="1:8">
+      <c r="A783">
+        <v>782</v>
+      </c>
+      <c r="B783">
+        <v>3</v>
+      </c>
+      <c r="C783">
+        <v>3</v>
+      </c>
+      <c r="D783" t="s">
+        <v>111</v>
+      </c>
+      <c r="E783" t="s">
+        <v>1897</v>
+      </c>
+      <c r="F783" t="s">
+        <v>1898</v>
+      </c>
+      <c r="G783">
+        <v>0</v>
+      </c>
+      <c r="H783">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="784" spans="1:8">
+      <c r="A784">
+        <v>783</v>
+      </c>
+      <c r="B784">
+        <v>3</v>
+      </c>
+      <c r="C784">
+        <v>3</v>
+      </c>
+      <c r="D784" t="s">
+        <v>1899</v>
+      </c>
+      <c r="E784" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F784" t="s">
+        <v>1901</v>
+      </c>
+      <c r="G784">
+        <v>0</v>
+      </c>
+      <c r="H784">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="785" spans="1:8">
+      <c r="A785">
+        <v>784</v>
+      </c>
+      <c r="B785">
+        <v>3</v>
+      </c>
+      <c r="C785">
+        <v>3</v>
+      </c>
+      <c r="D785" t="s">
+        <v>1902</v>
+      </c>
+      <c r="E785" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F785" t="s">
+        <v>1903</v>
+      </c>
+      <c r="G785">
+        <v>0</v>
+      </c>
+      <c r="H785">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="786" spans="1:8">
+      <c r="A786">
+        <v>785</v>
+      </c>
+      <c r="B786">
+        <v>3</v>
+      </c>
+      <c r="C786">
+        <v>3</v>
+      </c>
+      <c r="D786" t="s">
+        <v>600</v>
+      </c>
+      <c r="E786" t="s">
+        <v>1904</v>
+      </c>
+      <c r="F786" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G786">
+        <v>0</v>
+      </c>
+      <c r="H786">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="787" spans="1:8">
+      <c r="A787">
+        <v>786</v>
+      </c>
+      <c r="B787">
+        <v>3</v>
+      </c>
+      <c r="C787">
+        <v>3</v>
+      </c>
+      <c r="D787" t="s">
+        <v>1831</v>
+      </c>
+      <c r="E787" t="s">
+        <v>1904</v>
+      </c>
+      <c r="F787" t="s">
+        <v>1906</v>
+      </c>
+      <c r="G787">
+        <v>0</v>
+      </c>
+      <c r="H787">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="788" spans="1:8">
+      <c r="A788">
+        <v>787</v>
+      </c>
+      <c r="B788">
+        <v>3</v>
+      </c>
+      <c r="C788">
+        <v>3</v>
+      </c>
+      <c r="D788" t="s">
+        <v>1907</v>
+      </c>
+      <c r="E788" t="s">
+        <v>1908</v>
+      </c>
+      <c r="F788" t="s">
+        <v>1909</v>
+      </c>
+      <c r="G788">
+        <v>0</v>
+      </c>
+      <c r="H788">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="789" spans="1:8">
+      <c r="A789">
+        <v>788</v>
+      </c>
+      <c r="B789">
+        <v>3</v>
+      </c>
+      <c r="C789">
+        <v>3</v>
+      </c>
+      <c r="D789" t="s">
+        <v>1910</v>
+      </c>
+      <c r="E789" t="s">
+        <v>1911</v>
+      </c>
+      <c r="F789" t="s">
+        <v>1909</v>
+      </c>
+      <c r="G789">
+        <v>0</v>
+      </c>
+      <c r="H789">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="790" spans="1:8">
+      <c r="A790">
+        <v>789</v>
+      </c>
+      <c r="B790">
+        <v>3</v>
+      </c>
+      <c r="C790">
+        <v>3</v>
+      </c>
+      <c r="D790" t="s">
+        <v>1912</v>
+      </c>
+      <c r="E790" t="s">
+        <v>1911</v>
+      </c>
+      <c r="F790" t="s">
+        <v>1913</v>
+      </c>
+      <c r="G790">
+        <v>0</v>
+      </c>
+      <c r="H790">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="791" spans="1:8">
+      <c r="A791">
+        <v>790</v>
+      </c>
+      <c r="B791">
+        <v>3</v>
+      </c>
+      <c r="C791">
+        <v>3</v>
+      </c>
+      <c r="D791" t="s">
+        <v>1914</v>
+      </c>
+      <c r="E791" t="s">
+        <v>1911</v>
+      </c>
+      <c r="F791" t="s">
+        <v>1915</v>
+      </c>
+      <c r="G791">
+        <v>0</v>
+      </c>
+      <c r="H791">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="792" spans="1:8">
+      <c r="A792">
+        <v>791</v>
+      </c>
+      <c r="B792">
+        <v>3</v>
+      </c>
+      <c r="C792">
+        <v>3</v>
+      </c>
+      <c r="D792" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E792" t="s">
+        <v>1917</v>
+      </c>
+      <c r="F792" t="s">
+        <v>1918</v>
+      </c>
+      <c r="G792">
+        <v>0</v>
+      </c>
+      <c r="H792">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="793" spans="1:8">
+      <c r="A793">
+        <v>792</v>
+      </c>
+      <c r="B793">
+        <v>3</v>
+      </c>
+      <c r="C793">
+        <v>3</v>
+      </c>
+      <c r="D793" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E793" t="s">
+        <v>1918</v>
+      </c>
+      <c r="F793" t="s">
+        <v>1920</v>
+      </c>
+      <c r="G793">
+        <v>0</v>
+      </c>
+      <c r="H793">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="794" spans="1:8">
+      <c r="A794">
+        <v>793</v>
+      </c>
+      <c r="B794">
+        <v>3</v>
+      </c>
+      <c r="C794">
+        <v>3</v>
+      </c>
+      <c r="D794" t="s">
+        <v>1921</v>
+      </c>
+      <c r="E794" t="s">
+        <v>1922</v>
+      </c>
+      <c r="F794" t="s">
+        <v>1920</v>
+      </c>
+      <c r="G794">
+        <v>0</v>
+      </c>
+      <c r="H794">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="795" spans="1:8">
+      <c r="A795">
+        <v>794</v>
+      </c>
+      <c r="B795">
+        <v>3</v>
+      </c>
+      <c r="C795">
+        <v>3</v>
+      </c>
+      <c r="D795" t="s">
+        <v>1923</v>
+      </c>
+      <c r="E795" t="s">
+        <v>1922</v>
+      </c>
+      <c r="F795" t="s">
+        <v>1924</v>
+      </c>
+      <c r="G795">
+        <v>0</v>
+      </c>
+      <c r="H795">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="796" spans="1:8">
+      <c r="A796">
+        <v>795</v>
+      </c>
+      <c r="B796">
+        <v>3</v>
+      </c>
+      <c r="C796">
+        <v>3</v>
+      </c>
+      <c r="D796" t="s">
+        <v>1925</v>
+      </c>
+      <c r="E796" t="s">
+        <v>1922</v>
+      </c>
+      <c r="F796" t="s">
+        <v>1926</v>
+      </c>
+      <c r="G796">
+        <v>0</v>
+      </c>
+      <c r="H796">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="797" spans="1:8">
+      <c r="A797">
+        <v>796</v>
+      </c>
+      <c r="B797">
+        <v>3</v>
+      </c>
+      <c r="C797">
+        <v>3</v>
+      </c>
+      <c r="D797" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E797" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F797" t="s">
+        <v>1926</v>
+      </c>
+      <c r="G797">
+        <v>0</v>
+      </c>
+      <c r="H797">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="798" spans="1:8">
+      <c r="A798">
+        <v>797</v>
+      </c>
+      <c r="B798">
+        <v>3</v>
+      </c>
+      <c r="C798">
+        <v>3</v>
+      </c>
+      <c r="D798" t="s">
+        <v>1929</v>
+      </c>
+      <c r="E798" t="s">
+        <v>1930</v>
+      </c>
+      <c r="F798" t="s">
+        <v>1931</v>
+      </c>
+      <c r="G798">
+        <v>0</v>
+      </c>
+      <c r="H798">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="799" spans="1:8">
+      <c r="A799">
+        <v>798</v>
+      </c>
+      <c r="B799">
+        <v>3</v>
+      </c>
+      <c r="C799">
+        <v>3</v>
+      </c>
+      <c r="D799" t="s">
+        <v>1932</v>
+      </c>
+      <c r="E799" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F799" t="s">
+        <v>1931</v>
+      </c>
+      <c r="G799">
+        <v>0</v>
+      </c>
+      <c r="H799">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="800" spans="1:8">
+      <c r="A800">
+        <v>799</v>
+      </c>
+      <c r="B800">
+        <v>3</v>
+      </c>
+      <c r="C800">
+        <v>3</v>
+      </c>
+      <c r="D800" t="s">
+        <v>1933</v>
+      </c>
+      <c r="E800" t="s">
+        <v>1934</v>
+      </c>
+      <c r="F800" t="s">
+        <v>1935</v>
+      </c>
+      <c r="G800">
+        <v>0</v>
+      </c>
+      <c r="H800">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="801" spans="1:8">
+      <c r="A801">
+        <v>800</v>
+      </c>
+      <c r="B801">
+        <v>3</v>
+      </c>
+      <c r="C801">
+        <v>3</v>
+      </c>
+      <c r="D801" t="s">
+        <v>1936</v>
+      </c>
+      <c r="E801" t="s">
+        <v>1937</v>
+      </c>
+      <c r="F801" t="s">
+        <v>1938</v>
+      </c>
+      <c r="G801">
+        <v>0</v>
+      </c>
+      <c r="H801">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="802" spans="1:8">
+      <c r="A802">
+        <v>801</v>
+      </c>
+      <c r="B802">
+        <v>3</v>
+      </c>
+      <c r="C802">
+        <v>3</v>
+      </c>
+      <c r="D802" t="s">
+        <v>1939</v>
+      </c>
+      <c r="E802" t="s">
+        <v>1940</v>
+      </c>
+      <c r="F802" t="s">
+        <v>1941</v>
+      </c>
+      <c r="G802">
+        <v>0</v>
+      </c>
+      <c r="H802">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="803" spans="1:8">
+      <c r="A803">
+        <v>802</v>
+      </c>
+      <c r="B803">
+        <v>3</v>
+      </c>
+      <c r="C803">
+        <v>3</v>
+      </c>
+      <c r="D803" t="s">
+        <v>1942</v>
+      </c>
+      <c r="E803" t="s">
+        <v>149</v>
+      </c>
+      <c r="F803" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G803">
+        <v>0</v>
+      </c>
+      <c r="H803">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="804" spans="1:8">
+      <c r="A804">
+        <v>803</v>
+      </c>
+      <c r="B804">
+        <v>3</v>
+      </c>
+      <c r="C804">
+        <v>3</v>
+      </c>
+      <c r="D804" t="s">
+        <v>1944</v>
+      </c>
+      <c r="E804" t="s">
+        <v>1941</v>
+      </c>
+      <c r="F804" t="s">
+        <v>1945</v>
+      </c>
+      <c r="G804">
+        <v>0</v>
+      </c>
+      <c r="H804">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="805" spans="1:8">
+      <c r="A805">
+        <v>804</v>
+      </c>
+      <c r="B805">
+        <v>3</v>
+      </c>
+      <c r="C805">
+        <v>3</v>
+      </c>
+      <c r="D805" t="s">
+        <v>659</v>
+      </c>
+      <c r="E805" t="s">
+        <v>1946</v>
+      </c>
+      <c r="F805" t="s">
+        <v>1947</v>
+      </c>
+      <c r="G805">
+        <v>0</v>
+      </c>
+      <c r="H805">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="806" spans="1:8">
+      <c r="A806">
+        <v>805</v>
+      </c>
+      <c r="B806">
+        <v>3</v>
+      </c>
+      <c r="C806">
+        <v>3</v>
+      </c>
+      <c r="D806" t="s">
+        <v>1948</v>
+      </c>
+      <c r="E806" t="s">
+        <v>1949</v>
+      </c>
+      <c r="F806" t="s">
+        <v>1950</v>
+      </c>
+      <c r="G806">
+        <v>0</v>
+      </c>
+      <c r="H806">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="807" spans="1:8">
+      <c r="A807">
+        <v>806</v>
+      </c>
+      <c r="B807">
+        <v>3</v>
+      </c>
+      <c r="C807">
+        <v>3</v>
+      </c>
+      <c r="D807" t="s">
+        <v>1951</v>
+      </c>
+      <c r="E807" t="s">
+        <v>1950</v>
+      </c>
+      <c r="F807" t="s">
+        <v>1952</v>
+      </c>
+      <c r="G807">
+        <v>0</v>
+      </c>
+      <c r="H807">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="808" spans="1:8">
+      <c r="A808">
+        <v>807</v>
+      </c>
+      <c r="B808">
+        <v>3</v>
+      </c>
+      <c r="C808">
+        <v>3</v>
+      </c>
+      <c r="D808" t="s">
+        <v>1953</v>
+      </c>
+      <c r="E808" t="s">
+        <v>1954</v>
+      </c>
+      <c r="F808" t="s">
+        <v>1955</v>
+      </c>
+      <c r="G808">
+        <v>0</v>
+      </c>
+      <c r="H808">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="809" spans="1:8">
+      <c r="A809">
+        <v>808</v>
+      </c>
+      <c r="B809">
+        <v>3</v>
+      </c>
+      <c r="C809">
+        <v>3</v>
+      </c>
+      <c r="D809" t="s">
+        <v>1956</v>
+      </c>
+      <c r="E809" t="s">
+        <v>1954</v>
+      </c>
+      <c r="F809" t="s">
+        <v>1957</v>
+      </c>
+      <c r="G809">
+        <v>0</v>
+      </c>
+      <c r="H809">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="810" spans="1:8">
+      <c r="A810">
+        <v>809</v>
+      </c>
+      <c r="B810">
+        <v>3</v>
+      </c>
+      <c r="C810">
+        <v>3</v>
+      </c>
+      <c r="D810" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E810" t="s">
+        <v>1954</v>
+      </c>
+      <c r="F810" t="s">
+        <v>1958</v>
+      </c>
+      <c r="G810">
+        <v>0</v>
+      </c>
+      <c r="H810">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="811" spans="1:8">
+      <c r="A811">
+        <v>810</v>
+      </c>
+      <c r="B811">
+        <v>3</v>
+      </c>
+      <c r="C811">
+        <v>3</v>
+      </c>
+      <c r="D811" t="s">
+        <v>1959</v>
+      </c>
+      <c r="E811" t="s">
+        <v>173</v>
+      </c>
+      <c r="F811" t="s">
+        <v>1960</v>
+      </c>
+      <c r="G811">
+        <v>0</v>
+      </c>
+      <c r="H811">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="812" spans="1:8">
+      <c r="A812">
+        <v>811</v>
+      </c>
+      <c r="B812">
+        <v>3</v>
+      </c>
+      <c r="C812">
+        <v>3</v>
+      </c>
+      <c r="D812" t="s">
+        <v>1961</v>
+      </c>
+      <c r="E812" t="s">
+        <v>1954</v>
+      </c>
+      <c r="F812" t="s">
+        <v>1960</v>
+      </c>
+      <c r="G812">
+        <v>0</v>
+      </c>
+      <c r="H812">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="813" spans="1:8">
+      <c r="A813">
+        <v>812</v>
+      </c>
+      <c r="B813">
+        <v>3</v>
+      </c>
+      <c r="C813">
+        <v>3</v>
+      </c>
+      <c r="D813" t="s">
+        <v>1962</v>
+      </c>
+      <c r="E813" t="s">
+        <v>1954</v>
+      </c>
+      <c r="F813" t="s">
+        <v>1960</v>
+      </c>
+      <c r="G813">
+        <v>0</v>
+      </c>
+      <c r="H813">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="814" spans="1:8">
+      <c r="A814">
+        <v>813</v>
+      </c>
+      <c r="B814">
+        <v>3</v>
+      </c>
+      <c r="C814">
+        <v>3</v>
+      </c>
+      <c r="D814" t="s">
+        <v>1963</v>
+      </c>
+      <c r="E814" t="s">
+        <v>1955</v>
+      </c>
+      <c r="F814" t="s">
+        <v>1964</v>
+      </c>
+      <c r="G814">
+        <v>0</v>
+      </c>
+      <c r="H814">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="815" spans="1:8">
+      <c r="A815">
+        <v>814</v>
+      </c>
+      <c r="B815">
+        <v>3</v>
+      </c>
+      <c r="C815">
+        <v>3</v>
+      </c>
+      <c r="D815" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E815" t="s">
+        <v>1955</v>
+      </c>
+      <c r="F815" t="s">
+        <v>647</v>
+      </c>
+      <c r="G815">
+        <v>0</v>
+      </c>
+      <c r="H815">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="816" spans="1:8">
+      <c r="A816">
+        <v>815</v>
+      </c>
+      <c r="B816">
+        <v>3</v>
+      </c>
+      <c r="C816">
+        <v>3</v>
+      </c>
+      <c r="D816" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E816" t="s">
+        <v>1967</v>
+      </c>
+      <c r="F816" t="s">
+        <v>647</v>
+      </c>
+      <c r="G816">
+        <v>0</v>
+      </c>
+      <c r="H816">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="817" spans="1:8">
+      <c r="A817">
+        <v>816</v>
+      </c>
+      <c r="B817">
+        <v>3</v>
+      </c>
+      <c r="C817">
+        <v>3</v>
+      </c>
+      <c r="D817" t="s">
+        <v>1968</v>
+      </c>
+      <c r="E817" t="s">
+        <v>180</v>
+      </c>
+      <c r="F817" t="s">
+        <v>647</v>
+      </c>
+      <c r="G817">
+        <v>0</v>
+      </c>
+      <c r="H817">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="818" spans="1:8">
+      <c r="A818">
+        <v>817</v>
+      </c>
+      <c r="B818">
+        <v>3</v>
+      </c>
+      <c r="C818">
+        <v>3</v>
+      </c>
+      <c r="D818" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E818" t="s">
+        <v>180</v>
+      </c>
+      <c r="F818" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G818">
+        <v>0</v>
+      </c>
+      <c r="H818">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="819" spans="1:8">
+      <c r="A819">
+        <v>818</v>
+      </c>
+      <c r="B819">
+        <v>3</v>
+      </c>
+      <c r="C819">
+        <v>3</v>
+      </c>
+      <c r="D819" t="s">
+        <v>1971</v>
+      </c>
+      <c r="E819" t="s">
+        <v>1972</v>
+      </c>
+      <c r="F819" t="s">
+        <v>1973</v>
+      </c>
+      <c r="G819">
+        <v>0</v>
+      </c>
+      <c r="H819">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="820" spans="1:8">
+      <c r="A820">
+        <v>819</v>
+      </c>
+      <c r="B820">
+        <v>3</v>
+      </c>
+      <c r="C820">
+        <v>3</v>
+      </c>
+      <c r="D820" t="s">
+        <v>1974</v>
+      </c>
+      <c r="E820" t="s">
+        <v>1975</v>
+      </c>
+      <c r="F820" t="s">
+        <v>1976</v>
+      </c>
+      <c r="G820">
+        <v>0</v>
+      </c>
+      <c r="H820">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="821" spans="1:8">
+      <c r="A821">
+        <v>820</v>
+      </c>
+      <c r="B821">
+        <v>3</v>
+      </c>
+      <c r="C821">
+        <v>3</v>
+      </c>
+      <c r="D821" t="s">
+        <v>566</v>
+      </c>
+      <c r="E821" t="s">
+        <v>1975</v>
+      </c>
+      <c r="F821" t="s">
+        <v>1973</v>
+      </c>
+      <c r="G821">
+        <v>0</v>
+      </c>
+      <c r="H821">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="822" spans="1:8">
+      <c r="A822">
+        <v>821</v>
+      </c>
+      <c r="B822">
+        <v>3</v>
+      </c>
+      <c r="C822">
+        <v>3</v>
+      </c>
+      <c r="D822" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E822" t="s">
+        <v>1978</v>
+      </c>
+      <c r="F822" t="s">
+        <v>1979</v>
+      </c>
+      <c r="G822">
+        <v>0</v>
+      </c>
+      <c r="H822">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="823" spans="1:8">
+      <c r="A823">
+        <v>822</v>
+      </c>
+      <c r="B823">
+        <v>3</v>
+      </c>
+      <c r="C823">
+        <v>3</v>
+      </c>
+      <c r="D823" t="s">
+        <v>1862</v>
+      </c>
+      <c r="E823" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F823" t="s">
+        <v>650</v>
+      </c>
+      <c r="G823">
+        <v>0</v>
+      </c>
+      <c r="H823">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="824" spans="1:8">
+      <c r="A824">
+        <v>823</v>
+      </c>
+      <c r="B824">
+        <v>3</v>
+      </c>
+      <c r="C824">
+        <v>3</v>
+      </c>
+      <c r="D824" t="s">
+        <v>1981</v>
+      </c>
+      <c r="E824" t="s">
+        <v>1982</v>
+      </c>
+      <c r="F824" t="s">
+        <v>1983</v>
+      </c>
+      <c r="G824">
+        <v>0</v>
+      </c>
+      <c r="H824">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="825" spans="1:8">
+      <c r="A825">
+        <v>824</v>
+      </c>
+      <c r="B825">
+        <v>3</v>
+      </c>
+      <c r="C825">
+        <v>3</v>
+      </c>
+      <c r="D825" t="s">
+        <v>1984</v>
+      </c>
+      <c r="E825" t="s">
+        <v>1985</v>
+      </c>
+      <c r="F825" t="s">
+        <v>1986</v>
+      </c>
+      <c r="G825">
+        <v>0</v>
+      </c>
+      <c r="H825">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="826" spans="1:8">
+      <c r="A826">
+        <v>825</v>
+      </c>
+      <c r="B826">
+        <v>3</v>
+      </c>
+      <c r="C826">
+        <v>3</v>
+      </c>
+      <c r="D826" t="s">
+        <v>1987</v>
+      </c>
+      <c r="E826" t="s">
+        <v>1988</v>
+      </c>
+      <c r="F826" t="s">
+        <v>1989</v>
+      </c>
+      <c r="G826">
+        <v>0</v>
+      </c>
+      <c r="H826">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="827" spans="1:8">
+      <c r="A827">
+        <v>826</v>
+      </c>
+      <c r="B827">
+        <v>3</v>
+      </c>
+      <c r="C827">
+        <v>3</v>
+      </c>
+      <c r="D827" t="s">
+        <v>1990</v>
+      </c>
+      <c r="E827" t="s">
+        <v>1991</v>
+      </c>
+      <c r="F827" t="s">
+        <v>1992</v>
+      </c>
+      <c r="G827">
+        <v>0</v>
+      </c>
+      <c r="H827">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="828" spans="1:8">
+      <c r="A828">
+        <v>827</v>
+      </c>
+      <c r="B828">
+        <v>3</v>
+      </c>
+      <c r="C828">
+        <v>3</v>
+      </c>
+      <c r="D828" t="s">
+        <v>1993</v>
+      </c>
+      <c r="E828" t="s">
+        <v>1994</v>
+      </c>
+      <c r="F828" t="s">
+        <v>1995</v>
+      </c>
+      <c r="G828">
+        <v>0</v>
+      </c>
+      <c r="H828">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="829" spans="1:8">
+      <c r="A829">
+        <v>828</v>
+      </c>
+      <c r="B829">
+        <v>3</v>
+      </c>
+      <c r="C829">
+        <v>3</v>
+      </c>
+      <c r="D829" t="s">
+        <v>191</v>
+      </c>
+      <c r="E829" t="s">
+        <v>1996</v>
+      </c>
+      <c r="F829" t="s">
+        <v>1995</v>
+      </c>
+      <c r="G829">
+        <v>0</v>
+      </c>
+      <c r="H829">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="830" spans="1:8">
+      <c r="A830">
+        <v>829</v>
+      </c>
+      <c r="B830">
+        <v>3</v>
+      </c>
+      <c r="C830">
+        <v>3</v>
+      </c>
+      <c r="D830" t="s">
+        <v>1997</v>
+      </c>
+      <c r="E830" t="s">
+        <v>1996</v>
+      </c>
+      <c r="F830" t="s">
+        <v>1998</v>
+      </c>
+      <c r="G830">
+        <v>0</v>
+      </c>
+      <c r="H830">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="831" spans="1:8">
+      <c r="A831">
+        <v>830</v>
+      </c>
+      <c r="B831">
+        <v>3</v>
+      </c>
+      <c r="C831">
+        <v>3</v>
+      </c>
+      <c r="D831" t="s">
+        <v>1999</v>
+      </c>
+      <c r="E831" t="s">
+        <v>2000</v>
+      </c>
+      <c r="F831" t="s">
+        <v>1998</v>
+      </c>
+      <c r="G831">
+        <v>0</v>
+      </c>
+      <c r="H831">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="832" spans="1:8">
+      <c r="A832">
+        <v>831</v>
+      </c>
+      <c r="B832">
+        <v>3</v>
+      </c>
+      <c r="C832">
+        <v>3</v>
+      </c>
+      <c r="D832" t="s">
+        <v>2001</v>
+      </c>
+      <c r="E832" t="s">
+        <v>2002</v>
+      </c>
+      <c r="F832" t="s">
+        <v>1998</v>
+      </c>
+      <c r="G832">
+        <v>0</v>
+      </c>
+      <c r="H832">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="833" spans="1:8">
+      <c r="A833">
+        <v>832</v>
+      </c>
+      <c r="B833">
+        <v>3</v>
+      </c>
+      <c r="C833">
+        <v>3</v>
+      </c>
+      <c r="D833" t="s">
+        <v>2003</v>
+      </c>
+      <c r="E833" t="s">
+        <v>2002</v>
+      </c>
+      <c r="F833" t="s">
+        <v>2004</v>
+      </c>
+      <c r="G833">
+        <v>0</v>
+      </c>
+      <c r="H833">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="834" spans="1:8">
+      <c r="A834">
+        <v>833</v>
+      </c>
+      <c r="B834">
+        <v>3</v>
+      </c>
+      <c r="C834">
+        <v>3</v>
+      </c>
+      <c r="D834" t="s">
+        <v>662</v>
+      </c>
+      <c r="E834" t="s">
+        <v>2005</v>
+      </c>
+      <c r="F834" t="s">
+        <v>2006</v>
+      </c>
+      <c r="G834">
+        <v>0</v>
+      </c>
+      <c r="H834">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="835" spans="1:8">
+      <c r="A835">
+        <v>834</v>
+      </c>
+      <c r="B835">
+        <v>3</v>
+      </c>
+      <c r="C835">
+        <v>3</v>
+      </c>
+      <c r="D835" t="s">
+        <v>2007</v>
+      </c>
+      <c r="E835" t="s">
+        <v>2005</v>
+      </c>
+      <c r="F835" t="s">
+        <v>2008</v>
+      </c>
+      <c r="G835">
+        <v>0</v>
+      </c>
+      <c r="H835">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="836" spans="1:8">
+      <c r="A836">
+        <v>835</v>
+      </c>
+      <c r="B836">
+        <v>3</v>
+      </c>
+      <c r="C836">
+        <v>3</v>
+      </c>
+      <c r="D836" t="s">
+        <v>2009</v>
+      </c>
+      <c r="E836" t="s">
+        <v>2005</v>
+      </c>
+      <c r="F836" t="s">
+        <v>2010</v>
+      </c>
+      <c r="G836">
+        <v>0</v>
+      </c>
+      <c r="H836">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="837" spans="1:8">
+      <c r="A837">
+        <v>836</v>
+      </c>
+      <c r="B837">
+        <v>3</v>
+      </c>
+      <c r="C837">
+        <v>3</v>
+      </c>
+      <c r="D837" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E837" t="s">
+        <v>2004</v>
+      </c>
+      <c r="F837" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G837">
+        <v>0</v>
+      </c>
+      <c r="H837">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="838" spans="1:8">
+      <c r="A838">
+        <v>837</v>
+      </c>
+      <c r="B838">
+        <v>3</v>
+      </c>
+      <c r="C838">
+        <v>3</v>
+      </c>
+      <c r="D838" t="s">
+        <v>43</v>
+      </c>
+      <c r="E838" t="s">
+        <v>2004</v>
+      </c>
+      <c r="F838" t="s">
+        <v>2012</v>
+      </c>
+      <c r="G838">
+        <v>0</v>
+      </c>
+      <c r="H838">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="839" spans="1:8">
+      <c r="A839">
+        <v>838</v>
+      </c>
+      <c r="B839">
+        <v>3</v>
+      </c>
+      <c r="C839">
+        <v>3</v>
+      </c>
+      <c r="D839" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E839" t="s">
+        <v>2014</v>
+      </c>
+      <c r="F839" t="s">
+        <v>2015</v>
+      </c>
+      <c r="G839">
+        <v>0</v>
+      </c>
+      <c r="H839">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="840" spans="1:8">
+      <c r="A840">
+        <v>839</v>
+      </c>
+      <c r="B840">
+        <v>3</v>
+      </c>
+      <c r="C840">
+        <v>3</v>
+      </c>
+      <c r="D840" t="s">
+        <v>223</v>
+      </c>
+      <c r="E840" t="s">
+        <v>836</v>
+      </c>
+      <c r="F840" t="s">
+        <v>2016</v>
+      </c>
+      <c r="G840">
+        <v>0</v>
+      </c>
+      <c r="H840">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="841" spans="1:8">
+      <c r="A841">
+        <v>840</v>
+      </c>
+      <c r="B841">
+        <v>3</v>
+      </c>
+      <c r="C841">
+        <v>3</v>
+      </c>
+      <c r="D841" t="s">
+        <v>2017</v>
+      </c>
+      <c r="E841" t="s">
+        <v>836</v>
+      </c>
+      <c r="F841" t="s">
+        <v>2018</v>
+      </c>
+      <c r="G841">
+        <v>0</v>
+      </c>
+      <c r="H841">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="842" spans="1:8">
+      <c r="A842">
+        <v>841</v>
+      </c>
+      <c r="B842">
+        <v>3</v>
+      </c>
+      <c r="C842">
+        <v>3</v>
+      </c>
+      <c r="D842" t="s">
+        <v>2019</v>
+      </c>
+      <c r="E842" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F842" t="s">
+        <v>2018</v>
+      </c>
+      <c r="G842">
+        <v>0</v>
+      </c>
+      <c r="H842">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="843" spans="1:8">
+      <c r="A843">
+        <v>842</v>
+      </c>
+      <c r="B843">
+        <v>3</v>
+      </c>
+      <c r="C843">
+        <v>3</v>
+      </c>
+      <c r="D843" t="s">
+        <v>2020</v>
+      </c>
+      <c r="E843" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F843" t="s">
+        <v>2021</v>
+      </c>
+      <c r="G843">
+        <v>0</v>
+      </c>
+      <c r="H843">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="844" spans="1:8">
+      <c r="A844">
+        <v>843</v>
+      </c>
+      <c r="B844">
+        <v>3</v>
+      </c>
+      <c r="C844">
+        <v>3</v>
+      </c>
+      <c r="D844" t="s">
+        <v>2022</v>
+      </c>
+      <c r="E844" t="s">
+        <v>2023</v>
+      </c>
+      <c r="F844" t="s">
+        <v>2024</v>
+      </c>
+      <c r="G844">
+        <v>0</v>
+      </c>
+      <c r="H844">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="845" spans="1:8">
+      <c r="A845">
+        <v>844</v>
+      </c>
+      <c r="B845">
+        <v>3</v>
+      </c>
+      <c r="C845">
+        <v>3</v>
+      </c>
+      <c r="D845" t="s">
+        <v>556</v>
+      </c>
+      <c r="E845" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F845" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G845">
+        <v>0</v>
+      </c>
+      <c r="H845">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="846" spans="1:8">
+      <c r="A846">
+        <v>845</v>
+      </c>
+      <c r="B846">
+        <v>3</v>
+      </c>
+      <c r="C846">
+        <v>3</v>
+      </c>
+      <c r="D846" t="s">
+        <v>2027</v>
+      </c>
+      <c r="E846" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F846" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G846">
+        <v>0</v>
+      </c>
+      <c r="H846">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="847" spans="1:8">
+      <c r="A847">
+        <v>846</v>
+      </c>
+      <c r="B847">
+        <v>3</v>
+      </c>
+      <c r="C847">
+        <v>3</v>
+      </c>
+      <c r="D847" t="s">
+        <v>2028</v>
+      </c>
+      <c r="E847" t="s">
+        <v>2029</v>
+      </c>
+      <c r="F847" t="s">
+        <v>2030</v>
+      </c>
+      <c r="G847">
+        <v>0</v>
+      </c>
+      <c r="H847">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="848" spans="1:8">
+      <c r="A848">
+        <v>847</v>
+      </c>
+      <c r="B848">
+        <v>3</v>
+      </c>
+      <c r="C848">
+        <v>3</v>
+      </c>
+      <c r="D848" t="s">
+        <v>2031</v>
+      </c>
+      <c r="E848" t="s">
+        <v>2032</v>
+      </c>
+      <c r="F848" t="s">
+        <v>2033</v>
+      </c>
+      <c r="G848">
+        <v>0</v>
+      </c>
+      <c r="H848">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="849" spans="1:8">
+      <c r="A849">
+        <v>848</v>
+      </c>
+      <c r="B849">
+        <v>3</v>
+      </c>
+      <c r="C849">
+        <v>3</v>
+      </c>
+      <c r="D849" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E849" t="s">
+        <v>2035</v>
+      </c>
+      <c r="F849" t="s">
+        <v>2036</v>
+      </c>
+      <c r="G849">
+        <v>0</v>
+      </c>
+      <c r="H849">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="850" spans="1:8">
+      <c r="A850">
+        <v>849</v>
+      </c>
+      <c r="B850">
+        <v>3</v>
+      </c>
+      <c r="C850">
+        <v>3</v>
+      </c>
+      <c r="D850" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E850" t="s">
+        <v>2037</v>
+      </c>
+      <c r="F850" t="s">
+        <v>2038</v>
+      </c>
+      <c r="G850">
+        <v>0</v>
+      </c>
+      <c r="H850">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="851" spans="1:8">
+      <c r="A851">
+        <v>850</v>
+      </c>
+      <c r="B851">
+        <v>3</v>
+      </c>
+      <c r="C851">
+        <v>3</v>
+      </c>
+      <c r="D851" t="s">
+        <v>2040</v>
+      </c>
+      <c r="E851" t="s">
+        <v>2037</v>
+      </c>
+      <c r="F851" t="s">
+        <v>2041</v>
+      </c>
+      <c r="G851">
+        <v>0</v>
+      </c>
+      <c r="H851">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="852" spans="1:8">
+      <c r="A852">
+        <v>851</v>
+      </c>
+      <c r="B852">
+        <v>3</v>
+      </c>
+      <c r="C852">
+        <v>3</v>
+      </c>
+      <c r="D852" t="s">
+        <v>271</v>
+      </c>
+      <c r="E852" t="s">
+        <v>2042</v>
+      </c>
+      <c r="F852" t="s">
+        <v>2041</v>
+      </c>
+      <c r="G852">
+        <v>0</v>
+      </c>
+      <c r="H852">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="853" spans="1:8">
+      <c r="A853">
+        <v>852</v>
+      </c>
+      <c r="B853">
+        <v>3</v>
+      </c>
+      <c r="C853">
+        <v>3</v>
+      </c>
+      <c r="D853" t="s">
+        <v>700</v>
+      </c>
+      <c r="E853" t="s">
+        <v>2042</v>
+      </c>
+      <c r="F853" t="s">
+        <v>2041</v>
+      </c>
+      <c r="G853">
+        <v>0</v>
+      </c>
+      <c r="H853">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="854" spans="1:8">
+      <c r="A854">
+        <v>853</v>
+      </c>
+      <c r="B854">
+        <v>3</v>
+      </c>
+      <c r="C854">
+        <v>3</v>
+      </c>
+      <c r="D854" t="s">
+        <v>2043</v>
+      </c>
+      <c r="E854" t="s">
+        <v>2044</v>
+      </c>
+      <c r="F854" t="s">
+        <v>2045</v>
+      </c>
+      <c r="G854">
+        <v>0</v>
+      </c>
+      <c r="H854">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="855" spans="1:8">
+      <c r="A855">
+        <v>854</v>
+      </c>
+      <c r="B855">
+        <v>3</v>
+      </c>
+      <c r="C855">
+        <v>3</v>
+      </c>
+      <c r="D855" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E855" t="s">
+        <v>2046</v>
+      </c>
+      <c r="F855" t="s">
+        <v>2047</v>
+      </c>
+      <c r="G855">
+        <v>0</v>
+      </c>
+      <c r="H855">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="856" spans="1:8">
+      <c r="A856">
+        <v>855</v>
+      </c>
+      <c r="B856">
+        <v>3</v>
+      </c>
+      <c r="C856">
+        <v>3</v>
+      </c>
+      <c r="D856" t="s">
+        <v>327</v>
+      </c>
+      <c r="E856" t="s">
+        <v>2048</v>
+      </c>
+      <c r="F856" t="s">
+        <v>2049</v>
+      </c>
+      <c r="G856">
+        <v>0</v>
+      </c>
+      <c r="H856">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="857" spans="1:8">
+      <c r="A857">
+        <v>856</v>
+      </c>
+      <c r="B857">
+        <v>3</v>
+      </c>
+      <c r="C857">
+        <v>3</v>
+      </c>
+      <c r="D857" t="s">
+        <v>2050</v>
+      </c>
+      <c r="E857" t="s">
+        <v>2051</v>
+      </c>
+      <c r="F857" t="s">
+        <v>2052</v>
+      </c>
+      <c r="G857">
+        <v>0</v>
+      </c>
+      <c r="H857">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="858" spans="1:8">
+      <c r="A858">
+        <v>857</v>
+      </c>
+      <c r="B858">
+        <v>3</v>
+      </c>
+      <c r="C858">
+        <v>3</v>
+      </c>
+      <c r="D858" t="s">
+        <v>2053</v>
+      </c>
+      <c r="E858" t="s">
+        <v>2051</v>
+      </c>
+      <c r="F858" t="s">
+        <v>2054</v>
+      </c>
+      <c r="G858">
+        <v>0</v>
+      </c>
+      <c r="H858">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="859" spans="1:8">
+      <c r="A859">
+        <v>858</v>
+      </c>
+      <c r="B859">
+        <v>3</v>
+      </c>
+      <c r="C859">
+        <v>3</v>
+      </c>
+      <c r="D859" t="s">
+        <v>2055</v>
+      </c>
+      <c r="E859" t="s">
+        <v>2054</v>
+      </c>
+      <c r="F859" t="s">
+        <v>2056</v>
+      </c>
+      <c r="G859">
+        <v>0</v>
+      </c>
+      <c r="H859">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="860" spans="1:8">
+      <c r="A860">
+        <v>859</v>
+      </c>
+      <c r="B860">
+        <v>3</v>
+      </c>
+      <c r="C860">
+        <v>3</v>
+      </c>
+      <c r="D860" t="s">
+        <v>2057</v>
+      </c>
+      <c r="E860" t="s">
+        <v>2052</v>
+      </c>
+      <c r="F860" t="s">
+        <v>2056</v>
+      </c>
+      <c r="G860">
+        <v>0</v>
+      </c>
+      <c r="H860">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="861" spans="1:8">
+      <c r="A861">
+        <v>860</v>
+      </c>
+      <c r="B861">
+        <v>3</v>
+      </c>
+      <c r="C861">
+        <v>3</v>
+      </c>
+      <c r="D861" t="s">
+        <v>2058</v>
+      </c>
+      <c r="E861" t="s">
+        <v>2052</v>
+      </c>
+      <c r="F861" t="s">
+        <v>2059</v>
+      </c>
+      <c r="G861">
+        <v>0</v>
+      </c>
+      <c r="H861">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="862" spans="1:8">
+      <c r="A862">
+        <v>861</v>
+      </c>
+      <c r="B862">
+        <v>3</v>
+      </c>
+      <c r="C862">
+        <v>3</v>
+      </c>
+      <c r="D862" t="s">
+        <v>2060</v>
+      </c>
+      <c r="E862" t="s">
+        <v>2052</v>
+      </c>
+      <c r="F862" t="s">
+        <v>2061</v>
+      </c>
+      <c r="G862">
+        <v>0</v>
+      </c>
+      <c r="H862">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="863" spans="1:8">
+      <c r="A863">
+        <v>862</v>
+      </c>
+      <c r="B863">
+        <v>3</v>
+      </c>
+      <c r="C863">
+        <v>3</v>
+      </c>
+      <c r="D863" t="s">
+        <v>2062</v>
+      </c>
+      <c r="E863" t="s">
+        <v>945</v>
+      </c>
+      <c r="F863" t="s">
+        <v>2063</v>
+      </c>
+      <c r="G863">
+        <v>0</v>
+      </c>
+      <c r="H863">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="864" spans="1:8">
+      <c r="A864">
+        <v>863</v>
+      </c>
+      <c r="B864">
+        <v>3</v>
+      </c>
+      <c r="C864">
+        <v>3</v>
+      </c>
+      <c r="D864" t="s">
+        <v>2064</v>
+      </c>
+      <c r="E864" t="s">
+        <v>2052</v>
+      </c>
+      <c r="F864" t="s">
+        <v>2063</v>
+      </c>
+      <c r="G864">
+        <v>0</v>
+      </c>
+      <c r="H864">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="865" spans="1:8">
+      <c r="A865">
+        <v>864</v>
+      </c>
+      <c r="B865">
+        <v>3</v>
+      </c>
+      <c r="C865">
+        <v>3</v>
+      </c>
+      <c r="D865" t="s">
+        <v>2065</v>
+      </c>
+      <c r="E865" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F865" t="s">
+        <v>2067</v>
+      </c>
+      <c r="G865">
+        <v>0</v>
+      </c>
+      <c r="H865">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="866" spans="1:8">
+      <c r="A866">
+        <v>865</v>
+      </c>
+      <c r="B866">
+        <v>3</v>
+      </c>
+      <c r="C866">
+        <v>3</v>
+      </c>
+      <c r="D866" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E866" t="s">
+        <v>2069</v>
+      </c>
+      <c r="F866" t="s">
+        <v>2070</v>
+      </c>
+      <c r="G866">
+        <v>0</v>
+      </c>
+      <c r="H866">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="867" spans="1:8">
+      <c r="A867">
+        <v>866</v>
+      </c>
+      <c r="B867">
+        <v>3</v>
+      </c>
+      <c r="C867">
+        <v>3</v>
+      </c>
+      <c r="D867" t="s">
+        <v>2071</v>
+      </c>
+      <c r="E867" t="s">
+        <v>2072</v>
+      </c>
+      <c r="F867" t="s">
+        <v>2073</v>
+      </c>
+      <c r="G867">
+        <v>0</v>
+      </c>
+      <c r="H867">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="868" spans="1:8">
+      <c r="A868">
+        <v>867</v>
+      </c>
+      <c r="B868">
+        <v>3</v>
+      </c>
+      <c r="C868">
+        <v>3</v>
+      </c>
+      <c r="D868" t="s">
+        <v>2074</v>
+      </c>
+      <c r="E868" t="s">
+        <v>2075</v>
+      </c>
+      <c r="F868" t="s">
+        <v>2076</v>
+      </c>
+      <c r="G868">
+        <v>0</v>
+      </c>
+      <c r="H868">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="869" spans="1:8">
+      <c r="A869">
+        <v>868</v>
+      </c>
+      <c r="B869">
+        <v>3</v>
+      </c>
+      <c r="C869">
+        <v>3</v>
+      </c>
+      <c r="D869" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E869" t="s">
+        <v>2078</v>
+      </c>
+      <c r="F869" t="s">
+        <v>2079</v>
+      </c>
+      <c r="G869">
+        <v>0</v>
+      </c>
+      <c r="H869">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="870" spans="1:8">
+      <c r="A870">
+        <v>869</v>
+      </c>
+      <c r="B870">
+        <v>3</v>
+      </c>
+      <c r="C870">
+        <v>3</v>
+      </c>
+      <c r="D870" t="s">
+        <v>2080</v>
+      </c>
+      <c r="E870" t="s">
+        <v>2078</v>
+      </c>
+      <c r="F870" t="s">
+        <v>959</v>
+      </c>
+      <c r="G870">
+        <v>0</v>
+      </c>
+      <c r="H870">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="871" spans="1:8">
+      <c r="A871">
+        <v>870</v>
+      </c>
+      <c r="B871">
+        <v>3</v>
+      </c>
+      <c r="C871">
+        <v>3</v>
+      </c>
+      <c r="D871" t="s">
+        <v>2081</v>
+      </c>
+      <c r="E871" t="s">
+        <v>2082</v>
+      </c>
+      <c r="F871" t="s">
+        <v>2083</v>
+      </c>
+      <c r="G871">
+        <v>0</v>
+      </c>
+      <c r="H871">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="872" spans="1:8">
+      <c r="A872">
+        <v>871</v>
+      </c>
+      <c r="B872">
+        <v>3</v>
+      </c>
+      <c r="C872">
+        <v>3</v>
+      </c>
+      <c r="D872" t="s">
+        <v>2084</v>
+      </c>
+      <c r="E872" t="s">
+        <v>2082</v>
+      </c>
+      <c r="F872" t="s">
+        <v>2085</v>
+      </c>
+      <c r="G872">
+        <v>0</v>
+      </c>
+      <c r="H872">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="873" spans="1:8">
+      <c r="A873">
+        <v>872</v>
+      </c>
+      <c r="B873">
+        <v>3</v>
+      </c>
+      <c r="C873">
+        <v>3</v>
+      </c>
+      <c r="D873" t="s">
+        <v>2086</v>
+      </c>
+      <c r="E873" t="s">
+        <v>2085</v>
+      </c>
+      <c r="F873" t="s">
+        <v>2087</v>
+      </c>
+      <c r="G873">
+        <v>0</v>
+      </c>
+      <c r="H873">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="874" spans="1:8">
+      <c r="A874">
+        <v>873</v>
+      </c>
+      <c r="B874">
+        <v>3</v>
+      </c>
+      <c r="C874">
+        <v>3</v>
+      </c>
+      <c r="D874" t="s">
+        <v>2088</v>
+      </c>
+      <c r="E874" t="s">
+        <v>2089</v>
+      </c>
+      <c r="F874" t="s">
+        <v>2090</v>
+      </c>
+      <c r="G874">
+        <v>0</v>
+      </c>
+      <c r="H874">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="875" spans="1:8">
+      <c r="A875">
+        <v>874</v>
+      </c>
+      <c r="B875">
+        <v>3</v>
+      </c>
+      <c r="C875">
+        <v>3</v>
+      </c>
+      <c r="D875" t="s">
+        <v>2091</v>
+      </c>
+      <c r="E875" t="s">
+        <v>2089</v>
+      </c>
+      <c r="F875" t="s">
+        <v>2092</v>
+      </c>
+      <c r="G875">
+        <v>0</v>
+      </c>
+      <c r="H875">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="876" spans="1:8">
+      <c r="A876">
+        <v>875</v>
+      </c>
+      <c r="B876">
+        <v>3</v>
+      </c>
+      <c r="C876">
+        <v>3</v>
+      </c>
+      <c r="D876" t="s">
+        <v>2093</v>
+      </c>
+      <c r="E876" t="s">
+        <v>2094</v>
+      </c>
+      <c r="F876" t="s">
+        <v>970</v>
+      </c>
+      <c r="G876">
+        <v>0</v>
+      </c>
+      <c r="H876">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="877" spans="1:8">
+      <c r="A877">
+        <v>876</v>
+      </c>
+      <c r="B877">
+        <v>3</v>
+      </c>
+      <c r="C877">
+        <v>3</v>
+      </c>
+      <c r="D877" t="s">
+        <v>2095</v>
+      </c>
+      <c r="E877" t="s">
+        <v>2096</v>
+      </c>
+      <c r="F877" t="s">
+        <v>2097</v>
+      </c>
+      <c r="G877">
+        <v>0</v>
+      </c>
+      <c r="H877">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="878" spans="1:8">
+      <c r="A878">
+        <v>877</v>
+      </c>
+      <c r="B878">
+        <v>3</v>
+      </c>
+      <c r="C878">
+        <v>3</v>
+      </c>
+      <c r="D878" t="s">
+        <v>2098</v>
+      </c>
+      <c r="E878" t="s">
+        <v>2096</v>
+      </c>
+      <c r="F878" t="s">
+        <v>2099</v>
+      </c>
+      <c r="G878">
+        <v>0</v>
+      </c>
+      <c r="H878">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="879" spans="1:8">
+      <c r="A879">
+        <v>878</v>
+      </c>
+      <c r="B879">
+        <v>3</v>
+      </c>
+      <c r="C879">
+        <v>3</v>
+      </c>
+      <c r="D879" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E879" t="s">
+        <v>2100</v>
+      </c>
+      <c r="F879" t="s">
+        <v>972</v>
+      </c>
+      <c r="G879">
+        <v>0</v>
+      </c>
+      <c r="H879">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="880" spans="1:8">
+      <c r="A880">
+        <v>879</v>
+      </c>
+      <c r="B880">
+        <v>3</v>
+      </c>
+      <c r="C880">
+        <v>3</v>
+      </c>
+      <c r="D880" t="s">
+        <v>2101</v>
+      </c>
+      <c r="E880" t="s">
+        <v>2102</v>
+      </c>
+      <c r="F880" t="s">
+        <v>2103</v>
+      </c>
+      <c r="G880">
+        <v>0</v>
+      </c>
+      <c r="H880">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="881" spans="1:8">
+      <c r="A881">
+        <v>880</v>
+      </c>
+      <c r="B881">
+        <v>3</v>
+      </c>
+      <c r="C881">
+        <v>3</v>
+      </c>
+      <c r="D881" t="s">
+        <v>2104</v>
+      </c>
+      <c r="E881" t="s">
+        <v>2105</v>
+      </c>
+      <c r="F881" t="s">
+        <v>2103</v>
+      </c>
+      <c r="G881">
+        <v>0</v>
+      </c>
+      <c r="H881">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="882" spans="1:8">
+      <c r="A882">
+        <v>881</v>
+      </c>
+      <c r="B882">
+        <v>3</v>
+      </c>
+      <c r="C882">
+        <v>3</v>
+      </c>
+      <c r="D882" t="s">
+        <v>913</v>
+      </c>
+      <c r="E882" t="s">
+        <v>2106</v>
+      </c>
+      <c r="F882" t="s">
+        <v>2103</v>
+      </c>
+      <c r="G882">
+        <v>0</v>
+      </c>
+      <c r="H882">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="883" spans="1:8">
+      <c r="A883">
+        <v>882</v>
+      </c>
+      <c r="B883">
+        <v>3</v>
+      </c>
+      <c r="C883">
+        <v>3</v>
+      </c>
+      <c r="D883" t="s">
+        <v>2107</v>
+      </c>
+      <c r="E883" t="s">
+        <v>2108</v>
+      </c>
+      <c r="F883" t="s">
+        <v>2109</v>
+      </c>
+      <c r="G883">
+        <v>0</v>
+      </c>
+      <c r="H883">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="884" spans="1:8">
+      <c r="A884">
+        <v>883</v>
+      </c>
+      <c r="B884">
+        <v>3</v>
+      </c>
+      <c r="C884">
+        <v>3</v>
+      </c>
+      <c r="D884" t="s">
+        <v>2110</v>
+      </c>
+      <c r="E884" t="s">
+        <v>2108</v>
+      </c>
+      <c r="F884" t="s">
+        <v>2111</v>
+      </c>
+      <c r="G884">
+        <v>0</v>
+      </c>
+      <c r="H884">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="885" spans="1:8">
+      <c r="A885">
+        <v>884</v>
+      </c>
+      <c r="B885">
+        <v>3</v>
+      </c>
+      <c r="C885">
+        <v>3</v>
+      </c>
+      <c r="D885" t="s">
+        <v>2112</v>
+      </c>
+      <c r="E885" t="s">
+        <v>982</v>
+      </c>
+      <c r="F885" t="s">
+        <v>2111</v>
+      </c>
+      <c r="G885">
+        <v>0</v>
+      </c>
+      <c r="H885">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="886" spans="1:8">
+      <c r="A886">
+        <v>885</v>
+      </c>
+      <c r="B886">
+        <v>3</v>
+      </c>
+      <c r="C886">
+        <v>3</v>
+      </c>
+      <c r="D886" t="s">
+        <v>2113</v>
+      </c>
+      <c r="E886" t="s">
+        <v>2114</v>
+      </c>
+      <c r="F886" t="s">
+        <v>2115</v>
+      </c>
+      <c r="G886">
+        <v>0</v>
+      </c>
+      <c r="H886">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="887" spans="1:8">
+      <c r="A887">
+        <v>886</v>
+      </c>
+      <c r="B887">
+        <v>3</v>
+      </c>
+      <c r="C887">
+        <v>3</v>
+      </c>
+      <c r="D887" t="s">
+        <v>2116</v>
+      </c>
+      <c r="E887" t="s">
+        <v>2117</v>
+      </c>
+      <c r="F887" t="s">
+        <v>2118</v>
+      </c>
+      <c r="G887">
+        <v>0</v>
+      </c>
+      <c r="H887">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="888" spans="1:8">
+      <c r="A888">
+        <v>887</v>
+      </c>
+      <c r="B888">
+        <v>3</v>
+      </c>
+      <c r="C888">
+        <v>3</v>
+      </c>
+      <c r="D888" t="s">
+        <v>2119</v>
+      </c>
+      <c r="E888" t="s">
+        <v>2120</v>
+      </c>
+      <c r="F888" t="s">
+        <v>2121</v>
+      </c>
+      <c r="G888">
+        <v>0</v>
+      </c>
+      <c r="H888">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="889" spans="1:8">
+      <c r="A889">
+        <v>888</v>
+      </c>
+      <c r="B889">
+        <v>3</v>
+      </c>
+      <c r="C889">
+        <v>3</v>
+      </c>
+      <c r="D889" t="s">
+        <v>2122</v>
+      </c>
+      <c r="E889" t="s">
+        <v>2120</v>
+      </c>
+      <c r="F889" t="s">
+        <v>2123</v>
+      </c>
+      <c r="G889">
+        <v>0</v>
+      </c>
+      <c r="H889">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="890" spans="1:8">
+      <c r="A890">
+        <v>889</v>
+      </c>
+      <c r="B890">
+        <v>3</v>
+      </c>
+      <c r="C890">
+        <v>3</v>
+      </c>
+      <c r="D890" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E890" t="s">
+        <v>2124</v>
+      </c>
+      <c r="F890" t="s">
+        <v>2125</v>
+      </c>
+      <c r="G890">
+        <v>0</v>
+      </c>
+      <c r="H890">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="891" spans="1:8">
+      <c r="A891">
+        <v>890</v>
+      </c>
+      <c r="B891">
+        <v>3</v>
+      </c>
+      <c r="C891">
+        <v>3</v>
+      </c>
+      <c r="D891" t="s">
+        <v>2126</v>
+      </c>
+      <c r="E891" t="s">
+        <v>2127</v>
+      </c>
+      <c r="F891" t="s">
+        <v>2128</v>
+      </c>
+      <c r="G891">
+        <v>0</v>
+      </c>
+      <c r="H891">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="892" spans="1:8">
+      <c r="A892">
+        <v>891</v>
+      </c>
+      <c r="B892">
+        <v>3</v>
+      </c>
+      <c r="C892">
+        <v>3</v>
+      </c>
+      <c r="D892" t="s">
+        <v>2129</v>
+      </c>
+      <c r="E892" t="s">
+        <v>2130</v>
+      </c>
+      <c r="F892" t="s">
+        <v>2131</v>
+      </c>
+      <c r="G892">
+        <v>0</v>
+      </c>
+      <c r="H892">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="893" spans="1:8">
+      <c r="A893">
+        <v>892</v>
+      </c>
+      <c r="B893">
+        <v>3</v>
+      </c>
+      <c r="C893">
+        <v>3</v>
+      </c>
+      <c r="D893" t="s">
+        <v>2132</v>
+      </c>
+      <c r="E893" t="s">
+        <v>2130</v>
+      </c>
+      <c r="F893" t="s">
+        <v>2133</v>
+      </c>
+      <c r="G893">
+        <v>0</v>
+      </c>
+      <c r="H893">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="894" spans="1:8">
+      <c r="A894">
+        <v>893</v>
+      </c>
+      <c r="B894">
+        <v>3</v>
+      </c>
+      <c r="C894">
+        <v>3</v>
+      </c>
+      <c r="D894" t="s">
+        <v>2134</v>
+      </c>
+      <c r="E894" t="s">
+        <v>2135</v>
+      </c>
+      <c r="F894" t="s">
+        <v>2131</v>
+      </c>
+      <c r="G894">
+        <v>0</v>
+      </c>
+      <c r="H894">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="895" spans="1:8">
+      <c r="A895">
+        <v>894</v>
+      </c>
+      <c r="B895">
+        <v>3</v>
+      </c>
+      <c r="C895">
+        <v>3</v>
+      </c>
+      <c r="D895" t="s">
+        <v>2136</v>
+      </c>
+      <c r="E895" t="s">
+        <v>2137</v>
+      </c>
+      <c r="F895" t="s">
+        <v>2138</v>
+      </c>
+      <c r="G895">
+        <v>0</v>
+      </c>
+      <c r="H895">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="896" spans="1:8">
+      <c r="A896">
+        <v>895</v>
+      </c>
+      <c r="B896">
+        <v>3</v>
+      </c>
+      <c r="C896">
+        <v>3</v>
+      </c>
+      <c r="D896" t="s">
+        <v>474</v>
+      </c>
+      <c r="E896" t="s">
+        <v>2139</v>
+      </c>
+      <c r="F896" t="s">
+        <v>2140</v>
+      </c>
+      <c r="G896">
+        <v>0</v>
+      </c>
+      <c r="H896">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="897" spans="1:8">
+      <c r="A897">
+        <v>896</v>
+      </c>
+      <c r="B897">
+        <v>3</v>
+      </c>
+      <c r="C897">
+        <v>3</v>
+      </c>
+      <c r="D897" t="s">
+        <v>2141</v>
+      </c>
+      <c r="E897" t="s">
+        <v>2142</v>
+      </c>
+      <c r="F897" t="s">
+        <v>2143</v>
+      </c>
+      <c r="G897">
+        <v>0</v>
+      </c>
+      <c r="H897">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="898" spans="1:8">
+      <c r="A898">
+        <v>897</v>
+      </c>
+      <c r="B898">
+        <v>3</v>
+      </c>
+      <c r="C898">
+        <v>3</v>
+      </c>
+      <c r="D898" t="s">
+        <v>2144</v>
+      </c>
+      <c r="E898" t="s">
+        <v>2142</v>
+      </c>
+      <c r="F898" t="s">
+        <v>2145</v>
+      </c>
+      <c r="G898">
+        <v>0</v>
+      </c>
+      <c r="H898">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="899" spans="1:8">
+      <c r="A899">
+        <v>898</v>
+      </c>
+      <c r="B899">
+        <v>3</v>
+      </c>
+      <c r="C899">
+        <v>3</v>
+      </c>
+      <c r="D899" t="s">
+        <v>2146</v>
+      </c>
+      <c r="E899" t="s">
+        <v>2147</v>
+      </c>
+      <c r="F899" t="s">
+        <v>2148</v>
+      </c>
+      <c r="G899">
+        <v>0</v>
+      </c>
+      <c r="H899">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="900" spans="1:8">
+      <c r="A900">
+        <v>899</v>
+      </c>
+      <c r="B900">
+        <v>3</v>
+      </c>
+      <c r="C900">
+        <v>3</v>
+      </c>
+      <c r="D900" t="s">
+        <v>2149</v>
+      </c>
+      <c r="E900" t="s">
+        <v>2150</v>
+      </c>
+      <c r="F900" t="s">
+        <v>2151</v>
+      </c>
+      <c r="G900">
+        <v>0</v>
+      </c>
+      <c r="H900">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="901" spans="1:8">
+      <c r="A901">
+        <v>900</v>
+      </c>
+      <c r="B901">
+        <v>3</v>
+      </c>
+      <c r="C901">
+        <v>3</v>
+      </c>
+      <c r="D901" t="s">
+        <v>2152</v>
+      </c>
+      <c r="E901" t="s">
+        <v>2150</v>
+      </c>
+      <c r="F901" t="s">
+        <v>2153</v>
+      </c>
+      <c r="G901">
+        <v>0</v>
+      </c>
+      <c r="H901">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="902" spans="1:8">
+      <c r="A902">
+        <v>901</v>
+      </c>
+      <c r="B902">
+        <v>3</v>
+      </c>
+      <c r="C902">
+        <v>3</v>
+      </c>
+      <c r="D902" t="s">
+        <v>2154</v>
+      </c>
+      <c r="E902" t="s">
+        <v>2147</v>
+      </c>
+      <c r="F902" t="s">
+        <v>2153</v>
+      </c>
+      <c r="G902">
+        <v>0</v>
+      </c>
+      <c r="H902">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="903" spans="1:8">
+      <c r="A903">
+        <v>902</v>
+      </c>
+      <c r="B903">
+        <v>3</v>
+      </c>
+      <c r="C903">
+        <v>3</v>
+      </c>
+      <c r="D903" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E903" t="s">
+        <v>2156</v>
+      </c>
+      <c r="F903" t="s">
+        <v>2157</v>
+      </c>
+      <c r="G903">
+        <v>0</v>
+      </c>
+      <c r="H903">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="904" spans="1:8">
+      <c r="A904">
+        <v>903</v>
+      </c>
+      <c r="B904">
+        <v>3</v>
+      </c>
+      <c r="C904">
+        <v>3</v>
+      </c>
+      <c r="D904" t="s">
+        <v>2158</v>
+      </c>
+      <c r="E904" t="s">
+        <v>2159</v>
+      </c>
+      <c r="F904" t="s">
+        <v>2160</v>
+      </c>
+      <c r="G904">
+        <v>0</v>
+      </c>
+      <c r="H904">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="905" spans="1:8">
+      <c r="A905">
+        <v>904</v>
+      </c>
+      <c r="B905">
+        <v>3</v>
+      </c>
+      <c r="C905">
+        <v>3</v>
+      </c>
+      <c r="D905" t="s">
+        <v>2161</v>
+      </c>
+      <c r="E905" t="s">
+        <v>2162</v>
+      </c>
+      <c r="F905" t="s">
+        <v>2163</v>
+      </c>
+      <c r="G905">
+        <v>0</v>
+      </c>
+      <c r="H905">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="906" spans="1:8">
+      <c r="A906">
+        <v>905</v>
+      </c>
+      <c r="B906">
+        <v>3</v>
+      </c>
+      <c r="C906">
+        <v>3</v>
+      </c>
+      <c r="D906" t="s">
+        <v>2164</v>
+      </c>
+      <c r="E906" t="s">
+        <v>2165</v>
+      </c>
+      <c r="F906" t="s">
+        <v>2163</v>
+      </c>
+      <c r="G906">
+        <v>0</v>
+      </c>
+      <c r="H906">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="907" spans="1:8">
+      <c r="A907">
+        <v>906</v>
+      </c>
+      <c r="B907">
+        <v>3</v>
+      </c>
+      <c r="C907">
+        <v>3</v>
+      </c>
+      <c r="D907" t="s">
+        <v>2166</v>
+      </c>
+      <c r="E907" t="s">
+        <v>2167</v>
+      </c>
+      <c r="F907" t="s">
+        <v>2168</v>
+      </c>
+      <c r="G907">
+        <v>0</v>
+      </c>
+      <c r="H907">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="908" spans="1:8">
+      <c r="A908">
+        <v>907</v>
+      </c>
+      <c r="B908">
+        <v>3</v>
+      </c>
+      <c r="C908">
+        <v>3</v>
+      </c>
+      <c r="D908" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E908" t="s">
+        <v>2167</v>
+      </c>
+      <c r="F908" t="s">
+        <v>2170</v>
+      </c>
+      <c r="G908">
+        <v>0</v>
+      </c>
+      <c r="H908">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="909" spans="1:8">
+      <c r="A909">
+        <v>908</v>
+      </c>
+      <c r="B909">
+        <v>3</v>
+      </c>
+      <c r="C909">
+        <v>3</v>
+      </c>
+      <c r="D909" t="s">
+        <v>2171</v>
+      </c>
+      <c r="E909" t="s">
+        <v>2172</v>
+      </c>
+      <c r="F909" t="s">
+        <v>2170</v>
+      </c>
+      <c r="G909">
+        <v>0</v>
+      </c>
+      <c r="H909">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="910" spans="1:8">
+      <c r="A910">
+        <v>909</v>
+      </c>
+      <c r="B910">
+        <v>3</v>
+      </c>
+      <c r="C910">
+        <v>3</v>
+      </c>
+      <c r="D910" t="s">
+        <v>2173</v>
+      </c>
+      <c r="E910" t="s">
+        <v>2174</v>
+      </c>
+      <c r="F910" t="s">
+        <v>2170</v>
+      </c>
+      <c r="G910">
+        <v>0</v>
+      </c>
+      <c r="H910">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="911" spans="1:8">
+      <c r="A911">
+        <v>910</v>
+      </c>
+      <c r="B911">
+        <v>3</v>
+      </c>
+      <c r="C911">
+        <v>3</v>
+      </c>
+      <c r="D911" t="s">
+        <v>2175</v>
+      </c>
+      <c r="E911" t="s">
+        <v>2176</v>
+      </c>
+      <c r="F911" t="s">
+        <v>2177</v>
+      </c>
+      <c r="G911">
+        <v>0</v>
+      </c>
+      <c r="H911">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="912" spans="1:8">
+      <c r="A912">
+        <v>911</v>
+      </c>
+      <c r="B912">
+        <v>3</v>
+      </c>
+      <c r="C912">
+        <v>3</v>
+      </c>
+      <c r="D912" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E912" t="s">
+        <v>2176</v>
+      </c>
+      <c r="F912" t="s">
+        <v>2178</v>
+      </c>
+      <c r="G912">
+        <v>0</v>
+      </c>
+      <c r="H912">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="913" spans="1:8">
+      <c r="A913">
+        <v>912</v>
+      </c>
+      <c r="B913">
+        <v>3</v>
+      </c>
+      <c r="C913">
+        <v>3</v>
+      </c>
+      <c r="D913" t="s">
+        <v>690</v>
+      </c>
+      <c r="E913" t="s">
+        <v>2179</v>
+      </c>
+      <c r="F913" t="s">
+        <v>2177</v>
+      </c>
+      <c r="G913">
+        <v>0</v>
+      </c>
+      <c r="H913">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="914" spans="1:8">
+      <c r="A914">
+        <v>913</v>
+      </c>
+      <c r="B914">
+        <v>3</v>
+      </c>
+      <c r="C914">
+        <v>3</v>
+      </c>
+      <c r="D914" t="s">
+        <v>2180</v>
+      </c>
+      <c r="E914" t="s">
+        <v>2179</v>
+      </c>
+      <c r="F914" t="s">
+        <v>2181</v>
+      </c>
+      <c r="G914">
+        <v>0</v>
+      </c>
+      <c r="H914">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="915" spans="1:8">
+      <c r="A915">
+        <v>914</v>
+      </c>
+      <c r="B915">
+        <v>3</v>
+      </c>
+      <c r="C915">
+        <v>3</v>
+      </c>
+      <c r="D915" t="s">
+        <v>2182</v>
+      </c>
+      <c r="E915" t="s">
+        <v>2183</v>
+      </c>
+      <c r="F915" t="s">
+        <v>2184</v>
+      </c>
+      <c r="G915">
+        <v>0</v>
+      </c>
+      <c r="H915">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="916" spans="1:8">
+      <c r="A916">
+        <v>915</v>
+      </c>
+      <c r="B916">
+        <v>3</v>
+      </c>
+      <c r="C916">
+        <v>3</v>
+      </c>
+      <c r="D916" t="s">
+        <v>2185</v>
+      </c>
+      <c r="E916" t="s">
+        <v>2183</v>
+      </c>
+      <c r="F916" t="s">
+        <v>2186</v>
+      </c>
+      <c r="G916">
+        <v>0</v>
+      </c>
+      <c r="H916">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="917" spans="1:8">
+      <c r="A917">
+        <v>916</v>
+      </c>
+      <c r="B917">
+        <v>3</v>
+      </c>
+      <c r="C917">
+        <v>3</v>
+      </c>
+      <c r="D917" t="s">
+        <v>2187</v>
+      </c>
+      <c r="E917" t="s">
+        <v>2181</v>
+      </c>
+      <c r="F917" t="s">
+        <v>2188</v>
+      </c>
+      <c r="G917">
+        <v>0</v>
+      </c>
+      <c r="H917">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="918" spans="1:8">
+      <c r="A918">
+        <v>917</v>
+      </c>
+      <c r="B918">
+        <v>3</v>
+      </c>
+      <c r="C918">
+        <v>3</v>
+      </c>
+      <c r="D918" t="s">
+        <v>2189</v>
+      </c>
+      <c r="E918" t="s">
+        <v>2184</v>
+      </c>
+      <c r="F918" t="s">
+        <v>2190</v>
+      </c>
+      <c r="G918">
+        <v>0</v>
+      </c>
+      <c r="H918">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="919" spans="1:8">
+      <c r="A919">
+        <v>918</v>
+      </c>
+      <c r="B919">
+        <v>3</v>
+      </c>
+      <c r="C919">
+        <v>3</v>
+      </c>
+      <c r="D919" t="s">
+        <v>2191</v>
+      </c>
+      <c r="E919" t="s">
+        <v>2192</v>
+      </c>
+      <c r="F919" t="s">
+        <v>2190</v>
+      </c>
+      <c r="G919">
+        <v>0</v>
+      </c>
+      <c r="H919">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="920" spans="1:8">
+      <c r="A920">
+        <v>919</v>
+      </c>
+      <c r="B920">
+        <v>3</v>
+      </c>
+      <c r="C920">
+        <v>3</v>
+      </c>
+      <c r="D920" t="s">
+        <v>2193</v>
+      </c>
+      <c r="E920" t="s">
+        <v>2194</v>
+      </c>
+      <c r="F920" t="s">
+        <v>2195</v>
+      </c>
+      <c r="G920">
+        <v>0</v>
+      </c>
+      <c r="H920">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="921" spans="1:8">
+      <c r="A921">
+        <v>920</v>
+      </c>
+      <c r="B921">
+        <v>3</v>
+      </c>
+      <c r="C921">
+        <v>3</v>
+      </c>
+      <c r="D921" t="s">
+        <v>2196</v>
+      </c>
+      <c r="E921" t="s">
+        <v>2194</v>
+      </c>
+      <c r="F921" t="s">
+        <v>2197</v>
+      </c>
+      <c r="G921">
+        <v>0</v>
+      </c>
+      <c r="H921">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="922" spans="1:8">
+      <c r="A922">
+        <v>921</v>
+      </c>
+      <c r="B922">
+        <v>3</v>
+      </c>
+      <c r="C922">
+        <v>3</v>
+      </c>
+      <c r="D922" t="s">
+        <v>2198</v>
+      </c>
+      <c r="E922" t="s">
+        <v>2197</v>
+      </c>
+      <c r="F922" t="s">
+        <v>2199</v>
+      </c>
+      <c r="G922">
+        <v>0</v>
+      </c>
+      <c r="H922">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="923" spans="1:8">
+      <c r="A923">
+        <v>922</v>
+      </c>
+      <c r="B923">
+        <v>3</v>
+      </c>
+      <c r="C923">
+        <v>3</v>
+      </c>
+      <c r="D923" t="s">
+        <v>178</v>
+      </c>
+      <c r="E923" t="s">
+        <v>2200</v>
+      </c>
+      <c r="F923" t="s">
+        <v>2201</v>
+      </c>
+      <c r="G923">
+        <v>0</v>
+      </c>
+      <c r="H923">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="924" spans="1:8">
+      <c r="A924">
+        <v>923</v>
+      </c>
+      <c r="B924">
+        <v>3</v>
+      </c>
+      <c r="C924">
+        <v>3</v>
+      </c>
+      <c r="D924" t="s">
+        <v>175</v>
+      </c>
+      <c r="E924" t="s">
+        <v>2202</v>
+      </c>
+      <c r="F924" t="s">
+        <v>2203</v>
+      </c>
+      <c r="G924">
+        <v>0</v>
+      </c>
+      <c r="H924">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="925" spans="1:8">
+      <c r="A925">
+        <v>924</v>
+      </c>
+      <c r="B925">
+        <v>3</v>
+      </c>
+      <c r="C925">
+        <v>3</v>
+      </c>
+      <c r="D925" t="s">
+        <v>2204</v>
+      </c>
+      <c r="E925" t="s">
+        <v>2200</v>
+      </c>
+      <c r="F925" t="s">
+        <v>2205</v>
+      </c>
+      <c r="G925">
+        <v>0</v>
+      </c>
+      <c r="H925">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="926" spans="1:8">
+      <c r="A926">
+        <v>925</v>
+      </c>
+      <c r="B926">
+        <v>3</v>
+      </c>
+      <c r="C926">
+        <v>3</v>
+      </c>
+      <c r="D926" t="s">
+        <v>2206</v>
+      </c>
+      <c r="E926" t="s">
+        <v>2207</v>
+      </c>
+      <c r="F926" t="s">
+        <v>2205</v>
+      </c>
+      <c r="G926">
+        <v>0</v>
+      </c>
+      <c r="H926">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="927" spans="1:8">
+      <c r="A927">
+        <v>926</v>
+      </c>
+      <c r="B927">
+        <v>3</v>
+      </c>
+      <c r="C927">
+        <v>3</v>
+      </c>
+      <c r="D927" t="s">
+        <v>2208</v>
+      </c>
+      <c r="E927" t="s">
+        <v>2209</v>
+      </c>
+      <c r="F927" t="s">
+        <v>2210</v>
+      </c>
+      <c r="G927">
+        <v>0</v>
+      </c>
+      <c r="H927">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="928" spans="1:8">
+      <c r="A928">
+        <v>927</v>
+      </c>
+      <c r="B928">
+        <v>3</v>
+      </c>
+      <c r="C928">
+        <v>3</v>
+      </c>
+      <c r="D928" t="s">
+        <v>2211</v>
+      </c>
+      <c r="E928" t="s">
+        <v>2209</v>
+      </c>
+      <c r="F928" t="s">
+        <v>2212</v>
+      </c>
+      <c r="G928">
+        <v>0</v>
+      </c>
+      <c r="H928">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="929" spans="1:8">
+      <c r="A929">
+        <v>928</v>
+      </c>
+      <c r="B929">
+        <v>3</v>
+      </c>
+      <c r="C929">
+        <v>3</v>
+      </c>
+      <c r="D929" t="s">
+        <v>2213</v>
+      </c>
+      <c r="E929" t="s">
+        <v>2209</v>
+      </c>
+      <c r="F929" t="s">
+        <v>2214</v>
+      </c>
+      <c r="G929">
+        <v>0</v>
+      </c>
+      <c r="H929">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="930" spans="1:8">
+      <c r="A930">
+        <v>929</v>
+      </c>
+      <c r="B930">
+        <v>3</v>
+      </c>
+      <c r="C930">
+        <v>3</v>
+      </c>
+      <c r="D930" t="s">
+        <v>161</v>
+      </c>
+      <c r="E930" t="s">
+        <v>2215</v>
+      </c>
+      <c r="F930" t="s">
+        <v>2216</v>
+      </c>
+      <c r="G930">
+        <v>0</v>
+      </c>
+      <c r="H930">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="931" spans="1:8">
+      <c r="A931">
+        <v>930</v>
+      </c>
+      <c r="B931">
+        <v>3</v>
+      </c>
+      <c r="C931">
+        <v>3</v>
+      </c>
+      <c r="D931" t="s">
+        <v>2217</v>
+      </c>
+      <c r="E931" t="s">
+        <v>2218</v>
+      </c>
+      <c r="F931" t="s">
+        <v>2212</v>
+      </c>
+      <c r="G931">
+        <v>0</v>
+      </c>
+      <c r="H931">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="932" spans="1:8">
+      <c r="A932">
+        <v>931</v>
+      </c>
+      <c r="B932">
+        <v>3</v>
+      </c>
+      <c r="C932">
+        <v>3</v>
+      </c>
+      <c r="D932" t="s">
+        <v>2219</v>
+      </c>
+      <c r="E932" t="s">
+        <v>2218</v>
+      </c>
+      <c r="F932" t="s">
+        <v>2220</v>
+      </c>
+      <c r="G932">
+        <v>0</v>
+      </c>
+      <c r="H932">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="933" spans="1:8">
+      <c r="A933">
+        <v>932</v>
+      </c>
+      <c r="B933">
+        <v>3</v>
+      </c>
+      <c r="C933">
+        <v>3</v>
+      </c>
+      <c r="D933" t="s">
+        <v>223</v>
+      </c>
+      <c r="E933" t="s">
+        <v>2221</v>
+      </c>
+      <c r="F933" t="s">
+        <v>2222</v>
+      </c>
+      <c r="G933">
+        <v>0</v>
+      </c>
+      <c r="H933">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="934" spans="1:8">
+      <c r="A934">
+        <v>933</v>
+      </c>
+      <c r="B934">
+        <v>3</v>
+      </c>
+      <c r="C934">
+        <v>3</v>
+      </c>
+      <c r="D934" t="s">
+        <v>2223</v>
+      </c>
+      <c r="E934" t="s">
+        <v>2224</v>
+      </c>
+      <c r="F934" t="s">
+        <v>465</v>
+      </c>
+      <c r="G934">
+        <v>0</v>
+      </c>
+      <c r="H934">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="935" spans="1:8">
+      <c r="A935">
+        <v>934</v>
+      </c>
+      <c r="B935">
+        <v>3</v>
+      </c>
+      <c r="C935">
+        <v>3</v>
+      </c>
+      <c r="D935" t="s">
+        <v>2225</v>
+      </c>
+      <c r="E935" t="s">
+        <v>2226</v>
+      </c>
+      <c r="F935" t="s">
+        <v>2227</v>
+      </c>
+      <c r="G935">
+        <v>0</v>
+      </c>
+      <c r="H935">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="936" spans="1:8">
+      <c r="A936">
+        <v>935</v>
+      </c>
+      <c r="B936">
+        <v>3</v>
+      </c>
+      <c r="C936">
+        <v>3</v>
+      </c>
+      <c r="D936" t="s">
+        <v>1577</v>
+      </c>
+      <c r="E936" t="s">
+        <v>2227</v>
+      </c>
+      <c r="F936" t="s">
+        <v>2228</v>
+      </c>
+      <c r="G936">
+        <v>0</v>
+      </c>
+      <c r="H936">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="937" spans="1:8">
+      <c r="A937">
+        <v>936</v>
+      </c>
+      <c r="B937">
+        <v>3</v>
+      </c>
+      <c r="C937">
+        <v>3</v>
+      </c>
+      <c r="D937" t="s">
+        <v>2229</v>
+      </c>
+      <c r="E937" t="s">
+        <v>2230</v>
+      </c>
+      <c r="F937" t="s">
+        <v>2231</v>
+      </c>
+      <c r="G937">
+        <v>0</v>
+      </c>
+      <c r="H937">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="938" spans="1:8">
+      <c r="A938">
+        <v>937</v>
+      </c>
+      <c r="B938">
+        <v>3</v>
+      </c>
+      <c r="C938">
+        <v>3</v>
+      </c>
+      <c r="D938" t="s">
+        <v>2232</v>
+      </c>
+      <c r="E938" t="s">
+        <v>2233</v>
+      </c>
+      <c r="F938" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G938">
+        <v>0</v>
+      </c>
+      <c r="H938">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="939" spans="1:8">
+      <c r="A939">
+        <v>938</v>
+      </c>
+      <c r="B939">
+        <v>3</v>
+      </c>
+      <c r="C939">
+        <v>3</v>
+      </c>
+      <c r="D939" t="s">
+        <v>2234</v>
+      </c>
+      <c r="E939" t="s">
+        <v>2233</v>
+      </c>
+      <c r="F939" t="s">
+        <v>2235</v>
+      </c>
+      <c r="G939">
+        <v>0</v>
+      </c>
+      <c r="H939">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="940" spans="1:8">
+      <c r="A940">
+        <v>939</v>
+      </c>
+      <c r="B940">
+        <v>3</v>
+      </c>
+      <c r="C940">
+        <v>3</v>
+      </c>
+      <c r="D940" t="s">
+        <v>2236</v>
+      </c>
+      <c r="E940" t="s">
+        <v>2237</v>
+      </c>
+      <c r="F940" t="s">
+        <v>2238</v>
+      </c>
+      <c r="G940">
+        <v>0</v>
+      </c>
+      <c r="H940">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="941" spans="1:8">
+      <c r="A941">
+        <v>940</v>
+      </c>
+      <c r="B941">
+        <v>3</v>
+      </c>
+      <c r="C941">
+        <v>3</v>
+      </c>
+      <c r="D941" t="s">
+        <v>2239</v>
+      </c>
+      <c r="E941" t="s">
+        <v>2240</v>
+      </c>
+      <c r="F941" t="s">
+        <v>490</v>
+      </c>
+      <c r="G941">
+        <v>0</v>
+      </c>
+      <c r="H941">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="942" spans="1:8">
+      <c r="A942">
+        <v>941</v>
+      </c>
+      <c r="B942">
+        <v>3</v>
+      </c>
+      <c r="C942">
+        <v>3</v>
+      </c>
+      <c r="D942" t="s">
+        <v>2241</v>
+      </c>
+      <c r="E942" t="s">
+        <v>2240</v>
+      </c>
+      <c r="F942" t="s">
+        <v>1266</v>
+      </c>
+      <c r="G942">
+        <v>0</v>
+      </c>
+      <c r="H942">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="943" spans="1:8">
+      <c r="A943">
+        <v>942</v>
+      </c>
+      <c r="B943">
+        <v>3</v>
+      </c>
+      <c r="C943">
+        <v>3</v>
+      </c>
+      <c r="D943" t="s">
+        <v>2242</v>
+      </c>
+      <c r="E943" t="s">
+        <v>2243</v>
+      </c>
+      <c r="F943" t="s">
+        <v>2244</v>
+      </c>
+      <c r="G943">
+        <v>0</v>
+      </c>
+      <c r="H943">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="944" spans="1:8">
+      <c r="A944">
+        <v>943</v>
+      </c>
+      <c r="B944">
+        <v>3</v>
+      </c>
+      <c r="C944">
+        <v>3</v>
+      </c>
+      <c r="D944" t="s">
+        <v>2245</v>
+      </c>
+      <c r="E944" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F944" t="s">
+        <v>2244</v>
+      </c>
+      <c r="G944">
+        <v>0</v>
+      </c>
+      <c r="H944">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="945" spans="1:8">
+      <c r="A945">
+        <v>944</v>
+      </c>
+      <c r="B945">
+        <v>3</v>
+      </c>
+      <c r="C945">
+        <v>3</v>
+      </c>
+      <c r="D945" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E945" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F945" t="s">
+        <v>2247</v>
+      </c>
+      <c r="G945">
+        <v>0</v>
+      </c>
+      <c r="H945">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="946" spans="1:8">
+      <c r="A946">
+        <v>945</v>
+      </c>
+      <c r="B946">
+        <v>3</v>
+      </c>
+      <c r="C946">
+        <v>3</v>
+      </c>
+      <c r="D946" t="s">
+        <v>2248</v>
+      </c>
+      <c r="E946" t="s">
+        <v>2249</v>
+      </c>
+      <c r="F946" t="s">
+        <v>2250</v>
+      </c>
+      <c r="G946">
+        <v>0</v>
+      </c>
+      <c r="H946">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="947" spans="1:8">
+      <c r="A947">
+        <v>946</v>
+      </c>
+      <c r="B947">
+        <v>3</v>
+      </c>
+      <c r="C947">
+        <v>3</v>
+      </c>
+      <c r="D947" t="s">
+        <v>2251</v>
+      </c>
+      <c r="E947" t="s">
+        <v>2252</v>
+      </c>
+      <c r="F947" t="s">
+        <v>2253</v>
+      </c>
+      <c r="G947">
+        <v>0</v>
+      </c>
+      <c r="H947">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="948" spans="1:8">
+      <c r="A948">
+        <v>947</v>
+      </c>
+      <c r="B948">
+        <v>3</v>
+      </c>
+      <c r="C948">
+        <v>3</v>
+      </c>
+      <c r="D948" t="s">
+        <v>2254</v>
+      </c>
+      <c r="E948" t="s">
+        <v>2253</v>
+      </c>
+      <c r="F948" t="s">
+        <v>2255</v>
+      </c>
+      <c r="G948">
+        <v>0</v>
+      </c>
+      <c r="H948">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="949" spans="1:8">
+      <c r="A949">
+        <v>948</v>
+      </c>
+      <c r="B949">
+        <v>3</v>
+      </c>
+      <c r="C949">
+        <v>3</v>
+      </c>
+      <c r="D949" t="s">
+        <v>2256</v>
+      </c>
+      <c r="E949" t="s">
+        <v>2257</v>
+      </c>
+      <c r="F949" t="s">
+        <v>2258</v>
+      </c>
+      <c r="G949">
+        <v>0</v>
+      </c>
+      <c r="H949">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="950" spans="1:8">
+      <c r="A950">
+        <v>949</v>
+      </c>
+      <c r="B950">
+        <v>3</v>
+      </c>
+      <c r="C950">
+        <v>3</v>
+      </c>
+      <c r="D950" t="s">
+        <v>43</v>
+      </c>
+      <c r="E950" t="s">
+        <v>2257</v>
+      </c>
+      <c r="F950" t="s">
+        <v>2259</v>
+      </c>
+      <c r="G950">
+        <v>0</v>
+      </c>
+      <c r="H950">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="951" spans="1:8">
+      <c r="A951">
+        <v>950</v>
+      </c>
+      <c r="B951">
+        <v>3</v>
+      </c>
+      <c r="C951">
+        <v>3</v>
+      </c>
+      <c r="D951" t="s">
+        <v>1877</v>
+      </c>
+      <c r="E951" t="s">
+        <v>2260</v>
+      </c>
+      <c r="F951" t="s">
+        <v>2258</v>
+      </c>
+      <c r="G951">
+        <v>0</v>
+      </c>
+      <c r="H951">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="952" spans="1:8">
+      <c r="A952">
+        <v>951</v>
+      </c>
+      <c r="B952">
+        <v>3</v>
+      </c>
+      <c r="C952">
+        <v>3</v>
+      </c>
+      <c r="D952" t="s">
+        <v>2261</v>
+      </c>
+      <c r="E952" t="s">
+        <v>2262</v>
+      </c>
+      <c r="F952" t="s">
+        <v>2263</v>
+      </c>
+      <c r="G952">
+        <v>0</v>
+      </c>
+      <c r="H952">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="953" spans="1:8">
+      <c r="A953">
+        <v>952</v>
+      </c>
+      <c r="B953">
+        <v>3</v>
+      </c>
+      <c r="C953">
+        <v>3</v>
+      </c>
+      <c r="D953" t="s">
+        <v>2264</v>
+      </c>
+      <c r="E953" t="s">
+        <v>2260</v>
+      </c>
+      <c r="F953" t="s">
+        <v>2263</v>
+      </c>
+      <c r="G953">
+        <v>0</v>
+      </c>
+      <c r="H953">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="954" spans="1:8">
+      <c r="A954">
+        <v>953</v>
+      </c>
+      <c r="B954">
+        <v>3</v>
+      </c>
+      <c r="C954">
+        <v>3</v>
+      </c>
+      <c r="D954" t="s">
+        <v>748</v>
+      </c>
+      <c r="E954" t="s">
+        <v>2265</v>
+      </c>
+      <c r="F954" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G954">
+        <v>0</v>
+      </c>
+      <c r="H954">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="955" spans="1:8">
+      <c r="A955">
+        <v>954</v>
+      </c>
+      <c r="B955">
+        <v>3</v>
+      </c>
+      <c r="C955">
+        <v>3</v>
+      </c>
+      <c r="D955" t="s">
+        <v>2267</v>
+      </c>
+      <c r="E955" t="s">
+        <v>2268</v>
+      </c>
+      <c r="F955" t="s">
+        <v>2269</v>
+      </c>
+      <c r="G955">
+        <v>0</v>
+      </c>
+      <c r="H955">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="956" spans="1:8">
+      <c r="A956">
+        <v>955</v>
+      </c>
+      <c r="B956">
+        <v>3</v>
+      </c>
+      <c r="C956">
+        <v>3</v>
+      </c>
+      <c r="D956" t="s">
+        <v>2270</v>
+      </c>
+      <c r="E956" t="s">
+        <v>2269</v>
+      </c>
+      <c r="F956" t="s">
+        <v>2271</v>
+      </c>
+      <c r="G956">
+        <v>0</v>
+      </c>
+      <c r="H956">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="957" spans="1:8">
+      <c r="A957">
+        <v>956</v>
+      </c>
+      <c r="B957">
+        <v>3</v>
+      </c>
+      <c r="C957">
+        <v>3</v>
+      </c>
+      <c r="D957" t="s">
+        <v>2272</v>
+      </c>
+      <c r="E957" t="s">
+        <v>2273</v>
+      </c>
+      <c r="F957" t="s">
+        <v>2274</v>
+      </c>
+      <c r="G957">
+        <v>0</v>
+      </c>
+      <c r="H957">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="958" spans="1:8">
+      <c r="A958">
+        <v>957</v>
+      </c>
+      <c r="B958">
+        <v>3</v>
+      </c>
+      <c r="C958">
+        <v>3</v>
+      </c>
+      <c r="D958" t="s">
+        <v>2275</v>
+      </c>
+      <c r="E958" t="s">
+        <v>2276</v>
+      </c>
+      <c r="F958" t="s">
+        <v>2277</v>
+      </c>
+      <c r="G958">
+        <v>0</v>
+      </c>
+      <c r="H958">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="959" spans="1:8">
+      <c r="A959">
+        <v>958</v>
+      </c>
+      <c r="B959">
+        <v>3</v>
+      </c>
+      <c r="C959">
+        <v>3</v>
+      </c>
+      <c r="D959" t="s">
+        <v>2278</v>
+      </c>
+      <c r="E959" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F959" t="s">
+        <v>2277</v>
+      </c>
+      <c r="G959">
+        <v>0</v>
+      </c>
+      <c r="H959">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="960" spans="1:8">
+      <c r="A960">
+        <v>959</v>
+      </c>
+      <c r="B960">
+        <v>3</v>
+      </c>
+      <c r="C960">
+        <v>3</v>
+      </c>
+      <c r="D960" t="s">
+        <v>2280</v>
+      </c>
+      <c r="E960" t="s">
+        <v>2281</v>
+      </c>
+      <c r="F960" t="s">
+        <v>2282</v>
+      </c>
+      <c r="G960">
+        <v>0</v>
+      </c>
+      <c r="H960">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="961" spans="1:8">
+      <c r="A961">
+        <v>960</v>
+      </c>
+      <c r="B961">
+        <v>3</v>
+      </c>
+      <c r="C961">
+        <v>3</v>
+      </c>
+      <c r="D961" t="s">
+        <v>2283</v>
+      </c>
+      <c r="E961" t="s">
+        <v>2284</v>
+      </c>
+      <c r="F961" t="s">
+        <v>2285</v>
+      </c>
+      <c r="G961">
+        <v>0</v>
+      </c>
+      <c r="H961">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="962" spans="1:8">
+      <c r="A962">
+        <v>961</v>
+      </c>
+      <c r="B962">
+        <v>3</v>
+      </c>
+      <c r="C962">
+        <v>3</v>
+      </c>
+      <c r="D962" t="s">
+        <v>2286</v>
+      </c>
+      <c r="E962" t="s">
+        <v>2284</v>
+      </c>
+      <c r="F962" t="s">
+        <v>1382</v>
+      </c>
+      <c r="G962">
+        <v>0</v>
+      </c>
+      <c r="H962">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="963" spans="1:8">
+      <c r="A963">
+        <v>962</v>
+      </c>
+      <c r="B963">
+        <v>3</v>
+      </c>
+      <c r="C963">
+        <v>3</v>
+      </c>
+      <c r="D963" t="s">
+        <v>759</v>
+      </c>
+      <c r="E963" t="s">
+        <v>2287</v>
+      </c>
+      <c r="F963" t="s">
+        <v>2288</v>
+      </c>
+      <c r="G963">
+        <v>0</v>
+      </c>
+      <c r="H963">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="964" spans="1:8">
+      <c r="A964">
+        <v>963</v>
+      </c>
+      <c r="B964">
+        <v>3</v>
+      </c>
+      <c r="C964">
+        <v>3</v>
+      </c>
+      <c r="D964" t="s">
+        <v>2289</v>
+      </c>
+      <c r="E964" t="s">
+        <v>2290</v>
+      </c>
+      <c r="F964" t="s">
+        <v>2285</v>
+      </c>
+      <c r="G964">
+        <v>0</v>
+      </c>
+      <c r="H964">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="965" spans="1:8">
+      <c r="A965">
+        <v>964</v>
+      </c>
+      <c r="B965">
+        <v>3</v>
+      </c>
+      <c r="C965">
+        <v>3</v>
+      </c>
+      <c r="D965" t="s">
+        <v>474</v>
+      </c>
+      <c r="E965" t="s">
+        <v>2291</v>
+      </c>
+      <c r="F965" t="s">
+        <v>2292</v>
+      </c>
+      <c r="G965">
+        <v>0</v>
+      </c>
+      <c r="H965">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="966" spans="1:8">
+      <c r="A966">
+        <v>965</v>
+      </c>
+      <c r="B966">
+        <v>3</v>
+      </c>
+      <c r="C966">
+        <v>3</v>
+      </c>
+      <c r="D966" t="s">
+        <v>2293</v>
+      </c>
+      <c r="E966" t="s">
+        <v>2294</v>
+      </c>
+      <c r="F966" t="s">
+        <v>2295</v>
+      </c>
+      <c r="G966">
+        <v>0</v>
+      </c>
+      <c r="H966">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="967" spans="1:8">
+      <c r="A967">
+        <v>966</v>
+      </c>
+      <c r="B967">
+        <v>3</v>
+      </c>
+      <c r="C967">
+        <v>3</v>
+      </c>
+      <c r="D967" t="s">
+        <v>2296</v>
+      </c>
+      <c r="E967" t="s">
+        <v>2294</v>
+      </c>
+      <c r="F967" t="s">
+        <v>2297</v>
+      </c>
+      <c r="G967">
+        <v>0</v>
+      </c>
+      <c r="H967">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="968" spans="1:8">
+      <c r="A968">
+        <v>967</v>
+      </c>
+      <c r="B968">
+        <v>3</v>
+      </c>
+      <c r="C968">
+        <v>3</v>
+      </c>
+      <c r="D968" t="s">
+        <v>2298</v>
+      </c>
+      <c r="E968" t="s">
+        <v>2299</v>
+      </c>
+      <c r="F968" t="s">
+        <v>2300</v>
+      </c>
+      <c r="G968">
+        <v>0</v>
+      </c>
+      <c r="H968">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="969" spans="1:8">
+      <c r="A969">
+        <v>968</v>
+      </c>
+      <c r="B969">
+        <v>3</v>
+      </c>
+      <c r="C969">
+        <v>3</v>
+      </c>
+      <c r="D969" t="s">
+        <v>2301</v>
+      </c>
+      <c r="E969" t="s">
+        <v>2302</v>
+      </c>
+      <c r="F969" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G969">
+        <v>0</v>
+      </c>
+      <c r="H969">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="970" spans="1:8">
+      <c r="A970">
+        <v>969</v>
+      </c>
+      <c r="B970">
+        <v>3</v>
+      </c>
+      <c r="C970">
+        <v>3</v>
+      </c>
+      <c r="D970" t="s">
+        <v>590</v>
+      </c>
+      <c r="E970" t="s">
+        <v>2302</v>
+      </c>
+      <c r="F970" t="s">
+        <v>2303</v>
+      </c>
+      <c r="G970">
+        <v>0</v>
+      </c>
+      <c r="H970">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="971" spans="1:8">
+      <c r="A971">
+        <v>970</v>
+      </c>
+      <c r="B971">
+        <v>3</v>
+      </c>
+      <c r="C971">
+        <v>3</v>
+      </c>
+      <c r="D971" t="s">
+        <v>2304</v>
+      </c>
+      <c r="E971" t="s">
+        <v>2302</v>
+      </c>
+      <c r="F971" t="s">
+        <v>2305</v>
+      </c>
+      <c r="G971">
+        <v>0</v>
+      </c>
+      <c r="H971">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="972" spans="1:8">
+      <c r="A972">
+        <v>971</v>
+      </c>
+      <c r="B972">
+        <v>3</v>
+      </c>
+      <c r="C972">
+        <v>3</v>
+      </c>
+      <c r="D972" t="s">
+        <v>2306</v>
+      </c>
+      <c r="E972" t="s">
+        <v>2303</v>
+      </c>
+      <c r="F972" t="s">
+        <v>2307</v>
+      </c>
+      <c r="G972">
+        <v>0</v>
+      </c>
+      <c r="H972">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="973" spans="1:8">
+      <c r="A973">
+        <v>972</v>
+      </c>
+      <c r="B973">
+        <v>3</v>
+      </c>
+      <c r="C973">
+        <v>3</v>
+      </c>
+      <c r="D973" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E973" t="s">
+        <v>2308</v>
+      </c>
+      <c r="F973" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G973">
+        <v>0</v>
+      </c>
+      <c r="H973">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="974" spans="1:8">
+      <c r="A974">
+        <v>973</v>
+      </c>
+      <c r="B974">
+        <v>3</v>
+      </c>
+      <c r="C974">
+        <v>3</v>
+      </c>
+      <c r="D974" t="s">
+        <v>2309</v>
+      </c>
+      <c r="E974" t="s">
+        <v>2310</v>
+      </c>
+      <c r="F974" t="s">
+        <v>2311</v>
+      </c>
+      <c r="G974">
+        <v>0</v>
+      </c>
+      <c r="H974">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="975" spans="1:8">
+      <c r="A975">
+        <v>974</v>
+      </c>
+      <c r="B975">
+        <v>3</v>
+      </c>
+      <c r="C975">
+        <v>3</v>
+      </c>
+      <c r="D975" t="s">
+        <v>2312</v>
+      </c>
+      <c r="E975" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F975" t="s">
+        <v>2313</v>
+      </c>
+      <c r="G975">
+        <v>0</v>
+      </c>
+      <c r="H975">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="976" spans="1:8">
+      <c r="A976">
+        <v>975</v>
+      </c>
+      <c r="B976">
+        <v>3</v>
+      </c>
+      <c r="C976">
+        <v>3</v>
+      </c>
+      <c r="D976" t="s">
+        <v>2314</v>
+      </c>
+      <c r="E976" t="s">
+        <v>2315</v>
+      </c>
+      <c r="F976" t="s">
+        <v>1403</v>
+      </c>
+      <c r="G976">
+        <v>0</v>
+      </c>
+      <c r="H976">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="977" spans="1:8">
+      <c r="A977">
+        <v>976</v>
+      </c>
+      <c r="B977">
+        <v>3</v>
+      </c>
+      <c r="C977">
+        <v>3</v>
+      </c>
+      <c r="D977" t="s">
+        <v>334</v>
+      </c>
+      <c r="E977" t="s">
+        <v>2315</v>
+      </c>
+      <c r="F977" t="s">
+        <v>2316</v>
+      </c>
+      <c r="G977">
+        <v>0</v>
+      </c>
+      <c r="H977">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="978" spans="1:8">
+      <c r="A978">
+        <v>977</v>
+      </c>
+      <c r="B978">
+        <v>3</v>
+      </c>
+      <c r="C978">
+        <v>3</v>
+      </c>
+      <c r="D978" t="s">
+        <v>2317</v>
+      </c>
+      <c r="E978" t="s">
+        <v>2318</v>
+      </c>
+      <c r="F978" t="s">
+        <v>2319</v>
+      </c>
+      <c r="G978">
+        <v>0</v>
+      </c>
+      <c r="H978">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="979" spans="1:8">
+      <c r="A979">
+        <v>978</v>
+      </c>
+      <c r="B979">
+        <v>3</v>
+      </c>
+      <c r="C979">
+        <v>3</v>
+      </c>
+      <c r="D979" t="s">
+        <v>2321</v>
+      </c>
+      <c r="E979" t="s">
+        <v>2320</v>
+      </c>
+      <c r="F979" t="s">
+        <v>2319</v>
+      </c>
+      <c r="G979">
+        <v>0</v>
+      </c>
+      <c r="H979">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="980" spans="1:8">
+      <c r="A980">
+        <v>979</v>
+      </c>
+      <c r="B980">
+        <v>3</v>
+      </c>
+      <c r="C980">
+        <v>3</v>
+      </c>
+      <c r="D980" t="s">
+        <v>2322</v>
+      </c>
+      <c r="E980" t="s">
+        <v>2320</v>
+      </c>
+      <c r="F980" t="s">
+        <v>2323</v>
+      </c>
+      <c r="G980">
+        <v>0</v>
+      </c>
+      <c r="H980">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="981" spans="1:8">
+      <c r="A981">
+        <v>980</v>
+      </c>
+      <c r="B981">
+        <v>3</v>
+      </c>
+      <c r="C981">
+        <v>3</v>
+      </c>
+      <c r="D981" t="s">
+        <v>2324</v>
+      </c>
+      <c r="E981" t="s">
+        <v>2325</v>
+      </c>
+      <c r="F981" t="s">
+        <v>2326</v>
+      </c>
+      <c r="G981">
+        <v>0</v>
+      </c>
+      <c r="H981">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="982" spans="1:8">
+      <c r="A982">
+        <v>981</v>
+      </c>
+      <c r="B982">
+        <v>3</v>
+      </c>
+      <c r="C982">
+        <v>3</v>
+      </c>
+      <c r="D982" t="s">
+        <v>2327</v>
+      </c>
+      <c r="E982" t="s">
+        <v>2328</v>
+      </c>
+      <c r="F982" t="s">
+        <v>2326</v>
+      </c>
+      <c r="G982">
+        <v>0</v>
+      </c>
+      <c r="H982">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="983" spans="1:8">
+      <c r="A983">
+        <v>982</v>
+      </c>
+      <c r="B983">
+        <v>3</v>
+      </c>
+      <c r="C983">
+        <v>3</v>
+      </c>
+      <c r="D983" t="s">
+        <v>730</v>
+      </c>
+      <c r="E983" t="s">
+        <v>2329</v>
+      </c>
+      <c r="F983" t="s">
+        <v>2330</v>
+      </c>
+      <c r="G983">
+        <v>0</v>
+      </c>
+      <c r="H983">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="984" spans="1:8">
+      <c r="A984">
+        <v>983</v>
+      </c>
+      <c r="B984">
+        <v>3</v>
+      </c>
+      <c r="C984">
+        <v>3</v>
+      </c>
+      <c r="D984" t="s">
+        <v>2331</v>
+      </c>
+      <c r="E984" t="s">
+        <v>2329</v>
+      </c>
+      <c r="F984" t="s">
+        <v>2330</v>
+      </c>
+      <c r="G984">
+        <v>0</v>
+      </c>
+      <c r="H984">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="985" spans="1:8">
+      <c r="A985">
+        <v>984</v>
+      </c>
+      <c r="B985">
+        <v>3</v>
+      </c>
+      <c r="C985">
+        <v>3</v>
+      </c>
+      <c r="D985" t="s">
+        <v>2332</v>
+      </c>
+      <c r="E985" t="s">
+        <v>2333</v>
+      </c>
+      <c r="F985" t="s">
+        <v>2334</v>
+      </c>
+      <c r="G985">
+        <v>0</v>
+      </c>
+      <c r="H985">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="986" spans="1:8">
+      <c r="A986">
+        <v>985</v>
+      </c>
+      <c r="B986">
+        <v>3</v>
+      </c>
+      <c r="C986">
+        <v>3</v>
+      </c>
+      <c r="D986" t="s">
+        <v>2335</v>
+      </c>
+      <c r="E986" t="s">
+        <v>2336</v>
+      </c>
+      <c r="F986" t="s">
+        <v>2337</v>
+      </c>
+      <c r="G986">
+        <v>0</v>
+      </c>
+      <c r="H986">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="987" spans="1:8">
+      <c r="A987">
+        <v>986</v>
+      </c>
+      <c r="B987">
+        <v>3</v>
+      </c>
+      <c r="C987">
+        <v>3</v>
+      </c>
+      <c r="D987" t="s">
+        <v>2132</v>
+      </c>
+      <c r="E987" t="s">
+        <v>2336</v>
+      </c>
+      <c r="F987" t="s">
+        <v>2338</v>
+      </c>
+      <c r="G987">
+        <v>0</v>
+      </c>
+      <c r="H987">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="988" spans="1:8">
+      <c r="A988">
+        <v>987</v>
+      </c>
+      <c r="B988">
+        <v>3</v>
+      </c>
+      <c r="C988">
+        <v>3</v>
+      </c>
+      <c r="D988" t="s">
+        <v>2339</v>
+      </c>
+      <c r="E988" t="s">
+        <v>2336</v>
+      </c>
+      <c r="F988" t="s">
+        <v>2340</v>
+      </c>
+      <c r="G988">
+        <v>0</v>
+      </c>
+      <c r="H988">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="989" spans="1:8">
+      <c r="A989">
+        <v>988</v>
+      </c>
+      <c r="B989">
+        <v>3</v>
+      </c>
+      <c r="C989">
+        <v>3</v>
+      </c>
+      <c r="D989" t="s">
+        <v>2341</v>
+      </c>
+      <c r="E989" t="s">
+        <v>2342</v>
+      </c>
+      <c r="F989" t="s">
+        <v>2340</v>
+      </c>
+      <c r="G989">
+        <v>0</v>
+      </c>
+      <c r="H989">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="990" spans="1:8">
+      <c r="A990">
+        <v>989</v>
+      </c>
+      <c r="B990">
+        <v>3</v>
+      </c>
+      <c r="C990">
+        <v>3</v>
+      </c>
+      <c r="D990" t="s">
+        <v>31</v>
+      </c>
+      <c r="E990" t="s">
+        <v>2342</v>
+      </c>
+      <c r="F990" t="s">
+        <v>2337</v>
+      </c>
+      <c r="G990">
+        <v>0</v>
+      </c>
+      <c r="H990">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="991" spans="1:8">
+      <c r="A991">
+        <v>990</v>
+      </c>
+      <c r="B991">
+        <v>3</v>
+      </c>
+      <c r="C991">
+        <v>3</v>
+      </c>
+      <c r="D991" t="s">
+        <v>2343</v>
+      </c>
+      <c r="E991" t="s">
+        <v>2344</v>
+      </c>
+      <c r="F991" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G991">
+        <v>0</v>
+      </c>
+      <c r="H991">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="992" spans="1:8">
+      <c r="A992">
+        <v>991</v>
+      </c>
+      <c r="B992">
+        <v>3</v>
+      </c>
+      <c r="C992">
+        <v>3</v>
+      </c>
+      <c r="D992" t="s">
+        <v>2345</v>
+      </c>
+      <c r="E992" t="s">
+        <v>2344</v>
+      </c>
+      <c r="F992" t="s">
+        <v>2340</v>
+      </c>
+      <c r="G992">
+        <v>0</v>
+      </c>
+      <c r="H992">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="993" spans="1:8">
+      <c r="A993">
+        <v>992</v>
+      </c>
+      <c r="B993">
+        <v>3</v>
+      </c>
+      <c r="C993">
+        <v>3</v>
+      </c>
+      <c r="D993" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E993" t="s">
+        <v>2346</v>
+      </c>
+      <c r="F993" t="s">
+        <v>2347</v>
+      </c>
+      <c r="G993">
+        <v>0</v>
+      </c>
+      <c r="H993">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="994" spans="1:8">
+      <c r="A994">
+        <v>993</v>
+      </c>
+      <c r="B994">
+        <v>3</v>
+      </c>
+      <c r="C994">
+        <v>3</v>
+      </c>
+      <c r="D994" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E994" t="s">
+        <v>2348</v>
+      </c>
+      <c r="F994" t="s">
+        <v>2349</v>
+      </c>
+      <c r="G994">
+        <v>0</v>
+      </c>
+      <c r="H994">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="995" spans="1:8">
+      <c r="A995">
+        <v>994</v>
+      </c>
+      <c r="B995">
+        <v>3</v>
+      </c>
+      <c r="C995">
+        <v>3</v>
+      </c>
+      <c r="D995" t="s">
+        <v>2350</v>
+      </c>
+      <c r="E995" t="s">
+        <v>2349</v>
+      </c>
+      <c r="F995" t="s">
+        <v>2351</v>
+      </c>
+      <c r="G995">
+        <v>0</v>
+      </c>
+      <c r="H995">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="996" spans="1:8">
+      <c r="A996">
+        <v>995</v>
+      </c>
+      <c r="B996">
+        <v>3</v>
+      </c>
+      <c r="C996">
+        <v>3</v>
+      </c>
+      <c r="D996" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E996" t="s">
+        <v>2353</v>
+      </c>
+      <c r="F996" t="s">
+        <v>2354</v>
+      </c>
+      <c r="G996">
+        <v>0</v>
+      </c>
+      <c r="H996">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="997" spans="1:8">
+      <c r="A997">
+        <v>996</v>
+      </c>
+      <c r="B997">
+        <v>3</v>
+      </c>
+      <c r="C997">
+        <v>3</v>
+      </c>
+      <c r="D997" t="s">
+        <v>600</v>
+      </c>
+      <c r="E997" t="s">
+        <v>2355</v>
+      </c>
+      <c r="F997" t="s">
+        <v>2354</v>
+      </c>
+      <c r="G997">
+        <v>0</v>
+      </c>
+      <c r="H997">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="998" spans="1:8">
+      <c r="A998">
+        <v>997</v>
+      </c>
+      <c r="B998">
+        <v>3</v>
+      </c>
+      <c r="C998">
+        <v>3</v>
+      </c>
+      <c r="D998" t="s">
+        <v>2356</v>
+      </c>
+      <c r="E998" t="s">
+        <v>2357</v>
+      </c>
+      <c r="F998" t="s">
+        <v>2358</v>
+      </c>
+      <c r="G998">
+        <v>0</v>
+      </c>
+      <c r="H998">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="999" spans="1:8">
+      <c r="A999">
+        <v>998</v>
+      </c>
+      <c r="B999">
+        <v>3</v>
+      </c>
+      <c r="C999">
+        <v>3</v>
+      </c>
+      <c r="D999" t="s">
+        <v>2359</v>
+      </c>
+      <c r="E999" t="s">
+        <v>2357</v>
+      </c>
+      <c r="F999" t="s">
+        <v>2360</v>
+      </c>
+      <c r="G999">
+        <v>0</v>
+      </c>
+      <c r="H999">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:8">
+      <c r="A1000">
+        <v>999</v>
+      </c>
+      <c r="B1000">
+        <v>3</v>
+      </c>
+      <c r="C1000">
+        <v>3</v>
+      </c>
+      <c r="D1000" t="s">
+        <v>2361</v>
+      </c>
+      <c r="E1000" t="s">
+        <v>2357</v>
+      </c>
+      <c r="F1000" t="s">
+        <v>2362</v>
+      </c>
+      <c r="G1000">
+        <v>0</v>
+      </c>
+      <c r="H1000">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/spreadsheets/clips.xlsx
+++ b/spreadsheets/clips.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3005" uniqueCount="2363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3608" uniqueCount="2813">
   <si>
     <t>id</t>
   </si>
@@ -7111,6 +7111,1356 @@
   </si>
   <si>
     <t>00;04;45;38</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>00;04;45;19</t>
+  </si>
+  <si>
+    <t>00;04;45;42</t>
+  </si>
+  <si>
+    <t>00;04;45;43</t>
+  </si>
+  <si>
+    <t>00;04;46;00</t>
+  </si>
+  <si>
+    <t>00;04;45;47</t>
+  </si>
+  <si>
+    <t>eaten</t>
+  </si>
+  <si>
+    <t>00;04;46;01</t>
+  </si>
+  <si>
+    <t>00;04;46;17</t>
+  </si>
+  <si>
+    <t>00;04;46;18</t>
+  </si>
+  <si>
+    <t>00;04;46;39</t>
+  </si>
+  <si>
+    <t>00;04;46;34</t>
+  </si>
+  <si>
+    <t>bye</t>
+  </si>
+  <si>
+    <t>a snake</t>
+  </si>
+  <si>
+    <t>00;04;47;24</t>
+  </si>
+  <si>
+    <t>snake</t>
+  </si>
+  <si>
+    <t>00;04;46;43</t>
+  </si>
+  <si>
+    <t>00;04;47;27</t>
+  </si>
+  <si>
+    <t>00;04;47;28</t>
+  </si>
+  <si>
+    <t>00;04;48;13</t>
+  </si>
+  <si>
+    <t>thats</t>
+  </si>
+  <si>
+    <t>00;04;48;14</t>
+  </si>
+  <si>
+    <t>00;04;48;37</t>
+  </si>
+  <si>
+    <t>that is</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>00;04;48;38</t>
+  </si>
+  <si>
+    <t>00;04;49;04</t>
+  </si>
+  <si>
+    <t>was born</t>
+  </si>
+  <si>
+    <t>00;00;00;16</t>
+  </si>
+  <si>
+    <t>00;00;00;52</t>
+  </si>
+  <si>
+    <t>00;00;00;26</t>
+  </si>
+  <si>
+    <t>born</t>
+  </si>
+  <si>
+    <t>00;00;00;27</t>
+  </si>
+  <si>
+    <t>00;00;00;50</t>
+  </si>
+  <si>
+    <t>these days</t>
+  </si>
+  <si>
+    <t>00;00;01;09</t>
+  </si>
+  <si>
+    <t>00;00;01;39</t>
+  </si>
+  <si>
+    <t>these</t>
+  </si>
+  <si>
+    <t>00;00;01;26</t>
+  </si>
+  <si>
+    <t>00;00;01;25</t>
+  </si>
+  <si>
+    <t>00;00;01;37</t>
+  </si>
+  <si>
+    <t>she and</t>
+  </si>
+  <si>
+    <t>00;00;02;01</t>
+  </si>
+  <si>
+    <t>she</t>
+  </si>
+  <si>
+    <t>and her</t>
+  </si>
+  <si>
+    <t>00;00;01;55</t>
+  </si>
+  <si>
+    <t>00;00;02;10</t>
+  </si>
+  <si>
+    <t>her ex</t>
+  </si>
+  <si>
+    <t>00;00;02;03</t>
+  </si>
+  <si>
+    <t>00;00;02;31</t>
+  </si>
+  <si>
+    <t>ex</t>
+  </si>
+  <si>
+    <t>00;00;02;13</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>involved</t>
+  </si>
+  <si>
+    <t>00;00;02;41</t>
+  </si>
+  <si>
+    <t>00;00;03;04</t>
+  </si>
+  <si>
+    <t>involve</t>
+  </si>
+  <si>
+    <t>00;00;03;00</t>
+  </si>
+  <si>
+    <t>involved in a</t>
+  </si>
+  <si>
+    <t>00;00;03;14</t>
+  </si>
+  <si>
+    <t>nasty</t>
+  </si>
+  <si>
+    <t>00;00;03;15</t>
+  </si>
+  <si>
+    <t>00;00;03;55</t>
+  </si>
+  <si>
+    <t>court dispute</t>
+  </si>
+  <si>
+    <t>00;00;03;56</t>
+  </si>
+  <si>
+    <t>00;00;04;42</t>
+  </si>
+  <si>
+    <t>court</t>
+  </si>
+  <si>
+    <t>00;00;04;15</t>
+  </si>
+  <si>
+    <t>dispute</t>
+  </si>
+  <si>
+    <t>00;00;04;16</t>
+  </si>
+  <si>
+    <t>00;00;04;43</t>
+  </si>
+  <si>
+    <t>00;00;04;44</t>
+  </si>
+  <si>
+    <t>00;00;05;00</t>
+  </si>
+  <si>
+    <t>first time</t>
+  </si>
+  <si>
+    <t>00;00;05;01</t>
+  </si>
+  <si>
+    <t>00;00;05;37</t>
+  </si>
+  <si>
+    <t>00;00;05;20</t>
+  </si>
+  <si>
+    <t>00;00;05;16</t>
+  </si>
+  <si>
+    <t>00;00;05;38</t>
+  </si>
+  <si>
+    <t>00;00;06;01</t>
+  </si>
+  <si>
+    <t>tells us</t>
+  </si>
+  <si>
+    <t>00;00;06;02</t>
+  </si>
+  <si>
+    <t>00;00;06;35</t>
+  </si>
+  <si>
+    <t>tells</t>
+  </si>
+  <si>
+    <t>00;00;06;20</t>
+  </si>
+  <si>
+    <t>00;00;06;16</t>
+  </si>
+  <si>
+    <t>he tells</t>
+  </si>
+  <si>
+    <t>00;00;06;22</t>
+  </si>
+  <si>
+    <t>00;00;06;37</t>
+  </si>
+  <si>
+    <t>what happened</t>
+  </si>
+  <si>
+    <t>00;00;06;38</t>
+  </si>
+  <si>
+    <t>00;00;07;46</t>
+  </si>
+  <si>
+    <t>00;00;07;03</t>
+  </si>
+  <si>
+    <t>happened</t>
+  </si>
+  <si>
+    <t>00;00;07;02</t>
+  </si>
+  <si>
+    <t>00;00;07;36</t>
+  </si>
+  <si>
+    <t>happen</t>
+  </si>
+  <si>
+    <t>00;00;07;33</t>
+  </si>
+  <si>
+    <t>and i promise</t>
+  </si>
+  <si>
+    <t>00;00;30;48</t>
+  </si>
+  <si>
+    <t>i promise</t>
+  </si>
+  <si>
+    <t>00;00;30;52</t>
+  </si>
+  <si>
+    <t>promise</t>
+  </si>
+  <si>
+    <t>00;00;31;03</t>
+  </si>
+  <si>
+    <t>00;00;31;41</t>
+  </si>
+  <si>
+    <t>i will see</t>
+  </si>
+  <si>
+    <t>00;00;31;46</t>
+  </si>
+  <si>
+    <t>00;00;32;27</t>
+  </si>
+  <si>
+    <t>i was</t>
+  </si>
+  <si>
+    <t>00;00;32;15</t>
+  </si>
+  <si>
+    <t>see you</t>
+  </si>
+  <si>
+    <t>00;00;32;36</t>
+  </si>
+  <si>
+    <t>00;00;32;30</t>
+  </si>
+  <si>
+    <t>see you again</t>
+  </si>
+  <si>
+    <t>00;00;32;56</t>
+  </si>
+  <si>
+    <t>you again</t>
+  </si>
+  <si>
+    <t>00;00;32;29</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>00;00;32;57</t>
+  </si>
+  <si>
+    <t>00;00;33;21</t>
+  </si>
+  <si>
+    <t>soon</t>
+  </si>
+  <si>
+    <t>00;00;33;22</t>
+  </si>
+  <si>
+    <t>00;00;33;53</t>
+  </si>
+  <si>
+    <t>real soon</t>
+  </si>
+  <si>
+    <t>where is</t>
+  </si>
+  <si>
+    <t>00;00;41;44</t>
+  </si>
+  <si>
+    <t>00;00;42;16</t>
+  </si>
+  <si>
+    <t>my mother</t>
+  </si>
+  <si>
+    <t>00;00;42;17</t>
+  </si>
+  <si>
+    <t>00;00;43;10</t>
+  </si>
+  <si>
+    <t>00;00;42;30</t>
+  </si>
+  <si>
+    <t>mother</t>
+  </si>
+  <si>
+    <t>00;00;42;31</t>
+  </si>
+  <si>
+    <t>00;00;43;00</t>
+  </si>
+  <si>
+    <t>how come</t>
+  </si>
+  <si>
+    <t>00;00;43;09</t>
+  </si>
+  <si>
+    <t>00;00;43;43</t>
+  </si>
+  <si>
+    <t>00;00;43;58</t>
+  </si>
+  <si>
+    <t>00;00;44;15</t>
+  </si>
+  <si>
+    <t>00;00;44;13</t>
+  </si>
+  <si>
+    <t>have a</t>
+  </si>
+  <si>
+    <t>have a mommy</t>
+  </si>
+  <si>
+    <t>00;00;44;43</t>
+  </si>
+  <si>
+    <t>mommy</t>
+  </si>
+  <si>
+    <t>00;00;44;16</t>
+  </si>
+  <si>
+    <t>00;00;44;40</t>
+  </si>
+  <si>
+    <t>the surrogate</t>
+  </si>
+  <si>
+    <t>00;01;00;55</t>
+  </si>
+  <si>
+    <t>00;01;01;31</t>
+  </si>
+  <si>
+    <t>surrogate</t>
+  </si>
+  <si>
+    <t>00;01;01;04</t>
+  </si>
+  <si>
+    <t>00;01;01;43</t>
+  </si>
+  <si>
+    <t>00;01;02;08</t>
+  </si>
+  <si>
+    <t>me her</t>
+  </si>
+  <si>
+    <t>00;01;02;20</t>
+  </si>
+  <si>
+    <t>00;01;02;47</t>
+  </si>
+  <si>
+    <t>a couple times</t>
+  </si>
+  <si>
+    <t>00;01;02;48</t>
+  </si>
+  <si>
+    <t>00;01;03;54</t>
+  </si>
+  <si>
+    <t>a couple of</t>
+  </si>
+  <si>
+    <t>00;01;03;25</t>
+  </si>
+  <si>
+    <t>a couple</t>
+  </si>
+  <si>
+    <t>00;01;03;18</t>
+  </si>
+  <si>
+    <t>couple</t>
+  </si>
+  <si>
+    <t>00;01;03;05</t>
+  </si>
+  <si>
+    <t>times</t>
+  </si>
+  <si>
+    <t>00;01;03;23</t>
+  </si>
+  <si>
+    <t>00;01;03;52</t>
+  </si>
+  <si>
+    <t>00;01;03;44</t>
+  </si>
+  <si>
+    <t>00;01;05;23</t>
+  </si>
+  <si>
+    <t>00;01;05;51</t>
+  </si>
+  <si>
+    <t>facial recognition</t>
+  </si>
+  <si>
+    <t>00;01;05;52</t>
+  </si>
+  <si>
+    <t>00;01;07;03</t>
+  </si>
+  <si>
+    <t>facial</t>
+  </si>
+  <si>
+    <t>00;01;06;19</t>
+  </si>
+  <si>
+    <t>recognition</t>
+  </si>
+  <si>
+    <t>00;01;06;20</t>
+  </si>
+  <si>
+    <t>00;01;07;01</t>
+  </si>
+  <si>
+    <t>00;01;07;17</t>
+  </si>
+  <si>
+    <t>00;01;08;01</t>
+  </si>
+  <si>
+    <t>00;01;08;02</t>
+  </si>
+  <si>
+    <t>00;01;09;02</t>
+  </si>
+  <si>
+    <t>00;01;09;21</t>
+  </si>
+  <si>
+    <t>00;01;09;38</t>
+  </si>
+  <si>
+    <t>pick a</t>
+  </si>
+  <si>
+    <t>00;01;09;58</t>
+  </si>
+  <si>
+    <t>00;01;11;07</t>
+  </si>
+  <si>
+    <t>00;01;10;19</t>
+  </si>
+  <si>
+    <t>00;01;10;20</t>
+  </si>
+  <si>
+    <t>00;01;11;00</t>
+  </si>
+  <si>
+    <t>person who</t>
+  </si>
+  <si>
+    <t>00;01;11;01</t>
+  </si>
+  <si>
+    <t>00;01;11;43</t>
+  </si>
+  <si>
+    <t>00;01;11;35</t>
+  </si>
+  <si>
+    <t>who looks</t>
+  </si>
+  <si>
+    <t>00;01;11;36</t>
+  </si>
+  <si>
+    <t>00;01;12;04</t>
+  </si>
+  <si>
+    <t>says</t>
+  </si>
+  <si>
+    <t>00;01;18;52</t>
+  </si>
+  <si>
+    <t>00;01;19;29</t>
+  </si>
+  <si>
+    <t>00;01;20;36</t>
+  </si>
+  <si>
+    <t>00;01;20;55</t>
+  </si>
+  <si>
+    <t>i don't think</t>
+  </si>
+  <si>
+    <t>be the</t>
+  </si>
+  <si>
+    <t>00;01;21;09</t>
+  </si>
+  <si>
+    <t>00;01;21;33</t>
+  </si>
+  <si>
+    <t>00;01;21;24</t>
+  </si>
+  <si>
+    <t>the wife</t>
+  </si>
+  <si>
+    <t>00;01;21;25</t>
+  </si>
+  <si>
+    <t>00;01;22;01</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>and mother</t>
+  </si>
+  <si>
+    <t>00;01;22;02</t>
+  </si>
+  <si>
+    <t>00;01;22;52</t>
+  </si>
+  <si>
+    <t>00;01;22;18</t>
+  </si>
+  <si>
+    <t>00;01;22;53</t>
+  </si>
+  <si>
+    <t>that you need</t>
+  </si>
+  <si>
+    <t>00;01;23;13</t>
+  </si>
+  <si>
+    <t>00;01;23;12</t>
+  </si>
+  <si>
+    <t>00;01;23;45</t>
+  </si>
+  <si>
+    <t>divorce</t>
+  </si>
+  <si>
+    <t>00;01;25;35</t>
+  </si>
+  <si>
+    <t>00;01;26;19</t>
+  </si>
+  <si>
+    <t>settlement</t>
+  </si>
+  <si>
+    <t>00;01;48;45</t>
+  </si>
+  <si>
+    <t>00;01;49;16</t>
+  </si>
+  <si>
+    <t>00;01;49;17</t>
+  </si>
+  <si>
+    <t>00;01;49;41</t>
+  </si>
+  <si>
+    <t>a hundred</t>
+  </si>
+  <si>
+    <t>00;01;49;39</t>
+  </si>
+  <si>
+    <t>00;01;50;00</t>
+  </si>
+  <si>
+    <t>thousand</t>
+  </si>
+  <si>
+    <t>00;01;50;16</t>
+  </si>
+  <si>
+    <t>00;01;50;46</t>
+  </si>
+  <si>
+    <t>thousand dollars</t>
+  </si>
+  <si>
+    <t>00;01;51;20</t>
+  </si>
+  <si>
+    <t>dollars</t>
+  </si>
+  <si>
+    <t>00;01;50;38</t>
+  </si>
+  <si>
+    <t>fatal</t>
+  </si>
+  <si>
+    <t>00;02;08;37</t>
+  </si>
+  <si>
+    <t>it can be</t>
+  </si>
+  <si>
+    <t>00;02;10;05</t>
+  </si>
+  <si>
+    <t>00;02;11;12</t>
+  </si>
+  <si>
+    <t>if its not</t>
+  </si>
+  <si>
+    <t>00;02;11;13</t>
+  </si>
+  <si>
+    <t>00;02;11;44</t>
+  </si>
+  <si>
+    <t>its not</t>
+  </si>
+  <si>
+    <t>00;02;11;19</t>
+  </si>
+  <si>
+    <t>00;02;11;29</t>
+  </si>
+  <si>
+    <t>monitored</t>
+  </si>
+  <si>
+    <t>00;02;11;45</t>
+  </si>
+  <si>
+    <t>00;02;12;22</t>
+  </si>
+  <si>
+    <t>monitor</t>
+  </si>
+  <si>
+    <t>00;02;12;17</t>
+  </si>
+  <si>
+    <t>very well</t>
+  </si>
+  <si>
+    <t>00;02;13;01</t>
+  </si>
+  <si>
+    <t>00;02;13;27</t>
+  </si>
+  <si>
+    <t>00;02;13;17</t>
+  </si>
+  <si>
+    <t>00;02;13;41</t>
+  </si>
+  <si>
+    <t>well can</t>
+  </si>
+  <si>
+    <t>00;02;13;28</t>
+  </si>
+  <si>
+    <t>can be</t>
+  </si>
+  <si>
+    <t>00;02;13;29</t>
+  </si>
+  <si>
+    <t>00;02;13;51</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>be fatal</t>
+  </si>
+  <si>
+    <t>00;02;13;42</t>
+  </si>
+  <si>
+    <t>00;02;14;15</t>
+  </si>
+  <si>
+    <t>ring</t>
+  </si>
+  <si>
+    <t>00;02;37;54</t>
+  </si>
+  <si>
+    <t>00;02;38;43</t>
+  </si>
+  <si>
+    <t>when she</t>
+  </si>
+  <si>
+    <t>00;02;38;45</t>
+  </si>
+  <si>
+    <t>00;02;39;03</t>
+  </si>
+  <si>
+    <t>00;02;38;52</t>
+  </si>
+  <si>
+    <t>came in</t>
+  </si>
+  <si>
+    <t>00;02;39;04</t>
+  </si>
+  <si>
+    <t>00;02;40;08</t>
+  </si>
+  <si>
+    <t>came</t>
+  </si>
+  <si>
+    <t>00;02;39;33</t>
+  </si>
+  <si>
+    <t>00;02;39;34</t>
+  </si>
+  <si>
+    <t>00;02;40;10</t>
+  </si>
+  <si>
+    <t>00;02;40;27</t>
+  </si>
+  <si>
+    <t>00;02;40;48</t>
+  </si>
+  <si>
+    <t>seen this</t>
+  </si>
+  <si>
+    <t>00;02;40;47</t>
+  </si>
+  <si>
+    <t>00;02;41;13</t>
+  </si>
+  <si>
+    <t>seen</t>
+  </si>
+  <si>
+    <t>00;02;40;59</t>
+  </si>
+  <si>
+    <t>this whole</t>
+  </si>
+  <si>
+    <t>00;02;41;00</t>
+  </si>
+  <si>
+    <t>00;02;41;39</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>00;02;41;14</t>
+  </si>
+  <si>
+    <t>hole</t>
+  </si>
+  <si>
+    <t>apartment</t>
+  </si>
+  <si>
+    <t>00;02;41;40</t>
+  </si>
+  <si>
+    <t>00;02;42;25</t>
+  </si>
+  <si>
+    <t>00;02;50;59</t>
+  </si>
+  <si>
+    <t>00;02;51;13</t>
+  </si>
+  <si>
+    <t>regret</t>
+  </si>
+  <si>
+    <t>00;02;51;14</t>
+  </si>
+  <si>
+    <t>00;02;52;02</t>
+  </si>
+  <si>
+    <t>i regret</t>
+  </si>
+  <si>
+    <t>00;02;52;03</t>
+  </si>
+  <si>
+    <t>00;02;53;08</t>
+  </si>
+  <si>
+    <t>i regret that</t>
+  </si>
+  <si>
+    <t>regret that</t>
+  </si>
+  <si>
+    <t>i couldn't</t>
+  </si>
+  <si>
+    <t>00;02;53;09</t>
+  </si>
+  <si>
+    <t>00;02;54;20</t>
+  </si>
+  <si>
+    <t>i could</t>
+  </si>
+  <si>
+    <t>00;02;53;13</t>
+  </si>
+  <si>
+    <t>00;02;54;01</t>
+  </si>
+  <si>
+    <t>00;02;53;46</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>00;02;54;11</t>
+  </si>
+  <si>
+    <t>00;02;54;41</t>
+  </si>
+  <si>
+    <t>save her</t>
+  </si>
+  <si>
+    <t>00;02;55;01</t>
+  </si>
+  <si>
+    <t>marriage</t>
+  </si>
+  <si>
+    <t>00;03;01;59</t>
+  </si>
+  <si>
+    <t>00;03;02;32</t>
+  </si>
+  <si>
+    <t>and a child</t>
+  </si>
+  <si>
+    <t>00;03;02;33</t>
+  </si>
+  <si>
+    <t>00;03;03;13</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>00;03;02;42</t>
+  </si>
+  <si>
+    <t>00;03;05;36</t>
+  </si>
+  <si>
+    <t>00;03;06;01</t>
+  </si>
+  <si>
+    <t>sheppard</t>
+  </si>
+  <si>
+    <t>had no</t>
+  </si>
+  <si>
+    <t>00;03;06;02</t>
+  </si>
+  <si>
+    <t>00;03;06;24</t>
+  </si>
+  <si>
+    <t>00;03;06;14</t>
+  </si>
+  <si>
+    <t>no comment</t>
+  </si>
+  <si>
+    <t>00;03;06;15</t>
+  </si>
+  <si>
+    <t>00;03;06;57</t>
+  </si>
+  <si>
+    <t>people tell</t>
+  </si>
+  <si>
+    <t>00;03;42;33</t>
+  </si>
+  <si>
+    <t>00;03;42;58</t>
+  </si>
+  <si>
+    <t>00;03;43;17</t>
+  </si>
+  <si>
+    <t>tell me</t>
+  </si>
+  <si>
+    <t>me</t>
+  </si>
+  <si>
+    <t>00;03;44;57</t>
+  </si>
+  <si>
+    <t>00;03;45;45</t>
+  </si>
+  <si>
+    <t>achieve your dreams</t>
+  </si>
+  <si>
+    <t>your dreams</t>
+  </si>
+  <si>
+    <t>dream</t>
+  </si>
+  <si>
+    <t>00;03;45;30</t>
+  </si>
+  <si>
+    <t>talent</t>
+  </si>
+  <si>
+    <t>00;03;46;07</t>
+  </si>
+  <si>
+    <t>00;03;46;43</t>
+  </si>
+  <si>
+    <t>attempt</t>
+  </si>
+  <si>
+    <t>00;03;53;12</t>
+  </si>
+  <si>
+    <t>00;03;53;43</t>
+  </si>
+  <si>
+    <t>already are</t>
+  </si>
+  <si>
+    <t>00;04;01;23</t>
+  </si>
+  <si>
+    <t>00;04;02;13</t>
+  </si>
+  <si>
+    <t>already</t>
+  </si>
+  <si>
+    <t>00;04;01;43</t>
+  </si>
+  <si>
+    <t>00;04;30;38</t>
+  </si>
+  <si>
+    <t>00;04;31;19</t>
+  </si>
+  <si>
+    <t>you're right</t>
+  </si>
+  <si>
+    <t>you are right</t>
+  </si>
+  <si>
+    <t>there she is</t>
+  </si>
+  <si>
+    <t>00;04;44;14</t>
+  </si>
+  <si>
+    <t>00;04;44;49</t>
+  </si>
+  <si>
+    <t>move in</t>
+  </si>
+  <si>
+    <t>00;04;44;50</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>00;04;45;02</t>
+  </si>
+  <si>
+    <t>it was</t>
+  </si>
+  <si>
+    <t>00;05;43;22</t>
+  </si>
+  <si>
+    <t>00;05;43;39</t>
+  </si>
+  <si>
+    <t>the perfect</t>
+  </si>
+  <si>
+    <t>00;05;44;15</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>00;05;43;46</t>
+  </si>
+  <si>
+    <t>setting for</t>
+  </si>
+  <si>
+    <t>00;05;44;14</t>
+  </si>
+  <si>
+    <t>00;05;44;45</t>
+  </si>
+  <si>
+    <t>setting</t>
+  </si>
+  <si>
+    <t>00;05;44;34</t>
+  </si>
+  <si>
+    <t>romantic</t>
+  </si>
+  <si>
+    <t>00;05;44;42</t>
+  </si>
+  <si>
+    <t>00;05;45;22</t>
+  </si>
+  <si>
+    <t>romantic picnic</t>
+  </si>
+  <si>
+    <t>00;05;45;46</t>
+  </si>
+  <si>
+    <t>picnic</t>
+  </si>
+  <si>
+    <t>00;05;45;21</t>
+  </si>
+  <si>
+    <t>the day ended</t>
+  </si>
+  <si>
+    <t>00;05;45;55</t>
+  </si>
+  <si>
+    <t>00;05;46;57</t>
+  </si>
+  <si>
+    <t>the day</t>
+  </si>
+  <si>
+    <t>00;05;46;31</t>
+  </si>
+  <si>
+    <t>but the day</t>
+  </si>
+  <si>
+    <t>00;05;45;47</t>
+  </si>
+  <si>
+    <t>00;05;46;28</t>
+  </si>
+  <si>
+    <t>00;05;45;59</t>
+  </si>
+  <si>
+    <t>in horror</t>
+  </si>
+  <si>
+    <t>00;05;46;56</t>
+  </si>
+  <si>
+    <t>00;05;47;14</t>
+  </si>
+  <si>
+    <t>horror</t>
+  </si>
+  <si>
+    <t>00;05;47;45</t>
+  </si>
+  <si>
+    <t>when a</t>
+  </si>
+  <si>
+    <t>00;05;47;44</t>
+  </si>
+  <si>
+    <t>00;05;48;04</t>
+  </si>
+  <si>
+    <t>former</t>
+  </si>
+  <si>
+    <t>00;05;47;59</t>
+  </si>
+  <si>
+    <t>00;05;48;19</t>
+  </si>
+  <si>
+    <t>teacher</t>
+  </si>
+  <si>
+    <t>00;05;48;20</t>
+  </si>
+  <si>
+    <t>00;05;48;40</t>
+  </si>
+  <si>
+    <t>00;05;48;41</t>
+  </si>
+  <si>
+    <t>00;05;48;54</t>
+  </si>
+  <si>
+    <t>over the cliff</t>
+  </si>
+  <si>
+    <t>00;05;48;56</t>
+  </si>
+  <si>
+    <t>00;05;49;53</t>
+  </si>
+  <si>
+    <t>00;05;48;53</t>
+  </si>
+  <si>
+    <t>00;05;49;09</t>
+  </si>
+  <si>
+    <t>the cliff</t>
+  </si>
+  <si>
+    <t>00;05;49;10</t>
+  </si>
+  <si>
+    <t>00;05;49;46</t>
+  </si>
+  <si>
+    <t>cliff</t>
+  </si>
+  <si>
+    <t>00;05;49;19</t>
+  </si>
+  <si>
+    <t>00;05;49;58</t>
+  </si>
+  <si>
+    <t>was it</t>
+  </si>
+  <si>
+    <t>00;05;50;20</t>
+  </si>
+  <si>
+    <t>an accident</t>
+  </si>
+  <si>
+    <t>00;05;50;18</t>
+  </si>
+  <si>
+    <t>00;05;50;59</t>
+  </si>
+  <si>
+    <t>accident</t>
+  </si>
+  <si>
+    <t>00;05;50;26</t>
+  </si>
+  <si>
+    <t>or was</t>
+  </si>
+  <si>
+    <t>00;05;51;00</t>
+  </si>
+  <si>
+    <t>00;05;51;26</t>
+  </si>
+  <si>
+    <t>she pushed</t>
+  </si>
+  <si>
+    <t>00;05;51;27</t>
+  </si>
+  <si>
+    <t>00;05;52;17</t>
+  </si>
+  <si>
+    <t>pushed</t>
+  </si>
+  <si>
+    <t>00;05;51;43</t>
+  </si>
+  <si>
+    <t>00;05;52;27</t>
+  </si>
+  <si>
+    <t>00;05;52;09</t>
+  </si>
+  <si>
+    <t>to help</t>
+  </si>
+  <si>
+    <t>00;06;30;30</t>
+  </si>
+  <si>
+    <t>00;06;30;49</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>00;06;30;38</t>
   </si>
 </sst>
 </file>
@@ -7162,8 +8512,54 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="125">
+  <cellStyleXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7293,7 +8689,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="125">
+  <cellStyles count="171">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -7356,6 +8752,29 @@
     <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -7418,6 +8837,29 @@
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7747,10 +9189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1000"/>
+  <dimension ref="A1:H1250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A978" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F1000" sqref="F1000"/>
+    <sheetView tabSelected="1" topLeftCell="A1194" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F1201" sqref="F1201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -33763,6 +35205,6065 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1001" spans="1:8">
+      <c r="A1001">
+        <v>1000</v>
+      </c>
+      <c r="B1001">
+        <v>3</v>
+      </c>
+      <c r="C1001">
+        <v>3</v>
+      </c>
+      <c r="D1001" t="s">
+        <v>2363</v>
+      </c>
+      <c r="E1001" t="s">
+        <v>2364</v>
+      </c>
+      <c r="F1001" t="s">
+        <v>2365</v>
+      </c>
+      <c r="G1001">
+        <v>0</v>
+      </c>
+      <c r="H1001">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:8">
+      <c r="A1002">
+        <v>1001</v>
+      </c>
+      <c r="B1002">
+        <v>3</v>
+      </c>
+      <c r="C1002">
+        <v>3</v>
+      </c>
+      <c r="D1002" t="s">
+        <v>2031</v>
+      </c>
+      <c r="E1002" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F1002" t="s">
+        <v>2367</v>
+      </c>
+      <c r="G1002">
+        <v>0</v>
+      </c>
+      <c r="H1002">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:8">
+      <c r="A1003">
+        <v>1002</v>
+      </c>
+      <c r="B1003">
+        <v>3</v>
+      </c>
+      <c r="C1003">
+        <v>3</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1003" t="s">
+        <v>2368</v>
+      </c>
+      <c r="F1003" t="s">
+        <v>2367</v>
+      </c>
+      <c r="G1003">
+        <v>0</v>
+      </c>
+      <c r="H1003">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:8">
+      <c r="A1004">
+        <v>1003</v>
+      </c>
+      <c r="B1004">
+        <v>3</v>
+      </c>
+      <c r="C1004">
+        <v>3</v>
+      </c>
+      <c r="D1004" t="s">
+        <v>2369</v>
+      </c>
+      <c r="E1004" t="s">
+        <v>2370</v>
+      </c>
+      <c r="F1004" t="s">
+        <v>2371</v>
+      </c>
+      <c r="G1004">
+        <v>0</v>
+      </c>
+      <c r="H1004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:8">
+      <c r="A1005">
+        <v>1004</v>
+      </c>
+      <c r="B1005">
+        <v>3</v>
+      </c>
+      <c r="C1005">
+        <v>3</v>
+      </c>
+      <c r="D1005" t="s">
+        <v>1971</v>
+      </c>
+      <c r="E1005" t="s">
+        <v>2372</v>
+      </c>
+      <c r="F1005" t="s">
+        <v>2373</v>
+      </c>
+      <c r="G1005">
+        <v>0</v>
+      </c>
+      <c r="H1005">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:8">
+      <c r="A1006">
+        <v>1005</v>
+      </c>
+      <c r="B1006">
+        <v>3</v>
+      </c>
+      <c r="C1006">
+        <v>3</v>
+      </c>
+      <c r="D1006" t="s">
+        <v>372</v>
+      </c>
+      <c r="E1006" t="s">
+        <v>2372</v>
+      </c>
+      <c r="F1006" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G1006">
+        <v>0</v>
+      </c>
+      <c r="H1006">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:8">
+      <c r="A1007">
+        <v>1006</v>
+      </c>
+      <c r="B1007">
+        <v>3</v>
+      </c>
+      <c r="C1007">
+        <v>3</v>
+      </c>
+      <c r="D1007" t="s">
+        <v>2375</v>
+      </c>
+      <c r="E1007" t="s">
+        <v>2372</v>
+      </c>
+      <c r="F1007" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G1007">
+        <v>0</v>
+      </c>
+      <c r="H1007">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:8">
+      <c r="A1008">
+        <v>1007</v>
+      </c>
+      <c r="B1008">
+        <v>3</v>
+      </c>
+      <c r="C1008">
+        <v>3</v>
+      </c>
+      <c r="D1008" t="s">
+        <v>2376</v>
+      </c>
+      <c r="E1008" t="s">
+        <v>589</v>
+      </c>
+      <c r="F1008" t="s">
+        <v>2377</v>
+      </c>
+      <c r="G1008">
+        <v>0</v>
+      </c>
+      <c r="H1008">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:8">
+      <c r="A1009">
+        <v>1008</v>
+      </c>
+      <c r="B1009">
+        <v>3</v>
+      </c>
+      <c r="C1009">
+        <v>3</v>
+      </c>
+      <c r="D1009" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1009" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F1009" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G1009">
+        <v>0</v>
+      </c>
+      <c r="H1009">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:8">
+      <c r="A1010">
+        <v>1009</v>
+      </c>
+      <c r="B1010">
+        <v>3</v>
+      </c>
+      <c r="C1010">
+        <v>3</v>
+      </c>
+      <c r="D1010" t="s">
+        <v>422</v>
+      </c>
+      <c r="E1010" t="s">
+        <v>2381</v>
+      </c>
+      <c r="F1010" t="s">
+        <v>2382</v>
+      </c>
+      <c r="G1010">
+        <v>0</v>
+      </c>
+      <c r="H1010">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:8">
+      <c r="A1011">
+        <v>1010</v>
+      </c>
+      <c r="B1011">
+        <v>3</v>
+      </c>
+      <c r="C1011">
+        <v>3</v>
+      </c>
+      <c r="D1011" t="s">
+        <v>2383</v>
+      </c>
+      <c r="E1011" t="s">
+        <v>2384</v>
+      </c>
+      <c r="F1011" t="s">
+        <v>2385</v>
+      </c>
+      <c r="G1011">
+        <v>0</v>
+      </c>
+      <c r="H1011">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:8">
+      <c r="A1012">
+        <v>1011</v>
+      </c>
+      <c r="B1012">
+        <v>3</v>
+      </c>
+      <c r="C1012">
+        <v>3</v>
+      </c>
+      <c r="D1012" t="s">
+        <v>2386</v>
+      </c>
+      <c r="E1012" t="s">
+        <v>2384</v>
+      </c>
+      <c r="F1012" t="s">
+        <v>2385</v>
+      </c>
+      <c r="G1012">
+        <v>0</v>
+      </c>
+      <c r="H1012">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:8">
+      <c r="A1013">
+        <v>1012</v>
+      </c>
+      <c r="B1013">
+        <v>3</v>
+      </c>
+      <c r="C1013">
+        <v>3</v>
+      </c>
+      <c r="D1013" t="s">
+        <v>2387</v>
+      </c>
+      <c r="E1013" t="s">
+        <v>2388</v>
+      </c>
+      <c r="F1013" t="s">
+        <v>2389</v>
+      </c>
+      <c r="G1013">
+        <v>0</v>
+      </c>
+      <c r="H1013">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:8">
+      <c r="A1014">
+        <v>1013</v>
+      </c>
+      <c r="B1014">
+        <v>3</v>
+      </c>
+      <c r="C1014">
+        <v>4</v>
+      </c>
+      <c r="D1014" t="s">
+        <v>2390</v>
+      </c>
+      <c r="E1014" t="s">
+        <v>2391</v>
+      </c>
+      <c r="F1014" t="s">
+        <v>2392</v>
+      </c>
+      <c r="G1014">
+        <v>0</v>
+      </c>
+      <c r="H1014">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:8">
+      <c r="A1015">
+        <v>1014</v>
+      </c>
+      <c r="B1015">
+        <v>3</v>
+      </c>
+      <c r="C1015">
+        <v>4</v>
+      </c>
+      <c r="D1015" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1015" t="s">
+        <v>2391</v>
+      </c>
+      <c r="F1015" t="s">
+        <v>2393</v>
+      </c>
+      <c r="G1015">
+        <v>0</v>
+      </c>
+      <c r="H1015">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:8">
+      <c r="A1016">
+        <v>1015</v>
+      </c>
+      <c r="B1016">
+        <v>3</v>
+      </c>
+      <c r="C1016">
+        <v>4</v>
+      </c>
+      <c r="D1016" t="s">
+        <v>2394</v>
+      </c>
+      <c r="E1016" t="s">
+        <v>2395</v>
+      </c>
+      <c r="F1016" t="s">
+        <v>2396</v>
+      </c>
+      <c r="G1016">
+        <v>0</v>
+      </c>
+      <c r="H1016">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:8">
+      <c r="A1017">
+        <v>1016</v>
+      </c>
+      <c r="B1017">
+        <v>3</v>
+      </c>
+      <c r="C1017">
+        <v>4</v>
+      </c>
+      <c r="D1017" t="s">
+        <v>2397</v>
+      </c>
+      <c r="E1017" t="s">
+        <v>2398</v>
+      </c>
+      <c r="F1017" t="s">
+        <v>2399</v>
+      </c>
+      <c r="G1017">
+        <v>0</v>
+      </c>
+      <c r="H1017">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:8">
+      <c r="A1018">
+        <v>1017</v>
+      </c>
+      <c r="B1018">
+        <v>3</v>
+      </c>
+      <c r="C1018">
+        <v>4</v>
+      </c>
+      <c r="D1018" t="s">
+        <v>2400</v>
+      </c>
+      <c r="E1018" t="s">
+        <v>2398</v>
+      </c>
+      <c r="F1018" t="s">
+        <v>2401</v>
+      </c>
+      <c r="G1018">
+        <v>0</v>
+      </c>
+      <c r="H1018">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:8">
+      <c r="A1019">
+        <v>1018</v>
+      </c>
+      <c r="B1019">
+        <v>3</v>
+      </c>
+      <c r="C1019">
+        <v>4</v>
+      </c>
+      <c r="D1019" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1019" t="s">
+        <v>2402</v>
+      </c>
+      <c r="F1019" t="s">
+        <v>2403</v>
+      </c>
+      <c r="G1019">
+        <v>0</v>
+      </c>
+      <c r="H1019">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:8">
+      <c r="A1020">
+        <v>1019</v>
+      </c>
+      <c r="B1020">
+        <v>3</v>
+      </c>
+      <c r="C1020">
+        <v>4</v>
+      </c>
+      <c r="D1020" t="s">
+        <v>2404</v>
+      </c>
+      <c r="E1020" t="s">
+        <v>2403</v>
+      </c>
+      <c r="F1020" t="s">
+        <v>2405</v>
+      </c>
+      <c r="G1020">
+        <v>0</v>
+      </c>
+      <c r="H1020">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:8">
+      <c r="A1021">
+        <v>1020</v>
+      </c>
+      <c r="B1021">
+        <v>3</v>
+      </c>
+      <c r="C1021">
+        <v>4</v>
+      </c>
+      <c r="D1021" t="s">
+        <v>2406</v>
+      </c>
+      <c r="E1021" t="s">
+        <v>2403</v>
+      </c>
+      <c r="F1021" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1021">
+        <v>0</v>
+      </c>
+      <c r="H1021">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:8">
+      <c r="A1022">
+        <v>1021</v>
+      </c>
+      <c r="B1022">
+        <v>3</v>
+      </c>
+      <c r="C1022">
+        <v>4</v>
+      </c>
+      <c r="D1022" t="s">
+        <v>2407</v>
+      </c>
+      <c r="E1022" t="s">
+        <v>2408</v>
+      </c>
+      <c r="F1022" t="s">
+        <v>2409</v>
+      </c>
+      <c r="G1022">
+        <v>0</v>
+      </c>
+      <c r="H1022">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:8">
+      <c r="A1023">
+        <v>1022</v>
+      </c>
+      <c r="B1023">
+        <v>3</v>
+      </c>
+      <c r="C1023">
+        <v>4</v>
+      </c>
+      <c r="D1023" t="s">
+        <v>2410</v>
+      </c>
+      <c r="E1023" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1023" t="s">
+        <v>2412</v>
+      </c>
+      <c r="G1023">
+        <v>0</v>
+      </c>
+      <c r="H1023">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:8">
+      <c r="A1024">
+        <v>1023</v>
+      </c>
+      <c r="B1024">
+        <v>3</v>
+      </c>
+      <c r="C1024">
+        <v>4</v>
+      </c>
+      <c r="D1024" t="s">
+        <v>2413</v>
+      </c>
+      <c r="E1024" t="s">
+        <v>2414</v>
+      </c>
+      <c r="F1024" t="s">
+        <v>2412</v>
+      </c>
+      <c r="G1024">
+        <v>0</v>
+      </c>
+      <c r="H1024">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:8">
+      <c r="A1025">
+        <v>1024</v>
+      </c>
+      <c r="B1025">
+        <v>3</v>
+      </c>
+      <c r="C1025">
+        <v>4</v>
+      </c>
+      <c r="D1025" t="s">
+        <v>2415</v>
+      </c>
+      <c r="E1025" t="s">
+        <v>2414</v>
+      </c>
+      <c r="F1025" t="s">
+        <v>2412</v>
+      </c>
+      <c r="G1025">
+        <v>0</v>
+      </c>
+      <c r="H1025">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:8">
+      <c r="A1026">
+        <v>1025</v>
+      </c>
+      <c r="B1026">
+        <v>3</v>
+      </c>
+      <c r="C1026">
+        <v>4</v>
+      </c>
+      <c r="D1026" t="s">
+        <v>2416</v>
+      </c>
+      <c r="E1026" t="s">
+        <v>2417</v>
+      </c>
+      <c r="F1026" t="s">
+        <v>2418</v>
+      </c>
+      <c r="G1026">
+        <v>0</v>
+      </c>
+      <c r="H1026">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:8">
+      <c r="A1027">
+        <v>1026</v>
+      </c>
+      <c r="B1027">
+        <v>3</v>
+      </c>
+      <c r="C1027">
+        <v>4</v>
+      </c>
+      <c r="D1027" t="s">
+        <v>2419</v>
+      </c>
+      <c r="E1027" t="s">
+        <v>2417</v>
+      </c>
+      <c r="F1027" t="s">
+        <v>2420</v>
+      </c>
+      <c r="G1027">
+        <v>0</v>
+      </c>
+      <c r="H1027">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:8">
+      <c r="A1028">
+        <v>1027</v>
+      </c>
+      <c r="B1028">
+        <v>3</v>
+      </c>
+      <c r="C1028">
+        <v>4</v>
+      </c>
+      <c r="D1028" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E1028" t="s">
+        <v>2417</v>
+      </c>
+      <c r="F1028" t="s">
+        <v>2422</v>
+      </c>
+      <c r="G1028">
+        <v>0</v>
+      </c>
+      <c r="H1028">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:8">
+      <c r="A1029">
+        <v>1028</v>
+      </c>
+      <c r="B1029">
+        <v>3</v>
+      </c>
+      <c r="C1029">
+        <v>4</v>
+      </c>
+      <c r="D1029" t="s">
+        <v>2423</v>
+      </c>
+      <c r="E1029" t="s">
+        <v>2424</v>
+      </c>
+      <c r="F1029" t="s">
+        <v>2425</v>
+      </c>
+      <c r="G1029">
+        <v>0</v>
+      </c>
+      <c r="H1029">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:8">
+      <c r="A1030">
+        <v>1029</v>
+      </c>
+      <c r="B1030">
+        <v>3</v>
+      </c>
+      <c r="C1030">
+        <v>4</v>
+      </c>
+      <c r="D1030" t="s">
+        <v>2426</v>
+      </c>
+      <c r="E1030" t="s">
+        <v>2427</v>
+      </c>
+      <c r="F1030" t="s">
+        <v>2428</v>
+      </c>
+      <c r="G1030">
+        <v>0</v>
+      </c>
+      <c r="H1030">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:8">
+      <c r="A1031">
+        <v>1030</v>
+      </c>
+      <c r="B1031">
+        <v>3</v>
+      </c>
+      <c r="C1031">
+        <v>4</v>
+      </c>
+      <c r="D1031" t="s">
+        <v>2429</v>
+      </c>
+      <c r="E1031" t="s">
+        <v>2427</v>
+      </c>
+      <c r="F1031" t="s">
+        <v>2430</v>
+      </c>
+      <c r="G1031">
+        <v>0</v>
+      </c>
+      <c r="H1031">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:8">
+      <c r="A1032">
+        <v>1031</v>
+      </c>
+      <c r="B1032">
+        <v>3</v>
+      </c>
+      <c r="C1032">
+        <v>4</v>
+      </c>
+      <c r="D1032" t="s">
+        <v>2431</v>
+      </c>
+      <c r="E1032" t="s">
+        <v>2432</v>
+      </c>
+      <c r="F1032" t="s">
+        <v>2433</v>
+      </c>
+      <c r="G1032">
+        <v>0</v>
+      </c>
+      <c r="H1032">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:8">
+      <c r="A1033">
+        <v>1032</v>
+      </c>
+      <c r="B1033">
+        <v>3</v>
+      </c>
+      <c r="C1033">
+        <v>4</v>
+      </c>
+      <c r="D1033" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E1033" t="s">
+        <v>2434</v>
+      </c>
+      <c r="F1033" t="s">
+        <v>2435</v>
+      </c>
+      <c r="G1033">
+        <v>0</v>
+      </c>
+      <c r="H1033">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:8">
+      <c r="A1034">
+        <v>1033</v>
+      </c>
+      <c r="B1034">
+        <v>3</v>
+      </c>
+      <c r="C1034">
+        <v>4</v>
+      </c>
+      <c r="D1034" t="s">
+        <v>2436</v>
+      </c>
+      <c r="E1034" t="s">
+        <v>2437</v>
+      </c>
+      <c r="F1034" t="s">
+        <v>2438</v>
+      </c>
+      <c r="G1034">
+        <v>0</v>
+      </c>
+      <c r="H1034">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:8">
+      <c r="A1035">
+        <v>1034</v>
+      </c>
+      <c r="B1035">
+        <v>3</v>
+      </c>
+      <c r="C1035">
+        <v>4</v>
+      </c>
+      <c r="D1035" t="s">
+        <v>544</v>
+      </c>
+      <c r="E1035" t="s">
+        <v>2437</v>
+      </c>
+      <c r="F1035" t="s">
+        <v>2439</v>
+      </c>
+      <c r="G1035">
+        <v>0</v>
+      </c>
+      <c r="H1035">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:8">
+      <c r="A1036">
+        <v>1035</v>
+      </c>
+      <c r="B1036">
+        <v>3</v>
+      </c>
+      <c r="C1036">
+        <v>4</v>
+      </c>
+      <c r="D1036" t="s">
+        <v>852</v>
+      </c>
+      <c r="E1036" t="s">
+        <v>2440</v>
+      </c>
+      <c r="F1036" t="s">
+        <v>2438</v>
+      </c>
+      <c r="G1036">
+        <v>0</v>
+      </c>
+      <c r="H1036">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:8">
+      <c r="A1037">
+        <v>1036</v>
+      </c>
+      <c r="B1037">
+        <v>3</v>
+      </c>
+      <c r="C1037">
+        <v>4</v>
+      </c>
+      <c r="D1037" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1037" t="s">
+        <v>2441</v>
+      </c>
+      <c r="F1037" t="s">
+        <v>2442</v>
+      </c>
+      <c r="G1037">
+        <v>0</v>
+      </c>
+      <c r="H1037">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:8">
+      <c r="A1038">
+        <v>1037</v>
+      </c>
+      <c r="B1038">
+        <v>3</v>
+      </c>
+      <c r="C1038">
+        <v>4</v>
+      </c>
+      <c r="D1038" t="s">
+        <v>2443</v>
+      </c>
+      <c r="E1038" t="s">
+        <v>2444</v>
+      </c>
+      <c r="F1038" t="s">
+        <v>2445</v>
+      </c>
+      <c r="G1038">
+        <v>0</v>
+      </c>
+      <c r="H1038">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:8">
+      <c r="A1039">
+        <v>1038</v>
+      </c>
+      <c r="B1039">
+        <v>3</v>
+      </c>
+      <c r="C1039">
+        <v>4</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>2446</v>
+      </c>
+      <c r="E1039" t="s">
+        <v>2444</v>
+      </c>
+      <c r="F1039" t="s">
+        <v>2447</v>
+      </c>
+      <c r="G1039">
+        <v>0</v>
+      </c>
+      <c r="H1039">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:8">
+      <c r="A1040">
+        <v>1039</v>
+      </c>
+      <c r="B1040">
+        <v>3</v>
+      </c>
+      <c r="C1040">
+        <v>4</v>
+      </c>
+      <c r="D1040" t="s">
+        <v>2134</v>
+      </c>
+      <c r="E1040" t="s">
+        <v>2444</v>
+      </c>
+      <c r="F1040" t="s">
+        <v>2448</v>
+      </c>
+      <c r="G1040">
+        <v>0</v>
+      </c>
+      <c r="H1040">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:8">
+      <c r="A1041">
+        <v>1040</v>
+      </c>
+      <c r="B1041">
+        <v>3</v>
+      </c>
+      <c r="C1041">
+        <v>4</v>
+      </c>
+      <c r="D1041" t="s">
+        <v>2449</v>
+      </c>
+      <c r="E1041" t="s">
+        <v>2441</v>
+      </c>
+      <c r="F1041" t="s">
+        <v>2447</v>
+      </c>
+      <c r="G1041">
+        <v>0</v>
+      </c>
+      <c r="H1041">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:8">
+      <c r="A1042">
+        <v>1041</v>
+      </c>
+      <c r="B1042">
+        <v>3</v>
+      </c>
+      <c r="C1042">
+        <v>4</v>
+      </c>
+      <c r="D1042" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1042" t="s">
+        <v>2450</v>
+      </c>
+      <c r="F1042" t="s">
+        <v>2451</v>
+      </c>
+      <c r="G1042">
+        <v>0</v>
+      </c>
+      <c r="H1042">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:8">
+      <c r="A1043">
+        <v>1042</v>
+      </c>
+      <c r="B1043">
+        <v>3</v>
+      </c>
+      <c r="C1043">
+        <v>4</v>
+      </c>
+      <c r="D1043" t="s">
+        <v>2452</v>
+      </c>
+      <c r="E1043" t="s">
+        <v>2453</v>
+      </c>
+      <c r="F1043" t="s">
+        <v>2454</v>
+      </c>
+      <c r="G1043">
+        <v>0</v>
+      </c>
+      <c r="H1043">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:8">
+      <c r="A1044">
+        <v>1043</v>
+      </c>
+      <c r="B1044">
+        <v>3</v>
+      </c>
+      <c r="C1044">
+        <v>4</v>
+      </c>
+      <c r="D1044" t="s">
+        <v>413</v>
+      </c>
+      <c r="E1044" t="s">
+        <v>2453</v>
+      </c>
+      <c r="F1044" t="s">
+        <v>2455</v>
+      </c>
+      <c r="G1044">
+        <v>0</v>
+      </c>
+      <c r="H1044">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:8">
+      <c r="A1045">
+        <v>1044</v>
+      </c>
+      <c r="B1045">
+        <v>3</v>
+      </c>
+      <c r="C1045">
+        <v>4</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>2456</v>
+      </c>
+      <c r="E1045" t="s">
+        <v>2457</v>
+      </c>
+      <c r="F1045" t="s">
+        <v>2458</v>
+      </c>
+      <c r="G1045">
+        <v>0</v>
+      </c>
+      <c r="H1045">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:8">
+      <c r="A1046">
+        <v>1045</v>
+      </c>
+      <c r="B1046">
+        <v>3</v>
+      </c>
+      <c r="C1046">
+        <v>4</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>2459</v>
+      </c>
+      <c r="E1046" t="s">
+        <v>2457</v>
+      </c>
+      <c r="F1046" t="s">
+        <v>2460</v>
+      </c>
+      <c r="G1046">
+        <v>0</v>
+      </c>
+      <c r="H1046">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:8">
+      <c r="A1047">
+        <v>1046</v>
+      </c>
+      <c r="B1047">
+        <v>3</v>
+      </c>
+      <c r="C1047">
+        <v>4</v>
+      </c>
+      <c r="D1047" t="s">
+        <v>2461</v>
+      </c>
+      <c r="E1047" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F1047" t="s">
+        <v>2467</v>
+      </c>
+      <c r="G1047">
+        <v>0</v>
+      </c>
+      <c r="H1047">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:8">
+      <c r="A1048">
+        <v>1047</v>
+      </c>
+      <c r="B1048">
+        <v>3</v>
+      </c>
+      <c r="C1048">
+        <v>4</v>
+      </c>
+      <c r="D1048" t="s">
+        <v>2463</v>
+      </c>
+      <c r="E1048" t="s">
+        <v>2464</v>
+      </c>
+      <c r="F1048" t="s">
+        <v>2467</v>
+      </c>
+      <c r="G1048">
+        <v>0</v>
+      </c>
+      <c r="H1048">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:8">
+      <c r="A1049">
+        <v>1048</v>
+      </c>
+      <c r="B1049">
+        <v>3</v>
+      </c>
+      <c r="C1049">
+        <v>4</v>
+      </c>
+      <c r="D1049" t="s">
+        <v>2465</v>
+      </c>
+      <c r="E1049" t="s">
+        <v>2466</v>
+      </c>
+      <c r="F1049" t="s">
+        <v>2467</v>
+      </c>
+      <c r="G1049">
+        <v>0</v>
+      </c>
+      <c r="H1049">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:8">
+      <c r="A1050">
+        <v>1049</v>
+      </c>
+      <c r="B1050">
+        <v>3</v>
+      </c>
+      <c r="C1050">
+        <v>4</v>
+      </c>
+      <c r="D1050" t="s">
+        <v>2468</v>
+      </c>
+      <c r="E1050" t="s">
+        <v>2469</v>
+      </c>
+      <c r="F1050" t="s">
+        <v>2470</v>
+      </c>
+      <c r="G1050">
+        <v>0</v>
+      </c>
+      <c r="H1050">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:8">
+      <c r="A1051">
+        <v>1050</v>
+      </c>
+      <c r="B1051">
+        <v>3</v>
+      </c>
+      <c r="C1051">
+        <v>4</v>
+      </c>
+      <c r="D1051" t="s">
+        <v>2471</v>
+      </c>
+      <c r="E1051" t="s">
+        <v>2469</v>
+      </c>
+      <c r="F1051" t="s">
+        <v>2472</v>
+      </c>
+      <c r="G1051">
+        <v>0</v>
+      </c>
+      <c r="H1051">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:8">
+      <c r="A1052">
+        <v>1051</v>
+      </c>
+      <c r="B1052">
+        <v>3</v>
+      </c>
+      <c r="C1052">
+        <v>4</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E1052" t="s">
+        <v>2472</v>
+      </c>
+      <c r="F1052" t="s">
+        <v>2474</v>
+      </c>
+      <c r="G1052">
+        <v>0</v>
+      </c>
+      <c r="H1052">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:8">
+      <c r="A1053">
+        <v>1052</v>
+      </c>
+      <c r="B1053">
+        <v>3</v>
+      </c>
+      <c r="C1053">
+        <v>4</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>898</v>
+      </c>
+      <c r="E1053" t="s">
+        <v>2472</v>
+      </c>
+      <c r="F1053" t="s">
+        <v>2475</v>
+      </c>
+      <c r="G1053">
+        <v>0</v>
+      </c>
+      <c r="H1053">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:8">
+      <c r="A1054">
+        <v>1053</v>
+      </c>
+      <c r="B1054">
+        <v>3</v>
+      </c>
+      <c r="C1054">
+        <v>4</v>
+      </c>
+      <c r="D1054" t="s">
+        <v>2476</v>
+      </c>
+      <c r="E1054" t="s">
+        <v>2472</v>
+      </c>
+      <c r="F1054" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G1054">
+        <v>0</v>
+      </c>
+      <c r="H1054">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:8">
+      <c r="A1055">
+        <v>1054</v>
+      </c>
+      <c r="B1055">
+        <v>3</v>
+      </c>
+      <c r="C1055">
+        <v>4</v>
+      </c>
+      <c r="D1055" t="s">
+        <v>2478</v>
+      </c>
+      <c r="E1055" t="s">
+        <v>2479</v>
+      </c>
+      <c r="F1055" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G1055">
+        <v>0</v>
+      </c>
+      <c r="H1055">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:8">
+      <c r="A1056">
+        <v>1055</v>
+      </c>
+      <c r="B1056">
+        <v>3</v>
+      </c>
+      <c r="C1056">
+        <v>4</v>
+      </c>
+      <c r="D1056" t="s">
+        <v>2480</v>
+      </c>
+      <c r="E1056" t="s">
+        <v>2481</v>
+      </c>
+      <c r="F1056" t="s">
+        <v>2482</v>
+      </c>
+      <c r="G1056">
+        <v>0</v>
+      </c>
+      <c r="H1056">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:8">
+      <c r="A1057">
+        <v>1056</v>
+      </c>
+      <c r="B1057">
+        <v>3</v>
+      </c>
+      <c r="C1057">
+        <v>4</v>
+      </c>
+      <c r="D1057" t="s">
+        <v>2483</v>
+      </c>
+      <c r="E1057" t="s">
+        <v>2484</v>
+      </c>
+      <c r="F1057" t="s">
+        <v>2485</v>
+      </c>
+      <c r="G1057">
+        <v>0</v>
+      </c>
+      <c r="H1057">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:8">
+      <c r="A1058">
+        <v>1057</v>
+      </c>
+      <c r="B1058">
+        <v>3</v>
+      </c>
+      <c r="C1058">
+        <v>4</v>
+      </c>
+      <c r="D1058" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E1058" t="s">
+        <v>2481</v>
+      </c>
+      <c r="F1058" t="s">
+        <v>2485</v>
+      </c>
+      <c r="G1058">
+        <v>0</v>
+      </c>
+      <c r="H1058">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:8">
+      <c r="A1059">
+        <v>1058</v>
+      </c>
+      <c r="B1059">
+        <v>3</v>
+      </c>
+      <c r="C1059">
+        <v>4</v>
+      </c>
+      <c r="D1059" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E1059" t="s">
+        <v>2488</v>
+      </c>
+      <c r="F1059" t="s">
+        <v>2489</v>
+      </c>
+      <c r="G1059">
+        <v>0</v>
+      </c>
+      <c r="H1059">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:8">
+      <c r="A1060">
+        <v>1059</v>
+      </c>
+      <c r="B1060">
+        <v>3</v>
+      </c>
+      <c r="C1060">
+        <v>4</v>
+      </c>
+      <c r="D1060" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E1060" t="s">
+        <v>2491</v>
+      </c>
+      <c r="F1060" t="s">
+        <v>2492</v>
+      </c>
+      <c r="G1060">
+        <v>0</v>
+      </c>
+      <c r="H1060">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:8">
+      <c r="A1061">
+        <v>1060</v>
+      </c>
+      <c r="B1061">
+        <v>3</v>
+      </c>
+      <c r="C1061">
+        <v>4</v>
+      </c>
+      <c r="D1061" t="s">
+        <v>860</v>
+      </c>
+      <c r="E1061" t="s">
+        <v>2491</v>
+      </c>
+      <c r="F1061" t="s">
+        <v>2493</v>
+      </c>
+      <c r="G1061">
+        <v>0</v>
+      </c>
+      <c r="H1061">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:8">
+      <c r="A1062">
+        <v>1061</v>
+      </c>
+      <c r="B1062">
+        <v>3</v>
+      </c>
+      <c r="C1062">
+        <v>4</v>
+      </c>
+      <c r="D1062" t="s">
+        <v>2494</v>
+      </c>
+      <c r="E1062" t="s">
+        <v>2495</v>
+      </c>
+      <c r="F1062" t="s">
+        <v>2496</v>
+      </c>
+      <c r="G1062">
+        <v>0</v>
+      </c>
+      <c r="H1062">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:8">
+      <c r="A1063">
+        <v>1062</v>
+      </c>
+      <c r="B1063">
+        <v>3</v>
+      </c>
+      <c r="C1063">
+        <v>4</v>
+      </c>
+      <c r="D1063" t="s">
+        <v>2497</v>
+      </c>
+      <c r="E1063" t="s">
+        <v>2498</v>
+      </c>
+      <c r="F1063" t="s">
+        <v>2499</v>
+      </c>
+      <c r="G1063">
+        <v>0</v>
+      </c>
+      <c r="H1063">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:8">
+      <c r="A1064">
+        <v>1063</v>
+      </c>
+      <c r="B1064">
+        <v>3</v>
+      </c>
+      <c r="C1064">
+        <v>4</v>
+      </c>
+      <c r="D1064" t="s">
+        <v>2503</v>
+      </c>
+      <c r="E1064" t="s">
+        <v>2500</v>
+      </c>
+      <c r="F1064" t="s">
+        <v>2501</v>
+      </c>
+      <c r="G1064">
+        <v>0</v>
+      </c>
+      <c r="H1064">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:8">
+      <c r="A1065">
+        <v>1064</v>
+      </c>
+      <c r="B1065">
+        <v>3</v>
+      </c>
+      <c r="C1065">
+        <v>4</v>
+      </c>
+      <c r="D1065" t="s">
+        <v>2173</v>
+      </c>
+      <c r="E1065" t="s">
+        <v>2500</v>
+      </c>
+      <c r="F1065" t="s">
+        <v>2502</v>
+      </c>
+      <c r="G1065">
+        <v>0</v>
+      </c>
+      <c r="H1065">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:8">
+      <c r="A1066">
+        <v>1065</v>
+      </c>
+      <c r="B1066">
+        <v>3</v>
+      </c>
+      <c r="C1066">
+        <v>4</v>
+      </c>
+      <c r="D1066" t="s">
+        <v>2504</v>
+      </c>
+      <c r="E1066" t="s">
+        <v>2500</v>
+      </c>
+      <c r="F1066" t="s">
+        <v>2505</v>
+      </c>
+      <c r="G1066">
+        <v>0</v>
+      </c>
+      <c r="H1066">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:8">
+      <c r="A1067">
+        <v>1066</v>
+      </c>
+      <c r="B1067">
+        <v>3</v>
+      </c>
+      <c r="C1067">
+        <v>4</v>
+      </c>
+      <c r="D1067" t="s">
+        <v>2506</v>
+      </c>
+      <c r="E1067" t="s">
+        <v>2507</v>
+      </c>
+      <c r="F1067" t="s">
+        <v>2508</v>
+      </c>
+      <c r="G1067">
+        <v>0</v>
+      </c>
+      <c r="H1067">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:8">
+      <c r="A1068">
+        <v>1067</v>
+      </c>
+      <c r="B1068">
+        <v>3</v>
+      </c>
+      <c r="C1068">
+        <v>4</v>
+      </c>
+      <c r="D1068" t="s">
+        <v>2509</v>
+      </c>
+      <c r="E1068" t="s">
+        <v>2510</v>
+      </c>
+      <c r="F1068" t="s">
+        <v>2511</v>
+      </c>
+      <c r="G1068">
+        <v>0</v>
+      </c>
+      <c r="H1068">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:8">
+      <c r="A1069">
+        <v>1068</v>
+      </c>
+      <c r="B1069">
+        <v>3</v>
+      </c>
+      <c r="C1069">
+        <v>4</v>
+      </c>
+      <c r="D1069" t="s">
+        <v>2512</v>
+      </c>
+      <c r="E1069" t="s">
+        <v>2513</v>
+      </c>
+      <c r="F1069" t="s">
+        <v>2511</v>
+      </c>
+      <c r="G1069">
+        <v>0</v>
+      </c>
+      <c r="H1069">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:8">
+      <c r="A1070">
+        <v>1069</v>
+      </c>
+      <c r="B1070">
+        <v>3</v>
+      </c>
+      <c r="C1070">
+        <v>4</v>
+      </c>
+      <c r="D1070" t="s">
+        <v>713</v>
+      </c>
+      <c r="E1070" t="s">
+        <v>2514</v>
+      </c>
+      <c r="F1070" t="s">
+        <v>2515</v>
+      </c>
+      <c r="G1070">
+        <v>0</v>
+      </c>
+      <c r="H1070">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:8">
+      <c r="A1071">
+        <v>1070</v>
+      </c>
+      <c r="B1071">
+        <v>3</v>
+      </c>
+      <c r="C1071">
+        <v>4</v>
+      </c>
+      <c r="D1071" t="s">
+        <v>2516</v>
+      </c>
+      <c r="E1071" t="s">
+        <v>2517</v>
+      </c>
+      <c r="F1071" t="s">
+        <v>2518</v>
+      </c>
+      <c r="G1071">
+        <v>0</v>
+      </c>
+      <c r="H1071">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:8">
+      <c r="A1072">
+        <v>1071</v>
+      </c>
+      <c r="B1072">
+        <v>3</v>
+      </c>
+      <c r="C1072">
+        <v>4</v>
+      </c>
+      <c r="D1072" t="s">
+        <v>2519</v>
+      </c>
+      <c r="E1072" t="s">
+        <v>2520</v>
+      </c>
+      <c r="F1072" t="s">
+        <v>2521</v>
+      </c>
+      <c r="G1072">
+        <v>0</v>
+      </c>
+      <c r="H1072">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:8">
+      <c r="A1073">
+        <v>1072</v>
+      </c>
+      <c r="B1073">
+        <v>3</v>
+      </c>
+      <c r="C1073">
+        <v>4</v>
+      </c>
+      <c r="D1073" t="s">
+        <v>2522</v>
+      </c>
+      <c r="E1073" t="s">
+        <v>2520</v>
+      </c>
+      <c r="F1073" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G1073">
+        <v>0</v>
+      </c>
+      <c r="H1073">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:8">
+      <c r="A1074">
+        <v>1073</v>
+      </c>
+      <c r="B1074">
+        <v>3</v>
+      </c>
+      <c r="C1074">
+        <v>4</v>
+      </c>
+      <c r="D1074" t="s">
+        <v>2524</v>
+      </c>
+      <c r="E1074" t="s">
+        <v>2520</v>
+      </c>
+      <c r="F1074" t="s">
+        <v>2525</v>
+      </c>
+      <c r="G1074">
+        <v>0</v>
+      </c>
+      <c r="H1074">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:8">
+      <c r="A1075">
+        <v>1074</v>
+      </c>
+      <c r="B1075">
+        <v>3</v>
+      </c>
+      <c r="C1075">
+        <v>4</v>
+      </c>
+      <c r="D1075" t="s">
+        <v>2526</v>
+      </c>
+      <c r="E1075" t="s">
+        <v>2527</v>
+      </c>
+      <c r="F1075" t="s">
+        <v>2525</v>
+      </c>
+      <c r="G1075">
+        <v>0</v>
+      </c>
+      <c r="H1075">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:8">
+      <c r="A1076">
+        <v>1075</v>
+      </c>
+      <c r="B1076">
+        <v>3</v>
+      </c>
+      <c r="C1076">
+        <v>4</v>
+      </c>
+      <c r="D1076" t="s">
+        <v>2528</v>
+      </c>
+      <c r="E1076" t="s">
+        <v>2529</v>
+      </c>
+      <c r="F1076" t="s">
+        <v>2530</v>
+      </c>
+      <c r="G1076">
+        <v>0</v>
+      </c>
+      <c r="H1076">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:8">
+      <c r="A1077">
+        <v>1076</v>
+      </c>
+      <c r="B1077">
+        <v>3</v>
+      </c>
+      <c r="C1077">
+        <v>4</v>
+      </c>
+      <c r="D1077" t="s">
+        <v>852</v>
+      </c>
+      <c r="E1077" t="s">
+        <v>2529</v>
+      </c>
+      <c r="F1077" t="s">
+        <v>2531</v>
+      </c>
+      <c r="G1077">
+        <v>0</v>
+      </c>
+      <c r="H1077">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:8">
+      <c r="A1078">
+        <v>1077</v>
+      </c>
+      <c r="B1078">
+        <v>3</v>
+      </c>
+      <c r="C1078">
+        <v>4</v>
+      </c>
+      <c r="D1078" t="s">
+        <v>566</v>
+      </c>
+      <c r="E1078" t="s">
+        <v>2532</v>
+      </c>
+      <c r="F1078" t="s">
+        <v>2533</v>
+      </c>
+      <c r="G1078">
+        <v>0</v>
+      </c>
+      <c r="H1078">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:8">
+      <c r="A1079">
+        <v>1078</v>
+      </c>
+      <c r="B1079">
+        <v>3</v>
+      </c>
+      <c r="C1079">
+        <v>4</v>
+      </c>
+      <c r="D1079" t="s">
+        <v>2534</v>
+      </c>
+      <c r="E1079" t="s">
+        <v>2535</v>
+      </c>
+      <c r="F1079" t="s">
+        <v>2536</v>
+      </c>
+      <c r="G1079">
+        <v>0</v>
+      </c>
+      <c r="H1079">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:8">
+      <c r="A1080">
+        <v>1079</v>
+      </c>
+      <c r="B1080">
+        <v>3</v>
+      </c>
+      <c r="C1080">
+        <v>4</v>
+      </c>
+      <c r="D1080" t="s">
+        <v>2537</v>
+      </c>
+      <c r="E1080" t="s">
+        <v>2535</v>
+      </c>
+      <c r="F1080" t="s">
+        <v>2538</v>
+      </c>
+      <c r="G1080">
+        <v>0</v>
+      </c>
+      <c r="H1080">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:8">
+      <c r="A1081">
+        <v>1080</v>
+      </c>
+      <c r="B1081">
+        <v>3</v>
+      </c>
+      <c r="C1081">
+        <v>4</v>
+      </c>
+      <c r="D1081" t="s">
+        <v>2539</v>
+      </c>
+      <c r="E1081" t="s">
+        <v>2540</v>
+      </c>
+      <c r="F1081" t="s">
+        <v>2541</v>
+      </c>
+      <c r="G1081">
+        <v>0</v>
+      </c>
+      <c r="H1081">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:8">
+      <c r="A1082">
+        <v>1081</v>
+      </c>
+      <c r="B1082">
+        <v>3</v>
+      </c>
+      <c r="C1082">
+        <v>4</v>
+      </c>
+      <c r="D1082" t="s">
+        <v>2312</v>
+      </c>
+      <c r="E1082" t="s">
+        <v>2542</v>
+      </c>
+      <c r="F1082" t="s">
+        <v>2543</v>
+      </c>
+      <c r="G1082">
+        <v>0</v>
+      </c>
+      <c r="H1082">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:8">
+      <c r="A1083">
+        <v>1082</v>
+      </c>
+      <c r="B1083">
+        <v>3</v>
+      </c>
+      <c r="C1083">
+        <v>4</v>
+      </c>
+      <c r="D1083" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E1083" t="s">
+        <v>2544</v>
+      </c>
+      <c r="F1083" t="s">
+        <v>2545</v>
+      </c>
+      <c r="G1083">
+        <v>0</v>
+      </c>
+      <c r="H1083">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:8">
+      <c r="A1084">
+        <v>1083</v>
+      </c>
+      <c r="B1084">
+        <v>3</v>
+      </c>
+      <c r="C1084">
+        <v>4</v>
+      </c>
+      <c r="D1084" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1084" t="s">
+        <v>2546</v>
+      </c>
+      <c r="F1084" t="s">
+        <v>2547</v>
+      </c>
+      <c r="G1084">
+        <v>0</v>
+      </c>
+      <c r="H1084">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:8">
+      <c r="A1085">
+        <v>1084</v>
+      </c>
+      <c r="B1085">
+        <v>3</v>
+      </c>
+      <c r="C1085">
+        <v>4</v>
+      </c>
+      <c r="D1085" t="s">
+        <v>2548</v>
+      </c>
+      <c r="E1085" t="s">
+        <v>2549</v>
+      </c>
+      <c r="F1085" t="s">
+        <v>2550</v>
+      </c>
+      <c r="G1085">
+        <v>0</v>
+      </c>
+      <c r="H1085">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:8">
+      <c r="A1086">
+        <v>1085</v>
+      </c>
+      <c r="B1086">
+        <v>3</v>
+      </c>
+      <c r="C1086">
+        <v>4</v>
+      </c>
+      <c r="D1086" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E1086" t="s">
+        <v>2549</v>
+      </c>
+      <c r="F1086" t="s">
+        <v>2551</v>
+      </c>
+      <c r="G1086">
+        <v>0</v>
+      </c>
+      <c r="H1086">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:8">
+      <c r="A1087">
+        <v>1086</v>
+      </c>
+      <c r="B1087">
+        <v>3</v>
+      </c>
+      <c r="C1087">
+        <v>4</v>
+      </c>
+      <c r="D1087" t="s">
+        <v>566</v>
+      </c>
+      <c r="E1087" t="s">
+        <v>2552</v>
+      </c>
+      <c r="F1087" t="s">
+        <v>2553</v>
+      </c>
+      <c r="G1087">
+        <v>0</v>
+      </c>
+      <c r="H1087">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:8">
+      <c r="A1088">
+        <v>1087</v>
+      </c>
+      <c r="B1088">
+        <v>3</v>
+      </c>
+      <c r="C1088">
+        <v>4</v>
+      </c>
+      <c r="D1088" t="s">
+        <v>2554</v>
+      </c>
+      <c r="E1088" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F1088" t="s">
+        <v>2556</v>
+      </c>
+      <c r="G1088">
+        <v>0</v>
+      </c>
+      <c r="H1088">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:8">
+      <c r="A1089">
+        <v>1088</v>
+      </c>
+      <c r="B1089">
+        <v>3</v>
+      </c>
+      <c r="C1089">
+        <v>4</v>
+      </c>
+      <c r="D1089" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1089" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F1089" t="s">
+        <v>2557</v>
+      </c>
+      <c r="G1089">
+        <v>0</v>
+      </c>
+      <c r="H1089">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:8">
+      <c r="A1090">
+        <v>1089</v>
+      </c>
+      <c r="B1090">
+        <v>3</v>
+      </c>
+      <c r="C1090">
+        <v>4</v>
+      </c>
+      <c r="D1090" t="s">
+        <v>2558</v>
+      </c>
+      <c r="E1090" t="s">
+        <v>2559</v>
+      </c>
+      <c r="F1090" t="s">
+        <v>2560</v>
+      </c>
+      <c r="G1090">
+        <v>0</v>
+      </c>
+      <c r="H1090">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:8">
+      <c r="A1091">
+        <v>1090</v>
+      </c>
+      <c r="B1091">
+        <v>3</v>
+      </c>
+      <c r="C1091">
+        <v>4</v>
+      </c>
+      <c r="D1091" t="s">
+        <v>2561</v>
+      </c>
+      <c r="E1091" t="s">
+        <v>2562</v>
+      </c>
+      <c r="F1091" t="s">
+        <v>2563</v>
+      </c>
+      <c r="G1091">
+        <v>0</v>
+      </c>
+      <c r="H1091">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:8">
+      <c r="A1092">
+        <v>1091</v>
+      </c>
+      <c r="B1092">
+        <v>3</v>
+      </c>
+      <c r="C1092">
+        <v>4</v>
+      </c>
+      <c r="D1092" t="s">
+        <v>2566</v>
+      </c>
+      <c r="E1092" t="s">
+        <v>2564</v>
+      </c>
+      <c r="F1092" t="s">
+        <v>2565</v>
+      </c>
+      <c r="G1092">
+        <v>0</v>
+      </c>
+      <c r="H1092">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:8">
+      <c r="A1093">
+        <v>1092</v>
+      </c>
+      <c r="B1093">
+        <v>3</v>
+      </c>
+      <c r="C1093">
+        <v>4</v>
+      </c>
+      <c r="D1093" t="s">
+        <v>2567</v>
+      </c>
+      <c r="E1093" t="s">
+        <v>2568</v>
+      </c>
+      <c r="F1093" t="s">
+        <v>2569</v>
+      </c>
+      <c r="G1093">
+        <v>0</v>
+      </c>
+      <c r="H1093">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:8">
+      <c r="A1094">
+        <v>1093</v>
+      </c>
+      <c r="B1094">
+        <v>3</v>
+      </c>
+      <c r="C1094">
+        <v>4</v>
+      </c>
+      <c r="D1094" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1094" t="s">
+        <v>2568</v>
+      </c>
+      <c r="F1094" t="s">
+        <v>2570</v>
+      </c>
+      <c r="G1094">
+        <v>0</v>
+      </c>
+      <c r="H1094">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:8">
+      <c r="A1095">
+        <v>1094</v>
+      </c>
+      <c r="B1095">
+        <v>3</v>
+      </c>
+      <c r="C1095">
+        <v>4</v>
+      </c>
+      <c r="D1095" t="s">
+        <v>2571</v>
+      </c>
+      <c r="E1095" t="s">
+        <v>2572</v>
+      </c>
+      <c r="F1095" t="s">
+        <v>2573</v>
+      </c>
+      <c r="G1095">
+        <v>0</v>
+      </c>
+      <c r="H1095">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:8">
+      <c r="A1096">
+        <v>1095</v>
+      </c>
+      <c r="B1096">
+        <v>3</v>
+      </c>
+      <c r="C1096">
+        <v>4</v>
+      </c>
+      <c r="D1096" t="s">
+        <v>2574</v>
+      </c>
+      <c r="E1096" t="s">
+        <v>1841</v>
+      </c>
+      <c r="F1096" t="s">
+        <v>2573</v>
+      </c>
+      <c r="G1096">
+        <v>0</v>
+      </c>
+      <c r="H1096">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:8">
+      <c r="A1097">
+        <v>1096</v>
+      </c>
+      <c r="B1097">
+        <v>3</v>
+      </c>
+      <c r="C1097">
+        <v>4</v>
+      </c>
+      <c r="D1097" t="s">
+        <v>2575</v>
+      </c>
+      <c r="E1097" t="s">
+        <v>2576</v>
+      </c>
+      <c r="F1097" t="s">
+        <v>2577</v>
+      </c>
+      <c r="G1097">
+        <v>0</v>
+      </c>
+      <c r="H1097">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:8">
+      <c r="A1098">
+        <v>1097</v>
+      </c>
+      <c r="B1098">
+        <v>3</v>
+      </c>
+      <c r="C1098">
+        <v>4</v>
+      </c>
+      <c r="D1098" t="s">
+        <v>2494</v>
+      </c>
+      <c r="E1098" t="s">
+        <v>2578</v>
+      </c>
+      <c r="F1098" t="s">
+        <v>2577</v>
+      </c>
+      <c r="G1098">
+        <v>0</v>
+      </c>
+      <c r="H1098">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:8">
+      <c r="A1099">
+        <v>1098</v>
+      </c>
+      <c r="B1099">
+        <v>3</v>
+      </c>
+      <c r="C1099">
+        <v>4</v>
+      </c>
+      <c r="D1099" t="s">
+        <v>2580</v>
+      </c>
+      <c r="E1099" t="s">
+        <v>2579</v>
+      </c>
+      <c r="F1099" t="s">
+        <v>1858</v>
+      </c>
+      <c r="G1099">
+        <v>0</v>
+      </c>
+      <c r="H1099">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:8">
+      <c r="A1100">
+        <v>1099</v>
+      </c>
+      <c r="B1100">
+        <v>3</v>
+      </c>
+      <c r="C1100">
+        <v>4</v>
+      </c>
+      <c r="D1100" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E1100" t="s">
+        <v>2579</v>
+      </c>
+      <c r="F1100" t="s">
+        <v>2581</v>
+      </c>
+      <c r="G1100">
+        <v>0</v>
+      </c>
+      <c r="H1100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:8">
+      <c r="A1101">
+        <v>1100</v>
+      </c>
+      <c r="B1101">
+        <v>3</v>
+      </c>
+      <c r="C1101">
+        <v>4</v>
+      </c>
+      <c r="D1101" t="s">
+        <v>724</v>
+      </c>
+      <c r="E1101" t="s">
+        <v>2582</v>
+      </c>
+      <c r="F1101" t="s">
+        <v>2583</v>
+      </c>
+      <c r="G1101">
+        <v>0</v>
+      </c>
+      <c r="H1101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:8">
+      <c r="A1102">
+        <v>1101</v>
+      </c>
+      <c r="B1102">
+        <v>3</v>
+      </c>
+      <c r="C1102">
+        <v>4</v>
+      </c>
+      <c r="D1102" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E1102" t="s">
+        <v>2585</v>
+      </c>
+      <c r="F1102" t="s">
+        <v>2586</v>
+      </c>
+      <c r="G1102">
+        <v>0</v>
+      </c>
+      <c r="H1102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:8">
+      <c r="A1103">
+        <v>1102</v>
+      </c>
+      <c r="B1103">
+        <v>3</v>
+      </c>
+      <c r="C1103">
+        <v>4</v>
+      </c>
+      <c r="D1103" t="s">
+        <v>2587</v>
+      </c>
+      <c r="E1103" t="s">
+        <v>2588</v>
+      </c>
+      <c r="F1103" t="s">
+        <v>2589</v>
+      </c>
+      <c r="G1103">
+        <v>0</v>
+      </c>
+      <c r="H1103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:8">
+      <c r="A1104">
+        <v>1103</v>
+      </c>
+      <c r="B1104">
+        <v>3</v>
+      </c>
+      <c r="C1104">
+        <v>4</v>
+      </c>
+      <c r="D1104" t="s">
+        <v>294</v>
+      </c>
+      <c r="E1104" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F1104" t="s">
+        <v>2591</v>
+      </c>
+      <c r="G1104">
+        <v>0</v>
+      </c>
+      <c r="H1104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:8">
+      <c r="A1105">
+        <v>1104</v>
+      </c>
+      <c r="B1105">
+        <v>3</v>
+      </c>
+      <c r="C1105">
+        <v>4</v>
+      </c>
+      <c r="D1105" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E1105" t="s">
+        <v>2593</v>
+      </c>
+      <c r="F1105" t="s">
+        <v>2594</v>
+      </c>
+      <c r="G1105">
+        <v>0</v>
+      </c>
+      <c r="H1105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:8">
+      <c r="A1106">
+        <v>1105</v>
+      </c>
+      <c r="B1106">
+        <v>3</v>
+      </c>
+      <c r="C1106">
+        <v>4</v>
+      </c>
+      <c r="D1106" t="s">
+        <v>2595</v>
+      </c>
+      <c r="E1106" t="s">
+        <v>2596</v>
+      </c>
+      <c r="F1106" t="s">
+        <v>2597</v>
+      </c>
+      <c r="G1106">
+        <v>0</v>
+      </c>
+      <c r="H1106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:8">
+      <c r="A1107">
+        <v>1106</v>
+      </c>
+      <c r="B1107">
+        <v>3</v>
+      </c>
+      <c r="C1107">
+        <v>4</v>
+      </c>
+      <c r="D1107" t="s">
+        <v>2598</v>
+      </c>
+      <c r="E1107" t="s">
+        <v>2596</v>
+      </c>
+      <c r="F1107" t="s">
+        <v>2599</v>
+      </c>
+      <c r="G1107">
+        <v>0</v>
+      </c>
+      <c r="H1107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:8">
+      <c r="A1108">
+        <v>1107</v>
+      </c>
+      <c r="B1108">
+        <v>3</v>
+      </c>
+      <c r="C1108">
+        <v>4</v>
+      </c>
+      <c r="D1108" t="s">
+        <v>2600</v>
+      </c>
+      <c r="E1108" t="s">
+        <v>2601</v>
+      </c>
+      <c r="F1108" t="s">
+        <v>2599</v>
+      </c>
+      <c r="G1108">
+        <v>0</v>
+      </c>
+      <c r="H1108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:8">
+      <c r="A1109">
+        <v>1108</v>
+      </c>
+      <c r="B1109">
+        <v>3</v>
+      </c>
+      <c r="C1109">
+        <v>4</v>
+      </c>
+      <c r="D1109" t="s">
+        <v>2602</v>
+      </c>
+      <c r="E1109" t="s">
+        <v>2603</v>
+      </c>
+      <c r="F1109" t="s">
+        <v>785</v>
+      </c>
+      <c r="G1109">
+        <v>0</v>
+      </c>
+      <c r="H1109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:8">
+      <c r="A1110">
+        <v>1109</v>
+      </c>
+      <c r="B1110">
+        <v>3</v>
+      </c>
+      <c r="C1110">
+        <v>4</v>
+      </c>
+      <c r="D1110" t="s">
+        <v>2604</v>
+      </c>
+      <c r="E1110" t="s">
+        <v>2605</v>
+      </c>
+      <c r="F1110" t="s">
+        <v>2606</v>
+      </c>
+      <c r="G1110">
+        <v>0</v>
+      </c>
+      <c r="H1110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:8">
+      <c r="A1111">
+        <v>1110</v>
+      </c>
+      <c r="B1111">
+        <v>3</v>
+      </c>
+      <c r="C1111">
+        <v>4</v>
+      </c>
+      <c r="D1111" t="s">
+        <v>2607</v>
+      </c>
+      <c r="E1111" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F1111" t="s">
+        <v>2609</v>
+      </c>
+      <c r="G1111">
+        <v>0</v>
+      </c>
+      <c r="H1111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:8">
+      <c r="A1112">
+        <v>1111</v>
+      </c>
+      <c r="B1112">
+        <v>3</v>
+      </c>
+      <c r="C1112">
+        <v>4</v>
+      </c>
+      <c r="D1112" t="s">
+        <v>2610</v>
+      </c>
+      <c r="E1112" t="s">
+        <v>2611</v>
+      </c>
+      <c r="F1112" t="s">
+        <v>2609</v>
+      </c>
+      <c r="G1112">
+        <v>0</v>
+      </c>
+      <c r="H1112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:8">
+      <c r="A1113">
+        <v>1112</v>
+      </c>
+      <c r="B1113">
+        <v>3</v>
+      </c>
+      <c r="C1113">
+        <v>4</v>
+      </c>
+      <c r="D1113" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1113" t="s">
+        <v>2612</v>
+      </c>
+      <c r="F1113" t="s">
+        <v>2609</v>
+      </c>
+      <c r="G1113">
+        <v>0</v>
+      </c>
+      <c r="H1113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:8">
+      <c r="A1114">
+        <v>1113</v>
+      </c>
+      <c r="B1114">
+        <v>3</v>
+      </c>
+      <c r="C1114">
+        <v>4</v>
+      </c>
+      <c r="D1114" t="s">
+        <v>2613</v>
+      </c>
+      <c r="E1114" t="s">
+        <v>2614</v>
+      </c>
+      <c r="F1114" t="s">
+        <v>2615</v>
+      </c>
+      <c r="G1114">
+        <v>0</v>
+      </c>
+      <c r="H1114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:8">
+      <c r="A1115">
+        <v>1114</v>
+      </c>
+      <c r="B1115">
+        <v>3</v>
+      </c>
+      <c r="C1115">
+        <v>4</v>
+      </c>
+      <c r="D1115" t="s">
+        <v>2616</v>
+      </c>
+      <c r="E1115" t="s">
+        <v>2614</v>
+      </c>
+      <c r="F1115" t="s">
+        <v>2617</v>
+      </c>
+      <c r="G1115">
+        <v>0</v>
+      </c>
+      <c r="H1115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:8">
+      <c r="A1116">
+        <v>1115</v>
+      </c>
+      <c r="B1116">
+        <v>3</v>
+      </c>
+      <c r="C1116">
+        <v>4</v>
+      </c>
+      <c r="D1116" t="s">
+        <v>2618</v>
+      </c>
+      <c r="E1116" t="s">
+        <v>2619</v>
+      </c>
+      <c r="F1116" t="s">
+        <v>2620</v>
+      </c>
+      <c r="G1116">
+        <v>0</v>
+      </c>
+      <c r="H1116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:8">
+      <c r="A1117">
+        <v>1116</v>
+      </c>
+      <c r="B1117">
+        <v>3</v>
+      </c>
+      <c r="C1117">
+        <v>4</v>
+      </c>
+      <c r="D1117" t="s">
+        <v>2623</v>
+      </c>
+      <c r="E1117" t="s">
+        <v>2621</v>
+      </c>
+      <c r="F1117" t="s">
+        <v>2622</v>
+      </c>
+      <c r="G1117">
+        <v>0</v>
+      </c>
+      <c r="H1117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:8">
+      <c r="A1118">
+        <v>1117</v>
+      </c>
+      <c r="B1118">
+        <v>3</v>
+      </c>
+      <c r="C1118">
+        <v>4</v>
+      </c>
+      <c r="D1118" t="s">
+        <v>2223</v>
+      </c>
+      <c r="E1118" t="s">
+        <v>2621</v>
+      </c>
+      <c r="F1118" t="s">
+        <v>2624</v>
+      </c>
+      <c r="G1118">
+        <v>0</v>
+      </c>
+      <c r="H1118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:8">
+      <c r="A1119">
+        <v>1118</v>
+      </c>
+      <c r="B1119">
+        <v>3</v>
+      </c>
+      <c r="C1119">
+        <v>4</v>
+      </c>
+      <c r="D1119" t="s">
+        <v>331</v>
+      </c>
+      <c r="E1119" t="s">
+        <v>2621</v>
+      </c>
+      <c r="F1119" t="s">
+        <v>2624</v>
+      </c>
+      <c r="G1119">
+        <v>0</v>
+      </c>
+      <c r="H1119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:8">
+      <c r="A1120">
+        <v>1119</v>
+      </c>
+      <c r="B1120">
+        <v>3</v>
+      </c>
+      <c r="C1120">
+        <v>4</v>
+      </c>
+      <c r="D1120" t="s">
+        <v>2625</v>
+      </c>
+      <c r="E1120" t="s">
+        <v>2626</v>
+      </c>
+      <c r="F1120" t="s">
+        <v>2627</v>
+      </c>
+      <c r="G1120">
+        <v>0</v>
+      </c>
+      <c r="H1120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:8">
+      <c r="A1121">
+        <v>1120</v>
+      </c>
+      <c r="B1121">
+        <v>3</v>
+      </c>
+      <c r="C1121">
+        <v>4</v>
+      </c>
+      <c r="D1121" t="s">
+        <v>2628</v>
+      </c>
+      <c r="E1121" t="s">
+        <v>2626</v>
+      </c>
+      <c r="F1121" t="s">
+        <v>2622</v>
+      </c>
+      <c r="G1121">
+        <v>0</v>
+      </c>
+      <c r="H1121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:8">
+      <c r="A1122">
+        <v>1121</v>
+      </c>
+      <c r="B1122">
+        <v>3</v>
+      </c>
+      <c r="C1122">
+        <v>4</v>
+      </c>
+      <c r="D1122" t="s">
+        <v>2629</v>
+      </c>
+      <c r="E1122" t="s">
+        <v>2630</v>
+      </c>
+      <c r="F1122" t="s">
+        <v>2631</v>
+      </c>
+      <c r="G1122">
+        <v>0</v>
+      </c>
+      <c r="H1122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:8">
+      <c r="A1123">
+        <v>1122</v>
+      </c>
+      <c r="B1123">
+        <v>3</v>
+      </c>
+      <c r="C1123">
+        <v>4</v>
+      </c>
+      <c r="D1123" t="s">
+        <v>2632</v>
+      </c>
+      <c r="E1123" t="s">
+        <v>2633</v>
+      </c>
+      <c r="F1123" t="s">
+        <v>2634</v>
+      </c>
+      <c r="G1123">
+        <v>0</v>
+      </c>
+      <c r="H1123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:8">
+      <c r="A1124">
+        <v>1123</v>
+      </c>
+      <c r="B1124">
+        <v>3</v>
+      </c>
+      <c r="C1124">
+        <v>4</v>
+      </c>
+      <c r="D1124" t="s">
+        <v>2635</v>
+      </c>
+      <c r="E1124" t="s">
+        <v>2636</v>
+      </c>
+      <c r="F1124" t="s">
+        <v>2637</v>
+      </c>
+      <c r="G1124">
+        <v>0</v>
+      </c>
+      <c r="H1124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:8">
+      <c r="A1125">
+        <v>1124</v>
+      </c>
+      <c r="B1125">
+        <v>3</v>
+      </c>
+      <c r="C1125">
+        <v>4</v>
+      </c>
+      <c r="D1125" t="s">
+        <v>2406</v>
+      </c>
+      <c r="E1125" t="s">
+        <v>2638</v>
+      </c>
+      <c r="F1125" t="s">
+        <v>2637</v>
+      </c>
+      <c r="G1125">
+        <v>0</v>
+      </c>
+      <c r="H1125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:8">
+      <c r="A1126">
+        <v>1125</v>
+      </c>
+      <c r="B1126">
+        <v>3</v>
+      </c>
+      <c r="C1126">
+        <v>4</v>
+      </c>
+      <c r="D1126" t="s">
+        <v>2639</v>
+      </c>
+      <c r="E1126" t="s">
+        <v>2640</v>
+      </c>
+      <c r="F1126" t="s">
+        <v>2641</v>
+      </c>
+      <c r="G1126">
+        <v>0</v>
+      </c>
+      <c r="H1126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:8">
+      <c r="A1127">
+        <v>1126</v>
+      </c>
+      <c r="B1127">
+        <v>3</v>
+      </c>
+      <c r="C1127">
+        <v>4</v>
+      </c>
+      <c r="D1127" t="s">
+        <v>2642</v>
+      </c>
+      <c r="E1127" t="s">
+        <v>2640</v>
+      </c>
+      <c r="F1127" t="s">
+        <v>2643</v>
+      </c>
+      <c r="G1127">
+        <v>0</v>
+      </c>
+      <c r="H1127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:8">
+      <c r="A1128">
+        <v>1127</v>
+      </c>
+      <c r="B1128">
+        <v>3</v>
+      </c>
+      <c r="C1128">
+        <v>4</v>
+      </c>
+      <c r="D1128" t="s">
+        <v>299</v>
+      </c>
+      <c r="E1128" t="s">
+        <v>2644</v>
+      </c>
+      <c r="F1128" t="s">
+        <v>2645</v>
+      </c>
+      <c r="G1128">
+        <v>0</v>
+      </c>
+      <c r="H1128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:8">
+      <c r="A1129">
+        <v>1128</v>
+      </c>
+      <c r="B1129">
+        <v>3</v>
+      </c>
+      <c r="C1129">
+        <v>4</v>
+      </c>
+      <c r="D1129" t="s">
+        <v>2406</v>
+      </c>
+      <c r="E1129" t="s">
+        <v>2646</v>
+      </c>
+      <c r="F1129" t="s">
+        <v>2647</v>
+      </c>
+      <c r="G1129">
+        <v>0</v>
+      </c>
+      <c r="H1129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:8">
+      <c r="A1130">
+        <v>1129</v>
+      </c>
+      <c r="B1130">
+        <v>3</v>
+      </c>
+      <c r="C1130">
+        <v>4</v>
+      </c>
+      <c r="D1130" t="s">
+        <v>2648</v>
+      </c>
+      <c r="E1130" t="s">
+        <v>2649</v>
+      </c>
+      <c r="F1130" t="s">
+        <v>2650</v>
+      </c>
+      <c r="G1130">
+        <v>0</v>
+      </c>
+      <c r="H1130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:8">
+      <c r="A1131">
+        <v>1130</v>
+      </c>
+      <c r="B1131">
+        <v>3</v>
+      </c>
+      <c r="C1131">
+        <v>4</v>
+      </c>
+      <c r="D1131" t="s">
+        <v>2651</v>
+      </c>
+      <c r="E1131" t="s">
+        <v>2649</v>
+      </c>
+      <c r="F1131" t="s">
+        <v>2652</v>
+      </c>
+      <c r="G1131">
+        <v>0</v>
+      </c>
+      <c r="H1131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:8">
+      <c r="A1132">
+        <v>1131</v>
+      </c>
+      <c r="B1132">
+        <v>3</v>
+      </c>
+      <c r="C1132">
+        <v>4</v>
+      </c>
+      <c r="D1132" t="s">
+        <v>2653</v>
+      </c>
+      <c r="E1132" t="s">
+        <v>2654</v>
+      </c>
+      <c r="F1132" t="s">
+        <v>2655</v>
+      </c>
+      <c r="G1132">
+        <v>0</v>
+      </c>
+      <c r="H1132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:8">
+      <c r="A1133">
+        <v>1132</v>
+      </c>
+      <c r="B1133">
+        <v>3</v>
+      </c>
+      <c r="C1133">
+        <v>4</v>
+      </c>
+      <c r="D1133" t="s">
+        <v>2656</v>
+      </c>
+      <c r="E1133" t="s">
+        <v>2657</v>
+      </c>
+      <c r="F1133" t="s">
+        <v>2655</v>
+      </c>
+      <c r="G1133">
+        <v>0</v>
+      </c>
+      <c r="H1133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:8">
+      <c r="A1134">
+        <v>1133</v>
+      </c>
+      <c r="B1134">
+        <v>3</v>
+      </c>
+      <c r="C1134">
+        <v>4</v>
+      </c>
+      <c r="D1134" t="s">
+        <v>2658</v>
+      </c>
+      <c r="E1134" t="s">
+        <v>2657</v>
+      </c>
+      <c r="F1134" t="s">
+        <v>2655</v>
+      </c>
+      <c r="G1134">
+        <v>0</v>
+      </c>
+      <c r="H1134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:8">
+      <c r="A1135">
+        <v>1134</v>
+      </c>
+      <c r="B1135">
+        <v>3</v>
+      </c>
+      <c r="C1135">
+        <v>4</v>
+      </c>
+      <c r="D1135" t="s">
+        <v>2659</v>
+      </c>
+      <c r="E1135" t="s">
+        <v>2660</v>
+      </c>
+      <c r="F1135" t="s">
+        <v>2661</v>
+      </c>
+      <c r="G1135">
+        <v>0</v>
+      </c>
+      <c r="H1135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:8">
+      <c r="A1136">
+        <v>1135</v>
+      </c>
+      <c r="B1136">
+        <v>3</v>
+      </c>
+      <c r="C1136">
+        <v>4</v>
+      </c>
+      <c r="D1136" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1136" t="s">
+        <v>2662</v>
+      </c>
+      <c r="F1136" t="s">
+        <v>2663</v>
+      </c>
+      <c r="G1136">
+        <v>0</v>
+      </c>
+      <c r="H1136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:8">
+      <c r="A1137">
+        <v>1136</v>
+      </c>
+      <c r="B1137">
+        <v>3</v>
+      </c>
+      <c r="C1137">
+        <v>4</v>
+      </c>
+      <c r="D1137" t="s">
+        <v>2664</v>
+      </c>
+      <c r="E1137" t="s">
+        <v>2665</v>
+      </c>
+      <c r="F1137" t="s">
+        <v>2666</v>
+      </c>
+      <c r="G1137">
+        <v>0</v>
+      </c>
+      <c r="H1137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:8">
+      <c r="A1138">
+        <v>1137</v>
+      </c>
+      <c r="B1138">
+        <v>3</v>
+      </c>
+      <c r="C1138">
+        <v>4</v>
+      </c>
+      <c r="D1138" t="s">
+        <v>2667</v>
+      </c>
+      <c r="E1138" t="s">
+        <v>2662</v>
+      </c>
+      <c r="F1138" t="s">
+        <v>2666</v>
+      </c>
+      <c r="G1138">
+        <v>0</v>
+      </c>
+      <c r="H1138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:8">
+      <c r="A1139">
+        <v>1138</v>
+      </c>
+      <c r="B1139">
+        <v>3</v>
+      </c>
+      <c r="C1139">
+        <v>4</v>
+      </c>
+      <c r="D1139" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1139" t="s">
+        <v>2668</v>
+      </c>
+      <c r="F1139" t="s">
+        <v>2669</v>
+      </c>
+      <c r="G1139">
+        <v>0</v>
+      </c>
+      <c r="H1139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:8">
+      <c r="A1140">
+        <v>1139</v>
+      </c>
+      <c r="B1140">
+        <v>3</v>
+      </c>
+      <c r="C1140">
+        <v>4</v>
+      </c>
+      <c r="D1140" t="s">
+        <v>2670</v>
+      </c>
+      <c r="E1140" t="s">
+        <v>2662</v>
+      </c>
+      <c r="F1140" t="s">
+        <v>2669</v>
+      </c>
+      <c r="G1140">
+        <v>0</v>
+      </c>
+      <c r="H1140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:8">
+      <c r="A1141">
+        <v>1140</v>
+      </c>
+      <c r="B1141">
+        <v>3</v>
+      </c>
+      <c r="C1141">
+        <v>4</v>
+      </c>
+      <c r="D1141" t="s">
+        <v>2671</v>
+      </c>
+      <c r="E1141" t="s">
+        <v>2665</v>
+      </c>
+      <c r="F1141" t="s">
+        <v>2669</v>
+      </c>
+      <c r="G1141">
+        <v>0</v>
+      </c>
+      <c r="H1141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:8">
+      <c r="A1142">
+        <v>1141</v>
+      </c>
+      <c r="B1142">
+        <v>3</v>
+      </c>
+      <c r="C1142">
+        <v>4</v>
+      </c>
+      <c r="D1142" t="s">
+        <v>2672</v>
+      </c>
+      <c r="E1142" t="s">
+        <v>2673</v>
+      </c>
+      <c r="F1142" t="s">
+        <v>2674</v>
+      </c>
+      <c r="G1142">
+        <v>0</v>
+      </c>
+      <c r="H1142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:8">
+      <c r="A1143">
+        <v>1142</v>
+      </c>
+      <c r="B1143">
+        <v>3</v>
+      </c>
+      <c r="C1143">
+        <v>4</v>
+      </c>
+      <c r="D1143" t="s">
+        <v>2675</v>
+      </c>
+      <c r="E1143" t="s">
+        <v>2676</v>
+      </c>
+      <c r="F1143" t="s">
+        <v>2677</v>
+      </c>
+      <c r="G1143">
+        <v>0</v>
+      </c>
+      <c r="H1143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:8">
+      <c r="A1144">
+        <v>1143</v>
+      </c>
+      <c r="B1144">
+        <v>3</v>
+      </c>
+      <c r="C1144">
+        <v>4</v>
+      </c>
+      <c r="D1144" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1144" t="s">
+        <v>2089</v>
+      </c>
+      <c r="F1144" t="s">
+        <v>2678</v>
+      </c>
+      <c r="G1144">
+        <v>0</v>
+      </c>
+      <c r="H1144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:8">
+      <c r="A1145">
+        <v>1144</v>
+      </c>
+      <c r="B1145">
+        <v>3</v>
+      </c>
+      <c r="C1145">
+        <v>4</v>
+      </c>
+      <c r="D1145" t="s">
+        <v>2679</v>
+      </c>
+      <c r="E1145" t="s">
+        <v>2680</v>
+      </c>
+      <c r="F1145" t="s">
+        <v>2681</v>
+      </c>
+      <c r="G1145">
+        <v>0</v>
+      </c>
+      <c r="H1145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:8">
+      <c r="A1146">
+        <v>1145</v>
+      </c>
+      <c r="B1146">
+        <v>3</v>
+      </c>
+      <c r="C1146">
+        <v>4</v>
+      </c>
+      <c r="D1146" t="s">
+        <v>2682</v>
+      </c>
+      <c r="E1146" t="s">
+        <v>2680</v>
+      </c>
+      <c r="F1146" t="s">
+        <v>2683</v>
+      </c>
+      <c r="G1146">
+        <v>0</v>
+      </c>
+      <c r="H1146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:8">
+      <c r="A1147">
+        <v>1146</v>
+      </c>
+      <c r="B1147">
+        <v>3</v>
+      </c>
+      <c r="C1147">
+        <v>4</v>
+      </c>
+      <c r="D1147" t="s">
+        <v>2684</v>
+      </c>
+      <c r="E1147" t="s">
+        <v>2685</v>
+      </c>
+      <c r="F1147" t="s">
+        <v>2686</v>
+      </c>
+      <c r="G1147">
+        <v>0</v>
+      </c>
+      <c r="H1147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:8">
+      <c r="A1148">
+        <v>1147</v>
+      </c>
+      <c r="B1148">
+        <v>3</v>
+      </c>
+      <c r="C1148">
+        <v>4</v>
+      </c>
+      <c r="D1148" t="s">
+        <v>2687</v>
+      </c>
+      <c r="E1148" t="s">
+        <v>2688</v>
+      </c>
+      <c r="F1148" t="s">
+        <v>2689</v>
+      </c>
+      <c r="G1148">
+        <v>0</v>
+      </c>
+      <c r="H1148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:8">
+      <c r="A1149">
+        <v>1148</v>
+      </c>
+      <c r="B1149">
+        <v>3</v>
+      </c>
+      <c r="C1149">
+        <v>4</v>
+      </c>
+      <c r="D1149" t="s">
+        <v>2690</v>
+      </c>
+      <c r="E1149" t="s">
+        <v>2691</v>
+      </c>
+      <c r="F1149" t="s">
+        <v>2689</v>
+      </c>
+      <c r="G1149">
+        <v>0</v>
+      </c>
+      <c r="H1149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:8">
+      <c r="A1150">
+        <v>1149</v>
+      </c>
+      <c r="B1150">
+        <v>3</v>
+      </c>
+      <c r="C1150">
+        <v>4</v>
+      </c>
+      <c r="D1150" t="s">
+        <v>2694</v>
+      </c>
+      <c r="E1150" t="s">
+        <v>2692</v>
+      </c>
+      <c r="F1150" t="s">
+        <v>2693</v>
+      </c>
+      <c r="G1150">
+        <v>0</v>
+      </c>
+      <c r="H1150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:8">
+      <c r="A1151">
+        <v>1150</v>
+      </c>
+      <c r="B1151">
+        <v>3</v>
+      </c>
+      <c r="C1151">
+        <v>4</v>
+      </c>
+      <c r="D1151" t="s">
+        <v>2695</v>
+      </c>
+      <c r="E1151" t="s">
+        <v>2696</v>
+      </c>
+      <c r="F1151" t="s">
+        <v>2697</v>
+      </c>
+      <c r="G1151">
+        <v>0</v>
+      </c>
+      <c r="H1151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:8">
+      <c r="A1152">
+        <v>1151</v>
+      </c>
+      <c r="B1152">
+        <v>3</v>
+      </c>
+      <c r="C1152">
+        <v>4</v>
+      </c>
+      <c r="D1152" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1152" t="s">
+        <v>2696</v>
+      </c>
+      <c r="F1152" t="s">
+        <v>2698</v>
+      </c>
+      <c r="G1152">
+        <v>0</v>
+      </c>
+      <c r="H1152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:8">
+      <c r="A1153">
+        <v>1152</v>
+      </c>
+      <c r="B1153">
+        <v>3</v>
+      </c>
+      <c r="C1153">
+        <v>4</v>
+      </c>
+      <c r="D1153" t="s">
+        <v>2699</v>
+      </c>
+      <c r="E1153" t="s">
+        <v>2700</v>
+      </c>
+      <c r="F1153" t="s">
+        <v>2701</v>
+      </c>
+      <c r="G1153">
+        <v>0</v>
+      </c>
+      <c r="H1153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:8">
+      <c r="A1154">
+        <v>1153</v>
+      </c>
+      <c r="B1154">
+        <v>3</v>
+      </c>
+      <c r="C1154">
+        <v>4</v>
+      </c>
+      <c r="D1154" t="s">
+        <v>2702</v>
+      </c>
+      <c r="E1154" t="s">
+        <v>2703</v>
+      </c>
+      <c r="F1154" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G1154">
+        <v>1</v>
+      </c>
+      <c r="H1154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:8">
+      <c r="A1155">
+        <v>1154</v>
+      </c>
+      <c r="B1155">
+        <v>3</v>
+      </c>
+      <c r="C1155">
+        <v>4</v>
+      </c>
+      <c r="D1155" t="s">
+        <v>2134</v>
+      </c>
+      <c r="E1155" t="s">
+        <v>2704</v>
+      </c>
+      <c r="F1155" t="s">
+        <v>2705</v>
+      </c>
+      <c r="G1155">
+        <v>1</v>
+      </c>
+      <c r="H1155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:8">
+      <c r="A1156">
+        <v>1155</v>
+      </c>
+      <c r="B1156">
+        <v>3</v>
+      </c>
+      <c r="C1156">
+        <v>4</v>
+      </c>
+      <c r="D1156" t="s">
+        <v>2706</v>
+      </c>
+      <c r="E1156" t="s">
+        <v>2704</v>
+      </c>
+      <c r="F1156" t="s">
+        <v>1152</v>
+      </c>
+      <c r="G1156">
+        <v>1</v>
+      </c>
+      <c r="H1156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:8">
+      <c r="A1157">
+        <v>1156</v>
+      </c>
+      <c r="B1157">
+        <v>3</v>
+      </c>
+      <c r="C1157">
+        <v>4</v>
+      </c>
+      <c r="D1157" t="s">
+        <v>2707</v>
+      </c>
+      <c r="E1157" t="s">
+        <v>2705</v>
+      </c>
+      <c r="F1157" t="s">
+        <v>1152</v>
+      </c>
+      <c r="G1157">
+        <v>1</v>
+      </c>
+      <c r="H1157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:8">
+      <c r="A1158">
+        <v>1157</v>
+      </c>
+      <c r="B1158">
+        <v>3</v>
+      </c>
+      <c r="C1158">
+        <v>4</v>
+      </c>
+      <c r="D1158" t="s">
+        <v>2710</v>
+      </c>
+      <c r="E1158" t="s">
+        <v>2708</v>
+      </c>
+      <c r="F1158" t="s">
+        <v>2709</v>
+      </c>
+      <c r="G1158">
+        <v>1</v>
+      </c>
+      <c r="H1158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:8">
+      <c r="A1159">
+        <v>1158</v>
+      </c>
+      <c r="B1159">
+        <v>3</v>
+      </c>
+      <c r="C1159">
+        <v>4</v>
+      </c>
+      <c r="D1159" t="s">
+        <v>2711</v>
+      </c>
+      <c r="E1159" t="s">
+        <v>415</v>
+      </c>
+      <c r="F1159" t="s">
+        <v>2709</v>
+      </c>
+      <c r="G1159">
+        <v>1</v>
+      </c>
+      <c r="H1159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:8">
+      <c r="A1160">
+        <v>1159</v>
+      </c>
+      <c r="B1160">
+        <v>3</v>
+      </c>
+      <c r="C1160">
+        <v>4</v>
+      </c>
+      <c r="D1160" t="s">
+        <v>2712</v>
+      </c>
+      <c r="E1160" t="s">
+        <v>2713</v>
+      </c>
+      <c r="F1160" t="s">
+        <v>2709</v>
+      </c>
+      <c r="G1160">
+        <v>1</v>
+      </c>
+      <c r="H1160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:8">
+      <c r="A1161">
+        <v>1160</v>
+      </c>
+      <c r="B1161">
+        <v>3</v>
+      </c>
+      <c r="C1161">
+        <v>4</v>
+      </c>
+      <c r="D1161" t="s">
+        <v>2714</v>
+      </c>
+      <c r="E1161" t="s">
+        <v>2715</v>
+      </c>
+      <c r="F1161" t="s">
+        <v>2716</v>
+      </c>
+      <c r="G1161">
+        <v>1</v>
+      </c>
+      <c r="H1161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:8">
+      <c r="A1162">
+        <v>1161</v>
+      </c>
+      <c r="B1162">
+        <v>3</v>
+      </c>
+      <c r="C1162">
+        <v>4</v>
+      </c>
+      <c r="D1162" t="s">
+        <v>2717</v>
+      </c>
+      <c r="E1162" t="s">
+        <v>2718</v>
+      </c>
+      <c r="F1162" t="s">
+        <v>2719</v>
+      </c>
+      <c r="G1162">
+        <v>1</v>
+      </c>
+      <c r="H1162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:8">
+      <c r="A1163">
+        <v>1162</v>
+      </c>
+      <c r="B1163">
+        <v>3</v>
+      </c>
+      <c r="C1163">
+        <v>4</v>
+      </c>
+      <c r="D1163" t="s">
+        <v>2720</v>
+      </c>
+      <c r="E1163" t="s">
+        <v>2721</v>
+      </c>
+      <c r="F1163" t="s">
+        <v>2722</v>
+      </c>
+      <c r="G1163">
+        <v>1</v>
+      </c>
+      <c r="H1163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:8">
+      <c r="A1164">
+        <v>1163</v>
+      </c>
+      <c r="B1164">
+        <v>3</v>
+      </c>
+      <c r="C1164">
+        <v>4</v>
+      </c>
+      <c r="D1164" t="s">
+        <v>2723</v>
+      </c>
+      <c r="E1164" t="s">
+        <v>2721</v>
+      </c>
+      <c r="F1164" t="s">
+        <v>2724</v>
+      </c>
+      <c r="G1164">
+        <v>1</v>
+      </c>
+      <c r="H1164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:8">
+      <c r="A1165">
+        <v>1164</v>
+      </c>
+      <c r="B1165">
+        <v>3</v>
+      </c>
+      <c r="C1165">
+        <v>4</v>
+      </c>
+      <c r="D1165" t="s">
+        <v>2727</v>
+      </c>
+      <c r="E1165" t="s">
+        <v>2725</v>
+      </c>
+      <c r="F1165" t="s">
+        <v>2726</v>
+      </c>
+      <c r="G1165">
+        <v>1</v>
+      </c>
+      <c r="H1165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:8">
+      <c r="A1166">
+        <v>1165</v>
+      </c>
+      <c r="B1166">
+        <v>3</v>
+      </c>
+      <c r="C1166">
+        <v>4</v>
+      </c>
+      <c r="D1166" t="s">
+        <v>2728</v>
+      </c>
+      <c r="E1166" t="s">
+        <v>2725</v>
+      </c>
+      <c r="F1166" t="s">
+        <v>2726</v>
+      </c>
+      <c r="G1166">
+        <v>1</v>
+      </c>
+      <c r="H1166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:8">
+      <c r="A1167">
+        <v>1166</v>
+      </c>
+      <c r="B1167">
+        <v>3</v>
+      </c>
+      <c r="C1167">
+        <v>4</v>
+      </c>
+      <c r="D1167" t="s">
+        <v>2729</v>
+      </c>
+      <c r="E1167" t="s">
+        <v>2730</v>
+      </c>
+      <c r="F1167" t="s">
+        <v>2731</v>
+      </c>
+      <c r="G1167">
+        <v>1</v>
+      </c>
+      <c r="H1167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:8">
+      <c r="A1168">
+        <v>1167</v>
+      </c>
+      <c r="B1168">
+        <v>3</v>
+      </c>
+      <c r="C1168">
+        <v>4</v>
+      </c>
+      <c r="D1168" t="s">
+        <v>2732</v>
+      </c>
+      <c r="E1168" t="s">
+        <v>2733</v>
+      </c>
+      <c r="F1168" t="s">
+        <v>581</v>
+      </c>
+      <c r="G1168">
+        <v>1</v>
+      </c>
+      <c r="H1168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:8">
+      <c r="A1169">
+        <v>1168</v>
+      </c>
+      <c r="B1169">
+        <v>3</v>
+      </c>
+      <c r="C1169">
+        <v>4</v>
+      </c>
+      <c r="D1169" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E1169" t="s">
+        <v>2733</v>
+      </c>
+      <c r="F1169" t="s">
+        <v>2735</v>
+      </c>
+      <c r="G1169">
+        <v>1</v>
+      </c>
+      <c r="H1169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:8">
+      <c r="A1170">
+        <v>1169</v>
+      </c>
+      <c r="B1170">
+        <v>3</v>
+      </c>
+      <c r="C1170">
+        <v>4</v>
+      </c>
+      <c r="D1170" t="s">
+        <v>2736</v>
+      </c>
+      <c r="E1170" t="s">
+        <v>2737</v>
+      </c>
+      <c r="F1170" t="s">
+        <v>2738</v>
+      </c>
+      <c r="G1170">
+        <v>0</v>
+      </c>
+      <c r="H1170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:8">
+      <c r="A1171">
+        <v>1170</v>
+      </c>
+      <c r="B1171">
+        <v>3</v>
+      </c>
+      <c r="C1171">
+        <v>4</v>
+      </c>
+      <c r="D1171" t="s">
+        <v>2739</v>
+      </c>
+      <c r="E1171" t="s">
+        <v>2738</v>
+      </c>
+      <c r="F1171" t="s">
+        <v>2740</v>
+      </c>
+      <c r="G1171">
+        <v>0</v>
+      </c>
+      <c r="H1171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:8">
+      <c r="A1172">
+        <v>1171</v>
+      </c>
+      <c r="B1172">
+        <v>3</v>
+      </c>
+      <c r="C1172">
+        <v>4</v>
+      </c>
+      <c r="D1172" t="s">
+        <v>2741</v>
+      </c>
+      <c r="E1172" t="s">
+        <v>2742</v>
+      </c>
+      <c r="F1172" t="s">
+        <v>2740</v>
+      </c>
+      <c r="G1172">
+        <v>0</v>
+      </c>
+      <c r="H1172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:8">
+      <c r="A1173">
+        <v>1172</v>
+      </c>
+      <c r="B1173">
+        <v>3</v>
+      </c>
+      <c r="C1173">
+        <v>4</v>
+      </c>
+      <c r="D1173" t="s">
+        <v>2743</v>
+      </c>
+      <c r="E1173" t="s">
+        <v>2744</v>
+      </c>
+      <c r="F1173" t="s">
+        <v>2745</v>
+      </c>
+      <c r="G1173">
+        <v>0</v>
+      </c>
+      <c r="H1173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:8">
+      <c r="A1174">
+        <v>1173</v>
+      </c>
+      <c r="B1174">
+        <v>3</v>
+      </c>
+      <c r="C1174">
+        <v>4</v>
+      </c>
+      <c r="D1174" t="s">
+        <v>2746</v>
+      </c>
+      <c r="E1174" t="s">
+        <v>2744</v>
+      </c>
+      <c r="F1174" t="s">
+        <v>2747</v>
+      </c>
+      <c r="G1174">
+        <v>0</v>
+      </c>
+      <c r="H1174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:8">
+      <c r="A1175">
+        <v>1174</v>
+      </c>
+      <c r="B1175">
+        <v>3</v>
+      </c>
+      <c r="C1175">
+        <v>4</v>
+      </c>
+      <c r="D1175" t="s">
+        <v>2748</v>
+      </c>
+      <c r="E1175" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F1175" t="s">
+        <v>2750</v>
+      </c>
+      <c r="G1175">
+        <v>0</v>
+      </c>
+      <c r="H1175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:8">
+      <c r="A1176">
+        <v>1175</v>
+      </c>
+      <c r="B1176">
+        <v>3</v>
+      </c>
+      <c r="C1176">
+        <v>4</v>
+      </c>
+      <c r="D1176" t="s">
+        <v>2751</v>
+      </c>
+      <c r="E1176" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F1176" t="s">
+        <v>2752</v>
+      </c>
+      <c r="G1176">
+        <v>0</v>
+      </c>
+      <c r="H1176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:8">
+      <c r="A1177">
+        <v>1176</v>
+      </c>
+      <c r="B1177">
+        <v>3</v>
+      </c>
+      <c r="C1177">
+        <v>4</v>
+      </c>
+      <c r="D1177" t="s">
+        <v>2753</v>
+      </c>
+      <c r="E1177" t="s">
+        <v>2754</v>
+      </c>
+      <c r="F1177" t="s">
+        <v>2752</v>
+      </c>
+      <c r="G1177">
+        <v>0</v>
+      </c>
+      <c r="H1177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:8">
+      <c r="A1178">
+        <v>1177</v>
+      </c>
+      <c r="B1178">
+        <v>3</v>
+      </c>
+      <c r="C1178">
+        <v>4</v>
+      </c>
+      <c r="D1178" t="s">
+        <v>2755</v>
+      </c>
+      <c r="E1178" t="s">
+        <v>2756</v>
+      </c>
+      <c r="F1178" t="s">
+        <v>2757</v>
+      </c>
+      <c r="G1178">
+        <v>0</v>
+      </c>
+      <c r="H1178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:8">
+      <c r="A1179">
+        <v>1178</v>
+      </c>
+      <c r="B1179">
+        <v>3</v>
+      </c>
+      <c r="C1179">
+        <v>4</v>
+      </c>
+      <c r="D1179" t="s">
+        <v>2758</v>
+      </c>
+      <c r="E1179" t="s">
+        <v>2756</v>
+      </c>
+      <c r="F1179" t="s">
+        <v>2759</v>
+      </c>
+      <c r="G1179">
+        <v>0</v>
+      </c>
+      <c r="H1179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:8">
+      <c r="A1180">
+        <v>1179</v>
+      </c>
+      <c r="B1180">
+        <v>3</v>
+      </c>
+      <c r="C1180">
+        <v>4</v>
+      </c>
+      <c r="D1180" t="s">
+        <v>2760</v>
+      </c>
+      <c r="E1180" t="s">
+        <v>2761</v>
+      </c>
+      <c r="F1180" t="s">
+        <v>2762</v>
+      </c>
+      <c r="G1180">
+        <v>0</v>
+      </c>
+      <c r="H1180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:8">
+      <c r="A1181">
+        <v>1180</v>
+      </c>
+      <c r="B1181">
+        <v>3</v>
+      </c>
+      <c r="C1181">
+        <v>4</v>
+      </c>
+      <c r="D1181" t="s">
+        <v>659</v>
+      </c>
+      <c r="E1181" t="s">
+        <v>2761</v>
+      </c>
+      <c r="F1181" t="s">
+        <v>2763</v>
+      </c>
+      <c r="G1181">
+        <v>0</v>
+      </c>
+      <c r="H1181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:8">
+      <c r="A1182">
+        <v>1181</v>
+      </c>
+      <c r="B1182">
+        <v>3</v>
+      </c>
+      <c r="C1182">
+        <v>4</v>
+      </c>
+      <c r="D1182" t="s">
+        <v>2764</v>
+      </c>
+      <c r="E1182" t="s">
+        <v>2765</v>
+      </c>
+      <c r="F1182" t="s">
+        <v>1811</v>
+      </c>
+      <c r="G1182">
+        <v>0</v>
+      </c>
+      <c r="H1182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:8">
+      <c r="A1183">
+        <v>1182</v>
+      </c>
+      <c r="B1183">
+        <v>3</v>
+      </c>
+      <c r="C1183">
+        <v>4</v>
+      </c>
+      <c r="D1183" t="s">
+        <v>299</v>
+      </c>
+      <c r="E1183" t="s">
+        <v>2765</v>
+      </c>
+      <c r="F1183" t="s">
+        <v>2766</v>
+      </c>
+      <c r="G1183">
+        <v>0</v>
+      </c>
+      <c r="H1183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:8">
+      <c r="A1184">
+        <v>1183</v>
+      </c>
+      <c r="B1184">
+        <v>3</v>
+      </c>
+      <c r="C1184">
+        <v>4</v>
+      </c>
+      <c r="D1184" t="s">
+        <v>2767</v>
+      </c>
+      <c r="E1184" t="s">
+        <v>1806</v>
+      </c>
+      <c r="F1184" t="s">
+        <v>2768</v>
+      </c>
+      <c r="G1184">
+        <v>0</v>
+      </c>
+      <c r="H1184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:8">
+      <c r="A1185">
+        <v>1184</v>
+      </c>
+      <c r="B1185">
+        <v>3</v>
+      </c>
+      <c r="C1185">
+        <v>4</v>
+      </c>
+      <c r="D1185" t="s">
+        <v>2769</v>
+      </c>
+      <c r="E1185" t="s">
+        <v>2770</v>
+      </c>
+      <c r="F1185" t="s">
+        <v>2771</v>
+      </c>
+      <c r="G1185">
+        <v>0</v>
+      </c>
+      <c r="H1185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:8">
+      <c r="A1186">
+        <v>1185</v>
+      </c>
+      <c r="B1186">
+        <v>3</v>
+      </c>
+      <c r="C1186">
+        <v>4</v>
+      </c>
+      <c r="D1186" t="s">
+        <v>2772</v>
+      </c>
+      <c r="E1186" t="s">
+        <v>2773</v>
+      </c>
+      <c r="F1186" t="s">
+        <v>2774</v>
+      </c>
+      <c r="G1186">
+        <v>0</v>
+      </c>
+      <c r="H1186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:8">
+      <c r="A1187">
+        <v>1186</v>
+      </c>
+      <c r="B1187">
+        <v>3</v>
+      </c>
+      <c r="C1187">
+        <v>4</v>
+      </c>
+      <c r="D1187" t="s">
+        <v>2775</v>
+      </c>
+      <c r="E1187" t="s">
+        <v>2776</v>
+      </c>
+      <c r="F1187" t="s">
+        <v>2777</v>
+      </c>
+      <c r="G1187">
+        <v>0</v>
+      </c>
+      <c r="H1187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:8">
+      <c r="A1188">
+        <v>1187</v>
+      </c>
+      <c r="B1188">
+        <v>3</v>
+      </c>
+      <c r="C1188">
+        <v>4</v>
+      </c>
+      <c r="D1188" t="s">
+        <v>464</v>
+      </c>
+      <c r="E1188" t="s">
+        <v>2778</v>
+      </c>
+      <c r="F1188" t="s">
+        <v>2779</v>
+      </c>
+      <c r="G1188">
+        <v>0</v>
+      </c>
+      <c r="H1188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:8">
+      <c r="A1189">
+        <v>1188</v>
+      </c>
+      <c r="B1189">
+        <v>3</v>
+      </c>
+      <c r="C1189">
+        <v>4</v>
+      </c>
+      <c r="D1189" t="s">
+        <v>2780</v>
+      </c>
+      <c r="E1189" t="s">
+        <v>2781</v>
+      </c>
+      <c r="F1189" t="s">
+        <v>2782</v>
+      </c>
+      <c r="G1189">
+        <v>0</v>
+      </c>
+      <c r="H1189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:8">
+      <c r="A1190">
+        <v>1189</v>
+      </c>
+      <c r="B1190">
+        <v>3</v>
+      </c>
+      <c r="C1190">
+        <v>4</v>
+      </c>
+      <c r="D1190" t="s">
+        <v>254</v>
+      </c>
+      <c r="E1190" t="s">
+        <v>2783</v>
+      </c>
+      <c r="F1190" t="s">
+        <v>2784</v>
+      </c>
+      <c r="G1190">
+        <v>0</v>
+      </c>
+      <c r="H1190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:8">
+      <c r="A1191">
+        <v>1190</v>
+      </c>
+      <c r="B1191">
+        <v>3</v>
+      </c>
+      <c r="C1191">
+        <v>4</v>
+      </c>
+      <c r="D1191" t="s">
+        <v>2785</v>
+      </c>
+      <c r="E1191" t="s">
+        <v>2786</v>
+      </c>
+      <c r="F1191" t="s">
+        <v>2787</v>
+      </c>
+      <c r="G1191">
+        <v>0</v>
+      </c>
+      <c r="H1191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:8">
+      <c r="A1192">
+        <v>1191</v>
+      </c>
+      <c r="B1192">
+        <v>3</v>
+      </c>
+      <c r="C1192">
+        <v>4</v>
+      </c>
+      <c r="D1192" t="s">
+        <v>2788</v>
+      </c>
+      <c r="E1192" t="s">
+        <v>2789</v>
+      </c>
+      <c r="F1192" t="s">
+        <v>2787</v>
+      </c>
+      <c r="G1192">
+        <v>0</v>
+      </c>
+      <c r="H1192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:8">
+      <c r="A1193">
+        <v>1192</v>
+      </c>
+      <c r="B1193">
+        <v>3</v>
+      </c>
+      <c r="C1193">
+        <v>4</v>
+      </c>
+      <c r="D1193" t="s">
+        <v>2791</v>
+      </c>
+      <c r="E1193" t="s">
+        <v>2790</v>
+      </c>
+      <c r="F1193" t="s">
+        <v>2792</v>
+      </c>
+      <c r="G1193">
+        <v>0</v>
+      </c>
+      <c r="H1193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:8">
+      <c r="A1194">
+        <v>1193</v>
+      </c>
+      <c r="B1194">
+        <v>3</v>
+      </c>
+      <c r="C1194">
+        <v>4</v>
+      </c>
+      <c r="D1194" t="s">
+        <v>2793</v>
+      </c>
+      <c r="E1194" t="s">
+        <v>2794</v>
+      </c>
+      <c r="F1194" t="s">
+        <v>2795</v>
+      </c>
+      <c r="G1194">
+        <v>0</v>
+      </c>
+      <c r="H1194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:8">
+      <c r="A1195">
+        <v>1194</v>
+      </c>
+      <c r="B1195">
+        <v>3</v>
+      </c>
+      <c r="C1195">
+        <v>4</v>
+      </c>
+      <c r="D1195" t="s">
+        <v>2796</v>
+      </c>
+      <c r="E1195" t="s">
+        <v>2797</v>
+      </c>
+      <c r="F1195" t="s">
+        <v>2795</v>
+      </c>
+      <c r="G1195">
+        <v>0</v>
+      </c>
+      <c r="H1195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:8">
+      <c r="A1196">
+        <v>1195</v>
+      </c>
+      <c r="B1196">
+        <v>3</v>
+      </c>
+      <c r="C1196">
+        <v>4</v>
+      </c>
+      <c r="D1196" t="s">
+        <v>2798</v>
+      </c>
+      <c r="E1196" t="s">
+        <v>2799</v>
+      </c>
+      <c r="F1196" t="s">
+        <v>2800</v>
+      </c>
+      <c r="G1196">
+        <v>0</v>
+      </c>
+      <c r="H1196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:8">
+      <c r="A1197">
+        <v>1196</v>
+      </c>
+      <c r="B1197">
+        <v>3</v>
+      </c>
+      <c r="C1197">
+        <v>4</v>
+      </c>
+      <c r="D1197" t="s">
+        <v>2801</v>
+      </c>
+      <c r="E1197" t="s">
+        <v>2802</v>
+      </c>
+      <c r="F1197" t="s">
+        <v>2803</v>
+      </c>
+      <c r="G1197">
+        <v>0</v>
+      </c>
+      <c r="H1197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:8">
+      <c r="A1198">
+        <v>1197</v>
+      </c>
+      <c r="B1198">
+        <v>3</v>
+      </c>
+      <c r="C1198">
+        <v>4</v>
+      </c>
+      <c r="D1198" t="s">
+        <v>2804</v>
+      </c>
+      <c r="E1198" t="s">
+        <v>2805</v>
+      </c>
+      <c r="F1198" t="s">
+        <v>2806</v>
+      </c>
+      <c r="G1198">
+        <v>0</v>
+      </c>
+      <c r="H1198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:8">
+      <c r="A1199">
+        <v>1198</v>
+      </c>
+      <c r="B1199">
+        <v>3</v>
+      </c>
+      <c r="C1199">
+        <v>4</v>
+      </c>
+      <c r="D1199" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E1199" t="s">
+        <v>2805</v>
+      </c>
+      <c r="F1199" t="s">
+        <v>2807</v>
+      </c>
+      <c r="G1199">
+        <v>0</v>
+      </c>
+      <c r="H1199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:8">
+      <c r="A1200">
+        <v>1199</v>
+      </c>
+      <c r="B1200">
+        <v>3</v>
+      </c>
+      <c r="C1200">
+        <v>4</v>
+      </c>
+      <c r="D1200" t="s">
+        <v>2808</v>
+      </c>
+      <c r="E1200" t="s">
+        <v>2809</v>
+      </c>
+      <c r="F1200" t="s">
+        <v>2810</v>
+      </c>
+      <c r="G1200">
+        <v>0</v>
+      </c>
+      <c r="H1200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:8">
+      <c r="A1201">
+        <v>1200</v>
+      </c>
+      <c r="B1201">
+        <v>3</v>
+      </c>
+      <c r="C1201">
+        <v>4</v>
+      </c>
+      <c r="D1201" t="s">
+        <v>2811</v>
+      </c>
+      <c r="E1201" t="s">
+        <v>2812</v>
+      </c>
+      <c r="F1201" t="s">
+        <v>2810</v>
+      </c>
+      <c r="G1201">
+        <v>0</v>
+      </c>
+      <c r="H1201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:8">
+      <c r="A1202">
+        <v>1201</v>
+      </c>
+      <c r="B1202">
+        <v>3</v>
+      </c>
+      <c r="C1202">
+        <v>4</v>
+      </c>
+      <c r="G1202">
+        <v>0</v>
+      </c>
+      <c r="H1202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:8">
+      <c r="A1203">
+        <v>1202</v>
+      </c>
+      <c r="B1203">
+        <v>3</v>
+      </c>
+      <c r="C1203">
+        <v>4</v>
+      </c>
+      <c r="G1203">
+        <v>0</v>
+      </c>
+      <c r="H1203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:8">
+      <c r="A1204">
+        <v>1203</v>
+      </c>
+      <c r="B1204">
+        <v>3</v>
+      </c>
+      <c r="C1204">
+        <v>4</v>
+      </c>
+      <c r="G1204">
+        <v>0</v>
+      </c>
+      <c r="H1204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:8">
+      <c r="A1205">
+        <v>1204</v>
+      </c>
+      <c r="B1205">
+        <v>3</v>
+      </c>
+      <c r="C1205">
+        <v>4</v>
+      </c>
+      <c r="G1205">
+        <v>0</v>
+      </c>
+      <c r="H1205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:8">
+      <c r="A1206">
+        <v>1205</v>
+      </c>
+      <c r="B1206">
+        <v>3</v>
+      </c>
+      <c r="C1206">
+        <v>4</v>
+      </c>
+      <c r="G1206">
+        <v>0</v>
+      </c>
+      <c r="H1206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:8">
+      <c r="A1207">
+        <v>1206</v>
+      </c>
+      <c r="B1207">
+        <v>3</v>
+      </c>
+      <c r="C1207">
+        <v>4</v>
+      </c>
+      <c r="G1207">
+        <v>0</v>
+      </c>
+      <c r="H1207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:8">
+      <c r="A1208">
+        <v>1207</v>
+      </c>
+      <c r="B1208">
+        <v>3</v>
+      </c>
+      <c r="C1208">
+        <v>4</v>
+      </c>
+      <c r="G1208">
+        <v>0</v>
+      </c>
+      <c r="H1208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:8">
+      <c r="A1209">
+        <v>1208</v>
+      </c>
+      <c r="B1209">
+        <v>3</v>
+      </c>
+      <c r="C1209">
+        <v>4</v>
+      </c>
+      <c r="G1209">
+        <v>0</v>
+      </c>
+      <c r="H1209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:8">
+      <c r="A1210">
+        <v>1209</v>
+      </c>
+      <c r="B1210">
+        <v>3</v>
+      </c>
+      <c r="C1210">
+        <v>4</v>
+      </c>
+      <c r="G1210">
+        <v>0</v>
+      </c>
+      <c r="H1210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:8">
+      <c r="A1211">
+        <v>1210</v>
+      </c>
+      <c r="B1211">
+        <v>3</v>
+      </c>
+      <c r="C1211">
+        <v>4</v>
+      </c>
+      <c r="G1211">
+        <v>0</v>
+      </c>
+      <c r="H1211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:8">
+      <c r="A1212">
+        <v>1211</v>
+      </c>
+      <c r="B1212">
+        <v>3</v>
+      </c>
+      <c r="C1212">
+        <v>4</v>
+      </c>
+      <c r="G1212">
+        <v>0</v>
+      </c>
+      <c r="H1212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:8">
+      <c r="A1213">
+        <v>1212</v>
+      </c>
+      <c r="B1213">
+        <v>3</v>
+      </c>
+      <c r="C1213">
+        <v>4</v>
+      </c>
+      <c r="G1213">
+        <v>0</v>
+      </c>
+      <c r="H1213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:8">
+      <c r="A1214">
+        <v>1213</v>
+      </c>
+      <c r="B1214">
+        <v>3</v>
+      </c>
+      <c r="C1214">
+        <v>4</v>
+      </c>
+      <c r="G1214">
+        <v>0</v>
+      </c>
+      <c r="H1214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:8">
+      <c r="A1215">
+        <v>1214</v>
+      </c>
+      <c r="B1215">
+        <v>3</v>
+      </c>
+      <c r="C1215">
+        <v>4</v>
+      </c>
+      <c r="G1215">
+        <v>0</v>
+      </c>
+      <c r="H1215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:8">
+      <c r="A1216">
+        <v>1215</v>
+      </c>
+      <c r="B1216">
+        <v>3</v>
+      </c>
+      <c r="C1216">
+        <v>4</v>
+      </c>
+      <c r="G1216">
+        <v>0</v>
+      </c>
+      <c r="H1216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:8">
+      <c r="A1217">
+        <v>1216</v>
+      </c>
+      <c r="B1217">
+        <v>3</v>
+      </c>
+      <c r="C1217">
+        <v>4</v>
+      </c>
+      <c r="G1217">
+        <v>0</v>
+      </c>
+      <c r="H1217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:8">
+      <c r="A1218">
+        <v>1217</v>
+      </c>
+      <c r="B1218">
+        <v>3</v>
+      </c>
+      <c r="C1218">
+        <v>4</v>
+      </c>
+      <c r="G1218">
+        <v>0</v>
+      </c>
+      <c r="H1218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:8">
+      <c r="A1219">
+        <v>1218</v>
+      </c>
+      <c r="B1219">
+        <v>3</v>
+      </c>
+      <c r="C1219">
+        <v>4</v>
+      </c>
+      <c r="G1219">
+        <v>0</v>
+      </c>
+      <c r="H1219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:8">
+      <c r="A1220">
+        <v>1219</v>
+      </c>
+      <c r="B1220">
+        <v>3</v>
+      </c>
+      <c r="C1220">
+        <v>4</v>
+      </c>
+      <c r="G1220">
+        <v>0</v>
+      </c>
+      <c r="H1220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:8">
+      <c r="A1221">
+        <v>1220</v>
+      </c>
+      <c r="B1221">
+        <v>3</v>
+      </c>
+      <c r="C1221">
+        <v>4</v>
+      </c>
+      <c r="G1221">
+        <v>0</v>
+      </c>
+      <c r="H1221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:8">
+      <c r="A1222">
+        <v>1221</v>
+      </c>
+      <c r="B1222">
+        <v>3</v>
+      </c>
+      <c r="C1222">
+        <v>4</v>
+      </c>
+      <c r="G1222">
+        <v>0</v>
+      </c>
+      <c r="H1222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:8">
+      <c r="A1223">
+        <v>1222</v>
+      </c>
+      <c r="B1223">
+        <v>3</v>
+      </c>
+      <c r="C1223">
+        <v>4</v>
+      </c>
+      <c r="G1223">
+        <v>0</v>
+      </c>
+      <c r="H1223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:8">
+      <c r="A1224">
+        <v>1223</v>
+      </c>
+      <c r="B1224">
+        <v>3</v>
+      </c>
+      <c r="C1224">
+        <v>4</v>
+      </c>
+      <c r="G1224">
+        <v>0</v>
+      </c>
+      <c r="H1224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:8">
+      <c r="A1225">
+        <v>1224</v>
+      </c>
+      <c r="B1225">
+        <v>3</v>
+      </c>
+      <c r="C1225">
+        <v>4</v>
+      </c>
+      <c r="G1225">
+        <v>0</v>
+      </c>
+      <c r="H1225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:8">
+      <c r="A1226">
+        <v>1225</v>
+      </c>
+      <c r="B1226">
+        <v>3</v>
+      </c>
+      <c r="C1226">
+        <v>4</v>
+      </c>
+      <c r="G1226">
+        <v>0</v>
+      </c>
+      <c r="H1226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:8">
+      <c r="A1227">
+        <v>1226</v>
+      </c>
+      <c r="B1227">
+        <v>3</v>
+      </c>
+      <c r="C1227">
+        <v>4</v>
+      </c>
+      <c r="G1227">
+        <v>0</v>
+      </c>
+      <c r="H1227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:8">
+      <c r="A1228">
+        <v>1227</v>
+      </c>
+      <c r="B1228">
+        <v>3</v>
+      </c>
+      <c r="C1228">
+        <v>4</v>
+      </c>
+      <c r="G1228">
+        <v>0</v>
+      </c>
+      <c r="H1228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:8">
+      <c r="A1229">
+        <v>1228</v>
+      </c>
+      <c r="B1229">
+        <v>3</v>
+      </c>
+      <c r="C1229">
+        <v>4</v>
+      </c>
+      <c r="G1229">
+        <v>0</v>
+      </c>
+      <c r="H1229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:8">
+      <c r="A1230">
+        <v>1229</v>
+      </c>
+      <c r="B1230">
+        <v>3</v>
+      </c>
+      <c r="C1230">
+        <v>4</v>
+      </c>
+      <c r="G1230">
+        <v>0</v>
+      </c>
+      <c r="H1230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:8">
+      <c r="A1231">
+        <v>1230</v>
+      </c>
+      <c r="B1231">
+        <v>3</v>
+      </c>
+      <c r="C1231">
+        <v>4</v>
+      </c>
+      <c r="G1231">
+        <v>0</v>
+      </c>
+      <c r="H1231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:8">
+      <c r="A1232">
+        <v>1231</v>
+      </c>
+      <c r="B1232">
+        <v>3</v>
+      </c>
+      <c r="C1232">
+        <v>4</v>
+      </c>
+      <c r="G1232">
+        <v>0</v>
+      </c>
+      <c r="H1232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:8">
+      <c r="A1233">
+        <v>1232</v>
+      </c>
+      <c r="B1233">
+        <v>3</v>
+      </c>
+      <c r="C1233">
+        <v>4</v>
+      </c>
+      <c r="G1233">
+        <v>0</v>
+      </c>
+      <c r="H1233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:8">
+      <c r="A1234">
+        <v>1233</v>
+      </c>
+      <c r="B1234">
+        <v>3</v>
+      </c>
+      <c r="C1234">
+        <v>4</v>
+      </c>
+      <c r="G1234">
+        <v>0</v>
+      </c>
+      <c r="H1234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:8">
+      <c r="A1235">
+        <v>1234</v>
+      </c>
+      <c r="B1235">
+        <v>3</v>
+      </c>
+      <c r="C1235">
+        <v>4</v>
+      </c>
+      <c r="G1235">
+        <v>0</v>
+      </c>
+      <c r="H1235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:8">
+      <c r="A1236">
+        <v>1235</v>
+      </c>
+      <c r="B1236">
+        <v>3</v>
+      </c>
+      <c r="C1236">
+        <v>4</v>
+      </c>
+      <c r="G1236">
+        <v>0</v>
+      </c>
+      <c r="H1236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:8">
+      <c r="A1237">
+        <v>1236</v>
+      </c>
+      <c r="B1237">
+        <v>3</v>
+      </c>
+      <c r="C1237">
+        <v>4</v>
+      </c>
+      <c r="G1237">
+        <v>0</v>
+      </c>
+      <c r="H1237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:8">
+      <c r="A1238">
+        <v>1237</v>
+      </c>
+      <c r="B1238">
+        <v>3</v>
+      </c>
+      <c r="C1238">
+        <v>4</v>
+      </c>
+      <c r="G1238">
+        <v>0</v>
+      </c>
+      <c r="H1238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:8">
+      <c r="A1239">
+        <v>1238</v>
+      </c>
+      <c r="B1239">
+        <v>3</v>
+      </c>
+      <c r="C1239">
+        <v>4</v>
+      </c>
+      <c r="G1239">
+        <v>0</v>
+      </c>
+      <c r="H1239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:8">
+      <c r="A1240">
+        <v>1239</v>
+      </c>
+      <c r="B1240">
+        <v>3</v>
+      </c>
+      <c r="C1240">
+        <v>4</v>
+      </c>
+      <c r="G1240">
+        <v>0</v>
+      </c>
+      <c r="H1240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:8">
+      <c r="A1241">
+        <v>1240</v>
+      </c>
+      <c r="B1241">
+        <v>3</v>
+      </c>
+      <c r="C1241">
+        <v>4</v>
+      </c>
+      <c r="G1241">
+        <v>0</v>
+      </c>
+      <c r="H1241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:8">
+      <c r="A1242">
+        <v>1241</v>
+      </c>
+      <c r="B1242">
+        <v>3</v>
+      </c>
+      <c r="C1242">
+        <v>4</v>
+      </c>
+      <c r="G1242">
+        <v>0</v>
+      </c>
+      <c r="H1242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:8">
+      <c r="A1243">
+        <v>1242</v>
+      </c>
+      <c r="B1243">
+        <v>3</v>
+      </c>
+      <c r="C1243">
+        <v>4</v>
+      </c>
+      <c r="G1243">
+        <v>0</v>
+      </c>
+      <c r="H1243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:8">
+      <c r="A1244">
+        <v>1243</v>
+      </c>
+      <c r="B1244">
+        <v>3</v>
+      </c>
+      <c r="C1244">
+        <v>4</v>
+      </c>
+      <c r="G1244">
+        <v>0</v>
+      </c>
+      <c r="H1244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:8">
+      <c r="A1245">
+        <v>1244</v>
+      </c>
+      <c r="B1245">
+        <v>3</v>
+      </c>
+      <c r="C1245">
+        <v>4</v>
+      </c>
+      <c r="G1245">
+        <v>0</v>
+      </c>
+      <c r="H1245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:8">
+      <c r="A1246">
+        <v>1245</v>
+      </c>
+      <c r="B1246">
+        <v>3</v>
+      </c>
+      <c r="C1246">
+        <v>4</v>
+      </c>
+      <c r="G1246">
+        <v>0</v>
+      </c>
+      <c r="H1246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:8">
+      <c r="A1247">
+        <v>1246</v>
+      </c>
+      <c r="B1247">
+        <v>3</v>
+      </c>
+      <c r="C1247">
+        <v>4</v>
+      </c>
+      <c r="G1247">
+        <v>0</v>
+      </c>
+      <c r="H1247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:8">
+      <c r="A1248">
+        <v>1247</v>
+      </c>
+      <c r="B1248">
+        <v>3</v>
+      </c>
+      <c r="C1248">
+        <v>4</v>
+      </c>
+      <c r="G1248">
+        <v>0</v>
+      </c>
+      <c r="H1248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:8">
+      <c r="A1249">
+        <v>1248</v>
+      </c>
+      <c r="B1249">
+        <v>3</v>
+      </c>
+      <c r="C1249">
+        <v>4</v>
+      </c>
+      <c r="G1249">
+        <v>0</v>
+      </c>
+      <c r="H1249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:8">
+      <c r="A1250">
+        <v>1249</v>
+      </c>
+      <c r="B1250">
+        <v>3</v>
+      </c>
+      <c r="C1250">
+        <v>4</v>
+      </c>
+      <c r="G1250">
+        <v>0</v>
+      </c>
+      <c r="H1250">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/spreadsheets/clips.xlsx
+++ b/spreadsheets/clips.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3608" uniqueCount="2813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3905" uniqueCount="3012">
   <si>
     <t>id</t>
   </si>
@@ -8461,13 +8461,610 @@
   </si>
   <si>
     <t>00;06;30;38</t>
+  </si>
+  <si>
+    <t>help repair</t>
+  </si>
+  <si>
+    <t>00;06;31;23</t>
+  </si>
+  <si>
+    <t>repair</t>
+  </si>
+  <si>
+    <t>00;06;30;48</t>
+  </si>
+  <si>
+    <t>repair their</t>
+  </si>
+  <si>
+    <t>00;06;31;52</t>
+  </si>
+  <si>
+    <t>their marriage</t>
+  </si>
+  <si>
+    <t>00;06;32;29</t>
+  </si>
+  <si>
+    <t>00;06;31;54</t>
+  </si>
+  <si>
+    <t>planning on</t>
+  </si>
+  <si>
+    <t>00;06;33;55</t>
+  </si>
+  <si>
+    <t>00;06;34;19</t>
+  </si>
+  <si>
+    <t>planning</t>
+  </si>
+  <si>
+    <t>00;06;34;12</t>
+  </si>
+  <si>
+    <t>having</t>
+  </si>
+  <si>
+    <t>00;06;34;18</t>
+  </si>
+  <si>
+    <t>00;06;34;34</t>
+  </si>
+  <si>
+    <t>having a</t>
+  </si>
+  <si>
+    <t>00;06;34;41</t>
+  </si>
+  <si>
+    <t>at the top</t>
+  </si>
+  <si>
+    <t>00;06;35;02</t>
+  </si>
+  <si>
+    <t>00;06;35;26</t>
+  </si>
+  <si>
+    <t>the top</t>
+  </si>
+  <si>
+    <t>00;06;35;07</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>00;06;35;14</t>
+  </si>
+  <si>
+    <t>00;06;35;28</t>
+  </si>
+  <si>
+    <t>the hill</t>
+  </si>
+  <si>
+    <t>00;06;35;29</t>
+  </si>
+  <si>
+    <t>00;06;35;51</t>
+  </si>
+  <si>
+    <t>hill</t>
+  </si>
+  <si>
+    <t>00;06;35;35</t>
+  </si>
+  <si>
+    <t>payoff</t>
+  </si>
+  <si>
+    <t>00;06;41;27</t>
+  </si>
+  <si>
+    <t>00;06;41;54</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>00;06;41;43</t>
+  </si>
+  <si>
+    <t>arduous</t>
+  </si>
+  <si>
+    <t>00;06;42;20</t>
+  </si>
+  <si>
+    <t>00;06;42;50</t>
+  </si>
+  <si>
+    <t>one hour</t>
+  </si>
+  <si>
+    <t>00;06;42;52</t>
+  </si>
+  <si>
+    <t>00;06;43;14</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>00;06;43;03</t>
+  </si>
+  <si>
+    <t>trek</t>
+  </si>
+  <si>
+    <t>00;06;43;15</t>
+  </si>
+  <si>
+    <t>00;06;43;32</t>
+  </si>
+  <si>
+    <t>woods</t>
+  </si>
+  <si>
+    <t>00;06;43;48</t>
+  </si>
+  <si>
+    <t>00;06;44;14</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>00;06;44;04</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>is this</t>
+  </si>
+  <si>
+    <t>00;06;44;05</t>
+  </si>
+  <si>
+    <t>00;06;44;52</t>
+  </si>
+  <si>
+    <t>00;06;44;28</t>
+  </si>
+  <si>
+    <t>00;06;44;29</t>
+  </si>
+  <si>
+    <t>00;06;44;58</t>
+  </si>
+  <si>
+    <t>00;06;44;59</t>
+  </si>
+  <si>
+    <t>00;06;46;01</t>
+  </si>
+  <si>
+    <t>a panoramic view</t>
+  </si>
+  <si>
+    <t>00;06;46;20</t>
+  </si>
+  <si>
+    <t>a panoramic</t>
+  </si>
+  <si>
+    <t>panoramic</t>
+  </si>
+  <si>
+    <t>00;06;45;23</t>
+  </si>
+  <si>
+    <t>00;06;46;00</t>
+  </si>
+  <si>
+    <t>panoramic view</t>
+  </si>
+  <si>
+    <t>view</t>
+  </si>
+  <si>
+    <t>00;06;46;30</t>
+  </si>
+  <si>
+    <t>00;06;46;45</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>00;06;50;15</t>
+  </si>
+  <si>
+    <t>00;06;50;33</t>
+  </si>
+  <si>
+    <t>went through</t>
+  </si>
+  <si>
+    <t>00;06;50;34</t>
+  </si>
+  <si>
+    <t>00;06;51;07</t>
+  </si>
+  <si>
+    <t>00;06;50;49</t>
+  </si>
+  <si>
+    <t>through my</t>
+  </si>
+  <si>
+    <t>00;06;51;20</t>
+  </si>
+  <si>
+    <t>my mind</t>
+  </si>
+  <si>
+    <t>00;06;51;09</t>
+  </si>
+  <si>
+    <t>00;06;51;56</t>
+  </si>
+  <si>
+    <t>mind</t>
+  </si>
+  <si>
+    <t>00;06;51;19</t>
+  </si>
+  <si>
+    <t>mind was</t>
+  </si>
+  <si>
+    <t>00;06;52;41</t>
+  </si>
+  <si>
+    <t>my mind was</t>
+  </si>
+  <si>
+    <t>00;06;52;03</t>
+  </si>
+  <si>
+    <t>00;06;52;56</t>
+  </si>
+  <si>
+    <t>00;06;53;17</t>
+  </si>
+  <si>
+    <t>i have</t>
+  </si>
+  <si>
+    <t>00;06;53;06</t>
+  </si>
+  <si>
+    <t>00;06;53;26</t>
+  </si>
+  <si>
+    <t>seconds</t>
+  </si>
+  <si>
+    <t>00;06;54;02</t>
+  </si>
+  <si>
+    <t>00;06;54;31</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>00;06;54;24</t>
+  </si>
+  <si>
+    <t>to live</t>
+  </si>
+  <si>
+    <t>00;06;54;27</t>
+  </si>
+  <si>
+    <t>00;06;55;07</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>00;06;54;40</t>
+  </si>
+  <si>
+    <t>it is</t>
+  </si>
+  <si>
+    <t>00;06;55;09</t>
+  </si>
+  <si>
+    <t>00;06;55;29</t>
+  </si>
+  <si>
+    <t>is here</t>
+  </si>
+  <si>
+    <t>00;06;55;17</t>
+  </si>
+  <si>
+    <t>00;06;55;45</t>
+  </si>
+  <si>
+    <t>00;06;55;24</t>
+  </si>
+  <si>
+    <t>hear that</t>
+  </si>
+  <si>
+    <t>00;06;55;55</t>
+  </si>
+  <si>
+    <t>here that</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>00;06;56;19</t>
+  </si>
+  <si>
+    <t>00;06;56;39</t>
+  </si>
+  <si>
+    <t>tried to kill</t>
+  </si>
+  <si>
+    <t>00;06;56;35</t>
+  </si>
+  <si>
+    <t>00;06;57;20</t>
+  </si>
+  <si>
+    <t>tried to</t>
+  </si>
+  <si>
+    <t>00;06;57;04</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>00;06;56;55</t>
+  </si>
+  <si>
+    <t>to kill</t>
+  </si>
+  <si>
+    <t>00;06;56;56</t>
+  </si>
+  <si>
+    <t>00;06;57;21</t>
+  </si>
+  <si>
+    <t>00;06;57;06</t>
+  </si>
+  <si>
+    <t>00;06;57;57</t>
+  </si>
+  <si>
+    <t>kill his wife</t>
+  </si>
+  <si>
+    <t>kill his</t>
+  </si>
+  <si>
+    <t>00;06;57;31</t>
+  </si>
+  <si>
+    <t>his</t>
+  </si>
+  <si>
+    <t>00;06;57;32</t>
+  </si>
+  <si>
+    <t>00;06;58;00</t>
+  </si>
+  <si>
+    <t>his wife</t>
+  </si>
+  <si>
+    <t>00;06;58;01</t>
+  </si>
+  <si>
+    <t>00;06;58;28</t>
+  </si>
+  <si>
+    <t>he bashed</t>
+  </si>
+  <si>
+    <t>00;06;58;51</t>
+  </si>
+  <si>
+    <t>bashed</t>
+  </si>
+  <si>
+    <t>00;06;58;26</t>
+  </si>
+  <si>
+    <t>in the back</t>
+  </si>
+  <si>
+    <t>00;06;59;12</t>
+  </si>
+  <si>
+    <t>00;06;59;37</t>
+  </si>
+  <si>
+    <t>00;06;59;19</t>
+  </si>
+  <si>
+    <t>back of</t>
+  </si>
+  <si>
+    <t>00;06;59;40</t>
+  </si>
+  <si>
+    <t>the back</t>
+  </si>
+  <si>
+    <t>00;06;59;35</t>
+  </si>
+  <si>
+    <t>the head</t>
+  </si>
+  <si>
+    <t>00;06;59;38</t>
+  </si>
+  <si>
+    <t>00;07;00;07</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>00;06;59;45</t>
+  </si>
+  <si>
+    <t>with a rock</t>
+  </si>
+  <si>
+    <t>00;07;00;08</t>
+  </si>
+  <si>
+    <t>00;07;00;43</t>
+  </si>
+  <si>
+    <t>with iraq</t>
+  </si>
+  <si>
+    <t>iraq</t>
+  </si>
+  <si>
+    <t>00;07;00;15</t>
+  </si>
+  <si>
+    <t>a rock</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>00;07;00;19</t>
+  </si>
+  <si>
+    <t>00;07;00;44</t>
+  </si>
+  <si>
+    <t>00;07;01;13</t>
+  </si>
+  <si>
+    <t>and pushed</t>
+  </si>
+  <si>
+    <t>00;07;01;35</t>
+  </si>
+  <si>
+    <t>and push</t>
+  </si>
+  <si>
+    <t>00;07;01;44</t>
+  </si>
+  <si>
+    <t>00;07;01;59</t>
+  </si>
+  <si>
+    <t>down this</t>
+  </si>
+  <si>
+    <t>00;07;02;11</t>
+  </si>
+  <si>
+    <t>eight hundred</t>
+  </si>
+  <si>
+    <t>00;07;02;12</t>
+  </si>
+  <si>
+    <t>00;07;03;05</t>
+  </si>
+  <si>
+    <t>00;07;02;35</t>
+  </si>
+  <si>
+    <t>hundred</t>
+  </si>
+  <si>
+    <t>00;07;02;36</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>00;07;03;06</t>
+  </si>
+  <si>
+    <t>00;07;03;25</t>
+  </si>
+  <si>
+    <t>hundred foot</t>
+  </si>
+  <si>
+    <t>00;07;03;26</t>
+  </si>
+  <si>
+    <t>00;07;03;57</t>
+  </si>
+  <si>
+    <t>the story</t>
+  </si>
+  <si>
+    <t>00;07;04;15</t>
+  </si>
+  <si>
+    <t>00;07;04;57</t>
+  </si>
+  <si>
+    <t>00;07;04;28</t>
+  </si>
+  <si>
+    <t>00;07;04;29</t>
+  </si>
+  <si>
+    <t>story of how</t>
+  </si>
+  <si>
+    <t>00;07;05;15</t>
+  </si>
+  <si>
+    <t>how</t>
+  </si>
+  <si>
+    <t>00;07;05;00</t>
+  </si>
+  <si>
+    <t>how she</t>
+  </si>
+  <si>
+    <t>00;07;05;27</t>
+  </si>
+  <si>
+    <t>00;07;05;18</t>
+  </si>
+  <si>
+    <t>00;07;05;31</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8494,6 +9091,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -8512,7 +9117,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="171">
+  <cellStyleXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -8684,12 +9289,63 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="171">
+  <cellStyles count="221">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -8775,6 +9431,31 @@
     <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -8860,6 +9541,31 @@
     <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -9189,10 +9895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1250"/>
+  <dimension ref="A1:H1300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1194" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F1201" sqref="F1201"/>
+    <sheetView tabSelected="1" topLeftCell="A1286" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F1300" sqref="F1300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -40441,6 +41147,15 @@
       <c r="C1202">
         <v>4</v>
       </c>
+      <c r="D1202" t="s">
+        <v>2813</v>
+      </c>
+      <c r="E1202" t="s">
+        <v>2812</v>
+      </c>
+      <c r="F1202" t="s">
+        <v>2814</v>
+      </c>
       <c r="G1202">
         <v>0</v>
       </c>
@@ -40458,6 +41173,15 @@
       <c r="C1203">
         <v>4</v>
       </c>
+      <c r="D1203" t="s">
+        <v>2815</v>
+      </c>
+      <c r="E1203" t="s">
+        <v>2816</v>
+      </c>
+      <c r="F1203" t="s">
+        <v>2814</v>
+      </c>
       <c r="G1203">
         <v>0</v>
       </c>
@@ -40475,6 +41199,15 @@
       <c r="C1204">
         <v>4</v>
       </c>
+      <c r="D1204" t="s">
+        <v>2817</v>
+      </c>
+      <c r="E1204" t="s">
+        <v>2816</v>
+      </c>
+      <c r="F1204" t="s">
+        <v>2818</v>
+      </c>
       <c r="G1204">
         <v>0</v>
       </c>
@@ -40492,6 +41225,15 @@
       <c r="C1205">
         <v>4</v>
       </c>
+      <c r="D1205" t="s">
+        <v>2819</v>
+      </c>
+      <c r="E1205" t="s">
+        <v>2814</v>
+      </c>
+      <c r="F1205" t="s">
+        <v>2820</v>
+      </c>
       <c r="G1205">
         <v>0</v>
       </c>
@@ -40509,6 +41251,15 @@
       <c r="C1206">
         <v>4</v>
       </c>
+      <c r="D1206" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1206" t="s">
+        <v>2814</v>
+      </c>
+      <c r="F1206" t="s">
+        <v>2821</v>
+      </c>
       <c r="G1206">
         <v>0</v>
       </c>
@@ -40526,6 +41277,15 @@
       <c r="C1207">
         <v>4</v>
       </c>
+      <c r="D1207" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1207" t="s">
+        <v>2814</v>
+      </c>
+      <c r="F1207" t="s">
+        <v>2821</v>
+      </c>
       <c r="G1207">
         <v>0</v>
       </c>
@@ -40543,6 +41303,15 @@
       <c r="C1208">
         <v>4</v>
       </c>
+      <c r="D1208" t="s">
+        <v>2822</v>
+      </c>
+      <c r="E1208" t="s">
+        <v>2823</v>
+      </c>
+      <c r="F1208" t="s">
+        <v>2824</v>
+      </c>
       <c r="G1208">
         <v>0</v>
       </c>
@@ -40560,6 +41329,15 @@
       <c r="C1209">
         <v>4</v>
       </c>
+      <c r="D1209" t="s">
+        <v>2825</v>
+      </c>
+      <c r="E1209" t="s">
+        <v>2823</v>
+      </c>
+      <c r="F1209" t="s">
+        <v>2826</v>
+      </c>
       <c r="G1209">
         <v>0</v>
       </c>
@@ -40577,6 +41355,15 @@
       <c r="C1210">
         <v>4</v>
       </c>
+      <c r="D1210" t="s">
+        <v>2827</v>
+      </c>
+      <c r="E1210" t="s">
+        <v>2828</v>
+      </c>
+      <c r="F1210" t="s">
+        <v>2829</v>
+      </c>
       <c r="G1210">
         <v>0</v>
       </c>
@@ -40594,6 +41381,15 @@
       <c r="C1211">
         <v>4</v>
       </c>
+      <c r="D1211" t="s">
+        <v>2830</v>
+      </c>
+      <c r="E1211" t="s">
+        <v>2828</v>
+      </c>
+      <c r="F1211" t="s">
+        <v>2831</v>
+      </c>
       <c r="G1211">
         <v>0</v>
       </c>
@@ -40611,6 +41407,15 @@
       <c r="C1212">
         <v>4</v>
       </c>
+      <c r="D1212" t="s">
+        <v>2832</v>
+      </c>
+      <c r="E1212" t="s">
+        <v>2833</v>
+      </c>
+      <c r="F1212" t="s">
+        <v>2834</v>
+      </c>
       <c r="G1212">
         <v>0</v>
       </c>
@@ -40628,6 +41433,15 @@
       <c r="C1213">
         <v>4</v>
       </c>
+      <c r="D1213" t="s">
+        <v>2835</v>
+      </c>
+      <c r="E1213" t="s">
+        <v>2836</v>
+      </c>
+      <c r="F1213" t="s">
+        <v>2834</v>
+      </c>
       <c r="G1213">
         <v>0</v>
       </c>
@@ -40645,6 +41459,15 @@
       <c r="C1214">
         <v>4</v>
       </c>
+      <c r="D1214" t="s">
+        <v>2837</v>
+      </c>
+      <c r="E1214" t="s">
+        <v>2838</v>
+      </c>
+      <c r="F1214" t="s">
+        <v>2839</v>
+      </c>
       <c r="G1214">
         <v>0</v>
       </c>
@@ -40662,6 +41485,15 @@
       <c r="C1215">
         <v>4</v>
       </c>
+      <c r="D1215" t="s">
+        <v>2840</v>
+      </c>
+      <c r="E1215" t="s">
+        <v>2841</v>
+      </c>
+      <c r="F1215" t="s">
+        <v>2842</v>
+      </c>
       <c r="G1215">
         <v>0</v>
       </c>
@@ -40679,6 +41511,15 @@
       <c r="C1216">
         <v>4</v>
       </c>
+      <c r="D1216" t="s">
+        <v>2843</v>
+      </c>
+      <c r="E1216" t="s">
+        <v>2844</v>
+      </c>
+      <c r="F1216" t="s">
+        <v>2842</v>
+      </c>
       <c r="G1216">
         <v>0</v>
       </c>
@@ -40696,6 +41537,15 @@
       <c r="C1217">
         <v>4</v>
       </c>
+      <c r="D1217" t="s">
+        <v>2845</v>
+      </c>
+      <c r="E1217" t="s">
+        <v>2846</v>
+      </c>
+      <c r="F1217" t="s">
+        <v>2847</v>
+      </c>
       <c r="G1217">
         <v>0</v>
       </c>
@@ -40713,6 +41563,15 @@
       <c r="C1218">
         <v>4</v>
       </c>
+      <c r="D1218" t="s">
+        <v>2848</v>
+      </c>
+      <c r="E1218" t="s">
+        <v>2846</v>
+      </c>
+      <c r="F1218" t="s">
+        <v>2849</v>
+      </c>
       <c r="G1218">
         <v>0</v>
       </c>
@@ -40730,6 +41589,15 @@
       <c r="C1219">
         <v>4</v>
       </c>
+      <c r="D1219" t="s">
+        <v>2850</v>
+      </c>
+      <c r="E1219" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F1219" t="s">
+        <v>2852</v>
+      </c>
       <c r="G1219">
         <v>0</v>
       </c>
@@ -40747,6 +41615,15 @@
       <c r="C1220">
         <v>4</v>
       </c>
+      <c r="D1220" t="s">
+        <v>2853</v>
+      </c>
+      <c r="E1220" t="s">
+        <v>2854</v>
+      </c>
+      <c r="F1220" t="s">
+        <v>2855</v>
+      </c>
       <c r="G1220">
         <v>0</v>
       </c>
@@ -40764,6 +41641,15 @@
       <c r="C1221">
         <v>4</v>
       </c>
+      <c r="D1221" t="s">
+        <v>2856</v>
+      </c>
+      <c r="E1221" t="s">
+        <v>2857</v>
+      </c>
+      <c r="F1221" t="s">
+        <v>2855</v>
+      </c>
       <c r="G1221">
         <v>0</v>
       </c>
@@ -40781,6 +41667,15 @@
       <c r="C1222">
         <v>4</v>
       </c>
+      <c r="D1222" t="s">
+        <v>2858</v>
+      </c>
+      <c r="E1222" t="s">
+        <v>2859</v>
+      </c>
+      <c r="F1222" t="s">
+        <v>2860</v>
+      </c>
       <c r="G1222">
         <v>0</v>
       </c>
@@ -40798,6 +41693,15 @@
       <c r="C1223">
         <v>4</v>
       </c>
+      <c r="D1223" t="s">
+        <v>2861</v>
+      </c>
+      <c r="E1223" t="s">
+        <v>2862</v>
+      </c>
+      <c r="F1223" t="s">
+        <v>2863</v>
+      </c>
       <c r="G1223">
         <v>0</v>
       </c>
@@ -40815,6 +41719,15 @@
       <c r="C1224">
         <v>4</v>
       </c>
+      <c r="D1224" t="s">
+        <v>2864</v>
+      </c>
+      <c r="E1224" t="s">
+        <v>2862</v>
+      </c>
+      <c r="F1224" t="s">
+        <v>2865</v>
+      </c>
       <c r="G1224">
         <v>0</v>
       </c>
@@ -40832,6 +41745,15 @@
       <c r="C1225">
         <v>4</v>
       </c>
+      <c r="D1225" t="s">
+        <v>2866</v>
+      </c>
+      <c r="E1225" t="s">
+        <v>2862</v>
+      </c>
+      <c r="F1225" t="s">
+        <v>2865</v>
+      </c>
       <c r="G1225">
         <v>0</v>
       </c>
@@ -40849,6 +41771,15 @@
       <c r="C1226">
         <v>4</v>
       </c>
+      <c r="D1226" t="s">
+        <v>2867</v>
+      </c>
+      <c r="E1226" t="s">
+        <v>2868</v>
+      </c>
+      <c r="F1226" t="s">
+        <v>2869</v>
+      </c>
       <c r="G1226">
         <v>0</v>
       </c>
@@ -40866,6 +41797,15 @@
       <c r="C1227">
         <v>4</v>
       </c>
+      <c r="D1227" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1227" t="s">
+        <v>2868</v>
+      </c>
+      <c r="F1227" t="s">
+        <v>2870</v>
+      </c>
       <c r="G1227">
         <v>0</v>
       </c>
@@ -40883,6 +41823,15 @@
       <c r="C1228">
         <v>4</v>
       </c>
+      <c r="D1228" t="s">
+        <v>474</v>
+      </c>
+      <c r="E1228" t="s">
+        <v>2871</v>
+      </c>
+      <c r="F1228" t="s">
+        <v>2872</v>
+      </c>
       <c r="G1228">
         <v>0</v>
       </c>
@@ -40900,6 +41849,15 @@
       <c r="C1229">
         <v>4</v>
       </c>
+      <c r="D1229" t="s">
+        <v>2877</v>
+      </c>
+      <c r="E1229" t="s">
+        <v>2873</v>
+      </c>
+      <c r="F1229" t="s">
+        <v>2874</v>
+      </c>
       <c r="G1229">
         <v>0</v>
       </c>
@@ -40917,6 +41875,15 @@
       <c r="C1230">
         <v>4</v>
       </c>
+      <c r="D1230" t="s">
+        <v>2875</v>
+      </c>
+      <c r="E1230" t="s">
+        <v>2873</v>
+      </c>
+      <c r="F1230" t="s">
+        <v>2876</v>
+      </c>
       <c r="G1230">
         <v>0</v>
       </c>
@@ -40934,6 +41901,15 @@
       <c r="C1231">
         <v>4</v>
       </c>
+      <c r="D1231" t="s">
+        <v>2878</v>
+      </c>
+      <c r="E1231" t="s">
+        <v>2879</v>
+      </c>
+      <c r="F1231" t="s">
+        <v>2880</v>
+      </c>
       <c r="G1231">
         <v>0</v>
       </c>
@@ -40951,6 +41927,15 @@
       <c r="C1232">
         <v>4</v>
       </c>
+      <c r="D1232" t="s">
+        <v>2881</v>
+      </c>
+      <c r="E1232" t="s">
+        <v>2879</v>
+      </c>
+      <c r="F1232" t="s">
+        <v>2876</v>
+      </c>
       <c r="G1232">
         <v>0</v>
       </c>
@@ -40968,6 +41953,15 @@
       <c r="C1233">
         <v>4</v>
       </c>
+      <c r="D1233" t="s">
+        <v>2882</v>
+      </c>
+      <c r="E1233" t="s">
+        <v>2874</v>
+      </c>
+      <c r="F1233" t="s">
+        <v>2876</v>
+      </c>
       <c r="G1233">
         <v>0</v>
       </c>
@@ -40985,6 +41979,15 @@
       <c r="C1234">
         <v>4</v>
       </c>
+      <c r="D1234" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E1234" t="s">
+        <v>2883</v>
+      </c>
+      <c r="F1234" t="s">
+        <v>2884</v>
+      </c>
       <c r="G1234">
         <v>0</v>
       </c>
@@ -41002,6 +42005,15 @@
       <c r="C1235">
         <v>4</v>
       </c>
+      <c r="D1235" t="s">
+        <v>2885</v>
+      </c>
+      <c r="E1235" t="s">
+        <v>2886</v>
+      </c>
+      <c r="F1235" t="s">
+        <v>2887</v>
+      </c>
       <c r="G1235">
         <v>0</v>
       </c>
@@ -41019,6 +42031,15 @@
       <c r="C1236">
         <v>4</v>
       </c>
+      <c r="D1236" t="s">
+        <v>2888</v>
+      </c>
+      <c r="E1236" t="s">
+        <v>2889</v>
+      </c>
+      <c r="F1236" t="s">
+        <v>2890</v>
+      </c>
       <c r="G1236">
         <v>0</v>
       </c>
@@ -41036,6 +42057,15 @@
       <c r="C1237">
         <v>4</v>
       </c>
+      <c r="D1237" t="s">
+        <v>464</v>
+      </c>
+      <c r="E1237" t="s">
+        <v>2889</v>
+      </c>
+      <c r="F1237" t="s">
+        <v>2891</v>
+      </c>
       <c r="G1237">
         <v>0</v>
       </c>
@@ -41053,6 +42083,15 @@
       <c r="C1238">
         <v>4</v>
       </c>
+      <c r="D1238" t="s">
+        <v>832</v>
+      </c>
+      <c r="E1238" t="s">
+        <v>2891</v>
+      </c>
+      <c r="F1238" t="s">
+        <v>2890</v>
+      </c>
       <c r="G1238">
         <v>0</v>
       </c>
@@ -41070,6 +42109,15 @@
       <c r="C1239">
         <v>4</v>
       </c>
+      <c r="D1239" t="s">
+        <v>2892</v>
+      </c>
+      <c r="E1239" t="s">
+        <v>2891</v>
+      </c>
+      <c r="F1239" t="s">
+        <v>2893</v>
+      </c>
       <c r="G1239">
         <v>0</v>
       </c>
@@ -41087,6 +42135,15 @@
       <c r="C1240">
         <v>4</v>
       </c>
+      <c r="D1240" t="s">
+        <v>2894</v>
+      </c>
+      <c r="E1240" t="s">
+        <v>2895</v>
+      </c>
+      <c r="F1240" t="s">
+        <v>2896</v>
+      </c>
       <c r="G1240">
         <v>0</v>
       </c>
@@ -41104,6 +42161,15 @@
       <c r="C1241">
         <v>4</v>
       </c>
+      <c r="D1241" t="s">
+        <v>2897</v>
+      </c>
+      <c r="E1241" t="s">
+        <v>2898</v>
+      </c>
+      <c r="F1241" t="s">
+        <v>2896</v>
+      </c>
       <c r="G1241">
         <v>0</v>
       </c>
@@ -41121,6 +42187,15 @@
       <c r="C1242">
         <v>4</v>
       </c>
+      <c r="D1242" t="s">
+        <v>2899</v>
+      </c>
+      <c r="E1242" t="s">
+        <v>2898</v>
+      </c>
+      <c r="F1242" t="s">
+        <v>2900</v>
+      </c>
       <c r="G1242">
         <v>0</v>
       </c>
@@ -41138,6 +42213,15 @@
       <c r="C1243">
         <v>4</v>
       </c>
+      <c r="D1243" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E1243" t="s">
+        <v>2895</v>
+      </c>
+      <c r="F1243" t="s">
+        <v>2900</v>
+      </c>
       <c r="G1243">
         <v>0</v>
       </c>
@@ -41155,6 +42239,15 @@
       <c r="C1244">
         <v>4</v>
       </c>
+      <c r="D1244" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1244" t="s">
+        <v>2902</v>
+      </c>
+      <c r="F1244" t="s">
+        <v>2900</v>
+      </c>
       <c r="G1244">
         <v>0</v>
       </c>
@@ -41172,6 +42265,15 @@
       <c r="C1245">
         <v>4</v>
       </c>
+      <c r="D1245" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1245" t="s">
+        <v>2903</v>
+      </c>
+      <c r="F1245" t="s">
+        <v>2904</v>
+      </c>
       <c r="G1245">
         <v>0</v>
       </c>
@@ -41189,6 +42291,15 @@
       <c r="C1246">
         <v>4</v>
       </c>
+      <c r="D1246" t="s">
+        <v>2905</v>
+      </c>
+      <c r="E1246" t="s">
+        <v>2906</v>
+      </c>
+      <c r="F1246" t="s">
+        <v>2907</v>
+      </c>
       <c r="G1246">
         <v>0</v>
       </c>
@@ -41206,6 +42317,15 @@
       <c r="C1247">
         <v>4</v>
       </c>
+      <c r="D1247" t="s">
+        <v>2908</v>
+      </c>
+      <c r="E1247" t="s">
+        <v>2909</v>
+      </c>
+      <c r="F1247" t="s">
+        <v>2910</v>
+      </c>
       <c r="G1247">
         <v>0</v>
       </c>
@@ -41223,6 +42343,15 @@
       <c r="C1248">
         <v>4</v>
       </c>
+      <c r="D1248" t="s">
+        <v>2911</v>
+      </c>
+      <c r="E1248" t="s">
+        <v>2909</v>
+      </c>
+      <c r="F1248" t="s">
+        <v>2912</v>
+      </c>
       <c r="G1248">
         <v>0</v>
       </c>
@@ -41240,6 +42369,15 @@
       <c r="C1249">
         <v>4</v>
       </c>
+      <c r="D1249" t="s">
+        <v>2913</v>
+      </c>
+      <c r="E1249" t="s">
+        <v>2914</v>
+      </c>
+      <c r="F1249" t="s">
+        <v>2915</v>
+      </c>
       <c r="G1249">
         <v>0</v>
       </c>
@@ -41257,10 +42395,1319 @@
       <c r="C1250">
         <v>4</v>
       </c>
+      <c r="D1250" t="s">
+        <v>2916</v>
+      </c>
+      <c r="E1250" t="s">
+        <v>2917</v>
+      </c>
+      <c r="F1250" t="s">
+        <v>2915</v>
+      </c>
       <c r="G1250">
         <v>0</v>
       </c>
       <c r="H1250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:8">
+      <c r="A1251">
+        <v>1250</v>
+      </c>
+      <c r="B1251">
+        <v>3</v>
+      </c>
+      <c r="C1251">
+        <v>4</v>
+      </c>
+      <c r="D1251" t="s">
+        <v>2918</v>
+      </c>
+      <c r="E1251" t="s">
+        <v>2919</v>
+      </c>
+      <c r="F1251" t="s">
+        <v>2920</v>
+      </c>
+      <c r="G1251">
+        <v>0</v>
+      </c>
+      <c r="H1251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:8">
+      <c r="A1252">
+        <v>1251</v>
+      </c>
+      <c r="B1252">
+        <v>3</v>
+      </c>
+      <c r="C1252">
+        <v>4</v>
+      </c>
+      <c r="D1252" t="s">
+        <v>2921</v>
+      </c>
+      <c r="E1252" t="s">
+        <v>2922</v>
+      </c>
+      <c r="F1252" t="s">
+        <v>2923</v>
+      </c>
+      <c r="G1252">
+        <v>0</v>
+      </c>
+      <c r="H1252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:8">
+      <c r="A1253">
+        <v>1252</v>
+      </c>
+      <c r="B1253">
+        <v>3</v>
+      </c>
+      <c r="C1253">
+        <v>4</v>
+      </c>
+      <c r="D1253" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1253" t="s">
+        <v>2924</v>
+      </c>
+      <c r="F1253" t="s">
+        <v>2923</v>
+      </c>
+      <c r="G1253">
+        <v>0</v>
+      </c>
+      <c r="H1253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:8">
+      <c r="A1254">
+        <v>1253</v>
+      </c>
+      <c r="B1254">
+        <v>3</v>
+      </c>
+      <c r="C1254">
+        <v>4</v>
+      </c>
+      <c r="D1254" t="s">
+        <v>412</v>
+      </c>
+      <c r="E1254" t="s">
+        <v>2924</v>
+      </c>
+      <c r="F1254" t="s">
+        <v>2923</v>
+      </c>
+      <c r="G1254">
+        <v>0</v>
+      </c>
+      <c r="H1254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:8">
+      <c r="A1255">
+        <v>1254</v>
+      </c>
+      <c r="B1255">
+        <v>3</v>
+      </c>
+      <c r="C1255">
+        <v>4</v>
+      </c>
+      <c r="D1255" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E1255" t="s">
+        <v>2924</v>
+      </c>
+      <c r="F1255" t="s">
+        <v>2926</v>
+      </c>
+      <c r="G1255">
+        <v>0</v>
+      </c>
+      <c r="H1255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:8">
+      <c r="A1256">
+        <v>1255</v>
+      </c>
+      <c r="B1256">
+        <v>3</v>
+      </c>
+      <c r="C1256">
+        <v>4</v>
+      </c>
+      <c r="D1256" t="s">
+        <v>2927</v>
+      </c>
+      <c r="E1256" t="s">
+        <v>2924</v>
+      </c>
+      <c r="F1256" t="s">
+        <v>2926</v>
+      </c>
+      <c r="G1256">
+        <v>0</v>
+      </c>
+      <c r="H1256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:8">
+      <c r="A1257">
+        <v>1256</v>
+      </c>
+      <c r="B1257">
+        <v>3</v>
+      </c>
+      <c r="C1257">
+        <v>4</v>
+      </c>
+      <c r="D1257" t="s">
+        <v>2928</v>
+      </c>
+      <c r="E1257" t="s">
+        <v>2929</v>
+      </c>
+      <c r="F1257" t="s">
+        <v>2930</v>
+      </c>
+      <c r="G1257">
+        <v>0</v>
+      </c>
+      <c r="H1257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:8">
+      <c r="A1258">
+        <v>1257</v>
+      </c>
+      <c r="B1258">
+        <v>3</v>
+      </c>
+      <c r="C1258">
+        <v>4</v>
+      </c>
+      <c r="D1258" t="s">
+        <v>2931</v>
+      </c>
+      <c r="E1258" t="s">
+        <v>2932</v>
+      </c>
+      <c r="F1258" t="s">
+        <v>2933</v>
+      </c>
+      <c r="G1258">
+        <v>0</v>
+      </c>
+      <c r="H1258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:8">
+      <c r="A1259">
+        <v>1258</v>
+      </c>
+      <c r="B1259">
+        <v>3</v>
+      </c>
+      <c r="C1259">
+        <v>4</v>
+      </c>
+      <c r="D1259" t="s">
+        <v>2934</v>
+      </c>
+      <c r="E1259" t="s">
+        <v>2932</v>
+      </c>
+      <c r="F1259" t="s">
+        <v>2935</v>
+      </c>
+      <c r="G1259">
+        <v>0</v>
+      </c>
+      <c r="H1259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:8">
+      <c r="A1260">
+        <v>1259</v>
+      </c>
+      <c r="B1260">
+        <v>3</v>
+      </c>
+      <c r="C1260">
+        <v>4</v>
+      </c>
+      <c r="D1260" t="s">
+        <v>2936</v>
+      </c>
+      <c r="E1260" t="s">
+        <v>2932</v>
+      </c>
+      <c r="F1260" t="s">
+        <v>2937</v>
+      </c>
+      <c r="G1260">
+        <v>0</v>
+      </c>
+      <c r="H1260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:8">
+      <c r="A1261">
+        <v>1260</v>
+      </c>
+      <c r="B1261">
+        <v>3</v>
+      </c>
+      <c r="C1261">
+        <v>4</v>
+      </c>
+      <c r="D1261" t="s">
+        <v>2938</v>
+      </c>
+      <c r="E1261" t="s">
+        <v>2939</v>
+      </c>
+      <c r="F1261" t="s">
+        <v>2940</v>
+      </c>
+      <c r="G1261">
+        <v>0</v>
+      </c>
+      <c r="H1261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:8">
+      <c r="A1262">
+        <v>1261</v>
+      </c>
+      <c r="B1262">
+        <v>3</v>
+      </c>
+      <c r="C1262">
+        <v>4</v>
+      </c>
+      <c r="D1262" t="s">
+        <v>1846</v>
+      </c>
+      <c r="E1262" t="s">
+        <v>2941</v>
+      </c>
+      <c r="F1262" t="s">
+        <v>2940</v>
+      </c>
+      <c r="G1262">
+        <v>0</v>
+      </c>
+      <c r="H1262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:8">
+      <c r="A1263">
+        <v>1262</v>
+      </c>
+      <c r="B1263">
+        <v>3</v>
+      </c>
+      <c r="C1263">
+        <v>4</v>
+      </c>
+      <c r="D1263" t="s">
+        <v>2943</v>
+      </c>
+      <c r="E1263" t="s">
+        <v>2941</v>
+      </c>
+      <c r="F1263" t="s">
+        <v>2942</v>
+      </c>
+      <c r="G1263">
+        <v>0</v>
+      </c>
+      <c r="H1263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:8">
+      <c r="A1264">
+        <v>1263</v>
+      </c>
+      <c r="B1264">
+        <v>3</v>
+      </c>
+      <c r="C1264">
+        <v>4</v>
+      </c>
+      <c r="D1264" t="s">
+        <v>2944</v>
+      </c>
+      <c r="E1264" t="s">
+        <v>2941</v>
+      </c>
+      <c r="F1264" t="s">
+        <v>2945</v>
+      </c>
+      <c r="G1264">
+        <v>0</v>
+      </c>
+      <c r="H1264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:8">
+      <c r="A1265">
+        <v>1264</v>
+      </c>
+      <c r="B1265">
+        <v>3</v>
+      </c>
+      <c r="C1265">
+        <v>4</v>
+      </c>
+      <c r="D1265" t="s">
+        <v>2946</v>
+      </c>
+      <c r="E1265" t="s">
+        <v>2940</v>
+      </c>
+      <c r="F1265" t="s">
+        <v>2945</v>
+      </c>
+      <c r="G1265">
+        <v>0</v>
+      </c>
+      <c r="H1265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:8">
+      <c r="A1266">
+        <v>1265</v>
+      </c>
+      <c r="B1266">
+        <v>3</v>
+      </c>
+      <c r="C1266">
+        <v>4</v>
+      </c>
+      <c r="D1266" t="s">
+        <v>2574</v>
+      </c>
+      <c r="E1266" t="s">
+        <v>2947</v>
+      </c>
+      <c r="F1266" t="s">
+        <v>2948</v>
+      </c>
+      <c r="G1266">
+        <v>0</v>
+      </c>
+      <c r="H1266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:8">
+      <c r="A1267">
+        <v>1266</v>
+      </c>
+      <c r="B1267">
+        <v>3</v>
+      </c>
+      <c r="C1267">
+        <v>4</v>
+      </c>
+      <c r="D1267" t="s">
+        <v>2949</v>
+      </c>
+      <c r="E1267" t="s">
+        <v>2940</v>
+      </c>
+      <c r="F1267" t="s">
+        <v>2948</v>
+      </c>
+      <c r="G1267">
+        <v>0</v>
+      </c>
+      <c r="H1267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:8">
+      <c r="A1268">
+        <v>1267</v>
+      </c>
+      <c r="B1268">
+        <v>3</v>
+      </c>
+      <c r="C1268">
+        <v>4</v>
+      </c>
+      <c r="D1268" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1268" t="s">
+        <v>2950</v>
+      </c>
+      <c r="F1268" t="s">
+        <v>2951</v>
+      </c>
+      <c r="G1268">
+        <v>0</v>
+      </c>
+      <c r="H1268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:8">
+      <c r="A1269">
+        <v>1268</v>
+      </c>
+      <c r="B1269">
+        <v>3</v>
+      </c>
+      <c r="C1269">
+        <v>4</v>
+      </c>
+      <c r="D1269" t="s">
+        <v>2952</v>
+      </c>
+      <c r="E1269" t="s">
+        <v>2950</v>
+      </c>
+      <c r="F1269" t="s">
+        <v>2953</v>
+      </c>
+      <c r="G1269">
+        <v>0</v>
+      </c>
+      <c r="H1269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:8">
+      <c r="A1270">
+        <v>1269</v>
+      </c>
+      <c r="B1270">
+        <v>3</v>
+      </c>
+      <c r="C1270">
+        <v>4</v>
+      </c>
+      <c r="D1270" t="s">
+        <v>2954</v>
+      </c>
+      <c r="E1270" t="s">
+        <v>2955</v>
+      </c>
+      <c r="F1270" t="s">
+        <v>2953</v>
+      </c>
+      <c r="G1270">
+        <v>0</v>
+      </c>
+      <c r="H1270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:8">
+      <c r="A1271">
+        <v>1270</v>
+      </c>
+      <c r="B1271">
+        <v>3</v>
+      </c>
+      <c r="C1271">
+        <v>4</v>
+      </c>
+      <c r="D1271" t="s">
+        <v>2956</v>
+      </c>
+      <c r="E1271" t="s">
+        <v>2957</v>
+      </c>
+      <c r="F1271" t="s">
+        <v>2958</v>
+      </c>
+      <c r="G1271">
+        <v>0</v>
+      </c>
+      <c r="H1271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:8">
+      <c r="A1272">
+        <v>1271</v>
+      </c>
+      <c r="B1272">
+        <v>3</v>
+      </c>
+      <c r="C1272">
+        <v>4</v>
+      </c>
+      <c r="D1272" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E1272" t="s">
+        <v>2959</v>
+      </c>
+      <c r="F1272" t="s">
+        <v>2958</v>
+      </c>
+      <c r="G1272">
+        <v>0</v>
+      </c>
+      <c r="H1272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:8">
+      <c r="A1273">
+        <v>1272</v>
+      </c>
+      <c r="B1273">
+        <v>3</v>
+      </c>
+      <c r="C1273">
+        <v>4</v>
+      </c>
+      <c r="D1273" t="s">
+        <v>2960</v>
+      </c>
+      <c r="E1273" t="s">
+        <v>2959</v>
+      </c>
+      <c r="F1273" t="s">
+        <v>2961</v>
+      </c>
+      <c r="G1273">
+        <v>0</v>
+      </c>
+      <c r="H1273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:8">
+      <c r="A1274">
+        <v>1273</v>
+      </c>
+      <c r="B1274">
+        <v>3</v>
+      </c>
+      <c r="C1274">
+        <v>4</v>
+      </c>
+      <c r="D1274" t="s">
+        <v>2962</v>
+      </c>
+      <c r="E1274" t="s">
+        <v>2957</v>
+      </c>
+      <c r="F1274" t="s">
+        <v>2963</v>
+      </c>
+      <c r="G1274">
+        <v>0</v>
+      </c>
+      <c r="H1274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:8">
+      <c r="A1275">
+        <v>1274</v>
+      </c>
+      <c r="B1275">
+        <v>3</v>
+      </c>
+      <c r="C1275">
+        <v>4</v>
+      </c>
+      <c r="D1275" t="s">
+        <v>2964</v>
+      </c>
+      <c r="E1275" t="s">
+        <v>2965</v>
+      </c>
+      <c r="F1275" t="s">
+        <v>2966</v>
+      </c>
+      <c r="G1275">
+        <v>0</v>
+      </c>
+      <c r="H1275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:8">
+      <c r="A1276">
+        <v>1275</v>
+      </c>
+      <c r="B1276">
+        <v>3</v>
+      </c>
+      <c r="C1276">
+        <v>4</v>
+      </c>
+      <c r="D1276" t="s">
+        <v>2967</v>
+      </c>
+      <c r="E1276" t="s">
+        <v>2968</v>
+      </c>
+      <c r="F1276" t="s">
+        <v>2966</v>
+      </c>
+      <c r="G1276">
+        <v>0</v>
+      </c>
+      <c r="H1276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:8">
+      <c r="A1277">
+        <v>1276</v>
+      </c>
+      <c r="B1277">
+        <v>3</v>
+      </c>
+      <c r="C1277">
+        <v>4</v>
+      </c>
+      <c r="D1277" t="s">
+        <v>2969</v>
+      </c>
+      <c r="E1277" t="s">
+        <v>2970</v>
+      </c>
+      <c r="F1277" t="s">
+        <v>2971</v>
+      </c>
+      <c r="G1277">
+        <v>0</v>
+      </c>
+      <c r="H1277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:8">
+      <c r="A1278">
+        <v>1277</v>
+      </c>
+      <c r="B1278">
+        <v>3</v>
+      </c>
+      <c r="C1278">
+        <v>4</v>
+      </c>
+      <c r="D1278" t="s">
+        <v>2972</v>
+      </c>
+      <c r="E1278" t="s">
+        <v>2970</v>
+      </c>
+      <c r="F1278" t="s">
+        <v>2971</v>
+      </c>
+      <c r="G1278">
+        <v>0</v>
+      </c>
+      <c r="H1278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:8">
+      <c r="A1279">
+        <v>1278</v>
+      </c>
+      <c r="B1279">
+        <v>3</v>
+      </c>
+      <c r="C1279">
+        <v>4</v>
+      </c>
+      <c r="D1279" t="s">
+        <v>2973</v>
+      </c>
+      <c r="E1279" t="s">
+        <v>2974</v>
+      </c>
+      <c r="F1279" t="s">
+        <v>2971</v>
+      </c>
+      <c r="G1279">
+        <v>0</v>
+      </c>
+      <c r="H1279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:8">
+      <c r="A1280">
+        <v>1279</v>
+      </c>
+      <c r="B1280">
+        <v>3</v>
+      </c>
+      <c r="C1280">
+        <v>4</v>
+      </c>
+      <c r="D1280" t="s">
+        <v>2975</v>
+      </c>
+      <c r="E1280" t="s">
+        <v>2974</v>
+      </c>
+      <c r="F1280" t="s">
+        <v>2971</v>
+      </c>
+      <c r="G1280">
+        <v>0</v>
+      </c>
+      <c r="H1280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:8">
+      <c r="A1281">
+        <v>1280</v>
+      </c>
+      <c r="B1281">
+        <v>3</v>
+      </c>
+      <c r="C1281">
+        <v>4</v>
+      </c>
+      <c r="D1281" t="s">
+        <v>2976</v>
+      </c>
+      <c r="E1281" t="s">
+        <v>2977</v>
+      </c>
+      <c r="F1281" t="s">
+        <v>2971</v>
+      </c>
+      <c r="G1281">
+        <v>0</v>
+      </c>
+      <c r="H1281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:8">
+      <c r="A1282">
+        <v>1281</v>
+      </c>
+      <c r="B1282">
+        <v>3</v>
+      </c>
+      <c r="C1282">
+        <v>4</v>
+      </c>
+      <c r="D1282" t="s">
+        <v>759</v>
+      </c>
+      <c r="E1282" t="s">
+        <v>2978</v>
+      </c>
+      <c r="F1282" t="s">
+        <v>2979</v>
+      </c>
+      <c r="G1282">
+        <v>0</v>
+      </c>
+      <c r="H1282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:8">
+      <c r="A1283">
+        <v>1282</v>
+      </c>
+      <c r="B1283">
+        <v>3</v>
+      </c>
+      <c r="C1283">
+        <v>4</v>
+      </c>
+      <c r="D1283" t="s">
+        <v>2980</v>
+      </c>
+      <c r="E1283" t="s">
+        <v>2978</v>
+      </c>
+      <c r="F1283" t="s">
+        <v>2981</v>
+      </c>
+      <c r="G1283">
+        <v>0</v>
+      </c>
+      <c r="H1283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:8">
+      <c r="A1284">
+        <v>1283</v>
+      </c>
+      <c r="B1284">
+        <v>3</v>
+      </c>
+      <c r="C1284">
+        <v>4</v>
+      </c>
+      <c r="D1284" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E1284" t="s">
+        <v>2979</v>
+      </c>
+      <c r="F1284" t="s">
+        <v>2981</v>
+      </c>
+      <c r="G1284">
+        <v>0</v>
+      </c>
+      <c r="H1284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:8">
+      <c r="A1285">
+        <v>1284</v>
+      </c>
+      <c r="B1285">
+        <v>3</v>
+      </c>
+      <c r="C1285">
+        <v>4</v>
+      </c>
+      <c r="D1285" t="s">
+        <v>2982</v>
+      </c>
+      <c r="E1285" t="s">
+        <v>2978</v>
+      </c>
+      <c r="F1285" s="2" t="s">
+        <v>2981</v>
+      </c>
+      <c r="G1285">
+        <v>0</v>
+      </c>
+      <c r="H1285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:8">
+      <c r="A1286">
+        <v>1285</v>
+      </c>
+      <c r="B1286">
+        <v>3</v>
+      </c>
+      <c r="C1286">
+        <v>4</v>
+      </c>
+      <c r="D1286" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1286" t="s">
+        <v>2983</v>
+      </c>
+      <c r="F1286" t="s">
+        <v>2984</v>
+      </c>
+      <c r="G1286">
+        <v>0</v>
+      </c>
+      <c r="H1286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:8">
+      <c r="A1287">
+        <v>1286</v>
+      </c>
+      <c r="B1287">
+        <v>3</v>
+      </c>
+      <c r="C1287">
+        <v>4</v>
+      </c>
+      <c r="D1287" t="s">
+        <v>2985</v>
+      </c>
+      <c r="E1287" t="s">
+        <v>2983</v>
+      </c>
+      <c r="F1287" t="s">
+        <v>2986</v>
+      </c>
+      <c r="G1287">
+        <v>0</v>
+      </c>
+      <c r="H1287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:8">
+      <c r="A1288">
+        <v>1287</v>
+      </c>
+      <c r="B1288">
+        <v>3</v>
+      </c>
+      <c r="C1288">
+        <v>4</v>
+      </c>
+      <c r="D1288" t="s">
+        <v>2987</v>
+      </c>
+      <c r="E1288" t="s">
+        <v>2988</v>
+      </c>
+      <c r="F1288" t="s">
+        <v>2989</v>
+      </c>
+      <c r="G1288">
+        <v>0</v>
+      </c>
+      <c r="H1288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:8">
+      <c r="A1289">
+        <v>1288</v>
+      </c>
+      <c r="B1289">
+        <v>3</v>
+      </c>
+      <c r="C1289">
+        <v>4</v>
+      </c>
+      <c r="D1289" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E1289" t="s">
+        <v>2988</v>
+      </c>
+      <c r="F1289" t="s">
+        <v>2990</v>
+      </c>
+      <c r="G1289">
+        <v>0</v>
+      </c>
+      <c r="H1289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:8">
+      <c r="A1290">
+        <v>1289</v>
+      </c>
+      <c r="B1290">
+        <v>3</v>
+      </c>
+      <c r="C1290">
+        <v>4</v>
+      </c>
+      <c r="D1290" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E1290" t="s">
+        <v>2992</v>
+      </c>
+      <c r="F1290" t="s">
+        <v>2989</v>
+      </c>
+      <c r="G1290">
+        <v>0</v>
+      </c>
+      <c r="H1290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:8">
+      <c r="A1291">
+        <v>1290</v>
+      </c>
+      <c r="B1291">
+        <v>3</v>
+      </c>
+      <c r="C1291">
+        <v>4</v>
+      </c>
+      <c r="D1291" t="s">
+        <v>2993</v>
+      </c>
+      <c r="E1291" t="s">
+        <v>2994</v>
+      </c>
+      <c r="F1291" t="s">
+        <v>2995</v>
+      </c>
+      <c r="G1291">
+        <v>0</v>
+      </c>
+      <c r="H1291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:8">
+      <c r="A1292">
+        <v>1291</v>
+      </c>
+      <c r="B1292">
+        <v>3</v>
+      </c>
+      <c r="C1292">
+        <v>4</v>
+      </c>
+      <c r="D1292" t="s">
+        <v>2996</v>
+      </c>
+      <c r="E1292" t="s">
+        <v>2992</v>
+      </c>
+      <c r="F1292" t="s">
+        <v>2995</v>
+      </c>
+      <c r="G1292">
+        <v>0</v>
+      </c>
+      <c r="H1292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:8">
+      <c r="A1293">
+        <v>1292</v>
+      </c>
+      <c r="B1293">
+        <v>3</v>
+      </c>
+      <c r="C1293">
+        <v>4</v>
+      </c>
+      <c r="D1293" t="s">
+        <v>2788</v>
+      </c>
+      <c r="E1293" t="s">
+        <v>2997</v>
+      </c>
+      <c r="F1293" t="s">
+        <v>2998</v>
+      </c>
+      <c r="G1293">
+        <v>0</v>
+      </c>
+      <c r="H1293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:8">
+      <c r="A1294">
+        <v>1293</v>
+      </c>
+      <c r="B1294">
+        <v>3</v>
+      </c>
+      <c r="C1294">
+        <v>4</v>
+      </c>
+      <c r="D1294" t="s">
+        <v>2999</v>
+      </c>
+      <c r="E1294" t="s">
+        <v>3000</v>
+      </c>
+      <c r="F1294" t="s">
+        <v>3001</v>
+      </c>
+      <c r="G1294">
+        <v>0</v>
+      </c>
+      <c r="H1294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:8">
+      <c r="A1295">
+        <v>1294</v>
+      </c>
+      <c r="B1295">
+        <v>3</v>
+      </c>
+      <c r="C1295">
+        <v>4</v>
+      </c>
+      <c r="D1295" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1295" t="s">
+        <v>3000</v>
+      </c>
+      <c r="F1295" t="s">
+        <v>3002</v>
+      </c>
+      <c r="G1295">
+        <v>0</v>
+      </c>
+      <c r="H1295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:8">
+      <c r="A1296">
+        <v>1295</v>
+      </c>
+      <c r="B1296">
+        <v>3</v>
+      </c>
+      <c r="C1296">
+        <v>4</v>
+      </c>
+      <c r="D1296" t="s">
+        <v>2074</v>
+      </c>
+      <c r="E1296" t="s">
+        <v>3003</v>
+      </c>
+      <c r="F1296" t="s">
+        <v>3001</v>
+      </c>
+      <c r="G1296">
+        <v>0</v>
+      </c>
+      <c r="H1296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:8">
+      <c r="A1297">
+        <v>1296</v>
+      </c>
+      <c r="B1297">
+        <v>3</v>
+      </c>
+      <c r="C1297">
+        <v>4</v>
+      </c>
+      <c r="D1297" t="s">
+        <v>3004</v>
+      </c>
+      <c r="E1297" t="s">
+        <v>3003</v>
+      </c>
+      <c r="F1297" t="s">
+        <v>3005</v>
+      </c>
+      <c r="G1297">
+        <v>0</v>
+      </c>
+      <c r="H1297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:8">
+      <c r="A1298">
+        <v>1297</v>
+      </c>
+      <c r="B1298">
+        <v>3</v>
+      </c>
+      <c r="C1298">
+        <v>4</v>
+      </c>
+      <c r="D1298" t="s">
+        <v>3006</v>
+      </c>
+      <c r="E1298" t="s">
+        <v>3007</v>
+      </c>
+      <c r="F1298" t="s">
+        <v>3005</v>
+      </c>
+      <c r="G1298">
+        <v>0</v>
+      </c>
+      <c r="H1298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:8">
+      <c r="A1299">
+        <v>1298</v>
+      </c>
+      <c r="B1299">
+        <v>3</v>
+      </c>
+      <c r="C1299">
+        <v>4</v>
+      </c>
+      <c r="D1299" t="s">
+        <v>3008</v>
+      </c>
+      <c r="E1299" t="s">
+        <v>3007</v>
+      </c>
+      <c r="F1299" t="s">
+        <v>3009</v>
+      </c>
+      <c r="G1299">
+        <v>0</v>
+      </c>
+      <c r="H1299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:8">
+      <c r="A1300">
+        <v>1299</v>
+      </c>
+      <c r="B1300">
+        <v>3</v>
+      </c>
+      <c r="C1300">
+        <v>4</v>
+      </c>
+      <c r="D1300" t="s">
+        <v>2406</v>
+      </c>
+      <c r="E1300" t="s">
+        <v>3010</v>
+      </c>
+      <c r="F1300" t="s">
+        <v>3011</v>
+      </c>
+      <c r="G1300">
+        <v>0</v>
+      </c>
+      <c r="H1300">
         <v>1</v>
       </c>
     </row>

--- a/spreadsheets/clips.xlsx
+++ b/spreadsheets/clips.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5171" uniqueCount="3937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5246" uniqueCount="3992">
   <si>
     <t>id</t>
   </si>
@@ -11833,6 +11833,171 @@
   </si>
   <si>
     <t>outrageous</t>
+  </si>
+  <si>
+    <t>00;11;08;45</t>
+  </si>
+  <si>
+    <t>00;11;09;16</t>
+  </si>
+  <si>
+    <t>puts</t>
+  </si>
+  <si>
+    <t>00;11;09;36</t>
+  </si>
+  <si>
+    <t>00;11;09;52</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>00;11;09;49</t>
+  </si>
+  <si>
+    <t>00;11;10;14</t>
+  </si>
+  <si>
+    <t>00;11;10;41</t>
+  </si>
+  <si>
+    <t>on the</t>
+  </si>
+  <si>
+    <t>00;11;10;43</t>
+  </si>
+  <si>
+    <t>00;11;10;56</t>
+  </si>
+  <si>
+    <t>old saying</t>
+  </si>
+  <si>
+    <t>00;11;10;57</t>
+  </si>
+  <si>
+    <t>00;11;11;50</t>
+  </si>
+  <si>
+    <t>the old</t>
+  </si>
+  <si>
+    <t>00;11;10;46</t>
+  </si>
+  <si>
+    <t>00;11;11;14</t>
+  </si>
+  <si>
+    <t>00;11;10;55</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>00;11;11;13</t>
+  </si>
+  <si>
+    <t>saying</t>
+  </si>
+  <si>
+    <t>sang</t>
+  </si>
+  <si>
+    <t>00;11;11;41</t>
+  </si>
+  <si>
+    <t>00;11;11;55</t>
+  </si>
+  <si>
+    <t>00;11;12;18</t>
+  </si>
+  <si>
+    <t>is the</t>
+  </si>
+  <si>
+    <t>00;11;12;19</t>
+  </si>
+  <si>
+    <t>00;11;12;37</t>
+  </si>
+  <si>
+    <t>king of</t>
+  </si>
+  <si>
+    <t>00;11;12;38</t>
+  </si>
+  <si>
+    <t>00;11;12;58</t>
+  </si>
+  <si>
+    <t>king</t>
+  </si>
+  <si>
+    <t>00;11;12;52</t>
+  </si>
+  <si>
+    <t>of his</t>
+  </si>
+  <si>
+    <t>00;11;12;53</t>
+  </si>
+  <si>
+    <t>00;11;13;12</t>
+  </si>
+  <si>
+    <t>castle</t>
+  </si>
+  <si>
+    <t>00;11;13;13</t>
+  </si>
+  <si>
+    <t>00;11;13;43</t>
+  </si>
+  <si>
+    <t>00;11;13;17</t>
+  </si>
+  <si>
+    <t>asshole</t>
+  </si>
+  <si>
+    <t>ass hole</t>
+  </si>
+  <si>
+    <t>ass</t>
+  </si>
+  <si>
+    <t>00;11;13;31</t>
+  </si>
+  <si>
+    <t>00;11;11;51</t>
+  </si>
+  <si>
+    <t>on the edge</t>
+  </si>
+  <si>
+    <t>00;11;31;28</t>
+  </si>
+  <si>
+    <t>00;11;32;33</t>
+  </si>
+  <si>
+    <t>moved in</t>
+  </si>
+  <si>
+    <t>00;11;59;51</t>
+  </si>
+  <si>
+    <t>00;12;00;17</t>
+  </si>
+  <si>
+    <t>her house</t>
+  </si>
+  <si>
+    <t>00;12;00;18</t>
+  </si>
+  <si>
+    <t>00;12;00;51</t>
   </si>
 </sst>
 </file>
@@ -11892,8 +12057,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="351">
+  <cellStyleXfs count="355">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -12250,7 +12419,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="351">
+  <cellStyles count="355">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -12426,6 +12595,8 @@
     <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -12601,6 +12772,8 @@
     <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -12932,8 +13105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1800"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1700" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D1722" sqref="D1722"/>
+    <sheetView tabSelected="1" topLeftCell="A1734" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D1747" sqref="D1747"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -57728,6 +57901,15 @@
       <c r="C1723">
         <v>2</v>
       </c>
+      <c r="D1723" t="s">
+        <v>2074</v>
+      </c>
+      <c r="E1723" t="s">
+        <v>3937</v>
+      </c>
+      <c r="F1723" t="s">
+        <v>3938</v>
+      </c>
       <c r="G1723">
         <v>0</v>
       </c>
@@ -57745,6 +57927,15 @@
       <c r="C1724">
         <v>2</v>
       </c>
+      <c r="D1724" t="s">
+        <v>3939</v>
+      </c>
+      <c r="E1724" t="s">
+        <v>3940</v>
+      </c>
+      <c r="F1724" t="s">
+        <v>3941</v>
+      </c>
       <c r="G1724">
         <v>0</v>
       </c>
@@ -57762,6 +57953,15 @@
       <c r="C1725">
         <v>2</v>
       </c>
+      <c r="D1725" t="s">
+        <v>3942</v>
+      </c>
+      <c r="E1725" t="s">
+        <v>3940</v>
+      </c>
+      <c r="F1725" t="s">
+        <v>3943</v>
+      </c>
       <c r="G1725">
         <v>0</v>
       </c>
@@ -57779,6 +57979,15 @@
       <c r="C1726">
         <v>2</v>
       </c>
+      <c r="D1726" t="s">
+        <v>606</v>
+      </c>
+      <c r="E1726" t="s">
+        <v>3944</v>
+      </c>
+      <c r="F1726" t="s">
+        <v>3945</v>
+      </c>
       <c r="G1726">
         <v>0</v>
       </c>
@@ -57796,6 +58005,15 @@
       <c r="C1727">
         <v>2</v>
       </c>
+      <c r="D1727" t="s">
+        <v>3946</v>
+      </c>
+      <c r="E1727" t="s">
+        <v>3947</v>
+      </c>
+      <c r="F1727" t="s">
+        <v>3948</v>
+      </c>
       <c r="G1727">
         <v>0</v>
       </c>
@@ -57813,6 +58031,15 @@
       <c r="C1728">
         <v>2</v>
       </c>
+      <c r="D1728" t="s">
+        <v>3949</v>
+      </c>
+      <c r="E1728" t="s">
+        <v>3950</v>
+      </c>
+      <c r="F1728" t="s">
+        <v>3951</v>
+      </c>
       <c r="G1728">
         <v>0</v>
       </c>
@@ -57830,6 +58057,15 @@
       <c r="C1729">
         <v>2</v>
       </c>
+      <c r="D1729" t="s">
+        <v>3952</v>
+      </c>
+      <c r="E1729" t="s">
+        <v>3953</v>
+      </c>
+      <c r="F1729" t="s">
+        <v>3954</v>
+      </c>
       <c r="G1729">
         <v>0</v>
       </c>
@@ -57847,6 +58083,15 @@
       <c r="C1730">
         <v>2</v>
       </c>
+      <c r="D1730" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1730" t="s">
+        <v>3953</v>
+      </c>
+      <c r="F1730" t="s">
+        <v>3955</v>
+      </c>
       <c r="G1730">
         <v>0</v>
       </c>
@@ -57864,6 +58109,15 @@
       <c r="C1731">
         <v>2</v>
       </c>
+      <c r="D1731" t="s">
+        <v>3956</v>
+      </c>
+      <c r="E1731" t="s">
+        <v>3955</v>
+      </c>
+      <c r="F1731" t="s">
+        <v>3957</v>
+      </c>
       <c r="G1731">
         <v>0</v>
       </c>
@@ -57881,6 +58135,15 @@
       <c r="C1732">
         <v>2</v>
       </c>
+      <c r="D1732" t="s">
+        <v>3958</v>
+      </c>
+      <c r="E1732" t="s">
+        <v>3954</v>
+      </c>
+      <c r="F1732" t="s">
+        <v>3951</v>
+      </c>
       <c r="G1732">
         <v>0</v>
       </c>
@@ -57898,6 +58161,15 @@
       <c r="C1733">
         <v>2</v>
       </c>
+      <c r="D1733" t="s">
+        <v>3959</v>
+      </c>
+      <c r="E1733" t="s">
+        <v>3954</v>
+      </c>
+      <c r="F1733" t="s">
+        <v>3951</v>
+      </c>
       <c r="G1733">
         <v>0</v>
       </c>
@@ -57915,6 +58187,15 @@
       <c r="C1734">
         <v>2</v>
       </c>
+      <c r="D1734" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1734" t="s">
+        <v>3954</v>
+      </c>
+      <c r="F1734" t="s">
+        <v>3960</v>
+      </c>
       <c r="G1734">
         <v>0</v>
       </c>
@@ -57932,6 +58213,15 @@
       <c r="C1735">
         <v>2</v>
       </c>
+      <c r="D1735" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1735" t="s">
+        <v>3961</v>
+      </c>
+      <c r="F1735" t="s">
+        <v>3962</v>
+      </c>
       <c r="G1735">
         <v>0</v>
       </c>
@@ -57949,6 +58239,15 @@
       <c r="C1736">
         <v>2</v>
       </c>
+      <c r="D1736" t="s">
+        <v>3963</v>
+      </c>
+      <c r="E1736" t="s">
+        <v>3964</v>
+      </c>
+      <c r="F1736" t="s">
+        <v>3965</v>
+      </c>
       <c r="G1736">
         <v>0</v>
       </c>
@@ -57966,6 +58265,15 @@
       <c r="C1737">
         <v>2</v>
       </c>
+      <c r="D1737" t="s">
+        <v>3966</v>
+      </c>
+      <c r="E1737" t="s">
+        <v>3967</v>
+      </c>
+      <c r="F1737" t="s">
+        <v>3968</v>
+      </c>
       <c r="G1737">
         <v>0</v>
       </c>
@@ -57983,6 +58291,15 @@
       <c r="C1738">
         <v>2</v>
       </c>
+      <c r="D1738" t="s">
+        <v>3969</v>
+      </c>
+      <c r="E1738" t="s">
+        <v>3967</v>
+      </c>
+      <c r="F1738" t="s">
+        <v>3970</v>
+      </c>
       <c r="G1738">
         <v>0</v>
       </c>
@@ -58000,6 +58317,15 @@
       <c r="C1739">
         <v>2</v>
       </c>
+      <c r="D1739" t="s">
+        <v>3971</v>
+      </c>
+      <c r="E1739" t="s">
+        <v>3972</v>
+      </c>
+      <c r="F1739" t="s">
+        <v>3973</v>
+      </c>
       <c r="G1739">
         <v>0</v>
       </c>
@@ -58017,6 +58343,15 @@
       <c r="C1740">
         <v>2</v>
       </c>
+      <c r="D1740" t="s">
+        <v>3974</v>
+      </c>
+      <c r="E1740" t="s">
+        <v>3975</v>
+      </c>
+      <c r="F1740" t="s">
+        <v>3976</v>
+      </c>
       <c r="G1740">
         <v>0</v>
       </c>
@@ -58034,6 +58369,15 @@
       <c r="C1741">
         <v>2</v>
       </c>
+      <c r="D1741" t="s">
+        <v>3978</v>
+      </c>
+      <c r="E1741" t="s">
+        <v>3977</v>
+      </c>
+      <c r="F1741" t="s">
+        <v>3976</v>
+      </c>
       <c r="G1741">
         <v>0</v>
       </c>
@@ -58051,6 +58395,15 @@
       <c r="C1742">
         <v>2</v>
       </c>
+      <c r="D1742" t="s">
+        <v>3979</v>
+      </c>
+      <c r="E1742" t="s">
+        <v>3977</v>
+      </c>
+      <c r="F1742" t="s">
+        <v>3976</v>
+      </c>
       <c r="G1742">
         <v>0</v>
       </c>
@@ -58068,6 +58421,15 @@
       <c r="C1743">
         <v>2</v>
       </c>
+      <c r="D1743" t="s">
+        <v>3980</v>
+      </c>
+      <c r="E1743" t="s">
+        <v>3977</v>
+      </c>
+      <c r="F1743" t="s">
+        <v>3981</v>
+      </c>
       <c r="G1743">
         <v>0</v>
       </c>
@@ -58085,6 +58447,15 @@
       <c r="C1744">
         <v>2</v>
       </c>
+      <c r="D1744" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E1744" t="s">
+        <v>3982</v>
+      </c>
+      <c r="F1744" t="s">
+        <v>3962</v>
+      </c>
       <c r="G1744">
         <v>0</v>
       </c>
@@ -58102,6 +58473,15 @@
       <c r="C1745">
         <v>2</v>
       </c>
+      <c r="D1745" t="s">
+        <v>3983</v>
+      </c>
+      <c r="E1745" t="s">
+        <v>3984</v>
+      </c>
+      <c r="F1745" t="s">
+        <v>3985</v>
+      </c>
       <c r="G1745">
         <v>0</v>
       </c>
@@ -58119,6 +58499,15 @@
       <c r="C1746">
         <v>2</v>
       </c>
+      <c r="D1746" t="s">
+        <v>3986</v>
+      </c>
+      <c r="E1746" t="s">
+        <v>3987</v>
+      </c>
+      <c r="F1746" t="s">
+        <v>3988</v>
+      </c>
       <c r="G1746">
         <v>0</v>
       </c>
@@ -58135,6 +58524,15 @@
       </c>
       <c r="C1747">
         <v>2</v>
+      </c>
+      <c r="D1747" t="s">
+        <v>3989</v>
+      </c>
+      <c r="E1747" t="s">
+        <v>3990</v>
+      </c>
+      <c r="F1747" t="s">
+        <v>3991</v>
       </c>
       <c r="G1747">
         <v>0</v>

--- a/spreadsheets/clips.xlsx
+++ b/spreadsheets/clips.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6326" uniqueCount="4830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6755" uniqueCount="5149">
   <si>
     <t>id</t>
   </si>
@@ -14512,6 +14512,963 @@
   </si>
   <si>
     <t>00;13;09;15</t>
+  </si>
+  <si>
+    <t>they naturally</t>
+  </si>
+  <si>
+    <t>00;13;09;37</t>
+  </si>
+  <si>
+    <t>00;13;10;40</t>
+  </si>
+  <si>
+    <t>naturally</t>
+  </si>
+  <si>
+    <t>00;13;09;49</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>00;13;10;41</t>
+  </si>
+  <si>
+    <t>00;13;11;05</t>
+  </si>
+  <si>
+    <t>gifted</t>
+  </si>
+  <si>
+    <t>00;13;11;06</t>
+  </si>
+  <si>
+    <t>00;13;11;32</t>
+  </si>
+  <si>
+    <t>educated</t>
+  </si>
+  <si>
+    <t>00;13;11;52</t>
+  </si>
+  <si>
+    <t>educate</t>
+  </si>
+  <si>
+    <t>00;13;12;21</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>00;13;17;59</t>
+  </si>
+  <si>
+    <t>00;13;18;31</t>
+  </si>
+  <si>
+    <t>entertainment</t>
+  </si>
+  <si>
+    <t>00;13;18;32</t>
+  </si>
+  <si>
+    <t>00;13;19;02</t>
+  </si>
+  <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>00;13;19;22</t>
+  </si>
+  <si>
+    <t>00;13;19;44</t>
+  </si>
+  <si>
+    <t>played well</t>
+  </si>
+  <si>
+    <t>00;13;19;45</t>
+  </si>
+  <si>
+    <t>00;13;20;13</t>
+  </si>
+  <si>
+    <t>played</t>
+  </si>
+  <si>
+    <t>00;13;20;04</t>
+  </si>
+  <si>
+    <t>00;13;20;14</t>
+  </si>
+  <si>
+    <t>00;13;20;46</t>
+  </si>
+  <si>
+    <t>i said</t>
+  </si>
+  <si>
+    <t>00;13;21;11</t>
+  </si>
+  <si>
+    <t>00;13;21;31</t>
+  </si>
+  <si>
+    <t>theres gotta be</t>
+  </si>
+  <si>
+    <t>00;13;21;41</t>
+  </si>
+  <si>
+    <t>00;13;22;10</t>
+  </si>
+  <si>
+    <t>gotta</t>
+  </si>
+  <si>
+    <t>00;13;21;50</t>
+  </si>
+  <si>
+    <t>00;13;22;06</t>
+  </si>
+  <si>
+    <t>gotta be</t>
+  </si>
+  <si>
+    <t>00;13;22;13</t>
+  </si>
+  <si>
+    <t>00;13;22;14</t>
+  </si>
+  <si>
+    <t>00;13;22;39</t>
+  </si>
+  <si>
+    <t>that we can</t>
+  </si>
+  <si>
+    <t>00;13;22;53</t>
+  </si>
+  <si>
+    <t>00;13;23;30</t>
+  </si>
+  <si>
+    <t>that we</t>
+  </si>
+  <si>
+    <t>00;13;22;51</t>
+  </si>
+  <si>
+    <t>00;13;23;14</t>
+  </si>
+  <si>
+    <t>we can</t>
+  </si>
+  <si>
+    <t>00;13;23;06</t>
+  </si>
+  <si>
+    <t>00;13;23;27</t>
+  </si>
+  <si>
+    <t>00;13;23;35</t>
+  </si>
+  <si>
+    <t>00;13;23;58</t>
+  </si>
+  <si>
+    <t>blend</t>
+  </si>
+  <si>
+    <t>00;13;23;59</t>
+  </si>
+  <si>
+    <t>00;13;24;15</t>
+  </si>
+  <si>
+    <t>00;13;24;23</t>
+  </si>
+  <si>
+    <t>00;13;24;37</t>
+  </si>
+  <si>
+    <t>00;13;24;40</t>
+  </si>
+  <si>
+    <t>00;13;25;34</t>
+  </si>
+  <si>
+    <t>behemoths</t>
+  </si>
+  <si>
+    <t>behemoth</t>
+  </si>
+  <si>
+    <t>00;13;25;24</t>
+  </si>
+  <si>
+    <t>00;13;25;31</t>
+  </si>
+  <si>
+    <t>00;13;25;51</t>
+  </si>
+  <si>
+    <t>one thing</t>
+  </si>
+  <si>
+    <t>00;13;25;52</t>
+  </si>
+  <si>
+    <t>00;13;26;34</t>
+  </si>
+  <si>
+    <t>00;13;26;07</t>
+  </si>
+  <si>
+    <t>00;13;27;24</t>
+  </si>
+  <si>
+    <t>00;13;27;41</t>
+  </si>
+  <si>
+    <t>00;13;28;24</t>
+  </si>
+  <si>
+    <t>motivate</t>
+  </si>
+  <si>
+    <t>00;13;29;14</t>
+  </si>
+  <si>
+    <t>00;13;29;49</t>
+  </si>
+  <si>
+    <t>00;13;30;37</t>
+  </si>
+  <si>
+    <t>00;13;31;05</t>
+  </si>
+  <si>
+    <t>next generation</t>
+  </si>
+  <si>
+    <t>00;13;31;11</t>
+  </si>
+  <si>
+    <t>00;13;31;55</t>
+  </si>
+  <si>
+    <t>generation</t>
+  </si>
+  <si>
+    <t>00;13;31;23</t>
+  </si>
+  <si>
+    <t>00;13;32;31</t>
+  </si>
+  <si>
+    <t>00;13;32;51</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>00;13;50;58</t>
+  </si>
+  <si>
+    <t>00;13;51;45</t>
+  </si>
+  <si>
+    <t>deal</t>
+  </si>
+  <si>
+    <t>00;13;52;49</t>
+  </si>
+  <si>
+    <t>00;13;53;15</t>
+  </si>
+  <si>
+    <t>a cook</t>
+  </si>
+  <si>
+    <t>00;13;57;32</t>
+  </si>
+  <si>
+    <t>00;13;58;04</t>
+  </si>
+  <si>
+    <t>00;13;57;41</t>
+  </si>
+  <si>
+    <t>00;13;58;05</t>
+  </si>
+  <si>
+    <t>an author</t>
+  </si>
+  <si>
+    <t>00;13;58;06</t>
+  </si>
+  <si>
+    <t>00;13;58;42</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>00;13;58;16</t>
+  </si>
+  <si>
+    <t>an artist</t>
+  </si>
+  <si>
+    <t>00;13;58;43</t>
+  </si>
+  <si>
+    <t>00;13;59;13</t>
+  </si>
+  <si>
+    <t>artist</t>
+  </si>
+  <si>
+    <t>00;13;58;52</t>
+  </si>
+  <si>
+    <t>00;13;59;15</t>
+  </si>
+  <si>
+    <t>whatever</t>
+  </si>
+  <si>
+    <t>00;13;59;16</t>
+  </si>
+  <si>
+    <t>00;13;59;51</t>
+  </si>
+  <si>
+    <t>00;14;00;30</t>
+  </si>
+  <si>
+    <t>00;14;00;56</t>
+  </si>
+  <si>
+    <t>putting in</t>
+  </si>
+  <si>
+    <t>00;14;00;57</t>
+  </si>
+  <si>
+    <t>00;14;01;22</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>00;14;01;12</t>
+  </si>
+  <si>
+    <t>in time</t>
+  </si>
+  <si>
+    <t>00;14;01;13</t>
+  </si>
+  <si>
+    <t>00;14;01;41</t>
+  </si>
+  <si>
+    <t>00;14;01;21</t>
+  </si>
+  <si>
+    <t>somebody else</t>
+  </si>
+  <si>
+    <t>00;14;02;15</t>
+  </si>
+  <si>
+    <t>00;14;02;54</t>
+  </si>
+  <si>
+    <t>behind you</t>
+  </si>
+  <si>
+    <t>00;14;03;11</t>
+  </si>
+  <si>
+    <t>00;14;03;49</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>00;14;03;09</t>
+  </si>
+  <si>
+    <t>00;14;03;34</t>
+  </si>
+  <si>
+    <t>00;14;03;36</t>
+  </si>
+  <si>
+    <t>00;14;03;54</t>
+  </si>
+  <si>
+    <t>up next</t>
+  </si>
+  <si>
+    <t>00;14;07;17</t>
+  </si>
+  <si>
+    <t>00;14;07;43</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>00;14;08;02</t>
+  </si>
+  <si>
+    <t>00;14;08;26</t>
+  </si>
+  <si>
+    <t>look at the</t>
+  </si>
+  <si>
+    <t>00;14;08;27</t>
+  </si>
+  <si>
+    <t>00;14;08;57</t>
+  </si>
+  <si>
+    <t>00;14;08;47</t>
+  </si>
+  <si>
+    <t>00;14;10;17</t>
+  </si>
+  <si>
+    <t>00;14;10;48</t>
+  </si>
+  <si>
+    <t>blackhawks</t>
+  </si>
+  <si>
+    <t>sports</t>
+  </si>
+  <si>
+    <t>00;02;08;32</t>
+  </si>
+  <si>
+    <t>sport</t>
+  </si>
+  <si>
+    <t>00;02;08;59</t>
+  </si>
+  <si>
+    <t>haha</t>
+  </si>
+  <si>
+    <t>00;02;09;56</t>
+  </si>
+  <si>
+    <t>do i start</t>
+  </si>
+  <si>
+    <t>00;02;11;57</t>
+  </si>
+  <si>
+    <t>00;02;12;42</t>
+  </si>
+  <si>
+    <t>00;02;12;41</t>
+  </si>
+  <si>
+    <t>halfway</t>
+  </si>
+  <si>
+    <t>00;02;14;07</t>
+  </si>
+  <si>
+    <t>00;02;14;46</t>
+  </si>
+  <si>
+    <t>00;02;14;47</t>
+  </si>
+  <si>
+    <t>the season</t>
+  </si>
+  <si>
+    <t>00;02;15;07</t>
+  </si>
+  <si>
+    <t>00;02;15;47</t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>00;02;15;14</t>
+  </si>
+  <si>
+    <t>00;02;15;48</t>
+  </si>
+  <si>
+    <t>00;02;16;33</t>
+  </si>
+  <si>
+    <t>must win</t>
+  </si>
+  <si>
+    <t>00;02;17;06</t>
+  </si>
+  <si>
+    <t>00;02;17;43</t>
+  </si>
+  <si>
+    <t>00;02;17;30</t>
+  </si>
+  <si>
+    <t>win</t>
+  </si>
+  <si>
+    <t>00;02;17;31</t>
+  </si>
+  <si>
+    <t>situation</t>
+  </si>
+  <si>
+    <t>00;02;18;38</t>
+  </si>
+  <si>
+    <t>00;02;18;39</t>
+  </si>
+  <si>
+    <t>00;02;18;54</t>
+  </si>
+  <si>
+    <t>00;02;18;55</t>
+  </si>
+  <si>
+    <t>00;02;19;12</t>
+  </si>
+  <si>
+    <t>the last</t>
+  </si>
+  <si>
+    <t>00;02;19;26</t>
+  </si>
+  <si>
+    <t>00;02;19;51</t>
+  </si>
+  <si>
+    <t>seventy five</t>
+  </si>
+  <si>
+    <t>00;02;19;46</t>
+  </si>
+  <si>
+    <t>00;02;20;24</t>
+  </si>
+  <si>
+    <t>teams</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>00;02;20;39</t>
+  </si>
+  <si>
+    <t>open up</t>
+  </si>
+  <si>
+    <t>00;02;20;47</t>
+  </si>
+  <si>
+    <t>00;02;21;17</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>00;02;20;48</t>
+  </si>
+  <si>
+    <t>00;02;21;07</t>
+  </si>
+  <si>
+    <t>00;02;21;22</t>
+  </si>
+  <si>
+    <t>00;02;21;54</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>00;02;23;09</t>
+  </si>
+  <si>
+    <t>still made</t>
+  </si>
+  <si>
+    <t>00;02;23;24</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>00;02;23;25</t>
+  </si>
+  <si>
+    <t>maid</t>
+  </si>
+  <si>
+    <t>the playoffs</t>
+  </si>
+  <si>
+    <t>00;02;23;36</t>
+  </si>
+  <si>
+    <t>00;02;24;15</t>
+  </si>
+  <si>
+    <t>playoffs</t>
+  </si>
+  <si>
+    <t>00;02;23;45</t>
+  </si>
+  <si>
+    <t>00;02;25;15</t>
+  </si>
+  <si>
+    <t>00;02;25;16</t>
+  </si>
+  <si>
+    <t>00;02;25;36</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>00;02;25;37</t>
+  </si>
+  <si>
+    <t>00;02;26;13</t>
+  </si>
+  <si>
+    <t>they also</t>
+  </si>
+  <si>
+    <t>00;02;26;14</t>
+  </si>
+  <si>
+    <t>00;02;26;58</t>
+  </si>
+  <si>
+    <t>00;02;26;38</t>
+  </si>
+  <si>
+    <t>00;02;27;00</t>
+  </si>
+  <si>
+    <t>couldn't afford</t>
+  </si>
+  <si>
+    <t>00;02;27;01</t>
+  </si>
+  <si>
+    <t>00;02;27;34</t>
+  </si>
+  <si>
+    <t>00;02;27;17</t>
+  </si>
+  <si>
+    <t>the fall</t>
+  </si>
+  <si>
+    <t>00;02;27;37</t>
+  </si>
+  <si>
+    <t>00;02;27;59</t>
+  </si>
+  <si>
+    <t>00;02;27;43</t>
+  </si>
+  <si>
+    <t>00;02;28;18</t>
+  </si>
+  <si>
+    <t>games</t>
+  </si>
+  <si>
+    <t>00;02;28;19</t>
+  </si>
+  <si>
+    <t>00;02;28;39</t>
+  </si>
+  <si>
+    <t>00;02;28;34</t>
+  </si>
+  <si>
+    <t>00;02;28;58</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>frontrunning</t>
+  </si>
+  <si>
+    <t>00;02;29;44</t>
+  </si>
+  <si>
+    <t>running</t>
+  </si>
+  <si>
+    <t>lyons</t>
+  </si>
+  <si>
+    <t>00;02;29;47</t>
+  </si>
+  <si>
+    <t>00;02;30;34</t>
+  </si>
+  <si>
+    <t>00;02;30;47</t>
+  </si>
+  <si>
+    <t>00;02;31;07</t>
+  </si>
+  <si>
+    <t>play in the</t>
+  </si>
+  <si>
+    <t>00;04;35;42</t>
+  </si>
+  <si>
+    <t>00;04;36;06</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>00;04;35;57</t>
+  </si>
+  <si>
+    <t>madhouse</t>
+  </si>
+  <si>
+    <t>00;04;36;03</t>
+  </si>
+  <si>
+    <t>00;04;36;36</t>
+  </si>
+  <si>
+    <t>mad</t>
+  </si>
+  <si>
+    <t>00;04;36;21</t>
+  </si>
+  <si>
+    <t>00;04;36;46</t>
+  </si>
+  <si>
+    <t>00;04;36;45</t>
+  </si>
+  <si>
+    <t>00;04;37;26</t>
+  </si>
+  <si>
+    <t>maddening</t>
+  </si>
+  <si>
+    <t>00;04;37;27</t>
+  </si>
+  <si>
+    <t>00;04;38;08</t>
+  </si>
+  <si>
+    <t>this season</t>
+  </si>
+  <si>
+    <t>00;04;37;41</t>
+  </si>
+  <si>
+    <t>00;04;37;38</t>
+  </si>
+  <si>
+    <t>00;04;38;27</t>
+  </si>
+  <si>
+    <t>00;04;38;26</t>
+  </si>
+  <si>
+    <t>inconsistent</t>
+  </si>
+  <si>
+    <t>00;04;39;26</t>
+  </si>
+  <si>
+    <t>offense</t>
+  </si>
+  <si>
+    <t>00;04;39;27</t>
+  </si>
+  <si>
+    <t>00;04;40;02</t>
+  </si>
+  <si>
+    <t>leading</t>
+  </si>
+  <si>
+    <t>00;04;40;03</t>
+  </si>
+  <si>
+    <t>00;04;40;18</t>
+  </si>
+  <si>
+    <t>00;04;40;35</t>
+  </si>
+  <si>
+    <t>00;04;40;50</t>
+  </si>
+  <si>
+    <t>losing</t>
+  </si>
+  <si>
+    <t>00;04;41;24</t>
+  </si>
+  <si>
+    <t>00;04;41;00</t>
+  </si>
+  <si>
+    <t>skid</t>
+  </si>
+  <si>
+    <t>00;04;41;41</t>
+  </si>
+  <si>
+    <t>at home</t>
+  </si>
+  <si>
+    <t>00;04;41;42</t>
+  </si>
+  <si>
+    <t>00;04;42;10</t>
+  </si>
+  <si>
+    <t>00;04;41;51</t>
+  </si>
+  <si>
+    <t>00;04;42;16</t>
+  </si>
+  <si>
+    <t>00;04;42;46</t>
+  </si>
+  <si>
+    <t>hope to</t>
+  </si>
+  <si>
+    <t>00;04;42;44</t>
+  </si>
+  <si>
+    <t>00;04;43;05</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>00;04;43;06</t>
+  </si>
+  <si>
+    <t>00;04;43;27</t>
+  </si>
+  <si>
+    <t>00;04;43;53</t>
+  </si>
+  <si>
+    <t>against</t>
+  </si>
+  <si>
+    <t>00;04;44;36</t>
+  </si>
+  <si>
+    <t>san jose</t>
+  </si>
+  <si>
+    <t>00;04;44;39</t>
+  </si>
+  <si>
+    <t>00;04;45;12</t>
+  </si>
+  <si>
+    <t>sharks</t>
+  </si>
+  <si>
+    <t>00;04;45;13</t>
+  </si>
+  <si>
+    <t>00;04;45;39</t>
+  </si>
+  <si>
+    <t>shark</t>
+  </si>
+  <si>
+    <t>00;04;45;33</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t>00;05;18;04</t>
+  </si>
+  <si>
+    <t>00;05;18;19</t>
+  </si>
+  <si>
+    <t>i think its</t>
+  </si>
+  <si>
+    <t>00;05;19;18</t>
+  </si>
+  <si>
+    <t>00;05;19;54</t>
+  </si>
+  <si>
+    <t>00;05;19;41</t>
+  </si>
+  <si>
+    <t>uh</t>
+  </si>
+  <si>
+    <t>00;05;19;57</t>
+  </si>
+  <si>
+    <t>00;05;20;27</t>
+  </si>
+  <si>
+    <t>most part</t>
+  </si>
+  <si>
+    <t>00;05;20;29</t>
+  </si>
+  <si>
+    <t>00;05;20;44</t>
+  </si>
+  <si>
+    <t>almost</t>
+  </si>
+  <si>
+    <t>00;05;21;09</t>
+  </si>
+  <si>
+    <t>00;05;21;27</t>
+  </si>
+  <si>
+    <t>almost there</t>
+  </si>
+  <si>
+    <t>00;05;21;49</t>
   </si>
 </sst>
 </file>
@@ -14571,8 +15528,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="405">
+  <cellStyleXfs count="427">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -14983,7 +15962,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="405">
+  <cellStyles count="427">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -15186,6 +16165,17 @@
     <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -15388,6 +16378,17 @@
     <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -15717,10 +16718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2235"/>
+  <dimension ref="A1:H2250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2088" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F2107" sqref="F2107"/>
+    <sheetView tabSelected="1" topLeftCell="A2233" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E2250" sqref="E2250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -70525,6 +71526,15 @@
       <c r="C2108">
         <v>6</v>
       </c>
+      <c r="D2108" t="s">
+        <v>4830</v>
+      </c>
+      <c r="E2108" t="s">
+        <v>4831</v>
+      </c>
+      <c r="F2108" t="s">
+        <v>4832</v>
+      </c>
       <c r="G2108">
         <v>0</v>
       </c>
@@ -70542,6 +71552,15 @@
       <c r="C2109">
         <v>6</v>
       </c>
+      <c r="D2109" t="s">
+        <v>4833</v>
+      </c>
+      <c r="E2109" t="s">
+        <v>4834</v>
+      </c>
+      <c r="F2109" t="s">
+        <v>4832</v>
+      </c>
       <c r="G2109">
         <v>0</v>
       </c>
@@ -70559,6 +71578,15 @@
       <c r="C2110">
         <v>6</v>
       </c>
+      <c r="D2110" t="s">
+        <v>4835</v>
+      </c>
+      <c r="E2110" t="s">
+        <v>4836</v>
+      </c>
+      <c r="F2110" t="s">
+        <v>4837</v>
+      </c>
       <c r="G2110">
         <v>0</v>
       </c>
@@ -70576,6 +71604,15 @@
       <c r="C2111">
         <v>6</v>
       </c>
+      <c r="D2111" t="s">
+        <v>4838</v>
+      </c>
+      <c r="E2111" t="s">
+        <v>4839</v>
+      </c>
+      <c r="F2111" t="s">
+        <v>4840</v>
+      </c>
       <c r="G2111">
         <v>0</v>
       </c>
@@ -70593,6 +71630,15 @@
       <c r="C2112">
         <v>6</v>
       </c>
+      <c r="D2112" t="s">
+        <v>4841</v>
+      </c>
+      <c r="E2112" t="s">
+        <v>4842</v>
+      </c>
+      <c r="F2112" t="s">
+        <v>3601</v>
+      </c>
       <c r="G2112">
         <v>0</v>
       </c>
@@ -70610,6 +71656,15 @@
       <c r="C2113">
         <v>6</v>
       </c>
+      <c r="D2113" t="s">
+        <v>4843</v>
+      </c>
+      <c r="E2113" t="s">
+        <v>4842</v>
+      </c>
+      <c r="F2113" t="s">
+        <v>4844</v>
+      </c>
       <c r="G2113">
         <v>0</v>
       </c>
@@ -70627,6 +71682,15 @@
       <c r="C2114">
         <v>6</v>
       </c>
+      <c r="D2114" t="s">
+        <v>4845</v>
+      </c>
+      <c r="E2114" t="s">
+        <v>4846</v>
+      </c>
+      <c r="F2114" t="s">
+        <v>4847</v>
+      </c>
       <c r="G2114">
         <v>0</v>
       </c>
@@ -70644,6 +71708,15 @@
       <c r="C2115">
         <v>6</v>
       </c>
+      <c r="D2115" t="s">
+        <v>4848</v>
+      </c>
+      <c r="E2115" t="s">
+        <v>4849</v>
+      </c>
+      <c r="F2115" t="s">
+        <v>4850</v>
+      </c>
       <c r="G2115">
         <v>0</v>
       </c>
@@ -70661,6 +71734,15 @@
       <c r="C2116">
         <v>6</v>
       </c>
+      <c r="D2116" t="s">
+        <v>4851</v>
+      </c>
+      <c r="E2116" t="s">
+        <v>4852</v>
+      </c>
+      <c r="F2116" t="s">
+        <v>4853</v>
+      </c>
       <c r="G2116">
         <v>0</v>
       </c>
@@ -70678,6 +71760,15 @@
       <c r="C2117">
         <v>6</v>
       </c>
+      <c r="D2117" t="s">
+        <v>4854</v>
+      </c>
+      <c r="E2117" t="s">
+        <v>4855</v>
+      </c>
+      <c r="F2117" t="s">
+        <v>4856</v>
+      </c>
       <c r="G2117">
         <v>0</v>
       </c>
@@ -70695,6 +71786,15 @@
       <c r="C2118">
         <v>6</v>
       </c>
+      <c r="D2118" t="s">
+        <v>4857</v>
+      </c>
+      <c r="E2118" t="s">
+        <v>4855</v>
+      </c>
+      <c r="F2118" t="s">
+        <v>4858</v>
+      </c>
       <c r="G2118">
         <v>0</v>
       </c>
@@ -70712,6 +71812,15 @@
       <c r="C2119">
         <v>6</v>
       </c>
+      <c r="D2119" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2119" t="s">
+        <v>4859</v>
+      </c>
+      <c r="F2119" t="s">
+        <v>4860</v>
+      </c>
       <c r="G2119">
         <v>0</v>
       </c>
@@ -70729,6 +71838,15 @@
       <c r="C2120">
         <v>6</v>
       </c>
+      <c r="D2120" t="s">
+        <v>4861</v>
+      </c>
+      <c r="E2120" t="s">
+        <v>4862</v>
+      </c>
+      <c r="F2120" t="s">
+        <v>4863</v>
+      </c>
       <c r="G2120">
         <v>0</v>
       </c>
@@ -70746,6 +71864,15 @@
       <c r="C2121">
         <v>6</v>
       </c>
+      <c r="D2121" t="s">
+        <v>4864</v>
+      </c>
+      <c r="E2121" t="s">
+        <v>4865</v>
+      </c>
+      <c r="F2121" t="s">
+        <v>4866</v>
+      </c>
       <c r="G2121">
         <v>0</v>
       </c>
@@ -70763,6 +71890,15 @@
       <c r="C2122">
         <v>6</v>
       </c>
+      <c r="D2122" t="s">
+        <v>4867</v>
+      </c>
+      <c r="E2122" t="s">
+        <v>4868</v>
+      </c>
+      <c r="F2122" t="s">
+        <v>4869</v>
+      </c>
       <c r="G2122">
         <v>0</v>
       </c>
@@ -70780,6 +71916,15 @@
       <c r="C2123">
         <v>6</v>
       </c>
+      <c r="D2123" t="s">
+        <v>4870</v>
+      </c>
+      <c r="E2123" t="s">
+        <v>4868</v>
+      </c>
+      <c r="F2123" t="s">
+        <v>4871</v>
+      </c>
       <c r="G2123">
         <v>0</v>
       </c>
@@ -70797,6 +71942,15 @@
       <c r="C2124">
         <v>6</v>
       </c>
+      <c r="D2124" t="s">
+        <v>969</v>
+      </c>
+      <c r="E2124" t="s">
+        <v>4872</v>
+      </c>
+      <c r="F2124" t="s">
+        <v>4873</v>
+      </c>
       <c r="G2124">
         <v>0</v>
       </c>
@@ -70814,6 +71968,15 @@
       <c r="C2125">
         <v>6</v>
       </c>
+      <c r="D2125" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E2125" t="s">
+        <v>4875</v>
+      </c>
+      <c r="F2125" t="s">
+        <v>4876</v>
+      </c>
       <c r="G2125">
         <v>0</v>
       </c>
@@ -70831,6 +71994,15 @@
       <c r="C2126">
         <v>6</v>
       </c>
+      <c r="D2126" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E2126" t="s">
+        <v>4878</v>
+      </c>
+      <c r="F2126" t="s">
+        <v>4879</v>
+      </c>
       <c r="G2126">
         <v>0</v>
       </c>
@@ -70848,6 +72020,15 @@
       <c r="C2127">
         <v>6</v>
       </c>
+      <c r="D2127" t="s">
+        <v>4880</v>
+      </c>
+      <c r="E2127" t="s">
+        <v>4881</v>
+      </c>
+      <c r="F2127" t="s">
+        <v>4882</v>
+      </c>
       <c r="G2127">
         <v>0</v>
       </c>
@@ -70865,6 +72046,15 @@
       <c r="C2128">
         <v>6</v>
       </c>
+      <c r="D2128" t="s">
+        <v>4880</v>
+      </c>
+      <c r="E2128" t="s">
+        <v>4883</v>
+      </c>
+      <c r="F2128" t="s">
+        <v>4884</v>
+      </c>
       <c r="G2128">
         <v>0</v>
       </c>
@@ -70882,6 +72072,15 @@
       <c r="C2129">
         <v>6</v>
       </c>
+      <c r="D2129" t="s">
+        <v>4885</v>
+      </c>
+      <c r="E2129" t="s">
+        <v>4886</v>
+      </c>
+      <c r="F2129" t="s">
+        <v>4887</v>
+      </c>
       <c r="G2129">
         <v>0</v>
       </c>
@@ -70899,6 +72098,15 @@
       <c r="C2130">
         <v>6</v>
       </c>
+      <c r="D2130" t="s">
+        <v>924</v>
+      </c>
+      <c r="E2130" t="s">
+        <v>4888</v>
+      </c>
+      <c r="F2130" t="s">
+        <v>4889</v>
+      </c>
       <c r="G2130">
         <v>0</v>
       </c>
@@ -70916,6 +72124,15 @@
       <c r="C2131">
         <v>6</v>
       </c>
+      <c r="D2131" t="s">
+        <v>4892</v>
+      </c>
+      <c r="E2131" t="s">
+        <v>4890</v>
+      </c>
+      <c r="F2131" t="s">
+        <v>4891</v>
+      </c>
       <c r="G2131">
         <v>0</v>
       </c>
@@ -70933,6 +72150,15 @@
       <c r="C2132">
         <v>6</v>
       </c>
+      <c r="D2132" t="s">
+        <v>4893</v>
+      </c>
+      <c r="E2132" t="s">
+        <v>4890</v>
+      </c>
+      <c r="F2132" t="s">
+        <v>4894</v>
+      </c>
       <c r="G2132">
         <v>0</v>
       </c>
@@ -70950,6 +72176,15 @@
       <c r="C2133">
         <v>6</v>
       </c>
+      <c r="D2133" t="s">
+        <v>467</v>
+      </c>
+      <c r="E2133" t="s">
+        <v>4895</v>
+      </c>
+      <c r="F2133" t="s">
+        <v>4896</v>
+      </c>
       <c r="G2133">
         <v>0</v>
       </c>
@@ -70967,6 +72202,15 @@
       <c r="C2134">
         <v>6</v>
       </c>
+      <c r="D2134" t="s">
+        <v>4897</v>
+      </c>
+      <c r="E2134" t="s">
+        <v>4898</v>
+      </c>
+      <c r="F2134" t="s">
+        <v>4899</v>
+      </c>
       <c r="G2134">
         <v>0</v>
       </c>
@@ -70984,6 +72228,15 @@
       <c r="C2135">
         <v>6</v>
       </c>
+      <c r="D2135" t="s">
+        <v>2053</v>
+      </c>
+      <c r="E2135" t="s">
+        <v>4900</v>
+      </c>
+      <c r="F2135" t="s">
+        <v>4899</v>
+      </c>
       <c r="G2135">
         <v>0</v>
       </c>
@@ -71001,6 +72254,15 @@
       <c r="C2136">
         <v>6</v>
       </c>
+      <c r="D2136" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E2136" t="s">
+        <v>4901</v>
+      </c>
+      <c r="F2136" t="s">
+        <v>4902</v>
+      </c>
       <c r="G2136">
         <v>0</v>
       </c>
@@ -71018,6 +72280,15 @@
       <c r="C2137">
         <v>6</v>
       </c>
+      <c r="D2137" t="s">
+        <v>4843</v>
+      </c>
+      <c r="E2137" t="s">
+        <v>4902</v>
+      </c>
+      <c r="F2137" t="s">
+        <v>4903</v>
+      </c>
       <c r="G2137">
         <v>0</v>
       </c>
@@ -71035,6 +72306,15 @@
       <c r="C2138">
         <v>6</v>
       </c>
+      <c r="D2138" t="s">
+        <v>4904</v>
+      </c>
+      <c r="E2138" t="s">
+        <v>4905</v>
+      </c>
+      <c r="F2138" t="s">
+        <v>4906</v>
+      </c>
       <c r="G2138">
         <v>0</v>
       </c>
@@ -71052,6 +72332,15 @@
       <c r="C2139">
         <v>6</v>
       </c>
+      <c r="D2139" t="s">
+        <v>2811</v>
+      </c>
+      <c r="E2139" t="s">
+        <v>4907</v>
+      </c>
+      <c r="F2139" t="s">
+        <v>4908</v>
+      </c>
       <c r="G2139">
         <v>0</v>
       </c>
@@ -71069,6 +72358,15 @@
       <c r="C2140">
         <v>6</v>
       </c>
+      <c r="D2140" t="s">
+        <v>4909</v>
+      </c>
+      <c r="E2140" t="s">
+        <v>4910</v>
+      </c>
+      <c r="F2140" t="s">
+        <v>4911</v>
+      </c>
       <c r="G2140">
         <v>0</v>
       </c>
@@ -71086,6 +72384,15 @@
       <c r="C2141">
         <v>6</v>
       </c>
+      <c r="D2141" t="s">
+        <v>4912</v>
+      </c>
+      <c r="E2141" t="s">
+        <v>4913</v>
+      </c>
+      <c r="F2141" t="s">
+        <v>4911</v>
+      </c>
       <c r="G2141">
         <v>0</v>
       </c>
@@ -71103,6 +72410,15 @@
       <c r="C2142">
         <v>6</v>
       </c>
+      <c r="D2142" t="s">
+        <v>3449</v>
+      </c>
+      <c r="E2142" t="s">
+        <v>4914</v>
+      </c>
+      <c r="F2142" t="s">
+        <v>4915</v>
+      </c>
       <c r="G2142">
         <v>0</v>
       </c>
@@ -71120,6 +72436,15 @@
       <c r="C2143">
         <v>6</v>
       </c>
+      <c r="D2143" t="s">
+        <v>4916</v>
+      </c>
+      <c r="E2143" t="s">
+        <v>4917</v>
+      </c>
+      <c r="F2143" t="s">
+        <v>4918</v>
+      </c>
       <c r="G2143">
         <v>0</v>
       </c>
@@ -71137,6 +72462,15 @@
       <c r="C2144">
         <v>6</v>
       </c>
+      <c r="D2144" t="s">
+        <v>4919</v>
+      </c>
+      <c r="E2144" t="s">
+        <v>4920</v>
+      </c>
+      <c r="F2144" t="s">
+        <v>4921</v>
+      </c>
       <c r="G2144">
         <v>0</v>
       </c>
@@ -71154,6 +72488,15 @@
       <c r="C2145">
         <v>6</v>
       </c>
+      <c r="D2145" t="s">
+        <v>4922</v>
+      </c>
+      <c r="E2145" t="s">
+        <v>4923</v>
+      </c>
+      <c r="F2145" t="s">
+        <v>4924</v>
+      </c>
       <c r="G2145">
         <v>0</v>
       </c>
@@ -71171,6 +72514,15 @@
       <c r="C2146">
         <v>6</v>
       </c>
+      <c r="D2146" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2146" t="s">
+        <v>4925</v>
+      </c>
+      <c r="F2146" t="s">
+        <v>4926</v>
+      </c>
       <c r="G2146">
         <v>0</v>
       </c>
@@ -71188,6 +72540,15 @@
       <c r="C2147">
         <v>6</v>
       </c>
+      <c r="D2147" t="s">
+        <v>4927</v>
+      </c>
+      <c r="E2147" t="s">
+        <v>4928</v>
+      </c>
+      <c r="F2147" t="s">
+        <v>4929</v>
+      </c>
       <c r="G2147">
         <v>0</v>
       </c>
@@ -71205,6 +72566,15 @@
       <c r="C2148">
         <v>6</v>
       </c>
+      <c r="D2148" t="s">
+        <v>4930</v>
+      </c>
+      <c r="E2148" t="s">
+        <v>4931</v>
+      </c>
+      <c r="F2148" t="s">
+        <v>4929</v>
+      </c>
       <c r="G2148">
         <v>0</v>
       </c>
@@ -71222,6 +72592,15 @@
       <c r="C2149">
         <v>6</v>
       </c>
+      <c r="D2149" t="s">
+        <v>4932</v>
+      </c>
+      <c r="E2149" t="s">
+        <v>4933</v>
+      </c>
+      <c r="F2149" t="s">
+        <v>4934</v>
+      </c>
       <c r="G2149">
         <v>0</v>
       </c>
@@ -71239,6 +72618,15 @@
       <c r="C2150">
         <v>6</v>
       </c>
+      <c r="D2150" t="s">
+        <v>4935</v>
+      </c>
+      <c r="E2150" t="s">
+        <v>4936</v>
+      </c>
+      <c r="F2150" t="s">
+        <v>4937</v>
+      </c>
       <c r="G2150">
         <v>0</v>
       </c>
@@ -71256,6 +72644,15 @@
       <c r="C2151">
         <v>6</v>
       </c>
+      <c r="D2151" t="s">
+        <v>4938</v>
+      </c>
+      <c r="E2151" t="s">
+        <v>4939</v>
+      </c>
+      <c r="F2151" t="s">
+        <v>4940</v>
+      </c>
       <c r="G2151">
         <v>0</v>
       </c>
@@ -71273,6 +72670,15 @@
       <c r="C2152">
         <v>6</v>
       </c>
+      <c r="D2152" t="s">
+        <v>855</v>
+      </c>
+      <c r="E2152" t="s">
+        <v>4941</v>
+      </c>
+      <c r="F2152" t="s">
+        <v>4942</v>
+      </c>
       <c r="G2152">
         <v>0</v>
       </c>
@@ -71290,6 +72696,15 @@
       <c r="C2153">
         <v>6</v>
       </c>
+      <c r="D2153" t="s">
+        <v>4943</v>
+      </c>
+      <c r="E2153" t="s">
+        <v>4944</v>
+      </c>
+      <c r="F2153" t="s">
+        <v>4945</v>
+      </c>
       <c r="G2153">
         <v>0</v>
       </c>
@@ -71307,6 +72722,15 @@
       <c r="C2154">
         <v>6</v>
       </c>
+      <c r="D2154" t="s">
+        <v>4946</v>
+      </c>
+      <c r="E2154" t="s">
+        <v>4944</v>
+      </c>
+      <c r="F2154" t="s">
+        <v>4947</v>
+      </c>
       <c r="G2154">
         <v>0</v>
       </c>
@@ -71324,6 +72748,15 @@
       <c r="C2155">
         <v>6</v>
       </c>
+      <c r="D2155" t="s">
+        <v>4948</v>
+      </c>
+      <c r="E2155" t="s">
+        <v>4949</v>
+      </c>
+      <c r="F2155" t="s">
+        <v>4950</v>
+      </c>
       <c r="G2155">
         <v>0</v>
       </c>
@@ -71341,6 +72774,15 @@
       <c r="C2156">
         <v>6</v>
       </c>
+      <c r="D2156" t="s">
+        <v>852</v>
+      </c>
+      <c r="E2156" t="s">
+        <v>4951</v>
+      </c>
+      <c r="F2156" t="s">
+        <v>4950</v>
+      </c>
       <c r="G2156">
         <v>0</v>
       </c>
@@ -71358,6 +72800,15 @@
       <c r="C2157">
         <v>6</v>
       </c>
+      <c r="D2157" t="s">
+        <v>4952</v>
+      </c>
+      <c r="E2157" t="s">
+        <v>4953</v>
+      </c>
+      <c r="F2157" t="s">
+        <v>4954</v>
+      </c>
       <c r="G2157">
         <v>0</v>
       </c>
@@ -71375,6 +72826,15 @@
       <c r="C2158">
         <v>6</v>
       </c>
+      <c r="D2158" t="s">
+        <v>4955</v>
+      </c>
+      <c r="E2158" t="s">
+        <v>4956</v>
+      </c>
+      <c r="F2158" t="s">
+        <v>4957</v>
+      </c>
       <c r="G2158">
         <v>0</v>
       </c>
@@ -71392,6 +72852,15 @@
       <c r="C2159">
         <v>6</v>
       </c>
+      <c r="D2159" t="s">
+        <v>4958</v>
+      </c>
+      <c r="E2159" t="s">
+        <v>4959</v>
+      </c>
+      <c r="F2159" t="s">
+        <v>4960</v>
+      </c>
       <c r="G2159">
         <v>0</v>
       </c>
@@ -71409,6 +72878,15 @@
       <c r="C2160">
         <v>6</v>
       </c>
+      <c r="D2160" t="s">
+        <v>223</v>
+      </c>
+      <c r="E2160" t="s">
+        <v>4961</v>
+      </c>
+      <c r="F2160" t="s">
+        <v>4962</v>
+      </c>
       <c r="G2160">
         <v>0</v>
       </c>
@@ -71426,6 +72904,15 @@
       <c r="C2161">
         <v>6</v>
       </c>
+      <c r="D2161" t="s">
+        <v>4963</v>
+      </c>
+      <c r="E2161" t="s">
+        <v>4964</v>
+      </c>
+      <c r="F2161" t="s">
+        <v>4965</v>
+      </c>
       <c r="G2161">
         <v>0</v>
       </c>
@@ -71443,6 +72930,15 @@
       <c r="C2162">
         <v>6</v>
       </c>
+      <c r="D2162" t="s">
+        <v>4966</v>
+      </c>
+      <c r="E2162" t="s">
+        <v>4967</v>
+      </c>
+      <c r="F2162" t="s">
+        <v>4968</v>
+      </c>
       <c r="G2162">
         <v>0</v>
       </c>
@@ -71460,6 +72956,15 @@
       <c r="C2163">
         <v>6</v>
       </c>
+      <c r="D2163" t="s">
+        <v>4969</v>
+      </c>
+      <c r="E2163" t="s">
+        <v>4970</v>
+      </c>
+      <c r="F2163" t="s">
+        <v>4971</v>
+      </c>
       <c r="G2163">
         <v>0</v>
       </c>
@@ -71477,6 +72982,15 @@
       <c r="C2164">
         <v>6</v>
       </c>
+      <c r="D2164" t="s">
+        <v>4311</v>
+      </c>
+      <c r="E2164" t="s">
+        <v>4970</v>
+      </c>
+      <c r="F2164" t="s">
+        <v>4972</v>
+      </c>
       <c r="G2164">
         <v>0</v>
       </c>
@@ -71494,6 +73008,15 @@
       <c r="C2165">
         <v>6</v>
       </c>
+      <c r="D2165" t="s">
+        <v>4975</v>
+      </c>
+      <c r="E2165" t="s">
+        <v>4973</v>
+      </c>
+      <c r="F2165" t="s">
+        <v>4974</v>
+      </c>
       <c r="G2165">
         <v>0</v>
       </c>
@@ -71509,7 +73032,16 @@
         <v>1</v>
       </c>
       <c r="C2166">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D2166" t="s">
+        <v>4976</v>
+      </c>
+      <c r="E2166" t="s">
+        <v>4977</v>
+      </c>
+      <c r="F2166" t="s">
+        <v>782</v>
       </c>
       <c r="G2166">
         <v>0</v>
@@ -71526,7 +73058,16 @@
         <v>1</v>
       </c>
       <c r="C2167">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D2167" t="s">
+        <v>4978</v>
+      </c>
+      <c r="E2167" t="s">
+        <v>4977</v>
+      </c>
+      <c r="F2167" t="s">
+        <v>4979</v>
       </c>
       <c r="G2167">
         <v>0</v>
@@ -71543,7 +73084,16 @@
         <v>1</v>
       </c>
       <c r="C2168">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D2168" t="s">
+        <v>4980</v>
+      </c>
+      <c r="E2168" t="s">
+        <v>4981</v>
+      </c>
+      <c r="F2168" t="s">
+        <v>2612</v>
       </c>
       <c r="G2168">
         <v>0</v>
@@ -71560,7 +73110,16 @@
         <v>1</v>
       </c>
       <c r="C2169">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D2169" t="s">
+        <v>4982</v>
+      </c>
+      <c r="E2169" t="s">
+        <v>4983</v>
+      </c>
+      <c r="F2169" t="s">
+        <v>4984</v>
       </c>
       <c r="G2169">
         <v>0</v>
@@ -71577,7 +73136,16 @@
         <v>1</v>
       </c>
       <c r="C2170">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D2170" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E2170" t="s">
+        <v>801</v>
+      </c>
+      <c r="F2170" t="s">
+        <v>4985</v>
       </c>
       <c r="G2170">
         <v>0</v>
@@ -71594,7 +73162,16 @@
         <v>1</v>
       </c>
       <c r="C2171">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D2171" t="s">
+        <v>4986</v>
+      </c>
+      <c r="E2171" t="s">
+        <v>4987</v>
+      </c>
+      <c r="F2171" t="s">
+        <v>4988</v>
       </c>
       <c r="G2171">
         <v>0</v>
@@ -71611,7 +73188,16 @@
         <v>1</v>
       </c>
       <c r="C2172">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D2172" t="s">
+        <v>832</v>
+      </c>
+      <c r="E2172" t="s">
+        <v>4989</v>
+      </c>
+      <c r="F2172" t="s">
+        <v>233</v>
       </c>
       <c r="G2172">
         <v>0</v>
@@ -71628,7 +73214,16 @@
         <v>1</v>
       </c>
       <c r="C2173">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D2173" t="s">
+        <v>4990</v>
+      </c>
+      <c r="E2173" t="s">
+        <v>4991</v>
+      </c>
+      <c r="F2173" t="s">
+        <v>4992</v>
       </c>
       <c r="G2173">
         <v>0</v>
@@ -71645,7 +73240,16 @@
         <v>1</v>
       </c>
       <c r="C2174">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D2174" t="s">
+        <v>4993</v>
+      </c>
+      <c r="E2174" t="s">
+        <v>4994</v>
+      </c>
+      <c r="F2174" t="s">
+        <v>4992</v>
       </c>
       <c r="G2174">
         <v>0</v>
@@ -71662,7 +73266,16 @@
         <v>1</v>
       </c>
       <c r="C2175">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D2175" t="s">
+        <v>2723</v>
+      </c>
+      <c r="E2175" t="s">
+        <v>4995</v>
+      </c>
+      <c r="F2175" t="s">
+        <v>4996</v>
       </c>
       <c r="G2175">
         <v>0</v>
@@ -71679,7 +73292,16 @@
         <v>1</v>
       </c>
       <c r="C2176">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D2176" t="s">
+        <v>4997</v>
+      </c>
+      <c r="E2176" t="s">
+        <v>4998</v>
+      </c>
+      <c r="F2176" t="s">
+        <v>4999</v>
       </c>
       <c r="G2176">
         <v>0</v>
@@ -71696,7 +73318,16 @@
         <v>1</v>
       </c>
       <c r="C2177">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D2177" t="s">
+        <v>438</v>
+      </c>
+      <c r="E2177" t="s">
+        <v>4998</v>
+      </c>
+      <c r="F2177" t="s">
+        <v>5000</v>
       </c>
       <c r="G2177">
         <v>0</v>
@@ -71713,7 +73344,16 @@
         <v>1</v>
       </c>
       <c r="C2178">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D2178" t="s">
+        <v>5001</v>
+      </c>
+      <c r="E2178" t="s">
+        <v>5002</v>
+      </c>
+      <c r="F2178" t="s">
+        <v>4999</v>
       </c>
       <c r="G2178">
         <v>0</v>
@@ -71730,7 +73370,16 @@
         <v>1</v>
       </c>
       <c r="C2179">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D2179" t="s">
+        <v>5003</v>
+      </c>
+      <c r="E2179" t="s">
+        <v>4999</v>
+      </c>
+      <c r="F2179" t="s">
+        <v>5004</v>
       </c>
       <c r="G2179">
         <v>0</v>
@@ -71747,7 +73396,16 @@
         <v>1</v>
       </c>
       <c r="C2180">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D2180" t="s">
+        <v>566</v>
+      </c>
+      <c r="E2180" t="s">
+        <v>5005</v>
+      </c>
+      <c r="F2180" t="s">
+        <v>5006</v>
       </c>
       <c r="G2180">
         <v>0</v>
@@ -71764,7 +73422,16 @@
         <v>1</v>
       </c>
       <c r="C2181">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D2181" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E2181" t="s">
+        <v>5007</v>
+      </c>
+      <c r="F2181" t="s">
+        <v>5008</v>
       </c>
       <c r="G2181">
         <v>0</v>
@@ -71781,7 +73448,16 @@
         <v>1</v>
       </c>
       <c r="C2182">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D2182" t="s">
+        <v>5009</v>
+      </c>
+      <c r="E2182" t="s">
+        <v>5010</v>
+      </c>
+      <c r="F2182" t="s">
+        <v>5011</v>
       </c>
       <c r="G2182">
         <v>0</v>
@@ -71798,7 +73474,16 @@
         <v>1</v>
       </c>
       <c r="C2183">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D2183" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2183" t="s">
+        <v>256</v>
+      </c>
+      <c r="F2183" t="s">
+        <v>5011</v>
       </c>
       <c r="G2183">
         <v>0</v>
@@ -71815,7 +73500,16 @@
         <v>1</v>
       </c>
       <c r="C2184">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D2184" t="s">
+        <v>5012</v>
+      </c>
+      <c r="E2184" t="s">
+        <v>5013</v>
+      </c>
+      <c r="F2184" t="s">
+        <v>5014</v>
       </c>
       <c r="G2184">
         <v>0</v>
@@ -71832,7 +73526,16 @@
         <v>1</v>
       </c>
       <c r="C2185">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D2185" t="s">
+        <v>5015</v>
+      </c>
+      <c r="E2185" t="s">
+        <v>260</v>
+      </c>
+      <c r="F2185" t="s">
+        <v>261</v>
       </c>
       <c r="G2185">
         <v>0</v>
@@ -71849,7 +73552,16 @@
         <v>1</v>
       </c>
       <c r="C2186">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D2186" t="s">
+        <v>5016</v>
+      </c>
+      <c r="E2186" t="s">
+        <v>260</v>
+      </c>
+      <c r="F2186" t="s">
+        <v>5017</v>
       </c>
       <c r="G2186">
         <v>0</v>
@@ -71866,7 +73578,16 @@
         <v>1</v>
       </c>
       <c r="C2187">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D2187" t="s">
+        <v>5018</v>
+      </c>
+      <c r="E2187" t="s">
+        <v>5019</v>
+      </c>
+      <c r="F2187" t="s">
+        <v>5020</v>
       </c>
       <c r="G2187">
         <v>0</v>
@@ -71883,7 +73604,16 @@
         <v>1</v>
       </c>
       <c r="C2188">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D2188" t="s">
+        <v>5021</v>
+      </c>
+      <c r="E2188" t="s">
+        <v>5022</v>
+      </c>
+      <c r="F2188" t="s">
+        <v>5023</v>
       </c>
       <c r="G2188">
         <v>0</v>
@@ -71900,7 +73630,16 @@
         <v>1</v>
       </c>
       <c r="C2189">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D2189" t="s">
+        <v>4993</v>
+      </c>
+      <c r="E2189" t="s">
+        <v>5024</v>
+      </c>
+      <c r="F2189" t="s">
+        <v>5025</v>
       </c>
       <c r="G2189">
         <v>0</v>
@@ -71917,7 +73656,16 @@
         <v>1</v>
       </c>
       <c r="C2190">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D2190" t="s">
+        <v>5028</v>
+      </c>
+      <c r="E2190" t="s">
+        <v>5027</v>
+      </c>
+      <c r="F2190" t="s">
+        <v>272</v>
       </c>
       <c r="G2190">
         <v>0</v>
@@ -71934,7 +73682,16 @@
         <v>1</v>
       </c>
       <c r="C2191">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D2191" t="s">
+        <v>5026</v>
+      </c>
+      <c r="E2191" t="s">
+        <v>5027</v>
+      </c>
+      <c r="F2191" t="s">
+        <v>5029</v>
       </c>
       <c r="G2191">
         <v>0</v>
@@ -71951,7 +73708,16 @@
         <v>1</v>
       </c>
       <c r="C2192">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D2192" t="s">
+        <v>5030</v>
+      </c>
+      <c r="E2192" t="s">
+        <v>5031</v>
+      </c>
+      <c r="F2192" t="s">
+        <v>272</v>
       </c>
       <c r="G2192">
         <v>0</v>
@@ -71968,7 +73734,16 @@
         <v>1</v>
       </c>
       <c r="C2193">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D2193" t="s">
+        <v>5032</v>
+      </c>
+      <c r="E2193" t="s">
+        <v>5031</v>
+      </c>
+      <c r="F2193" t="s">
+        <v>272</v>
       </c>
       <c r="G2193">
         <v>0</v>
@@ -71985,7 +73760,16 @@
         <v>1</v>
       </c>
       <c r="C2194">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D2194" t="s">
+        <v>5033</v>
+      </c>
+      <c r="E2194" t="s">
+        <v>5034</v>
+      </c>
+      <c r="F2194" t="s">
+        <v>5035</v>
       </c>
       <c r="G2194">
         <v>0</v>
@@ -72002,7 +73786,16 @@
         <v>1</v>
       </c>
       <c r="C2195">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D2195" t="s">
+        <v>5036</v>
+      </c>
+      <c r="E2195" t="s">
+        <v>5037</v>
+      </c>
+      <c r="F2195" t="s">
+        <v>5035</v>
       </c>
       <c r="G2195">
         <v>0</v>
@@ -72019,7 +73812,16 @@
         <v>1</v>
       </c>
       <c r="C2196">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D2196" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E2196" t="s">
+        <v>3344</v>
+      </c>
+      <c r="F2196" t="s">
+        <v>5038</v>
       </c>
       <c r="G2196">
         <v>0</v>
@@ -72036,7 +73838,16 @@
         <v>1</v>
       </c>
       <c r="C2197">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D2197" t="s">
+        <v>4609</v>
+      </c>
+      <c r="E2197" t="s">
+        <v>5039</v>
+      </c>
+      <c r="F2197" t="s">
+        <v>5040</v>
       </c>
       <c r="G2197">
         <v>0</v>
@@ -72053,7 +73864,16 @@
         <v>1</v>
       </c>
       <c r="C2198">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D2198" t="s">
+        <v>5041</v>
+      </c>
+      <c r="E2198" t="s">
+        <v>5042</v>
+      </c>
+      <c r="F2198" t="s">
+        <v>5043</v>
       </c>
       <c r="G2198">
         <v>0</v>
@@ -72070,7 +73890,16 @@
         <v>1</v>
       </c>
       <c r="C2199">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D2199" t="s">
+        <v>5044</v>
+      </c>
+      <c r="E2199" t="s">
+        <v>5045</v>
+      </c>
+      <c r="F2199" t="s">
+        <v>5046</v>
       </c>
       <c r="G2199">
         <v>0</v>
@@ -72087,7 +73916,16 @@
         <v>1</v>
       </c>
       <c r="C2200">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D2200" t="s">
+        <v>259</v>
+      </c>
+      <c r="E2200" t="s">
+        <v>5047</v>
+      </c>
+      <c r="F2200" t="s">
+        <v>5048</v>
       </c>
       <c r="G2200">
         <v>0</v>
@@ -72097,6 +73935,24 @@
       </c>
     </row>
     <row r="2201" spans="1:8">
+      <c r="A2201">
+        <v>2200</v>
+      </c>
+      <c r="B2201">
+        <v>1</v>
+      </c>
+      <c r="C2201">
+        <v>7</v>
+      </c>
+      <c r="D2201" t="s">
+        <v>5049</v>
+      </c>
+      <c r="E2201" t="s">
+        <v>5050</v>
+      </c>
+      <c r="F2201" t="s">
+        <v>5051</v>
+      </c>
       <c r="G2201">
         <v>0</v>
       </c>
@@ -72105,6 +73961,24 @@
       </c>
     </row>
     <row r="2202" spans="1:8">
+      <c r="A2202">
+        <v>2201</v>
+      </c>
+      <c r="B2202">
+        <v>1</v>
+      </c>
+      <c r="C2202">
+        <v>7</v>
+      </c>
+      <c r="D2202" t="s">
+        <v>3063</v>
+      </c>
+      <c r="E2202" t="s">
+        <v>5050</v>
+      </c>
+      <c r="F2202" t="s">
+        <v>5052</v>
+      </c>
       <c r="G2202">
         <v>0</v>
       </c>
@@ -72113,6 +73987,24 @@
       </c>
     </row>
     <row r="2203" spans="1:8">
+      <c r="A2203">
+        <v>2202</v>
+      </c>
+      <c r="B2203">
+        <v>1</v>
+      </c>
+      <c r="C2203">
+        <v>7</v>
+      </c>
+      <c r="D2203" t="s">
+        <v>5053</v>
+      </c>
+      <c r="E2203" t="s">
+        <v>5054</v>
+      </c>
+      <c r="F2203" t="s">
+        <v>5055</v>
+      </c>
       <c r="G2203">
         <v>0</v>
       </c>
@@ -72121,6 +74013,24 @@
       </c>
     </row>
     <row r="2204" spans="1:8">
+      <c r="A2204">
+        <v>2203</v>
+      </c>
+      <c r="B2204">
+        <v>1</v>
+      </c>
+      <c r="C2204">
+        <v>7</v>
+      </c>
+      <c r="D2204" t="s">
+        <v>741</v>
+      </c>
+      <c r="E2204" t="s">
+        <v>5056</v>
+      </c>
+      <c r="F2204" t="s">
+        <v>5055</v>
+      </c>
       <c r="G2204">
         <v>0</v>
       </c>
@@ -72129,6 +74039,24 @@
       </c>
     </row>
     <row r="2205" spans="1:8">
+      <c r="A2205">
+        <v>2204</v>
+      </c>
+      <c r="B2205">
+        <v>1</v>
+      </c>
+      <c r="C2205">
+        <v>7</v>
+      </c>
+      <c r="D2205" t="s">
+        <v>700</v>
+      </c>
+      <c r="E2205" t="s">
+        <v>1985</v>
+      </c>
+      <c r="F2205" t="s">
+        <v>5057</v>
+      </c>
       <c r="G2205">
         <v>0</v>
       </c>
@@ -72137,6 +74065,24 @@
       </c>
     </row>
     <row r="2206" spans="1:8">
+      <c r="A2206">
+        <v>2205</v>
+      </c>
+      <c r="B2206">
+        <v>1</v>
+      </c>
+      <c r="C2206">
+        <v>7</v>
+      </c>
+      <c r="D2206" t="s">
+        <v>271</v>
+      </c>
+      <c r="E2206" t="s">
+        <v>1985</v>
+      </c>
+      <c r="F2206" t="s">
+        <v>5057</v>
+      </c>
       <c r="G2206">
         <v>0</v>
       </c>
@@ -72145,6 +74091,24 @@
       </c>
     </row>
     <row r="2207" spans="1:8">
+      <c r="A2207">
+        <v>2206</v>
+      </c>
+      <c r="B2207">
+        <v>1</v>
+      </c>
+      <c r="C2207">
+        <v>7</v>
+      </c>
+      <c r="D2207" t="s">
+        <v>5058</v>
+      </c>
+      <c r="E2207" t="s">
+        <v>5059</v>
+      </c>
+      <c r="F2207" t="s">
+        <v>5060</v>
+      </c>
       <c r="G2207">
         <v>0</v>
       </c>
@@ -72153,6 +74117,24 @@
       </c>
     </row>
     <row r="2208" spans="1:8">
+      <c r="A2208">
+        <v>2207</v>
+      </c>
+      <c r="B2208">
+        <v>1</v>
+      </c>
+      <c r="C2208">
+        <v>7</v>
+      </c>
+      <c r="D2208" t="s">
+        <v>3653</v>
+      </c>
+      <c r="E2208" t="s">
+        <v>5059</v>
+      </c>
+      <c r="F2208" t="s">
+        <v>5061</v>
+      </c>
       <c r="G2208">
         <v>0</v>
       </c>
@@ -72160,7 +74142,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2209" spans="7:8">
+    <row r="2209" spans="1:8">
+      <c r="A2209">
+        <v>2208</v>
+      </c>
+      <c r="B2209">
+        <v>1</v>
+      </c>
+      <c r="C2209">
+        <v>7</v>
+      </c>
+      <c r="D2209" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E2209" t="s">
+        <v>5060</v>
+      </c>
+      <c r="F2209" t="s">
+        <v>5062</v>
+      </c>
       <c r="G2209">
         <v>0</v>
       </c>
@@ -72168,7 +74168,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2210" spans="7:8">
+    <row r="2210" spans="1:8">
+      <c r="A2210">
+        <v>2209</v>
+      </c>
+      <c r="B2210">
+        <v>1</v>
+      </c>
+      <c r="C2210">
+        <v>7</v>
+      </c>
+      <c r="D2210" t="s">
+        <v>5063</v>
+      </c>
+      <c r="E2210" t="s">
+        <v>827</v>
+      </c>
+      <c r="F2210" t="s">
+        <v>1992</v>
+      </c>
       <c r="G2210">
         <v>0</v>
       </c>
@@ -72176,7 +74194,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2211" spans="7:8">
+    <row r="2211" spans="1:8">
+      <c r="A2211">
+        <v>2210</v>
+      </c>
+      <c r="B2211">
+        <v>1</v>
+      </c>
+      <c r="C2211">
+        <v>7</v>
+      </c>
+      <c r="D2211" t="s">
+        <v>5064</v>
+      </c>
+      <c r="E2211" t="s">
+        <v>827</v>
+      </c>
+      <c r="F2211" t="s">
+        <v>5065</v>
+      </c>
       <c r="G2211">
         <v>0</v>
       </c>
@@ -72184,7 +74220,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2212" spans="7:8">
+    <row r="2212" spans="1:8">
+      <c r="A2212">
+        <v>2211</v>
+      </c>
+      <c r="B2212">
+        <v>1</v>
+      </c>
+      <c r="C2212">
+        <v>7</v>
+      </c>
+      <c r="D2212" t="s">
+        <v>5066</v>
+      </c>
+      <c r="E2212" t="s">
+        <v>1996</v>
+      </c>
+      <c r="F2212" t="s">
+        <v>5065</v>
+      </c>
       <c r="G2212">
         <v>0</v>
       </c>
@@ -72192,7 +74246,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2213" spans="7:8">
+    <row r="2213" spans="1:8">
+      <c r="A2213">
+        <v>2212</v>
+      </c>
+      <c r="B2213">
+        <v>1</v>
+      </c>
+      <c r="C2213">
+        <v>7</v>
+      </c>
+      <c r="D2213" t="s">
+        <v>5067</v>
+      </c>
+      <c r="E2213" t="s">
+        <v>5068</v>
+      </c>
+      <c r="F2213" t="s">
+        <v>5069</v>
+      </c>
       <c r="G2213">
         <v>0</v>
       </c>
@@ -72200,7 +74272,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2214" spans="7:8">
+    <row r="2214" spans="1:8">
+      <c r="A2214">
+        <v>2213</v>
+      </c>
+      <c r="B2214">
+        <v>1</v>
+      </c>
+      <c r="C2214">
+        <v>7</v>
+      </c>
+      <c r="D2214" t="s">
+        <v>4311</v>
+      </c>
+      <c r="E2214" t="s">
+        <v>5070</v>
+      </c>
+      <c r="F2214" t="s">
+        <v>5071</v>
+      </c>
       <c r="G2214">
         <v>0</v>
       </c>
@@ -72208,7 +74298,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2215" spans="7:8">
+    <row r="2215" spans="1:8">
+      <c r="A2215">
+        <v>2214</v>
+      </c>
+      <c r="B2215">
+        <v>1</v>
+      </c>
+      <c r="C2215">
+        <v>7</v>
+      </c>
+      <c r="D2215" t="s">
+        <v>5072</v>
+      </c>
+      <c r="E2215" t="s">
+        <v>5073</v>
+      </c>
+      <c r="F2215" t="s">
+        <v>5074</v>
+      </c>
       <c r="G2215">
         <v>0</v>
       </c>
@@ -72216,7 +74324,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2216" spans="7:8">
+    <row r="2216" spans="1:8">
+      <c r="A2216">
+        <v>2215</v>
+      </c>
+      <c r="B2216">
+        <v>1</v>
+      </c>
+      <c r="C2216">
+        <v>7</v>
+      </c>
+      <c r="D2216" t="s">
+        <v>5075</v>
+      </c>
+      <c r="E2216" t="s">
+        <v>5073</v>
+      </c>
+      <c r="F2216" t="s">
+        <v>5076</v>
+      </c>
       <c r="G2216">
         <v>0</v>
       </c>
@@ -72224,7 +74350,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2217" spans="7:8">
+    <row r="2217" spans="1:8">
+      <c r="A2217">
+        <v>2216</v>
+      </c>
+      <c r="B2217">
+        <v>1</v>
+      </c>
+      <c r="C2217">
+        <v>7</v>
+      </c>
+      <c r="D2217" t="s">
+        <v>5077</v>
+      </c>
+      <c r="E2217" t="s">
+        <v>5078</v>
+      </c>
+      <c r="F2217" t="s">
+        <v>5079</v>
+      </c>
       <c r="G2217">
         <v>0</v>
       </c>
@@ -72232,7 +74376,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2218" spans="7:8">
+    <row r="2218" spans="1:8">
+      <c r="A2218">
+        <v>2217</v>
+      </c>
+      <c r="B2218">
+        <v>1</v>
+      </c>
+      <c r="C2218">
+        <v>7</v>
+      </c>
+      <c r="D2218" t="s">
+        <v>5080</v>
+      </c>
+      <c r="E2218" t="s">
+        <v>5078</v>
+      </c>
+      <c r="F2218" t="s">
+        <v>5081</v>
+      </c>
       <c r="G2218">
         <v>0</v>
       </c>
@@ -72240,7 +74402,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2219" spans="7:8">
+    <row r="2219" spans="1:8">
+      <c r="A2219">
+        <v>2218</v>
+      </c>
+      <c r="B2219">
+        <v>1</v>
+      </c>
+      <c r="C2219">
+        <v>7</v>
+      </c>
+      <c r="D2219" t="s">
+        <v>3734</v>
+      </c>
+      <c r="E2219" t="s">
+        <v>5081</v>
+      </c>
+      <c r="F2219" t="s">
+        <v>5082</v>
+      </c>
       <c r="G2219">
         <v>0</v>
       </c>
@@ -72248,7 +74428,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2220" spans="7:8">
+    <row r="2220" spans="1:8">
+      <c r="A2220">
+        <v>2219</v>
+      </c>
+      <c r="B2220">
+        <v>1</v>
+      </c>
+      <c r="C2220">
+        <v>7</v>
+      </c>
+      <c r="D2220" t="s">
+        <v>5085</v>
+      </c>
+      <c r="E2220" t="s">
+        <v>5083</v>
+      </c>
+      <c r="F2220" t="s">
+        <v>5084</v>
+      </c>
       <c r="G2220">
         <v>0</v>
       </c>
@@ -72256,7 +74454,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2221" spans="7:8">
+    <row r="2221" spans="1:8">
+      <c r="A2221">
+        <v>2220</v>
+      </c>
+      <c r="B2221">
+        <v>1</v>
+      </c>
+      <c r="C2221">
+        <v>7</v>
+      </c>
+      <c r="D2221" t="s">
+        <v>5088</v>
+      </c>
+      <c r="E2221" t="s">
+        <v>5086</v>
+      </c>
+      <c r="F2221" t="s">
+        <v>5087</v>
+      </c>
       <c r="G2221">
         <v>0</v>
       </c>
@@ -72264,7 +74480,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2222" spans="7:8">
+    <row r="2222" spans="1:8">
+      <c r="A2222">
+        <v>2221</v>
+      </c>
+      <c r="B2222">
+        <v>1</v>
+      </c>
+      <c r="C2222">
+        <v>7</v>
+      </c>
+      <c r="D2222" t="s">
+        <v>474</v>
+      </c>
+      <c r="E2222" t="s">
+        <v>5086</v>
+      </c>
+      <c r="F2222" t="s">
+        <v>5089</v>
+      </c>
       <c r="G2222">
         <v>0</v>
       </c>
@@ -72272,7 +74506,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2223" spans="7:8">
+    <row r="2223" spans="1:8">
+      <c r="A2223">
+        <v>2222</v>
+      </c>
+      <c r="B2223">
+        <v>1</v>
+      </c>
+      <c r="C2223">
+        <v>7</v>
+      </c>
+      <c r="D2223" t="s">
+        <v>4993</v>
+      </c>
+      <c r="E2223" t="s">
+        <v>5090</v>
+      </c>
+      <c r="F2223" t="s">
+        <v>1438</v>
+      </c>
       <c r="G2223">
         <v>0</v>
       </c>
@@ -72280,7 +74532,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2224" spans="7:8">
+    <row r="2224" spans="1:8">
+      <c r="A2224">
+        <v>2223</v>
+      </c>
+      <c r="B2224">
+        <v>1</v>
+      </c>
+      <c r="C2224">
+        <v>7</v>
+      </c>
+      <c r="D2224" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2224" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F2224" t="s">
+        <v>5091</v>
+      </c>
       <c r="G2224">
         <v>0</v>
       </c>
@@ -72288,7 +74558,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2225" spans="7:8">
+    <row r="2225" spans="1:8">
+      <c r="A2225">
+        <v>2224</v>
+      </c>
+      <c r="B2225">
+        <v>1</v>
+      </c>
+      <c r="C2225">
+        <v>7</v>
+      </c>
+      <c r="D2225" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2225" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F2225" t="s">
+        <v>5091</v>
+      </c>
       <c r="G2225">
         <v>0</v>
       </c>
@@ -72296,7 +74584,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2226" spans="7:8">
+    <row r="2226" spans="1:8">
+      <c r="A2226">
+        <v>2225</v>
+      </c>
+      <c r="B2226">
+        <v>1</v>
+      </c>
+      <c r="C2226">
+        <v>7</v>
+      </c>
+      <c r="D2226" t="s">
+        <v>5093</v>
+      </c>
+      <c r="E2226" t="s">
+        <v>5092</v>
+      </c>
+      <c r="F2226" t="s">
+        <v>5094</v>
+      </c>
       <c r="G2226">
         <v>0</v>
       </c>
@@ -72304,7 +74610,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2227" spans="7:8">
+    <row r="2227" spans="1:8">
+      <c r="A2227">
+        <v>2226</v>
+      </c>
+      <c r="B2227">
+        <v>1</v>
+      </c>
+      <c r="C2227">
+        <v>7</v>
+      </c>
+      <c r="D2227" t="s">
+        <v>5095</v>
+      </c>
+      <c r="E2227" t="s">
+        <v>5096</v>
+      </c>
+      <c r="F2227" t="s">
+        <v>5097</v>
+      </c>
       <c r="G2227">
         <v>0</v>
       </c>
@@ -72312,7 +74636,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2228" spans="7:8">
+    <row r="2228" spans="1:8">
+      <c r="A2228">
+        <v>2227</v>
+      </c>
+      <c r="B2228">
+        <v>1</v>
+      </c>
+      <c r="C2228">
+        <v>7</v>
+      </c>
+      <c r="D2228" t="s">
+        <v>5098</v>
+      </c>
+      <c r="E2228" t="s">
+        <v>5099</v>
+      </c>
+      <c r="F2228" t="s">
+        <v>1447</v>
+      </c>
       <c r="G2228">
         <v>0</v>
       </c>
@@ -72320,7 +74662,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2229" spans="7:8">
+    <row r="2229" spans="1:8">
+      <c r="A2229">
+        <v>2228</v>
+      </c>
+      <c r="B2229">
+        <v>1</v>
+      </c>
+      <c r="C2229">
+        <v>7</v>
+      </c>
+      <c r="D2229" t="s">
+        <v>4368</v>
+      </c>
+      <c r="E2229" t="s">
+        <v>5100</v>
+      </c>
+      <c r="F2229" t="s">
+        <v>5101</v>
+      </c>
       <c r="G2229">
         <v>0</v>
       </c>
@@ -72328,7 +74688,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2230" spans="7:8">
+    <row r="2230" spans="1:8">
+      <c r="A2230">
+        <v>2229</v>
+      </c>
+      <c r="B2230">
+        <v>1</v>
+      </c>
+      <c r="C2230">
+        <v>7</v>
+      </c>
+      <c r="D2230" t="s">
+        <v>291</v>
+      </c>
+      <c r="E2230" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F2230" t="s">
+        <v>5102</v>
+      </c>
       <c r="G2230">
         <v>0</v>
       </c>
@@ -72336,7 +74714,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2231" spans="7:8">
+    <row r="2231" spans="1:8">
+      <c r="A2231">
+        <v>2230</v>
+      </c>
+      <c r="B2231">
+        <v>1</v>
+      </c>
+      <c r="C2231">
+        <v>7</v>
+      </c>
+      <c r="D2231" t="s">
+        <v>5103</v>
+      </c>
+      <c r="E2231" t="s">
+        <v>5105</v>
+      </c>
+      <c r="F2231" t="s">
+        <v>5104</v>
+      </c>
       <c r="G2231">
         <v>0</v>
       </c>
@@ -72344,7 +74740,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2232" spans="7:8">
+    <row r="2232" spans="1:8">
+      <c r="A2232">
+        <v>2231</v>
+      </c>
+      <c r="B2232">
+        <v>1</v>
+      </c>
+      <c r="C2232">
+        <v>7</v>
+      </c>
+      <c r="D2232" t="s">
+        <v>5106</v>
+      </c>
+      <c r="E2232" t="s">
+        <v>5104</v>
+      </c>
+      <c r="F2232" t="s">
+        <v>5107</v>
+      </c>
       <c r="G2232">
         <v>0</v>
       </c>
@@ -72352,7 +74766,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2233" spans="7:8">
+    <row r="2233" spans="1:8">
+      <c r="A2233">
+        <v>2232</v>
+      </c>
+      <c r="B2233">
+        <v>1</v>
+      </c>
+      <c r="C2233">
+        <v>7</v>
+      </c>
+      <c r="D2233" t="s">
+        <v>5108</v>
+      </c>
+      <c r="E2233" t="s">
+        <v>5109</v>
+      </c>
+      <c r="F2233" t="s">
+        <v>5110</v>
+      </c>
       <c r="G2233">
         <v>0</v>
       </c>
@@ -72360,7 +74792,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2234" spans="7:8">
+    <row r="2234" spans="1:8">
+      <c r="A2234">
+        <v>2233</v>
+      </c>
+      <c r="B2234">
+        <v>1</v>
+      </c>
+      <c r="C2234">
+        <v>7</v>
+      </c>
+      <c r="D2234" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E2234" t="s">
+        <v>5111</v>
+      </c>
+      <c r="F2234" t="s">
+        <v>5110</v>
+      </c>
       <c r="G2234">
         <v>0</v>
       </c>
@@ -72368,12 +74818,330 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2235" spans="7:8">
+    <row r="2235" spans="1:8">
+      <c r="A2235">
+        <v>2234</v>
+      </c>
+      <c r="B2235">
+        <v>1</v>
+      </c>
+      <c r="C2235">
+        <v>7</v>
+      </c>
+      <c r="D2235" t="s">
+        <v>4447</v>
+      </c>
+      <c r="E2235" t="s">
+        <v>5112</v>
+      </c>
+      <c r="F2235" t="s">
+        <v>5113</v>
+      </c>
       <c r="G2235">
         <v>0</v>
       </c>
       <c r="H2235">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:8">
+      <c r="A2236">
+        <v>2235</v>
+      </c>
+      <c r="B2236">
+        <v>1</v>
+      </c>
+      <c r="C2236">
+        <v>7</v>
+      </c>
+      <c r="D2236" t="s">
+        <v>5114</v>
+      </c>
+      <c r="E2236" t="s">
+        <v>5115</v>
+      </c>
+      <c r="F2236" t="s">
+        <v>5116</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:8">
+      <c r="A2237">
+        <v>2236</v>
+      </c>
+      <c r="B2237">
+        <v>1</v>
+      </c>
+      <c r="C2237">
+        <v>7</v>
+      </c>
+      <c r="D2237" t="s">
+        <v>5117</v>
+      </c>
+      <c r="E2237" t="s">
+        <v>5118</v>
+      </c>
+      <c r="F2237" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:8">
+      <c r="A2238">
+        <v>2237</v>
+      </c>
+      <c r="B2238">
+        <v>1</v>
+      </c>
+      <c r="C2238">
+        <v>7</v>
+      </c>
+      <c r="D2238" t="s">
+        <v>837</v>
+      </c>
+      <c r="E2238" t="s">
+        <v>5119</v>
+      </c>
+      <c r="F2238" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:8">
+      <c r="A2239">
+        <v>2238</v>
+      </c>
+      <c r="B2239">
+        <v>1</v>
+      </c>
+      <c r="C2239">
+        <v>7</v>
+      </c>
+      <c r="D2239" t="s">
+        <v>5121</v>
+      </c>
+      <c r="E2239" t="s">
+        <v>571</v>
+      </c>
+      <c r="F2239" t="s">
+        <v>5122</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:8">
+      <c r="A2240">
+        <v>2239</v>
+      </c>
+      <c r="B2240">
+        <v>1</v>
+      </c>
+      <c r="C2240">
+        <v>7</v>
+      </c>
+      <c r="D2240" t="s">
+        <v>5123</v>
+      </c>
+      <c r="E2240" t="s">
+        <v>5124</v>
+      </c>
+      <c r="F2240" t="s">
+        <v>5125</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:6">
+      <c r="A2241">
+        <v>2240</v>
+      </c>
+      <c r="B2241">
+        <v>1</v>
+      </c>
+      <c r="C2241">
+        <v>7</v>
+      </c>
+      <c r="D2241" t="s">
+        <v>5126</v>
+      </c>
+      <c r="E2241" t="s">
+        <v>5127</v>
+      </c>
+      <c r="F2241" t="s">
+        <v>5128</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:6">
+      <c r="A2242">
+        <v>2241</v>
+      </c>
+      <c r="B2242">
+        <v>1</v>
+      </c>
+      <c r="C2242">
+        <v>7</v>
+      </c>
+      <c r="D2242" t="s">
+        <v>5129</v>
+      </c>
+      <c r="E2242" t="s">
+        <v>5127</v>
+      </c>
+      <c r="F2242" t="s">
+        <v>5130</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:6">
+      <c r="A2243">
+        <v>2242</v>
+      </c>
+      <c r="B2243">
+        <v>1</v>
+      </c>
+      <c r="C2243">
+        <v>7</v>
+      </c>
+      <c r="D2243" t="s">
+        <v>5131</v>
+      </c>
+      <c r="E2243" t="s">
+        <v>5132</v>
+      </c>
+      <c r="F2243" t="s">
+        <v>5133</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:6">
+      <c r="A2244">
+        <v>2243</v>
+      </c>
+      <c r="B2244">
+        <v>1</v>
+      </c>
+      <c r="C2244">
+        <v>7</v>
+      </c>
+      <c r="D2244" t="s">
+        <v>5134</v>
+      </c>
+      <c r="E2244" t="s">
+        <v>5135</v>
+      </c>
+      <c r="F2244" t="s">
+        <v>5136</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:6">
+      <c r="A2245">
+        <v>2244</v>
+      </c>
+      <c r="B2245">
+        <v>1</v>
+      </c>
+      <c r="C2245">
+        <v>7</v>
+      </c>
+      <c r="D2245" t="s">
+        <v>1577</v>
+      </c>
+      <c r="E2245" t="s">
+        <v>5135</v>
+      </c>
+      <c r="F2245" t="s">
+        <v>5137</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:6">
+      <c r="A2246">
+        <v>2245</v>
+      </c>
+      <c r="B2246">
+        <v>1</v>
+      </c>
+      <c r="C2246">
+        <v>7</v>
+      </c>
+      <c r="D2246" t="s">
+        <v>5138</v>
+      </c>
+      <c r="E2246" t="s">
+        <v>5139</v>
+      </c>
+      <c r="F2246" t="s">
+        <v>5140</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:6">
+      <c r="A2247">
+        <v>2246</v>
+      </c>
+      <c r="B2247">
+        <v>1</v>
+      </c>
+      <c r="C2247">
+        <v>7</v>
+      </c>
+      <c r="D2247" t="s">
+        <v>5141</v>
+      </c>
+      <c r="E2247" t="s">
+        <v>5142</v>
+      </c>
+      <c r="F2247" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:6">
+      <c r="A2248">
+        <v>2247</v>
+      </c>
+      <c r="B2248">
+        <v>1</v>
+      </c>
+      <c r="C2248">
+        <v>7</v>
+      </c>
+      <c r="D2248" t="s">
+        <v>496</v>
+      </c>
+      <c r="E2248" t="s">
+        <v>5143</v>
+      </c>
+      <c r="F2248" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:6">
+      <c r="A2249">
+        <v>2248</v>
+      </c>
+      <c r="B2249">
+        <v>1</v>
+      </c>
+      <c r="C2249">
+        <v>7</v>
+      </c>
+      <c r="D2249" t="s">
+        <v>5144</v>
+      </c>
+      <c r="E2249" t="s">
+        <v>5145</v>
+      </c>
+      <c r="F2249" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:6">
+      <c r="A2250">
+        <v>2249</v>
+      </c>
+      <c r="B2250">
+        <v>1</v>
+      </c>
+      <c r="C2250">
+        <v>7</v>
+      </c>
+      <c r="D2250" t="s">
+        <v>5147</v>
+      </c>
+      <c r="E2250" t="s">
+        <v>5145</v>
+      </c>
+      <c r="F2250" t="s">
+        <v>5148</v>
       </c>
     </row>
   </sheetData>

--- a/spreadsheets/clips.xlsx
+++ b/spreadsheets/clips.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6755" uniqueCount="5149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7424" uniqueCount="5665">
   <si>
     <t>id</t>
   </si>
@@ -15469,6 +15469,1554 @@
   </si>
   <si>
     <t>00;05;21;49</t>
+  </si>
+  <si>
+    <t>nailing</t>
+  </si>
+  <si>
+    <t>00;05;22;34</t>
+  </si>
+  <si>
+    <t>00;05;23;02</t>
+  </si>
+  <si>
+    <t>work in progress</t>
+  </si>
+  <si>
+    <t>00;05;23;51</t>
+  </si>
+  <si>
+    <t>00;05;24;35</t>
+  </si>
+  <si>
+    <t>in progress</t>
+  </si>
+  <si>
+    <t>00;05;24;01</t>
+  </si>
+  <si>
+    <t>progress</t>
+  </si>
+  <si>
+    <t>00;05;24;05</t>
+  </si>
+  <si>
+    <t>that were</t>
+  </si>
+  <si>
+    <t>00;05;24;36</t>
+  </si>
+  <si>
+    <t>00;05;25;08</t>
+  </si>
+  <si>
+    <t>getting there</t>
+  </si>
+  <si>
+    <t>00;05;25;46</t>
+  </si>
+  <si>
+    <t>00;05;26;14</t>
+  </si>
+  <si>
+    <t>i think that</t>
+  </si>
+  <si>
+    <t>00;05;26;15</t>
+  </si>
+  <si>
+    <t>00;05;26;47</t>
+  </si>
+  <si>
+    <t>think that</t>
+  </si>
+  <si>
+    <t>00;05;26;19</t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>00;05;27;00</t>
+  </si>
+  <si>
+    <t>00;05;27;28</t>
+  </si>
+  <si>
+    <t>something that</t>
+  </si>
+  <si>
+    <t>00;05;27;41</t>
+  </si>
+  <si>
+    <t>00;05;28;18</t>
+  </si>
+  <si>
+    <t>grasp</t>
+  </si>
+  <si>
+    <t>00;05;30;30</t>
+  </si>
+  <si>
+    <t>00;05;30;57</t>
+  </si>
+  <si>
+    <t>find a way</t>
+  </si>
+  <si>
+    <t>00;05;33;20</t>
+  </si>
+  <si>
+    <t>00;05;32;56</t>
+  </si>
+  <si>
+    <t>going a lot</t>
+  </si>
+  <si>
+    <t>00;05;34;40</t>
+  </si>
+  <si>
+    <t>00;05;35;00</t>
+  </si>
+  <si>
+    <t>better things</t>
+  </si>
+  <si>
+    <t>00;05;35;03</t>
+  </si>
+  <si>
+    <t>00;05;35;37</t>
+  </si>
+  <si>
+    <t>couple a notes</t>
+  </si>
+  <si>
+    <t>00;05;59;31</t>
+  </si>
+  <si>
+    <t>00;06;00;14</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>00;05;59;50</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>00;06;00;09</t>
+  </si>
+  <si>
+    <t>nfl players</t>
+  </si>
+  <si>
+    <t>00;06;00;21</t>
+  </si>
+  <si>
+    <t>00;06;01;02</t>
+  </si>
+  <si>
+    <t>nfl</t>
+  </si>
+  <si>
+    <t>00;06;00;40</t>
+  </si>
+  <si>
+    <t>00;06;01;01</t>
+  </si>
+  <si>
+    <t>00;06;01;51</t>
+  </si>
+  <si>
+    <t>association</t>
+  </si>
+  <si>
+    <t>calling for</t>
+  </si>
+  <si>
+    <t>00;06;01;52</t>
+  </si>
+  <si>
+    <t>00;06;02;28</t>
+  </si>
+  <si>
+    <t>calling</t>
+  </si>
+  <si>
+    <t>00;06;02;17</t>
+  </si>
+  <si>
+    <t>00;06;02;18</t>
+  </si>
+  <si>
+    <t>00;06;02;33</t>
+  </si>
+  <si>
+    <t>immediate</t>
+  </si>
+  <si>
+    <t>00;06;02;34</t>
+  </si>
+  <si>
+    <t>00;06;03;15</t>
+  </si>
+  <si>
+    <t>reinstatement</t>
+  </si>
+  <si>
+    <t>00;06;03;16</t>
+  </si>
+  <si>
+    <t>00;06;04;01</t>
+  </si>
+  <si>
+    <t>reinstate</t>
+  </si>
+  <si>
+    <t>00;06;03;53</t>
+  </si>
+  <si>
+    <t>adrian</t>
+  </si>
+  <si>
+    <t>00;06;04;11</t>
+  </si>
+  <si>
+    <t>00;06;04;43</t>
+  </si>
+  <si>
+    <t>peterson</t>
+  </si>
+  <si>
+    <t>00;06;04;40</t>
+  </si>
+  <si>
+    <t>00;06;05;13</t>
+  </si>
+  <si>
+    <t>ohio</t>
+  </si>
+  <si>
+    <t>00;06;05;14</t>
+  </si>
+  <si>
+    <t>00;06;05;57</t>
+  </si>
+  <si>
+    <t>ohio state</t>
+  </si>
+  <si>
+    <t>00;06;06;11</t>
+  </si>
+  <si>
+    <t>00;06;06;12</t>
+  </si>
+  <si>
+    <t>00;06;06;56</t>
+  </si>
+  <si>
+    <t>is eighth</t>
+  </si>
+  <si>
+    <t>college football</t>
+  </si>
+  <si>
+    <t>00;06;07;35</t>
+  </si>
+  <si>
+    <t>00;06;08;24</t>
+  </si>
+  <si>
+    <t>college</t>
+  </si>
+  <si>
+    <t>00;06;07;57</t>
+  </si>
+  <si>
+    <t>football</t>
+  </si>
+  <si>
+    <t>00;06;07;58</t>
+  </si>
+  <si>
+    <t>00;06;08;22</t>
+  </si>
+  <si>
+    <t>00;06;08;23</t>
+  </si>
+  <si>
+    <t>00;06;08;47</t>
+  </si>
+  <si>
+    <t>michigan</t>
+  </si>
+  <si>
+    <t>00;06;08;48</t>
+  </si>
+  <si>
+    <t>00;06;09;23</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>00;06;09;24</t>
+  </si>
+  <si>
+    <t>00;06;09;50</t>
+  </si>
+  <si>
+    <t>00;06;10;22</t>
+  </si>
+  <si>
+    <t>00;06;10;59</t>
+  </si>
+  <si>
+    <t>after their</t>
+  </si>
+  <si>
+    <t>00;06;11;00</t>
+  </si>
+  <si>
+    <t>00;06;11;40</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>00;06;11;41</t>
+  </si>
+  <si>
+    <t>00;06;12;06</t>
+  </si>
+  <si>
+    <t>buckeyes</t>
+  </si>
+  <si>
+    <t>00;06;12;18</t>
+  </si>
+  <si>
+    <t>00;06;12;55</t>
+  </si>
+  <si>
+    <t>finaly</t>
+  </si>
+  <si>
+    <t>00;06;12;56</t>
+  </si>
+  <si>
+    <t>00;06;13;18</t>
+  </si>
+  <si>
+    <t>finely</t>
+  </si>
+  <si>
+    <t>00;06;55;11</t>
+  </si>
+  <si>
+    <t>00;06;55;36</t>
+  </si>
+  <si>
+    <t>last minute</t>
+  </si>
+  <si>
+    <t>00;06;57;13</t>
+  </si>
+  <si>
+    <t>00;06;57;48</t>
+  </si>
+  <si>
+    <t>minute</t>
+  </si>
+  <si>
+    <t>00;06;57;51</t>
+  </si>
+  <si>
+    <t>scored</t>
+  </si>
+  <si>
+    <t>00;06;59;55</t>
+  </si>
+  <si>
+    <t>two minutes</t>
+  </si>
+  <si>
+    <t>00;07;00;24</t>
+  </si>
+  <si>
+    <t>00;07;00;56</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>00;07;00;38</t>
+  </si>
+  <si>
+    <t>00;07;00;58</t>
+  </si>
+  <si>
+    <t>and as</t>
+  </si>
+  <si>
+    <t>00;07;02;31</t>
+  </si>
+  <si>
+    <t>00;07;02;52</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>00;07;02;41</t>
+  </si>
+  <si>
+    <t>00;07;02;53</t>
+  </si>
+  <si>
+    <t>as i</t>
+  </si>
+  <si>
+    <t>00;07;03;03</t>
+  </si>
+  <si>
+    <t>00;07;03;04</t>
+  </si>
+  <si>
+    <t>00;07;03;22</t>
+  </si>
+  <si>
+    <t>by a total</t>
+  </si>
+  <si>
+    <t>00;07;05;35</t>
+  </si>
+  <si>
+    <t>00;07;06;03</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>00;07;05;45</t>
+  </si>
+  <si>
+    <t>00;07;06;24</t>
+  </si>
+  <si>
+    <t>00;07;06;44</t>
+  </si>
+  <si>
+    <t>00;07;06;38</t>
+  </si>
+  <si>
+    <t>00;07;06;39</t>
+  </si>
+  <si>
+    <t>00;07;06;59</t>
+  </si>
+  <si>
+    <t>so now</t>
+  </si>
+  <si>
+    <t>00;07;06;49</t>
+  </si>
+  <si>
+    <t>00;07;06;48</t>
+  </si>
+  <si>
+    <t>00;07;07;01</t>
+  </si>
+  <si>
+    <t>00;07;07;02</t>
+  </si>
+  <si>
+    <t>00;07;07;23</t>
+  </si>
+  <si>
+    <t>nfc</t>
+  </si>
+  <si>
+    <t>00;07;08;21</t>
+  </si>
+  <si>
+    <t>00;07;08;45</t>
+  </si>
+  <si>
+    <t>north by</t>
+  </si>
+  <si>
+    <t>00;07;08;46</t>
+  </si>
+  <si>
+    <t>00;07;09;21</t>
+  </si>
+  <si>
+    <t>00;07;09;08</t>
+  </si>
+  <si>
+    <t>by virtue</t>
+  </si>
+  <si>
+    <t>00;07;09;41</t>
+  </si>
+  <si>
+    <t>00;07;10;14</t>
+  </si>
+  <si>
+    <t>virtue</t>
+  </si>
+  <si>
+    <t>00;07;09;50</t>
+  </si>
+  <si>
+    <t>virtue of</t>
+  </si>
+  <si>
+    <t>00;07;10;24</t>
+  </si>
+  <si>
+    <t>what the</t>
+  </si>
+  <si>
+    <t>00;07;10;46</t>
+  </si>
+  <si>
+    <t>00;07;11;58</t>
+  </si>
+  <si>
+    <t>00;07;12;28</t>
+  </si>
+  <si>
+    <t>remain</t>
+  </si>
+  <si>
+    <t>00;07;13;11</t>
+  </si>
+  <si>
+    <t>00;07;13;46</t>
+  </si>
+  <si>
+    <t>00;07;13;47</t>
+  </si>
+  <si>
+    <t>00;07;14;04</t>
+  </si>
+  <si>
+    <t>00;07;14;48</t>
+  </si>
+  <si>
+    <t>00;07;15;20</t>
+  </si>
+  <si>
+    <t>unless</t>
+  </si>
+  <si>
+    <t>00;07;15;25</t>
+  </si>
+  <si>
+    <t>00;07;15;57</t>
+  </si>
+  <si>
+    <t>00;07;15;58</t>
+  </si>
+  <si>
+    <t>00;07;16;18</t>
+  </si>
+  <si>
+    <t>one of the</t>
+  </si>
+  <si>
+    <t>00;07;16;16</t>
+  </si>
+  <si>
+    <t>00;07;16;39</t>
+  </si>
+  <si>
+    <t>the greatest</t>
+  </si>
+  <si>
+    <t>00;07;17;03</t>
+  </si>
+  <si>
+    <t>greatest</t>
+  </si>
+  <si>
+    <t>00;07;16;36</t>
+  </si>
+  <si>
+    <t>00;07;17;34</t>
+  </si>
+  <si>
+    <t>come back</t>
+  </si>
+  <si>
+    <t>00;07;17;54</t>
+  </si>
+  <si>
+    <t>00;07;18;34</t>
+  </si>
+  <si>
+    <t>backs</t>
+  </si>
+  <si>
+    <t>00;07;18;21</t>
+  </si>
+  <si>
+    <t>00;07;18;43</t>
+  </si>
+  <si>
+    <t>comebacks</t>
+  </si>
+  <si>
+    <t>comeback</t>
+  </si>
+  <si>
+    <t>00;07;18;42</t>
+  </si>
+  <si>
+    <t>00;07;19;06</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>00;07;21;01</t>
+  </si>
+  <si>
+    <t>00;07;21;02</t>
+  </si>
+  <si>
+    <t>00;07;21;25</t>
+  </si>
+  <si>
+    <t>its gonna happen</t>
+  </si>
+  <si>
+    <t>00;07;21;53</t>
+  </si>
+  <si>
+    <t>00;07;22;16</t>
+  </si>
+  <si>
+    <t>00;07;21;26</t>
+  </si>
+  <si>
+    <t>on a limb</t>
+  </si>
+  <si>
+    <t>00;07;25;22</t>
+  </si>
+  <si>
+    <t>00;07;25;49</t>
+  </si>
+  <si>
+    <t>limb</t>
+  </si>
+  <si>
+    <t>00;07;25;30</t>
+  </si>
+  <si>
+    <t>00;07;30;50</t>
+  </si>
+  <si>
+    <t>00;07;31;13</t>
+  </si>
+  <si>
+    <t>division</t>
+  </si>
+  <si>
+    <t>00;07;32;40</t>
+  </si>
+  <si>
+    <t>00;07;33;12</t>
+  </si>
+  <si>
+    <t>defense</t>
+  </si>
+  <si>
+    <t>00;07;33;47</t>
+  </si>
+  <si>
+    <t>00;07;34;13</t>
+  </si>
+  <si>
+    <t>fence</t>
+  </si>
+  <si>
+    <t>00;07;33;58</t>
+  </si>
+  <si>
+    <t>00;07;34;15</t>
+  </si>
+  <si>
+    <t>too good</t>
+  </si>
+  <si>
+    <t>00;07;34;20</t>
+  </si>
+  <si>
+    <t>00;07;34;43</t>
+  </si>
+  <si>
+    <t>00;07;35;30</t>
+  </si>
+  <si>
+    <t>00;07;35;58</t>
+  </si>
+  <si>
+    <t>prediction</t>
+  </si>
+  <si>
+    <t>00;07;36;24</t>
+  </si>
+  <si>
+    <t>00;07;36;57</t>
+  </si>
+  <si>
+    <t>thanks much</t>
+  </si>
+  <si>
+    <t>00;07;36;58</t>
+  </si>
+  <si>
+    <t>00;07;37;48</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>00;07;37;51</t>
+  </si>
+  <si>
+    <t>speaking</t>
+  </si>
+  <si>
+    <t>00;07;38;11</t>
+  </si>
+  <si>
+    <t>predictions</t>
+  </si>
+  <si>
+    <t>00;07;38;13</t>
+  </si>
+  <si>
+    <t>00;07;38;56</t>
+  </si>
+  <si>
+    <t>00;07;38;54</t>
+  </si>
+  <si>
+    <t>00;07;39;12</t>
+  </si>
+  <si>
+    <t>the only thing</t>
+  </si>
+  <si>
+    <t>00;07;39;08</t>
+  </si>
+  <si>
+    <t>00;07;39;45</t>
+  </si>
+  <si>
+    <t>only thing</t>
+  </si>
+  <si>
+    <t>00;07;39;33</t>
+  </si>
+  <si>
+    <t>uglier</t>
+  </si>
+  <si>
+    <t>00;07;39;55</t>
+  </si>
+  <si>
+    <t>00;07;40;18</t>
+  </si>
+  <si>
+    <t>football game</t>
+  </si>
+  <si>
+    <t>00;07;40;30</t>
+  </si>
+  <si>
+    <t>00;07;41;05</t>
+  </si>
+  <si>
+    <t>possibly</t>
+  </si>
+  <si>
+    <t>00;07;41;59</t>
+  </si>
+  <si>
+    <t>00;07;42;28</t>
+  </si>
+  <si>
+    <t>the weather</t>
+  </si>
+  <si>
+    <t>00;07;42;51</t>
+  </si>
+  <si>
+    <t>00;08;18;43</t>
+  </si>
+  <si>
+    <t>00;08;19;04</t>
+  </si>
+  <si>
+    <t>so just</t>
+  </si>
+  <si>
+    <t>00;08;19;05</t>
+  </si>
+  <si>
+    <t>00;08;19;30</t>
+  </si>
+  <si>
+    <t>00;08;19;11</t>
+  </si>
+  <si>
+    <t>00;08;19;32</t>
+  </si>
+  <si>
+    <t>get ready</t>
+  </si>
+  <si>
+    <t>00;08;19;31</t>
+  </si>
+  <si>
+    <t>00;08;19;55</t>
+  </si>
+  <si>
+    <t>00;08;19;38</t>
+  </si>
+  <si>
+    <t>get ready for</t>
+  </si>
+  <si>
+    <t>00;08;20;02</t>
+  </si>
+  <si>
+    <t>extended</t>
+  </si>
+  <si>
+    <t>00;08;20;06</t>
+  </si>
+  <si>
+    <t>00;08;20;54</t>
+  </si>
+  <si>
+    <t>a very</t>
+  </si>
+  <si>
+    <t>00:08:20:21</t>
+  </si>
+  <si>
+    <t>00:08:21:04</t>
+  </si>
+  <si>
+    <t>00:08:20:35</t>
+  </si>
+  <si>
+    <t>00:08:21:05</t>
+  </si>
+  <si>
+    <t>00:08:21:40</t>
+  </si>
+  <si>
+    <t>00:08:21:41</t>
+  </si>
+  <si>
+    <t>00:08:22:12</t>
+  </si>
+  <si>
+    <t>thats it</t>
+  </si>
+  <si>
+    <t>00:08:24:57</t>
+  </si>
+  <si>
+    <t>00:08:25:25</t>
+  </si>
+  <si>
+    <t>that's it</t>
+  </si>
+  <si>
+    <t>fox 32 news</t>
+  </si>
+  <si>
+    <t>00:08:25:32</t>
+  </si>
+  <si>
+    <t>00:08:26:34</t>
+  </si>
+  <si>
+    <t>00:08:25:50</t>
+  </si>
+  <si>
+    <t>thirty two</t>
+  </si>
+  <si>
+    <t>00:08:26:18</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>00:08:26:15</t>
+  </si>
+  <si>
+    <t>00:08:26:35</t>
+  </si>
+  <si>
+    <t>00:08:26:49</t>
+  </si>
+  <si>
+    <t>thank you</t>
+  </si>
+  <si>
+    <t>00:08:27:07</t>
+  </si>
+  <si>
+    <t>so much</t>
+  </si>
+  <si>
+    <t>00:08:27:08</t>
+  </si>
+  <si>
+    <t>00:08:27:47</t>
+  </si>
+  <si>
+    <t>so much for</t>
+  </si>
+  <si>
+    <t>00:08:27:55</t>
+  </si>
+  <si>
+    <t>joining us</t>
+  </si>
+  <si>
+    <t>00:08:27:53</t>
+  </si>
+  <si>
+    <t>00:08:28:27</t>
+  </si>
+  <si>
+    <t>00:08:28:28</t>
+  </si>
+  <si>
+    <t>00:08:28:47</t>
+  </si>
+  <si>
+    <t>00:08:29:08</t>
+  </si>
+  <si>
+    <t>00:08:29:29</t>
+  </si>
+  <si>
+    <t>returns</t>
+  </si>
+  <si>
+    <t>00:08:29:30</t>
+  </si>
+  <si>
+    <t>00:08:30:03</t>
+  </si>
+  <si>
+    <t>tomorrow morning</t>
+  </si>
+  <si>
+    <t>00:08:30:01</t>
+  </si>
+  <si>
+    <t>00:08:30:46</t>
+  </si>
+  <si>
+    <t>four thirty</t>
+  </si>
+  <si>
+    <t>00:08:31:00</t>
+  </si>
+  <si>
+    <t>00:08:31:49</t>
+  </si>
+  <si>
+    <t>00:08:31:14</t>
+  </si>
+  <si>
+    <t>00:08:30:53</t>
+  </si>
+  <si>
+    <t>00:08:31:16</t>
+  </si>
+  <si>
+    <t>a.m.</t>
+  </si>
+  <si>
+    <t>00:08:31:47</t>
+  </si>
+  <si>
+    <t>00:08:32:37</t>
+  </si>
+  <si>
+    <t>starts</t>
+  </si>
+  <si>
+    <t>00:08:33:31</t>
+  </si>
+  <si>
+    <t>00:08:33:58</t>
+  </si>
+  <si>
+    <t>final words</t>
+  </si>
+  <si>
+    <t>00:08:32:43</t>
+  </si>
+  <si>
+    <t>00:08:33:35</t>
+  </si>
+  <si>
+    <t>final word</t>
+  </si>
+  <si>
+    <t>00:08:32:42</t>
+  </si>
+  <si>
+    <t>00:08:33:06</t>
+  </si>
+  <si>
+    <t>00:08:33:07</t>
+  </si>
+  <si>
+    <t>00:08:33:34</t>
+  </si>
+  <si>
+    <t>right after</t>
+  </si>
+  <si>
+    <t>00:08:33:59</t>
+  </si>
+  <si>
+    <t>00:08:34:26</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>00:11:40:20</t>
+  </si>
+  <si>
+    <t>00:11:40:55</t>
+  </si>
+  <si>
+    <t>reboot</t>
+  </si>
+  <si>
+    <t>00:11:41:36</t>
+  </si>
+  <si>
+    <t>00:11:42:05</t>
+  </si>
+  <si>
+    <t>can't wait</t>
+  </si>
+  <si>
+    <t>00:11:43:34</t>
+  </si>
+  <si>
+    <t>00:11:44:05</t>
+  </si>
+  <si>
+    <t>can't wait to</t>
+  </si>
+  <si>
+    <t>00:11:44:14</t>
+  </si>
+  <si>
+    <t>wait to</t>
+  </si>
+  <si>
+    <t>00:11:43:46</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>00:11:44:03</t>
+  </si>
+  <si>
+    <t>and soon</t>
+  </si>
+  <si>
+    <t>00:11:45:30</t>
+  </si>
+  <si>
+    <t>00:11:46:02</t>
+  </si>
+  <si>
+    <t>00:11:45:42</t>
+  </si>
+  <si>
+    <t>we will</t>
+  </si>
+  <si>
+    <t>00:11:46:24</t>
+  </si>
+  <si>
+    <t>kick off</t>
+  </si>
+  <si>
+    <t>00:11:46:25</t>
+  </si>
+  <si>
+    <t>00:11:46:47</t>
+  </si>
+  <si>
+    <t>kickoff</t>
+  </si>
+  <si>
+    <t>00:11:46:20</t>
+  </si>
+  <si>
+    <t>00:11:46:36</t>
+  </si>
+  <si>
+    <t>00:11:47:08</t>
+  </si>
+  <si>
+    <t>all those</t>
+  </si>
+  <si>
+    <t>00:11:49:25</t>
+  </si>
+  <si>
+    <t>00:11:49:55</t>
+  </si>
+  <si>
+    <t>00:11:49:23</t>
+  </si>
+  <si>
+    <t>00:11:49:40</t>
+  </si>
+  <si>
+    <t>topic</t>
+  </si>
+  <si>
+    <t>00:11:49:47</t>
+  </si>
+  <si>
+    <t>00:11:50:24</t>
+  </si>
+  <si>
+    <t>topics</t>
+  </si>
+  <si>
+    <t>00:11:50:29</t>
+  </si>
+  <si>
+    <t>and more</t>
+  </si>
+  <si>
+    <t>00:11:50:30</t>
+  </si>
+  <si>
+    <t>00:11:51:23</t>
+  </si>
+  <si>
+    <t>00:11:51:03</t>
+  </si>
+  <si>
+    <t>00:11:51:02</t>
+  </si>
+  <si>
+    <t>00:11:51:24</t>
+  </si>
+  <si>
+    <t>00:11:51:25</t>
+  </si>
+  <si>
+    <t>00:11:51:47</t>
+  </si>
+  <si>
+    <t>here on the</t>
+  </si>
+  <si>
+    <t>00:11:51:45</t>
+  </si>
+  <si>
+    <t>00:11:52:09</t>
+  </si>
+  <si>
+    <t>here on</t>
+  </si>
+  <si>
+    <t>00:11:52:03</t>
+  </si>
+  <si>
+    <t>heron</t>
+  </si>
+  <si>
+    <t>00:11:52:12</t>
+  </si>
+  <si>
+    <t>00:11:52:51</t>
+  </si>
+  <si>
+    <t>00:11:52:30</t>
+  </si>
+  <si>
+    <t>under the weather</t>
+  </si>
+  <si>
+    <t>00:11:56:24</t>
+  </si>
+  <si>
+    <t>00:11:57:14</t>
+  </si>
+  <si>
+    <t>chicago tribune</t>
+  </si>
+  <si>
+    <t>00:11:57:27</t>
+  </si>
+  <si>
+    <t>00:11:58:21</t>
+  </si>
+  <si>
+    <t>teddy</t>
+  </si>
+  <si>
+    <t>00:11:58:22</t>
+  </si>
+  <si>
+    <t>00:11:58:37</t>
+  </si>
+  <si>
+    <t>00:11:59:11</t>
+  </si>
+  <si>
+    <t>00:11:59:31</t>
+  </si>
+  <si>
+    <t>see ya</t>
+  </si>
+  <si>
+    <t>00:11:59:42</t>
+  </si>
+  <si>
+    <t>00:12:00:08</t>
+  </si>
+  <si>
+    <t>00:12:00:27</t>
+  </si>
+  <si>
+    <t>00:12:00:46</t>
+  </si>
+  <si>
+    <t>be here</t>
+  </si>
+  <si>
+    <t>00:12:00:45</t>
+  </si>
+  <si>
+    <t>00:12:01:03</t>
+  </si>
+  <si>
+    <t>00:12:01:00</t>
+  </si>
+  <si>
+    <t>00:12:01:40</t>
+  </si>
+  <si>
+    <t>great to have</t>
+  </si>
+  <si>
+    <t>00:12:01:41</t>
+  </si>
+  <si>
+    <t>00:12:02:15</t>
+  </si>
+  <si>
+    <t>to have</t>
+  </si>
+  <si>
+    <t>00:12:01:51</t>
+  </si>
+  <si>
+    <t>00:12:05:25</t>
+  </si>
+  <si>
+    <t>00:12:05:48</t>
+  </si>
+  <si>
+    <t>00:12:05:49</t>
+  </si>
+  <si>
+    <t>00:12:07:01</t>
+  </si>
+  <si>
+    <t>as embarrassing</t>
+  </si>
+  <si>
+    <t>embarrassing</t>
+  </si>
+  <si>
+    <t>00:12:06:09</t>
+  </si>
+  <si>
+    <t>i've seen</t>
+  </si>
+  <si>
+    <t>00:12:07:44</t>
+  </si>
+  <si>
+    <t>00:12:08:10</t>
+  </si>
+  <si>
+    <t>00:12:07:48</t>
+  </si>
+  <si>
+    <t>franchise</t>
+  </si>
+  <si>
+    <t>00:12:08:30</t>
+  </si>
+  <si>
+    <t>00:12:09:10</t>
+  </si>
+  <si>
+    <t>in a long</t>
+  </si>
+  <si>
+    <t>00:12:09:11</t>
+  </si>
+  <si>
+    <t>00:12:10:12</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>00:12:09:39</t>
+  </si>
+  <si>
+    <t>00:12:10:13</t>
+  </si>
+  <si>
+    <t>long time</t>
+  </si>
+  <si>
+    <t>00:12:10:49</t>
+  </si>
+  <si>
+    <t>00:12:10:50</t>
+  </si>
+  <si>
+    <t>00:12:11:03</t>
+  </si>
+  <si>
+    <t>mark</t>
+  </si>
+  <si>
+    <t>00:12:11:16</t>
+  </si>
+  <si>
+    <t>00:12:11:33</t>
+  </si>
+  <si>
+    <t>needs to</t>
+  </si>
+  <si>
+    <t>00:12:11:51</t>
+  </si>
+  <si>
+    <t>00:12:12:15</t>
+  </si>
+  <si>
+    <t>00:12:12:16</t>
+  </si>
+  <si>
+    <t>00:12:12:47</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>00:12:13:51</t>
+  </si>
+  <si>
+    <t>00:12:14:09</t>
+  </si>
+  <si>
+    <t>book a trip</t>
+  </si>
+  <si>
+    <t>00:12:14:10</t>
+  </si>
+  <si>
+    <t>00:12:14:38</t>
+  </si>
+  <si>
+    <t>trip to</t>
+  </si>
+  <si>
+    <t>00:12:14:24</t>
+  </si>
+  <si>
+    <t>00:12:14:45</t>
+  </si>
+  <si>
+    <t>trip</t>
+  </si>
+  <si>
+    <t>00:12:14:22</t>
+  </si>
+  <si>
+    <t>00:12:14:37</t>
+  </si>
+  <si>
+    <t>to hawaii</t>
+  </si>
+  <si>
+    <t>00:12:15:16</t>
+  </si>
+  <si>
+    <t>hawaii</t>
+  </si>
+  <si>
+    <t>00:12:15:22</t>
+  </si>
+  <si>
+    <t>00:12:15:53</t>
+  </si>
+  <si>
+    <t>i don't</t>
+  </si>
+  <si>
+    <t>00:12:15:45</t>
+  </si>
+  <si>
+    <t>00:12:15:40</t>
+  </si>
+  <si>
+    <t>00:12:15:56</t>
+  </si>
+  <si>
+    <t>this man</t>
+  </si>
+  <si>
+    <t>00:12:15:51</t>
+  </si>
+  <si>
+    <t>00:12:16:17</t>
+  </si>
+  <si>
+    <t>00:12:16:05</t>
+  </si>
+  <si>
+    <t>come home</t>
+  </si>
+  <si>
+    <t>00:12:16:33</t>
+  </si>
+  <si>
+    <t>00:12:16:51</t>
+  </si>
+  <si>
+    <t>00:12:16:32</t>
+  </si>
+  <si>
+    <t>00:12:16:44</t>
+  </si>
+  <si>
+    <t>00:12:16:52</t>
+  </si>
+  <si>
+    <t>00:12:17:13</t>
+  </si>
+  <si>
+    <t>touch</t>
+  </si>
+  <si>
+    <t>00:12:19:31</t>
+  </si>
+  <si>
+    <t>00:12:19:47</t>
+  </si>
+  <si>
+    <t>touch on</t>
+  </si>
+  <si>
+    <t>00:12:19:56</t>
+  </si>
+  <si>
+    <t>we will talk</t>
+  </si>
+  <si>
+    <t>00:12:20:39</t>
+  </si>
+  <si>
+    <t>00:12:21:02</t>
+  </si>
+  <si>
+    <t>00:12:20:47</t>
+  </si>
+  <si>
+    <t>plenty</t>
+  </si>
+  <si>
+    <t>00:12:21:00</t>
+  </si>
+  <si>
+    <t>00:12:21:19</t>
+  </si>
+  <si>
+    <t>beat</t>
+  </si>
+  <si>
+    <t>00:12:23:30</t>
+  </si>
+  <si>
+    <t>00:12:23:55</t>
+  </si>
+  <si>
+    <t>00:12:25:06</t>
+  </si>
+  <si>
+    <t>00:12:25:28</t>
+  </si>
+  <si>
+    <t>last night</t>
+  </si>
+  <si>
+    <t>00:12:25:29</t>
+  </si>
+  <si>
+    <t>00:12:25:53</t>
+  </si>
+  <si>
+    <t>last nights</t>
+  </si>
+  <si>
+    <t>00:12:25:56</t>
+  </si>
+  <si>
+    <t>spartans</t>
+  </si>
+  <si>
+    <t>00:12:27:56</t>
+  </si>
+  <si>
+    <t>00:12:28:22</t>
+  </si>
+  <si>
+    <t>thirteen</t>
+  </si>
+  <si>
+    <t>00:12:28:43</t>
   </si>
 </sst>
 </file>
@@ -15528,8 +17076,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="427">
+  <cellStyleXfs count="453">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -15962,7 +17536,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="427">
+  <cellStyles count="453">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -16176,6 +17750,19 @@
     <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -16389,6 +17976,19 @@
     <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="451" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -16718,10 +18318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2250"/>
+  <dimension ref="A1:H2500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2233" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E2250" sqref="E2250"/>
+    <sheetView tabSelected="1" topLeftCell="A2462" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F2473" sqref="F2473"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -74863,6 +76463,12 @@
       <c r="F2236" t="s">
         <v>5116</v>
       </c>
+      <c r="G2236">
+        <v>0</v>
+      </c>
+      <c r="H2236">
+        <v>1</v>
+      </c>
     </row>
     <row r="2237" spans="1:8">
       <c r="A2237">
@@ -74883,6 +76489,12 @@
       <c r="F2237" t="s">
         <v>570</v>
       </c>
+      <c r="G2237">
+        <v>0</v>
+      </c>
+      <c r="H2237">
+        <v>1</v>
+      </c>
     </row>
     <row r="2238" spans="1:8">
       <c r="A2238">
@@ -74903,6 +76515,12 @@
       <c r="F2238" t="s">
         <v>5120</v>
       </c>
+      <c r="G2238">
+        <v>0</v>
+      </c>
+      <c r="H2238">
+        <v>1</v>
+      </c>
     </row>
     <row r="2239" spans="1:8">
       <c r="A2239">
@@ -74923,6 +76541,12 @@
       <c r="F2239" t="s">
         <v>5122</v>
       </c>
+      <c r="G2239">
+        <v>0</v>
+      </c>
+      <c r="H2239">
+        <v>1</v>
+      </c>
     </row>
     <row r="2240" spans="1:8">
       <c r="A2240">
@@ -74943,8 +76567,14 @@
       <c r="F2240" t="s">
         <v>5125</v>
       </c>
-    </row>
-    <row r="2241" spans="1:6">
+      <c r="G2240">
+        <v>0</v>
+      </c>
+      <c r="H2240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:8">
       <c r="A2241">
         <v>2240</v>
       </c>
@@ -74963,8 +76593,14 @@
       <c r="F2241" t="s">
         <v>5128</v>
       </c>
-    </row>
-    <row r="2242" spans="1:6">
+      <c r="G2241">
+        <v>0</v>
+      </c>
+      <c r="H2241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:8">
       <c r="A2242">
         <v>2241</v>
       </c>
@@ -74983,8 +76619,14 @@
       <c r="F2242" t="s">
         <v>5130</v>
       </c>
-    </row>
-    <row r="2243" spans="1:6">
+      <c r="G2242">
+        <v>0</v>
+      </c>
+      <c r="H2242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:8">
       <c r="A2243">
         <v>2242</v>
       </c>
@@ -75003,8 +76645,14 @@
       <c r="F2243" t="s">
         <v>5133</v>
       </c>
-    </row>
-    <row r="2244" spans="1:6">
+      <c r="G2243">
+        <v>0</v>
+      </c>
+      <c r="H2243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:8">
       <c r="A2244">
         <v>2243</v>
       </c>
@@ -75023,8 +76671,14 @@
       <c r="F2244" t="s">
         <v>5136</v>
       </c>
-    </row>
-    <row r="2245" spans="1:6">
+      <c r="G2244">
+        <v>0</v>
+      </c>
+      <c r="H2244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:8">
       <c r="A2245">
         <v>2244</v>
       </c>
@@ -75043,8 +76697,14 @@
       <c r="F2245" t="s">
         <v>5137</v>
       </c>
-    </row>
-    <row r="2246" spans="1:6">
+      <c r="G2245">
+        <v>0</v>
+      </c>
+      <c r="H2245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:8">
       <c r="A2246">
         <v>2245</v>
       </c>
@@ -75063,8 +76723,14 @@
       <c r="F2246" t="s">
         <v>5140</v>
       </c>
-    </row>
-    <row r="2247" spans="1:6">
+      <c r="G2246">
+        <v>0</v>
+      </c>
+      <c r="H2246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:8">
       <c r="A2247">
         <v>2246</v>
       </c>
@@ -75083,8 +76749,14 @@
       <c r="F2247" t="s">
         <v>1642</v>
       </c>
-    </row>
-    <row r="2248" spans="1:6">
+      <c r="G2247">
+        <v>0</v>
+      </c>
+      <c r="H2247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:8">
       <c r="A2248">
         <v>2247</v>
       </c>
@@ -75103,8 +76775,14 @@
       <c r="F2248" t="s">
         <v>1642</v>
       </c>
-    </row>
-    <row r="2249" spans="1:6">
+      <c r="G2248">
+        <v>0</v>
+      </c>
+      <c r="H2248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:8">
       <c r="A2249">
         <v>2248</v>
       </c>
@@ -75123,8 +76801,14 @@
       <c r="F2249" t="s">
         <v>5146</v>
       </c>
-    </row>
-    <row r="2250" spans="1:6">
+      <c r="G2249">
+        <v>0</v>
+      </c>
+      <c r="H2249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:8">
       <c r="A2250">
         <v>2249</v>
       </c>
@@ -75142,6 +76826,6269 @@
       </c>
       <c r="F2250" t="s">
         <v>5148</v>
+      </c>
+      <c r="G2250">
+        <v>0</v>
+      </c>
+      <c r="H2250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:8">
+      <c r="A2251">
+        <v>2250</v>
+      </c>
+      <c r="B2251">
+        <v>1</v>
+      </c>
+      <c r="C2251">
+        <v>7</v>
+      </c>
+      <c r="D2251" t="s">
+        <v>5149</v>
+      </c>
+      <c r="E2251" t="s">
+        <v>5150</v>
+      </c>
+      <c r="F2251" t="s">
+        <v>5151</v>
+      </c>
+      <c r="G2251">
+        <v>0</v>
+      </c>
+      <c r="H2251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:8">
+      <c r="A2252">
+        <v>2251</v>
+      </c>
+      <c r="B2252">
+        <v>1</v>
+      </c>
+      <c r="C2252">
+        <v>7</v>
+      </c>
+      <c r="D2252" t="s">
+        <v>5152</v>
+      </c>
+      <c r="E2252" t="s">
+        <v>5153</v>
+      </c>
+      <c r="F2252" t="s">
+        <v>5154</v>
+      </c>
+      <c r="G2252">
+        <v>0</v>
+      </c>
+      <c r="H2252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:8">
+      <c r="A2253">
+        <v>2252</v>
+      </c>
+      <c r="B2253">
+        <v>1</v>
+      </c>
+      <c r="C2253">
+        <v>7</v>
+      </c>
+      <c r="D2253" t="s">
+        <v>5155</v>
+      </c>
+      <c r="E2253" t="s">
+        <v>5156</v>
+      </c>
+      <c r="F2253" t="s">
+        <v>5154</v>
+      </c>
+      <c r="G2253">
+        <v>0</v>
+      </c>
+      <c r="H2253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:8">
+      <c r="A2254">
+        <v>2253</v>
+      </c>
+      <c r="B2254">
+        <v>1</v>
+      </c>
+      <c r="C2254">
+        <v>7</v>
+      </c>
+      <c r="D2254" t="s">
+        <v>5157</v>
+      </c>
+      <c r="E2254" t="s">
+        <v>5158</v>
+      </c>
+      <c r="F2254" t="s">
+        <v>5154</v>
+      </c>
+      <c r="G2254">
+        <v>0</v>
+      </c>
+      <c r="H2254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:8">
+      <c r="A2255">
+        <v>2254</v>
+      </c>
+      <c r="B2255">
+        <v>1</v>
+      </c>
+      <c r="C2255">
+        <v>7</v>
+      </c>
+      <c r="D2255" t="s">
+        <v>5159</v>
+      </c>
+      <c r="E2255" t="s">
+        <v>5160</v>
+      </c>
+      <c r="F2255" t="s">
+        <v>5161</v>
+      </c>
+      <c r="G2255">
+        <v>0</v>
+      </c>
+      <c r="H2255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:8">
+      <c r="A2256">
+        <v>2255</v>
+      </c>
+      <c r="B2256">
+        <v>1</v>
+      </c>
+      <c r="C2256">
+        <v>7</v>
+      </c>
+      <c r="D2256" t="s">
+        <v>5162</v>
+      </c>
+      <c r="E2256" t="s">
+        <v>5163</v>
+      </c>
+      <c r="F2256" t="s">
+        <v>5164</v>
+      </c>
+      <c r="G2256">
+        <v>0</v>
+      </c>
+      <c r="H2256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:8">
+      <c r="A2257">
+        <v>2256</v>
+      </c>
+      <c r="B2257">
+        <v>1</v>
+      </c>
+      <c r="C2257">
+        <v>7</v>
+      </c>
+      <c r="D2257" t="s">
+        <v>5165</v>
+      </c>
+      <c r="E2257" t="s">
+        <v>5166</v>
+      </c>
+      <c r="F2257" t="s">
+        <v>5167</v>
+      </c>
+      <c r="G2257">
+        <v>0</v>
+      </c>
+      <c r="H2257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:8">
+      <c r="A2258">
+        <v>2257</v>
+      </c>
+      <c r="B2258">
+        <v>1</v>
+      </c>
+      <c r="C2258">
+        <v>7</v>
+      </c>
+      <c r="D2258" t="s">
+        <v>5168</v>
+      </c>
+      <c r="E2258" t="s">
+        <v>5169</v>
+      </c>
+      <c r="F2258" t="s">
+        <v>5167</v>
+      </c>
+      <c r="G2258">
+        <v>0</v>
+      </c>
+      <c r="H2258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:8">
+      <c r="A2259">
+        <v>2258</v>
+      </c>
+      <c r="B2259">
+        <v>1</v>
+      </c>
+      <c r="C2259">
+        <v>7</v>
+      </c>
+      <c r="D2259" t="s">
+        <v>5170</v>
+      </c>
+      <c r="E2259" t="s">
+        <v>5171</v>
+      </c>
+      <c r="F2259" t="s">
+        <v>5172</v>
+      </c>
+      <c r="G2259">
+        <v>0</v>
+      </c>
+      <c r="H2259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:8">
+      <c r="A2260">
+        <v>2259</v>
+      </c>
+      <c r="B2260">
+        <v>1</v>
+      </c>
+      <c r="C2260">
+        <v>7</v>
+      </c>
+      <c r="D2260" t="s">
+        <v>5173</v>
+      </c>
+      <c r="E2260" t="s">
+        <v>5174</v>
+      </c>
+      <c r="F2260" t="s">
+        <v>5175</v>
+      </c>
+      <c r="G2260">
+        <v>0</v>
+      </c>
+      <c r="H2260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:8">
+      <c r="A2261">
+        <v>2260</v>
+      </c>
+      <c r="B2261">
+        <v>1</v>
+      </c>
+      <c r="C2261">
+        <v>7</v>
+      </c>
+      <c r="D2261" t="s">
+        <v>5176</v>
+      </c>
+      <c r="E2261" t="s">
+        <v>5177</v>
+      </c>
+      <c r="F2261" t="s">
+        <v>5178</v>
+      </c>
+      <c r="G2261">
+        <v>0</v>
+      </c>
+      <c r="H2261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:8">
+      <c r="A2262">
+        <v>2261</v>
+      </c>
+      <c r="B2262">
+        <v>1</v>
+      </c>
+      <c r="C2262">
+        <v>7</v>
+      </c>
+      <c r="D2262" t="s">
+        <v>5179</v>
+      </c>
+      <c r="E2262" t="s">
+        <v>5181</v>
+      </c>
+      <c r="F2262" t="s">
+        <v>5180</v>
+      </c>
+      <c r="G2262">
+        <v>0</v>
+      </c>
+      <c r="H2262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:8">
+      <c r="A2263">
+        <v>2262</v>
+      </c>
+      <c r="B2263">
+        <v>1</v>
+      </c>
+      <c r="C2263">
+        <v>7</v>
+      </c>
+      <c r="D2263" t="s">
+        <v>5182</v>
+      </c>
+      <c r="E2263" t="s">
+        <v>5183</v>
+      </c>
+      <c r="F2263" t="s">
+        <v>5184</v>
+      </c>
+      <c r="G2263">
+        <v>0</v>
+      </c>
+      <c r="H2263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:8">
+      <c r="A2264">
+        <v>2263</v>
+      </c>
+      <c r="B2264">
+        <v>1</v>
+      </c>
+      <c r="C2264">
+        <v>7</v>
+      </c>
+      <c r="D2264" t="s">
+        <v>5185</v>
+      </c>
+      <c r="E2264" t="s">
+        <v>5186</v>
+      </c>
+      <c r="F2264" t="s">
+        <v>5187</v>
+      </c>
+      <c r="G2264">
+        <v>0</v>
+      </c>
+      <c r="H2264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:8">
+      <c r="A2265">
+        <v>2264</v>
+      </c>
+      <c r="B2265">
+        <v>1</v>
+      </c>
+      <c r="C2265">
+        <v>7</v>
+      </c>
+      <c r="D2265" t="s">
+        <v>5188</v>
+      </c>
+      <c r="E2265" t="s">
+        <v>5189</v>
+      </c>
+      <c r="F2265" t="s">
+        <v>5190</v>
+      </c>
+      <c r="G2265">
+        <v>0</v>
+      </c>
+      <c r="H2265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:8">
+      <c r="A2266">
+        <v>2265</v>
+      </c>
+      <c r="B2266">
+        <v>1</v>
+      </c>
+      <c r="C2266">
+        <v>7</v>
+      </c>
+      <c r="D2266" t="s">
+        <v>5191</v>
+      </c>
+      <c r="E2266" t="s">
+        <v>5192</v>
+      </c>
+      <c r="F2266" t="s">
+        <v>5190</v>
+      </c>
+      <c r="G2266">
+        <v>0</v>
+      </c>
+      <c r="H2266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:8">
+      <c r="A2267">
+        <v>2266</v>
+      </c>
+      <c r="B2267">
+        <v>1</v>
+      </c>
+      <c r="C2267">
+        <v>7</v>
+      </c>
+      <c r="D2267" t="s">
+        <v>5193</v>
+      </c>
+      <c r="E2267" t="s">
+        <v>5192</v>
+      </c>
+      <c r="F2267" t="s">
+        <v>5194</v>
+      </c>
+      <c r="G2267">
+        <v>0</v>
+      </c>
+      <c r="H2267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:8">
+      <c r="A2268">
+        <v>2267</v>
+      </c>
+      <c r="B2268">
+        <v>1</v>
+      </c>
+      <c r="C2268">
+        <v>7</v>
+      </c>
+      <c r="D2268" t="s">
+        <v>5195</v>
+      </c>
+      <c r="E2268" t="s">
+        <v>5196</v>
+      </c>
+      <c r="F2268" t="s">
+        <v>5197</v>
+      </c>
+      <c r="G2268">
+        <v>0</v>
+      </c>
+      <c r="H2268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:8">
+      <c r="A2269">
+        <v>2268</v>
+      </c>
+      <c r="B2269">
+        <v>1</v>
+      </c>
+      <c r="C2269">
+        <v>7</v>
+      </c>
+      <c r="D2269" t="s">
+        <v>5198</v>
+      </c>
+      <c r="E2269" t="s">
+        <v>5196</v>
+      </c>
+      <c r="F2269" t="s">
+        <v>5199</v>
+      </c>
+      <c r="G2269">
+        <v>0</v>
+      </c>
+      <c r="H2269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:8">
+      <c r="A2270">
+        <v>2269</v>
+      </c>
+      <c r="B2270">
+        <v>1</v>
+      </c>
+      <c r="C2270">
+        <v>7</v>
+      </c>
+      <c r="D2270" t="s">
+        <v>5202</v>
+      </c>
+      <c r="E2270" t="s">
+        <v>5200</v>
+      </c>
+      <c r="F2270" t="s">
+        <v>5201</v>
+      </c>
+      <c r="G2270">
+        <v>0</v>
+      </c>
+      <c r="H2270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:8">
+      <c r="A2271">
+        <v>2270</v>
+      </c>
+      <c r="B2271">
+        <v>1</v>
+      </c>
+      <c r="C2271">
+        <v>7</v>
+      </c>
+      <c r="D2271" t="s">
+        <v>5203</v>
+      </c>
+      <c r="E2271" t="s">
+        <v>5204</v>
+      </c>
+      <c r="F2271" t="s">
+        <v>5205</v>
+      </c>
+      <c r="G2271">
+        <v>0</v>
+      </c>
+      <c r="H2271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:8">
+      <c r="A2272">
+        <v>2271</v>
+      </c>
+      <c r="B2272">
+        <v>1</v>
+      </c>
+      <c r="C2272">
+        <v>7</v>
+      </c>
+      <c r="D2272" t="s">
+        <v>5206</v>
+      </c>
+      <c r="E2272" t="s">
+        <v>5204</v>
+      </c>
+      <c r="F2272" t="s">
+        <v>5207</v>
+      </c>
+      <c r="G2272">
+        <v>0</v>
+      </c>
+      <c r="H2272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:8">
+      <c r="A2273">
+        <v>2272</v>
+      </c>
+      <c r="B2273">
+        <v>1</v>
+      </c>
+      <c r="C2273">
+        <v>7</v>
+      </c>
+      <c r="D2273" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E2273" t="s">
+        <v>5208</v>
+      </c>
+      <c r="F2273" t="s">
+        <v>5209</v>
+      </c>
+      <c r="G2273">
+        <v>0</v>
+      </c>
+      <c r="H2273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:8">
+      <c r="A2274">
+        <v>2273</v>
+      </c>
+      <c r="B2274">
+        <v>1</v>
+      </c>
+      <c r="C2274">
+        <v>7</v>
+      </c>
+      <c r="D2274" t="s">
+        <v>5210</v>
+      </c>
+      <c r="E2274" t="s">
+        <v>5211</v>
+      </c>
+      <c r="F2274" t="s">
+        <v>5212</v>
+      </c>
+      <c r="G2274">
+        <v>0</v>
+      </c>
+      <c r="H2274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:8">
+      <c r="A2275">
+        <v>2274</v>
+      </c>
+      <c r="B2275">
+        <v>1</v>
+      </c>
+      <c r="C2275">
+        <v>7</v>
+      </c>
+      <c r="D2275" t="s">
+        <v>5213</v>
+      </c>
+      <c r="E2275" t="s">
+        <v>5214</v>
+      </c>
+      <c r="F2275" t="s">
+        <v>5215</v>
+      </c>
+      <c r="G2275">
+        <v>0</v>
+      </c>
+      <c r="H2275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:8">
+      <c r="A2276">
+        <v>2275</v>
+      </c>
+      <c r="B2276">
+        <v>1</v>
+      </c>
+      <c r="C2276">
+        <v>7</v>
+      </c>
+      <c r="D2276" t="s">
+        <v>5216</v>
+      </c>
+      <c r="E2276" t="s">
+        <v>5214</v>
+      </c>
+      <c r="F2276" t="s">
+        <v>5217</v>
+      </c>
+      <c r="G2276">
+        <v>0</v>
+      </c>
+      <c r="H2276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:8">
+      <c r="A2277">
+        <v>2276</v>
+      </c>
+      <c r="B2277">
+        <v>1</v>
+      </c>
+      <c r="C2277">
+        <v>7</v>
+      </c>
+      <c r="D2277" t="s">
+        <v>5218</v>
+      </c>
+      <c r="E2277" t="s">
+        <v>5219</v>
+      </c>
+      <c r="F2277" t="s">
+        <v>5220</v>
+      </c>
+      <c r="G2277">
+        <v>0</v>
+      </c>
+      <c r="H2277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:8">
+      <c r="A2278">
+        <v>2277</v>
+      </c>
+      <c r="B2278">
+        <v>1</v>
+      </c>
+      <c r="C2278">
+        <v>7</v>
+      </c>
+      <c r="D2278" t="s">
+        <v>5221</v>
+      </c>
+      <c r="E2278" t="s">
+        <v>5222</v>
+      </c>
+      <c r="F2278" t="s">
+        <v>5223</v>
+      </c>
+      <c r="G2278">
+        <v>0</v>
+      </c>
+      <c r="H2278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:8">
+      <c r="A2279">
+        <v>2278</v>
+      </c>
+      <c r="B2279">
+        <v>1</v>
+      </c>
+      <c r="C2279">
+        <v>7</v>
+      </c>
+      <c r="D2279" t="s">
+        <v>5224</v>
+      </c>
+      <c r="E2279" t="s">
+        <v>5225</v>
+      </c>
+      <c r="F2279" t="s">
+        <v>5226</v>
+      </c>
+      <c r="G2279">
+        <v>0</v>
+      </c>
+      <c r="H2279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:8">
+      <c r="A2280">
+        <v>2279</v>
+      </c>
+      <c r="B2280">
+        <v>1</v>
+      </c>
+      <c r="C2280">
+        <v>7</v>
+      </c>
+      <c r="D2280" t="s">
+        <v>5227</v>
+      </c>
+      <c r="E2280" t="s">
+        <v>5225</v>
+      </c>
+      <c r="F2280" t="s">
+        <v>5228</v>
+      </c>
+      <c r="G2280">
+        <v>0</v>
+      </c>
+      <c r="H2280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:8">
+      <c r="A2281">
+        <v>2280</v>
+      </c>
+      <c r="B2281">
+        <v>1</v>
+      </c>
+      <c r="C2281">
+        <v>7</v>
+      </c>
+      <c r="D2281" t="s">
+        <v>5231</v>
+      </c>
+      <c r="E2281" t="s">
+        <v>5229</v>
+      </c>
+      <c r="F2281" t="s">
+        <v>5230</v>
+      </c>
+      <c r="G2281">
+        <v>0</v>
+      </c>
+      <c r="H2281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:8">
+      <c r="A2282">
+        <v>2281</v>
+      </c>
+      <c r="B2282">
+        <v>1</v>
+      </c>
+      <c r="C2282">
+        <v>7</v>
+      </c>
+      <c r="D2282" t="s">
+        <v>5232</v>
+      </c>
+      <c r="E2282" t="s">
+        <v>5233</v>
+      </c>
+      <c r="F2282" t="s">
+        <v>5234</v>
+      </c>
+      <c r="G2282">
+        <v>0</v>
+      </c>
+      <c r="H2282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:8">
+      <c r="A2283">
+        <v>2282</v>
+      </c>
+      <c r="B2283">
+        <v>1</v>
+      </c>
+      <c r="C2283">
+        <v>7</v>
+      </c>
+      <c r="D2283" t="s">
+        <v>5235</v>
+      </c>
+      <c r="E2283" t="s">
+        <v>5233</v>
+      </c>
+      <c r="F2283" t="s">
+        <v>5236</v>
+      </c>
+      <c r="G2283">
+        <v>0</v>
+      </c>
+      <c r="H2283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:8">
+      <c r="A2284">
+        <v>2283</v>
+      </c>
+      <c r="B2284">
+        <v>1</v>
+      </c>
+      <c r="C2284">
+        <v>7</v>
+      </c>
+      <c r="D2284" t="s">
+        <v>5237</v>
+      </c>
+      <c r="E2284" t="s">
+        <v>5238</v>
+      </c>
+      <c r="F2284" t="s">
+        <v>5239</v>
+      </c>
+      <c r="G2284">
+        <v>0</v>
+      </c>
+      <c r="H2284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:8">
+      <c r="A2285">
+        <v>2284</v>
+      </c>
+      <c r="B2285">
+        <v>1</v>
+      </c>
+      <c r="C2285">
+        <v>7</v>
+      </c>
+      <c r="D2285" t="s">
+        <v>4270</v>
+      </c>
+      <c r="E2285" t="s">
+        <v>5240</v>
+      </c>
+      <c r="F2285" t="s">
+        <v>5241</v>
+      </c>
+      <c r="G2285">
+        <v>0</v>
+      </c>
+      <c r="H2285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:8">
+      <c r="A2286">
+        <v>2285</v>
+      </c>
+      <c r="B2286">
+        <v>1</v>
+      </c>
+      <c r="C2286">
+        <v>7</v>
+      </c>
+      <c r="D2286" t="s">
+        <v>5242</v>
+      </c>
+      <c r="E2286" t="s">
+        <v>5243</v>
+      </c>
+      <c r="F2286" t="s">
+        <v>5244</v>
+      </c>
+      <c r="G2286">
+        <v>0</v>
+      </c>
+      <c r="H2286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:8">
+      <c r="A2287">
+        <v>2286</v>
+      </c>
+      <c r="B2287">
+        <v>1</v>
+      </c>
+      <c r="C2287">
+        <v>7</v>
+      </c>
+      <c r="D2287" t="s">
+        <v>5245</v>
+      </c>
+      <c r="E2287" t="s">
+        <v>5246</v>
+      </c>
+      <c r="F2287" t="s">
+        <v>5247</v>
+      </c>
+      <c r="G2287">
+        <v>0</v>
+      </c>
+      <c r="H2287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:8">
+      <c r="A2288">
+        <v>2287</v>
+      </c>
+      <c r="B2288">
+        <v>1</v>
+      </c>
+      <c r="C2288">
+        <v>7</v>
+      </c>
+      <c r="D2288" t="s">
+        <v>350</v>
+      </c>
+      <c r="E2288" t="s">
+        <v>5248</v>
+      </c>
+      <c r="F2288" t="s">
+        <v>5249</v>
+      </c>
+      <c r="G2288">
+        <v>0</v>
+      </c>
+      <c r="H2288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:8">
+      <c r="A2289">
+        <v>2288</v>
+      </c>
+      <c r="B2289">
+        <v>1</v>
+      </c>
+      <c r="C2289">
+        <v>7</v>
+      </c>
+      <c r="D2289" t="s">
+        <v>5250</v>
+      </c>
+      <c r="E2289" t="s">
+        <v>5251</v>
+      </c>
+      <c r="F2289" t="s">
+        <v>5252</v>
+      </c>
+      <c r="G2289">
+        <v>0</v>
+      </c>
+      <c r="H2289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:8">
+      <c r="A2290">
+        <v>2289</v>
+      </c>
+      <c r="B2290">
+        <v>1</v>
+      </c>
+      <c r="C2290">
+        <v>7</v>
+      </c>
+      <c r="D2290" t="s">
+        <v>5253</v>
+      </c>
+      <c r="E2290" t="s">
+        <v>5254</v>
+      </c>
+      <c r="F2290" t="s">
+        <v>5255</v>
+      </c>
+      <c r="G2290">
+        <v>0</v>
+      </c>
+      <c r="H2290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:8">
+      <c r="A2291">
+        <v>2290</v>
+      </c>
+      <c r="B2291">
+        <v>1</v>
+      </c>
+      <c r="C2291">
+        <v>7</v>
+      </c>
+      <c r="D2291" t="s">
+        <v>5256</v>
+      </c>
+      <c r="E2291" t="s">
+        <v>5257</v>
+      </c>
+      <c r="F2291" t="s">
+        <v>5258</v>
+      </c>
+      <c r="G2291">
+        <v>0</v>
+      </c>
+      <c r="H2291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:8">
+      <c r="A2292">
+        <v>2291</v>
+      </c>
+      <c r="B2292">
+        <v>1</v>
+      </c>
+      <c r="C2292">
+        <v>7</v>
+      </c>
+      <c r="D2292" t="s">
+        <v>5259</v>
+      </c>
+      <c r="E2292" t="s">
+        <v>5260</v>
+      </c>
+      <c r="F2292" t="s">
+        <v>5261</v>
+      </c>
+      <c r="G2292">
+        <v>0</v>
+      </c>
+      <c r="H2292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:8">
+      <c r="A2293">
+        <v>2292</v>
+      </c>
+      <c r="B2293">
+        <v>1</v>
+      </c>
+      <c r="C2293">
+        <v>7</v>
+      </c>
+      <c r="D2293" t="s">
+        <v>5262</v>
+      </c>
+      <c r="E2293" t="s">
+        <v>5260</v>
+      </c>
+      <c r="F2293" t="s">
+        <v>5261</v>
+      </c>
+      <c r="G2293">
+        <v>0</v>
+      </c>
+      <c r="H2293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:8">
+      <c r="A2294">
+        <v>2293</v>
+      </c>
+      <c r="B2294">
+        <v>1</v>
+      </c>
+      <c r="C2294">
+        <v>7</v>
+      </c>
+      <c r="D2294" t="s">
+        <v>4173</v>
+      </c>
+      <c r="E2294" t="s">
+        <v>5263</v>
+      </c>
+      <c r="F2294" t="s">
+        <v>5264</v>
+      </c>
+      <c r="G2294">
+        <v>0</v>
+      </c>
+      <c r="H2294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:8">
+      <c r="A2295">
+        <v>2294</v>
+      </c>
+      <c r="B2295">
+        <v>1</v>
+      </c>
+      <c r="C2295">
+        <v>7</v>
+      </c>
+      <c r="D2295" t="s">
+        <v>5265</v>
+      </c>
+      <c r="E2295" t="s">
+        <v>5266</v>
+      </c>
+      <c r="F2295" t="s">
+        <v>5267</v>
+      </c>
+      <c r="G2295">
+        <v>0</v>
+      </c>
+      <c r="H2295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:8">
+      <c r="A2296">
+        <v>2295</v>
+      </c>
+      <c r="B2296">
+        <v>1</v>
+      </c>
+      <c r="C2296">
+        <v>7</v>
+      </c>
+      <c r="D2296" t="s">
+        <v>5268</v>
+      </c>
+      <c r="E2296" t="s">
+        <v>2945</v>
+      </c>
+      <c r="F2296" t="s">
+        <v>5269</v>
+      </c>
+      <c r="G2296">
+        <v>0</v>
+      </c>
+      <c r="H2296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:8">
+      <c r="A2297">
+        <v>2296</v>
+      </c>
+      <c r="B2297">
+        <v>1</v>
+      </c>
+      <c r="C2297">
+        <v>7</v>
+      </c>
+      <c r="D2297" t="s">
+        <v>5270</v>
+      </c>
+      <c r="E2297" t="s">
+        <v>2963</v>
+      </c>
+      <c r="F2297" t="s">
+        <v>5271</v>
+      </c>
+      <c r="G2297">
+        <v>0</v>
+      </c>
+      <c r="H2297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:8">
+      <c r="A2298">
+        <v>2297</v>
+      </c>
+      <c r="B2298">
+        <v>1</v>
+      </c>
+      <c r="C2298">
+        <v>7</v>
+      </c>
+      <c r="D2298" t="s">
+        <v>5272</v>
+      </c>
+      <c r="E2298" t="s">
+        <v>5273</v>
+      </c>
+      <c r="F2298" t="s">
+        <v>5274</v>
+      </c>
+      <c r="G2298">
+        <v>0</v>
+      </c>
+      <c r="H2298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:8">
+      <c r="A2299">
+        <v>2298</v>
+      </c>
+      <c r="B2299">
+        <v>1</v>
+      </c>
+      <c r="C2299">
+        <v>7</v>
+      </c>
+      <c r="D2299" t="s">
+        <v>5275</v>
+      </c>
+      <c r="E2299" t="s">
+        <v>5276</v>
+      </c>
+      <c r="F2299" t="s">
+        <v>5277</v>
+      </c>
+      <c r="G2299">
+        <v>0</v>
+      </c>
+      <c r="H2299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:8">
+      <c r="A2300">
+        <v>2299</v>
+      </c>
+      <c r="B2300">
+        <v>1</v>
+      </c>
+      <c r="C2300">
+        <v>7</v>
+      </c>
+      <c r="D2300" t="s">
+        <v>5278</v>
+      </c>
+      <c r="E2300" t="s">
+        <v>5279</v>
+      </c>
+      <c r="F2300" t="s">
+        <v>5280</v>
+      </c>
+      <c r="G2300">
+        <v>0</v>
+      </c>
+      <c r="H2300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:8">
+      <c r="A2301">
+        <v>2300</v>
+      </c>
+      <c r="B2301">
+        <v>1</v>
+      </c>
+      <c r="C2301">
+        <v>7</v>
+      </c>
+      <c r="D2301" t="s">
+        <v>5281</v>
+      </c>
+      <c r="E2301" t="s">
+        <v>5282</v>
+      </c>
+      <c r="F2301" t="s">
+        <v>5280</v>
+      </c>
+      <c r="G2301">
+        <v>0</v>
+      </c>
+      <c r="H2301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:8">
+      <c r="A2302">
+        <v>2301</v>
+      </c>
+      <c r="B2302">
+        <v>1</v>
+      </c>
+      <c r="C2302">
+        <v>7</v>
+      </c>
+      <c r="D2302" t="s">
+        <v>4861</v>
+      </c>
+      <c r="E2302" t="s">
+        <v>5283</v>
+      </c>
+      <c r="F2302" t="s">
+        <v>3714</v>
+      </c>
+      <c r="G2302">
+        <v>0</v>
+      </c>
+      <c r="H2302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:8">
+      <c r="A2303">
+        <v>2302</v>
+      </c>
+      <c r="B2303">
+        <v>1</v>
+      </c>
+      <c r="C2303">
+        <v>7</v>
+      </c>
+      <c r="D2303" t="s">
+        <v>5284</v>
+      </c>
+      <c r="E2303" t="s">
+        <v>5282</v>
+      </c>
+      <c r="F2303" t="s">
+        <v>5285</v>
+      </c>
+      <c r="G2303">
+        <v>0</v>
+      </c>
+      <c r="H2303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:8">
+      <c r="A2304">
+        <v>2303</v>
+      </c>
+      <c r="B2304">
+        <v>1</v>
+      </c>
+      <c r="C2304">
+        <v>7</v>
+      </c>
+      <c r="D2304" t="s">
+        <v>3146</v>
+      </c>
+      <c r="E2304" t="s">
+        <v>5286</v>
+      </c>
+      <c r="F2304" t="s">
+        <v>5287</v>
+      </c>
+      <c r="G2304">
+        <v>0</v>
+      </c>
+      <c r="H2304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:8">
+      <c r="A2305">
+        <v>2304</v>
+      </c>
+      <c r="B2305">
+        <v>1</v>
+      </c>
+      <c r="C2305">
+        <v>7</v>
+      </c>
+      <c r="D2305" t="s">
+        <v>5288</v>
+      </c>
+      <c r="E2305" t="s">
+        <v>5289</v>
+      </c>
+      <c r="F2305" t="s">
+        <v>5290</v>
+      </c>
+      <c r="G2305">
+        <v>0</v>
+      </c>
+      <c r="H2305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:8">
+      <c r="A2306">
+        <v>2305</v>
+      </c>
+      <c r="B2306">
+        <v>1</v>
+      </c>
+      <c r="C2306">
+        <v>7</v>
+      </c>
+      <c r="D2306" t="s">
+        <v>5291</v>
+      </c>
+      <c r="E2306" t="s">
+        <v>5292</v>
+      </c>
+      <c r="F2306" t="s">
+        <v>5290</v>
+      </c>
+      <c r="G2306">
+        <v>0</v>
+      </c>
+      <c r="H2306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:8">
+      <c r="A2307">
+        <v>2306</v>
+      </c>
+      <c r="B2307">
+        <v>1</v>
+      </c>
+      <c r="C2307">
+        <v>7</v>
+      </c>
+      <c r="D2307" t="s">
+        <v>992</v>
+      </c>
+      <c r="E2307" t="s">
+        <v>5293</v>
+      </c>
+      <c r="F2307" t="s">
+        <v>5294</v>
+      </c>
+      <c r="G2307">
+        <v>0</v>
+      </c>
+      <c r="H2307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:8">
+      <c r="A2308">
+        <v>2307</v>
+      </c>
+      <c r="B2308">
+        <v>1</v>
+      </c>
+      <c r="C2308">
+        <v>7</v>
+      </c>
+      <c r="D2308" t="s">
+        <v>994</v>
+      </c>
+      <c r="E2308" t="s">
+        <v>5293</v>
+      </c>
+      <c r="F2308" t="s">
+        <v>5295</v>
+      </c>
+      <c r="G2308">
+        <v>0</v>
+      </c>
+      <c r="H2308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:8">
+      <c r="A2309">
+        <v>2308</v>
+      </c>
+      <c r="B2309">
+        <v>1</v>
+      </c>
+      <c r="C2309">
+        <v>7</v>
+      </c>
+      <c r="D2309" t="s">
+        <v>5298</v>
+      </c>
+      <c r="E2309" t="s">
+        <v>5296</v>
+      </c>
+      <c r="F2309" t="s">
+        <v>5297</v>
+      </c>
+      <c r="G2309">
+        <v>0</v>
+      </c>
+      <c r="H2309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:8">
+      <c r="A2310">
+        <v>2309</v>
+      </c>
+      <c r="B2310">
+        <v>1</v>
+      </c>
+      <c r="C2310">
+        <v>7</v>
+      </c>
+      <c r="D2310" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E2310" t="s">
+        <v>5296</v>
+      </c>
+      <c r="F2310" t="s">
+        <v>5299</v>
+      </c>
+      <c r="G2310">
+        <v>0</v>
+      </c>
+      <c r="H2310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:8">
+      <c r="A2311">
+        <v>2310</v>
+      </c>
+      <c r="B2311">
+        <v>1</v>
+      </c>
+      <c r="C2311">
+        <v>7</v>
+      </c>
+      <c r="D2311" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E2311" t="s">
+        <v>5300</v>
+      </c>
+      <c r="F2311" t="s">
+        <v>5301</v>
+      </c>
+      <c r="G2311">
+        <v>0</v>
+      </c>
+      <c r="H2311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:8">
+      <c r="A2312">
+        <v>2311</v>
+      </c>
+      <c r="B2312">
+        <v>1</v>
+      </c>
+      <c r="C2312">
+        <v>7</v>
+      </c>
+      <c r="D2312" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E2312" t="s">
+        <v>5302</v>
+      </c>
+      <c r="F2312" t="s">
+        <v>5303</v>
+      </c>
+      <c r="G2312">
+        <v>0</v>
+      </c>
+      <c r="H2312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:8">
+      <c r="A2313">
+        <v>2312</v>
+      </c>
+      <c r="B2313">
+        <v>1</v>
+      </c>
+      <c r="C2313">
+        <v>7</v>
+      </c>
+      <c r="D2313" t="s">
+        <v>5304</v>
+      </c>
+      <c r="E2313" t="s">
+        <v>5305</v>
+      </c>
+      <c r="F2313" t="s">
+        <v>5306</v>
+      </c>
+      <c r="G2313">
+        <v>0</v>
+      </c>
+      <c r="H2313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:8">
+      <c r="A2314">
+        <v>2313</v>
+      </c>
+      <c r="B2314">
+        <v>1</v>
+      </c>
+      <c r="C2314">
+        <v>7</v>
+      </c>
+      <c r="D2314" t="s">
+        <v>5307</v>
+      </c>
+      <c r="E2314" t="s">
+        <v>5308</v>
+      </c>
+      <c r="F2314" t="s">
+        <v>5309</v>
+      </c>
+      <c r="G2314">
+        <v>0</v>
+      </c>
+      <c r="H2314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:8">
+      <c r="A2315">
+        <v>2314</v>
+      </c>
+      <c r="B2315">
+        <v>1</v>
+      </c>
+      <c r="C2315">
+        <v>7</v>
+      </c>
+      <c r="D2315" t="s">
+        <v>818</v>
+      </c>
+      <c r="E2315" t="s">
+        <v>5308</v>
+      </c>
+      <c r="F2315" t="s">
+        <v>5310</v>
+      </c>
+      <c r="G2315">
+        <v>0</v>
+      </c>
+      <c r="H2315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:8">
+      <c r="A2316">
+        <v>2315</v>
+      </c>
+      <c r="B2316">
+        <v>1</v>
+      </c>
+      <c r="C2316">
+        <v>7</v>
+      </c>
+      <c r="D2316" t="s">
+        <v>5311</v>
+      </c>
+      <c r="E2316" t="s">
+        <v>5312</v>
+      </c>
+      <c r="F2316" t="s">
+        <v>5313</v>
+      </c>
+      <c r="G2316">
+        <v>0</v>
+      </c>
+      <c r="H2316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:8">
+      <c r="A2317">
+        <v>2316</v>
+      </c>
+      <c r="B2317">
+        <v>1</v>
+      </c>
+      <c r="C2317">
+        <v>7</v>
+      </c>
+      <c r="D2317" t="s">
+        <v>5314</v>
+      </c>
+      <c r="E2317" t="s">
+        <v>5315</v>
+      </c>
+      <c r="F2317" t="s">
+        <v>5313</v>
+      </c>
+      <c r="G2317">
+        <v>0</v>
+      </c>
+      <c r="H2317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:8">
+      <c r="A2318">
+        <v>2317</v>
+      </c>
+      <c r="B2318">
+        <v>1</v>
+      </c>
+      <c r="C2318">
+        <v>7</v>
+      </c>
+      <c r="D2318" t="s">
+        <v>5316</v>
+      </c>
+      <c r="E2318" t="s">
+        <v>5315</v>
+      </c>
+      <c r="F2318" t="s">
+        <v>5317</v>
+      </c>
+      <c r="G2318">
+        <v>0</v>
+      </c>
+      <c r="H2318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:8">
+      <c r="A2319">
+        <v>2318</v>
+      </c>
+      <c r="B2319">
+        <v>1</v>
+      </c>
+      <c r="C2319">
+        <v>7</v>
+      </c>
+      <c r="D2319" t="s">
+        <v>5318</v>
+      </c>
+      <c r="E2319" t="s">
+        <v>4288</v>
+      </c>
+      <c r="F2319" t="s">
+        <v>5319</v>
+      </c>
+      <c r="G2319">
+        <v>0</v>
+      </c>
+      <c r="H2319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:8">
+      <c r="A2320">
+        <v>2319</v>
+      </c>
+      <c r="B2320">
+        <v>1</v>
+      </c>
+      <c r="C2320">
+        <v>7</v>
+      </c>
+      <c r="D2320" t="s">
+        <v>3315</v>
+      </c>
+      <c r="E2320" t="s">
+        <v>5320</v>
+      </c>
+      <c r="F2320" t="s">
+        <v>5321</v>
+      </c>
+      <c r="G2320">
+        <v>0</v>
+      </c>
+      <c r="H2320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:8">
+      <c r="A2321">
+        <v>2320</v>
+      </c>
+      <c r="B2321">
+        <v>1</v>
+      </c>
+      <c r="C2321">
+        <v>7</v>
+      </c>
+      <c r="D2321" t="s">
+        <v>5322</v>
+      </c>
+      <c r="E2321" t="s">
+        <v>5323</v>
+      </c>
+      <c r="F2321" t="s">
+        <v>5324</v>
+      </c>
+      <c r="G2321">
+        <v>0</v>
+      </c>
+      <c r="H2321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:8">
+      <c r="A2322">
+        <v>2321</v>
+      </c>
+      <c r="B2322">
+        <v>1</v>
+      </c>
+      <c r="C2322">
+        <v>7</v>
+      </c>
+      <c r="D2322" t="s">
+        <v>444</v>
+      </c>
+      <c r="E2322" t="s">
+        <v>5325</v>
+      </c>
+      <c r="F2322" t="s">
+        <v>5326</v>
+      </c>
+      <c r="G2322">
+        <v>0</v>
+      </c>
+      <c r="H2322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:8">
+      <c r="A2323">
+        <v>2322</v>
+      </c>
+      <c r="B2323">
+        <v>1</v>
+      </c>
+      <c r="C2323">
+        <v>7</v>
+      </c>
+      <c r="D2323" t="s">
+        <v>3851</v>
+      </c>
+      <c r="E2323" t="s">
+        <v>5327</v>
+      </c>
+      <c r="F2323" t="s">
+        <v>5328</v>
+      </c>
+      <c r="G2323">
+        <v>0</v>
+      </c>
+      <c r="H2323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:8">
+      <c r="A2324">
+        <v>2323</v>
+      </c>
+      <c r="B2324">
+        <v>1</v>
+      </c>
+      <c r="C2324">
+        <v>7</v>
+      </c>
+      <c r="D2324" t="s">
+        <v>5329</v>
+      </c>
+      <c r="E2324" t="s">
+        <v>5330</v>
+      </c>
+      <c r="F2324" t="s">
+        <v>5331</v>
+      </c>
+      <c r="G2324">
+        <v>0</v>
+      </c>
+      <c r="H2324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:8">
+      <c r="A2325">
+        <v>2324</v>
+      </c>
+      <c r="B2325">
+        <v>1</v>
+      </c>
+      <c r="C2325">
+        <v>7</v>
+      </c>
+      <c r="D2325" t="s">
+        <v>3688</v>
+      </c>
+      <c r="E2325" t="s">
+        <v>5332</v>
+      </c>
+      <c r="F2325" t="s">
+        <v>5333</v>
+      </c>
+      <c r="G2325">
+        <v>0</v>
+      </c>
+      <c r="H2325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:8">
+      <c r="A2326">
+        <v>2325</v>
+      </c>
+      <c r="B2326">
+        <v>1</v>
+      </c>
+      <c r="C2326">
+        <v>7</v>
+      </c>
+      <c r="D2326" t="s">
+        <v>5334</v>
+      </c>
+      <c r="E2326" t="s">
+        <v>5335</v>
+      </c>
+      <c r="F2326" t="s">
+        <v>5336</v>
+      </c>
+      <c r="G2326">
+        <v>0</v>
+      </c>
+      <c r="H2326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:8">
+      <c r="A2327">
+        <v>2326</v>
+      </c>
+      <c r="B2327">
+        <v>1</v>
+      </c>
+      <c r="C2327">
+        <v>7</v>
+      </c>
+      <c r="D2327" t="s">
+        <v>5337</v>
+      </c>
+      <c r="E2327" t="s">
+        <v>3042</v>
+      </c>
+      <c r="F2327" t="s">
+        <v>5338</v>
+      </c>
+      <c r="G2327">
+        <v>0</v>
+      </c>
+      <c r="H2327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:8">
+      <c r="A2328">
+        <v>2327</v>
+      </c>
+      <c r="B2328">
+        <v>1</v>
+      </c>
+      <c r="C2328">
+        <v>7</v>
+      </c>
+      <c r="D2328" t="s">
+        <v>5339</v>
+      </c>
+      <c r="E2328" t="s">
+        <v>5340</v>
+      </c>
+      <c r="F2328" t="s">
+        <v>5338</v>
+      </c>
+      <c r="G2328">
+        <v>0</v>
+      </c>
+      <c r="H2328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:8">
+      <c r="A2329">
+        <v>2328</v>
+      </c>
+      <c r="B2329">
+        <v>1</v>
+      </c>
+      <c r="C2329">
+        <v>7</v>
+      </c>
+      <c r="D2329" t="s">
+        <v>3126</v>
+      </c>
+      <c r="E2329" t="s">
+        <v>3043</v>
+      </c>
+      <c r="F2329" t="s">
+        <v>5341</v>
+      </c>
+      <c r="G2329">
+        <v>0</v>
+      </c>
+      <c r="H2329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:8">
+      <c r="A2330">
+        <v>2329</v>
+      </c>
+      <c r="B2330">
+        <v>1</v>
+      </c>
+      <c r="C2330">
+        <v>7</v>
+      </c>
+      <c r="D2330" t="s">
+        <v>5342</v>
+      </c>
+      <c r="E2330" t="s">
+        <v>5343</v>
+      </c>
+      <c r="F2330" t="s">
+        <v>5344</v>
+      </c>
+      <c r="G2330">
+        <v>0</v>
+      </c>
+      <c r="H2330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:8">
+      <c r="A2331">
+        <v>2330</v>
+      </c>
+      <c r="B2331">
+        <v>1</v>
+      </c>
+      <c r="C2331">
+        <v>7</v>
+      </c>
+      <c r="D2331" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E2331" t="s">
+        <v>5343</v>
+      </c>
+      <c r="F2331" t="s">
+        <v>4331</v>
+      </c>
+      <c r="G2331">
+        <v>0</v>
+      </c>
+      <c r="H2331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:8">
+      <c r="A2332">
+        <v>2331</v>
+      </c>
+      <c r="B2332">
+        <v>1</v>
+      </c>
+      <c r="C2332">
+        <v>7</v>
+      </c>
+      <c r="D2332" t="s">
+        <v>5345</v>
+      </c>
+      <c r="E2332" t="s">
+        <v>5346</v>
+      </c>
+      <c r="F2332" t="s">
+        <v>5347</v>
+      </c>
+      <c r="G2332">
+        <v>0</v>
+      </c>
+      <c r="H2332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:8">
+      <c r="A2333">
+        <v>2332</v>
+      </c>
+      <c r="B2333">
+        <v>1</v>
+      </c>
+      <c r="C2333">
+        <v>7</v>
+      </c>
+      <c r="D2333" t="s">
+        <v>5348</v>
+      </c>
+      <c r="E2333" t="s">
+        <v>5343</v>
+      </c>
+      <c r="F2333" t="s">
+        <v>5347</v>
+      </c>
+      <c r="G2333">
+        <v>0</v>
+      </c>
+      <c r="H2333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2334" spans="1:8">
+      <c r="A2334">
+        <v>2333</v>
+      </c>
+      <c r="B2334">
+        <v>1</v>
+      </c>
+      <c r="C2334">
+        <v>7</v>
+      </c>
+      <c r="D2334" t="s">
+        <v>5349</v>
+      </c>
+      <c r="E2334" t="s">
+        <v>5343</v>
+      </c>
+      <c r="F2334" t="s">
+        <v>5344</v>
+      </c>
+      <c r="G2334">
+        <v>0</v>
+      </c>
+      <c r="H2334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:8">
+      <c r="A2335">
+        <v>2334</v>
+      </c>
+      <c r="B2335">
+        <v>1</v>
+      </c>
+      <c r="C2335">
+        <v>7</v>
+      </c>
+      <c r="D2335" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E2335" t="s">
+        <v>5350</v>
+      </c>
+      <c r="F2335" t="s">
+        <v>5351</v>
+      </c>
+      <c r="G2335">
+        <v>0</v>
+      </c>
+      <c r="H2335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:8">
+      <c r="A2336">
+        <v>2335</v>
+      </c>
+      <c r="B2336">
+        <v>1</v>
+      </c>
+      <c r="C2336">
+        <v>7</v>
+      </c>
+      <c r="D2336" t="s">
+        <v>5352</v>
+      </c>
+      <c r="E2336" t="s">
+        <v>3076</v>
+      </c>
+      <c r="F2336" t="s">
+        <v>5353</v>
+      </c>
+      <c r="G2336">
+        <v>0</v>
+      </c>
+      <c r="H2336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:8">
+      <c r="A2337">
+        <v>2336</v>
+      </c>
+      <c r="B2337">
+        <v>1</v>
+      </c>
+      <c r="C2337">
+        <v>7</v>
+      </c>
+      <c r="D2337" t="s">
+        <v>2566</v>
+      </c>
+      <c r="E2337" t="s">
+        <v>5354</v>
+      </c>
+      <c r="F2337" t="s">
+        <v>5355</v>
+      </c>
+      <c r="G2337">
+        <v>0</v>
+      </c>
+      <c r="H2337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:8">
+      <c r="A2338">
+        <v>2337</v>
+      </c>
+      <c r="B2338">
+        <v>1</v>
+      </c>
+      <c r="C2338">
+        <v>7</v>
+      </c>
+      <c r="D2338" t="s">
+        <v>5356</v>
+      </c>
+      <c r="E2338" t="s">
+        <v>5359</v>
+      </c>
+      <c r="F2338" t="s">
+        <v>5358</v>
+      </c>
+      <c r="G2338">
+        <v>0</v>
+      </c>
+      <c r="H2338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:8">
+      <c r="A2339">
+        <v>2338</v>
+      </c>
+      <c r="B2339">
+        <v>1</v>
+      </c>
+      <c r="C2339">
+        <v>7</v>
+      </c>
+      <c r="D2339" t="s">
+        <v>2459</v>
+      </c>
+      <c r="E2339" t="s">
+        <v>5357</v>
+      </c>
+      <c r="F2339" t="s">
+        <v>5358</v>
+      </c>
+      <c r="G2339">
+        <v>0</v>
+      </c>
+      <c r="H2339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:8">
+      <c r="A2340">
+        <v>2339</v>
+      </c>
+      <c r="B2340">
+        <v>1</v>
+      </c>
+      <c r="C2340">
+        <v>7</v>
+      </c>
+      <c r="D2340" t="s">
+        <v>5360</v>
+      </c>
+      <c r="E2340" t="s">
+        <v>5361</v>
+      </c>
+      <c r="F2340" t="s">
+        <v>5362</v>
+      </c>
+      <c r="G2340">
+        <v>0</v>
+      </c>
+      <c r="H2340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:8">
+      <c r="A2341">
+        <v>2340</v>
+      </c>
+      <c r="B2341">
+        <v>1</v>
+      </c>
+      <c r="C2341">
+        <v>7</v>
+      </c>
+      <c r="D2341" t="s">
+        <v>5363</v>
+      </c>
+      <c r="E2341" t="s">
+        <v>5364</v>
+      </c>
+      <c r="F2341" t="s">
+        <v>5362</v>
+      </c>
+      <c r="G2341">
+        <v>0</v>
+      </c>
+      <c r="H2341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:8">
+      <c r="A2342">
+        <v>2341</v>
+      </c>
+      <c r="B2342">
+        <v>1</v>
+      </c>
+      <c r="C2342">
+        <v>7</v>
+      </c>
+      <c r="D2342" t="s">
+        <v>291</v>
+      </c>
+      <c r="E2342" t="s">
+        <v>5365</v>
+      </c>
+      <c r="F2342" t="s">
+        <v>5366</v>
+      </c>
+      <c r="G2342">
+        <v>0</v>
+      </c>
+      <c r="H2342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:8">
+      <c r="A2343">
+        <v>2342</v>
+      </c>
+      <c r="B2343">
+        <v>1</v>
+      </c>
+      <c r="C2343">
+        <v>7</v>
+      </c>
+      <c r="D2343" t="s">
+        <v>5367</v>
+      </c>
+      <c r="E2343" t="s">
+        <v>5368</v>
+      </c>
+      <c r="F2343" t="s">
+        <v>5369</v>
+      </c>
+      <c r="G2343">
+        <v>0</v>
+      </c>
+      <c r="H2343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:8">
+      <c r="A2344">
+        <v>2343</v>
+      </c>
+      <c r="B2344">
+        <v>1</v>
+      </c>
+      <c r="C2344">
+        <v>7</v>
+      </c>
+      <c r="D2344" t="s">
+        <v>5370</v>
+      </c>
+      <c r="E2344" t="s">
+        <v>5371</v>
+      </c>
+      <c r="F2344" t="s">
+        <v>5372</v>
+      </c>
+      <c r="G2344">
+        <v>0</v>
+      </c>
+      <c r="H2344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:8">
+      <c r="A2345">
+        <v>2344</v>
+      </c>
+      <c r="B2345">
+        <v>1</v>
+      </c>
+      <c r="C2345">
+        <v>7</v>
+      </c>
+      <c r="D2345" t="s">
+        <v>5373</v>
+      </c>
+      <c r="E2345" t="s">
+        <v>5374</v>
+      </c>
+      <c r="F2345" t="s">
+        <v>5375</v>
+      </c>
+      <c r="G2345">
+        <v>0</v>
+      </c>
+      <c r="H2345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:8">
+      <c r="A2346">
+        <v>2345</v>
+      </c>
+      <c r="B2346">
+        <v>1</v>
+      </c>
+      <c r="C2346">
+        <v>7</v>
+      </c>
+      <c r="D2346" t="s">
+        <v>5376</v>
+      </c>
+      <c r="E2346" t="s">
+        <v>5377</v>
+      </c>
+      <c r="F2346" t="s">
+        <v>5378</v>
+      </c>
+      <c r="G2346">
+        <v>0</v>
+      </c>
+      <c r="H2346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:8">
+      <c r="A2347">
+        <v>2346</v>
+      </c>
+      <c r="B2347">
+        <v>1</v>
+      </c>
+      <c r="C2347">
+        <v>7</v>
+      </c>
+      <c r="D2347" t="s">
+        <v>5381</v>
+      </c>
+      <c r="E2347" t="s">
+        <v>5379</v>
+      </c>
+      <c r="F2347" t="s">
+        <v>5380</v>
+      </c>
+      <c r="G2347">
+        <v>0</v>
+      </c>
+      <c r="H2347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:8">
+      <c r="A2348">
+        <v>2347</v>
+      </c>
+      <c r="B2348">
+        <v>1</v>
+      </c>
+      <c r="C2348">
+        <v>7</v>
+      </c>
+      <c r="D2348" t="s">
+        <v>674</v>
+      </c>
+      <c r="E2348" t="s">
+        <v>5382</v>
+      </c>
+      <c r="F2348" t="s">
+        <v>5383</v>
+      </c>
+      <c r="G2348">
+        <v>0</v>
+      </c>
+      <c r="H2348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:8">
+      <c r="A2349">
+        <v>2348</v>
+      </c>
+      <c r="B2349">
+        <v>1</v>
+      </c>
+      <c r="C2349">
+        <v>7</v>
+      </c>
+      <c r="D2349" t="s">
+        <v>5384</v>
+      </c>
+      <c r="E2349" t="s">
+        <v>5385</v>
+      </c>
+      <c r="F2349" t="s">
+        <v>5386</v>
+      </c>
+      <c r="G2349">
+        <v>0</v>
+      </c>
+      <c r="H2349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:8">
+      <c r="A2350">
+        <v>2349</v>
+      </c>
+      <c r="B2350">
+        <v>1</v>
+      </c>
+      <c r="C2350">
+        <v>7</v>
+      </c>
+      <c r="D2350" t="s">
+        <v>5387</v>
+      </c>
+      <c r="E2350" t="s">
+        <v>5385</v>
+      </c>
+      <c r="F2350" t="s">
+        <v>3761</v>
+      </c>
+      <c r="G2350">
+        <v>0</v>
+      </c>
+      <c r="H2350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:8">
+      <c r="A2351">
+        <v>2350</v>
+      </c>
+      <c r="B2351">
+        <v>1</v>
+      </c>
+      <c r="C2351">
+        <v>7</v>
+      </c>
+      <c r="D2351" t="s">
+        <v>232</v>
+      </c>
+      <c r="E2351" t="s">
+        <v>3090</v>
+      </c>
+      <c r="F2351" t="s">
+        <v>5388</v>
+      </c>
+      <c r="G2351">
+        <v>0</v>
+      </c>
+      <c r="H2351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:8">
+      <c r="A2352">
+        <v>2351</v>
+      </c>
+      <c r="B2352">
+        <v>1</v>
+      </c>
+      <c r="C2352">
+        <v>7</v>
+      </c>
+      <c r="D2352" t="s">
+        <v>5389</v>
+      </c>
+      <c r="E2352" t="s">
+        <v>5386</v>
+      </c>
+      <c r="F2352" t="s">
+        <v>5390</v>
+      </c>
+      <c r="G2352">
+        <v>0</v>
+      </c>
+      <c r="H2352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:8">
+      <c r="A2353">
+        <v>2352</v>
+      </c>
+      <c r="B2353">
+        <v>1</v>
+      </c>
+      <c r="C2353">
+        <v>7</v>
+      </c>
+      <c r="D2353" t="s">
+        <v>5391</v>
+      </c>
+      <c r="E2353" t="s">
+        <v>5392</v>
+      </c>
+      <c r="F2353" t="s">
+        <v>5393</v>
+      </c>
+      <c r="G2353">
+        <v>0</v>
+      </c>
+      <c r="H2353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:8">
+      <c r="A2354">
+        <v>2353</v>
+      </c>
+      <c r="B2354">
+        <v>1</v>
+      </c>
+      <c r="C2354">
+        <v>7</v>
+      </c>
+      <c r="D2354" t="s">
+        <v>2223</v>
+      </c>
+      <c r="E2354" t="s">
+        <v>5394</v>
+      </c>
+      <c r="F2354" t="s">
+        <v>5395</v>
+      </c>
+      <c r="G2354">
+        <v>0</v>
+      </c>
+      <c r="H2354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:8">
+      <c r="A2355">
+        <v>2354</v>
+      </c>
+      <c r="B2355">
+        <v>1</v>
+      </c>
+      <c r="C2355">
+        <v>7</v>
+      </c>
+      <c r="D2355" t="s">
+        <v>5396</v>
+      </c>
+      <c r="E2355" t="s">
+        <v>5397</v>
+      </c>
+      <c r="F2355" t="s">
+        <v>5398</v>
+      </c>
+      <c r="G2355">
+        <v>0</v>
+      </c>
+      <c r="H2355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:8">
+      <c r="A2356">
+        <v>2355</v>
+      </c>
+      <c r="B2356">
+        <v>1</v>
+      </c>
+      <c r="C2356">
+        <v>7</v>
+      </c>
+      <c r="D2356" t="s">
+        <v>5399</v>
+      </c>
+      <c r="E2356" t="s">
+        <v>3775</v>
+      </c>
+      <c r="F2356" t="s">
+        <v>5398</v>
+      </c>
+      <c r="G2356">
+        <v>0</v>
+      </c>
+      <c r="H2356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:8">
+      <c r="A2357">
+        <v>2356</v>
+      </c>
+      <c r="B2357">
+        <v>1</v>
+      </c>
+      <c r="C2357">
+        <v>7</v>
+      </c>
+      <c r="D2357" t="s">
+        <v>2289</v>
+      </c>
+      <c r="E2357" t="s">
+        <v>5397</v>
+      </c>
+      <c r="F2357" t="s">
+        <v>5400</v>
+      </c>
+      <c r="G2357">
+        <v>0</v>
+      </c>
+      <c r="H2357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:8">
+      <c r="A2358">
+        <v>2357</v>
+      </c>
+      <c r="B2358">
+        <v>1</v>
+      </c>
+      <c r="C2358">
+        <v>7</v>
+      </c>
+      <c r="D2358" t="s">
+        <v>5401</v>
+      </c>
+      <c r="E2358" t="s">
+        <v>5402</v>
+      </c>
+      <c r="F2358" t="s">
+        <v>5403</v>
+      </c>
+      <c r="G2358">
+        <v>0</v>
+      </c>
+      <c r="H2358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:8">
+      <c r="A2359">
+        <v>2358</v>
+      </c>
+      <c r="B2359">
+        <v>1</v>
+      </c>
+      <c r="C2359">
+        <v>7</v>
+      </c>
+      <c r="D2359" t="s">
+        <v>5404</v>
+      </c>
+      <c r="E2359" t="s">
+        <v>5405</v>
+      </c>
+      <c r="F2359" t="s">
+        <v>5406</v>
+      </c>
+      <c r="G2359">
+        <v>0</v>
+      </c>
+      <c r="H2359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:8">
+      <c r="A2360">
+        <v>2359</v>
+      </c>
+      <c r="B2360">
+        <v>1</v>
+      </c>
+      <c r="C2360">
+        <v>7</v>
+      </c>
+      <c r="D2360" t="s">
+        <v>5407</v>
+      </c>
+      <c r="E2360" t="s">
+        <v>5408</v>
+      </c>
+      <c r="F2360" t="s">
+        <v>5409</v>
+      </c>
+      <c r="G2360">
+        <v>0</v>
+      </c>
+      <c r="H2360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:8">
+      <c r="A2361">
+        <v>2360</v>
+      </c>
+      <c r="B2361">
+        <v>1</v>
+      </c>
+      <c r="C2361">
+        <v>7</v>
+      </c>
+      <c r="D2361" t="s">
+        <v>5410</v>
+      </c>
+      <c r="E2361" t="s">
+        <v>5409</v>
+      </c>
+      <c r="F2361" t="s">
+        <v>5411</v>
+      </c>
+      <c r="G2361">
+        <v>0</v>
+      </c>
+      <c r="H2361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:8">
+      <c r="A2362">
+        <v>2361</v>
+      </c>
+      <c r="B2362">
+        <v>1</v>
+      </c>
+      <c r="C2362">
+        <v>7</v>
+      </c>
+      <c r="D2362" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E2362" t="s">
+        <v>5412</v>
+      </c>
+      <c r="F2362" t="s">
+        <v>5413</v>
+      </c>
+      <c r="G2362">
+        <v>0</v>
+      </c>
+      <c r="H2362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2363" spans="1:8">
+      <c r="A2363">
+        <v>2362</v>
+      </c>
+      <c r="B2363">
+        <v>1</v>
+      </c>
+      <c r="C2363">
+        <v>7</v>
+      </c>
+      <c r="D2363" t="s">
+        <v>5414</v>
+      </c>
+      <c r="E2363" t="s">
+        <v>5415</v>
+      </c>
+      <c r="F2363" t="s">
+        <v>5416</v>
+      </c>
+      <c r="G2363">
+        <v>0</v>
+      </c>
+      <c r="H2363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:8">
+      <c r="A2364">
+        <v>2363</v>
+      </c>
+      <c r="B2364">
+        <v>1</v>
+      </c>
+      <c r="C2364">
+        <v>7</v>
+      </c>
+      <c r="D2364" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E2364" t="s">
+        <v>5417</v>
+      </c>
+      <c r="F2364" t="s">
+        <v>5418</v>
+      </c>
+      <c r="G2364">
+        <v>0</v>
+      </c>
+      <c r="H2364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:8">
+      <c r="A2365">
+        <v>2364</v>
+      </c>
+      <c r="B2365">
+        <v>1</v>
+      </c>
+      <c r="C2365">
+        <v>7</v>
+      </c>
+      <c r="D2365" t="s">
+        <v>5419</v>
+      </c>
+      <c r="E2365" t="s">
+        <v>5420</v>
+      </c>
+      <c r="F2365" t="s">
+        <v>5421</v>
+      </c>
+      <c r="G2365">
+        <v>0</v>
+      </c>
+      <c r="H2365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2366" spans="1:8">
+      <c r="A2366">
+        <v>2365</v>
+      </c>
+      <c r="B2366">
+        <v>1</v>
+      </c>
+      <c r="C2366">
+        <v>7</v>
+      </c>
+      <c r="D2366" t="s">
+        <v>757</v>
+      </c>
+      <c r="E2366" t="s">
+        <v>5422</v>
+      </c>
+      <c r="F2366" t="s">
+        <v>5421</v>
+      </c>
+      <c r="G2366">
+        <v>0</v>
+      </c>
+      <c r="H2366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2367" spans="1:8">
+      <c r="A2367">
+        <v>2366</v>
+      </c>
+      <c r="B2367">
+        <v>1</v>
+      </c>
+      <c r="C2367">
+        <v>7</v>
+      </c>
+      <c r="D2367" t="s">
+        <v>5423</v>
+      </c>
+      <c r="E2367" t="s">
+        <v>5420</v>
+      </c>
+      <c r="F2367" t="s">
+        <v>5424</v>
+      </c>
+      <c r="G2367">
+        <v>0</v>
+      </c>
+      <c r="H2367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2368" spans="1:8">
+      <c r="A2368">
+        <v>2367</v>
+      </c>
+      <c r="B2368">
+        <v>1</v>
+      </c>
+      <c r="C2368">
+        <v>7</v>
+      </c>
+      <c r="D2368" t="s">
+        <v>5425</v>
+      </c>
+      <c r="E2368" t="s">
+        <v>5426</v>
+      </c>
+      <c r="F2368" t="s">
+        <v>4486</v>
+      </c>
+      <c r="G2368">
+        <v>0</v>
+      </c>
+      <c r="H2368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2369" spans="1:8">
+      <c r="A2369">
+        <v>2368</v>
+      </c>
+      <c r="B2369">
+        <v>1</v>
+      </c>
+      <c r="C2369">
+        <v>7</v>
+      </c>
+      <c r="D2369" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E2369" t="s">
+        <v>4486</v>
+      </c>
+      <c r="F2369" t="s">
+        <v>5427</v>
+      </c>
+      <c r="G2369">
+        <v>0</v>
+      </c>
+      <c r="H2369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:8">
+      <c r="A2370">
+        <v>2369</v>
+      </c>
+      <c r="B2370">
+        <v>1</v>
+      </c>
+      <c r="C2370">
+        <v>7</v>
+      </c>
+      <c r="D2370" t="s">
+        <v>5428</v>
+      </c>
+      <c r="E2370" t="s">
+        <v>5429</v>
+      </c>
+      <c r="F2370" t="s">
+        <v>5430</v>
+      </c>
+      <c r="G2370">
+        <v>0</v>
+      </c>
+      <c r="H2370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:8">
+      <c r="A2371">
+        <v>2370</v>
+      </c>
+      <c r="B2371">
+        <v>1</v>
+      </c>
+      <c r="C2371">
+        <v>7</v>
+      </c>
+      <c r="D2371" t="s">
+        <v>229</v>
+      </c>
+      <c r="E2371" t="s">
+        <v>5431</v>
+      </c>
+      <c r="F2371" t="s">
+        <v>5430</v>
+      </c>
+      <c r="G2371">
+        <v>0</v>
+      </c>
+      <c r="H2371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:8">
+      <c r="A2372">
+        <v>2371</v>
+      </c>
+      <c r="B2372">
+        <v>1</v>
+      </c>
+      <c r="C2372">
+        <v>7</v>
+      </c>
+      <c r="D2372" t="s">
+        <v>722</v>
+      </c>
+      <c r="E2372" t="s">
+        <v>5432</v>
+      </c>
+      <c r="F2372" t="s">
+        <v>5433</v>
+      </c>
+      <c r="G2372">
+        <v>0</v>
+      </c>
+      <c r="H2372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:8">
+      <c r="A2373">
+        <v>2372</v>
+      </c>
+      <c r="B2373">
+        <v>1</v>
+      </c>
+      <c r="C2373">
+        <v>7</v>
+      </c>
+      <c r="D2373" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E2373" t="s">
+        <v>5434</v>
+      </c>
+      <c r="F2373" t="s">
+        <v>5435</v>
+      </c>
+      <c r="G2373">
+        <v>0</v>
+      </c>
+      <c r="H2373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:8">
+      <c r="A2374">
+        <v>2373</v>
+      </c>
+      <c r="B2374">
+        <v>1</v>
+      </c>
+      <c r="C2374">
+        <v>7</v>
+      </c>
+      <c r="D2374" t="s">
+        <v>5436</v>
+      </c>
+      <c r="E2374" t="s">
+        <v>5437</v>
+      </c>
+      <c r="F2374" t="s">
+        <v>5438</v>
+      </c>
+      <c r="G2374">
+        <v>0</v>
+      </c>
+      <c r="H2374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:8">
+      <c r="A2375">
+        <v>2374</v>
+      </c>
+      <c r="B2375">
+        <v>1</v>
+      </c>
+      <c r="C2375">
+        <v>7</v>
+      </c>
+      <c r="D2375" t="s">
+        <v>5439</v>
+      </c>
+      <c r="E2375" t="s">
+        <v>5437</v>
+      </c>
+      <c r="F2375" t="s">
+        <v>5438</v>
+      </c>
+      <c r="G2375">
+        <v>0</v>
+      </c>
+      <c r="H2375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:8">
+      <c r="A2376">
+        <v>2375</v>
+      </c>
+      <c r="B2376">
+        <v>1</v>
+      </c>
+      <c r="C2376">
+        <v>7</v>
+      </c>
+      <c r="D2376" t="s">
+        <v>5440</v>
+      </c>
+      <c r="E2376" t="s">
+        <v>5441</v>
+      </c>
+      <c r="F2376" t="s">
+        <v>5442</v>
+      </c>
+      <c r="G2376">
+        <v>0</v>
+      </c>
+      <c r="H2376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:8">
+      <c r="A2377">
+        <v>2376</v>
+      </c>
+      <c r="B2377">
+        <v>1</v>
+      </c>
+      <c r="C2377">
+        <v>7</v>
+      </c>
+      <c r="D2377" t="s">
+        <v>862</v>
+      </c>
+      <c r="E2377" t="s">
+        <v>5441</v>
+      </c>
+      <c r="F2377" t="s">
+        <v>5443</v>
+      </c>
+      <c r="G2377">
+        <v>0</v>
+      </c>
+      <c r="H2377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:8">
+      <c r="A2378">
+        <v>2377</v>
+      </c>
+      <c r="B2378">
+        <v>1</v>
+      </c>
+      <c r="C2378">
+        <v>7</v>
+      </c>
+      <c r="D2378" t="s">
+        <v>5444</v>
+      </c>
+      <c r="E2378" t="s">
+        <v>5443</v>
+      </c>
+      <c r="F2378" t="s">
+        <v>5445</v>
+      </c>
+      <c r="G2378">
+        <v>0</v>
+      </c>
+      <c r="H2378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:8">
+      <c r="A2379">
+        <v>2378</v>
+      </c>
+      <c r="B2379">
+        <v>1</v>
+      </c>
+      <c r="C2379">
+        <v>7</v>
+      </c>
+      <c r="D2379" t="s">
+        <v>5446</v>
+      </c>
+      <c r="E2379" t="s">
+        <v>5447</v>
+      </c>
+      <c r="F2379" t="s">
+        <v>5448</v>
+      </c>
+      <c r="G2379">
+        <v>0</v>
+      </c>
+      <c r="H2379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:8">
+      <c r="A2380">
+        <v>2379</v>
+      </c>
+      <c r="B2380">
+        <v>1</v>
+      </c>
+      <c r="C2380">
+        <v>7</v>
+      </c>
+      <c r="D2380" t="s">
+        <v>5450</v>
+      </c>
+      <c r="E2380" t="s">
+        <v>5449</v>
+      </c>
+      <c r="F2380" t="s">
+        <v>5451</v>
+      </c>
+      <c r="G2380">
+        <v>0</v>
+      </c>
+      <c r="H2380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:8">
+      <c r="A2381">
+        <v>2380</v>
+      </c>
+      <c r="B2381">
+        <v>1</v>
+      </c>
+      <c r="C2381">
+        <v>7</v>
+      </c>
+      <c r="D2381" t="s">
+        <v>5452</v>
+      </c>
+      <c r="E2381" t="s">
+        <v>5453</v>
+      </c>
+      <c r="F2381" t="s">
+        <v>5454</v>
+      </c>
+      <c r="G2381">
+        <v>0</v>
+      </c>
+      <c r="H2381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:8">
+      <c r="A2382">
+        <v>2381</v>
+      </c>
+      <c r="B2382">
+        <v>1</v>
+      </c>
+      <c r="C2382">
+        <v>7</v>
+      </c>
+      <c r="D2382" t="s">
+        <v>5455</v>
+      </c>
+      <c r="E2382" t="s">
+        <v>5453</v>
+      </c>
+      <c r="F2382" t="s">
+        <v>5456</v>
+      </c>
+      <c r="G2382">
+        <v>0</v>
+      </c>
+      <c r="H2382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:8">
+      <c r="A2383">
+        <v>2382</v>
+      </c>
+      <c r="B2383">
+        <v>1</v>
+      </c>
+      <c r="C2383">
+        <v>7</v>
+      </c>
+      <c r="D2383" t="s">
+        <v>5457</v>
+      </c>
+      <c r="E2383" t="s">
+        <v>5458</v>
+      </c>
+      <c r="F2383" t="s">
+        <v>5459</v>
+      </c>
+      <c r="G2383">
+        <v>0</v>
+      </c>
+      <c r="H2383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:8">
+      <c r="A2384">
+        <v>2383</v>
+      </c>
+      <c r="B2384">
+        <v>1</v>
+      </c>
+      <c r="C2384">
+        <v>7</v>
+      </c>
+      <c r="D2384" t="s">
+        <v>862</v>
+      </c>
+      <c r="E2384" t="s">
+        <v>5460</v>
+      </c>
+      <c r="F2384" t="s">
+        <v>5461</v>
+      </c>
+      <c r="G2384">
+        <v>0</v>
+      </c>
+      <c r="H2384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:8">
+      <c r="A2385">
+        <v>2384</v>
+      </c>
+      <c r="B2385">
+        <v>1</v>
+      </c>
+      <c r="C2385">
+        <v>7</v>
+      </c>
+      <c r="D2385" t="s">
+        <v>5446</v>
+      </c>
+      <c r="E2385" t="s">
+        <v>5462</v>
+      </c>
+      <c r="F2385" t="s">
+        <v>5463</v>
+      </c>
+      <c r="G2385">
+        <v>0</v>
+      </c>
+      <c r="H2385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:8">
+      <c r="A2386">
+        <v>2385</v>
+      </c>
+      <c r="B2386">
+        <v>1</v>
+      </c>
+      <c r="C2386">
+        <v>7</v>
+      </c>
+      <c r="D2386" t="s">
+        <v>5464</v>
+      </c>
+      <c r="E2386" t="s">
+        <v>5465</v>
+      </c>
+      <c r="F2386" t="s">
+        <v>5466</v>
+      </c>
+      <c r="G2386">
+        <v>0</v>
+      </c>
+      <c r="H2386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:8">
+      <c r="A2387">
+        <v>2386</v>
+      </c>
+      <c r="B2387">
+        <v>1</v>
+      </c>
+      <c r="C2387">
+        <v>7</v>
+      </c>
+      <c r="D2387" t="s">
+        <v>5467</v>
+      </c>
+      <c r="E2387" t="s">
+        <v>5468</v>
+      </c>
+      <c r="F2387" t="s">
+        <v>5469</v>
+      </c>
+      <c r="G2387">
+        <v>0</v>
+      </c>
+      <c r="H2387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:8">
+      <c r="A2388">
+        <v>2387</v>
+      </c>
+      <c r="B2388">
+        <v>1</v>
+      </c>
+      <c r="C2388">
+        <v>7</v>
+      </c>
+      <c r="D2388" t="s">
+        <v>5470</v>
+      </c>
+      <c r="E2388" t="s">
+        <v>5471</v>
+      </c>
+      <c r="F2388" t="s">
+        <v>5472</v>
+      </c>
+      <c r="G2388">
+        <v>0</v>
+      </c>
+      <c r="H2388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:8">
+      <c r="A2389">
+        <v>2388</v>
+      </c>
+      <c r="B2389">
+        <v>1</v>
+      </c>
+      <c r="C2389">
+        <v>7</v>
+      </c>
+      <c r="D2389" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E2389" t="s">
+        <v>5473</v>
+      </c>
+      <c r="F2389" t="s">
+        <v>5472</v>
+      </c>
+      <c r="G2389">
+        <v>0</v>
+      </c>
+      <c r="H2389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:8">
+      <c r="A2390">
+        <v>2389</v>
+      </c>
+      <c r="B2390">
+        <v>1</v>
+      </c>
+      <c r="C2390">
+        <v>7</v>
+      </c>
+      <c r="D2390" t="s">
+        <v>700</v>
+      </c>
+      <c r="E2390" t="s">
+        <v>5474</v>
+      </c>
+      <c r="F2390" t="s">
+        <v>5475</v>
+      </c>
+      <c r="G2390">
+        <v>0</v>
+      </c>
+      <c r="H2390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:8">
+      <c r="A2391">
+        <v>2390</v>
+      </c>
+      <c r="B2391">
+        <v>1</v>
+      </c>
+      <c r="C2391">
+        <v>7</v>
+      </c>
+      <c r="D2391" t="s">
+        <v>271</v>
+      </c>
+      <c r="E2391" t="s">
+        <v>5474</v>
+      </c>
+      <c r="F2391" t="s">
+        <v>5475</v>
+      </c>
+      <c r="G2391">
+        <v>0</v>
+      </c>
+      <c r="H2391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:8">
+      <c r="A2392">
+        <v>2391</v>
+      </c>
+      <c r="B2392">
+        <v>1</v>
+      </c>
+      <c r="C2392">
+        <v>7</v>
+      </c>
+      <c r="D2392" t="s">
+        <v>5476</v>
+      </c>
+      <c r="E2392" t="s">
+        <v>5477</v>
+      </c>
+      <c r="F2392" t="s">
+        <v>5478</v>
+      </c>
+      <c r="G2392">
+        <v>0</v>
+      </c>
+      <c r="H2392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2393" spans="1:8">
+      <c r="A2393">
+        <v>2392</v>
+      </c>
+      <c r="B2393">
+        <v>1</v>
+      </c>
+      <c r="C2393">
+        <v>7</v>
+      </c>
+      <c r="D2393" t="s">
+        <v>5479</v>
+      </c>
+      <c r="E2393" t="s">
+        <v>5480</v>
+      </c>
+      <c r="F2393" t="s">
+        <v>5481</v>
+      </c>
+      <c r="G2393">
+        <v>0</v>
+      </c>
+      <c r="H2393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:8">
+      <c r="A2394">
+        <v>2393</v>
+      </c>
+      <c r="B2394">
+        <v>1</v>
+      </c>
+      <c r="C2394">
+        <v>7</v>
+      </c>
+      <c r="D2394" t="s">
+        <v>5482</v>
+      </c>
+      <c r="E2394" t="s">
+        <v>5483</v>
+      </c>
+      <c r="F2394" t="s">
+        <v>5484</v>
+      </c>
+      <c r="G2394">
+        <v>0</v>
+      </c>
+      <c r="H2394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:8">
+      <c r="A2395">
+        <v>2394</v>
+      </c>
+      <c r="B2395">
+        <v>1</v>
+      </c>
+      <c r="C2395">
+        <v>7</v>
+      </c>
+      <c r="D2395" t="s">
+        <v>5485</v>
+      </c>
+      <c r="E2395" t="s">
+        <v>5483</v>
+      </c>
+      <c r="F2395" t="s">
+        <v>5480</v>
+      </c>
+      <c r="G2395">
+        <v>0</v>
+      </c>
+      <c r="H2395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:8">
+      <c r="A2396">
+        <v>2395</v>
+      </c>
+      <c r="B2396">
+        <v>1</v>
+      </c>
+      <c r="C2396">
+        <v>7</v>
+      </c>
+      <c r="D2396" t="s">
+        <v>4966</v>
+      </c>
+      <c r="E2396" t="s">
+        <v>5486</v>
+      </c>
+      <c r="F2396" t="s">
+        <v>5487</v>
+      </c>
+      <c r="G2396">
+        <v>0</v>
+      </c>
+      <c r="H2396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:8">
+      <c r="A2397">
+        <v>2396</v>
+      </c>
+      <c r="B2397">
+        <v>1</v>
+      </c>
+      <c r="C2397">
+        <v>7</v>
+      </c>
+      <c r="D2397" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2397" t="s">
+        <v>5488</v>
+      </c>
+      <c r="F2397" t="s">
+        <v>5489</v>
+      </c>
+      <c r="G2397">
+        <v>0</v>
+      </c>
+      <c r="H2397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:8">
+      <c r="A2398">
+        <v>2397</v>
+      </c>
+      <c r="B2398">
+        <v>1</v>
+      </c>
+      <c r="C2398">
+        <v>7</v>
+      </c>
+      <c r="D2398" t="s">
+        <v>5490</v>
+      </c>
+      <c r="E2398" t="s">
+        <v>5491</v>
+      </c>
+      <c r="F2398" t="s">
+        <v>5492</v>
+      </c>
+      <c r="G2398">
+        <v>0</v>
+      </c>
+      <c r="H2398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:8">
+      <c r="A2399">
+        <v>2398</v>
+      </c>
+      <c r="B2399">
+        <v>1</v>
+      </c>
+      <c r="C2399">
+        <v>7</v>
+      </c>
+      <c r="D2399" t="s">
+        <v>5493</v>
+      </c>
+      <c r="E2399" t="s">
+        <v>5494</v>
+      </c>
+      <c r="F2399" t="s">
+        <v>5495</v>
+      </c>
+      <c r="G2399">
+        <v>0</v>
+      </c>
+      <c r="H2399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:8">
+      <c r="A2400">
+        <v>2399</v>
+      </c>
+      <c r="B2400">
+        <v>1</v>
+      </c>
+      <c r="C2400">
+        <v>7</v>
+      </c>
+      <c r="D2400" t="s">
+        <v>5496</v>
+      </c>
+      <c r="E2400" t="s">
+        <v>5497</v>
+      </c>
+      <c r="F2400" t="s">
+        <v>5498</v>
+      </c>
+      <c r="G2400">
+        <v>0</v>
+      </c>
+      <c r="H2400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:8">
+      <c r="A2401">
+        <v>2400</v>
+      </c>
+      <c r="B2401">
+        <v>1</v>
+      </c>
+      <c r="C2401">
+        <v>7</v>
+      </c>
+      <c r="D2401" t="s">
+        <v>5499</v>
+      </c>
+      <c r="E2401" t="s">
+        <v>5500</v>
+      </c>
+      <c r="F2401" t="s">
+        <v>5501</v>
+      </c>
+      <c r="G2401">
+        <v>0</v>
+      </c>
+      <c r="H2401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:8">
+      <c r="A2402">
+        <v>2401</v>
+      </c>
+      <c r="B2402">
+        <v>1</v>
+      </c>
+      <c r="C2402">
+        <v>7</v>
+      </c>
+      <c r="D2402" t="s">
+        <v>5502</v>
+      </c>
+      <c r="E2402" t="s">
+        <v>5500</v>
+      </c>
+      <c r="F2402" t="s">
+        <v>5503</v>
+      </c>
+      <c r="G2402">
+        <v>0</v>
+      </c>
+      <c r="H2402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:8">
+      <c r="A2403">
+        <v>2402</v>
+      </c>
+      <c r="B2403">
+        <v>1</v>
+      </c>
+      <c r="C2403">
+        <v>7</v>
+      </c>
+      <c r="D2403" t="s">
+        <v>5504</v>
+      </c>
+      <c r="E2403" t="s">
+        <v>5505</v>
+      </c>
+      <c r="F2403" t="s">
+        <v>5503</v>
+      </c>
+      <c r="G2403">
+        <v>0</v>
+      </c>
+      <c r="H2403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:8">
+      <c r="A2404">
+        <v>2403</v>
+      </c>
+      <c r="B2404">
+        <v>1</v>
+      </c>
+      <c r="C2404">
+        <v>7</v>
+      </c>
+      <c r="D2404" t="s">
+        <v>5506</v>
+      </c>
+      <c r="E2404" t="s">
+        <v>5505</v>
+      </c>
+      <c r="F2404" t="s">
+        <v>5507</v>
+      </c>
+      <c r="G2404">
+        <v>0</v>
+      </c>
+      <c r="H2404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:8">
+      <c r="A2405">
+        <v>2404</v>
+      </c>
+      <c r="B2405">
+        <v>1</v>
+      </c>
+      <c r="C2405">
+        <v>7</v>
+      </c>
+      <c r="D2405" t="s">
+        <v>5508</v>
+      </c>
+      <c r="E2405" t="s">
+        <v>5509</v>
+      </c>
+      <c r="F2405" t="s">
+        <v>5510</v>
+      </c>
+      <c r="G2405">
+        <v>0</v>
+      </c>
+      <c r="H2405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:8">
+      <c r="A2406">
+        <v>2405</v>
+      </c>
+      <c r="B2406">
+        <v>1</v>
+      </c>
+      <c r="C2406">
+        <v>7</v>
+      </c>
+      <c r="D2406" t="s">
+        <v>2483</v>
+      </c>
+      <c r="E2406" t="s">
+        <v>5511</v>
+      </c>
+      <c r="F2406" t="s">
+        <v>5510</v>
+      </c>
+      <c r="G2406">
+        <v>0</v>
+      </c>
+      <c r="H2406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:8">
+      <c r="A2407">
+        <v>2406</v>
+      </c>
+      <c r="B2407">
+        <v>1</v>
+      </c>
+      <c r="C2407">
+        <v>7</v>
+      </c>
+      <c r="D2407" t="s">
+        <v>5512</v>
+      </c>
+      <c r="E2407" t="s">
+        <v>5510</v>
+      </c>
+      <c r="F2407" t="s">
+        <v>5513</v>
+      </c>
+      <c r="G2407">
+        <v>0</v>
+      </c>
+      <c r="H2407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:8">
+      <c r="A2408">
+        <v>2407</v>
+      </c>
+      <c r="B2408">
+        <v>1</v>
+      </c>
+      <c r="C2408">
+        <v>7</v>
+      </c>
+      <c r="D2408" t="s">
+        <v>5514</v>
+      </c>
+      <c r="E2408" t="s">
+        <v>5515</v>
+      </c>
+      <c r="F2408" t="s">
+        <v>5516</v>
+      </c>
+      <c r="G2408">
+        <v>0</v>
+      </c>
+      <c r="H2408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:8">
+      <c r="A2409">
+        <v>2408</v>
+      </c>
+      <c r="B2409">
+        <v>1</v>
+      </c>
+      <c r="C2409">
+        <v>7</v>
+      </c>
+      <c r="D2409" t="s">
+        <v>5517</v>
+      </c>
+      <c r="E2409" t="s">
+        <v>5515</v>
+      </c>
+      <c r="F2409" t="s">
+        <v>5516</v>
+      </c>
+      <c r="G2409">
+        <v>0</v>
+      </c>
+      <c r="H2409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:8">
+      <c r="A2410">
+        <v>2409</v>
+      </c>
+      <c r="B2410">
+        <v>1</v>
+      </c>
+      <c r="C2410">
+        <v>7</v>
+      </c>
+      <c r="D2410" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E2410" t="s">
+        <v>5518</v>
+      </c>
+      <c r="F2410" t="s">
+        <v>5519</v>
+      </c>
+      <c r="G2410">
+        <v>0</v>
+      </c>
+      <c r="H2410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:8">
+      <c r="A2411">
+        <v>2410</v>
+      </c>
+      <c r="B2411">
+        <v>1</v>
+      </c>
+      <c r="C2411">
+        <v>7</v>
+      </c>
+      <c r="D2411" t="s">
+        <v>5235</v>
+      </c>
+      <c r="E2411" t="s">
+        <v>5516</v>
+      </c>
+      <c r="F2411" t="s">
+        <v>5520</v>
+      </c>
+      <c r="G2411">
+        <v>0</v>
+      </c>
+      <c r="H2411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:8">
+      <c r="A2412">
+        <v>2411</v>
+      </c>
+      <c r="B2412">
+        <v>1</v>
+      </c>
+      <c r="C2412">
+        <v>7</v>
+      </c>
+      <c r="D2412" t="s">
+        <v>5521</v>
+      </c>
+      <c r="E2412" t="s">
+        <v>5522</v>
+      </c>
+      <c r="F2412" t="s">
+        <v>5523</v>
+      </c>
+      <c r="G2412">
+        <v>0</v>
+      </c>
+      <c r="H2412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:8">
+      <c r="A2413">
+        <v>2412</v>
+      </c>
+      <c r="B2413">
+        <v>1</v>
+      </c>
+      <c r="C2413">
+        <v>7</v>
+      </c>
+      <c r="D2413" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2413" t="s">
+        <v>5524</v>
+      </c>
+      <c r="F2413" t="s">
+        <v>5525</v>
+      </c>
+      <c r="G2413">
+        <v>0</v>
+      </c>
+      <c r="H2413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:8">
+      <c r="A2414">
+        <v>2413</v>
+      </c>
+      <c r="B2414">
+        <v>1</v>
+      </c>
+      <c r="C2414">
+        <v>7</v>
+      </c>
+      <c r="D2414" t="s">
+        <v>5526</v>
+      </c>
+      <c r="E2414" t="s">
+        <v>5527</v>
+      </c>
+      <c r="F2414" t="s">
+        <v>5528</v>
+      </c>
+      <c r="G2414">
+        <v>0</v>
+      </c>
+      <c r="H2414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:8">
+      <c r="A2415">
+        <v>2414</v>
+      </c>
+      <c r="B2415">
+        <v>1</v>
+      </c>
+      <c r="C2415">
+        <v>7</v>
+      </c>
+      <c r="D2415" t="s">
+        <v>5529</v>
+      </c>
+      <c r="E2415" t="s">
+        <v>5527</v>
+      </c>
+      <c r="F2415" t="s">
+        <v>5530</v>
+      </c>
+      <c r="G2415">
+        <v>0</v>
+      </c>
+      <c r="H2415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:8">
+      <c r="A2416">
+        <v>2415</v>
+      </c>
+      <c r="B2416">
+        <v>1</v>
+      </c>
+      <c r="C2416">
+        <v>7</v>
+      </c>
+      <c r="D2416" t="s">
+        <v>5531</v>
+      </c>
+      <c r="E2416" t="s">
+        <v>5532</v>
+      </c>
+      <c r="F2416" t="s">
+        <v>5533</v>
+      </c>
+      <c r="G2416">
+        <v>0</v>
+      </c>
+      <c r="H2416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:8">
+      <c r="A2417">
+        <v>2416</v>
+      </c>
+      <c r="B2417">
+        <v>1</v>
+      </c>
+      <c r="C2417">
+        <v>7</v>
+      </c>
+      <c r="D2417" t="s">
+        <v>759</v>
+      </c>
+      <c r="E2417" t="s">
+        <v>5532</v>
+      </c>
+      <c r="F2417" t="s">
+        <v>5534</v>
+      </c>
+      <c r="G2417">
+        <v>0</v>
+      </c>
+      <c r="H2417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:8">
+      <c r="A2418">
+        <v>2417</v>
+      </c>
+      <c r="B2418">
+        <v>1</v>
+      </c>
+      <c r="C2418">
+        <v>7</v>
+      </c>
+      <c r="D2418" t="s">
+        <v>4421</v>
+      </c>
+      <c r="E2418" t="s">
+        <v>5535</v>
+      </c>
+      <c r="F2418" t="s">
+        <v>5536</v>
+      </c>
+      <c r="G2418">
+        <v>0</v>
+      </c>
+      <c r="H2418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:8">
+      <c r="A2419">
+        <v>2418</v>
+      </c>
+      <c r="B2419">
+        <v>1</v>
+      </c>
+      <c r="C2419">
+        <v>7</v>
+      </c>
+      <c r="D2419" t="s">
+        <v>837</v>
+      </c>
+      <c r="E2419" t="s">
+        <v>5537</v>
+      </c>
+      <c r="F2419" t="s">
+        <v>5538</v>
+      </c>
+      <c r="G2419">
+        <v>0</v>
+      </c>
+      <c r="H2419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:8">
+      <c r="A2420">
+        <v>2419</v>
+      </c>
+      <c r="B2420">
+        <v>1</v>
+      </c>
+      <c r="C2420">
+        <v>7</v>
+      </c>
+      <c r="D2420" t="s">
+        <v>5539</v>
+      </c>
+      <c r="E2420" t="s">
+        <v>5540</v>
+      </c>
+      <c r="F2420" t="s">
+        <v>5541</v>
+      </c>
+      <c r="G2420">
+        <v>0</v>
+      </c>
+      <c r="H2420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:8">
+      <c r="A2421">
+        <v>2420</v>
+      </c>
+      <c r="B2421">
+        <v>1</v>
+      </c>
+      <c r="C2421">
+        <v>7</v>
+      </c>
+      <c r="D2421" t="s">
+        <v>5542</v>
+      </c>
+      <c r="E2421" t="s">
+        <v>5540</v>
+      </c>
+      <c r="F2421" t="s">
+        <v>5543</v>
+      </c>
+      <c r="G2421">
+        <v>0</v>
+      </c>
+      <c r="H2421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:8">
+      <c r="A2422">
+        <v>2421</v>
+      </c>
+      <c r="B2422">
+        <v>1</v>
+      </c>
+      <c r="C2422">
+        <v>7</v>
+      </c>
+      <c r="D2422" t="s">
+        <v>5544</v>
+      </c>
+      <c r="E2422" t="s">
+        <v>5540</v>
+      </c>
+      <c r="F2422" t="s">
+        <v>5543</v>
+      </c>
+      <c r="G2422">
+        <v>0</v>
+      </c>
+      <c r="H2422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:8">
+      <c r="A2423">
+        <v>2422</v>
+      </c>
+      <c r="B2423">
+        <v>1</v>
+      </c>
+      <c r="C2423">
+        <v>7</v>
+      </c>
+      <c r="D2423" t="s">
+        <v>5485</v>
+      </c>
+      <c r="E2423" t="s">
+        <v>5545</v>
+      </c>
+      <c r="F2423" t="s">
+        <v>5546</v>
+      </c>
+      <c r="G2423">
+        <v>0</v>
+      </c>
+      <c r="H2423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:8">
+      <c r="A2424">
+        <v>2423</v>
+      </c>
+      <c r="B2424">
+        <v>1</v>
+      </c>
+      <c r="C2424">
+        <v>7</v>
+      </c>
+      <c r="D2424" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2424" t="s">
+        <v>5547</v>
+      </c>
+      <c r="F2424" t="s">
+        <v>5546</v>
+      </c>
+      <c r="G2424">
+        <v>0</v>
+      </c>
+      <c r="H2424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:8">
+      <c r="A2425">
+        <v>2424</v>
+      </c>
+      <c r="B2425">
+        <v>1</v>
+      </c>
+      <c r="C2425">
+        <v>7</v>
+      </c>
+      <c r="D2425" t="s">
+        <v>5548</v>
+      </c>
+      <c r="E2425" t="s">
+        <v>5549</v>
+      </c>
+      <c r="F2425" t="s">
+        <v>5550</v>
+      </c>
+      <c r="G2425">
+        <v>0</v>
+      </c>
+      <c r="H2425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:8">
+      <c r="A2426">
+        <v>2425</v>
+      </c>
+      <c r="B2426">
+        <v>1</v>
+      </c>
+      <c r="C2426">
+        <v>7</v>
+      </c>
+      <c r="D2426" t="s">
+        <v>5551</v>
+      </c>
+      <c r="E2426" t="s">
+        <v>5552</v>
+      </c>
+      <c r="F2426" t="s">
+        <v>5553</v>
+      </c>
+      <c r="G2426">
+        <v>0</v>
+      </c>
+      <c r="H2426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:8">
+      <c r="A2427">
+        <v>2426</v>
+      </c>
+      <c r="B2427">
+        <v>1</v>
+      </c>
+      <c r="C2427">
+        <v>7</v>
+      </c>
+      <c r="D2427" t="s">
+        <v>5554</v>
+      </c>
+      <c r="E2427" t="s">
+        <v>5555</v>
+      </c>
+      <c r="F2427" t="s">
+        <v>5556</v>
+      </c>
+      <c r="G2427">
+        <v>0</v>
+      </c>
+      <c r="H2427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:8">
+      <c r="A2428">
+        <v>2427</v>
+      </c>
+      <c r="B2428">
+        <v>1</v>
+      </c>
+      <c r="C2428">
+        <v>7</v>
+      </c>
+      <c r="D2428" t="s">
+        <v>5554</v>
+      </c>
+      <c r="E2428" t="s">
+        <v>5557</v>
+      </c>
+      <c r="F2428" t="s">
+        <v>5558</v>
+      </c>
+      <c r="G2428">
+        <v>0</v>
+      </c>
+      <c r="H2428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:8">
+      <c r="A2429">
+        <v>2428</v>
+      </c>
+      <c r="B2429">
+        <v>1</v>
+      </c>
+      <c r="C2429">
+        <v>7</v>
+      </c>
+      <c r="D2429" t="s">
+        <v>5559</v>
+      </c>
+      <c r="E2429" t="s">
+        <v>5560</v>
+      </c>
+      <c r="F2429" t="s">
+        <v>5561</v>
+      </c>
+      <c r="G2429">
+        <v>0</v>
+      </c>
+      <c r="H2429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:8">
+      <c r="A2430">
+        <v>2429</v>
+      </c>
+      <c r="B2430">
+        <v>1</v>
+      </c>
+      <c r="C2430">
+        <v>7</v>
+      </c>
+      <c r="D2430" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E2430" t="s">
+        <v>5560</v>
+      </c>
+      <c r="F2430" t="s">
+        <v>5561</v>
+      </c>
+      <c r="G2430">
+        <v>0</v>
+      </c>
+      <c r="H2430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:8">
+      <c r="A2431">
+        <v>2430</v>
+      </c>
+      <c r="B2431">
+        <v>1</v>
+      </c>
+      <c r="C2431">
+        <v>7</v>
+      </c>
+      <c r="D2431" t="s">
+        <v>4434</v>
+      </c>
+      <c r="E2431" t="s">
+        <v>5562</v>
+      </c>
+      <c r="F2431" t="s">
+        <v>5563</v>
+      </c>
+      <c r="G2431">
+        <v>0</v>
+      </c>
+      <c r="H2431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:8">
+      <c r="A2432">
+        <v>2431</v>
+      </c>
+      <c r="B2432">
+        <v>1</v>
+      </c>
+      <c r="C2432">
+        <v>7</v>
+      </c>
+      <c r="D2432" t="s">
+        <v>5564</v>
+      </c>
+      <c r="E2432" t="s">
+        <v>5565</v>
+      </c>
+      <c r="F2432" t="s">
+        <v>5566</v>
+      </c>
+      <c r="G2432">
+        <v>0</v>
+      </c>
+      <c r="H2432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:8">
+      <c r="A2433">
+        <v>2432</v>
+      </c>
+      <c r="B2433">
+        <v>1</v>
+      </c>
+      <c r="C2433">
+        <v>7</v>
+      </c>
+      <c r="D2433" t="s">
+        <v>855</v>
+      </c>
+      <c r="E2433" t="s">
+        <v>5567</v>
+      </c>
+      <c r="F2433" t="s">
+        <v>5568</v>
+      </c>
+      <c r="G2433">
+        <v>0</v>
+      </c>
+      <c r="H2433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:8">
+      <c r="A2434">
+        <v>2433</v>
+      </c>
+      <c r="B2434">
+        <v>1</v>
+      </c>
+      <c r="C2434">
+        <v>7</v>
+      </c>
+      <c r="D2434" t="s">
+        <v>5569</v>
+      </c>
+      <c r="E2434" t="s">
+        <v>5570</v>
+      </c>
+      <c r="F2434" t="s">
+        <v>5571</v>
+      </c>
+      <c r="G2434">
+        <v>0</v>
+      </c>
+      <c r="H2434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:8">
+      <c r="A2435">
+        <v>2434</v>
+      </c>
+      <c r="B2435">
+        <v>1</v>
+      </c>
+      <c r="C2435">
+        <v>7</v>
+      </c>
+      <c r="D2435" t="s">
+        <v>5572</v>
+      </c>
+      <c r="E2435" t="s">
+        <v>5573</v>
+      </c>
+      <c r="F2435" t="s">
+        <v>5571</v>
+      </c>
+      <c r="G2435">
+        <v>0</v>
+      </c>
+      <c r="H2435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:8">
+      <c r="A2436">
+        <v>2435</v>
+      </c>
+      <c r="B2436">
+        <v>1</v>
+      </c>
+      <c r="C2436">
+        <v>7</v>
+      </c>
+      <c r="D2436" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2436" t="s">
+        <v>5574</v>
+      </c>
+      <c r="F2436" t="s">
+        <v>5575</v>
+      </c>
+      <c r="G2436">
+        <v>0</v>
+      </c>
+      <c r="H2436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:8">
+      <c r="A2437">
+        <v>2436</v>
+      </c>
+      <c r="B2437">
+        <v>1</v>
+      </c>
+      <c r="C2437">
+        <v>7</v>
+      </c>
+      <c r="D2437" t="s">
+        <v>5578</v>
+      </c>
+      <c r="E2437" t="s">
+        <v>5576</v>
+      </c>
+      <c r="F2437" t="s">
+        <v>5577</v>
+      </c>
+      <c r="G2437">
+        <v>0</v>
+      </c>
+      <c r="H2437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:8">
+      <c r="A2438">
+        <v>2437</v>
+      </c>
+      <c r="B2438">
+        <v>1</v>
+      </c>
+      <c r="C2438">
+        <v>7</v>
+      </c>
+      <c r="D2438" t="s">
+        <v>5579</v>
+      </c>
+      <c r="E2438" t="s">
+        <v>5580</v>
+      </c>
+      <c r="F2438" t="s">
+        <v>5577</v>
+      </c>
+      <c r="G2438">
+        <v>0</v>
+      </c>
+      <c r="H2438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:8">
+      <c r="A2439">
+        <v>2438</v>
+      </c>
+      <c r="B2439">
+        <v>1</v>
+      </c>
+      <c r="C2439">
+        <v>7</v>
+      </c>
+      <c r="D2439" t="s">
+        <v>5581</v>
+      </c>
+      <c r="E2439" t="s">
+        <v>5582</v>
+      </c>
+      <c r="F2439" t="s">
+        <v>5583</v>
+      </c>
+      <c r="G2439">
+        <v>0</v>
+      </c>
+      <c r="H2439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:8">
+      <c r="A2440">
+        <v>2439</v>
+      </c>
+      <c r="B2440">
+        <v>1</v>
+      </c>
+      <c r="C2440">
+        <v>7</v>
+      </c>
+      <c r="D2440" t="s">
+        <v>2651</v>
+      </c>
+      <c r="E2440" t="s">
+        <v>5584</v>
+      </c>
+      <c r="F2440" t="s">
+        <v>5583</v>
+      </c>
+      <c r="G2440">
+        <v>0</v>
+      </c>
+      <c r="H2440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:8">
+      <c r="A2441">
+        <v>2440</v>
+      </c>
+      <c r="B2441">
+        <v>1</v>
+      </c>
+      <c r="C2441">
+        <v>7</v>
+      </c>
+      <c r="D2441" t="s">
+        <v>5585</v>
+      </c>
+      <c r="E2441" t="s">
+        <v>5586</v>
+      </c>
+      <c r="F2441" t="s">
+        <v>5587</v>
+      </c>
+      <c r="G2441">
+        <v>0</v>
+      </c>
+      <c r="H2441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:8">
+      <c r="A2442">
+        <v>2441</v>
+      </c>
+      <c r="B2442">
+        <v>1</v>
+      </c>
+      <c r="C2442">
+        <v>7</v>
+      </c>
+      <c r="D2442" t="s">
+        <v>5588</v>
+      </c>
+      <c r="E2442" t="s">
+        <v>5589</v>
+      </c>
+      <c r="F2442" t="s">
+        <v>5590</v>
+      </c>
+      <c r="G2442">
+        <v>0</v>
+      </c>
+      <c r="H2442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:8">
+      <c r="A2443">
+        <v>2442</v>
+      </c>
+      <c r="B2443">
+        <v>1</v>
+      </c>
+      <c r="C2443">
+        <v>7</v>
+      </c>
+      <c r="D2443" t="s">
+        <v>5591</v>
+      </c>
+      <c r="E2443" t="s">
+        <v>5592</v>
+      </c>
+      <c r="F2443" t="s">
+        <v>5593</v>
+      </c>
+      <c r="G2443">
+        <v>0</v>
+      </c>
+      <c r="H2443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:8">
+      <c r="A2444">
+        <v>2443</v>
+      </c>
+      <c r="B2444">
+        <v>1</v>
+      </c>
+      <c r="C2444">
+        <v>7</v>
+      </c>
+      <c r="D2444" t="s">
+        <v>5594</v>
+      </c>
+      <c r="E2444" t="s">
+        <v>5590</v>
+      </c>
+      <c r="F2444" t="s">
+        <v>5595</v>
+      </c>
+      <c r="G2444">
+        <v>0</v>
+      </c>
+      <c r="H2444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:8">
+      <c r="A2445">
+        <v>2444</v>
+      </c>
+      <c r="B2445">
+        <v>1</v>
+      </c>
+      <c r="C2445">
+        <v>7</v>
+      </c>
+      <c r="D2445" t="s">
+        <v>3824</v>
+      </c>
+      <c r="E2445" t="s">
+        <v>5596</v>
+      </c>
+      <c r="F2445" t="s">
+        <v>5597</v>
+      </c>
+      <c r="G2445">
+        <v>0</v>
+      </c>
+      <c r="H2445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:8">
+      <c r="A2446">
+        <v>2445</v>
+      </c>
+      <c r="B2446">
+        <v>1</v>
+      </c>
+      <c r="C2446">
+        <v>7</v>
+      </c>
+      <c r="D2446" t="s">
+        <v>5598</v>
+      </c>
+      <c r="E2446" t="s">
+        <v>5599</v>
+      </c>
+      <c r="F2446" t="s">
+        <v>5600</v>
+      </c>
+      <c r="G2446">
+        <v>0</v>
+      </c>
+      <c r="H2446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:8">
+      <c r="A2447">
+        <v>2446</v>
+      </c>
+      <c r="B2447">
+        <v>1</v>
+      </c>
+      <c r="C2447">
+        <v>7</v>
+      </c>
+      <c r="D2447" t="s">
+        <v>5601</v>
+      </c>
+      <c r="E2447" t="s">
+        <v>5602</v>
+      </c>
+      <c r="F2447" t="s">
+        <v>5603</v>
+      </c>
+      <c r="G2447">
+        <v>0</v>
+      </c>
+      <c r="H2447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:8">
+      <c r="A2448">
+        <v>2447</v>
+      </c>
+      <c r="B2448">
+        <v>1</v>
+      </c>
+      <c r="C2448">
+        <v>7</v>
+      </c>
+      <c r="D2448" t="s">
+        <v>966</v>
+      </c>
+      <c r="E2448" t="s">
+        <v>5604</v>
+      </c>
+      <c r="F2448" t="s">
+        <v>5605</v>
+      </c>
+      <c r="G2448">
+        <v>0</v>
+      </c>
+      <c r="H2448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:8">
+      <c r="A2449">
+        <v>2448</v>
+      </c>
+      <c r="B2449">
+        <v>1</v>
+      </c>
+      <c r="C2449">
+        <v>7</v>
+      </c>
+      <c r="D2449" t="s">
+        <v>5606</v>
+      </c>
+      <c r="E2449" t="s">
+        <v>5607</v>
+      </c>
+      <c r="F2449" t="s">
+        <v>5608</v>
+      </c>
+      <c r="G2449">
+        <v>0</v>
+      </c>
+      <c r="H2449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:8">
+      <c r="A2450">
+        <v>2449</v>
+      </c>
+      <c r="B2450">
+        <v>1</v>
+      </c>
+      <c r="C2450">
+        <v>7</v>
+      </c>
+      <c r="D2450" t="s">
+        <v>5609</v>
+      </c>
+      <c r="E2450" t="s">
+        <v>5610</v>
+      </c>
+      <c r="F2450" t="s">
+        <v>5611</v>
+      </c>
+      <c r="G2450">
+        <v>0</v>
+      </c>
+      <c r="H2450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:8">
+      <c r="A2451">
+        <v>2450</v>
+      </c>
+      <c r="B2451">
+        <v>1</v>
+      </c>
+      <c r="C2451">
+        <v>7</v>
+      </c>
+      <c r="D2451" t="s">
+        <v>5612</v>
+      </c>
+      <c r="E2451" t="s">
+        <v>5613</v>
+      </c>
+      <c r="F2451" t="s">
+        <v>5614</v>
+      </c>
+      <c r="G2451">
+        <v>0</v>
+      </c>
+      <c r="H2451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:8">
+      <c r="A2452">
+        <v>2451</v>
+      </c>
+      <c r="B2452">
+        <v>1</v>
+      </c>
+      <c r="C2452">
+        <v>7</v>
+      </c>
+      <c r="D2452" t="s">
+        <v>5615</v>
+      </c>
+      <c r="E2452" t="s">
+        <v>5616</v>
+      </c>
+      <c r="F2452" t="s">
+        <v>5617</v>
+      </c>
+      <c r="G2452">
+        <v>0</v>
+      </c>
+      <c r="H2452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:8">
+      <c r="A2453">
+        <v>2452</v>
+      </c>
+      <c r="B2453">
+        <v>1</v>
+      </c>
+      <c r="C2453">
+        <v>7</v>
+      </c>
+      <c r="D2453" t="s">
+        <v>5618</v>
+      </c>
+      <c r="E2453" t="s">
+        <v>5611</v>
+      </c>
+      <c r="F2453" t="s">
+        <v>5619</v>
+      </c>
+      <c r="G2453">
+        <v>0</v>
+      </c>
+      <c r="H2453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:8">
+      <c r="A2454">
+        <v>2453</v>
+      </c>
+      <c r="B2454">
+        <v>1</v>
+      </c>
+      <c r="C2454">
+        <v>7</v>
+      </c>
+      <c r="D2454" t="s">
+        <v>5620</v>
+      </c>
+      <c r="E2454" t="s">
+        <v>5614</v>
+      </c>
+      <c r="F2454" t="s">
+        <v>5619</v>
+      </c>
+      <c r="G2454">
+        <v>0</v>
+      </c>
+      <c r="H2454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:8">
+      <c r="A2455">
+        <v>2454</v>
+      </c>
+      <c r="B2455">
+        <v>1</v>
+      </c>
+      <c r="C2455">
+        <v>7</v>
+      </c>
+      <c r="D2455" t="s">
+        <v>2566</v>
+      </c>
+      <c r="E2455" t="s">
+        <v>5621</v>
+      </c>
+      <c r="F2455" t="s">
+        <v>5622</v>
+      </c>
+      <c r="G2455">
+        <v>0</v>
+      </c>
+      <c r="H2455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:8">
+      <c r="A2456">
+        <v>2455</v>
+      </c>
+      <c r="B2456">
+        <v>1</v>
+      </c>
+      <c r="C2456">
+        <v>7</v>
+      </c>
+      <c r="D2456" t="s">
+        <v>5623</v>
+      </c>
+      <c r="E2456" t="s">
+        <v>5621</v>
+      </c>
+      <c r="F2456" t="s">
+        <v>5624</v>
+      </c>
+      <c r="G2456">
+        <v>0</v>
+      </c>
+      <c r="H2456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:8">
+      <c r="A2457">
+        <v>2456</v>
+      </c>
+      <c r="B2457">
+        <v>1</v>
+      </c>
+      <c r="C2457">
+        <v>7</v>
+      </c>
+      <c r="D2457" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E2457" t="s">
+        <v>5625</v>
+      </c>
+      <c r="F2457" t="s">
+        <v>5626</v>
+      </c>
+      <c r="G2457">
+        <v>0</v>
+      </c>
+      <c r="H2457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:8">
+      <c r="A2458">
+        <v>2457</v>
+      </c>
+      <c r="B2458">
+        <v>1</v>
+      </c>
+      <c r="C2458">
+        <v>7</v>
+      </c>
+      <c r="D2458" t="s">
+        <v>5627</v>
+      </c>
+      <c r="E2458" t="s">
+        <v>5628</v>
+      </c>
+      <c r="F2458" t="s">
+        <v>5629</v>
+      </c>
+      <c r="G2458">
+        <v>0</v>
+      </c>
+      <c r="H2458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:8">
+      <c r="A2459">
+        <v>2458</v>
+      </c>
+      <c r="B2459">
+        <v>1</v>
+      </c>
+      <c r="C2459">
+        <v>7</v>
+      </c>
+      <c r="D2459" t="s">
+        <v>474</v>
+      </c>
+      <c r="E2459" t="s">
+        <v>5628</v>
+      </c>
+      <c r="F2459" t="s">
+        <v>5630</v>
+      </c>
+      <c r="G2459">
+        <v>0</v>
+      </c>
+      <c r="H2459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:8">
+      <c r="A2460">
+        <v>2459</v>
+      </c>
+      <c r="B2460">
+        <v>1</v>
+      </c>
+      <c r="C2460">
+        <v>7</v>
+      </c>
+      <c r="D2460" t="s">
+        <v>5631</v>
+      </c>
+      <c r="E2460" t="s">
+        <v>5632</v>
+      </c>
+      <c r="F2460" t="s">
+        <v>5633</v>
+      </c>
+      <c r="G2460">
+        <v>0</v>
+      </c>
+      <c r="H2460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:8">
+      <c r="A2461">
+        <v>2460</v>
+      </c>
+      <c r="B2461">
+        <v>1</v>
+      </c>
+      <c r="C2461">
+        <v>7</v>
+      </c>
+      <c r="D2461" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E2461" t="s">
+        <v>5634</v>
+      </c>
+      <c r="F2461" t="s">
+        <v>5635</v>
+      </c>
+      <c r="G2461">
+        <v>0</v>
+      </c>
+      <c r="H2461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:8">
+      <c r="A2462">
+        <v>2461</v>
+      </c>
+      <c r="B2462">
+        <v>1</v>
+      </c>
+      <c r="C2462">
+        <v>7</v>
+      </c>
+      <c r="D2462" t="s">
+        <v>3315</v>
+      </c>
+      <c r="E2462" t="s">
+        <v>5636</v>
+      </c>
+      <c r="F2462" t="s">
+        <v>5637</v>
+      </c>
+      <c r="G2462">
+        <v>0</v>
+      </c>
+      <c r="H2462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:8">
+      <c r="A2463">
+        <v>2462</v>
+      </c>
+      <c r="B2463">
+        <v>1</v>
+      </c>
+      <c r="C2463">
+        <v>7</v>
+      </c>
+      <c r="D2463" t="s">
+        <v>5638</v>
+      </c>
+      <c r="E2463" t="s">
+        <v>5639</v>
+      </c>
+      <c r="F2463" t="s">
+        <v>5640</v>
+      </c>
+      <c r="G2463">
+        <v>0</v>
+      </c>
+      <c r="H2463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:8">
+      <c r="A2464">
+        <v>2463</v>
+      </c>
+      <c r="B2464">
+        <v>1</v>
+      </c>
+      <c r="C2464">
+        <v>7</v>
+      </c>
+      <c r="D2464" t="s">
+        <v>5641</v>
+      </c>
+      <c r="E2464" t="s">
+        <v>5639</v>
+      </c>
+      <c r="F2464" t="s">
+        <v>5642</v>
+      </c>
+      <c r="G2464">
+        <v>0</v>
+      </c>
+      <c r="H2464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:8">
+      <c r="A2465">
+        <v>2464</v>
+      </c>
+      <c r="B2465">
+        <v>1</v>
+      </c>
+      <c r="C2465">
+        <v>7</v>
+      </c>
+      <c r="D2465" t="s">
+        <v>5643</v>
+      </c>
+      <c r="E2465" t="s">
+        <v>5644</v>
+      </c>
+      <c r="F2465" t="s">
+        <v>5645</v>
+      </c>
+      <c r="G2465">
+        <v>0</v>
+      </c>
+      <c r="H2465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:8">
+      <c r="A2466">
+        <v>2465</v>
+      </c>
+      <c r="B2466">
+        <v>1</v>
+      </c>
+      <c r="C2466">
+        <v>7</v>
+      </c>
+      <c r="D2466" t="s">
+        <v>3782</v>
+      </c>
+      <c r="E2466" t="s">
+        <v>5646</v>
+      </c>
+      <c r="F2466" t="s">
+        <v>5645</v>
+      </c>
+      <c r="G2466">
+        <v>0</v>
+      </c>
+      <c r="H2466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:8">
+      <c r="A2467">
+        <v>2466</v>
+      </c>
+      <c r="B2467">
+        <v>1</v>
+      </c>
+      <c r="C2467">
+        <v>7</v>
+      </c>
+      <c r="D2467" t="s">
+        <v>5647</v>
+      </c>
+      <c r="E2467" t="s">
+        <v>5648</v>
+      </c>
+      <c r="F2467" t="s">
+        <v>5649</v>
+      </c>
+      <c r="G2467">
+        <v>0</v>
+      </c>
+      <c r="H2467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:8">
+      <c r="A2468">
+        <v>2467</v>
+      </c>
+      <c r="B2468">
+        <v>1</v>
+      </c>
+      <c r="C2468">
+        <v>7</v>
+      </c>
+      <c r="D2468" t="s">
+        <v>5650</v>
+      </c>
+      <c r="E2468" t="s">
+        <v>5651</v>
+      </c>
+      <c r="F2468" t="s">
+        <v>5652</v>
+      </c>
+      <c r="G2468">
+        <v>0</v>
+      </c>
+      <c r="H2468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:8">
+      <c r="A2469">
+        <v>2468</v>
+      </c>
+      <c r="B2469">
+        <v>1</v>
+      </c>
+      <c r="C2469">
+        <v>7</v>
+      </c>
+      <c r="D2469" t="s">
+        <v>3631</v>
+      </c>
+      <c r="E2469" t="s">
+        <v>5653</v>
+      </c>
+      <c r="F2469" t="s">
+        <v>5654</v>
+      </c>
+      <c r="G2469">
+        <v>0</v>
+      </c>
+      <c r="H2469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:8">
+      <c r="A2470">
+        <v>2469</v>
+      </c>
+      <c r="B2470">
+        <v>1</v>
+      </c>
+      <c r="C2470">
+        <v>7</v>
+      </c>
+      <c r="D2470" t="s">
+        <v>5655</v>
+      </c>
+      <c r="E2470" t="s">
+        <v>5656</v>
+      </c>
+      <c r="F2470" t="s">
+        <v>5657</v>
+      </c>
+      <c r="G2470">
+        <v>0</v>
+      </c>
+      <c r="H2470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:8">
+      <c r="A2471">
+        <v>2470</v>
+      </c>
+      <c r="B2471">
+        <v>1</v>
+      </c>
+      <c r="C2471">
+        <v>7</v>
+      </c>
+      <c r="D2471" t="s">
+        <v>5658</v>
+      </c>
+      <c r="E2471" t="s">
+        <v>5656</v>
+      </c>
+      <c r="F2471" t="s">
+        <v>5659</v>
+      </c>
+      <c r="G2471">
+        <v>0</v>
+      </c>
+      <c r="H2471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:8">
+      <c r="A2472">
+        <v>2471</v>
+      </c>
+      <c r="B2472">
+        <v>1</v>
+      </c>
+      <c r="C2472">
+        <v>7</v>
+      </c>
+      <c r="D2472" t="s">
+        <v>5660</v>
+      </c>
+      <c r="E2472" t="s">
+        <v>5661</v>
+      </c>
+      <c r="F2472" t="s">
+        <v>5662</v>
+      </c>
+      <c r="G2472">
+        <v>0</v>
+      </c>
+      <c r="H2472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:8">
+      <c r="A2473">
+        <v>2472</v>
+      </c>
+      <c r="B2473">
+        <v>1</v>
+      </c>
+      <c r="C2473">
+        <v>7</v>
+      </c>
+      <c r="D2473" t="s">
+        <v>5663</v>
+      </c>
+      <c r="E2473" t="s">
+        <v>5662</v>
+      </c>
+      <c r="F2473" t="s">
+        <v>5664</v>
+      </c>
+      <c r="G2473">
+        <v>0</v>
+      </c>
+      <c r="H2473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:8">
+      <c r="A2474">
+        <v>2473</v>
+      </c>
+      <c r="B2474">
+        <v>1</v>
+      </c>
+      <c r="C2474">
+        <v>7</v>
+      </c>
+      <c r="G2474">
+        <v>0</v>
+      </c>
+      <c r="H2474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:8">
+      <c r="A2475">
+        <v>2474</v>
+      </c>
+      <c r="B2475">
+        <v>1</v>
+      </c>
+      <c r="C2475">
+        <v>7</v>
+      </c>
+      <c r="G2475">
+        <v>0</v>
+      </c>
+      <c r="H2475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:8">
+      <c r="A2476">
+        <v>2475</v>
+      </c>
+      <c r="B2476">
+        <v>1</v>
+      </c>
+      <c r="C2476">
+        <v>7</v>
+      </c>
+      <c r="G2476">
+        <v>0</v>
+      </c>
+      <c r="H2476">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:8">
+      <c r="A2477">
+        <v>2476</v>
+      </c>
+      <c r="B2477">
+        <v>1</v>
+      </c>
+      <c r="C2477">
+        <v>7</v>
+      </c>
+      <c r="G2477">
+        <v>0</v>
+      </c>
+      <c r="H2477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:8">
+      <c r="A2478">
+        <v>2477</v>
+      </c>
+      <c r="B2478">
+        <v>1</v>
+      </c>
+      <c r="C2478">
+        <v>7</v>
+      </c>
+      <c r="G2478">
+        <v>0</v>
+      </c>
+      <c r="H2478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:8">
+      <c r="A2479">
+        <v>2478</v>
+      </c>
+      <c r="B2479">
+        <v>1</v>
+      </c>
+      <c r="C2479">
+        <v>7</v>
+      </c>
+      <c r="G2479">
+        <v>0</v>
+      </c>
+      <c r="H2479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:8">
+      <c r="A2480">
+        <v>2479</v>
+      </c>
+      <c r="B2480">
+        <v>1</v>
+      </c>
+      <c r="C2480">
+        <v>7</v>
+      </c>
+      <c r="G2480">
+        <v>0</v>
+      </c>
+      <c r="H2480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:8">
+      <c r="A2481">
+        <v>2480</v>
+      </c>
+      <c r="B2481">
+        <v>1</v>
+      </c>
+      <c r="C2481">
+        <v>7</v>
+      </c>
+      <c r="G2481">
+        <v>0</v>
+      </c>
+      <c r="H2481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:8">
+      <c r="A2482">
+        <v>2481</v>
+      </c>
+      <c r="B2482">
+        <v>1</v>
+      </c>
+      <c r="C2482">
+        <v>7</v>
+      </c>
+      <c r="G2482">
+        <v>0</v>
+      </c>
+      <c r="H2482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:8">
+      <c r="A2483">
+        <v>2482</v>
+      </c>
+      <c r="B2483">
+        <v>1</v>
+      </c>
+      <c r="C2483">
+        <v>7</v>
+      </c>
+      <c r="G2483">
+        <v>0</v>
+      </c>
+      <c r="H2483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:8">
+      <c r="A2484">
+        <v>2483</v>
+      </c>
+      <c r="B2484">
+        <v>1</v>
+      </c>
+      <c r="C2484">
+        <v>7</v>
+      </c>
+      <c r="G2484">
+        <v>0</v>
+      </c>
+      <c r="H2484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:8">
+      <c r="A2485">
+        <v>2484</v>
+      </c>
+      <c r="B2485">
+        <v>1</v>
+      </c>
+      <c r="C2485">
+        <v>7</v>
+      </c>
+      <c r="G2485">
+        <v>0</v>
+      </c>
+      <c r="H2485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:8">
+      <c r="A2486">
+        <v>2485</v>
+      </c>
+      <c r="B2486">
+        <v>1</v>
+      </c>
+      <c r="C2486">
+        <v>7</v>
+      </c>
+      <c r="G2486">
+        <v>0</v>
+      </c>
+      <c r="H2486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:8">
+      <c r="A2487">
+        <v>2486</v>
+      </c>
+      <c r="B2487">
+        <v>1</v>
+      </c>
+      <c r="C2487">
+        <v>7</v>
+      </c>
+      <c r="G2487">
+        <v>0</v>
+      </c>
+      <c r="H2487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:8">
+      <c r="A2488">
+        <v>2487</v>
+      </c>
+      <c r="B2488">
+        <v>1</v>
+      </c>
+      <c r="C2488">
+        <v>7</v>
+      </c>
+      <c r="G2488">
+        <v>0</v>
+      </c>
+      <c r="H2488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:8">
+      <c r="A2489">
+        <v>2488</v>
+      </c>
+      <c r="B2489">
+        <v>1</v>
+      </c>
+      <c r="C2489">
+        <v>7</v>
+      </c>
+      <c r="G2489">
+        <v>0</v>
+      </c>
+      <c r="H2489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:8">
+      <c r="A2490">
+        <v>2489</v>
+      </c>
+      <c r="B2490">
+        <v>1</v>
+      </c>
+      <c r="C2490">
+        <v>7</v>
+      </c>
+      <c r="G2490">
+        <v>0</v>
+      </c>
+      <c r="H2490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:8">
+      <c r="A2491">
+        <v>2490</v>
+      </c>
+      <c r="B2491">
+        <v>1</v>
+      </c>
+      <c r="C2491">
+        <v>7</v>
+      </c>
+      <c r="G2491">
+        <v>0</v>
+      </c>
+      <c r="H2491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:8">
+      <c r="A2492">
+        <v>2491</v>
+      </c>
+      <c r="B2492">
+        <v>1</v>
+      </c>
+      <c r="C2492">
+        <v>7</v>
+      </c>
+      <c r="G2492">
+        <v>0</v>
+      </c>
+      <c r="H2492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:8">
+      <c r="A2493">
+        <v>2492</v>
+      </c>
+      <c r="B2493">
+        <v>1</v>
+      </c>
+      <c r="C2493">
+        <v>7</v>
+      </c>
+      <c r="G2493">
+        <v>0</v>
+      </c>
+      <c r="H2493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:8">
+      <c r="A2494">
+        <v>2493</v>
+      </c>
+      <c r="B2494">
+        <v>1</v>
+      </c>
+      <c r="C2494">
+        <v>7</v>
+      </c>
+      <c r="G2494">
+        <v>0</v>
+      </c>
+      <c r="H2494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:8">
+      <c r="A2495">
+        <v>2494</v>
+      </c>
+      <c r="B2495">
+        <v>1</v>
+      </c>
+      <c r="C2495">
+        <v>7</v>
+      </c>
+      <c r="G2495">
+        <v>0</v>
+      </c>
+      <c r="H2495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:8">
+      <c r="A2496">
+        <v>2495</v>
+      </c>
+      <c r="B2496">
+        <v>1</v>
+      </c>
+      <c r="C2496">
+        <v>7</v>
+      </c>
+      <c r="G2496">
+        <v>0</v>
+      </c>
+      <c r="H2496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:8">
+      <c r="A2497">
+        <v>2496</v>
+      </c>
+      <c r="B2497">
+        <v>1</v>
+      </c>
+      <c r="C2497">
+        <v>7</v>
+      </c>
+      <c r="G2497">
+        <v>0</v>
+      </c>
+      <c r="H2497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:8">
+      <c r="A2498">
+        <v>2497</v>
+      </c>
+      <c r="B2498">
+        <v>1</v>
+      </c>
+      <c r="C2498">
+        <v>7</v>
+      </c>
+      <c r="G2498">
+        <v>0</v>
+      </c>
+      <c r="H2498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:8">
+      <c r="A2499">
+        <v>2498</v>
+      </c>
+      <c r="B2499">
+        <v>1</v>
+      </c>
+      <c r="C2499">
+        <v>7</v>
+      </c>
+      <c r="G2499">
+        <v>0</v>
+      </c>
+      <c r="H2499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:8">
+      <c r="A2500">
+        <v>2499</v>
+      </c>
+      <c r="B2500">
+        <v>1</v>
+      </c>
+      <c r="C2500">
+        <v>7</v>
+      </c>
+      <c r="G2500">
+        <v>0</v>
+      </c>
+      <c r="H2500">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/spreadsheets/clips.xlsx
+++ b/spreadsheets/clips.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7424" uniqueCount="5665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7112" uniqueCount="5428">
   <si>
     <t>id</t>
   </si>
@@ -16306,717 +16306,6 @@
   </si>
   <si>
     <t>00;08;20;54</t>
-  </si>
-  <si>
-    <t>a very</t>
-  </si>
-  <si>
-    <t>00:08:20:21</t>
-  </si>
-  <si>
-    <t>00:08:21:04</t>
-  </si>
-  <si>
-    <t>00:08:20:35</t>
-  </si>
-  <si>
-    <t>00:08:21:05</t>
-  </si>
-  <si>
-    <t>00:08:21:40</t>
-  </si>
-  <si>
-    <t>00:08:21:41</t>
-  </si>
-  <si>
-    <t>00:08:22:12</t>
-  </si>
-  <si>
-    <t>thats it</t>
-  </si>
-  <si>
-    <t>00:08:24:57</t>
-  </si>
-  <si>
-    <t>00:08:25:25</t>
-  </si>
-  <si>
-    <t>that's it</t>
-  </si>
-  <si>
-    <t>fox 32 news</t>
-  </si>
-  <si>
-    <t>00:08:25:32</t>
-  </si>
-  <si>
-    <t>00:08:26:34</t>
-  </si>
-  <si>
-    <t>00:08:25:50</t>
-  </si>
-  <si>
-    <t>thirty two</t>
-  </si>
-  <si>
-    <t>00:08:26:18</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>00:08:26:15</t>
-  </si>
-  <si>
-    <t>00:08:26:35</t>
-  </si>
-  <si>
-    <t>00:08:26:49</t>
-  </si>
-  <si>
-    <t>thank you</t>
-  </si>
-  <si>
-    <t>00:08:27:07</t>
-  </si>
-  <si>
-    <t>so much</t>
-  </si>
-  <si>
-    <t>00:08:27:08</t>
-  </si>
-  <si>
-    <t>00:08:27:47</t>
-  </si>
-  <si>
-    <t>so much for</t>
-  </si>
-  <si>
-    <t>00:08:27:55</t>
-  </si>
-  <si>
-    <t>joining us</t>
-  </si>
-  <si>
-    <t>00:08:27:53</t>
-  </si>
-  <si>
-    <t>00:08:28:27</t>
-  </si>
-  <si>
-    <t>00:08:28:28</t>
-  </si>
-  <si>
-    <t>00:08:28:47</t>
-  </si>
-  <si>
-    <t>00:08:29:08</t>
-  </si>
-  <si>
-    <t>00:08:29:29</t>
-  </si>
-  <si>
-    <t>returns</t>
-  </si>
-  <si>
-    <t>00:08:29:30</t>
-  </si>
-  <si>
-    <t>00:08:30:03</t>
-  </si>
-  <si>
-    <t>tomorrow morning</t>
-  </si>
-  <si>
-    <t>00:08:30:01</t>
-  </si>
-  <si>
-    <t>00:08:30:46</t>
-  </si>
-  <si>
-    <t>four thirty</t>
-  </si>
-  <si>
-    <t>00:08:31:00</t>
-  </si>
-  <si>
-    <t>00:08:31:49</t>
-  </si>
-  <si>
-    <t>00:08:31:14</t>
-  </si>
-  <si>
-    <t>00:08:30:53</t>
-  </si>
-  <si>
-    <t>00:08:31:16</t>
-  </si>
-  <si>
-    <t>a.m.</t>
-  </si>
-  <si>
-    <t>00:08:31:47</t>
-  </si>
-  <si>
-    <t>00:08:32:37</t>
-  </si>
-  <si>
-    <t>starts</t>
-  </si>
-  <si>
-    <t>00:08:33:31</t>
-  </si>
-  <si>
-    <t>00:08:33:58</t>
-  </si>
-  <si>
-    <t>final words</t>
-  </si>
-  <si>
-    <t>00:08:32:43</t>
-  </si>
-  <si>
-    <t>00:08:33:35</t>
-  </si>
-  <si>
-    <t>final word</t>
-  </si>
-  <si>
-    <t>00:08:32:42</t>
-  </si>
-  <si>
-    <t>00:08:33:06</t>
-  </si>
-  <si>
-    <t>00:08:33:07</t>
-  </si>
-  <si>
-    <t>00:08:33:34</t>
-  </si>
-  <si>
-    <t>right after</t>
-  </si>
-  <si>
-    <t>00:08:33:59</t>
-  </si>
-  <si>
-    <t>00:08:34:26</t>
-  </si>
-  <si>
-    <t>history</t>
-  </si>
-  <si>
-    <t>00:11:40:20</t>
-  </si>
-  <si>
-    <t>00:11:40:55</t>
-  </si>
-  <si>
-    <t>reboot</t>
-  </si>
-  <si>
-    <t>00:11:41:36</t>
-  </si>
-  <si>
-    <t>00:11:42:05</t>
-  </si>
-  <si>
-    <t>can't wait</t>
-  </si>
-  <si>
-    <t>00:11:43:34</t>
-  </si>
-  <si>
-    <t>00:11:44:05</t>
-  </si>
-  <si>
-    <t>can't wait to</t>
-  </si>
-  <si>
-    <t>00:11:44:14</t>
-  </si>
-  <si>
-    <t>wait to</t>
-  </si>
-  <si>
-    <t>00:11:43:46</t>
-  </si>
-  <si>
-    <t>wait</t>
-  </si>
-  <si>
-    <t>00:11:44:03</t>
-  </si>
-  <si>
-    <t>and soon</t>
-  </si>
-  <si>
-    <t>00:11:45:30</t>
-  </si>
-  <si>
-    <t>00:11:46:02</t>
-  </si>
-  <si>
-    <t>00:11:45:42</t>
-  </si>
-  <si>
-    <t>we will</t>
-  </si>
-  <si>
-    <t>00:11:46:24</t>
-  </si>
-  <si>
-    <t>kick off</t>
-  </si>
-  <si>
-    <t>00:11:46:25</t>
-  </si>
-  <si>
-    <t>00:11:46:47</t>
-  </si>
-  <si>
-    <t>kickoff</t>
-  </si>
-  <si>
-    <t>00:11:46:20</t>
-  </si>
-  <si>
-    <t>00:11:46:36</t>
-  </si>
-  <si>
-    <t>00:11:47:08</t>
-  </si>
-  <si>
-    <t>all those</t>
-  </si>
-  <si>
-    <t>00:11:49:25</t>
-  </si>
-  <si>
-    <t>00:11:49:55</t>
-  </si>
-  <si>
-    <t>00:11:49:23</t>
-  </si>
-  <si>
-    <t>00:11:49:40</t>
-  </si>
-  <si>
-    <t>topic</t>
-  </si>
-  <si>
-    <t>00:11:49:47</t>
-  </si>
-  <si>
-    <t>00:11:50:24</t>
-  </si>
-  <si>
-    <t>topics</t>
-  </si>
-  <si>
-    <t>00:11:50:29</t>
-  </si>
-  <si>
-    <t>and more</t>
-  </si>
-  <si>
-    <t>00:11:50:30</t>
-  </si>
-  <si>
-    <t>00:11:51:23</t>
-  </si>
-  <si>
-    <t>00:11:51:03</t>
-  </si>
-  <si>
-    <t>00:11:51:02</t>
-  </si>
-  <si>
-    <t>00:11:51:24</t>
-  </si>
-  <si>
-    <t>00:11:51:25</t>
-  </si>
-  <si>
-    <t>00:11:51:47</t>
-  </si>
-  <si>
-    <t>here on the</t>
-  </si>
-  <si>
-    <t>00:11:51:45</t>
-  </si>
-  <si>
-    <t>00:11:52:09</t>
-  </si>
-  <si>
-    <t>here on</t>
-  </si>
-  <si>
-    <t>00:11:52:03</t>
-  </si>
-  <si>
-    <t>heron</t>
-  </si>
-  <si>
-    <t>00:11:52:12</t>
-  </si>
-  <si>
-    <t>00:11:52:51</t>
-  </si>
-  <si>
-    <t>00:11:52:30</t>
-  </si>
-  <si>
-    <t>under the weather</t>
-  </si>
-  <si>
-    <t>00:11:56:24</t>
-  </si>
-  <si>
-    <t>00:11:57:14</t>
-  </si>
-  <si>
-    <t>chicago tribune</t>
-  </si>
-  <si>
-    <t>00:11:57:27</t>
-  </si>
-  <si>
-    <t>00:11:58:21</t>
-  </si>
-  <si>
-    <t>teddy</t>
-  </si>
-  <si>
-    <t>00:11:58:22</t>
-  </si>
-  <si>
-    <t>00:11:58:37</t>
-  </si>
-  <si>
-    <t>00:11:59:11</t>
-  </si>
-  <si>
-    <t>00:11:59:31</t>
-  </si>
-  <si>
-    <t>see ya</t>
-  </si>
-  <si>
-    <t>00:11:59:42</t>
-  </si>
-  <si>
-    <t>00:12:00:08</t>
-  </si>
-  <si>
-    <t>00:12:00:27</t>
-  </si>
-  <si>
-    <t>00:12:00:46</t>
-  </si>
-  <si>
-    <t>be here</t>
-  </si>
-  <si>
-    <t>00:12:00:45</t>
-  </si>
-  <si>
-    <t>00:12:01:03</t>
-  </si>
-  <si>
-    <t>00:12:01:00</t>
-  </si>
-  <si>
-    <t>00:12:01:40</t>
-  </si>
-  <si>
-    <t>great to have</t>
-  </si>
-  <si>
-    <t>00:12:01:41</t>
-  </si>
-  <si>
-    <t>00:12:02:15</t>
-  </si>
-  <si>
-    <t>to have</t>
-  </si>
-  <si>
-    <t>00:12:01:51</t>
-  </si>
-  <si>
-    <t>00:12:05:25</t>
-  </si>
-  <si>
-    <t>00:12:05:48</t>
-  </si>
-  <si>
-    <t>00:12:05:49</t>
-  </si>
-  <si>
-    <t>00:12:07:01</t>
-  </si>
-  <si>
-    <t>as embarrassing</t>
-  </si>
-  <si>
-    <t>embarrassing</t>
-  </si>
-  <si>
-    <t>00:12:06:09</t>
-  </si>
-  <si>
-    <t>i've seen</t>
-  </si>
-  <si>
-    <t>00:12:07:44</t>
-  </si>
-  <si>
-    <t>00:12:08:10</t>
-  </si>
-  <si>
-    <t>00:12:07:48</t>
-  </si>
-  <si>
-    <t>franchise</t>
-  </si>
-  <si>
-    <t>00:12:08:30</t>
-  </si>
-  <si>
-    <t>00:12:09:10</t>
-  </si>
-  <si>
-    <t>in a long</t>
-  </si>
-  <si>
-    <t>00:12:09:11</t>
-  </si>
-  <si>
-    <t>00:12:10:12</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>00:12:09:39</t>
-  </si>
-  <si>
-    <t>00:12:10:13</t>
-  </si>
-  <si>
-    <t>long time</t>
-  </si>
-  <si>
-    <t>00:12:10:49</t>
-  </si>
-  <si>
-    <t>00:12:10:50</t>
-  </si>
-  <si>
-    <t>00:12:11:03</t>
-  </si>
-  <si>
-    <t>mark</t>
-  </si>
-  <si>
-    <t>00:12:11:16</t>
-  </si>
-  <si>
-    <t>00:12:11:33</t>
-  </si>
-  <si>
-    <t>needs to</t>
-  </si>
-  <si>
-    <t>00:12:11:51</t>
-  </si>
-  <si>
-    <t>00:12:12:15</t>
-  </si>
-  <si>
-    <t>00:12:12:16</t>
-  </si>
-  <si>
-    <t>00:12:12:47</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>00:12:13:51</t>
-  </si>
-  <si>
-    <t>00:12:14:09</t>
-  </si>
-  <si>
-    <t>book a trip</t>
-  </si>
-  <si>
-    <t>00:12:14:10</t>
-  </si>
-  <si>
-    <t>00:12:14:38</t>
-  </si>
-  <si>
-    <t>trip to</t>
-  </si>
-  <si>
-    <t>00:12:14:24</t>
-  </si>
-  <si>
-    <t>00:12:14:45</t>
-  </si>
-  <si>
-    <t>trip</t>
-  </si>
-  <si>
-    <t>00:12:14:22</t>
-  </si>
-  <si>
-    <t>00:12:14:37</t>
-  </si>
-  <si>
-    <t>to hawaii</t>
-  </si>
-  <si>
-    <t>00:12:15:16</t>
-  </si>
-  <si>
-    <t>hawaii</t>
-  </si>
-  <si>
-    <t>00:12:15:22</t>
-  </si>
-  <si>
-    <t>00:12:15:53</t>
-  </si>
-  <si>
-    <t>i don't</t>
-  </si>
-  <si>
-    <t>00:12:15:45</t>
-  </si>
-  <si>
-    <t>00:12:15:40</t>
-  </si>
-  <si>
-    <t>00:12:15:56</t>
-  </si>
-  <si>
-    <t>this man</t>
-  </si>
-  <si>
-    <t>00:12:15:51</t>
-  </si>
-  <si>
-    <t>00:12:16:17</t>
-  </si>
-  <si>
-    <t>00:12:16:05</t>
-  </si>
-  <si>
-    <t>come home</t>
-  </si>
-  <si>
-    <t>00:12:16:33</t>
-  </si>
-  <si>
-    <t>00:12:16:51</t>
-  </si>
-  <si>
-    <t>00:12:16:32</t>
-  </si>
-  <si>
-    <t>00:12:16:44</t>
-  </si>
-  <si>
-    <t>00:12:16:52</t>
-  </si>
-  <si>
-    <t>00:12:17:13</t>
-  </si>
-  <si>
-    <t>touch</t>
-  </si>
-  <si>
-    <t>00:12:19:31</t>
-  </si>
-  <si>
-    <t>00:12:19:47</t>
-  </si>
-  <si>
-    <t>touch on</t>
-  </si>
-  <si>
-    <t>00:12:19:56</t>
-  </si>
-  <si>
-    <t>we will talk</t>
-  </si>
-  <si>
-    <t>00:12:20:39</t>
-  </si>
-  <si>
-    <t>00:12:21:02</t>
-  </si>
-  <si>
-    <t>00:12:20:47</t>
-  </si>
-  <si>
-    <t>plenty</t>
-  </si>
-  <si>
-    <t>00:12:21:00</t>
-  </si>
-  <si>
-    <t>00:12:21:19</t>
-  </si>
-  <si>
-    <t>beat</t>
-  </si>
-  <si>
-    <t>00:12:23:30</t>
-  </si>
-  <si>
-    <t>00:12:23:55</t>
-  </si>
-  <si>
-    <t>00:12:25:06</t>
-  </si>
-  <si>
-    <t>00:12:25:28</t>
-  </si>
-  <si>
-    <t>last night</t>
-  </si>
-  <si>
-    <t>00:12:25:29</t>
-  </si>
-  <si>
-    <t>00:12:25:53</t>
-  </si>
-  <si>
-    <t>last nights</t>
-  </si>
-  <si>
-    <t>00:12:25:56</t>
-  </si>
-  <si>
-    <t>spartans</t>
-  </si>
-  <si>
-    <t>00:12:27:56</t>
-  </si>
-  <si>
-    <t>00:12:28:22</t>
-  </si>
-  <si>
-    <t>thirteen</t>
-  </si>
-  <si>
-    <t>00:12:28:43</t>
   </si>
 </sst>
 </file>
@@ -17076,8 +16365,52 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="453">
+  <cellStyleXfs count="497">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -17536,7 +16869,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="453">
+  <cellStyles count="497">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -17763,6 +17096,28 @@
     <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="496" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -17989,6 +17344,28 @@
     <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="495" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -18318,10 +17695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2500"/>
+  <dimension ref="A1:H2369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2462" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F2473" sqref="F2473"/>
+    <sheetView tabSelected="1" topLeftCell="A2358" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C2374" sqref="C2374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -79928,3169 +79305,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2370" spans="1:8">
-      <c r="A2370">
-        <v>2369</v>
-      </c>
-      <c r="B2370">
-        <v>1</v>
-      </c>
-      <c r="C2370">
-        <v>7</v>
-      </c>
-      <c r="D2370" t="s">
-        <v>5428</v>
-      </c>
-      <c r="E2370" t="s">
-        <v>5429</v>
-      </c>
-      <c r="F2370" t="s">
-        <v>5430</v>
-      </c>
-      <c r="G2370">
-        <v>0</v>
-      </c>
-      <c r="H2370">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2371" spans="1:8">
-      <c r="A2371">
-        <v>2370</v>
-      </c>
-      <c r="B2371">
-        <v>1</v>
-      </c>
-      <c r="C2371">
-        <v>7</v>
-      </c>
-      <c r="D2371" t="s">
-        <v>229</v>
-      </c>
-      <c r="E2371" t="s">
-        <v>5431</v>
-      </c>
-      <c r="F2371" t="s">
-        <v>5430</v>
-      </c>
-      <c r="G2371">
-        <v>0</v>
-      </c>
-      <c r="H2371">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2372" spans="1:8">
-      <c r="A2372">
-        <v>2371</v>
-      </c>
-      <c r="B2372">
-        <v>1</v>
-      </c>
-      <c r="C2372">
-        <v>7</v>
-      </c>
-      <c r="D2372" t="s">
-        <v>722</v>
-      </c>
-      <c r="E2372" t="s">
-        <v>5432</v>
-      </c>
-      <c r="F2372" t="s">
-        <v>5433</v>
-      </c>
-      <c r="G2372">
-        <v>0</v>
-      </c>
-      <c r="H2372">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2373" spans="1:8">
-      <c r="A2373">
-        <v>2372</v>
-      </c>
-      <c r="B2373">
-        <v>1</v>
-      </c>
-      <c r="C2373">
-        <v>7</v>
-      </c>
-      <c r="D2373" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E2373" t="s">
-        <v>5434</v>
-      </c>
-      <c r="F2373" t="s">
-        <v>5435</v>
-      </c>
-      <c r="G2373">
-        <v>0</v>
-      </c>
-      <c r="H2373">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2374" spans="1:8">
-      <c r="A2374">
-        <v>2373</v>
-      </c>
-      <c r="B2374">
-        <v>1</v>
-      </c>
-      <c r="C2374">
-        <v>7</v>
-      </c>
-      <c r="D2374" t="s">
-        <v>5436</v>
-      </c>
-      <c r="E2374" t="s">
-        <v>5437</v>
-      </c>
-      <c r="F2374" t="s">
-        <v>5438</v>
-      </c>
-      <c r="G2374">
-        <v>0</v>
-      </c>
-      <c r="H2374">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2375" spans="1:8">
-      <c r="A2375">
-        <v>2374</v>
-      </c>
-      <c r="B2375">
-        <v>1</v>
-      </c>
-      <c r="C2375">
-        <v>7</v>
-      </c>
-      <c r="D2375" t="s">
-        <v>5439</v>
-      </c>
-      <c r="E2375" t="s">
-        <v>5437</v>
-      </c>
-      <c r="F2375" t="s">
-        <v>5438</v>
-      </c>
-      <c r="G2375">
-        <v>0</v>
-      </c>
-      <c r="H2375">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2376" spans="1:8">
-      <c r="A2376">
-        <v>2375</v>
-      </c>
-      <c r="B2376">
-        <v>1</v>
-      </c>
-      <c r="C2376">
-        <v>7</v>
-      </c>
-      <c r="D2376" t="s">
-        <v>5440</v>
-      </c>
-      <c r="E2376" t="s">
-        <v>5441</v>
-      </c>
-      <c r="F2376" t="s">
-        <v>5442</v>
-      </c>
-      <c r="G2376">
-        <v>0</v>
-      </c>
-      <c r="H2376">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2377" spans="1:8">
-      <c r="A2377">
-        <v>2376</v>
-      </c>
-      <c r="B2377">
-        <v>1</v>
-      </c>
-      <c r="C2377">
-        <v>7</v>
-      </c>
-      <c r="D2377" t="s">
-        <v>862</v>
-      </c>
-      <c r="E2377" t="s">
-        <v>5441</v>
-      </c>
-      <c r="F2377" t="s">
-        <v>5443</v>
-      </c>
-      <c r="G2377">
-        <v>0</v>
-      </c>
-      <c r="H2377">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2378" spans="1:8">
-      <c r="A2378">
-        <v>2377</v>
-      </c>
-      <c r="B2378">
-        <v>1</v>
-      </c>
-      <c r="C2378">
-        <v>7</v>
-      </c>
-      <c r="D2378" t="s">
-        <v>5444</v>
-      </c>
-      <c r="E2378" t="s">
-        <v>5443</v>
-      </c>
-      <c r="F2378" t="s">
-        <v>5445</v>
-      </c>
-      <c r="G2378">
-        <v>0</v>
-      </c>
-      <c r="H2378">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2379" spans="1:8">
-      <c r="A2379">
-        <v>2378</v>
-      </c>
-      <c r="B2379">
-        <v>1</v>
-      </c>
-      <c r="C2379">
-        <v>7</v>
-      </c>
-      <c r="D2379" t="s">
-        <v>5446</v>
-      </c>
-      <c r="E2379" t="s">
-        <v>5447</v>
-      </c>
-      <c r="F2379" t="s">
-        <v>5448</v>
-      </c>
-      <c r="G2379">
-        <v>0</v>
-      </c>
-      <c r="H2379">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2380" spans="1:8">
-      <c r="A2380">
-        <v>2379</v>
-      </c>
-      <c r="B2380">
-        <v>1</v>
-      </c>
-      <c r="C2380">
-        <v>7</v>
-      </c>
-      <c r="D2380" t="s">
-        <v>5450</v>
-      </c>
-      <c r="E2380" t="s">
-        <v>5449</v>
-      </c>
-      <c r="F2380" t="s">
-        <v>5451</v>
-      </c>
-      <c r="G2380">
-        <v>0</v>
-      </c>
-      <c r="H2380">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2381" spans="1:8">
-      <c r="A2381">
-        <v>2380</v>
-      </c>
-      <c r="B2381">
-        <v>1</v>
-      </c>
-      <c r="C2381">
-        <v>7</v>
-      </c>
-      <c r="D2381" t="s">
-        <v>5452</v>
-      </c>
-      <c r="E2381" t="s">
-        <v>5453</v>
-      </c>
-      <c r="F2381" t="s">
-        <v>5454</v>
-      </c>
-      <c r="G2381">
-        <v>0</v>
-      </c>
-      <c r="H2381">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2382" spans="1:8">
-      <c r="A2382">
-        <v>2381</v>
-      </c>
-      <c r="B2382">
-        <v>1</v>
-      </c>
-      <c r="C2382">
-        <v>7</v>
-      </c>
-      <c r="D2382" t="s">
-        <v>5455</v>
-      </c>
-      <c r="E2382" t="s">
-        <v>5453</v>
-      </c>
-      <c r="F2382" t="s">
-        <v>5456</v>
-      </c>
-      <c r="G2382">
-        <v>0</v>
-      </c>
-      <c r="H2382">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2383" spans="1:8">
-      <c r="A2383">
-        <v>2382</v>
-      </c>
-      <c r="B2383">
-        <v>1</v>
-      </c>
-      <c r="C2383">
-        <v>7</v>
-      </c>
-      <c r="D2383" t="s">
-        <v>5457</v>
-      </c>
-      <c r="E2383" t="s">
-        <v>5458</v>
-      </c>
-      <c r="F2383" t="s">
-        <v>5459</v>
-      </c>
-      <c r="G2383">
-        <v>0</v>
-      </c>
-      <c r="H2383">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2384" spans="1:8">
-      <c r="A2384">
-        <v>2383</v>
-      </c>
-      <c r="B2384">
-        <v>1</v>
-      </c>
-      <c r="C2384">
-        <v>7</v>
-      </c>
-      <c r="D2384" t="s">
-        <v>862</v>
-      </c>
-      <c r="E2384" t="s">
-        <v>5460</v>
-      </c>
-      <c r="F2384" t="s">
-        <v>5461</v>
-      </c>
-      <c r="G2384">
-        <v>0</v>
-      </c>
-      <c r="H2384">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2385" spans="1:8">
-      <c r="A2385">
-        <v>2384</v>
-      </c>
-      <c r="B2385">
-        <v>1</v>
-      </c>
-      <c r="C2385">
-        <v>7</v>
-      </c>
-      <c r="D2385" t="s">
-        <v>5446</v>
-      </c>
-      <c r="E2385" t="s">
-        <v>5462</v>
-      </c>
-      <c r="F2385" t="s">
-        <v>5463</v>
-      </c>
-      <c r="G2385">
-        <v>0</v>
-      </c>
-      <c r="H2385">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2386" spans="1:8">
-      <c r="A2386">
-        <v>2385</v>
-      </c>
-      <c r="B2386">
-        <v>1</v>
-      </c>
-      <c r="C2386">
-        <v>7</v>
-      </c>
-      <c r="D2386" t="s">
-        <v>5464</v>
-      </c>
-      <c r="E2386" t="s">
-        <v>5465</v>
-      </c>
-      <c r="F2386" t="s">
-        <v>5466</v>
-      </c>
-      <c r="G2386">
-        <v>0</v>
-      </c>
-      <c r="H2386">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2387" spans="1:8">
-      <c r="A2387">
-        <v>2386</v>
-      </c>
-      <c r="B2387">
-        <v>1</v>
-      </c>
-      <c r="C2387">
-        <v>7</v>
-      </c>
-      <c r="D2387" t="s">
-        <v>5467</v>
-      </c>
-      <c r="E2387" t="s">
-        <v>5468</v>
-      </c>
-      <c r="F2387" t="s">
-        <v>5469</v>
-      </c>
-      <c r="G2387">
-        <v>0</v>
-      </c>
-      <c r="H2387">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2388" spans="1:8">
-      <c r="A2388">
-        <v>2387</v>
-      </c>
-      <c r="B2388">
-        <v>1</v>
-      </c>
-      <c r="C2388">
-        <v>7</v>
-      </c>
-      <c r="D2388" t="s">
-        <v>5470</v>
-      </c>
-      <c r="E2388" t="s">
-        <v>5471</v>
-      </c>
-      <c r="F2388" t="s">
-        <v>5472</v>
-      </c>
-      <c r="G2388">
-        <v>0</v>
-      </c>
-      <c r="H2388">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2389" spans="1:8">
-      <c r="A2389">
-        <v>2388</v>
-      </c>
-      <c r="B2389">
-        <v>1</v>
-      </c>
-      <c r="C2389">
-        <v>7</v>
-      </c>
-      <c r="D2389" t="s">
-        <v>1143</v>
-      </c>
-      <c r="E2389" t="s">
-        <v>5473</v>
-      </c>
-      <c r="F2389" t="s">
-        <v>5472</v>
-      </c>
-      <c r="G2389">
-        <v>0</v>
-      </c>
-      <c r="H2389">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2390" spans="1:8">
-      <c r="A2390">
-        <v>2389</v>
-      </c>
-      <c r="B2390">
-        <v>1</v>
-      </c>
-      <c r="C2390">
-        <v>7</v>
-      </c>
-      <c r="D2390" t="s">
-        <v>700</v>
-      </c>
-      <c r="E2390" t="s">
-        <v>5474</v>
-      </c>
-      <c r="F2390" t="s">
-        <v>5475</v>
-      </c>
-      <c r="G2390">
-        <v>0</v>
-      </c>
-      <c r="H2390">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2391" spans="1:8">
-      <c r="A2391">
-        <v>2390</v>
-      </c>
-      <c r="B2391">
-        <v>1</v>
-      </c>
-      <c r="C2391">
-        <v>7</v>
-      </c>
-      <c r="D2391" t="s">
-        <v>271</v>
-      </c>
-      <c r="E2391" t="s">
-        <v>5474</v>
-      </c>
-      <c r="F2391" t="s">
-        <v>5475</v>
-      </c>
-      <c r="G2391">
-        <v>0</v>
-      </c>
-      <c r="H2391">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2392" spans="1:8">
-      <c r="A2392">
-        <v>2391</v>
-      </c>
-      <c r="B2392">
-        <v>1</v>
-      </c>
-      <c r="C2392">
-        <v>7</v>
-      </c>
-      <c r="D2392" t="s">
-        <v>5476</v>
-      </c>
-      <c r="E2392" t="s">
-        <v>5477</v>
-      </c>
-      <c r="F2392" t="s">
-        <v>5478</v>
-      </c>
-      <c r="G2392">
-        <v>0</v>
-      </c>
-      <c r="H2392">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2393" spans="1:8">
-      <c r="A2393">
-        <v>2392</v>
-      </c>
-      <c r="B2393">
-        <v>1</v>
-      </c>
-      <c r="C2393">
-        <v>7</v>
-      </c>
-      <c r="D2393" t="s">
-        <v>5479</v>
-      </c>
-      <c r="E2393" t="s">
-        <v>5480</v>
-      </c>
-      <c r="F2393" t="s">
-        <v>5481</v>
-      </c>
-      <c r="G2393">
-        <v>0</v>
-      </c>
-      <c r="H2393">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2394" spans="1:8">
-      <c r="A2394">
-        <v>2393</v>
-      </c>
-      <c r="B2394">
-        <v>1</v>
-      </c>
-      <c r="C2394">
-        <v>7</v>
-      </c>
-      <c r="D2394" t="s">
-        <v>5482</v>
-      </c>
-      <c r="E2394" t="s">
-        <v>5483</v>
-      </c>
-      <c r="F2394" t="s">
-        <v>5484</v>
-      </c>
-      <c r="G2394">
-        <v>0</v>
-      </c>
-      <c r="H2394">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2395" spans="1:8">
-      <c r="A2395">
-        <v>2394</v>
-      </c>
-      <c r="B2395">
-        <v>1</v>
-      </c>
-      <c r="C2395">
-        <v>7</v>
-      </c>
-      <c r="D2395" t="s">
-        <v>5485</v>
-      </c>
-      <c r="E2395" t="s">
-        <v>5483</v>
-      </c>
-      <c r="F2395" t="s">
-        <v>5480</v>
-      </c>
-      <c r="G2395">
-        <v>0</v>
-      </c>
-      <c r="H2395">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2396" spans="1:8">
-      <c r="A2396">
-        <v>2395</v>
-      </c>
-      <c r="B2396">
-        <v>1</v>
-      </c>
-      <c r="C2396">
-        <v>7</v>
-      </c>
-      <c r="D2396" t="s">
-        <v>4966</v>
-      </c>
-      <c r="E2396" t="s">
-        <v>5486</v>
-      </c>
-      <c r="F2396" t="s">
-        <v>5487</v>
-      </c>
-      <c r="G2396">
-        <v>0</v>
-      </c>
-      <c r="H2396">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2397" spans="1:8">
-      <c r="A2397">
-        <v>2396</v>
-      </c>
-      <c r="B2397">
-        <v>1</v>
-      </c>
-      <c r="C2397">
-        <v>7</v>
-      </c>
-      <c r="D2397" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2397" t="s">
-        <v>5488</v>
-      </c>
-      <c r="F2397" t="s">
-        <v>5489</v>
-      </c>
-      <c r="G2397">
-        <v>0</v>
-      </c>
-      <c r="H2397">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2398" spans="1:8">
-      <c r="A2398">
-        <v>2397</v>
-      </c>
-      <c r="B2398">
-        <v>1</v>
-      </c>
-      <c r="C2398">
-        <v>7</v>
-      </c>
-      <c r="D2398" t="s">
-        <v>5490</v>
-      </c>
-      <c r="E2398" t="s">
-        <v>5491</v>
-      </c>
-      <c r="F2398" t="s">
-        <v>5492</v>
-      </c>
-      <c r="G2398">
-        <v>0</v>
-      </c>
-      <c r="H2398">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2399" spans="1:8">
-      <c r="A2399">
-        <v>2398</v>
-      </c>
-      <c r="B2399">
-        <v>1</v>
-      </c>
-      <c r="C2399">
-        <v>7</v>
-      </c>
-      <c r="D2399" t="s">
-        <v>5493</v>
-      </c>
-      <c r="E2399" t="s">
-        <v>5494</v>
-      </c>
-      <c r="F2399" t="s">
-        <v>5495</v>
-      </c>
-      <c r="G2399">
-        <v>0</v>
-      </c>
-      <c r="H2399">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2400" spans="1:8">
-      <c r="A2400">
-        <v>2399</v>
-      </c>
-      <c r="B2400">
-        <v>1</v>
-      </c>
-      <c r="C2400">
-        <v>7</v>
-      </c>
-      <c r="D2400" t="s">
-        <v>5496</v>
-      </c>
-      <c r="E2400" t="s">
-        <v>5497</v>
-      </c>
-      <c r="F2400" t="s">
-        <v>5498</v>
-      </c>
-      <c r="G2400">
-        <v>0</v>
-      </c>
-      <c r="H2400">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2401" spans="1:8">
-      <c r="A2401">
-        <v>2400</v>
-      </c>
-      <c r="B2401">
-        <v>1</v>
-      </c>
-      <c r="C2401">
-        <v>7</v>
-      </c>
-      <c r="D2401" t="s">
-        <v>5499</v>
-      </c>
-      <c r="E2401" t="s">
-        <v>5500</v>
-      </c>
-      <c r="F2401" t="s">
-        <v>5501</v>
-      </c>
-      <c r="G2401">
-        <v>0</v>
-      </c>
-      <c r="H2401">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2402" spans="1:8">
-      <c r="A2402">
-        <v>2401</v>
-      </c>
-      <c r="B2402">
-        <v>1</v>
-      </c>
-      <c r="C2402">
-        <v>7</v>
-      </c>
-      <c r="D2402" t="s">
-        <v>5502</v>
-      </c>
-      <c r="E2402" t="s">
-        <v>5500</v>
-      </c>
-      <c r="F2402" t="s">
-        <v>5503</v>
-      </c>
-      <c r="G2402">
-        <v>0</v>
-      </c>
-      <c r="H2402">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2403" spans="1:8">
-      <c r="A2403">
-        <v>2402</v>
-      </c>
-      <c r="B2403">
-        <v>1</v>
-      </c>
-      <c r="C2403">
-        <v>7</v>
-      </c>
-      <c r="D2403" t="s">
-        <v>5504</v>
-      </c>
-      <c r="E2403" t="s">
-        <v>5505</v>
-      </c>
-      <c r="F2403" t="s">
-        <v>5503</v>
-      </c>
-      <c r="G2403">
-        <v>0</v>
-      </c>
-      <c r="H2403">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2404" spans="1:8">
-      <c r="A2404">
-        <v>2403</v>
-      </c>
-      <c r="B2404">
-        <v>1</v>
-      </c>
-      <c r="C2404">
-        <v>7</v>
-      </c>
-      <c r="D2404" t="s">
-        <v>5506</v>
-      </c>
-      <c r="E2404" t="s">
-        <v>5505</v>
-      </c>
-      <c r="F2404" t="s">
-        <v>5507</v>
-      </c>
-      <c r="G2404">
-        <v>0</v>
-      </c>
-      <c r="H2404">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2405" spans="1:8">
-      <c r="A2405">
-        <v>2404</v>
-      </c>
-      <c r="B2405">
-        <v>1</v>
-      </c>
-      <c r="C2405">
-        <v>7</v>
-      </c>
-      <c r="D2405" t="s">
-        <v>5508</v>
-      </c>
-      <c r="E2405" t="s">
-        <v>5509</v>
-      </c>
-      <c r="F2405" t="s">
-        <v>5510</v>
-      </c>
-      <c r="G2405">
-        <v>0</v>
-      </c>
-      <c r="H2405">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2406" spans="1:8">
-      <c r="A2406">
-        <v>2405</v>
-      </c>
-      <c r="B2406">
-        <v>1</v>
-      </c>
-      <c r="C2406">
-        <v>7</v>
-      </c>
-      <c r="D2406" t="s">
-        <v>2483</v>
-      </c>
-      <c r="E2406" t="s">
-        <v>5511</v>
-      </c>
-      <c r="F2406" t="s">
-        <v>5510</v>
-      </c>
-      <c r="G2406">
-        <v>0</v>
-      </c>
-      <c r="H2406">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2407" spans="1:8">
-      <c r="A2407">
-        <v>2406</v>
-      </c>
-      <c r="B2407">
-        <v>1</v>
-      </c>
-      <c r="C2407">
-        <v>7</v>
-      </c>
-      <c r="D2407" t="s">
-        <v>5512</v>
-      </c>
-      <c r="E2407" t="s">
-        <v>5510</v>
-      </c>
-      <c r="F2407" t="s">
-        <v>5513</v>
-      </c>
-      <c r="G2407">
-        <v>0</v>
-      </c>
-      <c r="H2407">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2408" spans="1:8">
-      <c r="A2408">
-        <v>2407</v>
-      </c>
-      <c r="B2408">
-        <v>1</v>
-      </c>
-      <c r="C2408">
-        <v>7</v>
-      </c>
-      <c r="D2408" t="s">
-        <v>5514</v>
-      </c>
-      <c r="E2408" t="s">
-        <v>5515</v>
-      </c>
-      <c r="F2408" t="s">
-        <v>5516</v>
-      </c>
-      <c r="G2408">
-        <v>0</v>
-      </c>
-      <c r="H2408">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2409" spans="1:8">
-      <c r="A2409">
-        <v>2408</v>
-      </c>
-      <c r="B2409">
-        <v>1</v>
-      </c>
-      <c r="C2409">
-        <v>7</v>
-      </c>
-      <c r="D2409" t="s">
-        <v>5517</v>
-      </c>
-      <c r="E2409" t="s">
-        <v>5515</v>
-      </c>
-      <c r="F2409" t="s">
-        <v>5516</v>
-      </c>
-      <c r="G2409">
-        <v>0</v>
-      </c>
-      <c r="H2409">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2410" spans="1:8">
-      <c r="A2410">
-        <v>2409</v>
-      </c>
-      <c r="B2410">
-        <v>1</v>
-      </c>
-      <c r="C2410">
-        <v>7</v>
-      </c>
-      <c r="D2410" t="s">
-        <v>1532</v>
-      </c>
-      <c r="E2410" t="s">
-        <v>5518</v>
-      </c>
-      <c r="F2410" t="s">
-        <v>5519</v>
-      </c>
-      <c r="G2410">
-        <v>0</v>
-      </c>
-      <c r="H2410">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2411" spans="1:8">
-      <c r="A2411">
-        <v>2410</v>
-      </c>
-      <c r="B2411">
-        <v>1</v>
-      </c>
-      <c r="C2411">
-        <v>7</v>
-      </c>
-      <c r="D2411" t="s">
-        <v>5235</v>
-      </c>
-      <c r="E2411" t="s">
-        <v>5516</v>
-      </c>
-      <c r="F2411" t="s">
-        <v>5520</v>
-      </c>
-      <c r="G2411">
-        <v>0</v>
-      </c>
-      <c r="H2411">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2412" spans="1:8">
-      <c r="A2412">
-        <v>2411</v>
-      </c>
-      <c r="B2412">
-        <v>1</v>
-      </c>
-      <c r="C2412">
-        <v>7</v>
-      </c>
-      <c r="D2412" t="s">
-        <v>5521</v>
-      </c>
-      <c r="E2412" t="s">
-        <v>5522</v>
-      </c>
-      <c r="F2412" t="s">
-        <v>5523</v>
-      </c>
-      <c r="G2412">
-        <v>0</v>
-      </c>
-      <c r="H2412">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2413" spans="1:8">
-      <c r="A2413">
-        <v>2412</v>
-      </c>
-      <c r="B2413">
-        <v>1</v>
-      </c>
-      <c r="C2413">
-        <v>7</v>
-      </c>
-      <c r="D2413" t="s">
-        <v>252</v>
-      </c>
-      <c r="E2413" t="s">
-        <v>5524</v>
-      </c>
-      <c r="F2413" t="s">
-        <v>5525</v>
-      </c>
-      <c r="G2413">
-        <v>0</v>
-      </c>
-      <c r="H2413">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2414" spans="1:8">
-      <c r="A2414">
-        <v>2413</v>
-      </c>
-      <c r="B2414">
-        <v>1</v>
-      </c>
-      <c r="C2414">
-        <v>7</v>
-      </c>
-      <c r="D2414" t="s">
-        <v>5526</v>
-      </c>
-      <c r="E2414" t="s">
-        <v>5527</v>
-      </c>
-      <c r="F2414" t="s">
-        <v>5528</v>
-      </c>
-      <c r="G2414">
-        <v>0</v>
-      </c>
-      <c r="H2414">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2415" spans="1:8">
-      <c r="A2415">
-        <v>2414</v>
-      </c>
-      <c r="B2415">
-        <v>1</v>
-      </c>
-      <c r="C2415">
-        <v>7</v>
-      </c>
-      <c r="D2415" t="s">
-        <v>5529</v>
-      </c>
-      <c r="E2415" t="s">
-        <v>5527</v>
-      </c>
-      <c r="F2415" t="s">
-        <v>5530</v>
-      </c>
-      <c r="G2415">
-        <v>0</v>
-      </c>
-      <c r="H2415">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2416" spans="1:8">
-      <c r="A2416">
-        <v>2415</v>
-      </c>
-      <c r="B2416">
-        <v>1</v>
-      </c>
-      <c r="C2416">
-        <v>7</v>
-      </c>
-      <c r="D2416" t="s">
-        <v>5531</v>
-      </c>
-      <c r="E2416" t="s">
-        <v>5532</v>
-      </c>
-      <c r="F2416" t="s">
-        <v>5533</v>
-      </c>
-      <c r="G2416">
-        <v>0</v>
-      </c>
-      <c r="H2416">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2417" spans="1:8">
-      <c r="A2417">
-        <v>2416</v>
-      </c>
-      <c r="B2417">
-        <v>1</v>
-      </c>
-      <c r="C2417">
-        <v>7</v>
-      </c>
-      <c r="D2417" t="s">
-        <v>759</v>
-      </c>
-      <c r="E2417" t="s">
-        <v>5532</v>
-      </c>
-      <c r="F2417" t="s">
-        <v>5534</v>
-      </c>
-      <c r="G2417">
-        <v>0</v>
-      </c>
-      <c r="H2417">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2418" spans="1:8">
-      <c r="A2418">
-        <v>2417</v>
-      </c>
-      <c r="B2418">
-        <v>1</v>
-      </c>
-      <c r="C2418">
-        <v>7</v>
-      </c>
-      <c r="D2418" t="s">
-        <v>4421</v>
-      </c>
-      <c r="E2418" t="s">
-        <v>5535</v>
-      </c>
-      <c r="F2418" t="s">
-        <v>5536</v>
-      </c>
-      <c r="G2418">
-        <v>0</v>
-      </c>
-      <c r="H2418">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2419" spans="1:8">
-      <c r="A2419">
-        <v>2418</v>
-      </c>
-      <c r="B2419">
-        <v>1</v>
-      </c>
-      <c r="C2419">
-        <v>7</v>
-      </c>
-      <c r="D2419" t="s">
-        <v>837</v>
-      </c>
-      <c r="E2419" t="s">
-        <v>5537</v>
-      </c>
-      <c r="F2419" t="s">
-        <v>5538</v>
-      </c>
-      <c r="G2419">
-        <v>0</v>
-      </c>
-      <c r="H2419">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2420" spans="1:8">
-      <c r="A2420">
-        <v>2419</v>
-      </c>
-      <c r="B2420">
-        <v>1</v>
-      </c>
-      <c r="C2420">
-        <v>7</v>
-      </c>
-      <c r="D2420" t="s">
-        <v>5539</v>
-      </c>
-      <c r="E2420" t="s">
-        <v>5540</v>
-      </c>
-      <c r="F2420" t="s">
-        <v>5541</v>
-      </c>
-      <c r="G2420">
-        <v>0</v>
-      </c>
-      <c r="H2420">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2421" spans="1:8">
-      <c r="A2421">
-        <v>2420</v>
-      </c>
-      <c r="B2421">
-        <v>1</v>
-      </c>
-      <c r="C2421">
-        <v>7</v>
-      </c>
-      <c r="D2421" t="s">
-        <v>5542</v>
-      </c>
-      <c r="E2421" t="s">
-        <v>5540</v>
-      </c>
-      <c r="F2421" t="s">
-        <v>5543</v>
-      </c>
-      <c r="G2421">
-        <v>0</v>
-      </c>
-      <c r="H2421">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2422" spans="1:8">
-      <c r="A2422">
-        <v>2421</v>
-      </c>
-      <c r="B2422">
-        <v>1</v>
-      </c>
-      <c r="C2422">
-        <v>7</v>
-      </c>
-      <c r="D2422" t="s">
-        <v>5544</v>
-      </c>
-      <c r="E2422" t="s">
-        <v>5540</v>
-      </c>
-      <c r="F2422" t="s">
-        <v>5543</v>
-      </c>
-      <c r="G2422">
-        <v>0</v>
-      </c>
-      <c r="H2422">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2423" spans="1:8">
-      <c r="A2423">
-        <v>2422</v>
-      </c>
-      <c r="B2423">
-        <v>1</v>
-      </c>
-      <c r="C2423">
-        <v>7</v>
-      </c>
-      <c r="D2423" t="s">
-        <v>5485</v>
-      </c>
-      <c r="E2423" t="s">
-        <v>5545</v>
-      </c>
-      <c r="F2423" t="s">
-        <v>5546</v>
-      </c>
-      <c r="G2423">
-        <v>0</v>
-      </c>
-      <c r="H2423">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2424" spans="1:8">
-      <c r="A2424">
-        <v>2423</v>
-      </c>
-      <c r="B2424">
-        <v>1</v>
-      </c>
-      <c r="C2424">
-        <v>7</v>
-      </c>
-      <c r="D2424" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2424" t="s">
-        <v>5547</v>
-      </c>
-      <c r="F2424" t="s">
-        <v>5546</v>
-      </c>
-      <c r="G2424">
-        <v>0</v>
-      </c>
-      <c r="H2424">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2425" spans="1:8">
-      <c r="A2425">
-        <v>2424</v>
-      </c>
-      <c r="B2425">
-        <v>1</v>
-      </c>
-      <c r="C2425">
-        <v>7</v>
-      </c>
-      <c r="D2425" t="s">
-        <v>5548</v>
-      </c>
-      <c r="E2425" t="s">
-        <v>5549</v>
-      </c>
-      <c r="F2425" t="s">
-        <v>5550</v>
-      </c>
-      <c r="G2425">
-        <v>0</v>
-      </c>
-      <c r="H2425">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2426" spans="1:8">
-      <c r="A2426">
-        <v>2425</v>
-      </c>
-      <c r="B2426">
-        <v>1</v>
-      </c>
-      <c r="C2426">
-        <v>7</v>
-      </c>
-      <c r="D2426" t="s">
-        <v>5551</v>
-      </c>
-      <c r="E2426" t="s">
-        <v>5552</v>
-      </c>
-      <c r="F2426" t="s">
-        <v>5553</v>
-      </c>
-      <c r="G2426">
-        <v>0</v>
-      </c>
-      <c r="H2426">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2427" spans="1:8">
-      <c r="A2427">
-        <v>2426</v>
-      </c>
-      <c r="B2427">
-        <v>1</v>
-      </c>
-      <c r="C2427">
-        <v>7</v>
-      </c>
-      <c r="D2427" t="s">
-        <v>5554</v>
-      </c>
-      <c r="E2427" t="s">
-        <v>5555</v>
-      </c>
-      <c r="F2427" t="s">
-        <v>5556</v>
-      </c>
-      <c r="G2427">
-        <v>0</v>
-      </c>
-      <c r="H2427">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2428" spans="1:8">
-      <c r="A2428">
-        <v>2427</v>
-      </c>
-      <c r="B2428">
-        <v>1</v>
-      </c>
-      <c r="C2428">
-        <v>7</v>
-      </c>
-      <c r="D2428" t="s">
-        <v>5554</v>
-      </c>
-      <c r="E2428" t="s">
-        <v>5557</v>
-      </c>
-      <c r="F2428" t="s">
-        <v>5558</v>
-      </c>
-      <c r="G2428">
-        <v>0</v>
-      </c>
-      <c r="H2428">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2429" spans="1:8">
-      <c r="A2429">
-        <v>2428</v>
-      </c>
-      <c r="B2429">
-        <v>1</v>
-      </c>
-      <c r="C2429">
-        <v>7</v>
-      </c>
-      <c r="D2429" t="s">
-        <v>5559</v>
-      </c>
-      <c r="E2429" t="s">
-        <v>5560</v>
-      </c>
-      <c r="F2429" t="s">
-        <v>5561</v>
-      </c>
-      <c r="G2429">
-        <v>0</v>
-      </c>
-      <c r="H2429">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2430" spans="1:8">
-      <c r="A2430">
-        <v>2429</v>
-      </c>
-      <c r="B2430">
-        <v>1</v>
-      </c>
-      <c r="C2430">
-        <v>7</v>
-      </c>
-      <c r="D2430" t="s">
-        <v>2473</v>
-      </c>
-      <c r="E2430" t="s">
-        <v>5560</v>
-      </c>
-      <c r="F2430" t="s">
-        <v>5561</v>
-      </c>
-      <c r="G2430">
-        <v>0</v>
-      </c>
-      <c r="H2430">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2431" spans="1:8">
-      <c r="A2431">
-        <v>2430</v>
-      </c>
-      <c r="B2431">
-        <v>1</v>
-      </c>
-      <c r="C2431">
-        <v>7</v>
-      </c>
-      <c r="D2431" t="s">
-        <v>4434</v>
-      </c>
-      <c r="E2431" t="s">
-        <v>5562</v>
-      </c>
-      <c r="F2431" t="s">
-        <v>5563</v>
-      </c>
-      <c r="G2431">
-        <v>0</v>
-      </c>
-      <c r="H2431">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2432" spans="1:8">
-      <c r="A2432">
-        <v>2431</v>
-      </c>
-      <c r="B2432">
-        <v>1</v>
-      </c>
-      <c r="C2432">
-        <v>7</v>
-      </c>
-      <c r="D2432" t="s">
-        <v>5564</v>
-      </c>
-      <c r="E2432" t="s">
-        <v>5565</v>
-      </c>
-      <c r="F2432" t="s">
-        <v>5566</v>
-      </c>
-      <c r="G2432">
-        <v>0</v>
-      </c>
-      <c r="H2432">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2433" spans="1:8">
-      <c r="A2433">
-        <v>2432</v>
-      </c>
-      <c r="B2433">
-        <v>1</v>
-      </c>
-      <c r="C2433">
-        <v>7</v>
-      </c>
-      <c r="D2433" t="s">
-        <v>855</v>
-      </c>
-      <c r="E2433" t="s">
-        <v>5567</v>
-      </c>
-      <c r="F2433" t="s">
-        <v>5568</v>
-      </c>
-      <c r="G2433">
-        <v>0</v>
-      </c>
-      <c r="H2433">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2434" spans="1:8">
-      <c r="A2434">
-        <v>2433</v>
-      </c>
-      <c r="B2434">
-        <v>1</v>
-      </c>
-      <c r="C2434">
-        <v>7</v>
-      </c>
-      <c r="D2434" t="s">
-        <v>5569</v>
-      </c>
-      <c r="E2434" t="s">
-        <v>5570</v>
-      </c>
-      <c r="F2434" t="s">
-        <v>5571</v>
-      </c>
-      <c r="G2434">
-        <v>0</v>
-      </c>
-      <c r="H2434">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2435" spans="1:8">
-      <c r="A2435">
-        <v>2434</v>
-      </c>
-      <c r="B2435">
-        <v>1</v>
-      </c>
-      <c r="C2435">
-        <v>7</v>
-      </c>
-      <c r="D2435" t="s">
-        <v>5572</v>
-      </c>
-      <c r="E2435" t="s">
-        <v>5573</v>
-      </c>
-      <c r="F2435" t="s">
-        <v>5571</v>
-      </c>
-      <c r="G2435">
-        <v>0</v>
-      </c>
-      <c r="H2435">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2436" spans="1:8">
-      <c r="A2436">
-        <v>2435</v>
-      </c>
-      <c r="B2436">
-        <v>1</v>
-      </c>
-      <c r="C2436">
-        <v>7</v>
-      </c>
-      <c r="D2436" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2436" t="s">
-        <v>5574</v>
-      </c>
-      <c r="F2436" t="s">
-        <v>5575</v>
-      </c>
-      <c r="G2436">
-        <v>0</v>
-      </c>
-      <c r="H2436">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2437" spans="1:8">
-      <c r="A2437">
-        <v>2436</v>
-      </c>
-      <c r="B2437">
-        <v>1</v>
-      </c>
-      <c r="C2437">
-        <v>7</v>
-      </c>
-      <c r="D2437" t="s">
-        <v>5578</v>
-      </c>
-      <c r="E2437" t="s">
-        <v>5576</v>
-      </c>
-      <c r="F2437" t="s">
-        <v>5577</v>
-      </c>
-      <c r="G2437">
-        <v>0</v>
-      </c>
-      <c r="H2437">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2438" spans="1:8">
-      <c r="A2438">
-        <v>2437</v>
-      </c>
-      <c r="B2438">
-        <v>1</v>
-      </c>
-      <c r="C2438">
-        <v>7</v>
-      </c>
-      <c r="D2438" t="s">
-        <v>5579</v>
-      </c>
-      <c r="E2438" t="s">
-        <v>5580</v>
-      </c>
-      <c r="F2438" t="s">
-        <v>5577</v>
-      </c>
-      <c r="G2438">
-        <v>0</v>
-      </c>
-      <c r="H2438">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2439" spans="1:8">
-      <c r="A2439">
-        <v>2438</v>
-      </c>
-      <c r="B2439">
-        <v>1</v>
-      </c>
-      <c r="C2439">
-        <v>7</v>
-      </c>
-      <c r="D2439" t="s">
-        <v>5581</v>
-      </c>
-      <c r="E2439" t="s">
-        <v>5582</v>
-      </c>
-      <c r="F2439" t="s">
-        <v>5583</v>
-      </c>
-      <c r="G2439">
-        <v>0</v>
-      </c>
-      <c r="H2439">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2440" spans="1:8">
-      <c r="A2440">
-        <v>2439</v>
-      </c>
-      <c r="B2440">
-        <v>1</v>
-      </c>
-      <c r="C2440">
-        <v>7</v>
-      </c>
-      <c r="D2440" t="s">
-        <v>2651</v>
-      </c>
-      <c r="E2440" t="s">
-        <v>5584</v>
-      </c>
-      <c r="F2440" t="s">
-        <v>5583</v>
-      </c>
-      <c r="G2440">
-        <v>0</v>
-      </c>
-      <c r="H2440">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2441" spans="1:8">
-      <c r="A2441">
-        <v>2440</v>
-      </c>
-      <c r="B2441">
-        <v>1</v>
-      </c>
-      <c r="C2441">
-        <v>7</v>
-      </c>
-      <c r="D2441" t="s">
-        <v>5585</v>
-      </c>
-      <c r="E2441" t="s">
-        <v>5586</v>
-      </c>
-      <c r="F2441" t="s">
-        <v>5587</v>
-      </c>
-      <c r="G2441">
-        <v>0</v>
-      </c>
-      <c r="H2441">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2442" spans="1:8">
-      <c r="A2442">
-        <v>2441</v>
-      </c>
-      <c r="B2442">
-        <v>1</v>
-      </c>
-      <c r="C2442">
-        <v>7</v>
-      </c>
-      <c r="D2442" t="s">
-        <v>5588</v>
-      </c>
-      <c r="E2442" t="s">
-        <v>5589</v>
-      </c>
-      <c r="F2442" t="s">
-        <v>5590</v>
-      </c>
-      <c r="G2442">
-        <v>0</v>
-      </c>
-      <c r="H2442">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2443" spans="1:8">
-      <c r="A2443">
-        <v>2442</v>
-      </c>
-      <c r="B2443">
-        <v>1</v>
-      </c>
-      <c r="C2443">
-        <v>7</v>
-      </c>
-      <c r="D2443" t="s">
-        <v>5591</v>
-      </c>
-      <c r="E2443" t="s">
-        <v>5592</v>
-      </c>
-      <c r="F2443" t="s">
-        <v>5593</v>
-      </c>
-      <c r="G2443">
-        <v>0</v>
-      </c>
-      <c r="H2443">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2444" spans="1:8">
-      <c r="A2444">
-        <v>2443</v>
-      </c>
-      <c r="B2444">
-        <v>1</v>
-      </c>
-      <c r="C2444">
-        <v>7</v>
-      </c>
-      <c r="D2444" t="s">
-        <v>5594</v>
-      </c>
-      <c r="E2444" t="s">
-        <v>5590</v>
-      </c>
-      <c r="F2444" t="s">
-        <v>5595</v>
-      </c>
-      <c r="G2444">
-        <v>0</v>
-      </c>
-      <c r="H2444">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2445" spans="1:8">
-      <c r="A2445">
-        <v>2444</v>
-      </c>
-      <c r="B2445">
-        <v>1</v>
-      </c>
-      <c r="C2445">
-        <v>7</v>
-      </c>
-      <c r="D2445" t="s">
-        <v>3824</v>
-      </c>
-      <c r="E2445" t="s">
-        <v>5596</v>
-      </c>
-      <c r="F2445" t="s">
-        <v>5597</v>
-      </c>
-      <c r="G2445">
-        <v>0</v>
-      </c>
-      <c r="H2445">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2446" spans="1:8">
-      <c r="A2446">
-        <v>2445</v>
-      </c>
-      <c r="B2446">
-        <v>1</v>
-      </c>
-      <c r="C2446">
-        <v>7</v>
-      </c>
-      <c r="D2446" t="s">
-        <v>5598</v>
-      </c>
-      <c r="E2446" t="s">
-        <v>5599</v>
-      </c>
-      <c r="F2446" t="s">
-        <v>5600</v>
-      </c>
-      <c r="G2446">
-        <v>0</v>
-      </c>
-      <c r="H2446">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2447" spans="1:8">
-      <c r="A2447">
-        <v>2446</v>
-      </c>
-      <c r="B2447">
-        <v>1</v>
-      </c>
-      <c r="C2447">
-        <v>7</v>
-      </c>
-      <c r="D2447" t="s">
-        <v>5601</v>
-      </c>
-      <c r="E2447" t="s">
-        <v>5602</v>
-      </c>
-      <c r="F2447" t="s">
-        <v>5603</v>
-      </c>
-      <c r="G2447">
-        <v>0</v>
-      </c>
-      <c r="H2447">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2448" spans="1:8">
-      <c r="A2448">
-        <v>2447</v>
-      </c>
-      <c r="B2448">
-        <v>1</v>
-      </c>
-      <c r="C2448">
-        <v>7</v>
-      </c>
-      <c r="D2448" t="s">
-        <v>966</v>
-      </c>
-      <c r="E2448" t="s">
-        <v>5604</v>
-      </c>
-      <c r="F2448" t="s">
-        <v>5605</v>
-      </c>
-      <c r="G2448">
-        <v>0</v>
-      </c>
-      <c r="H2448">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2449" spans="1:8">
-      <c r="A2449">
-        <v>2448</v>
-      </c>
-      <c r="B2449">
-        <v>1</v>
-      </c>
-      <c r="C2449">
-        <v>7</v>
-      </c>
-      <c r="D2449" t="s">
-        <v>5606</v>
-      </c>
-      <c r="E2449" t="s">
-        <v>5607</v>
-      </c>
-      <c r="F2449" t="s">
-        <v>5608</v>
-      </c>
-      <c r="G2449">
-        <v>0</v>
-      </c>
-      <c r="H2449">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2450" spans="1:8">
-      <c r="A2450">
-        <v>2449</v>
-      </c>
-      <c r="B2450">
-        <v>1</v>
-      </c>
-      <c r="C2450">
-        <v>7</v>
-      </c>
-      <c r="D2450" t="s">
-        <v>5609</v>
-      </c>
-      <c r="E2450" t="s">
-        <v>5610</v>
-      </c>
-      <c r="F2450" t="s">
-        <v>5611</v>
-      </c>
-      <c r="G2450">
-        <v>0</v>
-      </c>
-      <c r="H2450">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2451" spans="1:8">
-      <c r="A2451">
-        <v>2450</v>
-      </c>
-      <c r="B2451">
-        <v>1</v>
-      </c>
-      <c r="C2451">
-        <v>7</v>
-      </c>
-      <c r="D2451" t="s">
-        <v>5612</v>
-      </c>
-      <c r="E2451" t="s">
-        <v>5613</v>
-      </c>
-      <c r="F2451" t="s">
-        <v>5614</v>
-      </c>
-      <c r="G2451">
-        <v>0</v>
-      </c>
-      <c r="H2451">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2452" spans="1:8">
-      <c r="A2452">
-        <v>2451</v>
-      </c>
-      <c r="B2452">
-        <v>1</v>
-      </c>
-      <c r="C2452">
-        <v>7</v>
-      </c>
-      <c r="D2452" t="s">
-        <v>5615</v>
-      </c>
-      <c r="E2452" t="s">
-        <v>5616</v>
-      </c>
-      <c r="F2452" t="s">
-        <v>5617</v>
-      </c>
-      <c r="G2452">
-        <v>0</v>
-      </c>
-      <c r="H2452">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2453" spans="1:8">
-      <c r="A2453">
-        <v>2452</v>
-      </c>
-      <c r="B2453">
-        <v>1</v>
-      </c>
-      <c r="C2453">
-        <v>7</v>
-      </c>
-      <c r="D2453" t="s">
-        <v>5618</v>
-      </c>
-      <c r="E2453" t="s">
-        <v>5611</v>
-      </c>
-      <c r="F2453" t="s">
-        <v>5619</v>
-      </c>
-      <c r="G2453">
-        <v>0</v>
-      </c>
-      <c r="H2453">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2454" spans="1:8">
-      <c r="A2454">
-        <v>2453</v>
-      </c>
-      <c r="B2454">
-        <v>1</v>
-      </c>
-      <c r="C2454">
-        <v>7</v>
-      </c>
-      <c r="D2454" t="s">
-        <v>5620</v>
-      </c>
-      <c r="E2454" t="s">
-        <v>5614</v>
-      </c>
-      <c r="F2454" t="s">
-        <v>5619</v>
-      </c>
-      <c r="G2454">
-        <v>0</v>
-      </c>
-      <c r="H2454">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2455" spans="1:8">
-      <c r="A2455">
-        <v>2454</v>
-      </c>
-      <c r="B2455">
-        <v>1</v>
-      </c>
-      <c r="C2455">
-        <v>7</v>
-      </c>
-      <c r="D2455" t="s">
-        <v>2566</v>
-      </c>
-      <c r="E2455" t="s">
-        <v>5621</v>
-      </c>
-      <c r="F2455" t="s">
-        <v>5622</v>
-      </c>
-      <c r="G2455">
-        <v>0</v>
-      </c>
-      <c r="H2455">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2456" spans="1:8">
-      <c r="A2456">
-        <v>2455</v>
-      </c>
-      <c r="B2456">
-        <v>1</v>
-      </c>
-      <c r="C2456">
-        <v>7</v>
-      </c>
-      <c r="D2456" t="s">
-        <v>5623</v>
-      </c>
-      <c r="E2456" t="s">
-        <v>5621</v>
-      </c>
-      <c r="F2456" t="s">
-        <v>5624</v>
-      </c>
-      <c r="G2456">
-        <v>0</v>
-      </c>
-      <c r="H2456">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2457" spans="1:8">
-      <c r="A2457">
-        <v>2456</v>
-      </c>
-      <c r="B2457">
-        <v>1</v>
-      </c>
-      <c r="C2457">
-        <v>7</v>
-      </c>
-      <c r="D2457" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E2457" t="s">
-        <v>5625</v>
-      </c>
-      <c r="F2457" t="s">
-        <v>5626</v>
-      </c>
-      <c r="G2457">
-        <v>0</v>
-      </c>
-      <c r="H2457">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2458" spans="1:8">
-      <c r="A2458">
-        <v>2457</v>
-      </c>
-      <c r="B2458">
-        <v>1</v>
-      </c>
-      <c r="C2458">
-        <v>7</v>
-      </c>
-      <c r="D2458" t="s">
-        <v>5627</v>
-      </c>
-      <c r="E2458" t="s">
-        <v>5628</v>
-      </c>
-      <c r="F2458" t="s">
-        <v>5629</v>
-      </c>
-      <c r="G2458">
-        <v>0</v>
-      </c>
-      <c r="H2458">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2459" spans="1:8">
-      <c r="A2459">
-        <v>2458</v>
-      </c>
-      <c r="B2459">
-        <v>1</v>
-      </c>
-      <c r="C2459">
-        <v>7</v>
-      </c>
-      <c r="D2459" t="s">
-        <v>474</v>
-      </c>
-      <c r="E2459" t="s">
-        <v>5628</v>
-      </c>
-      <c r="F2459" t="s">
-        <v>5630</v>
-      </c>
-      <c r="G2459">
-        <v>0</v>
-      </c>
-      <c r="H2459">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2460" spans="1:8">
-      <c r="A2460">
-        <v>2459</v>
-      </c>
-      <c r="B2460">
-        <v>1</v>
-      </c>
-      <c r="C2460">
-        <v>7</v>
-      </c>
-      <c r="D2460" t="s">
-        <v>5631</v>
-      </c>
-      <c r="E2460" t="s">
-        <v>5632</v>
-      </c>
-      <c r="F2460" t="s">
-        <v>5633</v>
-      </c>
-      <c r="G2460">
-        <v>0</v>
-      </c>
-      <c r="H2460">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2461" spans="1:8">
-      <c r="A2461">
-        <v>2460</v>
-      </c>
-      <c r="B2461">
-        <v>1</v>
-      </c>
-      <c r="C2461">
-        <v>7</v>
-      </c>
-      <c r="D2461" t="s">
-        <v>1105</v>
-      </c>
-      <c r="E2461" t="s">
-        <v>5634</v>
-      </c>
-      <c r="F2461" t="s">
-        <v>5635</v>
-      </c>
-      <c r="G2461">
-        <v>0</v>
-      </c>
-      <c r="H2461">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2462" spans="1:8">
-      <c r="A2462">
-        <v>2461</v>
-      </c>
-      <c r="B2462">
-        <v>1</v>
-      </c>
-      <c r="C2462">
-        <v>7</v>
-      </c>
-      <c r="D2462" t="s">
-        <v>3315</v>
-      </c>
-      <c r="E2462" t="s">
-        <v>5636</v>
-      </c>
-      <c r="F2462" t="s">
-        <v>5637</v>
-      </c>
-      <c r="G2462">
-        <v>0</v>
-      </c>
-      <c r="H2462">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2463" spans="1:8">
-      <c r="A2463">
-        <v>2462</v>
-      </c>
-      <c r="B2463">
-        <v>1</v>
-      </c>
-      <c r="C2463">
-        <v>7</v>
-      </c>
-      <c r="D2463" t="s">
-        <v>5638</v>
-      </c>
-      <c r="E2463" t="s">
-        <v>5639</v>
-      </c>
-      <c r="F2463" t="s">
-        <v>5640</v>
-      </c>
-      <c r="G2463">
-        <v>0</v>
-      </c>
-      <c r="H2463">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2464" spans="1:8">
-      <c r="A2464">
-        <v>2463</v>
-      </c>
-      <c r="B2464">
-        <v>1</v>
-      </c>
-      <c r="C2464">
-        <v>7</v>
-      </c>
-      <c r="D2464" t="s">
-        <v>5641</v>
-      </c>
-      <c r="E2464" t="s">
-        <v>5639</v>
-      </c>
-      <c r="F2464" t="s">
-        <v>5642</v>
-      </c>
-      <c r="G2464">
-        <v>0</v>
-      </c>
-      <c r="H2464">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2465" spans="1:8">
-      <c r="A2465">
-        <v>2464</v>
-      </c>
-      <c r="B2465">
-        <v>1</v>
-      </c>
-      <c r="C2465">
-        <v>7</v>
-      </c>
-      <c r="D2465" t="s">
-        <v>5643</v>
-      </c>
-      <c r="E2465" t="s">
-        <v>5644</v>
-      </c>
-      <c r="F2465" t="s">
-        <v>5645</v>
-      </c>
-      <c r="G2465">
-        <v>0</v>
-      </c>
-      <c r="H2465">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2466" spans="1:8">
-      <c r="A2466">
-        <v>2465</v>
-      </c>
-      <c r="B2466">
-        <v>1</v>
-      </c>
-      <c r="C2466">
-        <v>7</v>
-      </c>
-      <c r="D2466" t="s">
-        <v>3782</v>
-      </c>
-      <c r="E2466" t="s">
-        <v>5646</v>
-      </c>
-      <c r="F2466" t="s">
-        <v>5645</v>
-      </c>
-      <c r="G2466">
-        <v>0</v>
-      </c>
-      <c r="H2466">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2467" spans="1:8">
-      <c r="A2467">
-        <v>2466</v>
-      </c>
-      <c r="B2467">
-        <v>1</v>
-      </c>
-      <c r="C2467">
-        <v>7</v>
-      </c>
-      <c r="D2467" t="s">
-        <v>5647</v>
-      </c>
-      <c r="E2467" t="s">
-        <v>5648</v>
-      </c>
-      <c r="F2467" t="s">
-        <v>5649</v>
-      </c>
-      <c r="G2467">
-        <v>0</v>
-      </c>
-      <c r="H2467">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2468" spans="1:8">
-      <c r="A2468">
-        <v>2467</v>
-      </c>
-      <c r="B2468">
-        <v>1</v>
-      </c>
-      <c r="C2468">
-        <v>7</v>
-      </c>
-      <c r="D2468" t="s">
-        <v>5650</v>
-      </c>
-      <c r="E2468" t="s">
-        <v>5651</v>
-      </c>
-      <c r="F2468" t="s">
-        <v>5652</v>
-      </c>
-      <c r="G2468">
-        <v>0</v>
-      </c>
-      <c r="H2468">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2469" spans="1:8">
-      <c r="A2469">
-        <v>2468</v>
-      </c>
-      <c r="B2469">
-        <v>1</v>
-      </c>
-      <c r="C2469">
-        <v>7</v>
-      </c>
-      <c r="D2469" t="s">
-        <v>3631</v>
-      </c>
-      <c r="E2469" t="s">
-        <v>5653</v>
-      </c>
-      <c r="F2469" t="s">
-        <v>5654</v>
-      </c>
-      <c r="G2469">
-        <v>0</v>
-      </c>
-      <c r="H2469">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2470" spans="1:8">
-      <c r="A2470">
-        <v>2469</v>
-      </c>
-      <c r="B2470">
-        <v>1</v>
-      </c>
-      <c r="C2470">
-        <v>7</v>
-      </c>
-      <c r="D2470" t="s">
-        <v>5655</v>
-      </c>
-      <c r="E2470" t="s">
-        <v>5656</v>
-      </c>
-      <c r="F2470" t="s">
-        <v>5657</v>
-      </c>
-      <c r="G2470">
-        <v>0</v>
-      </c>
-      <c r="H2470">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2471" spans="1:8">
-      <c r="A2471">
-        <v>2470</v>
-      </c>
-      <c r="B2471">
-        <v>1</v>
-      </c>
-      <c r="C2471">
-        <v>7</v>
-      </c>
-      <c r="D2471" t="s">
-        <v>5658</v>
-      </c>
-      <c r="E2471" t="s">
-        <v>5656</v>
-      </c>
-      <c r="F2471" t="s">
-        <v>5659</v>
-      </c>
-      <c r="G2471">
-        <v>0</v>
-      </c>
-      <c r="H2471">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2472" spans="1:8">
-      <c r="A2472">
-        <v>2471</v>
-      </c>
-      <c r="B2472">
-        <v>1</v>
-      </c>
-      <c r="C2472">
-        <v>7</v>
-      </c>
-      <c r="D2472" t="s">
-        <v>5660</v>
-      </c>
-      <c r="E2472" t="s">
-        <v>5661</v>
-      </c>
-      <c r="F2472" t="s">
-        <v>5662</v>
-      </c>
-      <c r="G2472">
-        <v>0</v>
-      </c>
-      <c r="H2472">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2473" spans="1:8">
-      <c r="A2473">
-        <v>2472</v>
-      </c>
-      <c r="B2473">
-        <v>1</v>
-      </c>
-      <c r="C2473">
-        <v>7</v>
-      </c>
-      <c r="D2473" t="s">
-        <v>5663</v>
-      </c>
-      <c r="E2473" t="s">
-        <v>5662</v>
-      </c>
-      <c r="F2473" t="s">
-        <v>5664</v>
-      </c>
-      <c r="G2473">
-        <v>0</v>
-      </c>
-      <c r="H2473">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2474" spans="1:8">
-      <c r="A2474">
-        <v>2473</v>
-      </c>
-      <c r="B2474">
-        <v>1</v>
-      </c>
-      <c r="C2474">
-        <v>7</v>
-      </c>
-      <c r="G2474">
-        <v>0</v>
-      </c>
-      <c r="H2474">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2475" spans="1:8">
-      <c r="A2475">
-        <v>2474</v>
-      </c>
-      <c r="B2475">
-        <v>1</v>
-      </c>
-      <c r="C2475">
-        <v>7</v>
-      </c>
-      <c r="G2475">
-        <v>0</v>
-      </c>
-      <c r="H2475">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2476" spans="1:8">
-      <c r="A2476">
-        <v>2475</v>
-      </c>
-      <c r="B2476">
-        <v>1</v>
-      </c>
-      <c r="C2476">
-        <v>7</v>
-      </c>
-      <c r="G2476">
-        <v>0</v>
-      </c>
-      <c r="H2476">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2477" spans="1:8">
-      <c r="A2477">
-        <v>2476</v>
-      </c>
-      <c r="B2477">
-        <v>1</v>
-      </c>
-      <c r="C2477">
-        <v>7</v>
-      </c>
-      <c r="G2477">
-        <v>0</v>
-      </c>
-      <c r="H2477">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2478" spans="1:8">
-      <c r="A2478">
-        <v>2477</v>
-      </c>
-      <c r="B2478">
-        <v>1</v>
-      </c>
-      <c r="C2478">
-        <v>7</v>
-      </c>
-      <c r="G2478">
-        <v>0</v>
-      </c>
-      <c r="H2478">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2479" spans="1:8">
-      <c r="A2479">
-        <v>2478</v>
-      </c>
-      <c r="B2479">
-        <v>1</v>
-      </c>
-      <c r="C2479">
-        <v>7</v>
-      </c>
-      <c r="G2479">
-        <v>0</v>
-      </c>
-      <c r="H2479">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2480" spans="1:8">
-      <c r="A2480">
-        <v>2479</v>
-      </c>
-      <c r="B2480">
-        <v>1</v>
-      </c>
-      <c r="C2480">
-        <v>7</v>
-      </c>
-      <c r="G2480">
-        <v>0</v>
-      </c>
-      <c r="H2480">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2481" spans="1:8">
-      <c r="A2481">
-        <v>2480</v>
-      </c>
-      <c r="B2481">
-        <v>1</v>
-      </c>
-      <c r="C2481">
-        <v>7</v>
-      </c>
-      <c r="G2481">
-        <v>0</v>
-      </c>
-      <c r="H2481">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2482" spans="1:8">
-      <c r="A2482">
-        <v>2481</v>
-      </c>
-      <c r="B2482">
-        <v>1</v>
-      </c>
-      <c r="C2482">
-        <v>7</v>
-      </c>
-      <c r="G2482">
-        <v>0</v>
-      </c>
-      <c r="H2482">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2483" spans="1:8">
-      <c r="A2483">
-        <v>2482</v>
-      </c>
-      <c r="B2483">
-        <v>1</v>
-      </c>
-      <c r="C2483">
-        <v>7</v>
-      </c>
-      <c r="G2483">
-        <v>0</v>
-      </c>
-      <c r="H2483">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2484" spans="1:8">
-      <c r="A2484">
-        <v>2483</v>
-      </c>
-      <c r="B2484">
-        <v>1</v>
-      </c>
-      <c r="C2484">
-        <v>7</v>
-      </c>
-      <c r="G2484">
-        <v>0</v>
-      </c>
-      <c r="H2484">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2485" spans="1:8">
-      <c r="A2485">
-        <v>2484</v>
-      </c>
-      <c r="B2485">
-        <v>1</v>
-      </c>
-      <c r="C2485">
-        <v>7</v>
-      </c>
-      <c r="G2485">
-        <v>0</v>
-      </c>
-      <c r="H2485">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2486" spans="1:8">
-      <c r="A2486">
-        <v>2485</v>
-      </c>
-      <c r="B2486">
-        <v>1</v>
-      </c>
-      <c r="C2486">
-        <v>7</v>
-      </c>
-      <c r="G2486">
-        <v>0</v>
-      </c>
-      <c r="H2486">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2487" spans="1:8">
-      <c r="A2487">
-        <v>2486</v>
-      </c>
-      <c r="B2487">
-        <v>1</v>
-      </c>
-      <c r="C2487">
-        <v>7</v>
-      </c>
-      <c r="G2487">
-        <v>0</v>
-      </c>
-      <c r="H2487">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2488" spans="1:8">
-      <c r="A2488">
-        <v>2487</v>
-      </c>
-      <c r="B2488">
-        <v>1</v>
-      </c>
-      <c r="C2488">
-        <v>7</v>
-      </c>
-      <c r="G2488">
-        <v>0</v>
-      </c>
-      <c r="H2488">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2489" spans="1:8">
-      <c r="A2489">
-        <v>2488</v>
-      </c>
-      <c r="B2489">
-        <v>1</v>
-      </c>
-      <c r="C2489">
-        <v>7</v>
-      </c>
-      <c r="G2489">
-        <v>0</v>
-      </c>
-      <c r="H2489">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2490" spans="1:8">
-      <c r="A2490">
-        <v>2489</v>
-      </c>
-      <c r="B2490">
-        <v>1</v>
-      </c>
-      <c r="C2490">
-        <v>7</v>
-      </c>
-      <c r="G2490">
-        <v>0</v>
-      </c>
-      <c r="H2490">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2491" spans="1:8">
-      <c r="A2491">
-        <v>2490</v>
-      </c>
-      <c r="B2491">
-        <v>1</v>
-      </c>
-      <c r="C2491">
-        <v>7</v>
-      </c>
-      <c r="G2491">
-        <v>0</v>
-      </c>
-      <c r="H2491">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2492" spans="1:8">
-      <c r="A2492">
-        <v>2491</v>
-      </c>
-      <c r="B2492">
-        <v>1</v>
-      </c>
-      <c r="C2492">
-        <v>7</v>
-      </c>
-      <c r="G2492">
-        <v>0</v>
-      </c>
-      <c r="H2492">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2493" spans="1:8">
-      <c r="A2493">
-        <v>2492</v>
-      </c>
-      <c r="B2493">
-        <v>1</v>
-      </c>
-      <c r="C2493">
-        <v>7</v>
-      </c>
-      <c r="G2493">
-        <v>0</v>
-      </c>
-      <c r="H2493">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2494" spans="1:8">
-      <c r="A2494">
-        <v>2493</v>
-      </c>
-      <c r="B2494">
-        <v>1</v>
-      </c>
-      <c r="C2494">
-        <v>7</v>
-      </c>
-      <c r="G2494">
-        <v>0</v>
-      </c>
-      <c r="H2494">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2495" spans="1:8">
-      <c r="A2495">
-        <v>2494</v>
-      </c>
-      <c r="B2495">
-        <v>1</v>
-      </c>
-      <c r="C2495">
-        <v>7</v>
-      </c>
-      <c r="G2495">
-        <v>0</v>
-      </c>
-      <c r="H2495">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2496" spans="1:8">
-      <c r="A2496">
-        <v>2495</v>
-      </c>
-      <c r="B2496">
-        <v>1</v>
-      </c>
-      <c r="C2496">
-        <v>7</v>
-      </c>
-      <c r="G2496">
-        <v>0</v>
-      </c>
-      <c r="H2496">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2497" spans="1:8">
-      <c r="A2497">
-        <v>2496</v>
-      </c>
-      <c r="B2497">
-        <v>1</v>
-      </c>
-      <c r="C2497">
-        <v>7</v>
-      </c>
-      <c r="G2497">
-        <v>0</v>
-      </c>
-      <c r="H2497">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2498" spans="1:8">
-      <c r="A2498">
-        <v>2497</v>
-      </c>
-      <c r="B2498">
-        <v>1</v>
-      </c>
-      <c r="C2498">
-        <v>7</v>
-      </c>
-      <c r="G2498">
-        <v>0</v>
-      </c>
-      <c r="H2498">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2499" spans="1:8">
-      <c r="A2499">
-        <v>2498</v>
-      </c>
-      <c r="B2499">
-        <v>1</v>
-      </c>
-      <c r="C2499">
-        <v>7</v>
-      </c>
-      <c r="G2499">
-        <v>0</v>
-      </c>
-      <c r="H2499">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2500" spans="1:8">
-      <c r="A2500">
-        <v>2499</v>
-      </c>
-      <c r="B2500">
-        <v>1</v>
-      </c>
-      <c r="C2500">
-        <v>7</v>
-      </c>
-      <c r="G2500">
-        <v>0</v>
-      </c>
-      <c r="H2500">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/spreadsheets/clips.xlsx
+++ b/spreadsheets/clips.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8255" uniqueCount="6241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9008" uniqueCount="6731">
   <si>
     <t>id</t>
   </si>
@@ -18745,6 +18745,1476 @@
   </si>
   <si>
     <t>00;02;59;05</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>00;03;00;16</t>
+  </si>
+  <si>
+    <t>00;03;00;46</t>
+  </si>
+  <si>
+    <t>town</t>
+  </si>
+  <si>
+    <t>00;03;02;30</t>
+  </si>
+  <si>
+    <t>00;03;03;00</t>
+  </si>
+  <si>
+    <t>00;03;03;01</t>
+  </si>
+  <si>
+    <t>00;03;03;53</t>
+  </si>
+  <si>
+    <t>00;00;18;33</t>
+  </si>
+  <si>
+    <t>00;00;18;51</t>
+  </si>
+  <si>
+    <t>00;00;19;12</t>
+  </si>
+  <si>
+    <t>00;00;19;13</t>
+  </si>
+  <si>
+    <t>00;00;19;44</t>
+  </si>
+  <si>
+    <t>december</t>
+  </si>
+  <si>
+    <t>00;00;19;45</t>
+  </si>
+  <si>
+    <t>00;00;20;12</t>
+  </si>
+  <si>
+    <t>00;00;21;48</t>
+  </si>
+  <si>
+    <t>and you</t>
+  </si>
+  <si>
+    <t>00;00;21;50</t>
+  </si>
+  <si>
+    <t>00;00;22;16</t>
+  </si>
+  <si>
+    <t>00;00;21;57</t>
+  </si>
+  <si>
+    <t>00;00;22;14</t>
+  </si>
+  <si>
+    <t>00;00;22;47</t>
+  </si>
+  <si>
+    <t>00;00;22;35</t>
+  </si>
+  <si>
+    <t>00;00;22;57</t>
+  </si>
+  <si>
+    <t>coming back</t>
+  </si>
+  <si>
+    <t>00;00;24;10</t>
+  </si>
+  <si>
+    <t>i'm coming back</t>
+  </si>
+  <si>
+    <t>00;00;23;24</t>
+  </si>
+  <si>
+    <t>i'm coming</t>
+  </si>
+  <si>
+    <t>00;00;23;51</t>
+  </si>
+  <si>
+    <t>00;00;23;32</t>
+  </si>
+  <si>
+    <t>00;00;23;52</t>
+  </si>
+  <si>
+    <t>00;00;23;50</t>
+  </si>
+  <si>
+    <t>nine o' clock</t>
+  </si>
+  <si>
+    <t>00;00;24;20</t>
+  </si>
+  <si>
+    <t>00;00;24;56</t>
+  </si>
+  <si>
+    <t>00;00;24;19</t>
+  </si>
+  <si>
+    <t>00;00;24;35</t>
+  </si>
+  <si>
+    <t>o' clock</t>
+  </si>
+  <si>
+    <t>00;00;24;37</t>
+  </si>
+  <si>
+    <t>00;00;24;58</t>
+  </si>
+  <si>
+    <t>marathon</t>
+  </si>
+  <si>
+    <t>00;00;27;23</t>
+  </si>
+  <si>
+    <t>00;00;27;54</t>
+  </si>
+  <si>
+    <t>00;00;27;55</t>
+  </si>
+  <si>
+    <t>00;00;28;17</t>
+  </si>
+  <si>
+    <t>going on</t>
+  </si>
+  <si>
+    <t>00;00;28;18</t>
+  </si>
+  <si>
+    <t>00;00;28;53</t>
+  </si>
+  <si>
+    <t>stepping in</t>
+  </si>
+  <si>
+    <t>00;00;29;53</t>
+  </si>
+  <si>
+    <t>00;00;30;28</t>
+  </si>
+  <si>
+    <t>our news</t>
+  </si>
+  <si>
+    <t>00;00;32;13</t>
+  </si>
+  <si>
+    <t>00;00;32;32</t>
+  </si>
+  <si>
+    <t>newscast</t>
+  </si>
+  <si>
+    <t>00;00;32;47</t>
+  </si>
+  <si>
+    <t>00;00;32;52</t>
+  </si>
+  <si>
+    <t>00;00;33;06</t>
+  </si>
+  <si>
+    <t>this hour</t>
+  </si>
+  <si>
+    <t>00;00;33;11</t>
+  </si>
+  <si>
+    <t>the flu</t>
+  </si>
+  <si>
+    <t>00;00;33;29</t>
+  </si>
+  <si>
+    <t>00;00;33;55</t>
+  </si>
+  <si>
+    <t>flu</t>
+  </si>
+  <si>
+    <t>00;00;33;40</t>
+  </si>
+  <si>
+    <t>flu season</t>
+  </si>
+  <si>
+    <t>00;00;34;17</t>
+  </si>
+  <si>
+    <t>has arrived</t>
+  </si>
+  <si>
+    <t>00;00;34;18</t>
+  </si>
+  <si>
+    <t>00;00;35;04</t>
+  </si>
+  <si>
+    <t>arrived</t>
+  </si>
+  <si>
+    <t>00;00;34;34</t>
+  </si>
+  <si>
+    <t>00;00;34;35</t>
+  </si>
+  <si>
+    <t>00;00;35;08</t>
+  </si>
+  <si>
+    <t>00;00;35;03</t>
+  </si>
+  <si>
+    <t>and it is</t>
+  </si>
+  <si>
+    <t>00;00;35;45</t>
+  </si>
+  <si>
+    <t>and it</t>
+  </si>
+  <si>
+    <t>00;00;35;30</t>
+  </si>
+  <si>
+    <t>00;00;35;15</t>
+  </si>
+  <si>
+    <t>00;00;35;31</t>
+  </si>
+  <si>
+    <t>hitting</t>
+  </si>
+  <si>
+    <t>00;00;35;43</t>
+  </si>
+  <si>
+    <t>00;00;36;01</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>00;00;36;19</t>
+  </si>
+  <si>
+    <t>00;00;36;45</t>
+  </si>
+  <si>
+    <t>00;00;37;34</t>
+  </si>
+  <si>
+    <t>00;00;38;12</t>
+  </si>
+  <si>
+    <t>real hard</t>
+  </si>
+  <si>
+    <t>00;00;38;13</t>
+  </si>
+  <si>
+    <t>00;00;38;53</t>
+  </si>
+  <si>
+    <t>00;00;38;37</t>
+  </si>
+  <si>
+    <t>this morning</t>
+  </si>
+  <si>
+    <t>00;00;38;50</t>
+  </si>
+  <si>
+    <t>00;00;41;09</t>
+  </si>
+  <si>
+    <t>its been</t>
+  </si>
+  <si>
+    <t>00;00;41;08</t>
+  </si>
+  <si>
+    <t>00;00;41;31</t>
+  </si>
+  <si>
+    <t>shut down</t>
+  </si>
+  <si>
+    <t>00;00;41;29</t>
+  </si>
+  <si>
+    <t>00;00;41;59</t>
+  </si>
+  <si>
+    <t>shut</t>
+  </si>
+  <si>
+    <t>00;00;41;49</t>
+  </si>
+  <si>
+    <t>00;00;42;12</t>
+  </si>
+  <si>
+    <t>00;00;42;40</t>
+  </si>
+  <si>
+    <t>many kids</t>
+  </si>
+  <si>
+    <t>00;00;42;41</t>
+  </si>
+  <si>
+    <t>so many</t>
+  </si>
+  <si>
+    <t>00;00;42;58</t>
+  </si>
+  <si>
+    <t>00;00;43;16</t>
+  </si>
+  <si>
+    <t>there are</t>
+  </si>
+  <si>
+    <t>00;00;43;17</t>
+  </si>
+  <si>
+    <t>00;00;43;36</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>00;00;44;00</t>
+  </si>
+  <si>
+    <t>classrooms</t>
+  </si>
+  <si>
+    <t>00;00;49;51</t>
+  </si>
+  <si>
+    <t>00;00;50;23</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>00;00;49;50</t>
+  </si>
+  <si>
+    <t>00;00;50;09</t>
+  </si>
+  <si>
+    <t>classroom</t>
+  </si>
+  <si>
+    <t>were empty</t>
+  </si>
+  <si>
+    <t>00;00;50;24</t>
+  </si>
+  <si>
+    <t>00;00;51;12</t>
+  </si>
+  <si>
+    <t>we're empty</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>00;00;50;39</t>
+  </si>
+  <si>
+    <t>00;00;52;13</t>
+  </si>
+  <si>
+    <t>00;00;52;36</t>
+  </si>
+  <si>
+    <t>00;00;52;37</t>
+  </si>
+  <si>
+    <t>00;00;52;54</t>
+  </si>
+  <si>
+    <t>you know when</t>
+  </si>
+  <si>
+    <t>00;00;53;04</t>
+  </si>
+  <si>
+    <t>00;00;53;05</t>
+  </si>
+  <si>
+    <t>00;00;53;44</t>
+  </si>
+  <si>
+    <t>00;00;54;32</t>
+  </si>
+  <si>
+    <t>00;00;53;56</t>
+  </si>
+  <si>
+    <t>00;00;54;13</t>
+  </si>
+  <si>
+    <t>00;00;54;14</t>
+  </si>
+  <si>
+    <t>00;00;54;33</t>
+  </si>
+  <si>
+    <t>seventy</t>
+  </si>
+  <si>
+    <t>00;00;54;36</t>
+  </si>
+  <si>
+    <t>00;00;55;14</t>
+  </si>
+  <si>
+    <t>00;00;54;57</t>
+  </si>
+  <si>
+    <t>00;00;54;58</t>
+  </si>
+  <si>
+    <t>students</t>
+  </si>
+  <si>
+    <t>00;00;55;15</t>
+  </si>
+  <si>
+    <t>00;00;56;05</t>
+  </si>
+  <si>
+    <t>00;00;56;33</t>
+  </si>
+  <si>
+    <t>00;00;55;53</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>00;00;56;42</t>
+  </si>
+  <si>
+    <t>00;00;56;59</t>
+  </si>
+  <si>
+    <t>00;00;57;09</t>
+  </si>
+  <si>
+    <t>00;00;57;24</t>
+  </si>
+  <si>
+    <t>faculty</t>
+  </si>
+  <si>
+    <t>00;00;57;25</t>
+  </si>
+  <si>
+    <t>00;00;58;02</t>
+  </si>
+  <si>
+    <t>additional</t>
+  </si>
+  <si>
+    <t>00;00;58;12</t>
+  </si>
+  <si>
+    <t>00;00;58;42</t>
+  </si>
+  <si>
+    <t>missing school</t>
+  </si>
+  <si>
+    <t>00;01;00;44</t>
+  </si>
+  <si>
+    <t>00;01;01;28</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>00;01;01;03</t>
+  </si>
+  <si>
+    <t>00;01;01;27</t>
+  </si>
+  <si>
+    <t>by the way</t>
+  </si>
+  <si>
+    <t>00;02;10;15</t>
+  </si>
+  <si>
+    <t>00;02;10;43</t>
+  </si>
+  <si>
+    <t>00;02;10;46</t>
+  </si>
+  <si>
+    <t>00;02;11;08</t>
+  </si>
+  <si>
+    <t>00;02;11;09</t>
+  </si>
+  <si>
+    <t>00;02;11;31</t>
+  </si>
+  <si>
+    <t>going forward</t>
+  </si>
+  <si>
+    <t>00;02;12;09</t>
+  </si>
+  <si>
+    <t>00;02;12;12</t>
+  </si>
+  <si>
+    <t>00;02;12;35</t>
+  </si>
+  <si>
+    <t>as planned</t>
+  </si>
+  <si>
+    <t>00;02;13;05</t>
+  </si>
+  <si>
+    <t>planned</t>
+  </si>
+  <si>
+    <t>00;02;12;34</t>
+  </si>
+  <si>
+    <t>00;02;13;06</t>
+  </si>
+  <si>
+    <t>next week</t>
+  </si>
+  <si>
+    <t>00;02;13;07</t>
+  </si>
+  <si>
+    <t>00;02;13;23</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>00;02;13;37</t>
+  </si>
+  <si>
+    <t>00;02;14;16</t>
+  </si>
+  <si>
+    <t>00;02;14;34</t>
+  </si>
+  <si>
+    <t>00;02;15;17</t>
+  </si>
+  <si>
+    <t>of the</t>
+  </si>
+  <si>
+    <t>00;02;15;08</t>
+  </si>
+  <si>
+    <t>00;02;15;36</t>
+  </si>
+  <si>
+    <t>00;02;15;16</t>
+  </si>
+  <si>
+    <t>00;02;15;32</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>00;02;15;33</t>
+  </si>
+  <si>
+    <t>00;02;16;16</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>00;02;15;59</t>
+  </si>
+  <si>
+    <t>00;02;16;20</t>
+  </si>
+  <si>
+    <t>00;02;17;11</t>
+  </si>
+  <si>
+    <t>materials</t>
+  </si>
+  <si>
+    <t>00;02;17;53</t>
+  </si>
+  <si>
+    <t>00;02;17;08</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>00;02;17;47</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>00;02;18;07</t>
+  </si>
+  <si>
+    <t>00;02;18;52</t>
+  </si>
+  <si>
+    <t>won't be</t>
+  </si>
+  <si>
+    <t>won't</t>
+  </si>
+  <si>
+    <t>00;02;19;19</t>
+  </si>
+  <si>
+    <t>be included</t>
+  </si>
+  <si>
+    <t>00;02;19;20</t>
+  </si>
+  <si>
+    <t>included</t>
+  </si>
+  <si>
+    <t>00;02;19;27</t>
+  </si>
+  <si>
+    <t>00;02;19;53</t>
+  </si>
+  <si>
+    <t>00;02;20;12</t>
+  </si>
+  <si>
+    <t>exam</t>
+  </si>
+  <si>
+    <t>00;02;20;11</t>
+  </si>
+  <si>
+    <t>00;02;20;34</t>
+  </si>
+  <si>
+    <t>they say</t>
+  </si>
+  <si>
+    <t>00;02;20;56</t>
+  </si>
+  <si>
+    <t>00;02;20;57</t>
+  </si>
+  <si>
+    <t>cover</t>
+  </si>
+  <si>
+    <t>00;02;22;14</t>
+  </si>
+  <si>
+    <t>some of the</t>
+  </si>
+  <si>
+    <t>00;02;22;32</t>
+  </si>
+  <si>
+    <t>00;02;22;50</t>
+  </si>
+  <si>
+    <t>00;02;22;51</t>
+  </si>
+  <si>
+    <t>00;02;23;23</t>
+  </si>
+  <si>
+    <t>during</t>
+  </si>
+  <si>
+    <t>00;02;23;39</t>
+  </si>
+  <si>
+    <t>00;02;24;02</t>
+  </si>
+  <si>
+    <t>regular</t>
+  </si>
+  <si>
+    <t>00;02;24;00</t>
+  </si>
+  <si>
+    <t>00;02;24;29</t>
+  </si>
+  <si>
+    <t>00;02;24;50</t>
+  </si>
+  <si>
+    <t>sessions</t>
+  </si>
+  <si>
+    <t>00;02;25;20</t>
+  </si>
+  <si>
+    <t>session</t>
+  </si>
+  <si>
+    <t>00;02;25;42</t>
+  </si>
+  <si>
+    <t>00;02;25;43</t>
+  </si>
+  <si>
+    <t>00;02;26;21</t>
+  </si>
+  <si>
+    <t>00;02;26;00</t>
+  </si>
+  <si>
+    <t>00;02;26;25</t>
+  </si>
+  <si>
+    <t>leased</t>
+  </si>
+  <si>
+    <t>in that way</t>
+  </si>
+  <si>
+    <t>00;02;27;10</t>
+  </si>
+  <si>
+    <t>00;02;26;51</t>
+  </si>
+  <si>
+    <t>that way</t>
+  </si>
+  <si>
+    <t>00;02;26;35</t>
+  </si>
+  <si>
+    <t>00;02;27;35</t>
+  </si>
+  <si>
+    <t>00;02;28;17</t>
+  </si>
+  <si>
+    <t>accommodate</t>
+  </si>
+  <si>
+    <t>them</t>
+  </si>
+  <si>
+    <t>00;02;28;15</t>
+  </si>
+  <si>
+    <t>00;02;28;50</t>
+  </si>
+  <si>
+    <t>00;02;29;32</t>
+  </si>
+  <si>
+    <t>00;02;29;07</t>
+  </si>
+  <si>
+    <t>the less</t>
+  </si>
+  <si>
+    <t>00;02;29;06</t>
+  </si>
+  <si>
+    <t>they gotta be</t>
+  </si>
+  <si>
+    <t>00;02;30;03</t>
+  </si>
+  <si>
+    <t>feeling pretty bad</t>
+  </si>
+  <si>
+    <t>00;02;30;04</t>
+  </si>
+  <si>
+    <t>feeling pretty</t>
+  </si>
+  <si>
+    <t>00;02;30;41</t>
+  </si>
+  <si>
+    <t>pretty</t>
+  </si>
+  <si>
+    <t>00;02;30;23</t>
+  </si>
+  <si>
+    <t>pretty bad</t>
+  </si>
+  <si>
+    <t>00;02;30;39</t>
+  </si>
+  <si>
+    <t>00;02;31;37</t>
+  </si>
+  <si>
+    <t>00;02;31;10</t>
+  </si>
+  <si>
+    <t>00;02;31;38</t>
+  </si>
+  <si>
+    <t>00;02;32;22</t>
+  </si>
+  <si>
+    <t>twenty five</t>
+  </si>
+  <si>
+    <t>00;02;33;12</t>
+  </si>
+  <si>
+    <t>00;02;33;40</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>00;02;33;35</t>
+  </si>
+  <si>
+    <t>00;02;33;57</t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>00;02;34;24</t>
+  </si>
+  <si>
+    <t>00;02;35;01</t>
+  </si>
+  <si>
+    <t>00;02;35;44</t>
+  </si>
+  <si>
+    <t>out sick</t>
+  </si>
+  <si>
+    <t>00;02;36;27</t>
+  </si>
+  <si>
+    <t>00;02;35;40</t>
+  </si>
+  <si>
+    <t>00;02;37;22</t>
+  </si>
+  <si>
+    <t>reporing live</t>
+  </si>
+  <si>
+    <t>00;02;37;26</t>
+  </si>
+  <si>
+    <t>00;02;38;07</t>
+  </si>
+  <si>
+    <t>back to you</t>
+  </si>
+  <si>
+    <t>00;02;39;38</t>
+  </si>
+  <si>
+    <t>00;02;40;09</t>
+  </si>
+  <si>
+    <t>to you</t>
+  </si>
+  <si>
+    <t>00;02;39;53</t>
+  </si>
+  <si>
+    <t>00;02;40;29</t>
+  </si>
+  <si>
+    <t>newsroom</t>
+  </si>
+  <si>
+    <t>00;02;41;20</t>
+  </si>
+  <si>
+    <t>00;02;41;47</t>
+  </si>
+  <si>
+    <t>seat</t>
+  </si>
+  <si>
+    <t>00;02;44;22</t>
+  </si>
+  <si>
+    <t>00;02;44;03</t>
+  </si>
+  <si>
+    <t>seats</t>
+  </si>
+  <si>
+    <t>00;02;44;27</t>
+  </si>
+  <si>
+    <t>the studio</t>
+  </si>
+  <si>
+    <t>00;02;44;55</t>
+  </si>
+  <si>
+    <t>00;02;45;25</t>
+  </si>
+  <si>
+    <t>00;02;45;01</t>
+  </si>
+  <si>
+    <t>00;02;45;26</t>
+  </si>
+  <si>
+    <t>00;02;45;43</t>
+  </si>
+  <si>
+    <t>00;02;45;44</t>
+  </si>
+  <si>
+    <t>00;02;46;17</t>
+  </si>
+  <si>
+    <t>00;02;45;57</t>
+  </si>
+  <si>
+    <t>we appreciate that</t>
+  </si>
+  <si>
+    <t>00;02;46;36</t>
+  </si>
+  <si>
+    <t>00;02;47;23</t>
+  </si>
+  <si>
+    <t>we appreciate</t>
+  </si>
+  <si>
+    <t>00;02;47;14</t>
+  </si>
+  <si>
+    <t>00;02;46;44</t>
+  </si>
+  <si>
+    <t>appreciate that</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>00;02;47;21</t>
+  </si>
+  <si>
+    <t>00;02;47;45</t>
+  </si>
+  <si>
+    <t>another major</t>
+  </si>
+  <si>
+    <t>00;02;48;09</t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>00;02;47;42</t>
+  </si>
+  <si>
+    <t>00;02;48;08</t>
+  </si>
+  <si>
+    <t>nationally</t>
+  </si>
+  <si>
+    <t>00;02;48;26</t>
+  </si>
+  <si>
+    <t>00;02;48;59</t>
+  </si>
+  <si>
+    <t>we're following</t>
+  </si>
+  <si>
+    <t>00;02;48;55</t>
+  </si>
+  <si>
+    <t>00;02;49;05</t>
+  </si>
+  <si>
+    <t>00;02;49;25</t>
+  </si>
+  <si>
+    <t>00;02;49;48</t>
+  </si>
+  <si>
+    <t>protest</t>
+  </si>
+  <si>
+    <t>00;02;50;00</t>
+  </si>
+  <si>
+    <t>00;02;50;30</t>
+  </si>
+  <si>
+    <t>protests</t>
+  </si>
+  <si>
+    <t>00;02;50;35</t>
+  </si>
+  <si>
+    <t>continue</t>
+  </si>
+  <si>
+    <t>00;02;50;37</t>
+  </si>
+  <si>
+    <t>00;02;51;20</t>
+  </si>
+  <si>
+    <t>break out</t>
+  </si>
+  <si>
+    <t>00;02;51;55</t>
+  </si>
+  <si>
+    <t>00;02;51;44</t>
+  </si>
+  <si>
+    <t>across the country</t>
+  </si>
+  <si>
+    <t>00;02;51;53</t>
+  </si>
+  <si>
+    <t>00;02;52;45</t>
+  </si>
+  <si>
+    <t>across</t>
+  </si>
+  <si>
+    <t>00;02;52;14</t>
+  </si>
+  <si>
+    <t>the country</t>
+  </si>
+  <si>
+    <t>00;02;52;13</t>
+  </si>
+  <si>
+    <t>00;02;52;44</t>
+  </si>
+  <si>
+    <t>00;02;52;18</t>
+  </si>
+  <si>
+    <t>all in</t>
+  </si>
+  <si>
+    <t>00;02;53;12</t>
+  </si>
+  <si>
+    <t>00;02;52;47</t>
+  </si>
+  <si>
+    <t>response</t>
+  </si>
+  <si>
+    <t>grand jury</t>
+  </si>
+  <si>
+    <t>00;02;53;59</t>
+  </si>
+  <si>
+    <t>00;02;54;38</t>
+  </si>
+  <si>
+    <t>grand</t>
+  </si>
+  <si>
+    <t>00;02;54;17</t>
+  </si>
+  <si>
+    <t>jury</t>
+  </si>
+  <si>
+    <t>00;02;54;18</t>
+  </si>
+  <si>
+    <t>decision</t>
+  </si>
+  <si>
+    <t>00;02;54;37</t>
+  </si>
+  <si>
+    <t>00;02;55;10</t>
+  </si>
+  <si>
+    <t>michael</t>
+  </si>
+  <si>
+    <t>michael brown</t>
+  </si>
+  <si>
+    <t>00;02;56;18</t>
+  </si>
+  <si>
+    <t>00;02;55;59</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>00;02;56;17</t>
+  </si>
+  <si>
+    <t>berkely</t>
+  </si>
+  <si>
+    <t>00;02;57;47</t>
+  </si>
+  <si>
+    <t>00;02;58;13</t>
+  </si>
+  <si>
+    <t>berkely california</t>
+  </si>
+  <si>
+    <t>00;02;58;43</t>
+  </si>
+  <si>
+    <t>california</t>
+  </si>
+  <si>
+    <t>00;02;58;09</t>
+  </si>
+  <si>
+    <t>00;02;58;46</t>
+  </si>
+  <si>
+    <t>00;02;59;23</t>
+  </si>
+  <si>
+    <t>00;02;59;03</t>
+  </si>
+  <si>
+    <t>00;02;59;22</t>
+  </si>
+  <si>
+    <t>00;02;59;18</t>
+  </si>
+  <si>
+    <t>00;02;59;38</t>
+  </si>
+  <si>
+    <t>violence</t>
+  </si>
+  <si>
+    <t>00;03;00;32</t>
+  </si>
+  <si>
+    <t>00;03;01;05</t>
+  </si>
+  <si>
+    <t>dozens</t>
+  </si>
+  <si>
+    <t>00;03;01;12</t>
+  </si>
+  <si>
+    <t>00;03;01;46</t>
+  </si>
+  <si>
+    <t>dozen</t>
+  </si>
+  <si>
+    <t>00;03;01;42</t>
+  </si>
+  <si>
+    <t>right there</t>
+  </si>
+  <si>
+    <t>00;03;41;25</t>
+  </si>
+  <si>
+    <t>00;03;41;55</t>
+  </si>
+  <si>
+    <t>no kidding</t>
+  </si>
+  <si>
+    <t>00;03;41;56</t>
+  </si>
+  <si>
+    <t>00;03;42;26</t>
+  </si>
+  <si>
+    <t>seeing</t>
+  </si>
+  <si>
+    <t>00;03;45;12</t>
+  </si>
+  <si>
+    <t>00;03;45;32</t>
+  </si>
+  <si>
+    <t>00;03;45;42</t>
+  </si>
+  <si>
+    <t>00;03;46;03</t>
+  </si>
+  <si>
+    <t>00;03;47;30</t>
+  </si>
+  <si>
+    <t>00;03;47;31</t>
+  </si>
+  <si>
+    <t>00;03;48;02</t>
+  </si>
+  <si>
+    <t>00;03;47;59</t>
+  </si>
+  <si>
+    <t>00;03;48;14</t>
+  </si>
+  <si>
+    <t>00;03;48;35</t>
+  </si>
+  <si>
+    <t>00;03;49;00</t>
+  </si>
+  <si>
+    <t>commissioner</t>
+  </si>
+  <si>
+    <t>silver</t>
+  </si>
+  <si>
+    <t>00;03;49;13</t>
+  </si>
+  <si>
+    <t>00;03;49;34</t>
+  </si>
+  <si>
+    <t>say's</t>
+  </si>
+  <si>
+    <t>00;03;50;01</t>
+  </si>
+  <si>
+    <t>00;03;51;01</t>
+  </si>
+  <si>
+    <t>00;03;51;17</t>
+  </si>
+  <si>
+    <t>00;03;51;29</t>
+  </si>
+  <si>
+    <t>00;03;51;53</t>
+  </si>
+  <si>
+    <t>00;03;51;54</t>
+  </si>
+  <si>
+    <t>00;03;52;23</t>
+  </si>
+  <si>
+    <t>players</t>
+  </si>
+  <si>
+    <t>00;03;52;24</t>
+  </si>
+  <si>
+    <t>00;03;52;46</t>
+  </si>
+  <si>
+    <t>wearing</t>
+  </si>
+  <si>
+    <t>00;03;52;45</t>
+  </si>
+  <si>
+    <t>00;03;53;02</t>
+  </si>
+  <si>
+    <t>i can't breathe</t>
+  </si>
+  <si>
+    <t>00;03;53;13</t>
+  </si>
+  <si>
+    <t>i can't</t>
+  </si>
+  <si>
+    <t>00;03;53;24</t>
+  </si>
+  <si>
+    <t>00;03;53;42</t>
+  </si>
+  <si>
+    <t>00;03;54;07</t>
+  </si>
+  <si>
+    <t>tee shirt</t>
+  </si>
+  <si>
+    <t>00;03;54;38</t>
+  </si>
+  <si>
+    <t>tee shirts</t>
+  </si>
+  <si>
+    <t>00;03;54;47</t>
+  </si>
+  <si>
+    <t>rose</t>
+  </si>
+  <si>
+    <t>00;03;54;55</t>
+  </si>
+  <si>
+    <t>00;03;55;19</t>
+  </si>
+  <si>
+    <t>james</t>
+  </si>
+  <si>
+    <t>00;03;56;22</t>
+  </si>
+  <si>
+    <t>00;03;56;50</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>00;03;56;57</t>
+  </si>
+  <si>
+    <t>00;03;57;24</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>00;03;57;15</t>
+  </si>
+  <si>
+    <t>00;03;57;53</t>
+  </si>
+  <si>
+    <t>00;03;58;12</t>
+  </si>
+  <si>
+    <t>shirt</t>
+  </si>
+  <si>
+    <t>00;03;58;27</t>
+  </si>
+  <si>
+    <t>00;03;58;42</t>
+  </si>
+  <si>
+    <t>shirts</t>
+  </si>
+  <si>
+    <t>00;03;58;46</t>
+  </si>
+  <si>
+    <t>00;03;58;53</t>
+  </si>
+  <si>
+    <t>00;03;59;22</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>00;03;59;27</t>
+  </si>
+  <si>
+    <t>00;03;59;46</t>
+  </si>
+  <si>
+    <t>death of</t>
+  </si>
+  <si>
+    <t>00;03;59;56</t>
+  </si>
+  <si>
+    <t>00;04;00;39</t>
+  </si>
+  <si>
+    <t>00;04;00;53</t>
+  </si>
+  <si>
+    <t>00;04;00;52</t>
+  </si>
+  <si>
+    <t>00;04;01;25</t>
+  </si>
+  <si>
+    <t>00;04;02;01</t>
+  </si>
+  <si>
+    <t>00;04;02;25</t>
+  </si>
+  <si>
+    <t>00;04;03;06</t>
+  </si>
+  <si>
+    <t>00;04;03;25</t>
+  </si>
+  <si>
+    <t>have a right</t>
+  </si>
+  <si>
+    <t>opinions</t>
+  </si>
+  <si>
+    <t>00;04;03;41</t>
+  </si>
+  <si>
+    <t>00;04;04;09</t>
+  </si>
+  <si>
+    <t>00;04;05;34</t>
   </si>
 </sst>
 </file>
@@ -18804,8 +20274,124 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="621">
+  <cellStyleXfs count="737">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -19432,7 +21018,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="621">
+  <cellStyles count="737">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -19743,6 +21329,64 @@
     <cellStyle name="Followed Hyperlink" xfId="616" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="618" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="620" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="622" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="624" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="626" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="628" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="630" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="632" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="634" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="636" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="638" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="640" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="642" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="644" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="646" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="648" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="650" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="652" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="654" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="656" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="658" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="660" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="662" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="664" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="666" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="668" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="670" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="672" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="674" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="676" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="678" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="680" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="682" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="684" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="686" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="688" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="690" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="692" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="694" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="696" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="698" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="700" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="702" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="704" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="706" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="708" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="710" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="712" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="714" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="716" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="718" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="720" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="722" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="724" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="726" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="728" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="730" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="732" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="734" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="736" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -20053,6 +21697,64 @@
     <cellStyle name="Hyperlink" xfId="615" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="617" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="619" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="621" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="623" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="625" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="627" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="629" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="631" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="633" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="635" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="637" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="639" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="641" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="643" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="645" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="647" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="649" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="651" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="653" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="655" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="657" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="659" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="661" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="663" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="665" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="667" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="669" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="671" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="673" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="675" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="677" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="679" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="681" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="683" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="685" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="687" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="689" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="691" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="693" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="695" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="697" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="699" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="701" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="703" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="705" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="707" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="709" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="711" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="713" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="715" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="717" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="719" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="721" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="723" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="725" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="727" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="729" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="731" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="733" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="735" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -20382,10 +22084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2750"/>
+  <dimension ref="A1:H3001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2727" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F2750" sqref="F2750"/>
+    <sheetView tabSelected="1" topLeftCell="A2983" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F3001" sqref="F3001"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -91898,6 +93600,6532 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2751" spans="1:8">
+      <c r="A2751">
+        <v>2750</v>
+      </c>
+      <c r="B2751">
+        <v>4</v>
+      </c>
+      <c r="C2751">
+        <v>8</v>
+      </c>
+      <c r="D2751" t="s">
+        <v>6241</v>
+      </c>
+      <c r="E2751" t="s">
+        <v>6242</v>
+      </c>
+      <c r="F2751" t="s">
+        <v>6243</v>
+      </c>
+      <c r="G2751">
+        <v>0</v>
+      </c>
+      <c r="H2751">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2752" spans="1:8">
+      <c r="A2752">
+        <v>2751</v>
+      </c>
+      <c r="B2752">
+        <v>4</v>
+      </c>
+      <c r="C2752">
+        <v>8</v>
+      </c>
+      <c r="D2752" t="s">
+        <v>6244</v>
+      </c>
+      <c r="E2752" t="s">
+        <v>6245</v>
+      </c>
+      <c r="F2752" t="s">
+        <v>6246</v>
+      </c>
+      <c r="G2752">
+        <v>0</v>
+      </c>
+      <c r="H2752">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2753" spans="1:8">
+      <c r="A2753">
+        <v>2752</v>
+      </c>
+      <c r="B2753">
+        <v>4</v>
+      </c>
+      <c r="C2753">
+        <v>8</v>
+      </c>
+      <c r="D2753" t="s">
+        <v>6004</v>
+      </c>
+      <c r="E2753" t="s">
+        <v>6247</v>
+      </c>
+      <c r="F2753" t="s">
+        <v>6248</v>
+      </c>
+      <c r="G2753">
+        <v>0</v>
+      </c>
+      <c r="H2753">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2754" spans="1:8">
+      <c r="A2754">
+        <v>2753</v>
+      </c>
+      <c r="B2754">
+        <v>4</v>
+      </c>
+      <c r="C2754">
+        <v>9</v>
+      </c>
+      <c r="D2754" t="s">
+        <v>2843</v>
+      </c>
+      <c r="E2754" t="s">
+        <v>6249</v>
+      </c>
+      <c r="F2754" t="s">
+        <v>6250</v>
+      </c>
+      <c r="G2754">
+        <v>0</v>
+      </c>
+      <c r="H2754">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2755" spans="1:8">
+      <c r="A2755">
+        <v>2754</v>
+      </c>
+      <c r="B2755">
+        <v>4</v>
+      </c>
+      <c r="C2755">
+        <v>9</v>
+      </c>
+      <c r="D2755" t="s">
+        <v>2918</v>
+      </c>
+      <c r="E2755" t="s">
+        <v>6250</v>
+      </c>
+      <c r="F2755" t="s">
+        <v>6251</v>
+      </c>
+      <c r="G2755">
+        <v>0</v>
+      </c>
+      <c r="H2755">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2756" spans="1:8">
+      <c r="A2756">
+        <v>2755</v>
+      </c>
+      <c r="B2756">
+        <v>4</v>
+      </c>
+      <c r="C2756">
+        <v>9</v>
+      </c>
+      <c r="D2756" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2756" t="s">
+        <v>6252</v>
+      </c>
+      <c r="F2756" t="s">
+        <v>6253</v>
+      </c>
+      <c r="G2756">
+        <v>0</v>
+      </c>
+      <c r="H2756">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2757" spans="1:8">
+      <c r="A2757">
+        <v>2756</v>
+      </c>
+      <c r="B2757">
+        <v>4</v>
+      </c>
+      <c r="C2757">
+        <v>9</v>
+      </c>
+      <c r="D2757" t="s">
+        <v>6254</v>
+      </c>
+      <c r="E2757" t="s">
+        <v>6255</v>
+      </c>
+      <c r="F2757" t="s">
+        <v>6256</v>
+      </c>
+      <c r="G2757">
+        <v>0</v>
+      </c>
+      <c r="H2757">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2758" spans="1:8">
+      <c r="A2758">
+        <v>2757</v>
+      </c>
+      <c r="B2758">
+        <v>4</v>
+      </c>
+      <c r="C2758">
+        <v>9</v>
+      </c>
+      <c r="D2758" t="s">
+        <v>5469</v>
+      </c>
+      <c r="E2758" t="s">
+        <v>6257</v>
+      </c>
+      <c r="F2758" t="s">
+        <v>6257</v>
+      </c>
+      <c r="G2758">
+        <v>0</v>
+      </c>
+      <c r="H2758">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2759" spans="1:8">
+      <c r="A2759">
+        <v>2758</v>
+      </c>
+      <c r="B2759">
+        <v>4</v>
+      </c>
+      <c r="C2759">
+        <v>9</v>
+      </c>
+      <c r="D2759" t="s">
+        <v>6258</v>
+      </c>
+      <c r="E2759" t="s">
+        <v>6259</v>
+      </c>
+      <c r="F2759" t="s">
+        <v>6260</v>
+      </c>
+      <c r="G2759">
+        <v>0</v>
+      </c>
+      <c r="H2759">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2760" spans="1:8">
+      <c r="A2760">
+        <v>2759</v>
+      </c>
+      <c r="B2760">
+        <v>4</v>
+      </c>
+      <c r="C2760">
+        <v>9</v>
+      </c>
+      <c r="D2760" t="s">
+        <v>223</v>
+      </c>
+      <c r="E2760" t="s">
+        <v>6261</v>
+      </c>
+      <c r="F2760" s="2" t="s">
+        <v>6260</v>
+      </c>
+      <c r="G2760">
+        <v>0</v>
+      </c>
+      <c r="H2760">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2761" spans="1:8">
+      <c r="A2761">
+        <v>2760</v>
+      </c>
+      <c r="B2761">
+        <v>4</v>
+      </c>
+      <c r="C2761">
+        <v>9</v>
+      </c>
+      <c r="D2761" t="s">
+        <v>5453</v>
+      </c>
+      <c r="E2761" t="s">
+        <v>6262</v>
+      </c>
+      <c r="F2761" t="s">
+        <v>6263</v>
+      </c>
+      <c r="G2761">
+        <v>0</v>
+      </c>
+      <c r="H2761">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2762" spans="1:8">
+      <c r="A2762">
+        <v>2761</v>
+      </c>
+      <c r="B2762">
+        <v>4</v>
+      </c>
+      <c r="C2762">
+        <v>9</v>
+      </c>
+      <c r="D2762" t="s">
+        <v>5455</v>
+      </c>
+      <c r="E2762" t="s">
+        <v>6262</v>
+      </c>
+      <c r="F2762" t="s">
+        <v>6264</v>
+      </c>
+      <c r="G2762">
+        <v>0</v>
+      </c>
+      <c r="H2762">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2763" spans="1:8">
+      <c r="A2763">
+        <v>2762</v>
+      </c>
+      <c r="B2763">
+        <v>4</v>
+      </c>
+      <c r="C2763">
+        <v>9</v>
+      </c>
+      <c r="D2763" t="s">
+        <v>5464</v>
+      </c>
+      <c r="E2763" t="s">
+        <v>6265</v>
+      </c>
+      <c r="F2763" t="s">
+        <v>3160</v>
+      </c>
+      <c r="G2763">
+        <v>0</v>
+      </c>
+      <c r="H2763">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2764" spans="1:8">
+      <c r="A2764">
+        <v>2763</v>
+      </c>
+      <c r="B2764">
+        <v>4</v>
+      </c>
+      <c r="C2764">
+        <v>9</v>
+      </c>
+      <c r="D2764" t="s">
+        <v>6266</v>
+      </c>
+      <c r="E2764" t="s">
+        <v>3161</v>
+      </c>
+      <c r="F2764" t="s">
+        <v>6267</v>
+      </c>
+      <c r="G2764">
+        <v>0</v>
+      </c>
+      <c r="H2764">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2765" spans="1:8">
+      <c r="A2765">
+        <v>2764</v>
+      </c>
+      <c r="B2765">
+        <v>4</v>
+      </c>
+      <c r="C2765">
+        <v>9</v>
+      </c>
+      <c r="D2765" t="s">
+        <v>6268</v>
+      </c>
+      <c r="E2765" t="s">
+        <v>6269</v>
+      </c>
+      <c r="F2765" t="s">
+        <v>6267</v>
+      </c>
+      <c r="G2765">
+        <v>0</v>
+      </c>
+      <c r="H2765">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2766" spans="1:8">
+      <c r="A2766">
+        <v>2765</v>
+      </c>
+      <c r="B2766">
+        <v>4</v>
+      </c>
+      <c r="C2766">
+        <v>9</v>
+      </c>
+      <c r="D2766" t="s">
+        <v>6270</v>
+      </c>
+      <c r="E2766" t="s">
+        <v>6269</v>
+      </c>
+      <c r="F2766" t="s">
+        <v>6271</v>
+      </c>
+      <c r="G2766">
+        <v>0</v>
+      </c>
+      <c r="H2766">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2767" spans="1:8">
+      <c r="A2767">
+        <v>2766</v>
+      </c>
+      <c r="B2767">
+        <v>4</v>
+      </c>
+      <c r="C2767">
+        <v>9</v>
+      </c>
+      <c r="D2767" t="s">
+        <v>321</v>
+      </c>
+      <c r="E2767" t="s">
+        <v>6272</v>
+      </c>
+      <c r="F2767" t="s">
+        <v>6273</v>
+      </c>
+      <c r="G2767">
+        <v>0</v>
+      </c>
+      <c r="H2767">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2768" spans="1:8">
+      <c r="A2768">
+        <v>2767</v>
+      </c>
+      <c r="B2768">
+        <v>4</v>
+      </c>
+      <c r="C2768">
+        <v>9</v>
+      </c>
+      <c r="D2768" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E2768" t="s">
+        <v>6274</v>
+      </c>
+      <c r="F2768" t="s">
+        <v>6267</v>
+      </c>
+      <c r="G2768">
+        <v>0</v>
+      </c>
+      <c r="H2768">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2769" spans="1:8">
+      <c r="A2769">
+        <v>2768</v>
+      </c>
+      <c r="B2769">
+        <v>4</v>
+      </c>
+      <c r="C2769">
+        <v>9</v>
+      </c>
+      <c r="D2769" t="s">
+        <v>6275</v>
+      </c>
+      <c r="E2769" t="s">
+        <v>6276</v>
+      </c>
+      <c r="F2769" t="s">
+        <v>6277</v>
+      </c>
+      <c r="G2769">
+        <v>0</v>
+      </c>
+      <c r="H2769">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2770" spans="1:8">
+      <c r="A2770">
+        <v>2769</v>
+      </c>
+      <c r="B2770">
+        <v>4</v>
+      </c>
+      <c r="C2770">
+        <v>9</v>
+      </c>
+      <c r="D2770" t="s">
+        <v>6229</v>
+      </c>
+      <c r="E2770" t="s">
+        <v>6278</v>
+      </c>
+      <c r="F2770" t="s">
+        <v>6279</v>
+      </c>
+      <c r="G2770">
+        <v>0</v>
+      </c>
+      <c r="H2770">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2771" spans="1:8">
+      <c r="A2771">
+        <v>2770</v>
+      </c>
+      <c r="B2771">
+        <v>4</v>
+      </c>
+      <c r="C2771">
+        <v>9</v>
+      </c>
+      <c r="D2771" t="s">
+        <v>6280</v>
+      </c>
+      <c r="E2771" t="s">
+        <v>6281</v>
+      </c>
+      <c r="F2771" t="s">
+        <v>6282</v>
+      </c>
+      <c r="G2771">
+        <v>0</v>
+      </c>
+      <c r="H2771">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2772" spans="1:8">
+      <c r="A2772">
+        <v>2771</v>
+      </c>
+      <c r="B2772">
+        <v>4</v>
+      </c>
+      <c r="C2772">
+        <v>9</v>
+      </c>
+      <c r="D2772" t="s">
+        <v>6283</v>
+      </c>
+      <c r="E2772" t="s">
+        <v>6284</v>
+      </c>
+      <c r="F2772" t="s">
+        <v>6285</v>
+      </c>
+      <c r="G2772">
+        <v>0</v>
+      </c>
+      <c r="H2772">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:8">
+      <c r="A2773">
+        <v>2772</v>
+      </c>
+      <c r="B2773">
+        <v>4</v>
+      </c>
+      <c r="C2773">
+        <v>9</v>
+      </c>
+      <c r="D2773" t="s">
+        <v>780</v>
+      </c>
+      <c r="E2773" t="s">
+        <v>6286</v>
+      </c>
+      <c r="F2773" t="s">
+        <v>6287</v>
+      </c>
+      <c r="G2773">
+        <v>0</v>
+      </c>
+      <c r="H2773">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2774" spans="1:8">
+      <c r="A2774">
+        <v>2773</v>
+      </c>
+      <c r="B2774">
+        <v>4</v>
+      </c>
+      <c r="C2774">
+        <v>9</v>
+      </c>
+      <c r="D2774" t="s">
+        <v>783</v>
+      </c>
+      <c r="E2774" t="s">
+        <v>6286</v>
+      </c>
+      <c r="F2774" t="s">
+        <v>6287</v>
+      </c>
+      <c r="G2774">
+        <v>0</v>
+      </c>
+      <c r="H2774">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2775" spans="1:8">
+      <c r="A2775">
+        <v>2774</v>
+      </c>
+      <c r="B2775">
+        <v>4</v>
+      </c>
+      <c r="C2775">
+        <v>9</v>
+      </c>
+      <c r="D2775" t="s">
+        <v>6288</v>
+      </c>
+      <c r="E2775" t="s">
+        <v>6289</v>
+      </c>
+      <c r="F2775" t="s">
+        <v>6290</v>
+      </c>
+      <c r="G2775">
+        <v>0</v>
+      </c>
+      <c r="H2775">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2776" spans="1:8">
+      <c r="A2776">
+        <v>2775</v>
+      </c>
+      <c r="B2776">
+        <v>4</v>
+      </c>
+      <c r="C2776">
+        <v>9</v>
+      </c>
+      <c r="D2776" t="s">
+        <v>6291</v>
+      </c>
+      <c r="E2776" t="s">
+        <v>6292</v>
+      </c>
+      <c r="F2776" t="s">
+        <v>6293</v>
+      </c>
+      <c r="G2776">
+        <v>0</v>
+      </c>
+      <c r="H2776">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2777" spans="1:8">
+      <c r="A2777">
+        <v>2776</v>
+      </c>
+      <c r="B2777">
+        <v>4</v>
+      </c>
+      <c r="C2777">
+        <v>9</v>
+      </c>
+      <c r="D2777" t="s">
+        <v>6294</v>
+      </c>
+      <c r="E2777" t="s">
+        <v>6295</v>
+      </c>
+      <c r="F2777" t="s">
+        <v>6296</v>
+      </c>
+      <c r="G2777">
+        <v>0</v>
+      </c>
+      <c r="H2777">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2778" spans="1:8">
+      <c r="A2778">
+        <v>2777</v>
+      </c>
+      <c r="B2778">
+        <v>4</v>
+      </c>
+      <c r="C2778">
+        <v>9</v>
+      </c>
+      <c r="D2778" t="s">
+        <v>6297</v>
+      </c>
+      <c r="E2778" t="s">
+        <v>5824</v>
+      </c>
+      <c r="F2778" t="s">
+        <v>6298</v>
+      </c>
+      <c r="G2778">
+        <v>0</v>
+      </c>
+      <c r="H2778">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2779" spans="1:8">
+      <c r="A2779">
+        <v>2778</v>
+      </c>
+      <c r="B2779">
+        <v>4</v>
+      </c>
+      <c r="C2779">
+        <v>9</v>
+      </c>
+      <c r="D2779" t="s">
+        <v>474</v>
+      </c>
+      <c r="E2779" t="s">
+        <v>6299</v>
+      </c>
+      <c r="F2779" t="s">
+        <v>6300</v>
+      </c>
+      <c r="G2779">
+        <v>0</v>
+      </c>
+      <c r="H2779">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2780" spans="1:8">
+      <c r="A2780">
+        <v>2779</v>
+      </c>
+      <c r="B2780">
+        <v>4</v>
+      </c>
+      <c r="C2780">
+        <v>9</v>
+      </c>
+      <c r="D2780" t="s">
+        <v>6301</v>
+      </c>
+      <c r="E2780" t="s">
+        <v>6299</v>
+      </c>
+      <c r="F2780" t="s">
+        <v>5835</v>
+      </c>
+      <c r="G2780">
+        <v>0</v>
+      </c>
+      <c r="H2780">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2781" spans="1:8">
+      <c r="A2781">
+        <v>2780</v>
+      </c>
+      <c r="B2781">
+        <v>4</v>
+      </c>
+      <c r="C2781">
+        <v>9</v>
+      </c>
+      <c r="D2781" t="s">
+        <v>2856</v>
+      </c>
+      <c r="E2781" t="s">
+        <v>6302</v>
+      </c>
+      <c r="F2781" t="s">
+        <v>5835</v>
+      </c>
+      <c r="G2781">
+        <v>0</v>
+      </c>
+      <c r="H2781">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2782" spans="1:8">
+      <c r="A2782">
+        <v>2781</v>
+      </c>
+      <c r="B2782">
+        <v>4</v>
+      </c>
+      <c r="C2782">
+        <v>9</v>
+      </c>
+      <c r="D2782" t="s">
+        <v>690</v>
+      </c>
+      <c r="E2782" t="s">
+        <v>6302</v>
+      </c>
+      <c r="F2782" t="s">
+        <v>5835</v>
+      </c>
+      <c r="G2782">
+        <v>0</v>
+      </c>
+      <c r="H2782">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2783" spans="1:8">
+      <c r="A2783">
+        <v>2782</v>
+      </c>
+      <c r="B2783">
+        <v>4</v>
+      </c>
+      <c r="C2783">
+        <v>9</v>
+      </c>
+      <c r="D2783" t="s">
+        <v>6303</v>
+      </c>
+      <c r="E2783" t="s">
+        <v>6304</v>
+      </c>
+      <c r="F2783" t="s">
+        <v>6305</v>
+      </c>
+      <c r="G2783">
+        <v>0</v>
+      </c>
+      <c r="H2783">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2784" spans="1:8">
+      <c r="A2784">
+        <v>2783</v>
+      </c>
+      <c r="B2784">
+        <v>4</v>
+      </c>
+      <c r="C2784">
+        <v>9</v>
+      </c>
+      <c r="D2784" t="s">
+        <v>6306</v>
+      </c>
+      <c r="E2784" t="s">
+        <v>6307</v>
+      </c>
+      <c r="F2784" t="s">
+        <v>6305</v>
+      </c>
+      <c r="G2784">
+        <v>0</v>
+      </c>
+      <c r="H2784">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2785" spans="1:8">
+      <c r="A2785">
+        <v>2784</v>
+      </c>
+      <c r="B2785">
+        <v>4</v>
+      </c>
+      <c r="C2785">
+        <v>9</v>
+      </c>
+      <c r="D2785" t="s">
+        <v>6308</v>
+      </c>
+      <c r="E2785" t="s">
+        <v>6307</v>
+      </c>
+      <c r="F2785" t="s">
+        <v>6309</v>
+      </c>
+      <c r="G2785">
+        <v>0</v>
+      </c>
+      <c r="H2785">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2786" spans="1:8">
+      <c r="A2786">
+        <v>2785</v>
+      </c>
+      <c r="B2786">
+        <v>4</v>
+      </c>
+      <c r="C2786">
+        <v>9</v>
+      </c>
+      <c r="D2786" t="s">
+        <v>6310</v>
+      </c>
+      <c r="E2786" t="s">
+        <v>6311</v>
+      </c>
+      <c r="F2786" t="s">
+        <v>6312</v>
+      </c>
+      <c r="G2786">
+        <v>0</v>
+      </c>
+      <c r="H2786">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2787" spans="1:8">
+      <c r="A2787">
+        <v>2786</v>
+      </c>
+      <c r="B2787">
+        <v>4</v>
+      </c>
+      <c r="C2787">
+        <v>9</v>
+      </c>
+      <c r="D2787" t="s">
+        <v>6313</v>
+      </c>
+      <c r="E2787" t="s">
+        <v>6315</v>
+      </c>
+      <c r="F2787" t="s">
+        <v>6316</v>
+      </c>
+      <c r="G2787">
+        <v>0</v>
+      </c>
+      <c r="H2787">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2788" spans="1:8">
+      <c r="A2788">
+        <v>2787</v>
+      </c>
+      <c r="B2788">
+        <v>4</v>
+      </c>
+      <c r="C2788">
+        <v>9</v>
+      </c>
+      <c r="D2788" t="s">
+        <v>582</v>
+      </c>
+      <c r="E2788" t="s">
+        <v>6311</v>
+      </c>
+      <c r="F2788" t="s">
+        <v>6314</v>
+      </c>
+      <c r="G2788">
+        <v>0</v>
+      </c>
+      <c r="H2788">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2789" spans="1:8">
+      <c r="A2789">
+        <v>2788</v>
+      </c>
+      <c r="B2789">
+        <v>4</v>
+      </c>
+      <c r="C2789">
+        <v>9</v>
+      </c>
+      <c r="D2789" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E2789" t="s">
+        <v>6315</v>
+      </c>
+      <c r="F2789" t="s">
+        <v>6317</v>
+      </c>
+      <c r="G2789">
+        <v>0</v>
+      </c>
+      <c r="H2789">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2790" spans="1:8">
+      <c r="A2790">
+        <v>2789</v>
+      </c>
+      <c r="B2790">
+        <v>4</v>
+      </c>
+      <c r="C2790">
+        <v>9</v>
+      </c>
+      <c r="D2790" t="s">
+        <v>6318</v>
+      </c>
+      <c r="E2790" t="s">
+        <v>6312</v>
+      </c>
+      <c r="F2790" t="s">
+        <v>6319</v>
+      </c>
+      <c r="G2790">
+        <v>0</v>
+      </c>
+      <c r="H2790">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2791" spans="1:8">
+      <c r="A2791">
+        <v>2790</v>
+      </c>
+      <c r="B2791">
+        <v>4</v>
+      </c>
+      <c r="C2791">
+        <v>9</v>
+      </c>
+      <c r="D2791" t="s">
+        <v>6320</v>
+      </c>
+      <c r="E2791" t="s">
+        <v>6312</v>
+      </c>
+      <c r="F2791" t="s">
+        <v>6321</v>
+      </c>
+      <c r="G2791">
+        <v>0</v>
+      </c>
+      <c r="H2791">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2792" spans="1:8">
+      <c r="A2792">
+        <v>2791</v>
+      </c>
+      <c r="B2792">
+        <v>4</v>
+      </c>
+      <c r="C2792">
+        <v>9</v>
+      </c>
+      <c r="D2792" t="s">
+        <v>1650</v>
+      </c>
+      <c r="E2792" t="s">
+        <v>6322</v>
+      </c>
+      <c r="F2792" t="s">
+        <v>6323</v>
+      </c>
+      <c r="G2792">
+        <v>0</v>
+      </c>
+      <c r="H2792">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2793" spans="1:8">
+      <c r="A2793">
+        <v>2792</v>
+      </c>
+      <c r="B2793">
+        <v>4</v>
+      </c>
+      <c r="C2793">
+        <v>9</v>
+      </c>
+      <c r="D2793" t="s">
+        <v>2918</v>
+      </c>
+      <c r="E2793" t="s">
+        <v>6322</v>
+      </c>
+      <c r="F2793" t="s">
+        <v>6319</v>
+      </c>
+      <c r="G2793">
+        <v>0</v>
+      </c>
+      <c r="H2793">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2794" spans="1:8">
+      <c r="A2794">
+        <v>2793</v>
+      </c>
+      <c r="B2794">
+        <v>4</v>
+      </c>
+      <c r="C2794">
+        <v>9</v>
+      </c>
+      <c r="D2794" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2794" t="s">
+        <v>6321</v>
+      </c>
+      <c r="F2794" t="s">
+        <v>6319</v>
+      </c>
+      <c r="G2794">
+        <v>0</v>
+      </c>
+      <c r="H2794">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2795" spans="1:8">
+      <c r="A2795">
+        <v>2794</v>
+      </c>
+      <c r="B2795">
+        <v>4</v>
+      </c>
+      <c r="C2795">
+        <v>9</v>
+      </c>
+      <c r="D2795" t="s">
+        <v>6324</v>
+      </c>
+      <c r="E2795" t="s">
+        <v>6325</v>
+      </c>
+      <c r="F2795" t="s">
+        <v>6326</v>
+      </c>
+      <c r="G2795">
+        <v>0</v>
+      </c>
+      <c r="H2795">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2796" spans="1:8">
+      <c r="A2796">
+        <v>2795</v>
+      </c>
+      <c r="B2796">
+        <v>4</v>
+      </c>
+      <c r="C2796">
+        <v>9</v>
+      </c>
+      <c r="D2796" t="s">
+        <v>6327</v>
+      </c>
+      <c r="E2796" t="s">
+        <v>6328</v>
+      </c>
+      <c r="F2796" t="s">
+        <v>6329</v>
+      </c>
+      <c r="G2796">
+        <v>0</v>
+      </c>
+      <c r="H2796">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2797" spans="1:8">
+      <c r="A2797">
+        <v>2796</v>
+      </c>
+      <c r="B2797">
+        <v>4</v>
+      </c>
+      <c r="C2797">
+        <v>9</v>
+      </c>
+      <c r="D2797" t="s">
+        <v>4257</v>
+      </c>
+      <c r="E2797" t="s">
+        <v>6330</v>
+      </c>
+      <c r="F2797" t="s">
+        <v>6331</v>
+      </c>
+      <c r="G2797">
+        <v>0</v>
+      </c>
+      <c r="H2797">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2798" spans="1:8">
+      <c r="A2798">
+        <v>2797</v>
+      </c>
+      <c r="B2798">
+        <v>4</v>
+      </c>
+      <c r="C2798">
+        <v>9</v>
+      </c>
+      <c r="D2798" t="s">
+        <v>6332</v>
+      </c>
+      <c r="E2798" t="s">
+        <v>6333</v>
+      </c>
+      <c r="F2798" t="s">
+        <v>6334</v>
+      </c>
+      <c r="G2798">
+        <v>0</v>
+      </c>
+      <c r="H2798">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2799" spans="1:8">
+      <c r="A2799">
+        <v>2798</v>
+      </c>
+      <c r="B2799">
+        <v>4</v>
+      </c>
+      <c r="C2799">
+        <v>9</v>
+      </c>
+      <c r="D2799" t="s">
+        <v>2480</v>
+      </c>
+      <c r="E2799" t="s">
+        <v>6333</v>
+      </c>
+      <c r="F2799" t="s">
+        <v>6335</v>
+      </c>
+      <c r="G2799">
+        <v>0</v>
+      </c>
+      <c r="H2799">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2800" spans="1:8">
+      <c r="A2800">
+        <v>2799</v>
+      </c>
+      <c r="B2800">
+        <v>4</v>
+      </c>
+      <c r="C2800">
+        <v>9</v>
+      </c>
+      <c r="D2800" t="s">
+        <v>6336</v>
+      </c>
+      <c r="E2800" t="s">
+        <v>6337</v>
+      </c>
+      <c r="F2800" t="s">
+        <v>5874</v>
+      </c>
+      <c r="G2800">
+        <v>0</v>
+      </c>
+      <c r="H2800">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2801" spans="1:8">
+      <c r="A2801">
+        <v>2800</v>
+      </c>
+      <c r="B2801">
+        <v>4</v>
+      </c>
+      <c r="C2801">
+        <v>9</v>
+      </c>
+      <c r="D2801" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E2801" t="s">
+        <v>5890</v>
+      </c>
+      <c r="F2801" t="s">
+        <v>6338</v>
+      </c>
+      <c r="G2801">
+        <v>0</v>
+      </c>
+      <c r="H2801">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2802" spans="1:8">
+      <c r="A2802">
+        <v>2801</v>
+      </c>
+      <c r="B2802">
+        <v>4</v>
+      </c>
+      <c r="C2802">
+        <v>9</v>
+      </c>
+      <c r="D2802" t="s">
+        <v>6339</v>
+      </c>
+      <c r="E2802" t="s">
+        <v>6340</v>
+      </c>
+      <c r="F2802" t="s">
+        <v>6341</v>
+      </c>
+      <c r="G2802">
+        <v>0</v>
+      </c>
+      <c r="H2802">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2803" spans="1:8">
+      <c r="A2803">
+        <v>2802</v>
+      </c>
+      <c r="B2803">
+        <v>4</v>
+      </c>
+      <c r="C2803">
+        <v>9</v>
+      </c>
+      <c r="D2803" t="s">
+        <v>6342</v>
+      </c>
+      <c r="E2803" t="s">
+        <v>6343</v>
+      </c>
+      <c r="F2803" t="s">
+        <v>6344</v>
+      </c>
+      <c r="G2803">
+        <v>0</v>
+      </c>
+      <c r="H2803">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2804" spans="1:8">
+      <c r="A2804">
+        <v>2803</v>
+      </c>
+      <c r="B2804">
+        <v>4</v>
+      </c>
+      <c r="C2804">
+        <v>9</v>
+      </c>
+      <c r="D2804" t="s">
+        <v>6345</v>
+      </c>
+      <c r="E2804" t="s">
+        <v>6343</v>
+      </c>
+      <c r="F2804" t="s">
+        <v>6346</v>
+      </c>
+      <c r="G2804">
+        <v>0</v>
+      </c>
+      <c r="H2804">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2805" spans="1:8">
+      <c r="A2805">
+        <v>2804</v>
+      </c>
+      <c r="B2805">
+        <v>4</v>
+      </c>
+      <c r="C2805">
+        <v>9</v>
+      </c>
+      <c r="D2805" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E2805" t="s">
+        <v>6347</v>
+      </c>
+      <c r="F2805" t="s">
+        <v>6348</v>
+      </c>
+      <c r="G2805">
+        <v>0</v>
+      </c>
+      <c r="H2805">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2806" spans="1:8">
+      <c r="A2806">
+        <v>2805</v>
+      </c>
+      <c r="B2806">
+        <v>4</v>
+      </c>
+      <c r="C2806">
+        <v>9</v>
+      </c>
+      <c r="D2806" t="s">
+        <v>6349</v>
+      </c>
+      <c r="E2806" t="s">
+        <v>6350</v>
+      </c>
+      <c r="F2806" t="s">
+        <v>5896</v>
+      </c>
+      <c r="G2806">
+        <v>0</v>
+      </c>
+      <c r="H2806">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2807" spans="1:8">
+      <c r="A2807">
+        <v>2806</v>
+      </c>
+      <c r="B2807">
+        <v>4</v>
+      </c>
+      <c r="C2807">
+        <v>9</v>
+      </c>
+      <c r="D2807" t="s">
+        <v>6351</v>
+      </c>
+      <c r="E2807" t="s">
+        <v>6347</v>
+      </c>
+      <c r="F2807" t="s">
+        <v>6352</v>
+      </c>
+      <c r="G2807">
+        <v>0</v>
+      </c>
+      <c r="H2807">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2808" spans="1:8">
+      <c r="A2808">
+        <v>2807</v>
+      </c>
+      <c r="B2808">
+        <v>4</v>
+      </c>
+      <c r="C2808">
+        <v>9</v>
+      </c>
+      <c r="D2808" t="s">
+        <v>3449</v>
+      </c>
+      <c r="E2808" t="s">
+        <v>6352</v>
+      </c>
+      <c r="F2808" t="s">
+        <v>6353</v>
+      </c>
+      <c r="G2808">
+        <v>0</v>
+      </c>
+      <c r="H2808">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2809" spans="1:8">
+      <c r="A2809">
+        <v>2808</v>
+      </c>
+      <c r="B2809">
+        <v>4</v>
+      </c>
+      <c r="C2809">
+        <v>9</v>
+      </c>
+      <c r="D2809" t="s">
+        <v>6354</v>
+      </c>
+      <c r="E2809" t="s">
+        <v>6355</v>
+      </c>
+      <c r="F2809" t="s">
+        <v>6356</v>
+      </c>
+      <c r="G2809">
+        <v>0</v>
+      </c>
+      <c r="H2809">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2810" spans="1:8">
+      <c r="A2810">
+        <v>2809</v>
+      </c>
+      <c r="B2810">
+        <v>4</v>
+      </c>
+      <c r="C2810">
+        <v>9</v>
+      </c>
+      <c r="D2810" t="s">
+        <v>6357</v>
+      </c>
+      <c r="E2810" t="s">
+        <v>6356</v>
+      </c>
+      <c r="F2810" t="s">
+        <v>6358</v>
+      </c>
+      <c r="G2810">
+        <v>0</v>
+      </c>
+      <c r="H2810">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2811" spans="1:8">
+      <c r="A2811">
+        <v>2810</v>
+      </c>
+      <c r="B2811">
+        <v>4</v>
+      </c>
+      <c r="C2811">
+        <v>9</v>
+      </c>
+      <c r="D2811" t="s">
+        <v>6359</v>
+      </c>
+      <c r="E2811" t="s">
+        <v>6360</v>
+      </c>
+      <c r="F2811" t="s">
+        <v>6361</v>
+      </c>
+      <c r="G2811">
+        <v>0</v>
+      </c>
+      <c r="H2811">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2812" spans="1:8">
+      <c r="A2812">
+        <v>2811</v>
+      </c>
+      <c r="B2812">
+        <v>4</v>
+      </c>
+      <c r="C2812">
+        <v>9</v>
+      </c>
+      <c r="D2812" t="s">
+        <v>6362</v>
+      </c>
+      <c r="E2812" t="s">
+        <v>6363</v>
+      </c>
+      <c r="F2812" t="s">
+        <v>6364</v>
+      </c>
+      <c r="G2812">
+        <v>0</v>
+      </c>
+      <c r="H2812">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2813" spans="1:8">
+      <c r="A2813">
+        <v>2812</v>
+      </c>
+      <c r="B2813">
+        <v>4</v>
+      </c>
+      <c r="C2813">
+        <v>9</v>
+      </c>
+      <c r="D2813" t="s">
+        <v>6365</v>
+      </c>
+      <c r="E2813" t="s">
+        <v>6363</v>
+      </c>
+      <c r="F2813" t="s">
+        <v>5946</v>
+      </c>
+      <c r="G2813">
+        <v>0</v>
+      </c>
+      <c r="H2813">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2814" spans="1:8">
+      <c r="A2814">
+        <v>2813</v>
+      </c>
+      <c r="B2814">
+        <v>4</v>
+      </c>
+      <c r="C2814">
+        <v>9</v>
+      </c>
+      <c r="D2814" t="s">
+        <v>6366</v>
+      </c>
+      <c r="E2814" t="s">
+        <v>6367</v>
+      </c>
+      <c r="F2814" t="s">
+        <v>6368</v>
+      </c>
+      <c r="G2814">
+        <v>0</v>
+      </c>
+      <c r="H2814">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2815" spans="1:8">
+      <c r="A2815">
+        <v>2814</v>
+      </c>
+      <c r="B2815">
+        <v>4</v>
+      </c>
+      <c r="C2815">
+        <v>9</v>
+      </c>
+      <c r="D2815" t="s">
+        <v>6369</v>
+      </c>
+      <c r="E2815" t="s">
+        <v>6367</v>
+      </c>
+      <c r="F2815" t="s">
+        <v>6368</v>
+      </c>
+      <c r="G2815">
+        <v>0</v>
+      </c>
+      <c r="H2815">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2816" spans="1:8">
+      <c r="A2816">
+        <v>2815</v>
+      </c>
+      <c r="B2816">
+        <v>4</v>
+      </c>
+      <c r="C2816">
+        <v>9</v>
+      </c>
+      <c r="D2816" t="s">
+        <v>6370</v>
+      </c>
+      <c r="E2816" t="s">
+        <v>6371</v>
+      </c>
+      <c r="F2816" t="s">
+        <v>6368</v>
+      </c>
+      <c r="G2816">
+        <v>0</v>
+      </c>
+      <c r="H2816">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2817" spans="1:8">
+      <c r="A2817">
+        <v>2816</v>
+      </c>
+      <c r="B2817">
+        <v>4</v>
+      </c>
+      <c r="C2817">
+        <v>9</v>
+      </c>
+      <c r="D2817" t="s">
+        <v>3824</v>
+      </c>
+      <c r="E2817" t="s">
+        <v>6372</v>
+      </c>
+      <c r="F2817" t="s">
+        <v>6373</v>
+      </c>
+      <c r="G2817">
+        <v>0</v>
+      </c>
+      <c r="H2817">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2818" spans="1:8">
+      <c r="A2818">
+        <v>2817</v>
+      </c>
+      <c r="B2818">
+        <v>4</v>
+      </c>
+      <c r="C2818">
+        <v>9</v>
+      </c>
+      <c r="D2818" t="s">
+        <v>3642</v>
+      </c>
+      <c r="E2818" t="s">
+        <v>6374</v>
+      </c>
+      <c r="F2818" t="s">
+        <v>6375</v>
+      </c>
+      <c r="G2818">
+        <v>0</v>
+      </c>
+      <c r="H2818">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2819" spans="1:8">
+      <c r="A2819">
+        <v>2818</v>
+      </c>
+      <c r="B2819">
+        <v>4</v>
+      </c>
+      <c r="C2819">
+        <v>9</v>
+      </c>
+      <c r="D2819" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E2819" t="s">
+        <v>6374</v>
+      </c>
+      <c r="F2819" t="s">
+        <v>6375</v>
+      </c>
+      <c r="G2819">
+        <v>0</v>
+      </c>
+      <c r="H2819">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2820" spans="1:8">
+      <c r="A2820">
+        <v>2819</v>
+      </c>
+      <c r="B2820">
+        <v>4</v>
+      </c>
+      <c r="C2820">
+        <v>9</v>
+      </c>
+      <c r="D2820" t="s">
+        <v>6376</v>
+      </c>
+      <c r="E2820" t="s">
+        <v>6374</v>
+      </c>
+      <c r="F2820" t="s">
+        <v>6377</v>
+      </c>
+      <c r="G2820">
+        <v>0</v>
+      </c>
+      <c r="H2820">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2821" spans="1:8">
+      <c r="A2821">
+        <v>2820</v>
+      </c>
+      <c r="B2821">
+        <v>4</v>
+      </c>
+      <c r="C2821">
+        <v>9</v>
+      </c>
+      <c r="D2821" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E2821" t="s">
+        <v>6378</v>
+      </c>
+      <c r="F2821" t="s">
+        <v>6379</v>
+      </c>
+      <c r="G2821">
+        <v>0</v>
+      </c>
+      <c r="H2821">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2822" spans="1:8">
+      <c r="A2822">
+        <v>2821</v>
+      </c>
+      <c r="B2822">
+        <v>4</v>
+      </c>
+      <c r="C2822">
+        <v>9</v>
+      </c>
+      <c r="D2822" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E2822" t="s">
+        <v>6381</v>
+      </c>
+      <c r="F2822" t="s">
+        <v>6380</v>
+      </c>
+      <c r="G2822">
+        <v>0</v>
+      </c>
+      <c r="H2822">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2823" spans="1:8">
+      <c r="A2823">
+        <v>2822</v>
+      </c>
+      <c r="B2823">
+        <v>4</v>
+      </c>
+      <c r="C2823">
+        <v>9</v>
+      </c>
+      <c r="D2823" t="s">
+        <v>566</v>
+      </c>
+      <c r="E2823" t="s">
+        <v>6381</v>
+      </c>
+      <c r="F2823" t="s">
+        <v>6382</v>
+      </c>
+      <c r="G2823">
+        <v>0</v>
+      </c>
+      <c r="H2823">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2824" spans="1:8">
+      <c r="A2824">
+        <v>2823</v>
+      </c>
+      <c r="B2824">
+        <v>4</v>
+      </c>
+      <c r="C2824">
+        <v>9</v>
+      </c>
+      <c r="D2824" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E2824" t="s">
+        <v>6383</v>
+      </c>
+      <c r="F2824" t="s">
+        <v>6384</v>
+      </c>
+      <c r="G2824">
+        <v>0</v>
+      </c>
+      <c r="H2824">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2825" spans="1:8">
+      <c r="A2825">
+        <v>2824</v>
+      </c>
+      <c r="B2825">
+        <v>4</v>
+      </c>
+      <c r="C2825">
+        <v>9</v>
+      </c>
+      <c r="D2825" t="s">
+        <v>5012</v>
+      </c>
+      <c r="E2825" t="s">
+        <v>6386</v>
+      </c>
+      <c r="F2825" t="s">
+        <v>6387</v>
+      </c>
+      <c r="G2825">
+        <v>0</v>
+      </c>
+      <c r="H2825">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2826" spans="1:8">
+      <c r="A2826">
+        <v>2825</v>
+      </c>
+      <c r="B2826">
+        <v>4</v>
+      </c>
+      <c r="C2826">
+        <v>9</v>
+      </c>
+      <c r="D2826" t="s">
+        <v>6385</v>
+      </c>
+      <c r="E2826" t="s">
+        <v>6386</v>
+      </c>
+      <c r="F2826" t="s">
+        <v>6388</v>
+      </c>
+      <c r="G2826">
+        <v>0</v>
+      </c>
+      <c r="H2826">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2827" spans="1:8">
+      <c r="A2827">
+        <v>2826</v>
+      </c>
+      <c r="B2827">
+        <v>4</v>
+      </c>
+      <c r="C2827">
+        <v>9</v>
+      </c>
+      <c r="D2827" t="s">
+        <v>5131</v>
+      </c>
+      <c r="E2827" t="s">
+        <v>6389</v>
+      </c>
+      <c r="F2827" t="s">
+        <v>6387</v>
+      </c>
+      <c r="G2827">
+        <v>0</v>
+      </c>
+      <c r="H2827">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2828" spans="1:8">
+      <c r="A2828">
+        <v>2827</v>
+      </c>
+      <c r="B2828">
+        <v>4</v>
+      </c>
+      <c r="C2828">
+        <v>9</v>
+      </c>
+      <c r="D2828" t="s">
+        <v>6390</v>
+      </c>
+      <c r="E2828" t="s">
+        <v>6391</v>
+      </c>
+      <c r="F2828" t="s">
+        <v>3189</v>
+      </c>
+      <c r="G2828">
+        <v>0</v>
+      </c>
+      <c r="H2828">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2829" spans="1:8">
+      <c r="A2829">
+        <v>2828</v>
+      </c>
+      <c r="B2829">
+        <v>4</v>
+      </c>
+      <c r="C2829">
+        <v>9</v>
+      </c>
+      <c r="D2829" t="s">
+        <v>1815</v>
+      </c>
+      <c r="E2829" t="s">
+        <v>6392</v>
+      </c>
+      <c r="F2829" t="s">
+        <v>6393</v>
+      </c>
+      <c r="G2829">
+        <v>0</v>
+      </c>
+      <c r="H2829">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2830" spans="1:8">
+      <c r="A2830">
+        <v>2829</v>
+      </c>
+      <c r="B2830">
+        <v>4</v>
+      </c>
+      <c r="C2830">
+        <v>9</v>
+      </c>
+      <c r="D2830" t="s">
+        <v>4381</v>
+      </c>
+      <c r="E2830" t="s">
+        <v>6391</v>
+      </c>
+      <c r="F2830" t="s">
+        <v>6394</v>
+      </c>
+      <c r="G2830">
+        <v>0</v>
+      </c>
+      <c r="H2830">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2831" spans="1:8">
+      <c r="A2831">
+        <v>2830</v>
+      </c>
+      <c r="B2831">
+        <v>4</v>
+      </c>
+      <c r="C2831">
+        <v>9</v>
+      </c>
+      <c r="D2831" t="s">
+        <v>6395</v>
+      </c>
+      <c r="E2831" t="s">
+        <v>6396</v>
+      </c>
+      <c r="F2831" t="s">
+        <v>6397</v>
+      </c>
+      <c r="G2831">
+        <v>0</v>
+      </c>
+      <c r="H2831">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2832" spans="1:8">
+      <c r="A2832">
+        <v>2831</v>
+      </c>
+      <c r="B2832">
+        <v>4</v>
+      </c>
+      <c r="C2832">
+        <v>9</v>
+      </c>
+      <c r="D2832" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2832" t="s">
+        <v>6398</v>
+      </c>
+      <c r="F2832" t="s">
+        <v>6399</v>
+      </c>
+      <c r="G2832">
+        <v>0</v>
+      </c>
+      <c r="H2832">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2833" spans="1:8">
+      <c r="A2833">
+        <v>2832</v>
+      </c>
+      <c r="B2833">
+        <v>4</v>
+      </c>
+      <c r="C2833">
+        <v>9</v>
+      </c>
+      <c r="D2833" t="s">
+        <v>6400</v>
+      </c>
+      <c r="E2833" t="s">
+        <v>6401</v>
+      </c>
+      <c r="F2833" t="s">
+        <v>6402</v>
+      </c>
+      <c r="G2833">
+        <v>0</v>
+      </c>
+      <c r="H2833">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2834" spans="1:8">
+      <c r="A2834">
+        <v>2833</v>
+      </c>
+      <c r="B2834">
+        <v>4</v>
+      </c>
+      <c r="C2834">
+        <v>9</v>
+      </c>
+      <c r="D2834" t="s">
+        <v>6403</v>
+      </c>
+      <c r="E2834" t="s">
+        <v>6404</v>
+      </c>
+      <c r="F2834" t="s">
+        <v>6405</v>
+      </c>
+      <c r="G2834">
+        <v>0</v>
+      </c>
+      <c r="H2834">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2835" spans="1:8">
+      <c r="A2835">
+        <v>2834</v>
+      </c>
+      <c r="B2835">
+        <v>4</v>
+      </c>
+      <c r="C2835">
+        <v>9</v>
+      </c>
+      <c r="D2835" t="s">
+        <v>6406</v>
+      </c>
+      <c r="E2835" t="s">
+        <v>6407</v>
+      </c>
+      <c r="F2835" t="s">
+        <v>6408</v>
+      </c>
+      <c r="G2835">
+        <v>0</v>
+      </c>
+      <c r="H2835">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2836" spans="1:8">
+      <c r="A2836">
+        <v>2835</v>
+      </c>
+      <c r="B2836">
+        <v>4</v>
+      </c>
+      <c r="C2836">
+        <v>9</v>
+      </c>
+      <c r="D2836" t="s">
+        <v>6409</v>
+      </c>
+      <c r="E2836" t="s">
+        <v>6407</v>
+      </c>
+      <c r="F2836" t="s">
+        <v>6410</v>
+      </c>
+      <c r="G2836">
+        <v>0</v>
+      </c>
+      <c r="H2836">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2837" spans="1:8">
+      <c r="A2837">
+        <v>2836</v>
+      </c>
+      <c r="B2837">
+        <v>4</v>
+      </c>
+      <c r="C2837">
+        <v>9</v>
+      </c>
+      <c r="D2837" t="s">
+        <v>6327</v>
+      </c>
+      <c r="E2837" t="s">
+        <v>2513</v>
+      </c>
+      <c r="F2837" t="s">
+        <v>6411</v>
+      </c>
+      <c r="G2837">
+        <v>0</v>
+      </c>
+      <c r="H2837">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2838" spans="1:8">
+      <c r="A2838">
+        <v>2837</v>
+      </c>
+      <c r="B2838">
+        <v>4</v>
+      </c>
+      <c r="C2838">
+        <v>9</v>
+      </c>
+      <c r="D2838" t="s">
+        <v>6412</v>
+      </c>
+      <c r="E2838" t="s">
+        <v>6413</v>
+      </c>
+      <c r="F2838" t="s">
+        <v>6414</v>
+      </c>
+      <c r="G2838">
+        <v>0</v>
+      </c>
+      <c r="H2838">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2839" spans="1:8">
+      <c r="A2839">
+        <v>2838</v>
+      </c>
+      <c r="B2839">
+        <v>4</v>
+      </c>
+      <c r="C2839">
+        <v>9</v>
+      </c>
+      <c r="D2839" t="s">
+        <v>687</v>
+      </c>
+      <c r="E2839" t="s">
+        <v>6415</v>
+      </c>
+      <c r="F2839" t="s">
+        <v>6416</v>
+      </c>
+      <c r="G2839">
+        <v>0</v>
+      </c>
+      <c r="H2839">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2840" spans="1:8">
+      <c r="A2840">
+        <v>2839</v>
+      </c>
+      <c r="B2840">
+        <v>4</v>
+      </c>
+      <c r="C2840">
+        <v>9</v>
+      </c>
+      <c r="D2840" t="s">
+        <v>920</v>
+      </c>
+      <c r="E2840" t="s">
+        <v>6417</v>
+      </c>
+      <c r="F2840" t="s">
+        <v>6418</v>
+      </c>
+      <c r="G2840">
+        <v>0</v>
+      </c>
+      <c r="H2840">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2841" spans="1:8">
+      <c r="A2841">
+        <v>2840</v>
+      </c>
+      <c r="B2841">
+        <v>4</v>
+      </c>
+      <c r="C2841">
+        <v>9</v>
+      </c>
+      <c r="D2841" t="s">
+        <v>6419</v>
+      </c>
+      <c r="E2841" t="s">
+        <v>6417</v>
+      </c>
+      <c r="F2841" t="s">
+        <v>6420</v>
+      </c>
+      <c r="G2841">
+        <v>0</v>
+      </c>
+      <c r="H2841">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2842" spans="1:8">
+      <c r="A2842">
+        <v>2841</v>
+      </c>
+      <c r="B2842">
+        <v>4</v>
+      </c>
+      <c r="C2842">
+        <v>9</v>
+      </c>
+      <c r="D2842" t="s">
+        <v>1893</v>
+      </c>
+      <c r="E2842" t="s">
+        <v>6418</v>
+      </c>
+      <c r="F2842" t="s">
+        <v>6420</v>
+      </c>
+      <c r="G2842">
+        <v>0</v>
+      </c>
+      <c r="H2842">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2843" spans="1:8">
+      <c r="A2843">
+        <v>2842</v>
+      </c>
+      <c r="B2843">
+        <v>4</v>
+      </c>
+      <c r="C2843">
+        <v>9</v>
+      </c>
+      <c r="D2843" t="s">
+        <v>5281</v>
+      </c>
+      <c r="E2843" t="s">
+        <v>6421</v>
+      </c>
+      <c r="F2843" t="s">
+        <v>6422</v>
+      </c>
+      <c r="G2843">
+        <v>0</v>
+      </c>
+      <c r="H2843">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2844" spans="1:8">
+      <c r="A2844">
+        <v>2843</v>
+      </c>
+      <c r="B2844">
+        <v>4</v>
+      </c>
+      <c r="C2844">
+        <v>9</v>
+      </c>
+      <c r="D2844" t="s">
+        <v>6423</v>
+      </c>
+      <c r="E2844" t="s">
+        <v>6421</v>
+      </c>
+      <c r="F2844" t="s">
+        <v>6424</v>
+      </c>
+      <c r="G2844">
+        <v>0</v>
+      </c>
+      <c r="H2844">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2845" spans="1:8">
+      <c r="A2845">
+        <v>2844</v>
+      </c>
+      <c r="B2845">
+        <v>4</v>
+      </c>
+      <c r="C2845">
+        <v>9</v>
+      </c>
+      <c r="D2845" t="s">
+        <v>6425</v>
+      </c>
+      <c r="E2845" t="s">
+        <v>6426</v>
+      </c>
+      <c r="F2845" t="s">
+        <v>6427</v>
+      </c>
+      <c r="G2845">
+        <v>0</v>
+      </c>
+      <c r="H2845">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2846" spans="1:8">
+      <c r="A2846">
+        <v>2845</v>
+      </c>
+      <c r="B2846">
+        <v>4</v>
+      </c>
+      <c r="C2846">
+        <v>9</v>
+      </c>
+      <c r="D2846" t="s">
+        <v>6428</v>
+      </c>
+      <c r="E2846" t="s">
+        <v>6429</v>
+      </c>
+      <c r="F2846" t="s">
+        <v>2630</v>
+      </c>
+      <c r="G2846">
+        <v>0</v>
+      </c>
+      <c r="H2846">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2847" spans="1:8">
+      <c r="A2847">
+        <v>2846</v>
+      </c>
+      <c r="B2847">
+        <v>4</v>
+      </c>
+      <c r="C2847">
+        <v>9</v>
+      </c>
+      <c r="D2847" t="s">
+        <v>705</v>
+      </c>
+      <c r="E2847" t="s">
+        <v>6430</v>
+      </c>
+      <c r="F2847" t="s">
+        <v>2622</v>
+      </c>
+      <c r="G2847">
+        <v>0</v>
+      </c>
+      <c r="H2847">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2848" spans="1:8">
+      <c r="A2848">
+        <v>2847</v>
+      </c>
+      <c r="B2848">
+        <v>4</v>
+      </c>
+      <c r="C2848">
+        <v>9</v>
+      </c>
+      <c r="D2848" t="s">
+        <v>477</v>
+      </c>
+      <c r="E2848" t="s">
+        <v>6430</v>
+      </c>
+      <c r="F2848" t="s">
+        <v>2622</v>
+      </c>
+      <c r="G2848">
+        <v>0</v>
+      </c>
+      <c r="H2848">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2849" spans="1:8">
+      <c r="A2849">
+        <v>2848</v>
+      </c>
+      <c r="B2849">
+        <v>4</v>
+      </c>
+      <c r="C2849">
+        <v>9</v>
+      </c>
+      <c r="D2849" t="s">
+        <v>6431</v>
+      </c>
+      <c r="E2849" t="s">
+        <v>6432</v>
+      </c>
+      <c r="F2849" t="s">
+        <v>6433</v>
+      </c>
+      <c r="G2849">
+        <v>0</v>
+      </c>
+      <c r="H2849">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2850" spans="1:8">
+      <c r="A2850">
+        <v>2849</v>
+      </c>
+      <c r="B2850">
+        <v>4</v>
+      </c>
+      <c r="C2850">
+        <v>9</v>
+      </c>
+      <c r="D2850" t="s">
+        <v>4546</v>
+      </c>
+      <c r="E2850" t="s">
+        <v>6434</v>
+      </c>
+      <c r="F2850" t="s">
+        <v>6435</v>
+      </c>
+      <c r="G2850">
+        <v>0</v>
+      </c>
+      <c r="H2850">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2851" spans="1:8">
+      <c r="A2851">
+        <v>2850</v>
+      </c>
+      <c r="B2851">
+        <v>4</v>
+      </c>
+      <c r="C2851">
+        <v>9</v>
+      </c>
+      <c r="D2851" t="s">
+        <v>4541</v>
+      </c>
+      <c r="E2851" t="s">
+        <v>6434</v>
+      </c>
+      <c r="F2851" t="s">
+        <v>233</v>
+      </c>
+      <c r="G2851">
+        <v>0</v>
+      </c>
+      <c r="H2851">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2852" spans="1:8">
+      <c r="A2852">
+        <v>2851</v>
+      </c>
+      <c r="B2852">
+        <v>4</v>
+      </c>
+      <c r="C2852">
+        <v>9</v>
+      </c>
+      <c r="D2852" t="s">
+        <v>6436</v>
+      </c>
+      <c r="E2852" t="s">
+        <v>6437</v>
+      </c>
+      <c r="F2852" t="s">
+        <v>6438</v>
+      </c>
+      <c r="G2852">
+        <v>0</v>
+      </c>
+      <c r="H2852">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2853" spans="1:8">
+      <c r="A2853">
+        <v>2852</v>
+      </c>
+      <c r="B2853">
+        <v>4</v>
+      </c>
+      <c r="C2853">
+        <v>9</v>
+      </c>
+      <c r="D2853" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2853" t="s">
+        <v>6439</v>
+      </c>
+      <c r="F2853" t="s">
+        <v>6440</v>
+      </c>
+      <c r="G2853">
+        <v>0</v>
+      </c>
+      <c r="H2853">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2854" spans="1:8">
+      <c r="A2854">
+        <v>2853</v>
+      </c>
+      <c r="B2854">
+        <v>4</v>
+      </c>
+      <c r="C2854">
+        <v>9</v>
+      </c>
+      <c r="D2854" t="s">
+        <v>6441</v>
+      </c>
+      <c r="E2854" t="s">
+        <v>6442</v>
+      </c>
+      <c r="F2854" t="s">
+        <v>6443</v>
+      </c>
+      <c r="G2854">
+        <v>0</v>
+      </c>
+      <c r="H2854">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2855" spans="1:8">
+      <c r="A2855">
+        <v>2854</v>
+      </c>
+      <c r="B2855">
+        <v>4</v>
+      </c>
+      <c r="C2855">
+        <v>9</v>
+      </c>
+      <c r="D2855" t="s">
+        <v>6444</v>
+      </c>
+      <c r="E2855" t="s">
+        <v>6442</v>
+      </c>
+      <c r="F2855" t="s">
+        <v>6445</v>
+      </c>
+      <c r="G2855">
+        <v>0</v>
+      </c>
+      <c r="H2855">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2856" spans="1:8">
+      <c r="A2856">
+        <v>2855</v>
+      </c>
+      <c r="B2856">
+        <v>4</v>
+      </c>
+      <c r="C2856">
+        <v>9</v>
+      </c>
+      <c r="D2856" t="s">
+        <v>6010</v>
+      </c>
+      <c r="E2856" t="s">
+        <v>6446</v>
+      </c>
+      <c r="F2856" t="s">
+        <v>6447</v>
+      </c>
+      <c r="G2856">
+        <v>0</v>
+      </c>
+      <c r="H2856">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2857" spans="1:8">
+      <c r="A2857">
+        <v>2856</v>
+      </c>
+      <c r="B2857">
+        <v>4</v>
+      </c>
+      <c r="C2857">
+        <v>9</v>
+      </c>
+      <c r="D2857" t="s">
+        <v>6448</v>
+      </c>
+      <c r="E2857" t="s">
+        <v>6450</v>
+      </c>
+      <c r="F2857" t="s">
+        <v>6449</v>
+      </c>
+      <c r="G2857">
+        <v>0</v>
+      </c>
+      <c r="H2857">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2858" spans="1:8">
+      <c r="A2858">
+        <v>2857</v>
+      </c>
+      <c r="B2858">
+        <v>4</v>
+      </c>
+      <c r="C2858">
+        <v>9</v>
+      </c>
+      <c r="D2858" t="s">
+        <v>6451</v>
+      </c>
+      <c r="E2858" t="s">
+        <v>6450</v>
+      </c>
+      <c r="F2858" t="s">
+        <v>6452</v>
+      </c>
+      <c r="G2858">
+        <v>0</v>
+      </c>
+      <c r="H2858">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2859" spans="1:8">
+      <c r="A2859">
+        <v>2858</v>
+      </c>
+      <c r="B2859">
+        <v>4</v>
+      </c>
+      <c r="C2859">
+        <v>9</v>
+      </c>
+      <c r="D2859" t="s">
+        <v>6453</v>
+      </c>
+      <c r="E2859" t="s">
+        <v>6454</v>
+      </c>
+      <c r="F2859" t="s">
+        <v>6455</v>
+      </c>
+      <c r="G2859">
+        <v>0</v>
+      </c>
+      <c r="H2859">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2860" spans="1:8">
+      <c r="A2860">
+        <v>2859</v>
+      </c>
+      <c r="B2860">
+        <v>4</v>
+      </c>
+      <c r="C2860">
+        <v>9</v>
+      </c>
+      <c r="D2860" t="s">
+        <v>6456</v>
+      </c>
+      <c r="E2860" t="s">
+        <v>5006</v>
+      </c>
+      <c r="F2860" t="s">
+        <v>257</v>
+      </c>
+      <c r="G2860">
+        <v>0</v>
+      </c>
+      <c r="H2860">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2861" spans="1:8">
+      <c r="A2861">
+        <v>2860</v>
+      </c>
+      <c r="B2861">
+        <v>4</v>
+      </c>
+      <c r="C2861">
+        <v>9</v>
+      </c>
+      <c r="D2861" t="s">
+        <v>6457</v>
+      </c>
+      <c r="E2861" t="s">
+        <v>5006</v>
+      </c>
+      <c r="F2861" t="s">
+        <v>6458</v>
+      </c>
+      <c r="G2861">
+        <v>0</v>
+      </c>
+      <c r="H2861">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2862" spans="1:8">
+      <c r="A2862">
+        <v>2861</v>
+      </c>
+      <c r="B2862">
+        <v>4</v>
+      </c>
+      <c r="C2862">
+        <v>9</v>
+      </c>
+      <c r="D2862" t="s">
+        <v>6459</v>
+      </c>
+      <c r="E2862" t="s">
+        <v>6460</v>
+      </c>
+      <c r="F2862" t="s">
+        <v>5011</v>
+      </c>
+      <c r="G2862">
+        <v>0</v>
+      </c>
+      <c r="H2862">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2863" spans="1:8">
+      <c r="A2863">
+        <v>2862</v>
+      </c>
+      <c r="B2863">
+        <v>4</v>
+      </c>
+      <c r="C2863">
+        <v>9</v>
+      </c>
+      <c r="D2863" t="s">
+        <v>6461</v>
+      </c>
+      <c r="E2863" t="s">
+        <v>6462</v>
+      </c>
+      <c r="F2863" t="s">
+        <v>5011</v>
+      </c>
+      <c r="G2863">
+        <v>0</v>
+      </c>
+      <c r="H2863">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2864" spans="1:8">
+      <c r="A2864">
+        <v>2863</v>
+      </c>
+      <c r="B2864">
+        <v>4</v>
+      </c>
+      <c r="C2864">
+        <v>9</v>
+      </c>
+      <c r="D2864" t="s">
+        <v>4609</v>
+      </c>
+      <c r="E2864" t="s">
+        <v>6463</v>
+      </c>
+      <c r="F2864" t="s">
+        <v>6464</v>
+      </c>
+      <c r="G2864">
+        <v>0</v>
+      </c>
+      <c r="H2864">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2865" spans="1:8">
+      <c r="A2865">
+        <v>2864</v>
+      </c>
+      <c r="B2865">
+        <v>4</v>
+      </c>
+      <c r="C2865">
+        <v>9</v>
+      </c>
+      <c r="D2865" t="s">
+        <v>6465</v>
+      </c>
+      <c r="E2865" t="s">
+        <v>6466</v>
+      </c>
+      <c r="F2865" t="s">
+        <v>6467</v>
+      </c>
+      <c r="G2865">
+        <v>0</v>
+      </c>
+      <c r="H2865">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2866" spans="1:8">
+      <c r="A2866">
+        <v>2865</v>
+      </c>
+      <c r="B2866">
+        <v>4</v>
+      </c>
+      <c r="C2866">
+        <v>9</v>
+      </c>
+      <c r="D2866" t="s">
+        <v>6468</v>
+      </c>
+      <c r="E2866" t="s">
+        <v>6467</v>
+      </c>
+      <c r="F2866" t="s">
+        <v>6469</v>
+      </c>
+      <c r="G2866">
+        <v>0</v>
+      </c>
+      <c r="H2866">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2867" spans="1:8">
+      <c r="A2867">
+        <v>2866</v>
+      </c>
+      <c r="B2867">
+        <v>4</v>
+      </c>
+      <c r="C2867">
+        <v>9</v>
+      </c>
+      <c r="D2867" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2867" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2867" t="s">
+        <v>6469</v>
+      </c>
+      <c r="G2867">
+        <v>0</v>
+      </c>
+      <c r="H2867">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2868" spans="1:8">
+      <c r="A2868">
+        <v>2867</v>
+      </c>
+      <c r="B2868">
+        <v>4</v>
+      </c>
+      <c r="C2868">
+        <v>9</v>
+      </c>
+      <c r="D2868" t="s">
+        <v>708</v>
+      </c>
+      <c r="E2868" t="s">
+        <v>6470</v>
+      </c>
+      <c r="F2868" t="s">
+        <v>5020</v>
+      </c>
+      <c r="G2868">
+        <v>0</v>
+      </c>
+      <c r="H2868">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2869" spans="1:8">
+      <c r="A2869">
+        <v>2868</v>
+      </c>
+      <c r="B2869">
+        <v>4</v>
+      </c>
+      <c r="C2869">
+        <v>9</v>
+      </c>
+      <c r="D2869" t="s">
+        <v>6471</v>
+      </c>
+      <c r="E2869" t="s">
+        <v>6472</v>
+      </c>
+      <c r="F2869" t="s">
+        <v>269</v>
+      </c>
+      <c r="G2869">
+        <v>0</v>
+      </c>
+      <c r="H2869">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2870" spans="1:8">
+      <c r="A2870">
+        <v>2869</v>
+      </c>
+      <c r="B2870">
+        <v>4</v>
+      </c>
+      <c r="C2870">
+        <v>9</v>
+      </c>
+      <c r="D2870" t="s">
+        <v>6473</v>
+      </c>
+      <c r="E2870" t="s">
+        <v>6474</v>
+      </c>
+      <c r="F2870" t="s">
+        <v>6475</v>
+      </c>
+      <c r="G2870">
+        <v>0</v>
+      </c>
+      <c r="H2870">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2871" spans="1:8">
+      <c r="A2871">
+        <v>2870</v>
+      </c>
+      <c r="B2871">
+        <v>4</v>
+      </c>
+      <c r="C2871">
+        <v>9</v>
+      </c>
+      <c r="D2871" t="s">
+        <v>6451</v>
+      </c>
+      <c r="E2871" t="s">
+        <v>6476</v>
+      </c>
+      <c r="F2871" t="s">
+        <v>6477</v>
+      </c>
+      <c r="G2871">
+        <v>0</v>
+      </c>
+      <c r="H2871">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2872" spans="1:8">
+      <c r="A2872">
+        <v>2871</v>
+      </c>
+      <c r="B2872">
+        <v>4</v>
+      </c>
+      <c r="C2872">
+        <v>9</v>
+      </c>
+      <c r="D2872" t="s">
+        <v>6478</v>
+      </c>
+      <c r="E2872" t="s">
+        <v>6479</v>
+      </c>
+      <c r="F2872" t="s">
+        <v>6480</v>
+      </c>
+      <c r="G2872">
+        <v>0</v>
+      </c>
+      <c r="H2872">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2873" spans="1:8">
+      <c r="A2873">
+        <v>2872</v>
+      </c>
+      <c r="B2873">
+        <v>4</v>
+      </c>
+      <c r="C2873">
+        <v>9</v>
+      </c>
+      <c r="D2873" t="s">
+        <v>6481</v>
+      </c>
+      <c r="E2873" t="s">
+        <v>6482</v>
+      </c>
+      <c r="F2873" t="s">
+        <v>6483</v>
+      </c>
+      <c r="G2873">
+        <v>0</v>
+      </c>
+      <c r="H2873">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2874" spans="1:8">
+      <c r="A2874">
+        <v>2873</v>
+      </c>
+      <c r="B2874">
+        <v>4</v>
+      </c>
+      <c r="C2874">
+        <v>9</v>
+      </c>
+      <c r="D2874" t="s">
+        <v>6362</v>
+      </c>
+      <c r="E2874" t="s">
+        <v>820</v>
+      </c>
+      <c r="F2874" t="s">
+        <v>6484</v>
+      </c>
+      <c r="G2874">
+        <v>0</v>
+      </c>
+      <c r="H2874">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2875" spans="1:8">
+      <c r="A2875">
+        <v>2874</v>
+      </c>
+      <c r="B2875">
+        <v>4</v>
+      </c>
+      <c r="C2875">
+        <v>9</v>
+      </c>
+      <c r="D2875" t="s">
+        <v>6485</v>
+      </c>
+      <c r="E2875" t="s">
+        <v>3344</v>
+      </c>
+      <c r="F2875" t="s">
+        <v>6486</v>
+      </c>
+      <c r="G2875">
+        <v>0</v>
+      </c>
+      <c r="H2875">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2876" spans="1:8">
+      <c r="A2876">
+        <v>2875</v>
+      </c>
+      <c r="B2876">
+        <v>4</v>
+      </c>
+      <c r="C2876">
+        <v>9</v>
+      </c>
+      <c r="D2876" t="s">
+        <v>6487</v>
+      </c>
+      <c r="E2876" t="s">
+        <v>3344</v>
+      </c>
+      <c r="F2876" t="s">
+        <v>5038</v>
+      </c>
+      <c r="G2876">
+        <v>0</v>
+      </c>
+      <c r="H2876">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2877" spans="1:8">
+      <c r="A2877">
+        <v>2876</v>
+      </c>
+      <c r="B2877">
+        <v>4</v>
+      </c>
+      <c r="C2877">
+        <v>9</v>
+      </c>
+      <c r="D2877" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E2877" t="s">
+        <v>5039</v>
+      </c>
+      <c r="F2877" t="s">
+        <v>6488</v>
+      </c>
+      <c r="G2877">
+        <v>0</v>
+      </c>
+      <c r="H2877">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2878" spans="1:8">
+      <c r="A2878">
+        <v>2877</v>
+      </c>
+      <c r="B2878">
+        <v>4</v>
+      </c>
+      <c r="C2878">
+        <v>9</v>
+      </c>
+      <c r="D2878" t="s">
+        <v>6049</v>
+      </c>
+      <c r="E2878" t="s">
+        <v>6489</v>
+      </c>
+      <c r="F2878" t="s">
+        <v>6490</v>
+      </c>
+      <c r="G2878">
+        <v>0</v>
+      </c>
+      <c r="H2878">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2879" spans="1:8">
+      <c r="A2879">
+        <v>2878</v>
+      </c>
+      <c r="B2879">
+        <v>4</v>
+      </c>
+      <c r="C2879">
+        <v>9</v>
+      </c>
+      <c r="D2879" t="s">
+        <v>6051</v>
+      </c>
+      <c r="E2879" t="s">
+        <v>6491</v>
+      </c>
+      <c r="F2879" t="s">
+        <v>6492</v>
+      </c>
+      <c r="G2879">
+        <v>0</v>
+      </c>
+      <c r="H2879">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2880" spans="1:8">
+      <c r="A2880">
+        <v>2879</v>
+      </c>
+      <c r="B2880">
+        <v>4</v>
+      </c>
+      <c r="C2880">
+        <v>9</v>
+      </c>
+      <c r="D2880" t="s">
+        <v>6493</v>
+      </c>
+      <c r="E2880" t="s">
+        <v>6491</v>
+      </c>
+      <c r="F2880" t="s">
+        <v>6492</v>
+      </c>
+      <c r="G2880">
+        <v>0</v>
+      </c>
+      <c r="H2880">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2881" spans="1:8">
+      <c r="A2881">
+        <v>2880</v>
+      </c>
+      <c r="B2881">
+        <v>4</v>
+      </c>
+      <c r="C2881">
+        <v>9</v>
+      </c>
+      <c r="D2881" t="s">
+        <v>6494</v>
+      </c>
+      <c r="E2881" t="s">
+        <v>6492</v>
+      </c>
+      <c r="F2881" t="s">
+        <v>6495</v>
+      </c>
+      <c r="G2881">
+        <v>0</v>
+      </c>
+      <c r="H2881">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2882" spans="1:8">
+      <c r="A2882">
+        <v>2881</v>
+      </c>
+      <c r="B2882">
+        <v>4</v>
+      </c>
+      <c r="C2882">
+        <v>9</v>
+      </c>
+      <c r="D2882" t="s">
+        <v>4609</v>
+      </c>
+      <c r="E2882" t="s">
+        <v>6492</v>
+      </c>
+      <c r="F2882" t="s">
+        <v>6496</v>
+      </c>
+      <c r="G2882">
+        <v>0</v>
+      </c>
+      <c r="H2882">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2883" spans="1:8">
+      <c r="A2883">
+        <v>2882</v>
+      </c>
+      <c r="B2883">
+        <v>4</v>
+      </c>
+      <c r="C2883">
+        <v>9</v>
+      </c>
+      <c r="D2883" t="s">
+        <v>6497</v>
+      </c>
+      <c r="E2883" t="s">
+        <v>6498</v>
+      </c>
+      <c r="F2883" t="s">
+        <v>6495</v>
+      </c>
+      <c r="G2883">
+        <v>0</v>
+      </c>
+      <c r="H2883">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2884" spans="1:8">
+      <c r="A2884">
+        <v>2883</v>
+      </c>
+      <c r="B2884">
+        <v>4</v>
+      </c>
+      <c r="C2884">
+        <v>9</v>
+      </c>
+      <c r="D2884" t="s">
+        <v>969</v>
+      </c>
+      <c r="E2884" t="s">
+        <v>6496</v>
+      </c>
+      <c r="F2884" t="s">
+        <v>6495</v>
+      </c>
+      <c r="G2884">
+        <v>0</v>
+      </c>
+      <c r="H2884">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2885" spans="1:8">
+      <c r="A2885">
+        <v>2884</v>
+      </c>
+      <c r="B2885">
+        <v>4</v>
+      </c>
+      <c r="C2885">
+        <v>9</v>
+      </c>
+      <c r="D2885" t="s">
+        <v>6501</v>
+      </c>
+      <c r="E2885" t="s">
+        <v>6499</v>
+      </c>
+      <c r="F2885" t="s">
+        <v>6500</v>
+      </c>
+      <c r="G2885">
+        <v>0</v>
+      </c>
+      <c r="H2885">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2886" spans="1:8">
+      <c r="A2886">
+        <v>2885</v>
+      </c>
+      <c r="B2886">
+        <v>4</v>
+      </c>
+      <c r="C2886">
+        <v>9</v>
+      </c>
+      <c r="D2886" t="s">
+        <v>6502</v>
+      </c>
+      <c r="E2886" t="s">
+        <v>6503</v>
+      </c>
+      <c r="F2886" t="s">
+        <v>5060</v>
+      </c>
+      <c r="G2886">
+        <v>0</v>
+      </c>
+      <c r="H2886">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2887" spans="1:8">
+      <c r="A2887">
+        <v>2886</v>
+      </c>
+      <c r="B2887">
+        <v>4</v>
+      </c>
+      <c r="C2887">
+        <v>9</v>
+      </c>
+      <c r="D2887" t="s">
+        <v>1497</v>
+      </c>
+      <c r="E2887" t="s">
+        <v>6504</v>
+      </c>
+      <c r="F2887" t="s">
+        <v>6505</v>
+      </c>
+      <c r="G2887">
+        <v>0</v>
+      </c>
+      <c r="H2887">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2888" spans="1:8">
+      <c r="A2888">
+        <v>2887</v>
+      </c>
+      <c r="B2888">
+        <v>4</v>
+      </c>
+      <c r="C2888">
+        <v>9</v>
+      </c>
+      <c r="D2888" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E2888" t="s">
+        <v>6504</v>
+      </c>
+      <c r="F2888" t="s">
+        <v>6506</v>
+      </c>
+      <c r="G2888">
+        <v>0</v>
+      </c>
+      <c r="H2888">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2889" spans="1:8">
+      <c r="A2889">
+        <v>2888</v>
+      </c>
+      <c r="B2889">
+        <v>4</v>
+      </c>
+      <c r="C2889">
+        <v>9</v>
+      </c>
+      <c r="D2889" t="s">
+        <v>6507</v>
+      </c>
+      <c r="E2889" t="s">
+        <v>6508</v>
+      </c>
+      <c r="F2889" t="s">
+        <v>6505</v>
+      </c>
+      <c r="G2889">
+        <v>0</v>
+      </c>
+      <c r="H2889">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2890" spans="1:8">
+      <c r="A2890">
+        <v>2889</v>
+      </c>
+      <c r="B2890">
+        <v>4</v>
+      </c>
+      <c r="C2890">
+        <v>9</v>
+      </c>
+      <c r="D2890" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E2890" t="s">
+        <v>1994</v>
+      </c>
+      <c r="F2890" t="s">
+        <v>6505</v>
+      </c>
+      <c r="G2890">
+        <v>0</v>
+      </c>
+      <c r="H2890">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2891" spans="1:8">
+      <c r="A2891">
+        <v>2890</v>
+      </c>
+      <c r="B2891">
+        <v>4</v>
+      </c>
+      <c r="C2891">
+        <v>9</v>
+      </c>
+      <c r="D2891" t="s">
+        <v>6509</v>
+      </c>
+      <c r="E2891" t="s">
+        <v>6505</v>
+      </c>
+      <c r="F2891" t="s">
+        <v>6510</v>
+      </c>
+      <c r="G2891">
+        <v>0</v>
+      </c>
+      <c r="H2891">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2892" spans="1:8">
+      <c r="A2892">
+        <v>2891</v>
+      </c>
+      <c r="B2892">
+        <v>4</v>
+      </c>
+      <c r="C2892">
+        <v>9</v>
+      </c>
+      <c r="D2892" t="s">
+        <v>6511</v>
+      </c>
+      <c r="E2892" t="s">
+        <v>6512</v>
+      </c>
+      <c r="F2892" t="s">
+        <v>2015</v>
+      </c>
+      <c r="G2892">
+        <v>0</v>
+      </c>
+      <c r="H2892">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2893" spans="1:8">
+      <c r="A2893">
+        <v>2892</v>
+      </c>
+      <c r="B2893">
+        <v>4</v>
+      </c>
+      <c r="C2893">
+        <v>9</v>
+      </c>
+      <c r="D2893" t="s">
+        <v>6513</v>
+      </c>
+      <c r="E2893" t="s">
+        <v>6512</v>
+      </c>
+      <c r="F2893" t="s">
+        <v>6514</v>
+      </c>
+      <c r="G2893">
+        <v>0</v>
+      </c>
+      <c r="H2893">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2894" spans="1:8">
+      <c r="A2894">
+        <v>2893</v>
+      </c>
+      <c r="B2894">
+        <v>4</v>
+      </c>
+      <c r="C2894">
+        <v>9</v>
+      </c>
+      <c r="D2894" t="s">
+        <v>6515</v>
+      </c>
+      <c r="E2894" t="s">
+        <v>6516</v>
+      </c>
+      <c r="F2894" t="s">
+        <v>6514</v>
+      </c>
+      <c r="G2894">
+        <v>0</v>
+      </c>
+      <c r="H2894">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2895" spans="1:8">
+      <c r="A2895">
+        <v>2894</v>
+      </c>
+      <c r="B2895">
+        <v>4</v>
+      </c>
+      <c r="C2895">
+        <v>9</v>
+      </c>
+      <c r="D2895" t="s">
+        <v>6517</v>
+      </c>
+      <c r="E2895" t="s">
+        <v>6516</v>
+      </c>
+      <c r="F2895" t="s">
+        <v>2015</v>
+      </c>
+      <c r="G2895">
+        <v>0</v>
+      </c>
+      <c r="H2895">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2896" spans="1:8">
+      <c r="A2896">
+        <v>2895</v>
+      </c>
+      <c r="B2896">
+        <v>4</v>
+      </c>
+      <c r="C2896">
+        <v>9</v>
+      </c>
+      <c r="D2896" t="s">
+        <v>977</v>
+      </c>
+      <c r="E2896" t="s">
+        <v>6518</v>
+      </c>
+      <c r="F2896" t="s">
+        <v>2015</v>
+      </c>
+      <c r="G2896">
+        <v>0</v>
+      </c>
+      <c r="H2896">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2897" spans="1:8">
+      <c r="A2897">
+        <v>2896</v>
+      </c>
+      <c r="B2897">
+        <v>4</v>
+      </c>
+      <c r="C2897">
+        <v>9</v>
+      </c>
+      <c r="D2897" t="s">
+        <v>5108</v>
+      </c>
+      <c r="E2897" t="s">
+        <v>2021</v>
+      </c>
+      <c r="F2897" t="s">
+        <v>6519</v>
+      </c>
+      <c r="G2897">
+        <v>0</v>
+      </c>
+      <c r="H2897">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2898" spans="1:8">
+      <c r="A2898">
+        <v>2897</v>
+      </c>
+      <c r="B2898">
+        <v>4</v>
+      </c>
+      <c r="C2898">
+        <v>9</v>
+      </c>
+      <c r="D2898" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E2898" t="s">
+        <v>6520</v>
+      </c>
+      <c r="F2898" t="s">
+        <v>6519</v>
+      </c>
+      <c r="G2898">
+        <v>0</v>
+      </c>
+      <c r="H2898">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2899" spans="1:8">
+      <c r="A2899">
+        <v>2898</v>
+      </c>
+      <c r="B2899">
+        <v>4</v>
+      </c>
+      <c r="C2899">
+        <v>9</v>
+      </c>
+      <c r="D2899" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2899" t="s">
+        <v>6521</v>
+      </c>
+      <c r="F2899" t="s">
+        <v>2036</v>
+      </c>
+      <c r="G2899">
+        <v>0</v>
+      </c>
+      <c r="H2899">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2900" spans="1:8">
+      <c r="A2900">
+        <v>2899</v>
+      </c>
+      <c r="B2900">
+        <v>4</v>
+      </c>
+      <c r="C2900">
+        <v>9</v>
+      </c>
+      <c r="D2900" t="s">
+        <v>659</v>
+      </c>
+      <c r="E2900" t="s">
+        <v>6522</v>
+      </c>
+      <c r="F2900" t="s">
+        <v>2046</v>
+      </c>
+      <c r="G2900">
+        <v>0</v>
+      </c>
+      <c r="H2900">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2901" spans="1:8">
+      <c r="A2901">
+        <v>2900</v>
+      </c>
+      <c r="B2901">
+        <v>4</v>
+      </c>
+      <c r="C2901">
+        <v>9</v>
+      </c>
+      <c r="D2901" t="s">
+        <v>3885</v>
+      </c>
+      <c r="E2901" t="s">
+        <v>6522</v>
+      </c>
+      <c r="F2901" t="s">
+        <v>2046</v>
+      </c>
+      <c r="G2901">
+        <v>0</v>
+      </c>
+      <c r="H2901">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2902" spans="1:8">
+      <c r="A2902">
+        <v>2901</v>
+      </c>
+      <c r="B2902">
+        <v>4</v>
+      </c>
+      <c r="C2902">
+        <v>9</v>
+      </c>
+      <c r="D2902" t="s">
+        <v>6523</v>
+      </c>
+      <c r="E2902" t="s">
+        <v>6524</v>
+      </c>
+      <c r="F2902" t="s">
+        <v>6525</v>
+      </c>
+      <c r="G2902">
+        <v>0</v>
+      </c>
+      <c r="H2902">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2903" spans="1:8">
+      <c r="A2903">
+        <v>2902</v>
+      </c>
+      <c r="B2903">
+        <v>4</v>
+      </c>
+      <c r="C2903">
+        <v>9</v>
+      </c>
+      <c r="D2903" t="s">
+        <v>6526</v>
+      </c>
+      <c r="E2903" t="s">
+        <v>6527</v>
+      </c>
+      <c r="F2903" t="s">
+        <v>6528</v>
+      </c>
+      <c r="G2903">
+        <v>0</v>
+      </c>
+      <c r="H2903">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2904" spans="1:8">
+      <c r="A2904">
+        <v>2903</v>
+      </c>
+      <c r="B2904">
+        <v>4</v>
+      </c>
+      <c r="C2904">
+        <v>9</v>
+      </c>
+      <c r="D2904" t="s">
+        <v>6529</v>
+      </c>
+      <c r="E2904" t="s">
+        <v>6530</v>
+      </c>
+      <c r="F2904" t="s">
+        <v>6531</v>
+      </c>
+      <c r="G2904">
+        <v>0</v>
+      </c>
+      <c r="H2904">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2905" spans="1:8">
+      <c r="A2905">
+        <v>2904</v>
+      </c>
+      <c r="B2905">
+        <v>4</v>
+      </c>
+      <c r="C2905">
+        <v>9</v>
+      </c>
+      <c r="D2905" t="s">
+        <v>3790</v>
+      </c>
+      <c r="E2905" t="s">
+        <v>854</v>
+      </c>
+      <c r="F2905" t="s">
+        <v>6532</v>
+      </c>
+      <c r="G2905">
+        <v>0</v>
+      </c>
+      <c r="H2905">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2906" spans="1:8">
+      <c r="A2906">
+        <v>2905</v>
+      </c>
+      <c r="B2906">
+        <v>4</v>
+      </c>
+      <c r="C2906">
+        <v>9</v>
+      </c>
+      <c r="D2906" t="s">
+        <v>6533</v>
+      </c>
+      <c r="E2906" t="s">
+        <v>854</v>
+      </c>
+      <c r="F2906" t="s">
+        <v>6534</v>
+      </c>
+      <c r="G2906">
+        <v>0</v>
+      </c>
+      <c r="H2906">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2907" spans="1:8">
+      <c r="A2907">
+        <v>2906</v>
+      </c>
+      <c r="B2907">
+        <v>4</v>
+      </c>
+      <c r="C2907">
+        <v>9</v>
+      </c>
+      <c r="D2907" t="s">
+        <v>6357</v>
+      </c>
+      <c r="E2907" t="s">
+        <v>6535</v>
+      </c>
+      <c r="F2907" t="s">
+        <v>6534</v>
+      </c>
+      <c r="G2907">
+        <v>0</v>
+      </c>
+      <c r="H2907">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2908" spans="1:8">
+      <c r="A2908">
+        <v>2907</v>
+      </c>
+      <c r="B2908">
+        <v>4</v>
+      </c>
+      <c r="C2908">
+        <v>9</v>
+      </c>
+      <c r="D2908" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E2908" t="s">
+        <v>861</v>
+      </c>
+      <c r="F2908" t="s">
+        <v>6536</v>
+      </c>
+      <c r="G2908">
+        <v>0</v>
+      </c>
+      <c r="H2908">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2909" spans="1:8">
+      <c r="A2909">
+        <v>2908</v>
+      </c>
+      <c r="B2909">
+        <v>4</v>
+      </c>
+      <c r="C2909">
+        <v>9</v>
+      </c>
+      <c r="D2909" t="s">
+        <v>6537</v>
+      </c>
+      <c r="E2909" t="s">
+        <v>6538</v>
+      </c>
+      <c r="F2909" t="s">
+        <v>6539</v>
+      </c>
+      <c r="G2909">
+        <v>0</v>
+      </c>
+      <c r="H2909">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2910" spans="1:8">
+      <c r="A2910">
+        <v>2909</v>
+      </c>
+      <c r="B2910">
+        <v>4</v>
+      </c>
+      <c r="C2910">
+        <v>9</v>
+      </c>
+      <c r="D2910" t="s">
+        <v>6540</v>
+      </c>
+      <c r="E2910" t="s">
+        <v>6541</v>
+      </c>
+      <c r="F2910" t="s">
+        <v>6542</v>
+      </c>
+      <c r="G2910">
+        <v>0</v>
+      </c>
+      <c r="H2910">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2911" spans="1:8">
+      <c r="A2911">
+        <v>2910</v>
+      </c>
+      <c r="B2911">
+        <v>4</v>
+      </c>
+      <c r="C2911">
+        <v>9</v>
+      </c>
+      <c r="D2911" t="s">
+        <v>6543</v>
+      </c>
+      <c r="E2911" t="s">
+        <v>6544</v>
+      </c>
+      <c r="F2911" t="s">
+        <v>2641</v>
+      </c>
+      <c r="G2911">
+        <v>0</v>
+      </c>
+      <c r="H2911">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2912" spans="1:8">
+      <c r="A2912">
+        <v>2911</v>
+      </c>
+      <c r="B2912">
+        <v>4</v>
+      </c>
+      <c r="C2912">
+        <v>9</v>
+      </c>
+      <c r="D2912" t="s">
+        <v>3205</v>
+      </c>
+      <c r="E2912" t="s">
+        <v>6542</v>
+      </c>
+      <c r="F2912" t="s">
+        <v>6545</v>
+      </c>
+      <c r="G2912">
+        <v>0</v>
+      </c>
+      <c r="H2912">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2913" spans="1:8">
+      <c r="A2913">
+        <v>2912</v>
+      </c>
+      <c r="B2913">
+        <v>4</v>
+      </c>
+      <c r="C2913">
+        <v>9</v>
+      </c>
+      <c r="D2913" t="s">
+        <v>6546</v>
+      </c>
+      <c r="E2913" t="s">
+        <v>6547</v>
+      </c>
+      <c r="F2913" t="s">
+        <v>6548</v>
+      </c>
+      <c r="G2913">
+        <v>0</v>
+      </c>
+      <c r="H2913">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2914" spans="1:8">
+      <c r="A2914">
+        <v>2913</v>
+      </c>
+      <c r="B2914">
+        <v>4</v>
+      </c>
+      <c r="C2914">
+        <v>9</v>
+      </c>
+      <c r="D2914" t="s">
+        <v>6549</v>
+      </c>
+      <c r="E2914" t="s">
+        <v>6551</v>
+      </c>
+      <c r="F2914" t="s">
+        <v>6550</v>
+      </c>
+      <c r="G2914">
+        <v>0</v>
+      </c>
+      <c r="H2914">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2915" spans="1:8">
+      <c r="A2915">
+        <v>2914</v>
+      </c>
+      <c r="B2915">
+        <v>4</v>
+      </c>
+      <c r="C2915">
+        <v>9</v>
+      </c>
+      <c r="D2915" t="s">
+        <v>6552</v>
+      </c>
+      <c r="E2915" t="s">
+        <v>6551</v>
+      </c>
+      <c r="F2915" t="s">
+        <v>6553</v>
+      </c>
+      <c r="G2915">
+        <v>0</v>
+      </c>
+      <c r="H2915">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2916" spans="1:8">
+      <c r="A2916">
+        <v>2915</v>
+      </c>
+      <c r="B2916">
+        <v>4</v>
+      </c>
+      <c r="C2916">
+        <v>9</v>
+      </c>
+      <c r="D2916" t="s">
+        <v>6554</v>
+      </c>
+      <c r="E2916" t="s">
+        <v>6555</v>
+      </c>
+      <c r="F2916" t="s">
+        <v>6556</v>
+      </c>
+      <c r="G2916">
+        <v>0</v>
+      </c>
+      <c r="H2916">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2917" spans="1:8">
+      <c r="A2917">
+        <v>2916</v>
+      </c>
+      <c r="B2917">
+        <v>4</v>
+      </c>
+      <c r="C2917">
+        <v>9</v>
+      </c>
+      <c r="D2917" t="s">
+        <v>3841</v>
+      </c>
+      <c r="E2917" t="s">
+        <v>6557</v>
+      </c>
+      <c r="F2917" t="s">
+        <v>6556</v>
+      </c>
+      <c r="G2917">
+        <v>0</v>
+      </c>
+      <c r="H2917">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2918" spans="1:8">
+      <c r="A2918">
+        <v>2917</v>
+      </c>
+      <c r="B2918">
+        <v>4</v>
+      </c>
+      <c r="C2918">
+        <v>9</v>
+      </c>
+      <c r="D2918" t="s">
+        <v>5453</v>
+      </c>
+      <c r="E2918" t="s">
+        <v>6558</v>
+      </c>
+      <c r="F2918" t="s">
+        <v>6559</v>
+      </c>
+      <c r="G2918">
+        <v>0</v>
+      </c>
+      <c r="H2918">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2919" spans="1:8">
+      <c r="A2919">
+        <v>2918</v>
+      </c>
+      <c r="B2919">
+        <v>4</v>
+      </c>
+      <c r="C2919">
+        <v>9</v>
+      </c>
+      <c r="D2919" t="s">
+        <v>5458</v>
+      </c>
+      <c r="E2919" t="s">
+        <v>6560</v>
+      </c>
+      <c r="F2919" t="s">
+        <v>6561</v>
+      </c>
+      <c r="G2919">
+        <v>0</v>
+      </c>
+      <c r="H2919">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2920" spans="1:8">
+      <c r="A2920">
+        <v>2919</v>
+      </c>
+      <c r="B2920">
+        <v>4</v>
+      </c>
+      <c r="C2920">
+        <v>9</v>
+      </c>
+      <c r="D2920" t="s">
+        <v>232</v>
+      </c>
+      <c r="E2920" t="s">
+        <v>6562</v>
+      </c>
+      <c r="F2920" t="s">
+        <v>6561</v>
+      </c>
+      <c r="G2920">
+        <v>0</v>
+      </c>
+      <c r="H2920">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2921" spans="1:8">
+      <c r="A2921">
+        <v>2920</v>
+      </c>
+      <c r="B2921">
+        <v>4</v>
+      </c>
+      <c r="C2921">
+        <v>9</v>
+      </c>
+      <c r="D2921" t="s">
+        <v>6563</v>
+      </c>
+      <c r="E2921" t="s">
+        <v>6564</v>
+      </c>
+      <c r="F2921" t="s">
+        <v>6565</v>
+      </c>
+      <c r="G2921">
+        <v>0</v>
+      </c>
+      <c r="H2921">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2922" spans="1:8">
+      <c r="A2922">
+        <v>2921</v>
+      </c>
+      <c r="B2922">
+        <v>4</v>
+      </c>
+      <c r="C2922">
+        <v>9</v>
+      </c>
+      <c r="D2922" t="s">
+        <v>6566</v>
+      </c>
+      <c r="E2922" t="s">
+        <v>6564</v>
+      </c>
+      <c r="F2922" t="s">
+        <v>6567</v>
+      </c>
+      <c r="G2922">
+        <v>0</v>
+      </c>
+      <c r="H2922">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2923" spans="1:8">
+      <c r="A2923">
+        <v>2922</v>
+      </c>
+      <c r="B2923">
+        <v>4</v>
+      </c>
+      <c r="C2923">
+        <v>9</v>
+      </c>
+      <c r="D2923" t="s">
+        <v>3701</v>
+      </c>
+      <c r="E2923" t="s">
+        <v>6568</v>
+      </c>
+      <c r="F2923" t="s">
+        <v>6567</v>
+      </c>
+      <c r="G2923">
+        <v>0</v>
+      </c>
+      <c r="H2923">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2924" spans="1:8">
+      <c r="A2924">
+        <v>2923</v>
+      </c>
+      <c r="B2924">
+        <v>4</v>
+      </c>
+      <c r="C2924">
+        <v>9</v>
+      </c>
+      <c r="D2924" t="s">
+        <v>6569</v>
+      </c>
+      <c r="E2924" t="s">
+        <v>6568</v>
+      </c>
+      <c r="F2924" s="2" t="s">
+        <v>6565</v>
+      </c>
+      <c r="G2924">
+        <v>0</v>
+      </c>
+      <c r="H2924">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2925" spans="1:8">
+      <c r="A2925">
+        <v>2924</v>
+      </c>
+      <c r="B2925">
+        <v>4</v>
+      </c>
+      <c r="C2925">
+        <v>9</v>
+      </c>
+      <c r="D2925" t="s">
+        <v>6570</v>
+      </c>
+      <c r="E2925" t="s">
+        <v>6571</v>
+      </c>
+      <c r="F2925" t="s">
+        <v>6572</v>
+      </c>
+      <c r="G2925">
+        <v>0</v>
+      </c>
+      <c r="H2925">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2926" spans="1:8">
+      <c r="A2926">
+        <v>2925</v>
+      </c>
+      <c r="B2926">
+        <v>4</v>
+      </c>
+      <c r="C2926">
+        <v>9</v>
+      </c>
+      <c r="D2926" t="s">
+        <v>6573</v>
+      </c>
+      <c r="E2926" t="s">
+        <v>6571</v>
+      </c>
+      <c r="F2926" t="s">
+        <v>6574</v>
+      </c>
+      <c r="G2926">
+        <v>0</v>
+      </c>
+      <c r="H2926">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2927" spans="1:8">
+      <c r="A2927">
+        <v>2926</v>
+      </c>
+      <c r="B2927">
+        <v>4</v>
+      </c>
+      <c r="C2927">
+        <v>9</v>
+      </c>
+      <c r="D2927" t="s">
+        <v>6575</v>
+      </c>
+      <c r="E2927" t="s">
+        <v>6576</v>
+      </c>
+      <c r="F2927" t="s">
+        <v>6577</v>
+      </c>
+      <c r="G2927">
+        <v>0</v>
+      </c>
+      <c r="H2927">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2928" spans="1:8">
+      <c r="A2928">
+        <v>2927</v>
+      </c>
+      <c r="B2928">
+        <v>4</v>
+      </c>
+      <c r="C2928">
+        <v>9</v>
+      </c>
+      <c r="D2928" t="s">
+        <v>2074</v>
+      </c>
+      <c r="E2928" t="s">
+        <v>6574</v>
+      </c>
+      <c r="F2928" t="s">
+        <v>934</v>
+      </c>
+      <c r="G2928">
+        <v>0</v>
+      </c>
+      <c r="H2928">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2929" spans="1:8">
+      <c r="A2929">
+        <v>2928</v>
+      </c>
+      <c r="B2929">
+        <v>4</v>
+      </c>
+      <c r="C2929">
+        <v>9</v>
+      </c>
+      <c r="D2929" t="s">
+        <v>6578</v>
+      </c>
+      <c r="E2929" t="s">
+        <v>6579</v>
+      </c>
+      <c r="F2929" t="s">
+        <v>6580</v>
+      </c>
+      <c r="G2929">
+        <v>0</v>
+      </c>
+      <c r="H2929">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2930" spans="1:8">
+      <c r="A2930">
+        <v>2929</v>
+      </c>
+      <c r="B2930">
+        <v>4</v>
+      </c>
+      <c r="C2930">
+        <v>9</v>
+      </c>
+      <c r="D2930" t="s">
+        <v>6581</v>
+      </c>
+      <c r="E2930" t="s">
+        <v>6582</v>
+      </c>
+      <c r="F2930" t="s">
+        <v>6222</v>
+      </c>
+      <c r="G2930">
+        <v>0</v>
+      </c>
+      <c r="H2930">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2931" spans="1:8">
+      <c r="A2931">
+        <v>2930</v>
+      </c>
+      <c r="B2931">
+        <v>4</v>
+      </c>
+      <c r="C2931">
+        <v>9</v>
+      </c>
+      <c r="D2931" t="s">
+        <v>3930</v>
+      </c>
+      <c r="E2931" t="s">
+        <v>6583</v>
+      </c>
+      <c r="F2931" t="s">
+        <v>6222</v>
+      </c>
+      <c r="G2931">
+        <v>0</v>
+      </c>
+      <c r="H2931">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2932" spans="1:8">
+      <c r="A2932">
+        <v>2931</v>
+      </c>
+      <c r="B2932">
+        <v>4</v>
+      </c>
+      <c r="C2932">
+        <v>9</v>
+      </c>
+      <c r="D2932" t="s">
+        <v>3315</v>
+      </c>
+      <c r="E2932" t="s">
+        <v>6584</v>
+      </c>
+      <c r="F2932" t="s">
+        <v>6585</v>
+      </c>
+      <c r="G2932">
+        <v>0</v>
+      </c>
+      <c r="H2932">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2933" spans="1:8">
+      <c r="A2933">
+        <v>2932</v>
+      </c>
+      <c r="B2933">
+        <v>4</v>
+      </c>
+      <c r="C2933">
+        <v>9</v>
+      </c>
+      <c r="D2933" t="s">
+        <v>6586</v>
+      </c>
+      <c r="E2933" t="s">
+        <v>6587</v>
+      </c>
+      <c r="F2933" t="s">
+        <v>6588</v>
+      </c>
+      <c r="G2933">
+        <v>0</v>
+      </c>
+      <c r="H2933">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2934" spans="1:8">
+      <c r="A2934">
+        <v>2933</v>
+      </c>
+      <c r="B2934">
+        <v>4</v>
+      </c>
+      <c r="C2934">
+        <v>9</v>
+      </c>
+      <c r="D2934" t="s">
+        <v>6589</v>
+      </c>
+      <c r="E2934" t="s">
+        <v>6587</v>
+      </c>
+      <c r="F2934" t="s">
+        <v>6590</v>
+      </c>
+      <c r="G2934">
+        <v>0</v>
+      </c>
+      <c r="H2934">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2935" spans="1:8">
+      <c r="A2935">
+        <v>2934</v>
+      </c>
+      <c r="B2935">
+        <v>4</v>
+      </c>
+      <c r="C2935">
+        <v>9</v>
+      </c>
+      <c r="D2935" t="s">
+        <v>6591</v>
+      </c>
+      <c r="E2935" t="s">
+        <v>6592</v>
+      </c>
+      <c r="F2935" t="s">
+        <v>6593</v>
+      </c>
+      <c r="G2935">
+        <v>0</v>
+      </c>
+      <c r="H2935">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2936" spans="1:8">
+      <c r="A2936">
+        <v>2935</v>
+      </c>
+      <c r="B2936">
+        <v>4</v>
+      </c>
+      <c r="C2936">
+        <v>9</v>
+      </c>
+      <c r="D2936" t="s">
+        <v>6594</v>
+      </c>
+      <c r="E2936" t="s">
+        <v>954</v>
+      </c>
+      <c r="F2936" t="s">
+        <v>6595</v>
+      </c>
+      <c r="G2936">
+        <v>0</v>
+      </c>
+      <c r="H2936">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2937" spans="1:8">
+      <c r="A2937">
+        <v>2936</v>
+      </c>
+      <c r="B2937">
+        <v>4</v>
+      </c>
+      <c r="C2937">
+        <v>9</v>
+      </c>
+      <c r="D2937" t="s">
+        <v>4262</v>
+      </c>
+      <c r="E2937" t="s">
+        <v>954</v>
+      </c>
+      <c r="F2937" t="s">
+        <v>6596</v>
+      </c>
+      <c r="G2937">
+        <v>0</v>
+      </c>
+      <c r="H2937">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2938" spans="1:8">
+      <c r="A2938">
+        <v>2937</v>
+      </c>
+      <c r="B2938">
+        <v>4</v>
+      </c>
+      <c r="C2938">
+        <v>9</v>
+      </c>
+      <c r="D2938" t="s">
+        <v>4264</v>
+      </c>
+      <c r="E2938" t="s">
+        <v>954</v>
+      </c>
+      <c r="F2938" t="s">
+        <v>6596</v>
+      </c>
+      <c r="G2938">
+        <v>0</v>
+      </c>
+      <c r="H2938">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2939" spans="1:8">
+      <c r="A2939">
+        <v>2938</v>
+      </c>
+      <c r="B2939">
+        <v>4</v>
+      </c>
+      <c r="C2939">
+        <v>9</v>
+      </c>
+      <c r="D2939" t="s">
+        <v>6597</v>
+      </c>
+      <c r="E2939" t="s">
+        <v>6598</v>
+      </c>
+      <c r="F2939" t="s">
+        <v>6599</v>
+      </c>
+      <c r="G2939">
+        <v>0</v>
+      </c>
+      <c r="H2939">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2940" spans="1:8">
+      <c r="A2940">
+        <v>2939</v>
+      </c>
+      <c r="B2940">
+        <v>4</v>
+      </c>
+      <c r="C2940">
+        <v>9</v>
+      </c>
+      <c r="D2940" t="s">
+        <v>6600</v>
+      </c>
+      <c r="E2940" t="s">
+        <v>6598</v>
+      </c>
+      <c r="F2940" t="s">
+        <v>6601</v>
+      </c>
+      <c r="G2940">
+        <v>0</v>
+      </c>
+      <c r="H2940">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2941" spans="1:8">
+      <c r="A2941">
+        <v>2940</v>
+      </c>
+      <c r="B2941">
+        <v>4</v>
+      </c>
+      <c r="C2941">
+        <v>9</v>
+      </c>
+      <c r="D2941" t="s">
+        <v>6602</v>
+      </c>
+      <c r="E2941" t="s">
+        <v>6603</v>
+      </c>
+      <c r="F2941" t="s">
+        <v>6604</v>
+      </c>
+      <c r="G2941">
+        <v>0</v>
+      </c>
+      <c r="H2941">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2942" spans="1:8">
+      <c r="A2942">
+        <v>2941</v>
+      </c>
+      <c r="B2942">
+        <v>4</v>
+      </c>
+      <c r="C2942">
+        <v>9</v>
+      </c>
+      <c r="D2942" t="s">
+        <v>4146</v>
+      </c>
+      <c r="E2942" t="s">
+        <v>6605</v>
+      </c>
+      <c r="F2942" t="s">
+        <v>6604</v>
+      </c>
+      <c r="G2942">
+        <v>0</v>
+      </c>
+      <c r="H2942">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2943" spans="1:8">
+      <c r="A2943">
+        <v>2942</v>
+      </c>
+      <c r="B2943">
+        <v>4</v>
+      </c>
+      <c r="C2943">
+        <v>9</v>
+      </c>
+      <c r="D2943" t="s">
+        <v>6606</v>
+      </c>
+      <c r="E2943" t="s">
+        <v>6608</v>
+      </c>
+      <c r="F2943" t="s">
+        <v>6607</v>
+      </c>
+      <c r="G2943">
+        <v>0</v>
+      </c>
+      <c r="H2943">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2944" spans="1:8">
+      <c r="A2944">
+        <v>2943</v>
+      </c>
+      <c r="B2944">
+        <v>4</v>
+      </c>
+      <c r="C2944">
+        <v>9</v>
+      </c>
+      <c r="D2944" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2944" t="s">
+        <v>6608</v>
+      </c>
+      <c r="F2944" t="s">
+        <v>961</v>
+      </c>
+      <c r="G2944">
+        <v>0</v>
+      </c>
+      <c r="H2944">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2945" spans="1:8">
+      <c r="A2945">
+        <v>2944</v>
+      </c>
+      <c r="B2945">
+        <v>4</v>
+      </c>
+      <c r="C2945">
+        <v>9</v>
+      </c>
+      <c r="D2945" t="s">
+        <v>6609</v>
+      </c>
+      <c r="E2945" t="s">
+        <v>2673</v>
+      </c>
+      <c r="F2945" t="s">
+        <v>2092</v>
+      </c>
+      <c r="G2945">
+        <v>0</v>
+      </c>
+      <c r="H2945">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2946" spans="1:8">
+      <c r="A2946">
+        <v>2945</v>
+      </c>
+      <c r="B2946">
+        <v>4</v>
+      </c>
+      <c r="C2946">
+        <v>9</v>
+      </c>
+      <c r="D2946" t="s">
+        <v>6610</v>
+      </c>
+      <c r="E2946" t="s">
+        <v>6611</v>
+      </c>
+      <c r="F2946" t="s">
+        <v>6612</v>
+      </c>
+      <c r="G2946">
+        <v>0</v>
+      </c>
+      <c r="H2946">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2947" spans="1:8">
+      <c r="A2947">
+        <v>2946</v>
+      </c>
+      <c r="B2947">
+        <v>4</v>
+      </c>
+      <c r="C2947">
+        <v>9</v>
+      </c>
+      <c r="D2947" t="s">
+        <v>6613</v>
+      </c>
+      <c r="E2947" t="s">
+        <v>6611</v>
+      </c>
+      <c r="F2947" t="s">
+        <v>6614</v>
+      </c>
+      <c r="G2947">
+        <v>0</v>
+      </c>
+      <c r="H2947">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2948" spans="1:8">
+      <c r="A2948">
+        <v>2947</v>
+      </c>
+      <c r="B2948">
+        <v>4</v>
+      </c>
+      <c r="C2948">
+        <v>9</v>
+      </c>
+      <c r="D2948" t="s">
+        <v>6615</v>
+      </c>
+      <c r="E2948" t="s">
+        <v>6616</v>
+      </c>
+      <c r="F2948" t="s">
+        <v>6612</v>
+      </c>
+      <c r="G2948">
+        <v>0</v>
+      </c>
+      <c r="H2948">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2949" spans="1:8">
+      <c r="A2949">
+        <v>2948</v>
+      </c>
+      <c r="B2949">
+        <v>4</v>
+      </c>
+      <c r="C2949">
+        <v>9</v>
+      </c>
+      <c r="D2949" t="s">
+        <v>6617</v>
+      </c>
+      <c r="E2949" t="s">
+        <v>6618</v>
+      </c>
+      <c r="F2949" t="s">
+        <v>6619</v>
+      </c>
+      <c r="G2949">
+        <v>0</v>
+      </c>
+      <c r="H2949">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2950" spans="1:8">
+      <c r="A2950">
+        <v>2949</v>
+      </c>
+      <c r="B2950">
+        <v>4</v>
+      </c>
+      <c r="C2950">
+        <v>9</v>
+      </c>
+      <c r="D2950" t="s">
+        <v>6621</v>
+      </c>
+      <c r="E2950" t="s">
+        <v>3363</v>
+      </c>
+      <c r="F2950" t="s">
+        <v>6622</v>
+      </c>
+      <c r="G2950">
+        <v>0</v>
+      </c>
+      <c r="H2950">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2951" spans="1:8">
+      <c r="A2951">
+        <v>2950</v>
+      </c>
+      <c r="B2951">
+        <v>4</v>
+      </c>
+      <c r="C2951">
+        <v>9</v>
+      </c>
+      <c r="D2951" t="s">
+        <v>6620</v>
+      </c>
+      <c r="E2951" t="s">
+        <v>3363</v>
+      </c>
+      <c r="F2951" t="s">
+        <v>6623</v>
+      </c>
+      <c r="G2951">
+        <v>0</v>
+      </c>
+      <c r="H2951">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2952" spans="1:8">
+      <c r="A2952">
+        <v>2951</v>
+      </c>
+      <c r="B2952">
+        <v>4</v>
+      </c>
+      <c r="C2952">
+        <v>9</v>
+      </c>
+      <c r="D2952" t="s">
+        <v>6624</v>
+      </c>
+      <c r="E2952" t="s">
+        <v>2103</v>
+      </c>
+      <c r="F2952" t="s">
+        <v>6625</v>
+      </c>
+      <c r="G2952">
+        <v>0</v>
+      </c>
+      <c r="H2952">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2953" spans="1:8">
+      <c r="A2953">
+        <v>2952</v>
+      </c>
+      <c r="B2953">
+        <v>4</v>
+      </c>
+      <c r="C2953">
+        <v>9</v>
+      </c>
+      <c r="D2953" t="s">
+        <v>6626</v>
+      </c>
+      <c r="E2953" t="s">
+        <v>6627</v>
+      </c>
+      <c r="F2953" t="s">
+        <v>6628</v>
+      </c>
+      <c r="G2953">
+        <v>0</v>
+      </c>
+      <c r="H2953">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2954" spans="1:8">
+      <c r="A2954">
+        <v>2953</v>
+      </c>
+      <c r="B2954">
+        <v>4</v>
+      </c>
+      <c r="C2954">
+        <v>9</v>
+      </c>
+      <c r="D2954" t="s">
+        <v>6629</v>
+      </c>
+      <c r="E2954" t="s">
+        <v>6627</v>
+      </c>
+      <c r="F2954" t="s">
+        <v>6630</v>
+      </c>
+      <c r="G2954">
+        <v>0</v>
+      </c>
+      <c r="H2954">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2955" spans="1:8">
+      <c r="A2955">
+        <v>2954</v>
+      </c>
+      <c r="B2955">
+        <v>4</v>
+      </c>
+      <c r="C2955">
+        <v>9</v>
+      </c>
+      <c r="D2955" t="s">
+        <v>6631</v>
+      </c>
+      <c r="E2955" t="s">
+        <v>6632</v>
+      </c>
+      <c r="F2955" t="s">
+        <v>6630</v>
+      </c>
+      <c r="G2955">
+        <v>0</v>
+      </c>
+      <c r="H2955">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2956" spans="1:8">
+      <c r="A2956">
+        <v>2955</v>
+      </c>
+      <c r="B2956">
+        <v>4</v>
+      </c>
+      <c r="C2956">
+        <v>9</v>
+      </c>
+      <c r="D2956" t="s">
+        <v>5757</v>
+      </c>
+      <c r="E2956" t="s">
+        <v>6633</v>
+      </c>
+      <c r="F2956" t="s">
+        <v>6634</v>
+      </c>
+      <c r="G2956">
+        <v>0</v>
+      </c>
+      <c r="H2956">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2957" spans="1:8">
+      <c r="A2957">
+        <v>2956</v>
+      </c>
+      <c r="B2957">
+        <v>4</v>
+      </c>
+      <c r="C2957">
+        <v>9</v>
+      </c>
+      <c r="D2957" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2957" t="s">
+        <v>6633</v>
+      </c>
+      <c r="F2957" t="s">
+        <v>6635</v>
+      </c>
+      <c r="G2957">
+        <v>0</v>
+      </c>
+      <c r="H2957">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2958" spans="1:8">
+      <c r="A2958">
+        <v>2957</v>
+      </c>
+      <c r="B2958">
+        <v>4</v>
+      </c>
+      <c r="C2958">
+        <v>9</v>
+      </c>
+      <c r="D2958" t="s">
+        <v>794</v>
+      </c>
+      <c r="E2958" t="s">
+        <v>995</v>
+      </c>
+      <c r="F2958" t="s">
+        <v>6636</v>
+      </c>
+      <c r="G2958">
+        <v>0</v>
+      </c>
+      <c r="H2958">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2959" spans="1:8">
+      <c r="A2959">
+        <v>2958</v>
+      </c>
+      <c r="B2959">
+        <v>4</v>
+      </c>
+      <c r="C2959">
+        <v>9</v>
+      </c>
+      <c r="D2959" t="s">
+        <v>2736</v>
+      </c>
+      <c r="E2959" t="s">
+        <v>6637</v>
+      </c>
+      <c r="F2959" t="s">
+        <v>6638</v>
+      </c>
+      <c r="G2959">
+        <v>0</v>
+      </c>
+      <c r="H2959">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:8">
+      <c r="A2960">
+        <v>2959</v>
+      </c>
+      <c r="B2960">
+        <v>4</v>
+      </c>
+      <c r="C2960">
+        <v>9</v>
+      </c>
+      <c r="D2960" t="s">
+        <v>6639</v>
+      </c>
+      <c r="E2960" t="s">
+        <v>6640</v>
+      </c>
+      <c r="F2960" t="s">
+        <v>6641</v>
+      </c>
+      <c r="G2960">
+        <v>0</v>
+      </c>
+      <c r="H2960">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:8">
+      <c r="A2961">
+        <v>2960</v>
+      </c>
+      <c r="B2961">
+        <v>4</v>
+      </c>
+      <c r="C2961">
+        <v>9</v>
+      </c>
+      <c r="D2961" t="s">
+        <v>6642</v>
+      </c>
+      <c r="E2961" t="s">
+        <v>6643</v>
+      </c>
+      <c r="F2961" t="s">
+        <v>6644</v>
+      </c>
+      <c r="G2961">
+        <v>0</v>
+      </c>
+      <c r="H2961">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:8">
+      <c r="A2962">
+        <v>2961</v>
+      </c>
+      <c r="B2962">
+        <v>4</v>
+      </c>
+      <c r="C2962">
+        <v>9</v>
+      </c>
+      <c r="D2962" t="s">
+        <v>6645</v>
+      </c>
+      <c r="E2962" t="s">
+        <v>6643</v>
+      </c>
+      <c r="F2962" t="s">
+        <v>6646</v>
+      </c>
+      <c r="G2962">
+        <v>0</v>
+      </c>
+      <c r="H2962">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:8">
+      <c r="A2963">
+        <v>2962</v>
+      </c>
+      <c r="B2963">
+        <v>4</v>
+      </c>
+      <c r="C2963">
+        <v>9</v>
+      </c>
+      <c r="D2963" t="s">
+        <v>6647</v>
+      </c>
+      <c r="E2963" t="s">
+        <v>6648</v>
+      </c>
+      <c r="F2963" t="s">
+        <v>6649</v>
+      </c>
+      <c r="G2963">
+        <v>0</v>
+      </c>
+      <c r="H2963">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:8">
+      <c r="A2964">
+        <v>2963</v>
+      </c>
+      <c r="B2964">
+        <v>4</v>
+      </c>
+      <c r="C2964">
+        <v>9</v>
+      </c>
+      <c r="D2964" t="s">
+        <v>6650</v>
+      </c>
+      <c r="E2964" t="s">
+        <v>6651</v>
+      </c>
+      <c r="F2964" t="s">
+        <v>6652</v>
+      </c>
+      <c r="G2964">
+        <v>0</v>
+      </c>
+      <c r="H2964">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:8">
+      <c r="A2965">
+        <v>2964</v>
+      </c>
+      <c r="B2965">
+        <v>4</v>
+      </c>
+      <c r="C2965">
+        <v>9</v>
+      </c>
+      <c r="D2965" t="s">
+        <v>6653</v>
+      </c>
+      <c r="E2965" t="s">
+        <v>6654</v>
+      </c>
+      <c r="F2965" t="s">
+        <v>6655</v>
+      </c>
+      <c r="G2965">
+        <v>0</v>
+      </c>
+      <c r="H2965">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:8">
+      <c r="A2966">
+        <v>2965</v>
+      </c>
+      <c r="B2966">
+        <v>4</v>
+      </c>
+      <c r="C2966">
+        <v>9</v>
+      </c>
+      <c r="D2966" t="s">
+        <v>6586</v>
+      </c>
+      <c r="E2966" t="s">
+        <v>6656</v>
+      </c>
+      <c r="F2966" t="s">
+        <v>6657</v>
+      </c>
+      <c r="G2966">
+        <v>0</v>
+      </c>
+      <c r="H2966">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:8">
+      <c r="A2967">
+        <v>2966</v>
+      </c>
+      <c r="B2967">
+        <v>4</v>
+      </c>
+      <c r="C2967">
+        <v>9</v>
+      </c>
+      <c r="D2967" t="s">
+        <v>1910</v>
+      </c>
+      <c r="E2967" t="s">
+        <v>421</v>
+      </c>
+      <c r="F2967" t="s">
+        <v>6658</v>
+      </c>
+      <c r="G2967">
+        <v>0</v>
+      </c>
+      <c r="H2967">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:8">
+      <c r="A2968">
+        <v>2967</v>
+      </c>
+      <c r="B2968">
+        <v>4</v>
+      </c>
+      <c r="C2968">
+        <v>9</v>
+      </c>
+      <c r="D2968" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E2968" t="s">
+        <v>6659</v>
+      </c>
+      <c r="F2968" t="s">
+        <v>6660</v>
+      </c>
+      <c r="G2968">
+        <v>0</v>
+      </c>
+      <c r="H2968">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:8">
+      <c r="A2969">
+        <v>2968</v>
+      </c>
+      <c r="B2969">
+        <v>4</v>
+      </c>
+      <c r="C2969">
+        <v>9</v>
+      </c>
+      <c r="D2969" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E2969" t="s">
+        <v>6661</v>
+      </c>
+      <c r="F2969" t="s">
+        <v>6662</v>
+      </c>
+      <c r="G2969">
+        <v>0</v>
+      </c>
+      <c r="H2969">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:8">
+      <c r="A2970">
+        <v>2969</v>
+      </c>
+      <c r="B2970">
+        <v>4</v>
+      </c>
+      <c r="C2970">
+        <v>9</v>
+      </c>
+      <c r="D2970" t="s">
+        <v>6665</v>
+      </c>
+      <c r="E2970" t="s">
+        <v>6663</v>
+      </c>
+      <c r="F2970" t="s">
+        <v>6664</v>
+      </c>
+      <c r="G2970">
+        <v>0</v>
+      </c>
+      <c r="H2970">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:8">
+      <c r="A2971">
+        <v>2970</v>
+      </c>
+      <c r="B2971">
+        <v>4</v>
+      </c>
+      <c r="C2971">
+        <v>9</v>
+      </c>
+      <c r="D2971" t="s">
+        <v>6666</v>
+      </c>
+      <c r="E2971" t="s">
+        <v>6667</v>
+      </c>
+      <c r="F2971" t="s">
+        <v>6668</v>
+      </c>
+      <c r="G2971">
+        <v>0</v>
+      </c>
+      <c r="H2971">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:8">
+      <c r="A2972">
+        <v>2971</v>
+      </c>
+      <c r="B2972">
+        <v>4</v>
+      </c>
+      <c r="C2972">
+        <v>9</v>
+      </c>
+      <c r="D2972" t="s">
+        <v>6669</v>
+      </c>
+      <c r="E2972" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F2972" t="s">
+        <v>6670</v>
+      </c>
+      <c r="G2972">
+        <v>0</v>
+      </c>
+      <c r="H2972">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:8">
+      <c r="A2973">
+        <v>2972</v>
+      </c>
+      <c r="B2973">
+        <v>4</v>
+      </c>
+      <c r="C2973">
+        <v>9</v>
+      </c>
+      <c r="D2973" t="s">
+        <v>2561</v>
+      </c>
+      <c r="E2973" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F2973" t="s">
+        <v>6670</v>
+      </c>
+      <c r="G2973">
+        <v>0</v>
+      </c>
+      <c r="H2973">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:8">
+      <c r="A2974">
+        <v>2973</v>
+      </c>
+      <c r="B2974">
+        <v>4</v>
+      </c>
+      <c r="C2974">
+        <v>9</v>
+      </c>
+      <c r="D2974" t="s">
+        <v>4260</v>
+      </c>
+      <c r="E2974" t="s">
+        <v>6671</v>
+      </c>
+      <c r="F2974" t="s">
+        <v>6672</v>
+      </c>
+      <c r="G2974">
+        <v>0</v>
+      </c>
+      <c r="H2974">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:8">
+      <c r="A2975">
+        <v>2974</v>
+      </c>
+      <c r="B2975">
+        <v>4</v>
+      </c>
+      <c r="C2975">
+        <v>9</v>
+      </c>
+      <c r="D2975" t="s">
+        <v>3495</v>
+      </c>
+      <c r="E2975" t="s">
+        <v>6673</v>
+      </c>
+      <c r="F2975" t="s">
+        <v>6674</v>
+      </c>
+      <c r="G2975">
+        <v>0</v>
+      </c>
+      <c r="H2975">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:8">
+      <c r="A2976">
+        <v>2975</v>
+      </c>
+      <c r="B2976">
+        <v>4</v>
+      </c>
+      <c r="C2976">
+        <v>9</v>
+      </c>
+      <c r="D2976" t="s">
+        <v>5121</v>
+      </c>
+      <c r="E2976" t="s">
+        <v>6675</v>
+      </c>
+      <c r="F2976" t="s">
+        <v>6676</v>
+      </c>
+      <c r="G2976">
+        <v>0</v>
+      </c>
+      <c r="H2976">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:8">
+      <c r="A2977">
+        <v>2976</v>
+      </c>
+      <c r="B2977">
+        <v>4</v>
+      </c>
+      <c r="C2977">
+        <v>9</v>
+      </c>
+      <c r="D2977" t="s">
+        <v>6677</v>
+      </c>
+      <c r="E2977" t="s">
+        <v>6678</v>
+      </c>
+      <c r="F2977" t="s">
+        <v>6679</v>
+      </c>
+      <c r="G2977">
+        <v>0</v>
+      </c>
+      <c r="H2977">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:8">
+      <c r="A2978">
+        <v>2977</v>
+      </c>
+      <c r="B2978">
+        <v>4</v>
+      </c>
+      <c r="C2978">
+        <v>9</v>
+      </c>
+      <c r="D2978" t="s">
+        <v>6680</v>
+      </c>
+      <c r="E2978" t="s">
+        <v>6681</v>
+      </c>
+      <c r="F2978" t="s">
+        <v>6682</v>
+      </c>
+      <c r="G2978">
+        <v>0</v>
+      </c>
+      <c r="H2978">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:8">
+      <c r="A2979">
+        <v>2978</v>
+      </c>
+      <c r="B2979">
+        <v>4</v>
+      </c>
+      <c r="C2979">
+        <v>9</v>
+      </c>
+      <c r="D2979" t="s">
+        <v>6683</v>
+      </c>
+      <c r="E2979" t="s">
+        <v>6684</v>
+      </c>
+      <c r="F2979" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G2979">
+        <v>0</v>
+      </c>
+      <c r="H2979">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:8">
+      <c r="A2980">
+        <v>2979</v>
+      </c>
+      <c r="B2980">
+        <v>4</v>
+      </c>
+      <c r="C2980">
+        <v>9</v>
+      </c>
+      <c r="D2980" t="s">
+        <v>6685</v>
+      </c>
+      <c r="E2980" t="s">
+        <v>6684</v>
+      </c>
+      <c r="F2980" t="s">
+        <v>2719</v>
+      </c>
+      <c r="G2980">
+        <v>0</v>
+      </c>
+      <c r="H2980">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:8">
+      <c r="A2981">
+        <v>2980</v>
+      </c>
+      <c r="B2981">
+        <v>4</v>
+      </c>
+      <c r="C2981">
+        <v>9</v>
+      </c>
+      <c r="D2981" t="s">
+        <v>3385</v>
+      </c>
+      <c r="E2981" t="s">
+        <v>6686</v>
+      </c>
+      <c r="F2981" t="s">
+        <v>6687</v>
+      </c>
+      <c r="G2981">
+        <v>0</v>
+      </c>
+      <c r="H2981">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:8">
+      <c r="A2982">
+        <v>2981</v>
+      </c>
+      <c r="B2982">
+        <v>4</v>
+      </c>
+      <c r="C2982">
+        <v>9</v>
+      </c>
+      <c r="D2982" t="s">
+        <v>3345</v>
+      </c>
+      <c r="E2982" t="s">
+        <v>2719</v>
+      </c>
+      <c r="F2982" t="s">
+        <v>6688</v>
+      </c>
+      <c r="G2982">
+        <v>0</v>
+      </c>
+      <c r="H2982">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:8">
+      <c r="A2983">
+        <v>2982</v>
+      </c>
+      <c r="B2983">
+        <v>4</v>
+      </c>
+      <c r="C2983">
+        <v>9</v>
+      </c>
+      <c r="D2983" t="s">
+        <v>6689</v>
+      </c>
+      <c r="E2983" t="s">
+        <v>6688</v>
+      </c>
+      <c r="F2983" t="s">
+        <v>6690</v>
+      </c>
+      <c r="G2983">
+        <v>0</v>
+      </c>
+      <c r="H2983">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:8">
+      <c r="A2984">
+        <v>2983</v>
+      </c>
+      <c r="B2984">
+        <v>4</v>
+      </c>
+      <c r="C2984">
+        <v>9</v>
+      </c>
+      <c r="D2984" t="s">
+        <v>6691</v>
+      </c>
+      <c r="E2984" t="s">
+        <v>6688</v>
+      </c>
+      <c r="F2984" t="s">
+        <v>6692</v>
+      </c>
+      <c r="G2984">
+        <v>0</v>
+      </c>
+      <c r="H2984">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:8">
+      <c r="A2985">
+        <v>2984</v>
+      </c>
+      <c r="B2985">
+        <v>4</v>
+      </c>
+      <c r="C2985">
+        <v>9</v>
+      </c>
+      <c r="D2985" t="s">
+        <v>6693</v>
+      </c>
+      <c r="E2985" t="s">
+        <v>6694</v>
+      </c>
+      <c r="F2985" t="s">
+        <v>6695</v>
+      </c>
+      <c r="G2985">
+        <v>0</v>
+      </c>
+      <c r="H2985">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:8">
+      <c r="A2986">
+        <v>2985</v>
+      </c>
+      <c r="B2986">
+        <v>4</v>
+      </c>
+      <c r="C2986">
+        <v>9</v>
+      </c>
+      <c r="D2986" t="s">
+        <v>6696</v>
+      </c>
+      <c r="E2986" t="s">
+        <v>6697</v>
+      </c>
+      <c r="F2986" t="s">
+        <v>6698</v>
+      </c>
+      <c r="G2986">
+        <v>0</v>
+      </c>
+      <c r="H2986">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:8">
+      <c r="A2987">
+        <v>2986</v>
+      </c>
+      <c r="B2987">
+        <v>4</v>
+      </c>
+      <c r="C2987">
+        <v>9</v>
+      </c>
+      <c r="D2987" t="s">
+        <v>6699</v>
+      </c>
+      <c r="E2987" t="s">
+        <v>6700</v>
+      </c>
+      <c r="F2987" t="s">
+        <v>6701</v>
+      </c>
+      <c r="G2987">
+        <v>0</v>
+      </c>
+      <c r="H2987">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:8">
+      <c r="A2988">
+        <v>2987</v>
+      </c>
+      <c r="B2988">
+        <v>4</v>
+      </c>
+      <c r="C2988">
+        <v>9</v>
+      </c>
+      <c r="D2988" t="s">
+        <v>6702</v>
+      </c>
+      <c r="E2988" t="s">
+        <v>6700</v>
+      </c>
+      <c r="F2988" t="s">
+        <v>6703</v>
+      </c>
+      <c r="G2988">
+        <v>0</v>
+      </c>
+      <c r="H2988">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:8">
+      <c r="A2989">
+        <v>2988</v>
+      </c>
+      <c r="B2989">
+        <v>4</v>
+      </c>
+      <c r="C2989">
+        <v>9</v>
+      </c>
+      <c r="D2989" t="s">
+        <v>6680</v>
+      </c>
+      <c r="E2989" t="s">
+        <v>6704</v>
+      </c>
+      <c r="F2989" t="s">
+        <v>6705</v>
+      </c>
+      <c r="G2989">
+        <v>0</v>
+      </c>
+      <c r="H2989">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:8">
+      <c r="A2990">
+        <v>2989</v>
+      </c>
+      <c r="B2990">
+        <v>4</v>
+      </c>
+      <c r="C2990">
+        <v>9</v>
+      </c>
+      <c r="D2990" t="s">
+        <v>6706</v>
+      </c>
+      <c r="E2990" t="s">
+        <v>6707</v>
+      </c>
+      <c r="F2990" t="s">
+        <v>6708</v>
+      </c>
+      <c r="G2990">
+        <v>0</v>
+      </c>
+      <c r="H2990">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:8">
+      <c r="A2991">
+        <v>2990</v>
+      </c>
+      <c r="B2991">
+        <v>4</v>
+      </c>
+      <c r="C2991">
+        <v>9</v>
+      </c>
+      <c r="D2991" t="s">
+        <v>6709</v>
+      </c>
+      <c r="E2991" t="s">
+        <v>6707</v>
+      </c>
+      <c r="F2991" t="s">
+        <v>6710</v>
+      </c>
+      <c r="G2991">
+        <v>0</v>
+      </c>
+      <c r="H2991">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:8">
+      <c r="A2992">
+        <v>2991</v>
+      </c>
+      <c r="B2992">
+        <v>4</v>
+      </c>
+      <c r="C2992">
+        <v>9</v>
+      </c>
+      <c r="D2992" t="s">
+        <v>6586</v>
+      </c>
+      <c r="E2992" t="s">
+        <v>6711</v>
+      </c>
+      <c r="F2992" t="s">
+        <v>6712</v>
+      </c>
+      <c r="G2992">
+        <v>0</v>
+      </c>
+      <c r="H2992">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:8">
+      <c r="A2993">
+        <v>2992</v>
+      </c>
+      <c r="B2993">
+        <v>4</v>
+      </c>
+      <c r="C2993">
+        <v>9</v>
+      </c>
+      <c r="D2993" t="s">
+        <v>6713</v>
+      </c>
+      <c r="E2993" t="s">
+        <v>6714</v>
+      </c>
+      <c r="F2993" t="s">
+        <v>6715</v>
+      </c>
+      <c r="G2993">
+        <v>0</v>
+      </c>
+      <c r="H2993">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:8">
+      <c r="A2994">
+        <v>2993</v>
+      </c>
+      <c r="B2994">
+        <v>4</v>
+      </c>
+      <c r="C2994">
+        <v>9</v>
+      </c>
+      <c r="D2994" t="s">
+        <v>6716</v>
+      </c>
+      <c r="E2994" t="s">
+        <v>6714</v>
+      </c>
+      <c r="F2994" t="s">
+        <v>6717</v>
+      </c>
+      <c r="G2994">
+        <v>0</v>
+      </c>
+      <c r="H2994">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:8">
+      <c r="A2995">
+        <v>2994</v>
+      </c>
+      <c r="B2995">
+        <v>4</v>
+      </c>
+      <c r="C2995">
+        <v>9</v>
+      </c>
+      <c r="D2995" t="s">
+        <v>299</v>
+      </c>
+      <c r="E2995" t="s">
+        <v>6718</v>
+      </c>
+      <c r="F2995" t="s">
+        <v>6719</v>
+      </c>
+      <c r="G2995">
+        <v>0</v>
+      </c>
+      <c r="H2995">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:8">
+      <c r="A2996">
+        <v>2995</v>
+      </c>
+      <c r="B2996">
+        <v>4</v>
+      </c>
+      <c r="C2996">
+        <v>9</v>
+      </c>
+      <c r="D2996" t="s">
+        <v>4159</v>
+      </c>
+      <c r="E2996" t="s">
+        <v>6720</v>
+      </c>
+      <c r="F2996" t="s">
+        <v>6721</v>
+      </c>
+      <c r="G2996">
+        <v>0</v>
+      </c>
+      <c r="H2996">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:8">
+      <c r="A2997">
+        <v>2996</v>
+      </c>
+      <c r="B2997">
+        <v>4</v>
+      </c>
+      <c r="C2997">
+        <v>9</v>
+      </c>
+      <c r="D2997" t="s">
+        <v>2561</v>
+      </c>
+      <c r="E2997" t="s">
+        <v>6722</v>
+      </c>
+      <c r="F2997" t="s">
+        <v>6723</v>
+      </c>
+      <c r="G2997">
+        <v>0</v>
+      </c>
+      <c r="H2997">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:8">
+      <c r="A2998">
+        <v>2997</v>
+      </c>
+      <c r="B2998">
+        <v>4</v>
+      </c>
+      <c r="C2998">
+        <v>9</v>
+      </c>
+      <c r="D2998" t="s">
+        <v>634</v>
+      </c>
+      <c r="E2998" t="s">
+        <v>6724</v>
+      </c>
+      <c r="F2998" t="s">
+        <v>6725</v>
+      </c>
+      <c r="G2998">
+        <v>0</v>
+      </c>
+      <c r="H2998">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:8">
+      <c r="A2999">
+        <v>2998</v>
+      </c>
+      <c r="B2999">
+        <v>4</v>
+      </c>
+      <c r="C2999">
+        <v>9</v>
+      </c>
+      <c r="D2999" t="s">
+        <v>6726</v>
+      </c>
+      <c r="E2999" t="s">
+        <v>442</v>
+      </c>
+      <c r="F2999" t="s">
+        <v>6725</v>
+      </c>
+      <c r="G2999">
+        <v>0</v>
+      </c>
+      <c r="H2999">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:8">
+      <c r="A3000">
+        <v>2999</v>
+      </c>
+      <c r="B3000">
+        <v>4</v>
+      </c>
+      <c r="C3000">
+        <v>9</v>
+      </c>
+      <c r="D3000" t="s">
+        <v>6727</v>
+      </c>
+      <c r="E3000" t="s">
+        <v>6728</v>
+      </c>
+      <c r="F3000" t="s">
+        <v>6729</v>
+      </c>
+      <c r="G3000">
+        <v>0</v>
+      </c>
+      <c r="H3000">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:8">
+      <c r="A3001">
+        <v>3000</v>
+      </c>
+      <c r="B3001">
+        <v>4</v>
+      </c>
+      <c r="C3001">
+        <v>9</v>
+      </c>
+      <c r="D3001" t="s">
+        <v>3075</v>
+      </c>
+      <c r="E3001" t="s">
+        <v>455</v>
+      </c>
+      <c r="F3001" t="s">
+        <v>6730</v>
+      </c>
+      <c r="G3001">
+        <v>0</v>
+      </c>
+      <c r="H3001">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
